--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\NVT_Data-Model\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7340CD-73AD-49C6-A156-6B0CCFF4A312}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68CFF02-56E7-4A4C-ACFA-EE955F49F8D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CBD947D1-2C33-4D11-A007-77348F675747}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CBD947D1-2C33-4D11-A007-77348F675747}"/>
   </bookViews>
   <sheets>
     <sheet name="Subjects" sheetId="17" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="906">
   <si>
     <t>Basisinformationen</t>
   </si>
@@ -2432,9 +2432,6 @@
     <t>Created</t>
   </si>
   <si>
-    <t>has Type</t>
-  </si>
-  <si>
     <t>Creator</t>
   </si>
   <si>
@@ -2793,6 +2790,12 @@
   </si>
   <si>
     <t>subject ungenau</t>
+  </si>
+  <si>
+    <t>edm:type</t>
+  </si>
+  <si>
+    <t>Europeana Type</t>
   </si>
 </sst>
 </file>
@@ -3983,7 +3986,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4775,9 +4778,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="61" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5024,6 +5024,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5400,7 +5409,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="322" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -5417,7 +5426,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="323"/>
+      <c r="A3" s="322"/>
       <c r="B3" s="18" t="s">
         <v>64</v>
       </c>
@@ -5432,7 +5441,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25">
-      <c r="A4" s="323"/>
+      <c r="A4" s="322"/>
       <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
@@ -5447,7 +5456,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="39">
-      <c r="A5" s="323"/>
+      <c r="A5" s="322"/>
       <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
@@ -5468,7 +5477,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25">
-      <c r="A6" s="323"/>
+      <c r="A6" s="322"/>
       <c r="B6" s="17" t="s">
         <v>67</v>
       </c>
@@ -5486,7 +5495,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="323"/>
+      <c r="A7" s="322"/>
       <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
@@ -5502,7 +5511,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="323"/>
+      <c r="A8" s="322"/>
       <c r="B8" s="19" t="s">
         <v>69</v>
       </c>
@@ -5518,10 +5527,10 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="335" t="s">
+      <c r="A9" s="334" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="335"/>
+      <c r="B9" s="334"/>
       <c r="C9" s="30" t="s">
         <v>38</v>
       </c>
@@ -5531,7 +5540,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="51.75">
-      <c r="A10" s="380" t="s">
+      <c r="A10" s="379" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -5554,7 +5563,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="336"/>
+      <c r="A11" s="335"/>
       <c r="B11" s="14" t="s">
         <v>71</v>
       </c>
@@ -5573,7 +5582,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="337"/>
+      <c r="A12" s="336"/>
       <c r="B12" s="15" t="s">
         <v>166</v>
       </c>
@@ -5586,7 +5595,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="338" t="s">
+      <c r="A13" s="337" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -5610,7 +5619,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="338"/>
+      <c r="A14" s="337"/>
       <c r="B14" s="20" t="s">
         <v>74</v>
       </c>
@@ -5635,7 +5644,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="338"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="20" t="s">
         <v>75</v>
       </c>
@@ -5657,7 +5666,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="338"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="20" t="s">
         <v>76</v>
       </c>
@@ -5682,7 +5691,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="339" t="s">
+      <c r="A17" s="338" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -5703,7 +5712,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="339"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="22" t="s">
         <v>78</v>
       </c>
@@ -5722,7 +5731,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="339"/>
+      <c r="A19" s="338"/>
       <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
@@ -5741,7 +5750,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="339"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="21" t="s">
         <v>80</v>
       </c>
@@ -5754,7 +5763,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="39">
-      <c r="A21" s="325" t="s">
+      <c r="A21" s="324" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5780,7 +5789,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="39">
-      <c r="A22" s="325"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="3" t="s">
         <v>83</v>
       </c>
@@ -5807,7 +5816,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="39">
-      <c r="A23" s="325"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="23" t="s">
         <v>168</v>
       </c>
@@ -5831,7 +5840,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="39">
-      <c r="A24" s="325"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="3" t="s">
         <v>169</v>
       </c>
@@ -5855,7 +5864,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25">
-      <c r="A25" s="325"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="23" t="s">
         <v>84</v>
       </c>
@@ -5900,7 +5909,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="373" t="s">
+      <c r="A27" s="372" t="s">
         <v>143</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -5923,7 +5932,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="51.75">
-      <c r="A28" s="374"/>
+      <c r="A28" s="373"/>
       <c r="B28" s="11" t="s">
         <v>89</v>
       </c>
@@ -5944,7 +5953,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.25">
-      <c r="A29" s="374"/>
+      <c r="A29" s="373"/>
       <c r="B29" s="11" t="s">
         <v>90</v>
       </c>
@@ -5965,7 +5974,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="374"/>
+      <c r="A30" s="373"/>
       <c r="B30" s="11" t="s">
         <v>33</v>
       </c>
@@ -5987,7 +5996,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="375"/>
+      <c r="A31" s="374"/>
       <c r="B31" s="11" t="s">
         <v>34</v>
       </c>
@@ -6009,7 +6018,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="26.25">
-      <c r="A32" s="376" t="s">
+      <c r="A32" s="375" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="67" t="s">
@@ -6032,7 +6041,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="377"/>
+      <c r="A33" s="376"/>
       <c r="B33" s="67" t="s">
         <v>92</v>
       </c>
@@ -6053,7 +6062,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="377"/>
+      <c r="A34" s="376"/>
       <c r="B34" s="68" t="s">
         <v>93</v>
       </c>
@@ -6071,7 +6080,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="377"/>
+      <c r="A35" s="376"/>
       <c r="B35" s="68" t="s">
         <v>94</v>
       </c>
@@ -6089,7 +6098,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="377"/>
+      <c r="A36" s="376"/>
       <c r="B36" s="68" t="s">
         <v>95</v>
       </c>
@@ -6107,7 +6116,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="377"/>
+      <c r="A37" s="376"/>
       <c r="B37" s="67" t="s">
         <v>96</v>
       </c>
@@ -6126,7 +6135,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="377"/>
+      <c r="A38" s="376"/>
       <c r="B38" s="67" t="s">
         <v>97</v>
       </c>
@@ -6145,7 +6154,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="377"/>
+      <c r="A39" s="376"/>
       <c r="B39" s="36" t="s">
         <v>98</v>
       </c>
@@ -6161,7 +6170,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="378"/>
+      <c r="A40" s="377"/>
       <c r="B40" s="37" t="s">
         <v>99</v>
       </c>
@@ -6177,7 +6186,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="26.25">
-      <c r="A41" s="379" t="s">
+      <c r="A41" s="378" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="71" t="s">
@@ -6200,7 +6209,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="25.5">
-      <c r="A42" s="379"/>
+      <c r="A42" s="378"/>
       <c r="B42" s="71" t="s">
         <v>100</v>
       </c>
@@ -6218,7 +6227,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="379"/>
+      <c r="A43" s="378"/>
       <c r="B43" s="71" t="s">
         <v>101</v>
       </c>
@@ -6234,7 +6243,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="379"/>
+      <c r="A44" s="378"/>
       <c r="B44" s="26" t="s">
         <v>102</v>
       </c>
@@ -6397,7 +6406,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="382" t="s">
+      <c r="A6" s="381" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -6415,7 +6424,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="382"/>
+      <c r="A7" s="381"/>
       <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
@@ -6425,7 +6434,7 @@
       <c r="D7" s="79"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A8" s="383" t="s">
+      <c r="A8" s="382" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="56" t="s">
@@ -6445,7 +6454,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="383"/>
+      <c r="A9" s="382"/>
       <c r="B9" s="56" t="s">
         <v>104</v>
       </c>
@@ -6463,7 +6472,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="383"/>
+      <c r="A10" s="382"/>
       <c r="B10" s="27" t="s">
         <v>36</v>
       </c>
@@ -6478,7 +6487,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="381" t="s">
+      <c r="A11" s="380" t="s">
         <v>177</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -6499,7 +6508,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="381"/>
+      <c r="A12" s="380"/>
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
@@ -6515,7 +6524,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A13" s="381"/>
+      <c r="A13" s="380"/>
       <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
@@ -6531,7 +6540,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="381"/>
+      <c r="A14" s="380"/>
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
@@ -6549,7 +6558,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" s="381"/>
+      <c r="A15" s="380"/>
       <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
@@ -6567,7 +6576,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A16" s="381"/>
+      <c r="A16" s="380"/>
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -7486,25 +7495,25 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="383" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="384"/>
+      <c r="B1" s="383"/>
       <c r="C1" s="93"/>
-      <c r="D1" s="384" t="s">
+      <c r="D1" s="383" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="384"/>
+      <c r="E1" s="383"/>
       <c r="F1" s="82"/>
-      <c r="G1" s="385" t="s">
+      <c r="G1" s="384" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="385"/>
+      <c r="H1" s="384"/>
       <c r="I1" s="82"/>
-      <c r="J1" s="386" t="s">
+      <c r="J1" s="385" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="386"/>
+      <c r="K1" s="385"/>
       <c r="L1" s="82"/>
       <c r="M1" s="81" t="s">
         <v>234</v>
@@ -7518,15 +7527,15 @@
         <v>236</v>
       </c>
       <c r="R1" s="82"/>
-      <c r="S1" s="384" t="s">
+      <c r="S1" s="383" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="384"/>
+      <c r="T1" s="383"/>
       <c r="U1" s="82"/>
-      <c r="V1" s="384" t="s">
+      <c r="V1" s="383" t="s">
         <v>238</v>
       </c>
-      <c r="W1" s="384"/>
+      <c r="W1" s="383"/>
       <c r="X1" s="82"/>
       <c r="Y1" s="90" t="s">
         <v>239</v>
@@ -9101,10 +9110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016E62FF-7053-4FDB-9A89-033051574350}">
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9137,7 +9146,7 @@
         <v>438</v>
       </c>
       <c r="D1" s="259" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E1" s="259" t="s">
         <v>442</v>
@@ -9159,8 +9168,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="311" t="s">
-        <v>822</v>
+      <c r="A2" s="310" t="s">
+        <v>821</v>
       </c>
       <c r="B2" s="290" t="s">
         <v>677</v>
@@ -9169,10 +9178,10 @@
         <v>779</v>
       </c>
       <c r="D2" s="296" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E2" s="264" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F2" s="263"/>
       <c r="G2" s="263"/>
@@ -9181,7 +9190,7 @@
       <c r="J2" s="265"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="310"/>
+      <c r="A3" s="309"/>
       <c r="B3" s="291" t="s">
         <v>556</v>
       </c>
@@ -9189,10 +9198,10 @@
         <v>782</v>
       </c>
       <c r="D3" s="297" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E3" s="268" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F3" s="267"/>
       <c r="G3" s="267"/>
@@ -9201,8 +9210,8 @@
       <c r="J3" s="269"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="309" t="s">
-        <v>823</v>
+      <c r="A4" s="308" t="s">
+        <v>822</v>
       </c>
       <c r="B4" s="292" t="s">
         <v>718</v>
@@ -9211,21 +9220,21 @@
         <v>727</v>
       </c>
       <c r="D4" s="298" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E4" s="272" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F4" s="271"/>
       <c r="G4" s="271"/>
       <c r="H4" s="271"/>
       <c r="I4" s="271"/>
       <c r="J4" s="273" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="307"/>
+      <c r="A5" s="306"/>
       <c r="B5" s="293" t="s">
         <v>493</v>
       </c>
@@ -9233,33 +9242,33 @@
         <v>768</v>
       </c>
       <c r="D5" s="299" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E5" s="276" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="307"/>
+      <c r="A6" s="306"/>
       <c r="B6" s="293" t="s">
         <v>725</v>
       </c>
       <c r="C6" s="275" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D6" s="299" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E6" s="276" t="s">
+        <v>837</v>
+      </c>
+      <c r="J6" s="277" t="s">
         <v>838</v>
       </c>
-      <c r="J6" s="277" t="s">
-        <v>839</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="307"/>
+      <c r="A7" s="306"/>
       <c r="B7" s="293" t="s">
         <v>720</v>
       </c>
@@ -9267,15 +9276,15 @@
         <v>760</v>
       </c>
       <c r="D7" s="299" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E7" s="276" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J7" s="277"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="307"/>
+      <c r="A8" s="306"/>
       <c r="B8" s="293" t="s">
         <v>717</v>
       </c>
@@ -9283,17 +9292,17 @@
         <v>714</v>
       </c>
       <c r="D8" s="299" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E8" s="276" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J8" s="277" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="307"/>
+      <c r="A9" s="306"/>
       <c r="B9" s="293" t="s">
         <v>502</v>
       </c>
@@ -9301,17 +9310,17 @@
         <v>771</v>
       </c>
       <c r="D9" s="299" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E9" s="276" t="s">
+        <v>843</v>
+      </c>
+      <c r="J9" s="277" t="s">
         <v>844</v>
       </c>
-      <c r="J9" s="277" t="s">
-        <v>845</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="307"/>
+      <c r="A10" s="306"/>
       <c r="B10" s="293" t="s">
         <v>722</v>
       </c>
@@ -9319,17 +9328,17 @@
         <v>770</v>
       </c>
       <c r="D10" s="299" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E10" s="276" t="s">
+        <v>845</v>
+      </c>
+      <c r="J10" s="277" t="s">
         <v>846</v>
       </c>
-      <c r="J10" s="277" t="s">
-        <v>847</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="307"/>
+      <c r="A11" s="306"/>
       <c r="B11" s="293" t="s">
         <v>721</v>
       </c>
@@ -9337,17 +9346,17 @@
         <v>762</v>
       </c>
       <c r="D11" s="299" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E11" s="276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J11" s="277" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="307"/>
+      <c r="A12" s="306"/>
       <c r="B12" s="293" t="s">
         <v>563</v>
       </c>
@@ -9355,17 +9364,17 @@
         <v>763</v>
       </c>
       <c r="D12" s="299" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E12" s="276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J12" s="277" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="307"/>
+      <c r="A13" s="306"/>
       <c r="B13" s="293" t="s">
         <v>724</v>
       </c>
@@ -9373,15 +9382,15 @@
         <v>781</v>
       </c>
       <c r="D13" s="299" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E13" s="276" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J13" s="277"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="307"/>
+      <c r="A14" s="306"/>
       <c r="B14" s="293" t="s">
         <v>559</v>
       </c>
@@ -9389,15 +9398,15 @@
         <v>767</v>
       </c>
       <c r="D14" s="299" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E14" s="276" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J14" s="277"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="307"/>
+      <c r="A15" s="306"/>
       <c r="B15" s="293" t="s">
         <v>694</v>
       </c>
@@ -9405,15 +9414,15 @@
         <v>759</v>
       </c>
       <c r="D15" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E15" s="276" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J15" s="277"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="307"/>
+      <c r="A16" s="306"/>
       <c r="B16" s="293" t="s">
         <v>505</v>
       </c>
@@ -9421,15 +9430,15 @@
         <v>772</v>
       </c>
       <c r="D16" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" s="276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J16" s="277"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="307"/>
+      <c r="A17" s="306"/>
       <c r="B17" s="293" t="s">
         <v>723</v>
       </c>
@@ -9437,17 +9446,17 @@
         <v>776</v>
       </c>
       <c r="D17" s="299" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E17" s="276" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J17" s="277" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="307"/>
+      <c r="A18" s="306"/>
       <c r="B18" s="293" t="s">
         <v>715</v>
       </c>
@@ -9455,17 +9464,17 @@
         <v>726</v>
       </c>
       <c r="D18" s="299" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E18" s="276" t="s">
+        <v>852</v>
+      </c>
+      <c r="J18" s="277" t="s">
         <v>853</v>
       </c>
-      <c r="J18" s="277" t="s">
-        <v>854</v>
-      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="307"/>
+      <c r="A19" s="306"/>
       <c r="B19" s="293" t="s">
         <v>568</v>
       </c>
@@ -9473,17 +9482,17 @@
         <v>773</v>
       </c>
       <c r="D19" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E19" s="276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J19" s="277" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="307"/>
+      <c r="A20" s="306"/>
       <c r="B20" s="293" t="s">
         <v>496</v>
       </c>
@@ -9491,17 +9500,17 @@
         <v>769</v>
       </c>
       <c r="D20" s="299" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E20" s="276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J20" s="277" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="307"/>
+      <c r="A21" s="306"/>
       <c r="B21" s="293" t="s">
         <v>719</v>
       </c>
@@ -9509,17 +9518,17 @@
         <v>756</v>
       </c>
       <c r="D21" s="299" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E21" s="276" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J21" s="277" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="307"/>
+      <c r="A22" s="306"/>
       <c r="B22" s="293" t="s">
         <v>512</v>
       </c>
@@ -9527,33 +9536,33 @@
         <v>775</v>
       </c>
       <c r="D22" s="299" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E22" s="276" t="s">
+        <v>832</v>
+      </c>
+      <c r="J22" s="277"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="306"/>
+      <c r="B23" s="293" t="s">
+        <v>801</v>
+      </c>
+      <c r="C23" s="275" t="s">
+        <v>802</v>
+      </c>
+      <c r="D23" s="299" t="s">
+        <v>811</v>
+      </c>
+      <c r="E23" s="276" t="s">
         <v>833</v>
       </c>
-      <c r="J22" s="277"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="307"/>
-      <c r="B23" s="293" t="s">
-        <v>802</v>
-      </c>
-      <c r="C23" s="275" t="s">
-        <v>803</v>
-      </c>
-      <c r="D23" s="299" t="s">
-        <v>812</v>
-      </c>
-      <c r="E23" s="276" t="s">
-        <v>834</v>
-      </c>
       <c r="J23" s="277" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
-      <c r="A24" s="310"/>
+      <c r="A24" s="309"/>
       <c r="B24" s="291" t="s">
         <v>716</v>
       </c>
@@ -9561,10 +9570,10 @@
         <v>713</v>
       </c>
       <c r="D24" s="297" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E24" s="268" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F24" s="267"/>
       <c r="G24" s="267"/>
@@ -9573,20 +9582,20 @@
       <c r="J24" s="269"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="309" t="s">
-        <v>824</v>
+      <c r="A25" s="308" t="s">
+        <v>823</v>
       </c>
       <c r="B25" s="292" t="s">
         <v>578</v>
       </c>
       <c r="C25" s="270" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D25" s="298" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E25" s="272" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F25" s="271"/>
       <c r="G25" s="271"/>
@@ -9595,23 +9604,23 @@
       <c r="J25" s="273"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="307"/>
+      <c r="A26" s="306"/>
       <c r="B26" s="293" t="s">
         <v>579</v>
       </c>
       <c r="C26" s="275" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D26" s="299" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E26" s="276" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J26" s="277"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="310"/>
+      <c r="A27" s="309"/>
       <c r="B27" s="291" t="s">
         <v>465</v>
       </c>
@@ -9619,10 +9628,10 @@
         <v>764</v>
       </c>
       <c r="D27" s="297" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E27" s="268" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F27" s="267"/>
       <c r="G27" s="267"/>
@@ -9631,8 +9640,8 @@
       <c r="J27" s="269"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="309" t="s">
-        <v>825</v>
+      <c r="A28" s="308" t="s">
+        <v>824</v>
       </c>
       <c r="B28" s="292" t="s">
         <v>485</v>
@@ -9641,10 +9650,10 @@
         <v>739</v>
       </c>
       <c r="D28" s="298" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E28" s="272" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F28" s="271"/>
       <c r="G28" s="271"/>
@@ -9653,7 +9662,7 @@
       <c r="J28" s="273"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="307"/>
+      <c r="A29" s="306"/>
       <c r="B29" s="293" t="s">
         <v>616</v>
       </c>
@@ -9661,15 +9670,15 @@
         <v>729</v>
       </c>
       <c r="D29" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E29" s="276" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J29" s="277"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="307"/>
+      <c r="A30" s="306"/>
       <c r="B30" s="293" t="s">
         <v>478</v>
       </c>
@@ -9677,15 +9686,15 @@
         <v>732</v>
       </c>
       <c r="D30" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E30" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J30" s="277"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="307"/>
+      <c r="A31" s="306"/>
       <c r="B31" s="293" t="s">
         <v>490</v>
       </c>
@@ -9693,15 +9702,15 @@
         <v>743</v>
       </c>
       <c r="D31" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E31" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J31" s="277"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="307"/>
+      <c r="A32" s="306"/>
       <c r="B32" s="293" t="s">
         <v>608</v>
       </c>
@@ -9709,15 +9718,15 @@
         <v>728</v>
       </c>
       <c r="D32" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E32" s="276" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J32" s="277"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="307"/>
+      <c r="A33" s="306"/>
       <c r="B33" s="293" t="s">
         <v>481</v>
       </c>
@@ -9725,15 +9734,15 @@
         <v>735</v>
       </c>
       <c r="D33" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E33" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J33" s="277"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="307"/>
+      <c r="A34" s="306"/>
       <c r="B34" s="293" t="s">
         <v>486</v>
       </c>
@@ -9741,15 +9750,15 @@
         <v>740</v>
       </c>
       <c r="D34" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E34" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J34" s="277"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="307"/>
+      <c r="A35" s="306"/>
       <c r="B35" s="293" t="s">
         <v>539</v>
       </c>
@@ -9757,15 +9766,15 @@
         <v>731</v>
       </c>
       <c r="D35" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E35" s="276" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J35" s="277"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="307"/>
+      <c r="A36" s="306"/>
       <c r="B36" s="293" t="s">
         <v>479</v>
       </c>
@@ -9773,15 +9782,15 @@
         <v>733</v>
       </c>
       <c r="D36" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E36" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J36" s="277"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="307"/>
+      <c r="A37" s="306"/>
       <c r="B37" s="293" t="s">
         <v>553</v>
       </c>
@@ -9789,15 +9798,15 @@
         <v>744</v>
       </c>
       <c r="D37" s="299" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E37" s="276" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J37" s="277"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="307"/>
+      <c r="A38" s="306"/>
       <c r="B38" s="293" t="s">
         <v>483</v>
       </c>
@@ -9805,15 +9814,15 @@
         <v>738</v>
       </c>
       <c r="D38" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E38" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J38" s="277"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="307"/>
+      <c r="A39" s="306"/>
       <c r="B39" s="293" t="s">
         <v>482</v>
       </c>
@@ -9821,15 +9830,15 @@
         <v>737</v>
       </c>
       <c r="D39" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E39" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J39" s="277"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="307"/>
+      <c r="A40" s="306"/>
       <c r="B40" s="293" t="s">
         <v>489</v>
       </c>
@@ -9837,15 +9846,15 @@
         <v>742</v>
       </c>
       <c r="D40" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E40" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J40" s="277"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="307"/>
+      <c r="A41" s="306"/>
       <c r="B41" s="293" t="s">
         <v>487</v>
       </c>
@@ -9853,15 +9862,15 @@
         <v>741</v>
       </c>
       <c r="D41" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E41" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J41" s="277"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="307"/>
+      <c r="A42" s="306"/>
       <c r="B42" s="293" t="s">
         <v>488</v>
       </c>
@@ -9869,15 +9878,15 @@
         <v>736</v>
       </c>
       <c r="D42" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E42" s="276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J42" s="277"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="310"/>
+      <c r="A43" s="309"/>
       <c r="B43" s="291" t="s">
         <v>480</v>
       </c>
@@ -9885,22 +9894,22 @@
         <v>734</v>
       </c>
       <c r="D43" s="297" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E43" s="268" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F43" s="267"/>
       <c r="G43" s="267"/>
       <c r="H43" s="267"/>
       <c r="I43" s="267"/>
       <c r="J43" s="269" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="309" t="s">
-        <v>807</v>
+      <c r="A44" s="308" t="s">
+        <v>806</v>
       </c>
       <c r="B44" s="292" t="s">
         <v>544</v>
@@ -9909,10 +9918,10 @@
         <v>757</v>
       </c>
       <c r="D44" s="298" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E44" s="272" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F44" s="271"/>
       <c r="G44" s="271"/>
@@ -9921,48 +9930,48 @@
       <c r="J44" s="273"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="307"/>
+      <c r="A45" s="306"/>
       <c r="B45" s="293" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C45" s="275" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D45" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E45" s="276" t="s">
+        <v>863</v>
+      </c>
+      <c r="J45" s="277" t="s">
         <v>864</v>
       </c>
-      <c r="J45" s="277" t="s">
-        <v>865</v>
-      </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="310"/>
+      <c r="A46" s="309"/>
       <c r="B46" s="291" t="s">
         <v>582</v>
       </c>
       <c r="C46" s="266" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D46" s="297" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E46" s="268" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F46" s="267"/>
       <c r="G46" s="267"/>
       <c r="H46" s="267"/>
       <c r="I46" s="267"/>
       <c r="J46" s="269" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="309" t="s">
-        <v>826</v>
+      <c r="A47" s="386" t="s">
+        <v>825</v>
       </c>
       <c r="B47" s="292" t="s">
         <v>747</v>
@@ -9971,21 +9980,21 @@
         <v>750</v>
       </c>
       <c r="D47" s="298" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E47" s="272" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F47" s="271"/>
       <c r="G47" s="271"/>
       <c r="H47" s="271"/>
       <c r="I47" s="271"/>
       <c r="J47" s="273" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="307"/>
+      <c r="A48" s="387"/>
       <c r="B48" s="293" t="s">
         <v>748</v>
       </c>
@@ -9993,33 +10002,33 @@
         <v>749</v>
       </c>
       <c r="D48" s="299" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E48" s="276" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J48" s="277"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="307"/>
+      <c r="A49" s="387"/>
       <c r="B49" s="293" t="s">
         <v>545</v>
       </c>
       <c r="C49" s="275" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D49" s="299" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E49" s="276" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J49" s="277" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="307"/>
+      <c r="A50" s="387"/>
       <c r="B50" s="293" t="s">
         <v>606</v>
       </c>
@@ -10027,17 +10036,17 @@
         <v>774</v>
       </c>
       <c r="D50" s="299" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E50" s="276" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J50" s="277" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="307"/>
+      <c r="A51" s="387"/>
       <c r="B51" s="293" t="s">
         <v>600</v>
       </c>
@@ -10045,391 +10054,395 @@
         <v>761</v>
       </c>
       <c r="D51" s="299" t="s">
+        <v>799</v>
+      </c>
+      <c r="E51" s="276" t="s">
+        <v>839</v>
+      </c>
+      <c r="J51" s="277"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="387"/>
+      <c r="B52" s="293" t="s">
+        <v>904</v>
+      </c>
+      <c r="C52" s="275" t="s">
+        <v>905</v>
+      </c>
+      <c r="D52" s="299" t="s">
+        <v>799</v>
+      </c>
+      <c r="E52" s="276" t="s">
+        <v>839</v>
+      </c>
+      <c r="J52" s="277"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="388"/>
+      <c r="B53" s="291" t="s">
+        <v>495</v>
+      </c>
+      <c r="C53" s="266" t="s">
+        <v>758</v>
+      </c>
+      <c r="D53" s="297" t="s">
+        <v>799</v>
+      </c>
+      <c r="E53" s="268" t="s">
+        <v>839</v>
+      </c>
+      <c r="F53" s="267"/>
+      <c r="G53" s="267"/>
+      <c r="H53" s="267"/>
+      <c r="I53" s="267"/>
+      <c r="J53" s="269" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="308" t="s">
+        <v>826</v>
+      </c>
+      <c r="B54" s="292" t="s">
+        <v>577</v>
+      </c>
+      <c r="C54" s="270" t="s">
+        <v>787</v>
+      </c>
+      <c r="D54" s="298" t="s">
         <v>800</v>
       </c>
-      <c r="E51" s="276" t="s">
-        <v>840</v>
-      </c>
-      <c r="J51" s="277"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="310"/>
-      <c r="B52" s="291" t="s">
-        <v>495</v>
-      </c>
-      <c r="C52" s="266" t="s">
-        <v>758</v>
-      </c>
-      <c r="D52" s="297" t="s">
-        <v>800</v>
-      </c>
-      <c r="E52" s="268" t="s">
-        <v>840</v>
-      </c>
-      <c r="F52" s="267"/>
-      <c r="G52" s="267"/>
-      <c r="H52" s="267"/>
-      <c r="I52" s="267"/>
-      <c r="J52" s="269" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="309" t="s">
-        <v>827</v>
-      </c>
-      <c r="B53" s="292" t="s">
-        <v>577</v>
-      </c>
-      <c r="C53" s="270" t="s">
-        <v>788</v>
-      </c>
-      <c r="D53" s="298" t="s">
-        <v>801</v>
-      </c>
-      <c r="E53" s="272" t="s">
-        <v>861</v>
-      </c>
-      <c r="F53" s="271"/>
-      <c r="G53" s="271"/>
-      <c r="H53" s="271"/>
-      <c r="I53" s="271"/>
-      <c r="J53" s="273"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="307"/>
-      <c r="B54" s="293" t="s">
+      <c r="E54" s="272" t="s">
+        <v>860</v>
+      </c>
+      <c r="F54" s="271"/>
+      <c r="G54" s="271"/>
+      <c r="H54" s="271"/>
+      <c r="I54" s="271"/>
+      <c r="J54" s="273"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="306"/>
+      <c r="B55" s="293" t="s">
         <v>576</v>
       </c>
-      <c r="C54" s="275" t="s">
-        <v>787</v>
-      </c>
-      <c r="D54" s="299" t="s">
-        <v>801</v>
-      </c>
-      <c r="E54" s="276" t="s">
-        <v>861</v>
-      </c>
-      <c r="J54" s="277"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="307"/>
-      <c r="B55" s="293" t="s">
-        <v>691</v>
-      </c>
       <c r="C55" s="275" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D55" s="299" t="s">
         <v>800</v>
       </c>
       <c r="E55" s="276" t="s">
+        <v>860</v>
+      </c>
+      <c r="J55" s="277"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="306"/>
+      <c r="B56" s="293" t="s">
+        <v>691</v>
+      </c>
+      <c r="C56" s="275" t="s">
+        <v>791</v>
+      </c>
+      <c r="D56" s="299" t="s">
+        <v>799</v>
+      </c>
+      <c r="E56" s="276" t="s">
+        <v>871</v>
+      </c>
+      <c r="J56" s="277" t="s">
         <v>872</v>
       </c>
-      <c r="J55" s="277" t="s">
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="309"/>
+      <c r="B57" s="291" t="s">
+        <v>687</v>
+      </c>
+      <c r="C57" s="266" t="s">
+        <v>785</v>
+      </c>
+      <c r="D57" s="297" t="s">
+        <v>807</v>
+      </c>
+      <c r="E57" s="268" t="s">
+        <v>860</v>
+      </c>
+      <c r="F57" s="267"/>
+      <c r="G57" s="267"/>
+      <c r="H57" s="267"/>
+      <c r="I57" s="267"/>
+      <c r="J57" s="269"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="308" t="s">
+        <v>827</v>
+      </c>
+      <c r="B58" s="292" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="270" t="s">
+        <v>796</v>
+      </c>
+      <c r="D58" s="298" t="s">
+        <v>798</v>
+      </c>
+      <c r="E58" s="272" t="s">
+        <v>865</v>
+      </c>
+      <c r="F58" s="271"/>
+      <c r="G58" s="271"/>
+      <c r="H58" s="271"/>
+      <c r="I58" s="271"/>
+      <c r="J58" s="273"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="309"/>
+      <c r="B59" s="291" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="266" t="s">
+        <v>797</v>
+      </c>
+      <c r="D59" s="297" t="s">
+        <v>798</v>
+      </c>
+      <c r="E59" s="268" t="s">
+        <v>865</v>
+      </c>
+      <c r="F59" s="267"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="269"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="308" t="s">
+        <v>828</v>
+      </c>
+      <c r="B60" s="292" t="s">
+        <v>674</v>
+      </c>
+      <c r="C60" s="270" t="s">
+        <v>765</v>
+      </c>
+      <c r="D60" s="298" t="s">
+        <v>799</v>
+      </c>
+      <c r="E60" s="272" t="s">
+        <v>855</v>
+      </c>
+      <c r="F60" s="271"/>
+      <c r="G60" s="271"/>
+      <c r="H60" s="271"/>
+      <c r="I60" s="271"/>
+      <c r="J60" s="273"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="309"/>
+      <c r="B61" s="291" t="s">
+        <v>518</v>
+      </c>
+      <c r="C61" s="266" t="s">
+        <v>780</v>
+      </c>
+      <c r="D61" s="297" t="s">
+        <v>799</v>
+      </c>
+      <c r="E61" s="268" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="310"/>
-      <c r="B56" s="291" t="s">
-        <v>687</v>
-      </c>
-      <c r="C56" s="266" t="s">
-        <v>786</v>
-      </c>
-      <c r="D56" s="297" t="s">
-        <v>808</v>
-      </c>
-      <c r="E56" s="268" t="s">
-        <v>861</v>
-      </c>
-      <c r="F56" s="267"/>
-      <c r="G56" s="267"/>
-      <c r="H56" s="267"/>
-      <c r="I56" s="267"/>
-      <c r="J56" s="269"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="309" t="s">
-        <v>828</v>
-      </c>
-      <c r="B57" s="292" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="270" t="s">
-        <v>797</v>
-      </c>
-      <c r="D57" s="298" t="s">
+      <c r="F61" s="267"/>
+      <c r="G61" s="267"/>
+      <c r="H61" s="267"/>
+      <c r="I61" s="267"/>
+      <c r="J61" s="269"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="260" t="s">
+        <v>829</v>
+      </c>
+      <c r="B62" s="294" t="s">
+        <v>686</v>
+      </c>
+      <c r="C62" s="278" t="s">
+        <v>790</v>
+      </c>
+      <c r="D62" s="300" t="s">
         <v>799</v>
       </c>
-      <c r="E57" s="272" t="s">
-        <v>866</v>
-      </c>
-      <c r="F57" s="271"/>
-      <c r="G57" s="271"/>
-      <c r="H57" s="271"/>
-      <c r="I57" s="271"/>
-      <c r="J57" s="273"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="310"/>
-      <c r="B58" s="291" t="s">
-        <v>204</v>
-      </c>
-      <c r="C58" s="266" t="s">
+      <c r="E62" s="280" t="s">
+        <v>874</v>
+      </c>
+      <c r="F62" s="279"/>
+      <c r="G62" s="279"/>
+      <c r="H62" s="279"/>
+      <c r="I62" s="279"/>
+      <c r="J62" s="281" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="308" t="s">
+        <v>830</v>
+      </c>
+      <c r="B63" s="292" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" s="270" t="s">
+        <v>766</v>
+      </c>
+      <c r="D63" s="298" t="s">
+        <v>799</v>
+      </c>
+      <c r="E63" s="272" t="s">
+        <v>847</v>
+      </c>
+      <c r="F63" s="271"/>
+      <c r="G63" s="271"/>
+      <c r="H63" s="271"/>
+      <c r="I63" s="271"/>
+      <c r="J63" s="273"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="306"/>
+      <c r="B64" s="293" t="s">
+        <v>675</v>
+      </c>
+      <c r="C64" s="275" t="s">
+        <v>778</v>
+      </c>
+      <c r="D64" s="299" t="s">
+        <v>799</v>
+      </c>
+      <c r="E64" s="276" t="s">
+        <v>832</v>
+      </c>
+      <c r="J64" s="277"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="309"/>
+      <c r="B65" s="291" t="s">
+        <v>516</v>
+      </c>
+      <c r="C65" s="266" t="s">
+        <v>730</v>
+      </c>
+      <c r="D65" s="297" t="s">
+        <v>799</v>
+      </c>
+      <c r="E65" s="268" t="s">
+        <v>876</v>
+      </c>
+      <c r="F65" s="267"/>
+      <c r="G65" s="267"/>
+      <c r="H65" s="267"/>
+      <c r="I65" s="267"/>
+      <c r="J65" s="269"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="308" t="s">
+        <v>804</v>
+      </c>
+      <c r="B66" s="292" t="s">
+        <v>639</v>
+      </c>
+      <c r="C66" s="270" t="s">
+        <v>640</v>
+      </c>
+      <c r="D66" s="298" t="s">
+        <v>799</v>
+      </c>
+      <c r="E66" s="272" t="s">
+        <v>851</v>
+      </c>
+      <c r="F66" s="271"/>
+      <c r="G66" s="271"/>
+      <c r="H66" s="271"/>
+      <c r="I66" s="271"/>
+      <c r="J66" s="273"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="309"/>
+      <c r="B67" s="291" t="s">
+        <v>681</v>
+      </c>
+      <c r="C67" s="266" t="s">
+        <v>682</v>
+      </c>
+      <c r="D67" s="297" t="s">
         <v>798</v>
       </c>
-      <c r="D58" s="297" t="s">
-        <v>799</v>
-      </c>
-      <c r="E58" s="268" t="s">
-        <v>866</v>
-      </c>
-      <c r="F58" s="267"/>
-      <c r="G58" s="267"/>
-      <c r="H58" s="267"/>
-      <c r="I58" s="267"/>
-      <c r="J58" s="269"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="309" t="s">
-        <v>829</v>
-      </c>
-      <c r="B59" s="292" t="s">
-        <v>674</v>
-      </c>
-      <c r="C59" s="270" t="s">
-        <v>765</v>
-      </c>
-      <c r="D59" s="298" t="s">
-        <v>800</v>
-      </c>
-      <c r="E59" s="272" t="s">
-        <v>856</v>
-      </c>
-      <c r="F59" s="271"/>
-      <c r="G59" s="271"/>
-      <c r="H59" s="271"/>
-      <c r="I59" s="271"/>
-      <c r="J59" s="273"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="310"/>
-      <c r="B60" s="291" t="s">
-        <v>518</v>
-      </c>
-      <c r="C60" s="266" t="s">
-        <v>780</v>
-      </c>
-      <c r="D60" s="297" t="s">
-        <v>800</v>
-      </c>
-      <c r="E60" s="268" t="s">
-        <v>874</v>
-      </c>
-      <c r="F60" s="267"/>
-      <c r="G60" s="267"/>
-      <c r="H60" s="267"/>
-      <c r="I60" s="267"/>
-      <c r="J60" s="269"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="260" t="s">
-        <v>830</v>
-      </c>
-      <c r="B61" s="294" t="s">
-        <v>686</v>
-      </c>
-      <c r="C61" s="278" t="s">
-        <v>791</v>
-      </c>
-      <c r="D61" s="300" t="s">
-        <v>800</v>
-      </c>
-      <c r="E61" s="280" t="s">
-        <v>875</v>
-      </c>
-      <c r="F61" s="279"/>
-      <c r="G61" s="279"/>
-      <c r="H61" s="279"/>
-      <c r="I61" s="279"/>
-      <c r="J61" s="281" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="309" t="s">
+      <c r="E67" s="268" t="s">
+        <v>877</v>
+      </c>
+      <c r="F67" s="267"/>
+      <c r="G67" s="267"/>
+      <c r="H67" s="267"/>
+      <c r="I67" s="267"/>
+      <c r="J67" s="269"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="306" t="s">
         <v>831</v>
       </c>
-      <c r="B62" s="292" t="s">
-        <v>477</v>
-      </c>
-      <c r="C62" s="270" t="s">
-        <v>766</v>
-      </c>
-      <c r="D62" s="298" t="s">
-        <v>800</v>
-      </c>
-      <c r="E62" s="272" t="s">
-        <v>848</v>
-      </c>
-      <c r="F62" s="271"/>
-      <c r="G62" s="271"/>
-      <c r="H62" s="271"/>
-      <c r="I62" s="271"/>
-      <c r="J62" s="273"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="307"/>
-      <c r="B63" s="293" t="s">
-        <v>675</v>
-      </c>
-      <c r="C63" s="275" t="s">
-        <v>778</v>
-      </c>
-      <c r="D63" s="299" t="s">
-        <v>800</v>
-      </c>
-      <c r="E63" s="276" t="s">
-        <v>833</v>
-      </c>
-      <c r="J63" s="277"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="310"/>
-      <c r="B64" s="291" t="s">
-        <v>516</v>
-      </c>
-      <c r="C64" s="266" t="s">
-        <v>730</v>
-      </c>
-      <c r="D64" s="297" t="s">
-        <v>800</v>
-      </c>
-      <c r="E64" s="268" t="s">
-        <v>877</v>
-      </c>
-      <c r="F64" s="267"/>
-      <c r="G64" s="267"/>
-      <c r="H64" s="267"/>
-      <c r="I64" s="267"/>
-      <c r="J64" s="269"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="309" t="s">
-        <v>805</v>
-      </c>
-      <c r="B65" s="292" t="s">
-        <v>639</v>
-      </c>
-      <c r="C65" s="270" t="s">
-        <v>640</v>
-      </c>
-      <c r="D65" s="298" t="s">
-        <v>800</v>
-      </c>
-      <c r="E65" s="272" t="s">
-        <v>852</v>
-      </c>
-      <c r="F65" s="271"/>
-      <c r="G65" s="271"/>
-      <c r="H65" s="271"/>
-      <c r="I65" s="271"/>
-      <c r="J65" s="273"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="310"/>
-      <c r="B66" s="291" t="s">
-        <v>681</v>
-      </c>
-      <c r="C66" s="266" t="s">
-        <v>682</v>
-      </c>
-      <c r="D66" s="297" t="s">
-        <v>799</v>
-      </c>
-      <c r="E66" s="268" t="s">
+      <c r="B68" s="293" t="s">
+        <v>689</v>
+      </c>
+      <c r="C68" s="275" t="s">
+        <v>792</v>
+      </c>
+      <c r="D68" s="299" t="s">
+        <v>798</v>
+      </c>
+      <c r="E68" s="276" t="s">
+        <v>882</v>
+      </c>
+      <c r="J68" s="277" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="306"/>
+      <c r="B69" s="293" t="s">
+        <v>662</v>
+      </c>
+      <c r="C69" s="275" t="s">
+        <v>755</v>
+      </c>
+      <c r="D69" s="299" t="s">
+        <v>798</v>
+      </c>
+      <c r="E69" s="276" t="s">
+        <v>839</v>
+      </c>
+      <c r="J69" s="277" t="s">
         <v>878</v>
       </c>
-      <c r="F66" s="267"/>
-      <c r="G66" s="267"/>
-      <c r="H66" s="267"/>
-      <c r="I66" s="267"/>
-      <c r="J66" s="269"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="307" t="s">
-        <v>832</v>
-      </c>
-      <c r="B67" s="293" t="s">
-        <v>689</v>
-      </c>
-      <c r="C67" s="275" t="s">
-        <v>793</v>
-      </c>
-      <c r="D67" s="299" t="s">
-        <v>799</v>
-      </c>
-      <c r="E67" s="276" t="s">
-        <v>883</v>
-      </c>
-      <c r="J67" s="277" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="307"/>
-      <c r="B68" s="293" t="s">
-        <v>662</v>
-      </c>
-      <c r="C68" s="275" t="s">
-        <v>755</v>
-      </c>
-      <c r="D68" s="299" t="s">
-        <v>799</v>
-      </c>
-      <c r="E68" s="276" t="s">
-        <v>840</v>
-      </c>
-      <c r="J68" s="277" t="s">
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="307"/>
+      <c r="B70" s="295" t="s">
+        <v>661</v>
+      </c>
+      <c r="C70" s="282" t="s">
+        <v>754</v>
+      </c>
+      <c r="D70" s="301" t="s">
+        <v>798</v>
+      </c>
+      <c r="E70" s="284" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="308"/>
-      <c r="B69" s="295" t="s">
-        <v>661</v>
-      </c>
-      <c r="C69" s="282" t="s">
-        <v>754</v>
-      </c>
-      <c r="D69" s="301" t="s">
-        <v>799</v>
-      </c>
-      <c r="E69" s="284" t="s">
-        <v>880</v>
-      </c>
-      <c r="F69" s="283"/>
-      <c r="G69" s="283"/>
-      <c r="H69" s="283"/>
-      <c r="I69" s="283"/>
-      <c r="J69" s="285"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="274"/>
-      <c r="B70" s="274"/>
-      <c r="C70" s="274"/>
-      <c r="D70" s="274"/>
-      <c r="E70" s="274"/>
-      <c r="F70" s="274"/>
-      <c r="G70" s="274"/>
-      <c r="H70" s="274"/>
-      <c r="I70" s="274"/>
-      <c r="J70" s="274"/>
+      <c r="F70" s="283"/>
+      <c r="G70" s="283"/>
+      <c r="H70" s="283"/>
+      <c r="I70" s="283"/>
+      <c r="J70" s="285"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="289"/>
+      <c r="A71" s="274"/>
       <c r="B71" s="274"/>
       <c r="C71" s="274"/>
       <c r="D71" s="274"/>
@@ -12300,23 +12313,34 @@
       <c r="I226" s="274"/>
       <c r="J226" s="274"/>
     </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="289"/>
+      <c r="B227" s="274"/>
+      <c r="C227" s="274"/>
+      <c r="D227" s="274"/>
+      <c r="E227" s="274"/>
+      <c r="F227" s="274"/>
+      <c r="G227" s="274"/>
+      <c r="H227" s="274"/>
+      <c r="I227" s="274"/>
+      <c r="J227" s="274"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J295">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J296">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A43"/>
     <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12327,8 +12351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB716-2721-48C2-B8B7-2D62A098DA95}">
   <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A233" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J251" sqref="J251"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12344,7 +12368,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1">
       <c r="A1" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B1" s="249" t="s">
         <v>698</v>
@@ -12356,14 +12380,14 @@
         <v>438</v>
       </c>
       <c r="E1" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F1" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="311" t="s">
+      <c r="A2" s="310" t="s">
         <v>701</v>
       </c>
       <c r="B2" s="210" t="s">
@@ -12376,13 +12400,13 @@
         <v>713</v>
       </c>
       <c r="E2" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="307"/>
+      <c r="A3" s="306"/>
       <c r="B3" s="210" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C3" s="253" t="s">
         <v>717</v>
@@ -12391,29 +12415,29 @@
         <v>714</v>
       </c>
       <c r="E3" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="307"/>
+      <c r="A4" s="306"/>
       <c r="B4" s="211" t="s">
-        <v>892</v>
-      </c>
-      <c r="C4" s="304" t="s">
+        <v>891</v>
+      </c>
+      <c r="C4" s="303" t="s">
         <v>715</v>
       </c>
       <c r="D4" s="254" t="s">
         <v>726</v>
       </c>
       <c r="E4" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="306" t="s">
-        <v>804</v>
+        <v>798</v>
+      </c>
+      <c r="F4" s="305" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="307"/>
+      <c r="A5" s="306"/>
       <c r="B5" s="212" t="s">
         <v>8</v>
       </c>
@@ -12424,12 +12448,12 @@
         <v>727</v>
       </c>
       <c r="E5" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="307"/>
+      <c r="A6" s="306"/>
       <c r="B6" s="212" t="s">
         <v>9</v>
       </c>
@@ -12440,11 +12464,11 @@
         <v>728</v>
       </c>
       <c r="E6" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="307"/>
+      <c r="A7" s="306"/>
       <c r="B7" s="212" t="s">
         <v>10</v>
       </c>
@@ -12455,11 +12479,11 @@
         <v>729</v>
       </c>
       <c r="E7" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="307"/>
+      <c r="A8" s="306"/>
       <c r="B8" s="212" t="s">
         <v>11</v>
       </c>
@@ -12470,11 +12494,11 @@
         <v>730</v>
       </c>
       <c r="E8" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="307"/>
+      <c r="A9" s="306"/>
       <c r="B9" s="212" t="s">
         <v>12</v>
       </c>
@@ -12485,29 +12509,29 @@
         <v>731</v>
       </c>
       <c r="E9" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="307"/>
+      <c r="A10" s="306"/>
       <c r="B10" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="304" t="s">
+      <c r="C10" s="303" t="s">
         <v>639</v>
       </c>
       <c r="D10" s="254" t="s">
         <v>640</v>
       </c>
       <c r="E10" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F10" s="306" t="s">
-        <v>805</v>
+        <v>799</v>
+      </c>
+      <c r="F10" s="305" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="307"/>
+      <c r="A11" s="306"/>
       <c r="B11" s="212" t="s">
         <v>14</v>
       </c>
@@ -12518,11 +12542,11 @@
         <v>732</v>
       </c>
       <c r="E11" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="307"/>
+      <c r="A12" s="306"/>
       <c r="B12" s="212" t="s">
         <v>15</v>
       </c>
@@ -12533,11 +12557,11 @@
         <v>733</v>
       </c>
       <c r="E12" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="307"/>
+      <c r="A13" s="306"/>
       <c r="B13" s="212" t="s">
         <v>16</v>
       </c>
@@ -12548,11 +12572,11 @@
         <v>734</v>
       </c>
       <c r="E13" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="307"/>
+      <c r="A14" s="306"/>
       <c r="B14" s="212" t="s">
         <v>17</v>
       </c>
@@ -12563,11 +12587,11 @@
         <v>735</v>
       </c>
       <c r="E14" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="307"/>
+      <c r="A15" s="306"/>
       <c r="B15" s="213" t="s">
         <v>18</v>
       </c>
@@ -12578,11 +12602,11 @@
         <v>736</v>
       </c>
       <c r="E15" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="307"/>
+      <c r="A16" s="306"/>
       <c r="B16" s="213" t="s">
         <v>19</v>
       </c>
@@ -12593,11 +12617,11 @@
         <v>737</v>
       </c>
       <c r="E16" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="307"/>
+      <c r="A17" s="306"/>
       <c r="B17" s="212" t="s">
         <v>20</v>
       </c>
@@ -12608,29 +12632,29 @@
         <v>738</v>
       </c>
       <c r="E17" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="307"/>
+      <c r="A18" s="306"/>
       <c r="B18" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="304" t="s">
+      <c r="C18" s="303" t="s">
         <v>480</v>
       </c>
       <c r="D18" s="254" t="s">
         <v>734</v>
       </c>
       <c r="E18" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F18" s="306" t="s">
-        <v>806</v>
+        <v>799</v>
+      </c>
+      <c r="F18" s="305" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="307"/>
+      <c r="A19" s="306"/>
       <c r="B19" s="212" t="s">
         <v>22</v>
       </c>
@@ -12641,11 +12665,11 @@
         <v>739</v>
       </c>
       <c r="E19" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="307"/>
+      <c r="A20" s="306"/>
       <c r="B20" s="212" t="s">
         <v>23</v>
       </c>
@@ -12656,11 +12680,11 @@
         <v>740</v>
       </c>
       <c r="E20" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="307"/>
+      <c r="A21" s="306"/>
       <c r="B21" s="212" t="s">
         <v>24</v>
       </c>
@@ -12671,11 +12695,11 @@
         <v>741</v>
       </c>
       <c r="E21" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="307"/>
+      <c r="A22" s="306"/>
       <c r="B22" s="212" t="s">
         <v>25</v>
       </c>
@@ -12686,11 +12710,11 @@
         <v>742</v>
       </c>
       <c r="E22" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="307"/>
+      <c r="A23" s="306"/>
       <c r="B23" s="213" t="s">
         <v>26</v>
       </c>
@@ -12701,11 +12725,11 @@
         <v>743</v>
       </c>
       <c r="E23" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="307"/>
+      <c r="A24" s="306"/>
       <c r="B24" s="213" t="s">
         <v>29</v>
       </c>
@@ -12716,11 +12740,11 @@
         <v>727</v>
       </c>
       <c r="E24" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="307"/>
+      <c r="A25" s="306"/>
       <c r="B25" s="214" t="s">
         <v>525</v>
       </c>
@@ -12731,29 +12755,29 @@
         <v>744</v>
       </c>
       <c r="E25" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="307"/>
+      <c r="A26" s="306"/>
       <c r="B26" s="209" t="s">
         <v>610</v>
       </c>
       <c r="C26" s="253" t="s">
+        <v>801</v>
+      </c>
+      <c r="D26" s="254" t="s">
         <v>802</v>
       </c>
-      <c r="D26" s="254" t="s">
-        <v>803</v>
-      </c>
       <c r="E26" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F26" s="302" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="307"/>
+      <c r="A27" s="306"/>
       <c r="B27" s="209" t="s">
         <v>745</v>
       </c>
@@ -12764,14 +12788,14 @@
         <v>750</v>
       </c>
       <c r="E27" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F27" s="302" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="307"/>
+      <c r="A28" s="306"/>
       <c r="B28" s="209" t="s">
         <v>746</v>
       </c>
@@ -12782,69 +12806,69 @@
         <v>749</v>
       </c>
       <c r="E28" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F28" s="302" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="307"/>
+      <c r="A29" s="306"/>
       <c r="B29" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="304" t="s">
-        <v>886</v>
+      <c r="C29" s="303" t="s">
+        <v>885</v>
       </c>
       <c r="D29" s="254" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E29" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F29" s="306" t="s">
-        <v>903</v>
+        <v>799</v>
+      </c>
+      <c r="F29" s="305" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="307"/>
+      <c r="A30" s="306"/>
       <c r="B30" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="304" t="s">
-        <v>886</v>
+      <c r="C30" s="303" t="s">
+        <v>885</v>
       </c>
       <c r="D30" s="254" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E30" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F30" s="306" t="s">
-        <v>903</v>
+        <v>799</v>
+      </c>
+      <c r="F30" s="305" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="308"/>
+      <c r="A31" s="307"/>
       <c r="B31" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="304" t="s">
-        <v>886</v>
+      <c r="C31" s="303" t="s">
+        <v>885</v>
       </c>
       <c r="D31" s="254" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E31" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F31" s="306" t="s">
-        <v>903</v>
+        <v>799</v>
+      </c>
+      <c r="F31" s="305" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30">
       <c r="A32" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B32" s="249" t="s">
         <v>698</v>
@@ -12856,15 +12880,15 @@
         <v>438</v>
       </c>
       <c r="E32" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F32" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="311" t="s">
-        <v>891</v>
+      <c r="A33" s="310" t="s">
+        <v>890</v>
       </c>
       <c r="B33" s="210" t="s">
         <v>4</v>
@@ -12876,12 +12900,12 @@
         <v>754</v>
       </c>
       <c r="E33" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F33" s="302"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="307"/>
+      <c r="A34" s="306"/>
       <c r="B34" s="210" t="s">
         <v>5</v>
       </c>
@@ -12892,16 +12916,16 @@
         <v>774</v>
       </c>
       <c r="E34" s="302" t="s">
+        <v>812</v>
+      </c>
+      <c r="F34" s="302" t="s">
         <v>813</v>
       </c>
-      <c r="F34" s="302" t="s">
-        <v>814</v>
-      </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="307"/>
+      <c r="A35" s="306"/>
       <c r="B35" s="210" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C35" s="253" t="s">
         <v>662</v>
@@ -12910,96 +12934,96 @@
         <v>755</v>
       </c>
       <c r="E35" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F35" s="302" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="307"/>
+      <c r="A36" s="306"/>
       <c r="B36" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="303"/>
+      <c r="C36" s="256"/>
       <c r="F36" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="307"/>
+      <c r="A37" s="306"/>
       <c r="B37" s="210" t="s">
         <v>699</v>
       </c>
-      <c r="C37" s="304" t="s">
+      <c r="C37" s="303" t="s">
         <v>715</v>
       </c>
       <c r="D37" s="254" t="s">
         <v>726</v>
       </c>
       <c r="E37" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F37" s="306" t="s">
-        <v>902</v>
+        <v>798</v>
+      </c>
+      <c r="F37" s="305" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="307"/>
+      <c r="A38" s="306"/>
       <c r="B38" s="210" t="s">
         <v>700</v>
       </c>
-      <c r="C38" s="304" t="s">
+      <c r="C38" s="303" t="s">
         <v>719</v>
       </c>
       <c r="D38" s="254" t="s">
         <v>756</v>
       </c>
       <c r="E38" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F38" s="306" t="s">
-        <v>902</v>
+        <v>798</v>
+      </c>
+      <c r="F38" s="305" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="307"/>
+      <c r="A39" s="306"/>
       <c r="B39" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="304" t="s">
+      <c r="C39" s="303" t="s">
         <v>544</v>
       </c>
       <c r="D39" s="254" t="s">
         <v>757</v>
       </c>
       <c r="E39" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F39" s="306" t="s">
-        <v>807</v>
+        <v>799</v>
+      </c>
+      <c r="F39" s="305" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="307"/>
+      <c r="A40" s="306"/>
       <c r="B40" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="304" t="s">
+      <c r="C40" s="303" t="s">
         <v>495</v>
       </c>
       <c r="D40" s="254" t="s">
         <v>758</v>
       </c>
       <c r="E40" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F40" s="306" t="s">
-        <v>806</v>
+        <v>799</v>
+      </c>
+      <c r="F40" s="305" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="307"/>
+      <c r="A41" s="306"/>
       <c r="B41" s="212" t="s">
         <v>9</v>
       </c>
@@ -13010,11 +13034,11 @@
         <v>728</v>
       </c>
       <c r="E41" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="307"/>
+      <c r="A42" s="306"/>
       <c r="B42" s="212" t="s">
         <v>10</v>
       </c>
@@ -13025,11 +13049,11 @@
         <v>729</v>
       </c>
       <c r="E42" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="307"/>
+      <c r="A43" s="306"/>
       <c r="B43" s="212" t="s">
         <v>11</v>
       </c>
@@ -13040,11 +13064,11 @@
         <v>730</v>
       </c>
       <c r="E43" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="307"/>
+      <c r="A44" s="306"/>
       <c r="B44" s="212" t="s">
         <v>12</v>
       </c>
@@ -13055,29 +13079,29 @@
         <v>731</v>
       </c>
       <c r="E44" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="307"/>
+      <c r="A45" s="306"/>
       <c r="B45" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="304" t="s">
+      <c r="C45" s="303" t="s">
         <v>639</v>
       </c>
       <c r="D45" s="254" t="s">
         <v>640</v>
       </c>
       <c r="E45" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F45" s="306" t="s">
-        <v>805</v>
+        <v>799</v>
+      </c>
+      <c r="F45" s="305" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="307"/>
+      <c r="A46" s="306"/>
       <c r="B46" s="212" t="s">
         <v>14</v>
       </c>
@@ -13088,11 +13112,11 @@
         <v>732</v>
       </c>
       <c r="E46" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="307"/>
+      <c r="A47" s="306"/>
       <c r="B47" s="212" t="s">
         <v>15</v>
       </c>
@@ -13103,11 +13127,11 @@
         <v>733</v>
       </c>
       <c r="E47" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="307"/>
+      <c r="A48" s="306"/>
       <c r="B48" s="212" t="s">
         <v>16</v>
       </c>
@@ -13118,11 +13142,11 @@
         <v>734</v>
       </c>
       <c r="E48" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="307"/>
+      <c r="A49" s="306"/>
       <c r="B49" s="212" t="s">
         <v>17</v>
       </c>
@@ -13133,11 +13157,11 @@
         <v>735</v>
       </c>
       <c r="E49" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="307"/>
+      <c r="A50" s="306"/>
       <c r="B50" s="213" t="s">
         <v>18</v>
       </c>
@@ -13148,11 +13172,11 @@
         <v>736</v>
       </c>
       <c r="E50" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="307"/>
+      <c r="A51" s="306"/>
       <c r="B51" s="213" t="s">
         <v>19</v>
       </c>
@@ -13163,11 +13187,11 @@
         <v>737</v>
       </c>
       <c r="E51" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="307"/>
+      <c r="A52" s="306"/>
       <c r="B52" s="212" t="s">
         <v>20</v>
       </c>
@@ -13178,29 +13202,29 @@
         <v>738</v>
       </c>
       <c r="E52" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="307"/>
+      <c r="A53" s="306"/>
       <c r="B53" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="304" t="s">
+      <c r="C53" s="303" t="s">
         <v>480</v>
       </c>
       <c r="D53" s="254" t="s">
         <v>734</v>
       </c>
       <c r="E53" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F53" s="306" t="s">
-        <v>806</v>
+        <v>799</v>
+      </c>
+      <c r="F53" s="305" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="307"/>
+      <c r="A54" s="306"/>
       <c r="B54" s="212" t="s">
         <v>22</v>
       </c>
@@ -13211,11 +13235,11 @@
         <v>739</v>
       </c>
       <c r="E54" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="307"/>
+      <c r="A55" s="306"/>
       <c r="B55" s="212" t="s">
         <v>23</v>
       </c>
@@ -13226,11 +13250,11 @@
         <v>740</v>
       </c>
       <c r="E55" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="307"/>
+      <c r="A56" s="306"/>
       <c r="B56" s="212" t="s">
         <v>24</v>
       </c>
@@ -13241,11 +13265,11 @@
         <v>741</v>
       </c>
       <c r="E56" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="307"/>
+      <c r="A57" s="306"/>
       <c r="B57" s="212" t="s">
         <v>25</v>
       </c>
@@ -13256,11 +13280,11 @@
         <v>742</v>
       </c>
       <c r="E57" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="307"/>
+      <c r="A58" s="306"/>
       <c r="B58" s="213" t="s">
         <v>26</v>
       </c>
@@ -13271,11 +13295,11 @@
         <v>743</v>
       </c>
       <c r="E58" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="307"/>
+      <c r="A59" s="306"/>
       <c r="B59" s="213" t="s">
         <v>27</v>
       </c>
@@ -13286,11 +13310,11 @@
         <v>759</v>
       </c>
       <c r="E59" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="307"/>
+      <c r="A60" s="306"/>
       <c r="B60" s="213" t="s">
         <v>28</v>
       </c>
@@ -13301,11 +13325,11 @@
         <v>758</v>
       </c>
       <c r="E60" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="307"/>
+      <c r="A61" s="306"/>
       <c r="B61" s="213" t="s">
         <v>29</v>
       </c>
@@ -13316,11 +13340,11 @@
         <v>727</v>
       </c>
       <c r="E61" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="307"/>
+      <c r="A62" s="306"/>
       <c r="B62" s="216" t="s">
         <v>31</v>
       </c>
@@ -13331,11 +13355,11 @@
         <v>760</v>
       </c>
       <c r="E62" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="307"/>
+      <c r="A63" s="306"/>
       <c r="B63" s="217" t="s">
         <v>603</v>
       </c>
@@ -13346,14 +13370,14 @@
         <v>761</v>
       </c>
       <c r="E63" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F63" s="302" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="307"/>
+      <c r="A64" s="306"/>
       <c r="B64" s="216" t="s">
         <v>751</v>
       </c>
@@ -13364,14 +13388,14 @@
         <v>750</v>
       </c>
       <c r="E64" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F64" s="302" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="307"/>
+      <c r="A65" s="306"/>
       <c r="B65" s="216" t="s">
         <v>752</v>
       </c>
@@ -13382,14 +13406,14 @@
         <v>749</v>
       </c>
       <c r="E65" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F65" s="302" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="307"/>
+      <c r="A66" s="306"/>
       <c r="B66" s="218" t="s">
         <v>32</v>
       </c>
@@ -13397,14 +13421,14 @@
         <v>545</v>
       </c>
       <c r="D66" s="254" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E66" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="307"/>
+      <c r="A67" s="306"/>
       <c r="B67" s="218" t="s">
         <v>33</v>
       </c>
@@ -13412,14 +13436,14 @@
         <v>545</v>
       </c>
       <c r="D67" s="254" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E67" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="308"/>
+      <c r="A68" s="307"/>
       <c r="B68" s="218" t="s">
         <v>34</v>
       </c>
@@ -13427,15 +13451,15 @@
         <v>545</v>
       </c>
       <c r="D68" s="254" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E68" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30">
       <c r="A69" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B69" s="249" t="s">
         <v>698</v>
@@ -13447,14 +13471,14 @@
         <v>438</v>
       </c>
       <c r="E69" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F69" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1">
-      <c r="A70" s="311" t="s">
+      <c r="A70" s="310" t="s">
         <v>702</v>
       </c>
       <c r="B70" s="219" t="s">
@@ -13467,21 +13491,21 @@
         <v>762</v>
       </c>
       <c r="E70" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="307"/>
+      <c r="A71" s="306"/>
       <c r="B71" s="220" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="255"/>
       <c r="F71" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A72" s="307"/>
+      <c r="A72" s="306"/>
       <c r="B72" s="14" t="s">
         <v>70</v>
       </c>
@@ -13492,11 +13516,11 @@
         <v>763</v>
       </c>
       <c r="E72" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="307"/>
+      <c r="A73" s="306"/>
       <c r="B73" s="14" t="s">
         <v>71</v>
       </c>
@@ -13507,11 +13531,11 @@
         <v>763</v>
       </c>
       <c r="E73" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="307"/>
+      <c r="A74" s="306"/>
       <c r="B74" s="15" t="s">
         <v>72</v>
       </c>
@@ -13521,25 +13545,25 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="307"/>
+      <c r="A75" s="306"/>
       <c r="B75" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="304" t="s">
+      <c r="C75" s="303" t="s">
         <v>719</v>
       </c>
       <c r="D75" s="254" t="s">
         <v>756</v>
       </c>
       <c r="E75" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F75" s="306" t="s">
-        <v>904</v>
+        <v>798</v>
+      </c>
+      <c r="F75" s="305" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="307"/>
+      <c r="A76" s="306"/>
       <c r="B76" s="221" t="s">
         <v>74</v>
       </c>
@@ -13550,11 +13574,11 @@
         <v>726</v>
       </c>
       <c r="E76" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="307"/>
+      <c r="A77" s="306"/>
       <c r="B77" s="221" t="s">
         <v>75</v>
       </c>
@@ -13565,11 +13589,11 @@
         <v>756</v>
       </c>
       <c r="E77" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="307"/>
+      <c r="A78" s="306"/>
       <c r="B78" s="221" t="s">
         <v>76</v>
       </c>
@@ -13580,11 +13604,11 @@
         <v>726</v>
       </c>
       <c r="E78" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="307"/>
+      <c r="A79" s="306"/>
       <c r="B79" s="60" t="s">
         <v>77</v>
       </c>
@@ -13595,11 +13619,11 @@
         <v>713</v>
       </c>
       <c r="E79" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="307"/>
+      <c r="A80" s="306"/>
       <c r="B80" s="222" t="s">
         <v>78</v>
       </c>
@@ -13610,13 +13634,13 @@
         <v>764</v>
       </c>
       <c r="E80" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="307"/>
+      <c r="A81" s="306"/>
       <c r="B81" s="60" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C81" s="253" t="s">
         <v>717</v>
@@ -13625,11 +13649,11 @@
         <v>714</v>
       </c>
       <c r="E81" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="307"/>
+      <c r="A82" s="306"/>
       <c r="B82" s="61" t="s">
         <v>81</v>
       </c>
@@ -13640,11 +13664,11 @@
         <v>765</v>
       </c>
       <c r="E82" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="307"/>
+      <c r="A83" s="306"/>
       <c r="B83" s="223" t="s">
         <v>82</v>
       </c>
@@ -13655,11 +13679,11 @@
         <v>756</v>
       </c>
       <c r="E83" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="307"/>
+      <c r="A84" s="306"/>
       <c r="B84" s="223" t="s">
         <v>83</v>
       </c>
@@ -13670,11 +13694,11 @@
         <v>726</v>
       </c>
       <c r="E84" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="307"/>
+      <c r="A85" s="306"/>
       <c r="B85" s="61" t="s">
         <v>84</v>
       </c>
@@ -13685,11 +13709,11 @@
         <v>726</v>
       </c>
       <c r="E85" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="307"/>
+      <c r="A86" s="306"/>
       <c r="B86" s="224" t="s">
         <v>85</v>
       </c>
@@ -13700,11 +13724,11 @@
         <v>766</v>
       </c>
       <c r="E86" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="307"/>
+      <c r="A87" s="306"/>
       <c r="B87" s="225" t="s">
         <v>86</v>
       </c>
@@ -13715,29 +13739,29 @@
         <v>731</v>
       </c>
       <c r="E87" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="307"/>
+      <c r="A88" s="306"/>
       <c r="B88" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="304" t="s">
+      <c r="C88" s="303" t="s">
         <v>639</v>
       </c>
       <c r="D88" s="254" t="s">
         <v>640</v>
       </c>
       <c r="E88" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F88" s="306" t="s">
-        <v>805</v>
+        <v>799</v>
+      </c>
+      <c r="F88" s="305" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="307"/>
+      <c r="A89" s="306"/>
       <c r="B89" s="224" t="s">
         <v>14</v>
       </c>
@@ -13748,11 +13772,11 @@
         <v>732</v>
       </c>
       <c r="E89" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="307"/>
+      <c r="A90" s="306"/>
       <c r="B90" s="224" t="s">
         <v>15</v>
       </c>
@@ -13763,11 +13787,11 @@
         <v>733</v>
       </c>
       <c r="E90" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="307"/>
+      <c r="A91" s="306"/>
       <c r="B91" s="224" t="s">
         <v>16</v>
       </c>
@@ -13778,11 +13802,11 @@
         <v>734</v>
       </c>
       <c r="E91" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="307"/>
+      <c r="A92" s="306"/>
       <c r="B92" s="224" t="s">
         <v>17</v>
       </c>
@@ -13793,11 +13817,11 @@
         <v>735</v>
       </c>
       <c r="E92" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="307"/>
+      <c r="A93" s="306"/>
       <c r="B93" s="225" t="s">
         <v>87</v>
       </c>
@@ -13808,11 +13832,11 @@
         <v>737</v>
       </c>
       <c r="E93" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="307"/>
+      <c r="A94" s="306"/>
       <c r="B94" s="224" t="s">
         <v>20</v>
       </c>
@@ -13823,11 +13847,11 @@
         <v>738</v>
       </c>
       <c r="E94" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="307"/>
+      <c r="A95" s="306"/>
       <c r="B95" s="224" t="s">
         <v>21</v>
       </c>
@@ -13838,11 +13862,11 @@
         <v>734</v>
       </c>
       <c r="E95" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="307"/>
+      <c r="A96" s="306"/>
       <c r="B96" s="224" t="s">
         <v>22</v>
       </c>
@@ -13853,11 +13877,11 @@
         <v>739</v>
       </c>
       <c r="E96" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="307"/>
+      <c r="A97" s="306"/>
       <c r="B97" s="224" t="s">
         <v>23</v>
       </c>
@@ -13868,11 +13892,11 @@
         <v>740</v>
       </c>
       <c r="E97" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="307"/>
+      <c r="A98" s="306"/>
       <c r="B98" s="224" t="s">
         <v>24</v>
       </c>
@@ -13883,11 +13907,11 @@
         <v>741</v>
       </c>
       <c r="E98" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="307"/>
+      <c r="A99" s="306"/>
       <c r="B99" s="225" t="s">
         <v>18</v>
       </c>
@@ -13898,11 +13922,11 @@
         <v>736</v>
       </c>
       <c r="E99" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="307"/>
+      <c r="A100" s="306"/>
       <c r="B100" s="224" t="s">
         <v>25</v>
       </c>
@@ -13913,11 +13937,11 @@
         <v>742</v>
       </c>
       <c r="E100" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="307"/>
+      <c r="A101" s="306"/>
       <c r="B101" s="225" t="s">
         <v>26</v>
       </c>
@@ -13928,11 +13952,11 @@
         <v>743</v>
       </c>
       <c r="E101" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="307"/>
+      <c r="A102" s="306"/>
       <c r="B102" s="223" t="s">
         <v>29</v>
       </c>
@@ -13943,11 +13967,11 @@
         <v>727</v>
       </c>
       <c r="E102" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="307"/>
+      <c r="A103" s="306"/>
       <c r="B103" s="64" t="s">
         <v>88</v>
       </c>
@@ -13958,11 +13982,11 @@
         <v>767</v>
       </c>
       <c r="E103" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="307"/>
+      <c r="A104" s="306"/>
       <c r="B104" s="64" t="s">
         <v>89</v>
       </c>
@@ -13973,65 +13997,65 @@
         <v>768</v>
       </c>
       <c r="E104" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="307"/>
+      <c r="A105" s="306"/>
       <c r="B105" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="C105" s="304" t="s">
+      <c r="C105" s="303" t="s">
         <v>496</v>
       </c>
       <c r="D105" s="254" t="s">
         <v>769</v>
       </c>
       <c r="E105" s="252" t="s">
-        <v>812</v>
-      </c>
-      <c r="F105" s="306" t="s">
-        <v>817</v>
+        <v>811</v>
+      </c>
+      <c r="F105" s="305" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="307"/>
+      <c r="A106" s="306"/>
       <c r="B106" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C106" s="304" t="s">
+      <c r="C106" s="303" t="s">
         <v>496</v>
       </c>
       <c r="D106" s="254" t="s">
         <v>769</v>
       </c>
       <c r="E106" s="252" t="s">
-        <v>812</v>
-      </c>
-      <c r="F106" s="306" t="s">
-        <v>817</v>
+        <v>811</v>
+      </c>
+      <c r="F106" s="305" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="307"/>
+      <c r="A107" s="306"/>
       <c r="B107" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C107" s="304" t="s">
+      <c r="C107" s="303" t="s">
         <v>496</v>
       </c>
       <c r="D107" s="254" t="s">
         <v>769</v>
       </c>
       <c r="E107" s="252" t="s">
-        <v>812</v>
-      </c>
-      <c r="F107" s="306" t="s">
-        <v>817</v>
+        <v>811</v>
+      </c>
+      <c r="F107" s="305" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="307"/>
+      <c r="A108" s="306"/>
       <c r="B108" s="226" t="s">
         <v>91</v>
       </c>
@@ -14042,11 +14066,11 @@
         <v>770</v>
       </c>
       <c r="E108" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="307"/>
+      <c r="A109" s="306"/>
       <c r="B109" s="226" t="s">
         <v>92</v>
       </c>
@@ -14057,11 +14081,11 @@
         <v>771</v>
       </c>
       <c r="E109" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="307"/>
+      <c r="A110" s="306"/>
       <c r="B110" s="226" t="s">
         <v>96</v>
       </c>
@@ -14072,11 +14096,11 @@
         <v>772</v>
       </c>
       <c r="E110" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="307"/>
+      <c r="A111" s="306"/>
       <c r="B111" s="227" t="s">
         <v>97</v>
       </c>
@@ -14087,11 +14111,11 @@
         <v>773</v>
       </c>
       <c r="E111" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="307"/>
+      <c r="A112" s="306"/>
       <c r="B112" s="36" t="s">
         <v>98</v>
       </c>
@@ -14101,7 +14125,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="307"/>
+      <c r="A113" s="306"/>
       <c r="B113" s="228" t="s">
         <v>99</v>
       </c>
@@ -14111,7 +14135,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="307"/>
+      <c r="A114" s="306"/>
       <c r="B114" s="229" t="s">
         <v>98</v>
       </c>
@@ -14121,7 +14145,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="307"/>
+      <c r="A115" s="306"/>
       <c r="B115" s="229" t="s">
         <v>100</v>
       </c>
@@ -14132,14 +14156,14 @@
         <v>771</v>
       </c>
       <c r="E115" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F115" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="307"/>
+      <c r="A116" s="306"/>
       <c r="B116" s="229" t="s">
         <v>101</v>
       </c>
@@ -14150,14 +14174,14 @@
         <v>770</v>
       </c>
       <c r="E116" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F116" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="307"/>
+      <c r="A117" s="306"/>
       <c r="B117" s="230" t="s">
         <v>102</v>
       </c>
@@ -14168,30 +14192,30 @@
         <v>773</v>
       </c>
       <c r="E117" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F117" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="308"/>
+      <c r="A118" s="307"/>
       <c r="B118" s="257" t="s">
         <v>507</v>
       </c>
       <c r="C118" s="253" t="s">
-        <v>606</v>
+        <v>904</v>
       </c>
       <c r="D118" s="254" t="s">
-        <v>774</v>
+        <v>905</v>
       </c>
       <c r="E118" s="252" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="30">
       <c r="A119" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B119" s="249" t="s">
         <v>698</v>
@@ -14203,14 +14227,14 @@
         <v>438</v>
       </c>
       <c r="E119" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F119" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1">
-      <c r="A120" s="311" t="s">
+      <c r="A120" s="310" t="s">
         <v>703</v>
       </c>
       <c r="B120" s="231" t="s">
@@ -14223,21 +14247,21 @@
         <v>762</v>
       </c>
       <c r="E120" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="307"/>
+      <c r="A121" s="306"/>
       <c r="B121" s="257" t="s">
         <v>51</v>
       </c>
       <c r="C121" s="255"/>
       <c r="F121" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="307"/>
+      <c r="A122" s="306"/>
       <c r="B122" s="157" t="s">
         <v>122</v>
       </c>
@@ -14248,14 +14272,14 @@
         <v>763</v>
       </c>
       <c r="E122" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F122" s="256" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="307"/>
+      <c r="A123" s="306"/>
       <c r="B123" s="157" t="s">
         <v>71</v>
       </c>
@@ -14266,21 +14290,21 @@
         <v>763</v>
       </c>
       <c r="E123" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="307"/>
+      <c r="A124" s="306"/>
       <c r="B124" s="158" t="s">
         <v>123</v>
       </c>
       <c r="C124" s="255"/>
       <c r="F124" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="307"/>
+      <c r="A125" s="306"/>
       <c r="B125" s="232" t="s">
         <v>73</v>
       </c>
@@ -14291,11 +14315,11 @@
         <v>756</v>
       </c>
       <c r="E125" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="307"/>
+      <c r="A126" s="306"/>
       <c r="B126" s="232" t="s">
         <v>74</v>
       </c>
@@ -14306,11 +14330,11 @@
         <v>726</v>
       </c>
       <c r="E126" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="307"/>
+      <c r="A127" s="306"/>
       <c r="B127" s="232" t="s">
         <v>75</v>
       </c>
@@ -14321,11 +14345,11 @@
         <v>756</v>
       </c>
       <c r="E127" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="307"/>
+      <c r="A128" s="306"/>
       <c r="B128" s="232" t="s">
         <v>76</v>
       </c>
@@ -14336,11 +14360,11 @@
         <v>726</v>
       </c>
       <c r="E128" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="307"/>
+      <c r="A129" s="306"/>
       <c r="B129" s="233" t="s">
         <v>77</v>
       </c>
@@ -14351,11 +14375,11 @@
         <v>713</v>
       </c>
       <c r="E129" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="307"/>
+      <c r="A130" s="306"/>
       <c r="B130" s="234" t="s">
         <v>78</v>
       </c>
@@ -14366,13 +14390,13 @@
         <v>764</v>
       </c>
       <c r="E130" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="307"/>
+      <c r="A131" s="306"/>
       <c r="B131" s="233" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C131" s="253" t="s">
         <v>717</v>
@@ -14381,11 +14405,11 @@
         <v>714</v>
       </c>
       <c r="E131" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="307"/>
+      <c r="A132" s="306"/>
       <c r="B132" s="233" t="s">
         <v>124</v>
       </c>
@@ -14396,11 +14420,11 @@
         <v>775</v>
       </c>
       <c r="E132" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="307"/>
+      <c r="A133" s="306"/>
       <c r="B133" s="235" t="s">
         <v>451</v>
       </c>
@@ -14411,11 +14435,11 @@
         <v>776</v>
       </c>
       <c r="E133" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="307"/>
+      <c r="A134" s="306"/>
       <c r="B134" s="235" t="s">
         <v>125</v>
       </c>
@@ -14426,11 +14450,11 @@
         <v>776</v>
       </c>
       <c r="E134" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="307"/>
+      <c r="A135" s="306"/>
       <c r="B135" s="236" t="s">
         <v>126</v>
       </c>
@@ -14441,11 +14465,11 @@
         <v>766</v>
       </c>
       <c r="E135" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="307"/>
+      <c r="A136" s="306"/>
       <c r="B136" s="236" t="s">
         <v>127</v>
       </c>
@@ -14456,11 +14480,11 @@
         <v>730</v>
       </c>
       <c r="E136" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="307"/>
+      <c r="A137" s="306"/>
       <c r="B137" s="236" t="s">
         <v>452</v>
       </c>
@@ -14468,14 +14492,14 @@
         <v>777</v>
       </c>
       <c r="E137" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F137" s="256" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="307"/>
+      <c r="A138" s="306"/>
       <c r="B138" s="236" t="s">
         <v>453</v>
       </c>
@@ -14486,11 +14510,11 @@
         <v>778</v>
       </c>
       <c r="E138" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="307"/>
+      <c r="A139" s="306"/>
       <c r="B139" s="236" t="s">
         <v>454</v>
       </c>
@@ -14501,11 +14525,11 @@
         <v>779</v>
       </c>
       <c r="E139" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="307"/>
+      <c r="A140" s="306"/>
       <c r="B140" s="236" t="s">
         <v>455</v>
       </c>
@@ -14516,11 +14540,11 @@
         <v>780</v>
       </c>
       <c r="E140" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="307"/>
+      <c r="A141" s="306"/>
       <c r="B141" s="236" t="s">
         <v>29</v>
       </c>
@@ -14531,11 +14555,11 @@
         <v>727</v>
       </c>
       <c r="E141" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="307"/>
+      <c r="A142" s="306"/>
       <c r="B142" s="236" t="s">
         <v>128</v>
       </c>
@@ -14546,11 +14570,11 @@
         <v>726</v>
       </c>
       <c r="E142" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="307"/>
+      <c r="A143" s="306"/>
       <c r="B143" s="236" t="s">
         <v>456</v>
       </c>
@@ -14561,11 +14585,11 @@
         <v>726</v>
       </c>
       <c r="E143" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="307"/>
+      <c r="A144" s="306"/>
       <c r="B144" s="215" t="s">
         <v>129</v>
       </c>
@@ -14576,39 +14600,39 @@
         <v>776</v>
       </c>
       <c r="E144" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="307"/>
+      <c r="A145" s="306"/>
       <c r="B145" s="237" t="s">
         <v>130</v>
       </c>
       <c r="C145" s="255" t="s">
+        <v>887</v>
+      </c>
+      <c r="D145" s="254" t="s">
+        <v>889</v>
+      </c>
+      <c r="E145" s="252" t="s">
+        <v>798</v>
+      </c>
+      <c r="F145" s="256" t="s">
         <v>888</v>
       </c>
-      <c r="D145" s="254" t="s">
-        <v>890</v>
-      </c>
-      <c r="E145" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F145" s="256" t="s">
-        <v>889</v>
-      </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="307"/>
+      <c r="A146" s="306"/>
       <c r="B146" s="238" t="s">
         <v>131</v>
       </c>
       <c r="C146" s="255"/>
       <c r="F146" s="256" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="307"/>
+      <c r="A147" s="306"/>
       <c r="B147" s="237" t="s">
         <v>132</v>
       </c>
@@ -14619,11 +14643,11 @@
         <v>781</v>
       </c>
       <c r="E147" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="307"/>
+      <c r="A148" s="306"/>
       <c r="B148" s="215" t="s">
         <v>133</v>
       </c>
@@ -14634,11 +14658,11 @@
         <v>769</v>
       </c>
       <c r="E148" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="307"/>
+      <c r="A149" s="306"/>
       <c r="B149" s="215" t="s">
         <v>134</v>
       </c>
@@ -14649,11 +14673,11 @@
         <v>767</v>
       </c>
       <c r="E149" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="307"/>
+      <c r="A150" s="306"/>
       <c r="B150" s="238" t="s">
         <v>34</v>
       </c>
@@ -14664,11 +14688,11 @@
         <v>769</v>
       </c>
       <c r="E150" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="307"/>
+      <c r="A151" s="306"/>
       <c r="B151" s="215" t="s">
         <v>135</v>
       </c>
@@ -14679,14 +14703,14 @@
         <v>762</v>
       </c>
       <c r="E151" s="252" t="s">
+        <v>807</v>
+      </c>
+      <c r="F151" s="256" t="s">
         <v>808</v>
       </c>
-      <c r="F151" s="256" t="s">
-        <v>809</v>
-      </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="307"/>
+      <c r="A152" s="306"/>
       <c r="B152" s="215" t="s">
         <v>136</v>
       </c>
@@ -14697,11 +14721,11 @@
         <v>782</v>
       </c>
       <c r="E152" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="307"/>
+      <c r="A153" s="306"/>
       <c r="B153" s="102" t="s">
         <v>91</v>
       </c>
@@ -14712,11 +14736,11 @@
         <v>770</v>
       </c>
       <c r="E153" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="307"/>
+      <c r="A154" s="306"/>
       <c r="B154" s="102" t="s">
         <v>96</v>
       </c>
@@ -14727,11 +14751,11 @@
         <v>772</v>
       </c>
       <c r="E154" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="307"/>
+      <c r="A155" s="306"/>
       <c r="B155" s="102" t="s">
         <v>139</v>
       </c>
@@ -14742,11 +14766,11 @@
         <v>771</v>
       </c>
       <c r="E155" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="307"/>
+      <c r="A156" s="306"/>
       <c r="B156" s="104" t="s">
         <v>98</v>
       </c>
@@ -14756,7 +14780,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="307"/>
+      <c r="A157" s="306"/>
       <c r="B157" s="239" t="s">
         <v>99</v>
       </c>
@@ -14766,7 +14790,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="307"/>
+      <c r="A158" s="306"/>
       <c r="B158" s="240" t="s">
         <v>98</v>
       </c>
@@ -14776,7 +14800,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="307"/>
+      <c r="A159" s="306"/>
       <c r="B159" s="229" t="s">
         <v>101</v>
       </c>
@@ -14787,14 +14811,14 @@
         <v>770</v>
       </c>
       <c r="E159" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F159" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="307"/>
+      <c r="A160" s="306"/>
       <c r="B160" s="230" t="s">
         <v>102</v>
       </c>
@@ -14805,30 +14829,30 @@
         <v>773</v>
       </c>
       <c r="E160" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F160" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="308"/>
+      <c r="A161" s="307"/>
       <c r="B161" s="257" t="s">
         <v>507</v>
       </c>
       <c r="C161" s="253" t="s">
-        <v>606</v>
+        <v>904</v>
       </c>
       <c r="D161" s="254" t="s">
-        <v>774</v>
+        <v>905</v>
       </c>
       <c r="E161" s="252" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="30">
       <c r="A162" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B162" s="249" t="s">
         <v>698</v>
@@ -14840,14 +14864,14 @@
         <v>438</v>
       </c>
       <c r="E162" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F162" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="311" t="s">
+      <c r="A163" s="310" t="s">
         <v>705</v>
       </c>
       <c r="B163" s="219" t="s">
@@ -14860,21 +14884,21 @@
         <v>762</v>
       </c>
       <c r="E163" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="307"/>
+      <c r="A164" s="306"/>
       <c r="B164" s="220" t="s">
         <v>51</v>
       </c>
       <c r="C164" s="255"/>
       <c r="F164" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="307"/>
+      <c r="A165" s="306"/>
       <c r="B165" s="59" t="s">
         <v>145</v>
       </c>
@@ -14885,11 +14909,11 @@
         <v>763</v>
       </c>
       <c r="E165" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="307"/>
+      <c r="A166" s="306"/>
       <c r="B166" s="59" t="s">
         <v>71</v>
       </c>
@@ -14900,11 +14924,11 @@
         <v>763</v>
       </c>
       <c r="E166" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="307"/>
+      <c r="A167" s="306"/>
       <c r="B167" s="15" t="s">
         <v>146</v>
       </c>
@@ -14914,7 +14938,7 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="307"/>
+      <c r="A168" s="306"/>
       <c r="B168" s="221" t="s">
         <v>73</v>
       </c>
@@ -14925,11 +14949,11 @@
         <v>756</v>
       </c>
       <c r="E168" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="307"/>
+      <c r="A169" s="306"/>
       <c r="B169" s="221" t="s">
         <v>74</v>
       </c>
@@ -14940,11 +14964,11 @@
         <v>726</v>
       </c>
       <c r="E169" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="307"/>
+      <c r="A170" s="306"/>
       <c r="B170" s="221" t="s">
         <v>75</v>
       </c>
@@ -14955,11 +14979,11 @@
         <v>756</v>
       </c>
       <c r="E170" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="307"/>
+      <c r="A171" s="306"/>
       <c r="B171" s="221" t="s">
         <v>76</v>
       </c>
@@ -14970,11 +14994,11 @@
         <v>726</v>
       </c>
       <c r="E171" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="307"/>
+      <c r="A172" s="306"/>
       <c r="B172" s="60" t="s">
         <v>77</v>
       </c>
@@ -14985,13 +15009,13 @@
         <v>713</v>
       </c>
       <c r="E172" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="307"/>
+      <c r="A173" s="306"/>
       <c r="B173" s="60" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C173" s="253" t="s">
         <v>717</v>
@@ -15000,11 +15024,11 @@
         <v>714</v>
       </c>
       <c r="E173" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="307"/>
+      <c r="A174" s="306"/>
       <c r="B174" s="61" t="s">
         <v>149</v>
       </c>
@@ -15015,11 +15039,11 @@
         <v>756</v>
       </c>
       <c r="E174" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="307"/>
+      <c r="A175" s="306"/>
       <c r="B175" s="61" t="s">
         <v>150</v>
       </c>
@@ -15030,21 +15054,21 @@
         <v>780</v>
       </c>
       <c r="E175" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="307"/>
+      <c r="A176" s="306"/>
       <c r="B176" s="61" t="s">
         <v>151</v>
       </c>
       <c r="C176" s="255"/>
       <c r="F176" s="256" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="307"/>
+      <c r="A177" s="306"/>
       <c r="B177" s="64" t="s">
         <v>152</v>
       </c>
@@ -15055,11 +15079,11 @@
         <v>783</v>
       </c>
       <c r="E177" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="307"/>
+      <c r="A178" s="306"/>
       <c r="B178" s="64" t="s">
         <v>153</v>
       </c>
@@ -15070,11 +15094,11 @@
         <v>769</v>
       </c>
       <c r="E178" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="307"/>
+      <c r="A179" s="306"/>
       <c r="B179" s="64" t="s">
         <v>154</v>
       </c>
@@ -15085,11 +15109,11 @@
         <v>769</v>
       </c>
       <c r="E179" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="307"/>
+      <c r="A180" s="306"/>
       <c r="B180" s="64" t="s">
         <v>155</v>
       </c>
@@ -15100,31 +15124,31 @@
         <v>769</v>
       </c>
       <c r="E180" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="307"/>
+      <c r="A181" s="306"/>
       <c r="B181" s="241" t="s">
         <v>156</v>
       </c>
       <c r="C181" s="255"/>
       <c r="F181" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="307"/>
+      <c r="A182" s="306"/>
       <c r="B182" s="241" t="s">
         <v>157</v>
       </c>
       <c r="C182" s="255"/>
       <c r="F182" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="307"/>
+      <c r="A183" s="306"/>
       <c r="B183" s="63" t="s">
         <v>158</v>
       </c>
@@ -15135,11 +15159,11 @@
         <v>714</v>
       </c>
       <c r="E183" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="307"/>
+      <c r="A184" s="306"/>
       <c r="B184" s="57" t="s">
         <v>96</v>
       </c>
@@ -15150,11 +15174,11 @@
         <v>772</v>
       </c>
       <c r="E184" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="307"/>
+      <c r="A185" s="306"/>
       <c r="B185" s="57" t="s">
         <v>97</v>
       </c>
@@ -15165,11 +15189,11 @@
         <v>773</v>
       </c>
       <c r="E185" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="307"/>
+      <c r="A186" s="306"/>
       <c r="B186" s="57" t="s">
         <v>159</v>
       </c>
@@ -15180,11 +15204,11 @@
         <v>770</v>
       </c>
       <c r="E186" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="307"/>
+      <c r="A187" s="306"/>
       <c r="B187" s="57" t="s">
         <v>160</v>
       </c>
@@ -15195,29 +15219,29 @@
         <v>770</v>
       </c>
       <c r="E187" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="307"/>
+      <c r="A188" s="306"/>
       <c r="B188" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C188" s="304" t="s">
+      <c r="C188" s="303" t="s">
         <v>681</v>
       </c>
       <c r="D188" s="254" t="s">
         <v>682</v>
       </c>
       <c r="E188" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F188" s="306" t="s">
+        <v>798</v>
+      </c>
+      <c r="F188" s="305" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="307"/>
+      <c r="A189" s="306"/>
       <c r="B189" s="104" t="s">
         <v>98</v>
       </c>
@@ -15227,7 +15251,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="307"/>
+      <c r="A190" s="306"/>
       <c r="B190" s="239" t="s">
         <v>99</v>
       </c>
@@ -15237,7 +15261,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="307"/>
+      <c r="A191" s="306"/>
       <c r="B191" s="240" t="s">
         <v>98</v>
       </c>
@@ -15247,7 +15271,7 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="307"/>
+      <c r="A192" s="306"/>
       <c r="B192" s="229" t="s">
         <v>101</v>
       </c>
@@ -15258,14 +15282,14 @@
         <v>770</v>
       </c>
       <c r="E192" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F192" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="307"/>
+      <c r="A193" s="306"/>
       <c r="B193" s="230" t="s">
         <v>102</v>
       </c>
@@ -15276,30 +15300,30 @@
         <v>773</v>
       </c>
       <c r="E193" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F193" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="308"/>
+      <c r="A194" s="307"/>
       <c r="B194" s="257" t="s">
         <v>507</v>
       </c>
       <c r="C194" s="253" t="s">
-        <v>606</v>
+        <v>904</v>
       </c>
       <c r="D194" s="254" t="s">
-        <v>784</v>
+        <v>905</v>
       </c>
       <c r="E194" s="252" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="30">
       <c r="A195" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B195" s="249" t="s">
         <v>698</v>
@@ -15311,14 +15335,14 @@
         <v>438</v>
       </c>
       <c r="E195" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F195" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1">
-      <c r="A196" s="311" t="s">
+      <c r="A196" s="310" t="s">
         <v>704</v>
       </c>
       <c r="B196" s="219" t="s">
@@ -15331,21 +15355,21 @@
         <v>762</v>
       </c>
       <c r="E196" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="307"/>
+      <c r="A197" s="306"/>
       <c r="B197" s="220" t="s">
         <v>51</v>
       </c>
       <c r="C197" s="255"/>
       <c r="F197" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="307"/>
+      <c r="A198" s="306"/>
       <c r="B198" s="14" t="s">
         <v>165</v>
       </c>
@@ -15356,11 +15380,11 @@
         <v>763</v>
       </c>
       <c r="E198" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="307"/>
+      <c r="A199" s="306"/>
       <c r="B199" s="14" t="s">
         <v>71</v>
       </c>
@@ -15371,11 +15395,11 @@
         <v>763</v>
       </c>
       <c r="E199" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="307"/>
+      <c r="A200" s="306"/>
       <c r="B200" s="15" t="s">
         <v>166</v>
       </c>
@@ -15385,7 +15409,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="307"/>
+      <c r="A201" s="306"/>
       <c r="B201" s="221" t="s">
         <v>73</v>
       </c>
@@ -15396,11 +15420,11 @@
         <v>756</v>
       </c>
       <c r="E201" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="307"/>
+      <c r="A202" s="306"/>
       <c r="B202" s="221" t="s">
         <v>74</v>
       </c>
@@ -15411,11 +15435,11 @@
         <v>726</v>
       </c>
       <c r="E202" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="307"/>
+      <c r="A203" s="306"/>
       <c r="B203" s="221" t="s">
         <v>75</v>
       </c>
@@ -15426,11 +15450,11 @@
         <v>756</v>
       </c>
       <c r="E203" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="307"/>
+      <c r="A204" s="306"/>
       <c r="B204" s="221" t="s">
         <v>76</v>
       </c>
@@ -15441,11 +15465,11 @@
         <v>726</v>
       </c>
       <c r="E204" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="307"/>
+      <c r="A205" s="306"/>
       <c r="B205" s="60" t="s">
         <v>77</v>
       </c>
@@ -15456,11 +15480,11 @@
         <v>713</v>
       </c>
       <c r="E205" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="307"/>
+      <c r="A206" s="306"/>
       <c r="B206" s="222" t="s">
         <v>78</v>
       </c>
@@ -15472,9 +15496,9 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="307"/>
+      <c r="A207" s="306"/>
       <c r="B207" s="60" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C207" s="253" t="s">
         <v>717</v>
@@ -15483,11 +15507,11 @@
         <v>714</v>
       </c>
       <c r="E207" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="307"/>
+      <c r="A208" s="306"/>
       <c r="B208" s="223" t="s">
         <v>167</v>
       </c>
@@ -15498,11 +15522,11 @@
         <v>756</v>
       </c>
       <c r="E208" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="307"/>
+      <c r="A209" s="306"/>
       <c r="B209" s="223" t="s">
         <v>83</v>
       </c>
@@ -15513,11 +15537,11 @@
         <v>726</v>
       </c>
       <c r="E209" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="307"/>
+      <c r="A210" s="306"/>
       <c r="B210" s="61" t="s">
         <v>168</v>
       </c>
@@ -15525,14 +15549,14 @@
         <v>725</v>
       </c>
       <c r="D210" s="254" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E210" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="307"/>
+      <c r="A211" s="306"/>
       <c r="B211" s="223" t="s">
         <v>169</v>
       </c>
@@ -15544,7 +15568,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="307"/>
+      <c r="A212" s="306"/>
       <c r="B212" s="61" t="s">
         <v>84</v>
       </c>
@@ -15555,11 +15579,11 @@
         <v>726</v>
       </c>
       <c r="E212" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="307"/>
+      <c r="A213" s="306"/>
       <c r="B213" s="242" t="s">
         <v>88</v>
       </c>
@@ -15570,11 +15594,11 @@
         <v>767</v>
       </c>
       <c r="E213" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="307"/>
+      <c r="A214" s="306"/>
       <c r="B214" s="242" t="s">
         <v>89</v>
       </c>
@@ -15585,11 +15609,11 @@
         <v>783</v>
       </c>
       <c r="E214" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="307"/>
+      <c r="A215" s="306"/>
       <c r="B215" s="242" t="s">
         <v>90</v>
       </c>
@@ -15600,11 +15624,11 @@
         <v>769</v>
       </c>
       <c r="E215" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="307"/>
+      <c r="A216" s="306"/>
       <c r="B216" s="242" t="s">
         <v>33</v>
       </c>
@@ -15615,11 +15639,11 @@
         <v>769</v>
       </c>
       <c r="E216" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="307"/>
+      <c r="A217" s="306"/>
       <c r="B217" s="242" t="s">
         <v>34</v>
       </c>
@@ -15630,11 +15654,11 @@
         <v>769</v>
       </c>
       <c r="E217" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="307"/>
+      <c r="A218" s="306"/>
       <c r="B218" s="243" t="s">
         <v>170</v>
       </c>
@@ -15645,11 +15669,11 @@
         <v>770</v>
       </c>
       <c r="E218" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="307"/>
+      <c r="A219" s="306"/>
       <c r="B219" s="243" t="s">
         <v>92</v>
       </c>
@@ -15660,11 +15684,11 @@
         <v>771</v>
       </c>
       <c r="E219" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="307"/>
+      <c r="A220" s="306"/>
       <c r="B220" s="243" t="s">
         <v>96</v>
       </c>
@@ -15675,11 +15699,11 @@
         <v>772</v>
       </c>
       <c r="E220" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="307"/>
+      <c r="A221" s="306"/>
       <c r="B221" s="243" t="s">
         <v>97</v>
       </c>
@@ -15690,11 +15714,11 @@
         <v>773</v>
       </c>
       <c r="E221" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="307"/>
+      <c r="A222" s="306"/>
       <c r="B222" s="104" t="s">
         <v>98</v>
       </c>
@@ -15704,7 +15728,7 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="307"/>
+      <c r="A223" s="306"/>
       <c r="B223" s="239" t="s">
         <v>99</v>
       </c>
@@ -15714,7 +15738,7 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="307"/>
+      <c r="A224" s="306"/>
       <c r="B224" s="240" t="s">
         <v>98</v>
       </c>
@@ -15724,7 +15748,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="307"/>
+      <c r="A225" s="306"/>
       <c r="B225" s="244" t="s">
         <v>100</v>
       </c>
@@ -15735,14 +15759,14 @@
         <v>771</v>
       </c>
       <c r="E225" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F225" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="307"/>
+      <c r="A226" s="306"/>
       <c r="B226" s="229" t="s">
         <v>101</v>
       </c>
@@ -15753,14 +15777,14 @@
         <v>770</v>
       </c>
       <c r="E226" s="252" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F226" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="307"/>
+      <c r="A227" s="306"/>
       <c r="B227" s="230" t="s">
         <v>102</v>
       </c>
@@ -15771,30 +15795,30 @@
         <v>773</v>
       </c>
       <c r="E227" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F227" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="308"/>
+      <c r="A228" s="307"/>
       <c r="B228" s="257" t="s">
         <v>507</v>
       </c>
       <c r="C228" s="253" t="s">
-        <v>606</v>
+        <v>904</v>
       </c>
       <c r="D228" s="254" t="s">
-        <v>784</v>
+        <v>905</v>
       </c>
       <c r="E228" s="252" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="30">
       <c r="A229" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B229" s="249" t="s">
         <v>698</v>
@@ -15806,14 +15830,14 @@
         <v>438</v>
       </c>
       <c r="E229" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F229" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1">
-      <c r="A230" s="311" t="s">
+      <c r="A230" s="310" t="s">
         <v>706</v>
       </c>
       <c r="B230" s="245" t="s">
@@ -15823,14 +15847,14 @@
         <v>687</v>
       </c>
       <c r="D230" s="254" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E230" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="307"/>
+      <c r="A231" s="306"/>
       <c r="B231" s="245" t="s">
         <v>180</v>
       </c>
@@ -15838,14 +15862,14 @@
         <v>576</v>
       </c>
       <c r="D231" s="254" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E231" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="307"/>
+      <c r="A232" s="306"/>
       <c r="B232" s="245" t="s">
         <v>181</v>
       </c>
@@ -15853,16 +15877,16 @@
         <v>577</v>
       </c>
       <c r="D232" s="254" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E232" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="307"/>
+      <c r="A233" s="306"/>
       <c r="B233" s="245" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C233" s="253" t="s">
         <v>717</v>
@@ -15871,11 +15895,11 @@
         <v>714</v>
       </c>
       <c r="E233" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="307"/>
+      <c r="A234" s="306"/>
       <c r="B234" s="206" t="s">
         <v>183</v>
       </c>
@@ -15883,14 +15907,14 @@
         <v>578</v>
       </c>
       <c r="D234" s="254" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E234" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="307"/>
+      <c r="A235" s="306"/>
       <c r="B235" s="206" t="s">
         <v>184</v>
       </c>
@@ -15898,14 +15922,14 @@
         <v>579</v>
       </c>
       <c r="D235" s="254" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E235" s="252" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A236" s="307"/>
+      <c r="A236" s="306"/>
       <c r="B236" s="205" t="s">
         <v>186</v>
       </c>
@@ -15913,14 +15937,14 @@
         <v>686</v>
       </c>
       <c r="D236" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E236" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="307"/>
+      <c r="A237" s="306"/>
       <c r="B237" s="205" t="s">
         <v>187</v>
       </c>
@@ -15928,14 +15952,14 @@
         <v>686</v>
       </c>
       <c r="D237" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E237" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="307"/>
+      <c r="A238" s="306"/>
       <c r="B238" s="205" t="s">
         <v>188</v>
       </c>
@@ -15943,14 +15967,14 @@
         <v>686</v>
       </c>
       <c r="D238" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E238" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="307"/>
+      <c r="A239" s="306"/>
       <c r="B239" s="205" t="s">
         <v>189</v>
       </c>
@@ -15958,14 +15982,14 @@
         <v>691</v>
       </c>
       <c r="D239" s="254" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E239" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="307"/>
+      <c r="A240" s="306"/>
       <c r="B240" s="205" t="s">
         <v>190</v>
       </c>
@@ -15973,14 +15997,14 @@
         <v>691</v>
       </c>
       <c r="D240" s="254" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E240" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="308"/>
+      <c r="A241" s="307"/>
       <c r="B241" s="205" t="s">
         <v>191</v>
       </c>
@@ -15988,15 +16012,15 @@
         <v>686</v>
       </c>
       <c r="D241" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E241" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="30">
       <c r="A242" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B242" s="249" t="s">
         <v>698</v>
@@ -16008,14 +16032,14 @@
         <v>438</v>
       </c>
       <c r="E242" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F242" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1">
-      <c r="A243" s="311" t="s">
+      <c r="A243" s="310" t="s">
         <v>710</v>
       </c>
       <c r="B243" s="246" t="s">
@@ -16028,11 +16052,11 @@
         <v>754</v>
       </c>
       <c r="E243" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="307"/>
+      <c r="A244" s="306"/>
       <c r="B244" s="246" t="s">
         <v>214</v>
       </c>
@@ -16040,16 +16064,16 @@
         <v>689</v>
       </c>
       <c r="D244" s="254" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E244" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="307"/>
+      <c r="A245" s="306"/>
       <c r="B245" s="246" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C245" s="253" t="s">
         <v>717</v>
@@ -16058,11 +16082,11 @@
         <v>714</v>
       </c>
       <c r="E245" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="307"/>
+      <c r="A246" s="306"/>
       <c r="B246" s="205" t="s">
         <v>189</v>
       </c>
@@ -16070,14 +16094,14 @@
         <v>691</v>
       </c>
       <c r="D246" s="254" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E246" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="307"/>
+      <c r="A247" s="306"/>
       <c r="B247" s="205" t="s">
         <v>207</v>
       </c>
@@ -16085,14 +16109,14 @@
         <v>686</v>
       </c>
       <c r="D247" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E247" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="308"/>
+      <c r="A248" s="307"/>
       <c r="B248" s="205" t="s">
         <v>206</v>
       </c>
@@ -16100,15 +16124,15 @@
         <v>686</v>
       </c>
       <c r="D248" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E248" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="30">
       <c r="A249" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B249" s="249" t="s">
         <v>698</v>
@@ -16120,34 +16144,34 @@
         <v>438</v>
       </c>
       <c r="E249" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F249" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="311" t="s">
+      <c r="A250" s="310" t="s">
         <v>707</v>
       </c>
       <c r="B250" s="258" t="s">
         <v>535</v>
       </c>
-      <c r="C250" s="304" t="s">
-        <v>795</v>
+      <c r="C250" s="303" t="s">
+        <v>794</v>
       </c>
       <c r="D250" s="254" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E250" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F250" s="305" t="s">
-        <v>807</v>
+        <v>799</v>
+      </c>
+      <c r="F250" s="304" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="307"/>
+      <c r="A251" s="306"/>
       <c r="B251" s="246" t="s">
         <v>197</v>
       </c>
@@ -16158,11 +16182,11 @@
         <v>754</v>
       </c>
       <c r="E251" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1">
-      <c r="A252" s="307"/>
+      <c r="A252" s="306"/>
       <c r="B252" s="246" t="s">
         <v>198</v>
       </c>
@@ -16170,16 +16194,16 @@
         <v>696</v>
       </c>
       <c r="D252" s="254" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E252" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="307"/>
+      <c r="A253" s="306"/>
       <c r="B253" s="246" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C253" s="253" t="s">
         <v>717</v>
@@ -16188,72 +16212,72 @@
         <v>714</v>
       </c>
       <c r="E253" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="307"/>
+      <c r="A254" s="306"/>
       <c r="B254" s="246" t="s">
         <v>200</v>
       </c>
       <c r="C254" s="255"/>
       <c r="F254" s="256" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="307"/>
+      <c r="A255" s="306"/>
       <c r="B255" s="246" t="s">
         <v>536</v>
       </c>
-      <c r="C255" s="304" t="s">
-        <v>795</v>
+      <c r="C255" s="303" t="s">
+        <v>794</v>
       </c>
       <c r="D255" s="254" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E255" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="307"/>
+      <c r="A256" s="306"/>
       <c r="B256" s="208" t="s">
         <v>201</v>
       </c>
-      <c r="C256" s="304" t="s">
+      <c r="C256" s="303" t="s">
         <v>582</v>
       </c>
       <c r="D256" s="254" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E256" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F256" s="306" t="s">
-        <v>901</v>
+        <v>799</v>
+      </c>
+      <c r="F256" s="305" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="307"/>
+      <c r="A257" s="306"/>
       <c r="B257" s="208" t="s">
         <v>202</v>
       </c>
-      <c r="C257" s="304" t="s">
+      <c r="C257" s="303" t="s">
         <v>582</v>
       </c>
       <c r="D257" s="254" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E257" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F257" s="305" t="s">
-        <v>807</v>
+        <v>799</v>
+      </c>
+      <c r="F257" s="304" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="307"/>
+      <c r="A258" s="306"/>
       <c r="B258" s="209" t="s">
         <v>203</v>
       </c>
@@ -16261,14 +16285,14 @@
         <v>203</v>
       </c>
       <c r="D258" s="254" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E258" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="307"/>
+      <c r="A259" s="306"/>
       <c r="B259" s="209" t="s">
         <v>204</v>
       </c>
@@ -16276,14 +16300,14 @@
         <v>204</v>
       </c>
       <c r="D259" s="254" t="s">
+        <v>797</v>
+      </c>
+      <c r="E259" s="252" t="s">
         <v>798</v>
       </c>
-      <c r="E259" s="252" t="s">
-        <v>799</v>
-      </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="307"/>
+      <c r="A260" s="306"/>
       <c r="B260" s="247" t="s">
         <v>205</v>
       </c>
@@ -16291,14 +16315,14 @@
         <v>686</v>
       </c>
       <c r="D260" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E260" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="307"/>
+      <c r="A261" s="306"/>
       <c r="B261" s="247" t="s">
         <v>206</v>
       </c>
@@ -16306,14 +16330,14 @@
         <v>686</v>
       </c>
       <c r="D261" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E261" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="307"/>
+      <c r="A262" s="306"/>
       <c r="B262" s="247" t="s">
         <v>207</v>
       </c>
@@ -16321,14 +16345,14 @@
         <v>686</v>
       </c>
       <c r="D262" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E262" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="308"/>
+      <c r="A263" s="307"/>
       <c r="B263" s="247" t="s">
         <v>208</v>
       </c>
@@ -16336,15 +16360,15 @@
         <v>686</v>
       </c>
       <c r="D263" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E263" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30">
       <c r="A264" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B264" s="249" t="s">
         <v>698</v>
@@ -16356,15 +16380,15 @@
         <v>438</v>
       </c>
       <c r="E264" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F264" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="312" t="s">
-        <v>882</v>
+      <c r="A265" s="311" t="s">
+        <v>881</v>
       </c>
       <c r="B265" s="246" t="s">
         <v>218</v>
@@ -16376,11 +16400,11 @@
         <v>754</v>
       </c>
       <c r="E265" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="312"/>
+      <c r="A266" s="311"/>
       <c r="B266" s="246" t="s">
         <v>219</v>
       </c>
@@ -16391,12 +16415,12 @@
         <v>754</v>
       </c>
       <c r="E266" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F266" s="302"/>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="312"/>
+      <c r="A267" s="311"/>
       <c r="B267" s="246" t="s">
         <v>220</v>
       </c>
@@ -16407,30 +16431,30 @@
         <v>754</v>
       </c>
       <c r="E267" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F267" s="302"/>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="312"/>
+      <c r="A268" s="311"/>
       <c r="B268" s="208" t="s">
         <v>221</v>
       </c>
-      <c r="C268" s="304" t="s">
+      <c r="C268" s="303" t="s">
         <v>582</v>
       </c>
       <c r="D268" s="254" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E268" s="252" t="s">
-        <v>800</v>
-      </c>
-      <c r="F268" s="305" t="s">
-        <v>807</v>
+        <v>799</v>
+      </c>
+      <c r="F268" s="304" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="312"/>
+      <c r="A269" s="311"/>
       <c r="B269" s="208" t="s">
         <v>711</v>
       </c>
@@ -16438,14 +16462,14 @@
         <v>203</v>
       </c>
       <c r="D269" s="254" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E269" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="312"/>
+      <c r="A270" s="311"/>
       <c r="B270" s="208" t="s">
         <v>712</v>
       </c>
@@ -16453,14 +16477,14 @@
         <v>204</v>
       </c>
       <c r="D270" s="254" t="s">
+        <v>797</v>
+      </c>
+      <c r="E270" s="252" t="s">
         <v>798</v>
       </c>
-      <c r="E270" s="252" t="s">
-        <v>799</v>
-      </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="312"/>
+      <c r="A271" s="311"/>
       <c r="B271" s="208" t="s">
         <v>208</v>
       </c>
@@ -16468,15 +16492,15 @@
         <v>686</v>
       </c>
       <c r="D271" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E271" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="30">
       <c r="A272" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B272" s="249" t="s">
         <v>698</v>
@@ -16488,15 +16512,15 @@
         <v>438</v>
       </c>
       <c r="E272" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F272" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="312" t="s">
-        <v>881</v>
+      <c r="A273" s="311" t="s">
+        <v>880</v>
       </c>
       <c r="B273" s="246" t="s">
         <v>227</v>
@@ -16508,11 +16532,11 @@
         <v>754</v>
       </c>
       <c r="E273" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="312"/>
+      <c r="A274" s="311"/>
       <c r="B274" s="246" t="s">
         <v>228</v>
       </c>
@@ -16523,12 +16547,12 @@
         <v>754</v>
       </c>
       <c r="E274" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F274" s="302"/>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="312"/>
+      <c r="A275" s="311"/>
       <c r="B275" s="246" t="s">
         <v>229</v>
       </c>
@@ -16539,12 +16563,12 @@
         <v>754</v>
       </c>
       <c r="E275" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F275" s="302"/>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="312"/>
+      <c r="A276" s="311"/>
       <c r="B276" s="208" t="s">
         <v>711</v>
       </c>
@@ -16552,14 +16576,14 @@
         <v>203</v>
       </c>
       <c r="D276" s="254" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E276" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="312"/>
+      <c r="A277" s="311"/>
       <c r="B277" s="208" t="s">
         <v>712</v>
       </c>
@@ -16567,14 +16591,14 @@
         <v>204</v>
       </c>
       <c r="D277" s="254" t="s">
+        <v>797</v>
+      </c>
+      <c r="E277" s="252" t="s">
         <v>798</v>
       </c>
-      <c r="E277" s="252" t="s">
-        <v>799</v>
-      </c>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="312"/>
+      <c r="A278" s="311"/>
       <c r="B278" s="208" t="s">
         <v>208</v>
       </c>
@@ -16582,15 +16606,15 @@
         <v>686</v>
       </c>
       <c r="D278" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E278" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="30">
       <c r="A279" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B279" s="249" t="s">
         <v>698</v>
@@ -16602,14 +16626,14 @@
         <v>438</v>
       </c>
       <c r="E279" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F279" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="311" t="s">
+      <c r="A280" s="310" t="s">
         <v>708</v>
       </c>
       <c r="B280" s="246" t="s">
@@ -16622,13 +16646,13 @@
         <v>713</v>
       </c>
       <c r="E280" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="308"/>
+      <c r="A281" s="307"/>
       <c r="B281" s="246" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C281" s="253" t="s">
         <v>717</v>
@@ -16637,12 +16661,12 @@
         <v>714</v>
       </c>
       <c r="E281" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1">
       <c r="A282" s="248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B282" s="249" t="s">
         <v>698</v>
@@ -16654,14 +16678,14 @@
         <v>438</v>
       </c>
       <c r="E282" s="251" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F282" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="311" t="s">
+      <c r="A283" s="310" t="s">
         <v>709</v>
       </c>
       <c r="B283" s="246" t="s">
@@ -16674,13 +16698,13 @@
         <v>713</v>
       </c>
       <c r="E283" s="252" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="308"/>
+      <c r="A284" s="307"/>
       <c r="B284" s="246" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C284" s="253" t="s">
         <v>717</v>
@@ -16689,7 +16713,7 @@
         <v>714</v>
       </c>
       <c r="E284" s="252" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1"/>
@@ -16723,8 +16747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521BAD47-57F4-4F43-9697-C27123B292AD}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16904,7 +16928,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="26.25">
-      <c r="A8" s="313" t="s">
+      <c r="A8" s="312" t="s">
         <v>524</v>
       </c>
       <c r="B8" s="136" t="s">
@@ -16939,7 +16963,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="26.25">
-      <c r="A9" s="314"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="136" t="s">
         <v>9</v>
       </c>
@@ -16966,7 +16990,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="26.25">
-      <c r="A10" s="314"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="136" t="s">
         <v>10</v>
       </c>
@@ -16993,7 +17017,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.25">
-      <c r="A11" s="314"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="136" t="s">
         <v>11</v>
       </c>
@@ -17023,7 +17047,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="26.25">
-      <c r="A12" s="314"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="136" t="s">
         <v>12</v>
       </c>
@@ -17056,7 +17080,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="26.25">
-      <c r="A13" s="314"/>
+      <c r="A13" s="313"/>
       <c r="B13" s="140" t="s">
         <v>13</v>
       </c>
@@ -17086,7 +17110,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="26.25">
-      <c r="A14" s="314"/>
+      <c r="A14" s="313"/>
       <c r="B14" s="136" t="s">
         <v>14</v>
       </c>
@@ -17116,7 +17140,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="26.25">
-      <c r="A15" s="314"/>
+      <c r="A15" s="313"/>
       <c r="B15" s="136" t="s">
         <v>15</v>
       </c>
@@ -17143,7 +17167,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="26.25">
-      <c r="A16" s="314"/>
+      <c r="A16" s="313"/>
       <c r="B16" s="136" t="s">
         <v>16</v>
       </c>
@@ -17170,7 +17194,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="26.25">
-      <c r="A17" s="314"/>
+      <c r="A17" s="313"/>
       <c r="B17" s="136" t="s">
         <v>17</v>
       </c>
@@ -17200,7 +17224,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="26.25">
-      <c r="A18" s="314"/>
+      <c r="A18" s="313"/>
       <c r="B18" s="140" t="s">
         <v>18</v>
       </c>
@@ -17227,7 +17251,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="26.25">
-      <c r="A19" s="314"/>
+      <c r="A19" s="313"/>
       <c r="B19" s="140" t="s">
         <v>19</v>
       </c>
@@ -17254,7 +17278,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="26.25">
-      <c r="A20" s="314"/>
+      <c r="A20" s="313"/>
       <c r="B20" s="136" t="s">
         <v>20</v>
       </c>
@@ -17284,7 +17308,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="26.25">
-      <c r="A21" s="314"/>
+      <c r="A21" s="313"/>
       <c r="B21" s="136" t="s">
         <v>21</v>
       </c>
@@ -17311,7 +17335,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="26.25">
-      <c r="A22" s="314"/>
+      <c r="A22" s="313"/>
       <c r="B22" s="136" t="s">
         <v>22</v>
       </c>
@@ -17341,7 +17365,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="26.25">
-      <c r="A23" s="314"/>
+      <c r="A23" s="313"/>
       <c r="B23" s="136" t="s">
         <v>23</v>
       </c>
@@ -17374,7 +17398,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="26.25">
-      <c r="A24" s="314"/>
+      <c r="A24" s="313"/>
       <c r="B24" s="136" t="s">
         <v>24</v>
       </c>
@@ -17404,7 +17428,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="26.25">
-      <c r="A25" s="314"/>
+      <c r="A25" s="313"/>
       <c r="B25" s="136" t="s">
         <v>25</v>
       </c>
@@ -17437,7 +17461,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="26.25">
-      <c r="A26" s="314"/>
+      <c r="A26" s="313"/>
       <c r="B26" s="140" t="s">
         <v>26</v>
       </c>
@@ -17467,7 +17491,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="314"/>
+      <c r="A27" s="313"/>
       <c r="B27" s="142" t="s">
         <v>30</v>
       </c>
@@ -17485,7 +17509,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="26.25">
-      <c r="A28" s="315"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="140" t="s">
         <v>29</v>
       </c>
@@ -17512,7 +17536,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="316" t="s">
+      <c r="A29" s="315" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="164" t="s">
@@ -17538,7 +17562,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="317"/>
+      <c r="A30" s="316"/>
       <c r="B30" s="165" t="s">
         <v>610</v>
       </c>
@@ -17562,7 +17586,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="317"/>
+      <c r="A31" s="316"/>
       <c r="B31" s="165" t="s">
         <v>611</v>
       </c>
@@ -17586,7 +17610,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="317"/>
+      <c r="A32" s="316"/>
       <c r="B32" s="98" t="s">
         <v>32</v>
       </c>
@@ -17600,20 +17624,20 @@
         <v>538</v>
       </c>
       <c r="F32" s="193" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G32" t="s">
         <v>546</v>
       </c>
       <c r="I32" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J32" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="317"/>
+      <c r="A33" s="316"/>
       <c r="B33" s="98" t="s">
         <v>33</v>
       </c>
@@ -17625,7 +17649,7 @@
         <v>538</v>
       </c>
       <c r="F33" s="193" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G33" t="s">
         <v>547</v>
@@ -17635,7 +17659,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="317"/>
+      <c r="A34" s="316"/>
       <c r="B34" s="166" t="s">
         <v>34</v>
       </c>
@@ -17647,7 +17671,7 @@
         <v>538</v>
       </c>
       <c r="F34" s="193" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G34" t="s">
         <v>548</v>
@@ -17875,7 +17899,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="318" t="s">
+      <c r="A10" s="317" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="136" t="s">
@@ -17898,7 +17922,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="319"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="136" t="s">
         <v>9</v>
       </c>
@@ -17919,7 +17943,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="319"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="136" t="s">
         <v>10</v>
       </c>
@@ -17943,7 +17967,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="319"/>
+      <c r="A13" s="318"/>
       <c r="B13" s="136" t="s">
         <v>11</v>
       </c>
@@ -17964,7 +17988,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="319"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="136" t="s">
         <v>12</v>
       </c>
@@ -17988,7 +18012,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="319"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="140" t="s">
         <v>13</v>
       </c>
@@ -18012,7 +18036,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="319"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="136" t="s">
         <v>14</v>
       </c>
@@ -18036,7 +18060,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="319"/>
+      <c r="A17" s="318"/>
       <c r="B17" s="136" t="s">
         <v>15</v>
       </c>
@@ -18060,7 +18084,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="319"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="136" t="s">
         <v>16</v>
       </c>
@@ -18084,7 +18108,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="319"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="136" t="s">
         <v>17</v>
       </c>
@@ -18108,7 +18132,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="319"/>
+      <c r="A20" s="318"/>
       <c r="B20" s="140" t="s">
         <v>18</v>
       </c>
@@ -18132,7 +18156,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="319"/>
+      <c r="A21" s="318"/>
       <c r="B21" s="140" t="s">
         <v>19</v>
       </c>
@@ -18156,7 +18180,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="319"/>
+      <c r="A22" s="318"/>
       <c r="B22" s="136" t="s">
         <v>20</v>
       </c>
@@ -18180,7 +18204,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="319"/>
+      <c r="A23" s="318"/>
       <c r="B23" s="136" t="s">
         <v>21</v>
       </c>
@@ -18207,7 +18231,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="319"/>
+      <c r="A24" s="318"/>
       <c r="B24" s="136" t="s">
         <v>22</v>
       </c>
@@ -18231,7 +18255,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="319"/>
+      <c r="A25" s="318"/>
       <c r="B25" s="136" t="s">
         <v>23</v>
       </c>
@@ -18255,7 +18279,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="319"/>
+      <c r="A26" s="318"/>
       <c r="B26" s="136" t="s">
         <v>24</v>
       </c>
@@ -18279,7 +18303,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="319"/>
+      <c r="A27" s="318"/>
       <c r="B27" s="136" t="s">
         <v>25</v>
       </c>
@@ -18303,7 +18327,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="319"/>
+      <c r="A28" s="318"/>
       <c r="B28" s="140" t="s">
         <v>26</v>
       </c>
@@ -18327,7 +18351,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="319"/>
+      <c r="A29" s="318"/>
       <c r="B29" s="140" t="s">
         <v>27</v>
       </c>
@@ -18354,7 +18378,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="319"/>
+      <c r="A30" s="318"/>
       <c r="B30" s="140" t="s">
         <v>28</v>
       </c>
@@ -18378,7 +18402,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="320"/>
+      <c r="A31" s="319"/>
       <c r="B31" s="140" t="s">
         <v>29</v>
       </c>
@@ -18417,7 +18441,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="321" t="s">
+      <c r="A33" s="320" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="143" t="s">
@@ -18440,7 +18464,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="322"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="146" t="s">
         <v>603</v>
       </c>
@@ -18464,7 +18488,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="322"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="143" t="s">
         <v>604</v>
       </c>
@@ -18485,7 +18509,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="322"/>
+      <c r="A36" s="321"/>
       <c r="B36" s="149" t="s">
         <v>32</v>
       </c>
@@ -18506,7 +18530,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="322"/>
+      <c r="A37" s="321"/>
       <c r="B37" s="149" t="s">
         <v>33</v>
       </c>
@@ -18528,7 +18552,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="322"/>
+      <c r="A38" s="321"/>
       <c r="B38" s="150" t="s">
         <v>34</v>
       </c>
@@ -18562,7 +18586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8DA24D-FA1F-4006-8949-535496353BBF}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -18597,7 +18621,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="322" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -18614,7 +18638,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="323"/>
+      <c r="A3" s="322"/>
       <c r="B3" s="18" t="s">
         <v>64</v>
       </c>
@@ -18629,7 +18653,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="323"/>
+      <c r="A4" s="322"/>
       <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
@@ -18644,7 +18668,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="39">
-      <c r="A5" s="323"/>
+      <c r="A5" s="322"/>
       <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
@@ -18665,7 +18689,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25">
-      <c r="A6" s="323"/>
+      <c r="A6" s="322"/>
       <c r="B6" s="17" t="s">
         <v>67</v>
       </c>
@@ -18680,7 +18704,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="323"/>
+      <c r="A7" s="322"/>
       <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
@@ -18693,7 +18717,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="324"/>
+      <c r="A8" s="323"/>
       <c r="B8" s="44" t="s">
         <v>69</v>
       </c>
@@ -18706,17 +18730,17 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="335" t="s">
+      <c r="A9" s="334" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="335"/>
+      <c r="B9" s="334"/>
       <c r="C9" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="51.75">
-      <c r="A10" s="336" t="s">
+      <c r="A10" s="335" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -18742,7 +18766,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="336"/>
+      <c r="A11" s="335"/>
       <c r="B11" s="14" t="s">
         <v>71</v>
       </c>
@@ -18758,7 +18782,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="337"/>
+      <c r="A12" s="336"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
@@ -18772,7 +18796,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="338" t="s">
+      <c r="A13" s="337" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -18799,7 +18823,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="338"/>
+      <c r="A14" s="337"/>
       <c r="B14" s="20" t="s">
         <v>74</v>
       </c>
@@ -18824,7 +18848,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="338"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="20" t="s">
         <v>75</v>
       </c>
@@ -18846,7 +18870,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="338"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="20" t="s">
         <v>76</v>
       </c>
@@ -18871,7 +18895,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="339" t="s">
+      <c r="A17" s="338" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -18892,7 +18916,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="339"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="22" t="s">
         <v>78</v>
       </c>
@@ -18914,7 +18938,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="339"/>
+      <c r="A19" s="338"/>
       <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
@@ -18933,7 +18957,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="339"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="21" t="s">
         <v>80</v>
       </c>
@@ -18976,7 +19000,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="39">
-      <c r="A22" s="325" t="s">
+      <c r="A22" s="324" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -19002,7 +19026,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="39">
-      <c r="A23" s="325"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="3" t="s">
         <v>83</v>
       </c>
@@ -19026,7 +19050,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="26.25">
-      <c r="A24" s="325"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="23" t="s">
         <v>84</v>
       </c>
@@ -19050,7 +19074,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="39">
-      <c r="A25" s="325" t="s">
+      <c r="A25" s="324" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -19076,7 +19100,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="39">
-      <c r="A26" s="325"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="39" t="s">
         <v>86</v>
       </c>
@@ -19103,7 +19127,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="39">
-      <c r="A27" s="325"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="39" t="s">
         <v>13</v>
       </c>
@@ -19127,7 +19151,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="39">
-      <c r="A28" s="325"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="38" t="s">
         <v>14</v>
       </c>
@@ -19151,7 +19175,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="39">
-      <c r="A29" s="325"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="38" t="s">
         <v>15</v>
       </c>
@@ -19175,7 +19199,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="39">
-      <c r="A30" s="325"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="38" t="s">
         <v>16</v>
       </c>
@@ -19199,7 +19223,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="39">
-      <c r="A31" s="325"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="38" t="s">
         <v>17</v>
       </c>
@@ -19223,7 +19247,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="39">
-      <c r="A32" s="325"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="39" t="s">
         <v>87</v>
       </c>
@@ -19247,7 +19271,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="39">
-      <c r="A33" s="325"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="38" t="s">
         <v>20</v>
       </c>
@@ -19271,7 +19295,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="39">
-      <c r="A34" s="325"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="38" t="s">
         <v>21</v>
       </c>
@@ -19298,7 +19322,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="39">
-      <c r="A35" s="325"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="38" t="s">
         <v>22</v>
       </c>
@@ -19322,7 +19346,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="39">
-      <c r="A36" s="325"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="38" t="s">
         <v>23</v>
       </c>
@@ -19346,7 +19370,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="39">
-      <c r="A37" s="325"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="38" t="s">
         <v>24</v>
       </c>
@@ -19370,7 +19394,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="39">
-      <c r="A38" s="325"/>
+      <c r="A38" s="324"/>
       <c r="B38" s="39" t="s">
         <v>18</v>
       </c>
@@ -19394,7 +19418,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="39">
-      <c r="A39" s="325"/>
+      <c r="A39" s="324"/>
       <c r="B39" s="38" t="s">
         <v>25</v>
       </c>
@@ -19418,7 +19442,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="39">
-      <c r="A40" s="325"/>
+      <c r="A40" s="324"/>
       <c r="B40" s="39" t="s">
         <v>26</v>
       </c>
@@ -19480,7 +19504,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="326" t="s">
+      <c r="A43" s="325" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -19503,7 +19527,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="51.75">
-      <c r="A44" s="327"/>
+      <c r="A44" s="326"/>
       <c r="B44" s="24" t="s">
         <v>89</v>
       </c>
@@ -19527,7 +19551,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="26.25">
-      <c r="A45" s="327"/>
+      <c r="A45" s="326"/>
       <c r="B45" s="24" t="s">
         <v>153</v>
       </c>
@@ -19554,7 +19578,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="327"/>
+      <c r="A46" s="326"/>
       <c r="B46" s="24" t="s">
         <v>33</v>
       </c>
@@ -19573,7 +19597,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="328"/>
+      <c r="A47" s="327"/>
       <c r="B47" s="24" t="s">
         <v>34</v>
       </c>
@@ -19592,7 +19616,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="26.25">
-      <c r="A48" s="329" t="s">
+      <c r="A48" s="328" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="51" t="s">
@@ -19618,7 +19642,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="330"/>
+      <c r="A49" s="329"/>
       <c r="B49" s="51" t="s">
         <v>92</v>
       </c>
@@ -19639,7 +19663,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="330"/>
+      <c r="A50" s="329"/>
       <c r="B50" s="52" t="s">
         <v>93</v>
       </c>
@@ -19654,7 +19678,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="330"/>
+      <c r="A51" s="329"/>
       <c r="B51" s="52" t="s">
         <v>94</v>
       </c>
@@ -19669,7 +19693,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="330"/>
+      <c r="A52" s="329"/>
       <c r="B52" s="195" t="s">
         <v>95</v>
       </c>
@@ -19691,7 +19715,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="330"/>
+      <c r="A53" s="329"/>
       <c r="B53" s="51" t="s">
         <v>96</v>
       </c>
@@ -19710,7 +19734,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="330"/>
+      <c r="A54" s="329"/>
       <c r="B54" s="53" t="s">
         <v>97</v>
       </c>
@@ -19729,7 +19753,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="330"/>
+      <c r="A55" s="329"/>
       <c r="B55" s="36" t="s">
         <v>98</v>
       </c>
@@ -19745,7 +19769,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="331"/>
+      <c r="A56" s="330"/>
       <c r="B56" s="37" t="s">
         <v>99</v>
       </c>
@@ -19758,7 +19782,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="26.25">
-      <c r="A57" s="332" t="s">
+      <c r="A57" s="331" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -19778,7 +19802,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="25.5">
-      <c r="A58" s="333"/>
+      <c r="A58" s="332"/>
       <c r="B58" s="25" t="s">
         <v>100</v>
       </c>
@@ -19802,7 +19826,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="333"/>
+      <c r="A59" s="332"/>
       <c r="B59" s="25" t="s">
         <v>101</v>
       </c>
@@ -19824,7 +19848,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="334"/>
+      <c r="A60" s="333"/>
       <c r="B60" s="26" t="s">
         <v>102</v>
       </c>
@@ -19932,7 +19956,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="345" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="153" t="s">
@@ -19946,7 +19970,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="347"/>
+      <c r="A3" s="346"/>
       <c r="B3" s="153" t="s">
         <v>121</v>
       </c>
@@ -19958,7 +19982,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="347"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="154" t="s">
         <v>65</v>
       </c>
@@ -19970,7 +19994,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="347"/>
+      <c r="A5" s="346"/>
       <c r="B5" s="154" t="s">
         <v>66</v>
       </c>
@@ -19988,7 +20012,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="347"/>
+      <c r="A6" s="346"/>
       <c r="B6" s="153" t="s">
         <v>67</v>
       </c>
@@ -20000,7 +20024,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="347"/>
+      <c r="A7" s="346"/>
       <c r="B7" s="155" t="s">
         <v>459</v>
       </c>
@@ -20012,7 +20036,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="348"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="154" t="s">
         <v>69</v>
       </c>
@@ -20024,16 +20048,16 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="348" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="350"/>
+      <c r="B9" s="349"/>
       <c r="C9" s="156" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="351" t="s">
+      <c r="A10" s="350" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="157" t="s">
@@ -20050,7 +20074,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="352"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="157" t="s">
         <v>71</v>
       </c>
@@ -20065,7 +20089,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="353"/>
+      <c r="A12" s="352"/>
       <c r="B12" s="158" t="s">
         <v>123</v>
       </c>
@@ -20074,7 +20098,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="353" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="159" t="s">
@@ -20098,7 +20122,7 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="355"/>
+      <c r="A14" s="354"/>
       <c r="B14" s="159" t="s">
         <v>74</v>
       </c>
@@ -20122,7 +20146,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="355"/>
+      <c r="A15" s="354"/>
       <c r="B15" s="159" t="s">
         <v>75</v>
       </c>
@@ -20144,7 +20168,7 @@
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="356"/>
+      <c r="A16" s="355"/>
       <c r="B16" s="159" t="s">
         <v>76</v>
       </c>
@@ -20168,7 +20192,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="357" t="s">
+      <c r="A17" s="356" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="160" t="s">
@@ -20188,7 +20212,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="358"/>
+      <c r="A18" s="357"/>
       <c r="B18" s="161" t="s">
         <v>78</v>
       </c>
@@ -20206,7 +20230,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="358"/>
+      <c r="A19" s="357"/>
       <c r="B19" s="160" t="s">
         <v>79</v>
       </c>
@@ -20224,7 +20248,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="358"/>
+      <c r="A20" s="357"/>
       <c r="B20" s="160" t="s">
         <v>80</v>
       </c>
@@ -20240,7 +20264,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="359"/>
+      <c r="A21" s="358"/>
       <c r="B21" s="160" t="s">
         <v>124</v>
       </c>
@@ -20261,7 +20285,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.25">
-      <c r="A22" s="360" t="s">
+      <c r="A22" s="359" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="96" t="s">
@@ -20284,7 +20308,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="361"/>
+      <c r="A23" s="360"/>
       <c r="B23" s="96" t="s">
         <v>125</v>
       </c>
@@ -20305,7 +20329,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="361"/>
+      <c r="A24" s="360"/>
       <c r="B24" s="97" t="s">
         <v>126</v>
       </c>
@@ -20329,7 +20353,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="361"/>
+      <c r="A25" s="360"/>
       <c r="B25" s="97" t="s">
         <v>127</v>
       </c>
@@ -20350,7 +20374,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="361"/>
+      <c r="A26" s="360"/>
       <c r="B26" s="97" t="s">
         <v>452</v>
       </c>
@@ -20371,7 +20395,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="361"/>
+      <c r="A27" s="360"/>
       <c r="B27" s="97" t="s">
         <v>453</v>
       </c>
@@ -20392,7 +20416,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="361"/>
+      <c r="A28" s="360"/>
       <c r="B28" s="97" t="s">
         <v>454</v>
       </c>
@@ -20413,7 +20437,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="361"/>
+      <c r="A29" s="360"/>
       <c r="B29" s="97" t="s">
         <v>455</v>
       </c>
@@ -20434,7 +20458,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="361"/>
+      <c r="A30" s="360"/>
       <c r="B30" s="97" t="s">
         <v>29</v>
       </c>
@@ -20455,7 +20479,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="361"/>
+      <c r="A31" s="360"/>
       <c r="B31" s="97" t="s">
         <v>128</v>
       </c>
@@ -20476,7 +20500,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="362"/>
+      <c r="A32" s="361"/>
       <c r="B32" s="97" t="s">
         <v>456</v>
       </c>
@@ -20655,7 +20679,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="340" t="s">
+      <c r="A42" s="339" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="101" t="s">
@@ -20672,7 +20696,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="341"/>
+      <c r="A43" s="340"/>
       <c r="B43" s="101" t="s">
         <v>96</v>
       </c>
@@ -20687,7 +20711,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="341"/>
+      <c r="A44" s="340"/>
       <c r="B44" s="102" t="s">
         <v>137</v>
       </c>
@@ -20699,7 +20723,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="341"/>
+      <c r="A45" s="340"/>
       <c r="B45" s="103" t="s">
         <v>138</v>
       </c>
@@ -20711,7 +20735,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="341"/>
+      <c r="A46" s="340"/>
       <c r="B46" s="101" t="s">
         <v>139</v>
       </c>
@@ -20727,7 +20751,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="341"/>
+      <c r="A47" s="340"/>
       <c r="B47" s="104" t="s">
         <v>98</v>
       </c>
@@ -20742,7 +20766,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="342"/>
+      <c r="A48" s="341"/>
       <c r="B48" s="105" t="s">
         <v>99</v>
       </c>
@@ -20754,7 +20778,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="343" t="s">
+      <c r="A49" s="342" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="106" t="s">
@@ -20768,7 +20792,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="344"/>
+      <c r="A50" s="343"/>
       <c r="B50" s="106" t="s">
         <v>101</v>
       </c>
@@ -20777,7 +20801,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="345"/>
+      <c r="A51" s="344"/>
       <c r="B51" s="107" t="s">
         <v>102</v>
       </c>
@@ -20883,7 +20907,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="367" t="s">
+      <c r="A2" s="366" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -20900,7 +20924,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="368"/>
+      <c r="A3" s="367"/>
       <c r="B3" s="18" t="s">
         <v>64</v>
       </c>
@@ -20915,7 +20939,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25">
-      <c r="A4" s="368"/>
+      <c r="A4" s="367"/>
       <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
@@ -20930,7 +20954,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.25">
-      <c r="A5" s="368"/>
+      <c r="A5" s="367"/>
       <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
@@ -20951,7 +20975,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="39">
-      <c r="A6" s="368"/>
+      <c r="A6" s="367"/>
       <c r="B6" s="19" t="s">
         <v>144</v>
       </c>
@@ -20969,7 +20993,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="26.25">
-      <c r="A7" s="368"/>
+      <c r="A7" s="367"/>
       <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
@@ -20987,7 +21011,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="368"/>
+      <c r="A8" s="367"/>
       <c r="B8" s="19" t="s">
         <v>68</v>
       </c>
@@ -21003,7 +21027,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="369"/>
+      <c r="A9" s="368"/>
       <c r="B9" s="19" t="s">
         <v>69</v>
       </c>
@@ -21019,10 +21043,10 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="335" t="s">
+      <c r="A10" s="334" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="335"/>
+      <c r="B10" s="334"/>
       <c r="C10" s="30" t="s">
         <v>38</v>
       </c>
@@ -21032,7 +21056,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="39">
-      <c r="A11" s="370" t="s">
+      <c r="A11" s="369" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -21055,7 +21079,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="371"/>
+      <c r="A12" s="370"/>
       <c r="B12" s="59" t="s">
         <v>71</v>
       </c>
@@ -21074,7 +21098,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="372"/>
+      <c r="A13" s="371"/>
       <c r="B13" s="15" t="s">
         <v>146</v>
       </c>
@@ -21090,7 +21114,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="337" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -21114,7 +21138,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="338"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="20" t="s">
         <v>74</v>
       </c>
@@ -21139,7 +21163,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="338"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="20" t="s">
         <v>75</v>
       </c>
@@ -21164,7 +21188,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="338"/>
+      <c r="A17" s="337"/>
       <c r="B17" s="20" t="s">
         <v>76</v>
       </c>
@@ -21189,7 +21213,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="339" t="s">
+      <c r="A18" s="338" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="60" t="s">
@@ -21210,7 +21234,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="39">
-      <c r="A19" s="339"/>
+      <c r="A19" s="338"/>
       <c r="B19" s="60" t="s">
         <v>147</v>
       </c>
@@ -21231,7 +21255,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="339"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="60" t="s">
         <v>148</v>
       </c>
@@ -21246,7 +21270,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="325" t="s">
+      <c r="A21" s="324" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="61" t="s">
@@ -21267,7 +21291,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="325"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="61" t="s">
         <v>150</v>
       </c>
@@ -21289,7 +21313,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="325"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="61" t="s">
         <v>151</v>
       </c>
@@ -21306,7 +21330,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="363" t="s">
+      <c r="A24" s="362" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="64" t="s">
@@ -21329,7 +21353,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="363"/>
+      <c r="A25" s="362"/>
       <c r="B25" s="64" t="s">
         <v>153</v>
       </c>
@@ -21351,7 +21375,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="363"/>
+      <c r="A26" s="362"/>
       <c r="B26" s="64" t="s">
         <v>154</v>
       </c>
@@ -21373,7 +21397,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="363"/>
+      <c r="A27" s="362"/>
       <c r="B27" s="64" t="s">
         <v>155</v>
       </c>
@@ -21395,7 +21419,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="364" t="s">
+      <c r="A28" s="363" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -21414,7 +21438,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="364"/>
+      <c r="A29" s="363"/>
       <c r="B29" s="62" t="s">
         <v>157</v>
       </c>
@@ -21431,7 +21455,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="364"/>
+      <c r="A30" s="363"/>
       <c r="B30" s="63" t="s">
         <v>158</v>
       </c>
@@ -21450,7 +21474,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="364"/>
+      <c r="A31" s="363"/>
       <c r="B31" s="55" t="s">
         <v>96</v>
       </c>
@@ -21469,7 +21493,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="364"/>
+      <c r="A32" s="363"/>
       <c r="B32" s="55" t="s">
         <v>97</v>
       </c>
@@ -21488,7 +21512,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="364"/>
+      <c r="A33" s="363"/>
       <c r="B33" s="57" t="s">
         <v>137</v>
       </c>
@@ -21505,11 +21529,11 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="364"/>
+      <c r="A34" s="363"/>
       <c r="B34" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="365" t="s">
+      <c r="C34" s="364" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -21526,11 +21550,11 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="364"/>
+      <c r="A35" s="363"/>
       <c r="B35" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="365"/>
+      <c r="C35" s="364"/>
       <c r="D35" s="8"/>
       <c r="E35" t="s">
         <v>551</v>
@@ -21540,7 +21564,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="364"/>
+      <c r="A36" s="363"/>
       <c r="B36" s="57" t="s">
         <v>161</v>
       </c>
@@ -21559,7 +21583,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="364"/>
+      <c r="A37" s="363"/>
       <c r="B37" s="36" t="s">
         <v>98</v>
       </c>
@@ -21575,7 +21599,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="364"/>
+      <c r="A38" s="363"/>
       <c r="B38" s="37" t="s">
         <v>99</v>
       </c>
@@ -21591,7 +21615,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="26.25">
-      <c r="A39" s="366" t="s">
+      <c r="A39" s="365" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -21611,7 +21635,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="366"/>
+      <c r="A40" s="365"/>
       <c r="B40" s="25" t="s">
         <v>101</v>
       </c>
@@ -21624,7 +21648,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="366"/>
+      <c r="A41" s="365"/>
       <c r="B41" s="26" t="s">
         <v>102</v>
       </c>

--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\NVT_Data-Model\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68CFF02-56E7-4A4C-ACFA-EE955F49F8D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCBC9C-A3F2-444D-AACD-35440B442D2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CBD947D1-2C33-4D11-A007-77348F675747}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CBD947D1-2C33-4D11-A007-77348F675747}"/>
   </bookViews>
   <sheets>
     <sheet name="Subjects" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Typen und Glossare" sheetId="11" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">AllProperties!$A$1:$F$284</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">AllProperties!$A$1:$F$294</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="917">
   <si>
     <t>Basisinformationen</t>
   </si>
@@ -2432,6 +2432,9 @@
     <t>Created</t>
   </si>
   <si>
+    <t>has Type</t>
+  </si>
+  <si>
     <t>Creator</t>
   </si>
   <si>
@@ -2627,9 +2630,6 @@
     <t>TXTx2 inkonsistent</t>
   </si>
   <si>
-    <t>ungeklärt: Einführung Teile d. objekts</t>
-  </si>
-  <si>
     <t>TXTx3, inkonsistent?</t>
   </si>
   <si>
@@ -2796,6 +2796,39 @@
   </si>
   <si>
     <t>Europeana Type</t>
+  </si>
+  <si>
+    <t>Produktionstyp</t>
+  </si>
+  <si>
+    <t>Unterobjekt von</t>
+  </si>
+  <si>
+    <t>ist Vorgänger von</t>
+  </si>
+  <si>
+    <t>ist Nachfolger von</t>
+  </si>
+  <si>
+    <t>ist ansässig Stadt</t>
+  </si>
+  <si>
+    <t>ist ansässig Land</t>
+  </si>
+  <si>
+    <t>ist ansässig Haus</t>
+  </si>
+  <si>
+    <t>doppeldeutig?</t>
+  </si>
+  <si>
+    <t>unbesprochen</t>
+  </si>
+  <si>
+    <t>PR, EV, VID, TXT, IMG, AUD</t>
+  </si>
+  <si>
+    <t>3xalle, inkonsistent?</t>
   </si>
 </sst>
 </file>
@@ -3986,7 +4019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5025,14 +5058,8 @@
     <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="52" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9112,8 +9139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016E62FF-7053-4FDB-9A89-033051574350}">
   <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9146,7 +9173,7 @@
         <v>438</v>
       </c>
       <c r="D1" s="259" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E1" s="259" t="s">
         <v>442</v>
@@ -9169,7 +9196,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="310" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B2" s="290" t="s">
         <v>677</v>
@@ -9178,10 +9205,10 @@
         <v>779</v>
       </c>
       <c r="D2" s="296" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E2" s="264" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F2" s="263"/>
       <c r="G2" s="263"/>
@@ -9198,10 +9225,10 @@
         <v>782</v>
       </c>
       <c r="D3" s="297" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E3" s="268" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F3" s="267"/>
       <c r="G3" s="267"/>
@@ -9211,7 +9238,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="308" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B4" s="292" t="s">
         <v>718</v>
@@ -9220,17 +9247,17 @@
         <v>727</v>
       </c>
       <c r="D4" s="298" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E4" s="272" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F4" s="271"/>
       <c r="G4" s="271"/>
       <c r="H4" s="271"/>
       <c r="I4" s="271"/>
       <c r="J4" s="273" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9242,10 +9269,10 @@
         <v>768</v>
       </c>
       <c r="D5" s="299" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E5" s="276" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J5" s="277"/>
     </row>
@@ -9255,16 +9282,16 @@
         <v>725</v>
       </c>
       <c r="C6" s="275" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D6" s="299" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E6" s="276" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J6" s="277" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9276,10 +9303,10 @@
         <v>760</v>
       </c>
       <c r="D7" s="299" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E7" s="276" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J7" s="277"/>
     </row>
@@ -9292,13 +9319,13 @@
         <v>714</v>
       </c>
       <c r="D8" s="299" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E8" s="276" t="s">
+        <v>843</v>
+      </c>
+      <c r="J8" s="277" t="s">
         <v>842</v>
-      </c>
-      <c r="J8" s="277" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9310,13 +9337,13 @@
         <v>771</v>
       </c>
       <c r="D9" s="299" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E9" s="276" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J9" s="277" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9328,13 +9355,13 @@
         <v>770</v>
       </c>
       <c r="D10" s="299" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E10" s="276" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J10" s="277" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9346,13 +9373,13 @@
         <v>762</v>
       </c>
       <c r="D11" s="299" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E11" s="276" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J11" s="277" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9364,13 +9391,13 @@
         <v>763</v>
       </c>
       <c r="D12" s="299" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E12" s="276" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J12" s="277" t="s">
-        <v>849</v>
+        <v>916</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9382,10 +9409,10 @@
         <v>781</v>
       </c>
       <c r="D13" s="299" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E13" s="276" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J13" s="277"/>
     </row>
@@ -9398,10 +9425,10 @@
         <v>767</v>
       </c>
       <c r="D14" s="299" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E14" s="276" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J14" s="277"/>
     </row>
@@ -9414,10 +9441,10 @@
         <v>759</v>
       </c>
       <c r="D15" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E15" s="276" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J15" s="277"/>
     </row>
@@ -9430,10 +9457,10 @@
         <v>772</v>
       </c>
       <c r="D16" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E16" s="276" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J16" s="277"/>
     </row>
@@ -9446,10 +9473,10 @@
         <v>776</v>
       </c>
       <c r="D17" s="299" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E17" s="276" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J17" s="277" t="s">
         <v>850</v>
@@ -9464,7 +9491,7 @@
         <v>726</v>
       </c>
       <c r="D18" s="299" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E18" s="276" t="s">
         <v>852</v>
@@ -9482,10 +9509,10 @@
         <v>773</v>
       </c>
       <c r="D19" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E19" s="276" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J19" s="277" t="s">
         <v>854</v>
@@ -9500,10 +9527,10 @@
         <v>769</v>
       </c>
       <c r="D20" s="299" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E20" s="276" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J20" s="277" t="s">
         <v>856</v>
@@ -9518,7 +9545,7 @@
         <v>756</v>
       </c>
       <c r="D21" s="299" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E21" s="276" t="s">
         <v>858</v>
@@ -9536,29 +9563,29 @@
         <v>775</v>
       </c>
       <c r="D22" s="299" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E22" s="276" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J22" s="277"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="306"/>
       <c r="B23" s="293" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C23" s="275" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D23" s="299" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E23" s="276" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J23" s="277" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
@@ -9570,7 +9597,7 @@
         <v>713</v>
       </c>
       <c r="D24" s="297" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E24" s="268" t="s">
         <v>859</v>
@@ -9583,16 +9610,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="308" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B25" s="292" t="s">
         <v>578</v>
       </c>
       <c r="C25" s="270" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D25" s="298" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E25" s="272" t="s">
         <v>860</v>
@@ -9609,10 +9636,10 @@
         <v>579</v>
       </c>
       <c r="C26" s="275" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D26" s="299" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E26" s="276" t="s">
         <v>860</v>
@@ -9628,10 +9655,10 @@
         <v>764</v>
       </c>
       <c r="D27" s="297" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E27" s="268" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F27" s="267"/>
       <c r="G27" s="267"/>
@@ -9641,7 +9668,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="308" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B28" s="292" t="s">
         <v>485</v>
@@ -9650,7 +9677,7 @@
         <v>739</v>
       </c>
       <c r="D28" s="298" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E28" s="272" t="s">
         <v>851</v>
@@ -9670,10 +9697,10 @@
         <v>729</v>
       </c>
       <c r="D29" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E29" s="276" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J29" s="277"/>
     </row>
@@ -9686,7 +9713,7 @@
         <v>732</v>
       </c>
       <c r="D30" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E30" s="276" t="s">
         <v>851</v>
@@ -9702,7 +9729,7 @@
         <v>743</v>
       </c>
       <c r="D31" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E31" s="276" t="s">
         <v>851</v>
@@ -9718,10 +9745,10 @@
         <v>728</v>
       </c>
       <c r="D32" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E32" s="276" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J32" s="277"/>
     </row>
@@ -9734,7 +9761,7 @@
         <v>735</v>
       </c>
       <c r="D33" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E33" s="276" t="s">
         <v>851</v>
@@ -9750,7 +9777,7 @@
         <v>740</v>
       </c>
       <c r="D34" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E34" s="276" t="s">
         <v>851</v>
@@ -9766,7 +9793,7 @@
         <v>731</v>
       </c>
       <c r="D35" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E35" s="276" t="s">
         <v>861</v>
@@ -9782,7 +9809,7 @@
         <v>733</v>
       </c>
       <c r="D36" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E36" s="276" t="s">
         <v>851</v>
@@ -9798,10 +9825,10 @@
         <v>744</v>
       </c>
       <c r="D37" s="299" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E37" s="276" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J37" s="277"/>
     </row>
@@ -9814,7 +9841,7 @@
         <v>738</v>
       </c>
       <c r="D38" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E38" s="276" t="s">
         <v>851</v>
@@ -9830,7 +9857,7 @@
         <v>737</v>
       </c>
       <c r="D39" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E39" s="276" t="s">
         <v>851</v>
@@ -9846,7 +9873,7 @@
         <v>742</v>
       </c>
       <c r="D40" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E40" s="276" t="s">
         <v>851</v>
@@ -9862,7 +9889,7 @@
         <v>741</v>
       </c>
       <c r="D41" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E41" s="276" t="s">
         <v>851</v>
@@ -9878,7 +9905,7 @@
         <v>736</v>
       </c>
       <c r="D42" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E42" s="276" t="s">
         <v>851</v>
@@ -9894,7 +9921,7 @@
         <v>734</v>
       </c>
       <c r="D43" s="297" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E43" s="268" t="s">
         <v>851</v>
@@ -9909,7 +9936,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="308" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B44" s="292" t="s">
         <v>544</v>
@@ -9918,10 +9945,10 @@
         <v>757</v>
       </c>
       <c r="D44" s="298" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E44" s="272" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F44" s="271"/>
       <c r="G44" s="271"/>
@@ -9932,13 +9959,13 @@
     <row r="45" spans="1:10">
       <c r="A45" s="306"/>
       <c r="B45" s="293" t="s">
+        <v>795</v>
+      </c>
+      <c r="C45" s="275" t="s">
         <v>794</v>
       </c>
-      <c r="C45" s="275" t="s">
-        <v>793</v>
-      </c>
       <c r="D45" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E45" s="276" t="s">
         <v>863</v>
@@ -9953,10 +9980,10 @@
         <v>582</v>
       </c>
       <c r="C46" s="266" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D46" s="297" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E46" s="268" t="s">
         <v>865</v>
@@ -9970,8 +9997,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="386" t="s">
-        <v>825</v>
+      <c r="A47" s="308" t="s">
+        <v>826</v>
       </c>
       <c r="B47" s="292" t="s">
         <v>747</v>
@@ -9980,10 +10007,10 @@
         <v>750</v>
       </c>
       <c r="D47" s="298" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E47" s="272" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F47" s="271"/>
       <c r="G47" s="271"/>
@@ -9994,7 +10021,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="387"/>
+      <c r="A48" s="306"/>
       <c r="B48" s="293" t="s">
         <v>748</v>
       </c>
@@ -10002,33 +10029,33 @@
         <v>749</v>
       </c>
       <c r="D48" s="299" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E48" s="276" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J48" s="277"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="387"/>
+      <c r="A49" s="306"/>
       <c r="B49" s="293" t="s">
         <v>545</v>
       </c>
       <c r="C49" s="275" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D49" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E49" s="276" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J49" s="277" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="387"/>
+    <row r="50" spans="1:10" ht="30">
+      <c r="A50" s="306"/>
       <c r="B50" s="293" t="s">
         <v>606</v>
       </c>
@@ -10036,17 +10063,17 @@
         <v>774</v>
       </c>
       <c r="D50" s="299" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E50" s="276" t="s">
-        <v>858</v>
+        <v>915</v>
       </c>
       <c r="J50" s="277" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="387"/>
+      <c r="A51" s="306"/>
       <c r="B51" s="293" t="s">
         <v>600</v>
       </c>
@@ -10054,15 +10081,15 @@
         <v>761</v>
       </c>
       <c r="D51" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E51" s="276" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J51" s="277"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="387"/>
+      <c r="A52" s="306"/>
       <c r="B52" s="293" t="s">
         <v>904</v>
       </c>
@@ -10070,15 +10097,15 @@
         <v>905</v>
       </c>
       <c r="D52" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E52" s="276" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="J52" s="277"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="388"/>
+      <c r="A53" s="309"/>
       <c r="B53" s="291" t="s">
         <v>495</v>
       </c>
@@ -10086,10 +10113,10 @@
         <v>758</v>
       </c>
       <c r="D53" s="297" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E53" s="268" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F53" s="267"/>
       <c r="G53" s="267"/>
@@ -10101,16 +10128,16 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="308" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B54" s="292" t="s">
         <v>577</v>
       </c>
       <c r="C54" s="270" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D54" s="298" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E54" s="272" t="s">
         <v>860</v>
@@ -10127,10 +10154,10 @@
         <v>576</v>
       </c>
       <c r="C55" s="275" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D55" s="299" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E55" s="276" t="s">
         <v>860</v>
@@ -10143,10 +10170,10 @@
         <v>691</v>
       </c>
       <c r="C56" s="275" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D56" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E56" s="276" t="s">
         <v>871</v>
@@ -10161,10 +10188,10 @@
         <v>687</v>
       </c>
       <c r="C57" s="266" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D57" s="297" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E57" s="268" t="s">
         <v>860</v>
@@ -10177,16 +10204,16 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="308" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B58" s="292" t="s">
         <v>203</v>
       </c>
       <c r="C58" s="270" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D58" s="298" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E58" s="272" t="s">
         <v>865</v>
@@ -10203,10 +10230,10 @@
         <v>204</v>
       </c>
       <c r="C59" s="266" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D59" s="297" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E59" s="268" t="s">
         <v>865</v>
@@ -10219,7 +10246,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="308" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B60" s="292" t="s">
         <v>674</v>
@@ -10228,7 +10255,7 @@
         <v>765</v>
       </c>
       <c r="D60" s="298" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E60" s="272" t="s">
         <v>855</v>
@@ -10248,7 +10275,7 @@
         <v>780</v>
       </c>
       <c r="D61" s="297" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E61" s="268" t="s">
         <v>873</v>
@@ -10261,16 +10288,16 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="260" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B62" s="294" t="s">
         <v>686</v>
       </c>
       <c r="C62" s="278" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D62" s="300" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E62" s="280" t="s">
         <v>874</v>
@@ -10285,7 +10312,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="308" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B63" s="292" t="s">
         <v>477</v>
@@ -10294,10 +10321,10 @@
         <v>766</v>
       </c>
       <c r="D63" s="298" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E63" s="272" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F63" s="271"/>
       <c r="G63" s="271"/>
@@ -10314,10 +10341,10 @@
         <v>778</v>
       </c>
       <c r="D64" s="299" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E64" s="276" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J64" s="277"/>
     </row>
@@ -10330,7 +10357,7 @@
         <v>730</v>
       </c>
       <c r="D65" s="297" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E65" s="268" t="s">
         <v>876</v>
@@ -10343,7 +10370,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="308" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B66" s="292" t="s">
         <v>639</v>
@@ -10352,7 +10379,7 @@
         <v>640</v>
       </c>
       <c r="D66" s="298" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E66" s="272" t="s">
         <v>851</v>
@@ -10372,7 +10399,7 @@
         <v>682</v>
       </c>
       <c r="D67" s="297" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E67" s="268" t="s">
         <v>877</v>
@@ -10385,16 +10412,16 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="306" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B68" s="293" t="s">
         <v>689</v>
       </c>
       <c r="C68" s="275" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D68" s="299" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E68" s="276" t="s">
         <v>882</v>
@@ -10412,10 +10439,10 @@
         <v>755</v>
       </c>
       <c r="D69" s="299" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E69" s="276" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J69" s="277" t="s">
         <v>878</v>
@@ -10430,7 +10457,7 @@
         <v>754</v>
       </c>
       <c r="D70" s="301" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E70" s="284" t="s">
         <v>879</v>
@@ -12329,7 +12356,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J296">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A47:A53"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="A25:A27"/>
@@ -12349,10 +12377,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB716-2721-48C2-B8B7-2D62A098DA95}">
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12368,7 +12396,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1">
       <c r="A1" s="248" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B1" s="249" t="s">
         <v>698</v>
@@ -12380,7 +12408,7 @@
         <v>438</v>
       </c>
       <c r="E1" s="251" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F1" s="251" t="s">
         <v>441</v>
@@ -12400,7 +12428,7 @@
         <v>713</v>
       </c>
       <c r="E2" s="252" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12415,398 +12443,392 @@
         <v>714</v>
       </c>
       <c r="E3" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="306"/>
-      <c r="B4" s="211" t="s">
-        <v>891</v>
-      </c>
-      <c r="C4" s="303" t="s">
-        <v>715</v>
-      </c>
-      <c r="D4" s="254" t="s">
-        <v>726</v>
-      </c>
-      <c r="E4" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F4" s="305" t="s">
-        <v>803</v>
+      <c r="B4" s="386" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" s="255" t="s">
+        <v>606</v>
+      </c>
+      <c r="F4" s="256" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="306"/>
-      <c r="B5" s="212" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="253" t="s">
-        <v>718</v>
+      <c r="B5" s="211" t="s">
+        <v>891</v>
+      </c>
+      <c r="C5" s="303" t="s">
+        <v>715</v>
       </c>
       <c r="D5" s="254" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E5" s="252" t="s">
-        <v>811</v>
-      </c>
-      <c r="F5"/>
+        <v>799</v>
+      </c>
+      <c r="F5" s="305" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="306"/>
       <c r="B6" s="212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="253" t="s">
-        <v>608</v>
+        <v>718</v>
       </c>
       <c r="D6" s="254" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E6" s="252" t="s">
-        <v>799</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="306"/>
       <c r="B7" s="212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="253" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D7" s="254" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E7" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="306"/>
       <c r="B8" s="212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="253" t="s">
-        <v>516</v>
+        <v>616</v>
       </c>
       <c r="D8" s="254" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E8" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="306"/>
       <c r="B9" s="212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="253" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="D9" s="254" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E9" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="306"/>
-      <c r="B10" s="213" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="303" t="s">
-        <v>639</v>
+      <c r="B10" s="212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="253" t="s">
+        <v>539</v>
       </c>
       <c r="D10" s="254" t="s">
-        <v>640</v>
+        <v>731</v>
       </c>
       <c r="E10" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F10" s="305" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="306"/>
-      <c r="B11" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="253" t="s">
-        <v>478</v>
+      <c r="B11" s="213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="303" t="s">
+        <v>639</v>
       </c>
       <c r="D11" s="254" t="s">
-        <v>732</v>
+        <v>640</v>
       </c>
       <c r="E11" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="F11" s="305" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="306"/>
       <c r="B12" s="212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="253" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D12" s="254" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E12" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="306"/>
       <c r="B13" s="212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="253" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D13" s="254" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E13" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="306"/>
       <c r="B14" s="212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="253" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D14" s="254" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E14" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="306"/>
-      <c r="B15" s="213" t="s">
-        <v>18</v>
+      <c r="B15" s="212" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="253" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D15" s="254" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E15" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="306"/>
       <c r="B16" s="213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="253" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D16" s="254" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E16" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="306"/>
-      <c r="B17" s="212" t="s">
-        <v>20</v>
+      <c r="B17" s="213" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="253" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D17" s="254" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E17" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="306"/>
       <c r="B18" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="303" t="s">
-        <v>480</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="253" t="s">
+        <v>483</v>
       </c>
       <c r="D18" s="254" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E18" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F18" s="305" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="306"/>
       <c r="B19" s="212" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="253" t="s">
-        <v>485</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="303" t="s">
+        <v>480</v>
       </c>
       <c r="D19" s="254" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E19" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="F19" s="305" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="306"/>
       <c r="B20" s="212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="253" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D20" s="254" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E20" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="306"/>
       <c r="B21" s="212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="253" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D21" s="254" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E21" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="306"/>
       <c r="B22" s="212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D22" s="254" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E22" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="306"/>
-      <c r="B23" s="213" t="s">
-        <v>26</v>
+      <c r="B23" s="212" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="253" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D23" s="254" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E23" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="306"/>
       <c r="B24" s="213" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="253" t="s">
-        <v>718</v>
+        <v>490</v>
       </c>
       <c r="D24" s="254" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="E24" s="252" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="306"/>
-      <c r="B25" s="214" t="s">
-        <v>525</v>
+      <c r="B25" s="213" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="253" t="s">
-        <v>553</v>
+        <v>718</v>
       </c>
       <c r="D25" s="254" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="E25" s="252" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="306"/>
-      <c r="B26" s="209" t="s">
-        <v>610</v>
+      <c r="B26" s="214" t="s">
+        <v>525</v>
       </c>
       <c r="C26" s="253" t="s">
+        <v>553</v>
+      </c>
+      <c r="D26" s="254" t="s">
+        <v>744</v>
+      </c>
+      <c r="E26" s="252" t="s">
         <v>801</v>
-      </c>
-      <c r="D26" s="254" t="s">
-        <v>802</v>
-      </c>
-      <c r="E26" s="252" t="s">
-        <v>811</v>
-      </c>
-      <c r="F26" s="302" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="306"/>
       <c r="B27" s="209" t="s">
-        <v>745</v>
+        <v>610</v>
       </c>
       <c r="C27" s="253" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
       <c r="D27" s="254" t="s">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="E27" s="252" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="F27" s="302" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="306"/>
       <c r="B28" s="209" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C28" s="253" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D28" s="254" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E28" s="252" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F28" s="302" t="s">
         <v>894</v>
@@ -12814,26 +12836,26 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="306"/>
-      <c r="B29" s="215" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="303" t="s">
-        <v>885</v>
+      <c r="B29" s="209" t="s">
+        <v>746</v>
+      </c>
+      <c r="C29" s="253" t="s">
+        <v>748</v>
       </c>
       <c r="D29" s="254" t="s">
-        <v>884</v>
+        <v>749</v>
       </c>
       <c r="E29" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F29" s="305" t="s">
-        <v>902</v>
+        <v>801</v>
+      </c>
+      <c r="F29" s="302" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="306"/>
       <c r="B30" s="215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="303" t="s">
         <v>885</v>
@@ -12842,16 +12864,16 @@
         <v>884</v>
       </c>
       <c r="E30" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F30" s="305" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="307"/>
+      <c r="A31" s="306"/>
       <c r="B31" s="215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="303" t="s">
         <v>885</v>
@@ -12860,127 +12882,127 @@
         <v>884</v>
       </c>
       <c r="E31" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F31" s="305" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B32" s="249" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="307"/>
+      <c r="B32" s="215" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="303" t="s">
+        <v>885</v>
+      </c>
+      <c r="D32" s="254" t="s">
+        <v>884</v>
+      </c>
+      <c r="E32" s="252" t="s">
+        <v>800</v>
+      </c>
+      <c r="F32" s="305" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B33" s="249" t="s">
         <v>698</v>
       </c>
-      <c r="C32" s="249" t="s">
+      <c r="C33" s="249" t="s">
         <v>622</v>
       </c>
-      <c r="D32" s="250" t="s">
+      <c r="D33" s="250" t="s">
         <v>438</v>
       </c>
-      <c r="E32" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F32" s="251" t="s">
+      <c r="E33" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F33" s="251" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="310" t="s">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="310" t="s">
         <v>890</v>
       </c>
-      <c r="B33" s="210" t="s">
+      <c r="B34" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="253" t="s">
+      <c r="C34" s="253" t="s">
         <v>661</v>
       </c>
-      <c r="D33" s="254" t="s">
+      <c r="D34" s="254" t="s">
         <v>754</v>
       </c>
-      <c r="E33" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F33" s="302"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="306"/>
-      <c r="B34" s="210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="253" t="s">
-        <v>606</v>
-      </c>
-      <c r="D34" s="254" t="s">
-        <v>774</v>
-      </c>
-      <c r="E34" s="302" t="s">
-        <v>812</v>
-      </c>
-      <c r="F34" s="302" t="s">
-        <v>813</v>
-      </c>
+      <c r="E34" s="252" t="s">
+        <v>799</v>
+      </c>
+      <c r="F34" s="302"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="306"/>
       <c r="B35" s="210" t="s">
-        <v>892</v>
+        <v>5</v>
       </c>
       <c r="C35" s="253" t="s">
-        <v>662</v>
+        <v>606</v>
       </c>
       <c r="D35" s="254" t="s">
-        <v>755</v>
-      </c>
-      <c r="E35" s="252" t="s">
-        <v>798</v>
+        <v>774</v>
+      </c>
+      <c r="E35" s="302" t="s">
+        <v>813</v>
       </c>
       <c r="F35" s="302" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="306"/>
       <c r="B36" s="210" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="256"/>
-      <c r="F36" s="256" t="s">
-        <v>815</v>
+        <v>892</v>
+      </c>
+      <c r="C36" s="253" t="s">
+        <v>662</v>
+      </c>
+      <c r="D36" s="254" t="s">
+        <v>755</v>
+      </c>
+      <c r="E36" s="252" t="s">
+        <v>799</v>
+      </c>
+      <c r="F36" s="302" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="306"/>
       <c r="B37" s="210" t="s">
-        <v>699</v>
-      </c>
-      <c r="C37" s="303" t="s">
-        <v>715</v>
-      </c>
-      <c r="D37" s="254" t="s">
-        <v>726</v>
-      </c>
-      <c r="E37" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F37" s="305" t="s">
-        <v>901</v>
+        <v>6</v>
+      </c>
+      <c r="C37" s="256"/>
+      <c r="F37" s="256" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="306"/>
       <c r="B38" s="210" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C38" s="303" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D38" s="254" t="s">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="E38" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F38" s="305" t="s">
         <v>901</v>
@@ -12989,424 +13011,424 @@
     <row r="39" spans="1:6">
       <c r="A39" s="306"/>
       <c r="B39" s="210" t="s">
-        <v>7</v>
+        <v>700</v>
       </c>
       <c r="C39" s="303" t="s">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="D39" s="254" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E39" s="252" t="s">
         <v>799</v>
       </c>
       <c r="F39" s="305" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="306"/>
-      <c r="B40" s="212" t="s">
-        <v>8</v>
+      <c r="B40" s="210" t="s">
+        <v>7</v>
       </c>
       <c r="C40" s="303" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="D40" s="254" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E40" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F40" s="305" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="306"/>
       <c r="B41" s="212" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="253" t="s">
-        <v>608</v>
+        <v>8</v>
+      </c>
+      <c r="C41" s="303" t="s">
+        <v>495</v>
       </c>
       <c r="D41" s="254" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="E41" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="F41" s="305" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="306"/>
       <c r="B42" s="212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="253" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D42" s="254" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E42" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="306"/>
       <c r="B43" s="212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="253" t="s">
-        <v>516</v>
+        <v>616</v>
       </c>
       <c r="D43" s="254" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E43" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="306"/>
       <c r="B44" s="212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="253" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="D44" s="254" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E44" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="306"/>
-      <c r="B45" s="213" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="303" t="s">
-        <v>639</v>
+      <c r="B45" s="212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="253" t="s">
+        <v>539</v>
       </c>
       <c r="D45" s="254" t="s">
-        <v>640</v>
+        <v>731</v>
       </c>
       <c r="E45" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F45" s="305" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="306"/>
-      <c r="B46" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="253" t="s">
-        <v>478</v>
+      <c r="B46" s="213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="303" t="s">
+        <v>639</v>
       </c>
       <c r="D46" s="254" t="s">
-        <v>732</v>
+        <v>640</v>
       </c>
       <c r="E46" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="F46" s="305" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="306"/>
       <c r="B47" s="212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="253" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D47" s="254" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E47" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="306"/>
       <c r="B48" s="212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="253" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D48" s="254" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E48" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="306"/>
       <c r="B49" s="212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="253" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D49" s="254" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E49" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="306"/>
-      <c r="B50" s="213" t="s">
-        <v>18</v>
+      <c r="B50" s="212" t="s">
+        <v>17</v>
       </c>
       <c r="C50" s="253" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D50" s="254" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E50" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="306"/>
       <c r="B51" s="213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="253" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D51" s="254" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E51" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="306"/>
-      <c r="B52" s="212" t="s">
-        <v>20</v>
+      <c r="B52" s="213" t="s">
+        <v>19</v>
       </c>
       <c r="C52" s="253" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D52" s="254" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E52" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="306"/>
       <c r="B53" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="303" t="s">
-        <v>480</v>
+        <v>20</v>
+      </c>
+      <c r="C53" s="253" t="s">
+        <v>483</v>
       </c>
       <c r="D53" s="254" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E53" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F53" s="305" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="306"/>
       <c r="B54" s="212" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="253" t="s">
-        <v>485</v>
+        <v>21</v>
+      </c>
+      <c r="C54" s="303" t="s">
+        <v>480</v>
       </c>
       <c r="D54" s="254" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E54" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="F54" s="305" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="306"/>
       <c r="B55" s="212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="253" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D55" s="254" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E55" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="306"/>
       <c r="B56" s="212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="253" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D56" s="254" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E56" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="306"/>
       <c r="B57" s="212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D57" s="254" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E57" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="306"/>
-      <c r="B58" s="213" t="s">
-        <v>26</v>
+      <c r="B58" s="212" t="s">
+        <v>25</v>
       </c>
       <c r="C58" s="253" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D58" s="254" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E58" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="306"/>
       <c r="B59" s="213" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="253" t="s">
-        <v>694</v>
+        <v>490</v>
       </c>
       <c r="D59" s="254" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="E59" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="306"/>
       <c r="B60" s="213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" s="253" t="s">
-        <v>495</v>
+        <v>694</v>
       </c>
       <c r="D60" s="254" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E60" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="306"/>
       <c r="B61" s="213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" s="253" t="s">
-        <v>718</v>
+        <v>495</v>
       </c>
       <c r="D61" s="254" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="E61" s="252" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="306"/>
-      <c r="B62" s="216" t="s">
-        <v>31</v>
+      <c r="B62" s="213" t="s">
+        <v>29</v>
       </c>
       <c r="C62" s="253" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D62" s="254" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="E62" s="252" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="306"/>
-      <c r="B63" s="217" t="s">
-        <v>603</v>
+      <c r="B63" s="216" t="s">
+        <v>31</v>
       </c>
       <c r="C63" s="253" t="s">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="D63" s="254" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E63" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F63" s="302" t="s">
-        <v>893</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="306"/>
-      <c r="B64" s="216" t="s">
-        <v>751</v>
+      <c r="B64" s="217" t="s">
+        <v>603</v>
       </c>
       <c r="C64" s="253" t="s">
-        <v>747</v>
+        <v>600</v>
       </c>
       <c r="D64" s="254" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="E64" s="252" t="s">
         <v>800</v>
       </c>
       <c r="F64" s="302" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="306"/>
       <c r="B65" s="216" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C65" s="253" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D65" s="254" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E65" s="252" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F65" s="302" t="s">
         <v>894</v>
@@ -13414,188 +13436,196 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="306"/>
-      <c r="B66" s="218" t="s">
-        <v>32</v>
+      <c r="B66" s="216" t="s">
+        <v>752</v>
       </c>
       <c r="C66" s="253" t="s">
-        <v>545</v>
+        <v>748</v>
       </c>
       <c r="D66" s="254" t="s">
-        <v>810</v>
+        <v>749</v>
       </c>
       <c r="E66" s="252" t="s">
-        <v>799</v>
+        <v>801</v>
+      </c>
+      <c r="F66" s="302" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="306"/>
       <c r="B67" s="218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="253" t="s">
         <v>545</v>
       </c>
       <c r="D67" s="254" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E67" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="307"/>
+      <c r="A68" s="306"/>
       <c r="B68" s="218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" s="253" t="s">
         <v>545</v>
       </c>
       <c r="D68" s="254" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E68" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30">
-      <c r="A69" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B69" s="249" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="307"/>
+      <c r="B69" s="218" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="253" t="s">
+        <v>545</v>
+      </c>
+      <c r="D69" s="254" t="s">
+        <v>811</v>
+      </c>
+      <c r="E69" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30">
+      <c r="A70" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B70" s="249" t="s">
         <v>698</v>
       </c>
-      <c r="C69" s="249" t="s">
+      <c r="C70" s="249" t="s">
         <v>622</v>
       </c>
-      <c r="D69" s="250" t="s">
+      <c r="D70" s="250" t="s">
         <v>438</v>
       </c>
-      <c r="E69" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F69" s="251" t="s">
+      <c r="E70" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F70" s="251" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1">
-      <c r="A70" s="310" t="s">
+    <row r="71" spans="1:6" ht="15" customHeight="1">
+      <c r="A71" s="310" t="s">
         <v>702</v>
       </c>
-      <c r="B70" s="219" t="s">
+      <c r="B71" s="219" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="253" t="s">
+      <c r="C71" s="253" t="s">
         <v>721</v>
       </c>
-      <c r="D70" s="254" t="s">
+      <c r="D71" s="254" t="s">
         <v>762</v>
       </c>
-      <c r="E70" s="252" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="306"/>
-      <c r="B71" s="220" t="s">
+      <c r="E71" s="252" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="306"/>
+      <c r="B72" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="255"/>
-      <c r="F71" s="256" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A72" s="306"/>
-      <c r="B72" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="253" t="s">
-        <v>563</v>
+      <c r="C72" s="255" t="s">
+        <v>606</v>
       </c>
       <c r="D72" s="254" t="s">
-        <v>763</v>
-      </c>
-      <c r="E72" s="252" t="s">
-        <v>798</v>
+        <v>784</v>
+      </c>
+      <c r="F72" s="256" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="306"/>
-      <c r="B73" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="253" t="s">
+      <c r="B73" s="257" t="s">
+        <v>907</v>
+      </c>
+      <c r="C73" s="255" t="s">
         <v>563</v>
       </c>
       <c r="D73" s="254" t="s">
         <v>763</v>
       </c>
-      <c r="E73" s="252" t="s">
-        <v>798</v>
+      <c r="F73" s="256" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="306"/>
-      <c r="B74" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="255"/>
-      <c r="F74" s="256" t="s">
-        <v>753</v>
+      <c r="B74" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="253" t="s">
+        <v>563</v>
+      </c>
+      <c r="D74" s="254" t="s">
+        <v>763</v>
+      </c>
+      <c r="E74" s="252" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="306"/>
-      <c r="B75" s="221" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="303" t="s">
-        <v>719</v>
+      <c r="B75" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="253" t="s">
+        <v>563</v>
       </c>
       <c r="D75" s="254" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="E75" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F75" s="305" t="s">
-        <v>903</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="306"/>
-      <c r="B76" s="221" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="253" t="s">
-        <v>715</v>
-      </c>
-      <c r="D76" s="254" t="s">
-        <v>726</v>
-      </c>
-      <c r="E76" s="252" t="s">
-        <v>798</v>
+      <c r="B76" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="255"/>
+      <c r="F76" s="256" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="306"/>
       <c r="B77" s="221" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="253" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="303" t="s">
         <v>719</v>
       </c>
       <c r="D77" s="254" t="s">
         <v>756</v>
       </c>
       <c r="E77" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
+      </c>
+      <c r="F77" s="305" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="306"/>
       <c r="B78" s="221" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" s="253" t="s">
         <v>715</v>
@@ -13604,124 +13634,124 @@
         <v>726</v>
       </c>
       <c r="E78" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="306"/>
-      <c r="B79" s="60" t="s">
-        <v>77</v>
+      <c r="B79" s="221" t="s">
+        <v>75</v>
       </c>
       <c r="C79" s="253" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D79" s="254" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="E79" s="252" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="306"/>
-      <c r="B80" s="222" t="s">
-        <v>78</v>
+      <c r="B80" s="221" t="s">
+        <v>76</v>
       </c>
       <c r="C80" s="253" t="s">
-        <v>465</v>
+        <v>715</v>
       </c>
       <c r="D80" s="254" t="s">
-        <v>764</v>
+        <v>726</v>
       </c>
       <c r="E80" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="306"/>
       <c r="B81" s="60" t="s">
-        <v>895</v>
+        <v>77</v>
       </c>
       <c r="C81" s="253" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D81" s="254" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E81" s="252" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="306"/>
-      <c r="B82" s="61" t="s">
-        <v>81</v>
+      <c r="B82" s="222" t="s">
+        <v>78</v>
       </c>
       <c r="C82" s="253" t="s">
-        <v>674</v>
+        <v>465</v>
       </c>
       <c r="D82" s="254" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E82" s="252" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="306"/>
-      <c r="B83" s="223" t="s">
-        <v>82</v>
+      <c r="B83" s="60" t="s">
+        <v>895</v>
       </c>
       <c r="C83" s="253" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D83" s="254" t="s">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="E83" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="306"/>
-      <c r="B84" s="223" t="s">
-        <v>83</v>
+      <c r="B84" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="C84" s="253" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
       <c r="D84" s="254" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="E84" s="252" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="306"/>
-      <c r="B85" s="61" t="s">
-        <v>84</v>
+      <c r="B85" s="223" t="s">
+        <v>82</v>
       </c>
       <c r="C85" s="253" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D85" s="254" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="E85" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="306"/>
-      <c r="B86" s="224" t="s">
-        <v>85</v>
+      <c r="B86" s="223" t="s">
+        <v>83</v>
       </c>
       <c r="C86" s="253" t="s">
-        <v>477</v>
+        <v>715</v>
       </c>
       <c r="D86" s="254" t="s">
-        <v>766</v>
+        <v>726</v>
       </c>
       <c r="E86" s="252" t="s">
         <v>799</v>
@@ -13729,14 +13759,14 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="306"/>
-      <c r="B87" s="225" t="s">
-        <v>86</v>
+      <c r="B87" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="C87" s="253" t="s">
-        <v>539</v>
+        <v>715</v>
       </c>
       <c r="D87" s="254" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E87" s="252" t="s">
         <v>799</v>
@@ -13744,302 +13774,296 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="306"/>
-      <c r="B88" s="225" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="303" t="s">
-        <v>639</v>
+      <c r="B88" s="224" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="253" t="s">
+        <v>477</v>
       </c>
       <c r="D88" s="254" t="s">
-        <v>640</v>
+        <v>766</v>
       </c>
       <c r="E88" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F88" s="305" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="306"/>
-      <c r="B89" s="224" t="s">
-        <v>14</v>
+      <c r="B89" s="225" t="s">
+        <v>86</v>
       </c>
       <c r="C89" s="253" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="D89" s="254" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E89" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="306"/>
-      <c r="B90" s="224" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="253" t="s">
-        <v>479</v>
+      <c r="B90" s="225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="303" t="s">
+        <v>639</v>
       </c>
       <c r="D90" s="254" t="s">
-        <v>733</v>
+        <v>640</v>
       </c>
       <c r="E90" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="F90" s="305" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="306"/>
       <c r="B91" s="224" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C91" s="253" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D91" s="254" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E91" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="306"/>
       <c r="B92" s="224" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C92" s="253" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D92" s="254" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E92" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="306"/>
-      <c r="B93" s="225" t="s">
-        <v>87</v>
+      <c r="B93" s="224" t="s">
+        <v>16</v>
       </c>
       <c r="C93" s="253" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D93" s="254" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E93" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="306"/>
       <c r="B94" s="224" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C94" s="253" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D94" s="254" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E94" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="306"/>
-      <c r="B95" s="224" t="s">
-        <v>21</v>
+      <c r="B95" s="225" t="s">
+        <v>87</v>
       </c>
       <c r="C95" s="253" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D95" s="254" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E95" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="306"/>
       <c r="B96" s="224" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C96" s="253" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D96" s="254" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E96" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="306"/>
       <c r="B97" s="224" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C97" s="253" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D97" s="254" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E97" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="306"/>
       <c r="B98" s="224" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C98" s="253" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D98" s="254" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E98" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="306"/>
-      <c r="B99" s="225" t="s">
-        <v>18</v>
+      <c r="B99" s="224" t="s">
+        <v>23</v>
       </c>
       <c r="C99" s="253" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D99" s="254" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E99" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="306"/>
       <c r="B100" s="224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D100" s="254" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E100" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="306"/>
       <c r="B101" s="225" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C101" s="253" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D101" s="254" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E101" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="306"/>
-      <c r="B102" s="223" t="s">
-        <v>29</v>
+      <c r="B102" s="224" t="s">
+        <v>25</v>
       </c>
       <c r="C102" s="253" t="s">
-        <v>718</v>
+        <v>489</v>
       </c>
       <c r="D102" s="254" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="E102" s="252" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="306"/>
-      <c r="B103" s="64" t="s">
-        <v>88</v>
+      <c r="B103" s="225" t="s">
+        <v>26</v>
       </c>
       <c r="C103" s="253" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="D103" s="254" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="E103" s="252" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="306"/>
-      <c r="B104" s="64" t="s">
-        <v>89</v>
+      <c r="B104" s="223" t="s">
+        <v>29</v>
       </c>
       <c r="C104" s="253" t="s">
-        <v>493</v>
+        <v>718</v>
       </c>
       <c r="D104" s="254" t="s">
-        <v>768</v>
+        <v>727</v>
       </c>
       <c r="E104" s="252" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="306"/>
       <c r="B105" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="C105" s="303" t="s">
-        <v>496</v>
+        <v>88</v>
+      </c>
+      <c r="C105" s="253" t="s">
+        <v>559</v>
       </c>
       <c r="D105" s="254" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E105" s="252" t="s">
-        <v>811</v>
-      </c>
-      <c r="F105" s="305" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="306"/>
       <c r="B106" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" s="303" t="s">
-        <v>496</v>
+        <v>89</v>
+      </c>
+      <c r="C106" s="253" t="s">
+        <v>493</v>
       </c>
       <c r="D106" s="254" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E106" s="252" t="s">
-        <v>811</v>
-      </c>
-      <c r="F106" s="305" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="306"/>
       <c r="B107" s="64" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C107" s="303" t="s">
         <v>496</v>
@@ -14048,95 +14072,111 @@
         <v>769</v>
       </c>
       <c r="E107" s="252" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F107" s="305" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="306"/>
-      <c r="B108" s="226" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" s="253" t="s">
-        <v>722</v>
+      <c r="B108" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="303" t="s">
+        <v>496</v>
       </c>
       <c r="D108" s="254" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E108" s="252" t="s">
-        <v>811</v>
+        <v>812</v>
+      </c>
+      <c r="F108" s="305" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="306"/>
-      <c r="B109" s="226" t="s">
-        <v>92</v>
-      </c>
-      <c r="C109" s="253" t="s">
-        <v>502</v>
+      <c r="B109" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="303" t="s">
+        <v>496</v>
       </c>
       <c r="D109" s="254" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E109" s="252" t="s">
-        <v>811</v>
+        <v>812</v>
+      </c>
+      <c r="F109" s="305" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="306"/>
       <c r="B110" s="226" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C110" s="253" t="s">
-        <v>505</v>
+        <v>722</v>
       </c>
       <c r="D110" s="254" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E110" s="252" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="306"/>
-      <c r="B111" s="227" t="s">
-        <v>97</v>
+      <c r="B111" s="226" t="s">
+        <v>92</v>
       </c>
       <c r="C111" s="253" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
       <c r="D111" s="254" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E111" s="252" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="306"/>
-      <c r="B112" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" s="255"/>
-      <c r="F112" s="256" t="s">
-        <v>753</v>
+      <c r="B112" s="226" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="253" t="s">
+        <v>505</v>
+      </c>
+      <c r="D112" s="254" t="s">
+        <v>772</v>
+      </c>
+      <c r="E112" s="252" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="306"/>
-      <c r="B113" s="228" t="s">
-        <v>99</v>
-      </c>
-      <c r="C113" s="255"/>
-      <c r="F113" s="256" t="s">
-        <v>753</v>
+      <c r="B113" s="227" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="253" t="s">
+        <v>568</v>
+      </c>
+      <c r="D113" s="254" t="s">
+        <v>773</v>
+      </c>
+      <c r="E113" s="252" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="306"/>
-      <c r="B114" s="229" t="s">
+      <c r="B114" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C114" s="255"/>
@@ -14146,18 +14186,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="306"/>
-      <c r="B115" s="229" t="s">
-        <v>100</v>
-      </c>
-      <c r="C115" s="255" t="s">
-        <v>502</v>
-      </c>
-      <c r="D115" s="254" t="s">
-        <v>771</v>
-      </c>
-      <c r="E115" s="252" t="s">
-        <v>811</v>
-      </c>
+      <c r="B115" s="228" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="255"/>
       <c r="F115" s="256" t="s">
         <v>753</v>
       </c>
@@ -14165,304 +14197,307 @@
     <row r="116" spans="1:6">
       <c r="A116" s="306"/>
       <c r="B116" s="229" t="s">
-        <v>101</v>
-      </c>
-      <c r="C116" s="255" t="s">
-        <v>722</v>
-      </c>
-      <c r="D116" s="254" t="s">
-        <v>770</v>
-      </c>
-      <c r="E116" s="252" t="s">
-        <v>811</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C116" s="255"/>
       <c r="F116" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="306"/>
-      <c r="B117" s="230" t="s">
-        <v>102</v>
+      <c r="B117" s="229" t="s">
+        <v>100</v>
       </c>
       <c r="C117" s="255" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
       <c r="D117" s="254" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E117" s="252" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F117" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="307"/>
-      <c r="B118" s="257" t="s">
-        <v>507</v>
-      </c>
-      <c r="C118" s="253" t="s">
-        <v>904</v>
+      <c r="A118" s="306"/>
+      <c r="B118" s="229" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="255" t="s">
+        <v>722</v>
       </c>
       <c r="D118" s="254" t="s">
-        <v>905</v>
+        <v>770</v>
       </c>
       <c r="E118" s="252" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="30">
-      <c r="A119" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B119" s="249" t="s">
+      <c r="F118" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="306"/>
+      <c r="B119" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" s="255" t="s">
+        <v>568</v>
+      </c>
+      <c r="D119" s="254" t="s">
+        <v>773</v>
+      </c>
+      <c r="E119" s="252" t="s">
+        <v>800</v>
+      </c>
+      <c r="F119" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="307"/>
+      <c r="B120" s="257" t="s">
+        <v>507</v>
+      </c>
+      <c r="C120" s="253" t="s">
+        <v>904</v>
+      </c>
+      <c r="D120" s="254" t="s">
+        <v>905</v>
+      </c>
+      <c r="E120" s="252" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30">
+      <c r="A121" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B121" s="249" t="s">
         <v>698</v>
       </c>
-      <c r="C119" s="249" t="s">
+      <c r="C121" s="249" t="s">
         <v>622</v>
       </c>
-      <c r="D119" s="250" t="s">
+      <c r="D121" s="250" t="s">
         <v>438</v>
       </c>
-      <c r="E119" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F119" s="251" t="s">
+      <c r="E121" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F121" s="251" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1">
-      <c r="A120" s="310" t="s">
+    <row r="122" spans="1:6" ht="15" customHeight="1">
+      <c r="A122" s="310" t="s">
         <v>703</v>
       </c>
-      <c r="B120" s="231" t="s">
+      <c r="B122" s="231" t="s">
         <v>66</v>
       </c>
-      <c r="C120" s="253" t="s">
+      <c r="C122" s="253" t="s">
         <v>721</v>
       </c>
-      <c r="D120" s="254" t="s">
+      <c r="D122" s="254" t="s">
         <v>762</v>
       </c>
-      <c r="E120" s="252" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="306"/>
-      <c r="B121" s="257" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" s="255"/>
-      <c r="F121" s="256" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="306"/>
-      <c r="B122" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="255" t="s">
-        <v>563</v>
-      </c>
-      <c r="D122" s="254" t="s">
-        <v>763</v>
-      </c>
       <c r="E122" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F122" s="256" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="306"/>
-      <c r="B123" s="157" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" s="253" t="s">
-        <v>563</v>
+      <c r="B123" s="257" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" s="255" t="s">
+        <v>606</v>
       </c>
       <c r="D123" s="254" t="s">
-        <v>763</v>
-      </c>
-      <c r="E123" s="252" t="s">
-        <v>798</v>
+        <v>784</v>
+      </c>
+      <c r="F123" s="256" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="306"/>
-      <c r="B124" s="158" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" s="255"/>
+      <c r="B124" s="257" t="s">
+        <v>907</v>
+      </c>
+      <c r="C124" s="255" t="s">
+        <v>563</v>
+      </c>
+      <c r="D124" s="254" t="s">
+        <v>763</v>
+      </c>
       <c r="F124" s="256" t="s">
-        <v>815</v>
+        <v>913</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="306"/>
-      <c r="B125" s="232" t="s">
-        <v>73</v>
-      </c>
-      <c r="C125" s="253" t="s">
-        <v>719</v>
+      <c r="B125" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="255" t="s">
+        <v>563</v>
       </c>
       <c r="D125" s="254" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="E125" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
+      </c>
+      <c r="F125" s="256" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="306"/>
-      <c r="B126" s="232" t="s">
-        <v>74</v>
+      <c r="B126" s="157" t="s">
+        <v>71</v>
       </c>
       <c r="C126" s="253" t="s">
-        <v>715</v>
+        <v>563</v>
       </c>
       <c r="D126" s="254" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="E126" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="306"/>
-      <c r="B127" s="232" t="s">
-        <v>75</v>
-      </c>
-      <c r="C127" s="253" t="s">
-        <v>719</v>
-      </c>
-      <c r="D127" s="254" t="s">
-        <v>756</v>
-      </c>
-      <c r="E127" s="252" t="s">
-        <v>798</v>
+      <c r="B127" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" s="255"/>
+      <c r="F127" s="256" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="306"/>
       <c r="B128" s="232" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C128" s="253" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D128" s="254" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="E128" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="306"/>
-      <c r="B129" s="233" t="s">
-        <v>77</v>
+      <c r="B129" s="232" t="s">
+        <v>74</v>
       </c>
       <c r="C129" s="253" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D129" s="254" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="E129" s="252" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="306"/>
-      <c r="B130" s="234" t="s">
-        <v>78</v>
+      <c r="B130" s="232" t="s">
+        <v>75</v>
       </c>
       <c r="C130" s="253" t="s">
-        <v>465</v>
+        <v>719</v>
       </c>
       <c r="D130" s="254" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E130" s="252" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="306"/>
-      <c r="B131" s="233" t="s">
-        <v>895</v>
+      <c r="B131" s="232" t="s">
+        <v>76</v>
       </c>
       <c r="C131" s="253" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D131" s="254" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="E131" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="306"/>
       <c r="B132" s="233" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C132" s="253" t="s">
-        <v>512</v>
+        <v>716</v>
       </c>
       <c r="D132" s="254" t="s">
-        <v>775</v>
+        <v>713</v>
       </c>
       <c r="E132" s="252" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="306"/>
-      <c r="B133" s="235" t="s">
-        <v>451</v>
+      <c r="B133" s="234" t="s">
+        <v>78</v>
       </c>
       <c r="C133" s="253" t="s">
-        <v>723</v>
+        <v>465</v>
       </c>
       <c r="D133" s="254" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="E133" s="252" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="306"/>
-      <c r="B134" s="235" t="s">
-        <v>125</v>
+      <c r="B134" s="233" t="s">
+        <v>895</v>
       </c>
       <c r="C134" s="253" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D134" s="254" t="s">
-        <v>776</v>
+        <v>714</v>
       </c>
       <c r="E134" s="252" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="306"/>
-      <c r="B135" s="236" t="s">
-        <v>126</v>
+      <c r="B135" s="233" t="s">
+        <v>124</v>
       </c>
       <c r="C135" s="253" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="D135" s="254" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="E135" s="252" t="s">
         <v>799</v>
@@ -14470,567 +14505,573 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="306"/>
-      <c r="B136" s="236" t="s">
-        <v>127</v>
+      <c r="B136" s="235" t="s">
+        <v>451</v>
       </c>
       <c r="C136" s="253" t="s">
-        <v>516</v>
+        <v>723</v>
       </c>
       <c r="D136" s="254" t="s">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="E136" s="252" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="306"/>
-      <c r="B137" s="236" t="s">
-        <v>452</v>
+      <c r="B137" s="235" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" s="253" t="s">
+        <v>723</v>
       </c>
       <c r="D137" s="254" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E137" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F137" s="256" t="s">
-        <v>897</v>
+        <v>808</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="306"/>
       <c r="B138" s="236" t="s">
-        <v>453</v>
+        <v>126</v>
       </c>
       <c r="C138" s="253" t="s">
-        <v>675</v>
+        <v>477</v>
       </c>
       <c r="D138" s="254" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E138" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="306"/>
       <c r="B139" s="236" t="s">
-        <v>454</v>
+        <v>127</v>
       </c>
       <c r="C139" s="253" t="s">
-        <v>677</v>
+        <v>516</v>
       </c>
       <c r="D139" s="254" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="E139" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="306"/>
       <c r="B140" s="236" t="s">
-        <v>455</v>
-      </c>
-      <c r="C140" s="253" t="s">
-        <v>518</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C140" s="255"/>
       <c r="D140" s="254" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E140" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="F140" s="256" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="306"/>
       <c r="B141" s="236" t="s">
-        <v>29</v>
+        <v>453</v>
       </c>
       <c r="C141" s="253" t="s">
-        <v>718</v>
+        <v>675</v>
       </c>
       <c r="D141" s="254" t="s">
-        <v>727</v>
+        <v>778</v>
       </c>
       <c r="E141" s="252" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="306"/>
       <c r="B142" s="236" t="s">
-        <v>128</v>
+        <v>454</v>
       </c>
       <c r="C142" s="253" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
       <c r="D142" s="254" t="s">
-        <v>726</v>
+        <v>779</v>
       </c>
       <c r="E142" s="252" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="306"/>
       <c r="B143" s="236" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C143" s="253" t="s">
-        <v>715</v>
+        <v>518</v>
       </c>
       <c r="D143" s="254" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
       <c r="E143" s="252" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="306"/>
-      <c r="B144" s="215" t="s">
-        <v>129</v>
+      <c r="B144" s="236" t="s">
+        <v>29</v>
       </c>
       <c r="C144" s="253" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D144" s="254" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
       <c r="E144" s="252" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="306"/>
-      <c r="B145" s="237" t="s">
-        <v>130</v>
-      </c>
-      <c r="C145" s="255" t="s">
-        <v>887</v>
+      <c r="B145" s="236" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" s="253" t="s">
+        <v>715</v>
       </c>
       <c r="D145" s="254" t="s">
-        <v>889</v>
+        <v>726</v>
       </c>
       <c r="E145" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F145" s="256" t="s">
-        <v>888</v>
+        <v>799</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="306"/>
-      <c r="B146" s="238" t="s">
-        <v>131</v>
-      </c>
-      <c r="C146" s="255"/>
-      <c r="F146" s="256" t="s">
-        <v>817</v>
+      <c r="B146" s="236" t="s">
+        <v>456</v>
+      </c>
+      <c r="C146" s="253" t="s">
+        <v>715</v>
+      </c>
+      <c r="D146" s="254" t="s">
+        <v>726</v>
+      </c>
+      <c r="E146" s="252" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="306"/>
-      <c r="B147" s="237" t="s">
-        <v>132</v>
+      <c r="B147" s="215" t="s">
+        <v>129</v>
       </c>
       <c r="C147" s="253" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D147" s="254" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E147" s="252" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="306"/>
-      <c r="B148" s="215" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="253" t="s">
-        <v>496</v>
+      <c r="B148" s="237" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148" s="255" t="s">
+        <v>887</v>
       </c>
       <c r="D148" s="254" t="s">
-        <v>769</v>
+        <v>889</v>
       </c>
       <c r="E148" s="252" t="s">
-        <v>811</v>
+        <v>799</v>
+      </c>
+      <c r="F148" s="256" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="306"/>
-      <c r="B149" s="215" t="s">
-        <v>134</v>
-      </c>
-      <c r="C149" s="253" t="s">
-        <v>559</v>
-      </c>
-      <c r="D149" s="254" t="s">
-        <v>767</v>
-      </c>
-      <c r="E149" s="252" t="s">
-        <v>811</v>
+      <c r="B149" s="238" t="s">
+        <v>131</v>
+      </c>
+      <c r="C149" s="255"/>
+      <c r="F149" s="256" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="306"/>
-      <c r="B150" s="238" t="s">
-        <v>34</v>
+      <c r="B150" s="237" t="s">
+        <v>132</v>
       </c>
       <c r="C150" s="253" t="s">
-        <v>496</v>
+        <v>724</v>
       </c>
       <c r="D150" s="254" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="E150" s="252" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="306"/>
       <c r="B151" s="215" t="s">
-        <v>135</v>
-      </c>
-      <c r="C151" s="255" t="s">
-        <v>721</v>
+        <v>133</v>
+      </c>
+      <c r="C151" s="253" t="s">
+        <v>496</v>
       </c>
       <c r="D151" s="254" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="E151" s="252" t="s">
-        <v>807</v>
-      </c>
-      <c r="F151" s="256" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="306"/>
       <c r="B152" s="215" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C152" s="253" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D152" s="254" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="E152" s="252" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="306"/>
-      <c r="B153" s="102" t="s">
-        <v>91</v>
+      <c r="B153" s="238" t="s">
+        <v>34</v>
       </c>
       <c r="C153" s="253" t="s">
-        <v>722</v>
+        <v>496</v>
       </c>
       <c r="D153" s="254" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E153" s="252" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="306"/>
-      <c r="B154" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C154" s="253" t="s">
-        <v>505</v>
+      <c r="B154" s="215" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="255" t="s">
+        <v>721</v>
       </c>
       <c r="D154" s="254" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="E154" s="252" t="s">
-        <v>799</v>
+        <v>808</v>
+      </c>
+      <c r="F154" s="256" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="306"/>
-      <c r="B155" s="102" t="s">
-        <v>139</v>
+      <c r="B155" s="215" t="s">
+        <v>136</v>
       </c>
       <c r="C155" s="253" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="D155" s="254" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="E155" s="252" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="306"/>
-      <c r="B156" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="C156" s="255"/>
-      <c r="F156" s="256" t="s">
-        <v>753</v>
+      <c r="B156" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" s="253" t="s">
+        <v>722</v>
+      </c>
+      <c r="D156" s="254" t="s">
+        <v>770</v>
+      </c>
+      <c r="E156" s="252" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="306"/>
-      <c r="B157" s="239" t="s">
-        <v>99</v>
-      </c>
-      <c r="C157" s="255"/>
-      <c r="F157" s="256" t="s">
-        <v>753</v>
+      <c r="B157" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157" s="253" t="s">
+        <v>505</v>
+      </c>
+      <c r="D157" s="254" t="s">
+        <v>772</v>
+      </c>
+      <c r="E157" s="252" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="306"/>
-      <c r="B158" s="240" t="s">
-        <v>98</v>
-      </c>
-      <c r="C158" s="255"/>
-      <c r="F158" s="256" t="s">
-        <v>753</v>
+      <c r="B158" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158" s="253" t="s">
+        <v>502</v>
+      </c>
+      <c r="D158" s="254" t="s">
+        <v>771</v>
+      </c>
+      <c r="E158" s="252" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="306"/>
-      <c r="B159" s="229" t="s">
-        <v>101</v>
-      </c>
-      <c r="C159" s="255" t="s">
-        <v>722</v>
-      </c>
-      <c r="D159" s="254" t="s">
-        <v>770</v>
-      </c>
-      <c r="E159" s="252" t="s">
-        <v>811</v>
-      </c>
+      <c r="B159" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" s="255"/>
       <c r="F159" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="306"/>
-      <c r="B160" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C160" s="255" t="s">
-        <v>568</v>
-      </c>
-      <c r="D160" s="254" t="s">
-        <v>773</v>
-      </c>
-      <c r="E160" s="252" t="s">
-        <v>799</v>
-      </c>
+      <c r="B160" s="239" t="s">
+        <v>99</v>
+      </c>
+      <c r="C160" s="255"/>
       <c r="F160" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="307"/>
-      <c r="B161" s="257" t="s">
+      <c r="A161" s="306"/>
+      <c r="B161" s="240" t="s">
+        <v>98</v>
+      </c>
+      <c r="C161" s="255"/>
+      <c r="F161" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="306"/>
+      <c r="B162" s="229" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162" s="255" t="s">
+        <v>722</v>
+      </c>
+      <c r="D162" s="254" t="s">
+        <v>770</v>
+      </c>
+      <c r="E162" s="252" t="s">
+        <v>812</v>
+      </c>
+      <c r="F162" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="306"/>
+      <c r="B163" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C163" s="255" t="s">
+        <v>568</v>
+      </c>
+      <c r="D163" s="254" t="s">
+        <v>773</v>
+      </c>
+      <c r="E163" s="252" t="s">
+        <v>800</v>
+      </c>
+      <c r="F163" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="307"/>
+      <c r="B164" s="257" t="s">
         <v>507</v>
       </c>
-      <c r="C161" s="253" t="s">
+      <c r="C164" s="253" t="s">
         <v>904</v>
       </c>
-      <c r="D161" s="254" t="s">
+      <c r="D164" s="254" t="s">
         <v>905</v>
       </c>
-      <c r="E161" s="252" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="30">
-      <c r="A162" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B162" s="249" t="s">
+      <c r="E164" s="252" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30">
+      <c r="A165" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B165" s="249" t="s">
         <v>698</v>
       </c>
-      <c r="C162" s="249" t="s">
+      <c r="C165" s="249" t="s">
         <v>622</v>
       </c>
-      <c r="D162" s="250" t="s">
+      <c r="D165" s="250" t="s">
         <v>438</v>
       </c>
-      <c r="E162" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F162" s="251" t="s">
+      <c r="E165" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F165" s="251" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="310" t="s">
+    <row r="166" spans="1:6" ht="15" customHeight="1">
+      <c r="A166" s="310" t="s">
         <v>705</v>
       </c>
-      <c r="B163" s="219" t="s">
+      <c r="B166" s="219" t="s">
         <v>66</v>
       </c>
-      <c r="C163" s="253" t="s">
+      <c r="C166" s="253" t="s">
         <v>721</v>
       </c>
-      <c r="D163" s="254" t="s">
+      <c r="D166" s="254" t="s">
         <v>762</v>
       </c>
-      <c r="E163" s="252" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="306"/>
-      <c r="B164" s="220" t="s">
-        <v>51</v>
-      </c>
-      <c r="C164" s="255"/>
-      <c r="F164" s="256" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="306"/>
-      <c r="B165" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C165" s="253" t="s">
-        <v>563</v>
-      </c>
-      <c r="D165" s="254" t="s">
-        <v>763</v>
-      </c>
-      <c r="E165" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="306"/>
-      <c r="B166" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C166" s="253" t="s">
-        <v>563</v>
-      </c>
-      <c r="D166" s="254" t="s">
-        <v>763</v>
-      </c>
       <c r="E166" s="252" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="306"/>
-      <c r="B167" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C167" s="255"/>
+      <c r="B167" s="220" t="s">
+        <v>51</v>
+      </c>
+      <c r="C167" s="255" t="s">
+        <v>606</v>
+      </c>
+      <c r="D167" s="254" t="s">
+        <v>784</v>
+      </c>
       <c r="F167" s="256" t="s">
-        <v>753</v>
+        <v>914</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="306"/>
-      <c r="B168" s="221" t="s">
-        <v>73</v>
-      </c>
-      <c r="C168" s="253" t="s">
-        <v>719</v>
+      <c r="B168" s="257" t="s">
+        <v>907</v>
+      </c>
+      <c r="C168" s="255" t="s">
+        <v>563</v>
       </c>
       <c r="D168" s="254" t="s">
-        <v>756</v>
-      </c>
-      <c r="E168" s="252" t="s">
-        <v>798</v>
+        <v>763</v>
+      </c>
+      <c r="F168" s="256" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="306"/>
-      <c r="B169" s="221" t="s">
-        <v>74</v>
+      <c r="B169" s="59" t="s">
+        <v>145</v>
       </c>
       <c r="C169" s="253" t="s">
-        <v>715</v>
+        <v>563</v>
       </c>
       <c r="D169" s="254" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="E169" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="306"/>
-      <c r="B170" s="221" t="s">
-        <v>75</v>
+      <c r="B170" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="C170" s="253" t="s">
-        <v>719</v>
+        <v>563</v>
       </c>
       <c r="D170" s="254" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="E170" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="306"/>
-      <c r="B171" s="221" t="s">
-        <v>76</v>
-      </c>
-      <c r="C171" s="253" t="s">
-        <v>715</v>
-      </c>
-      <c r="D171" s="254" t="s">
-        <v>726</v>
-      </c>
-      <c r="E171" s="252" t="s">
-        <v>798</v>
+      <c r="B171" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C171" s="255"/>
+      <c r="F171" s="256" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="306"/>
-      <c r="B172" s="60" t="s">
-        <v>77</v>
+      <c r="B172" s="221" t="s">
+        <v>73</v>
       </c>
       <c r="C172" s="253" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D172" s="254" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="E172" s="252" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="306"/>
-      <c r="B173" s="60" t="s">
-        <v>896</v>
+      <c r="B173" s="221" t="s">
+        <v>74</v>
       </c>
       <c r="C173" s="253" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D173" s="254" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="E173" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="306"/>
-      <c r="B174" s="61" t="s">
-        <v>149</v>
+      <c r="B174" s="221" t="s">
+        <v>75</v>
       </c>
       <c r="C174" s="253" t="s">
         <v>719</v>
@@ -15039,19 +15080,19 @@
         <v>756</v>
       </c>
       <c r="E174" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="306"/>
-      <c r="B175" s="61" t="s">
-        <v>150</v>
+      <c r="B175" s="221" t="s">
+        <v>76</v>
       </c>
       <c r="C175" s="253" t="s">
-        <v>518</v>
+        <v>715</v>
       </c>
       <c r="D175" s="254" t="s">
-        <v>780</v>
+        <v>726</v>
       </c>
       <c r="E175" s="252" t="s">
         <v>799</v>
@@ -15059,461 +15100,469 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="306"/>
-      <c r="B176" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="C176" s="255"/>
-      <c r="F176" s="256" t="s">
-        <v>818</v>
+      <c r="B176" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C176" s="253" t="s">
+        <v>716</v>
+      </c>
+      <c r="D176" s="254" t="s">
+        <v>713</v>
+      </c>
+      <c r="E176" s="252" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="306"/>
-      <c r="B177" s="64" t="s">
-        <v>152</v>
+      <c r="B177" s="60" t="s">
+        <v>896</v>
       </c>
       <c r="C177" s="253" t="s">
-        <v>493</v>
+        <v>717</v>
       </c>
       <c r="D177" s="254" t="s">
-        <v>783</v>
+        <v>714</v>
       </c>
       <c r="E177" s="252" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="306"/>
-      <c r="B178" s="64" t="s">
-        <v>153</v>
+      <c r="B178" s="61" t="s">
+        <v>149</v>
       </c>
       <c r="C178" s="253" t="s">
-        <v>496</v>
+        <v>719</v>
       </c>
       <c r="D178" s="254" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E178" s="252" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="306"/>
-      <c r="B179" s="64" t="s">
-        <v>154</v>
+      <c r="B179" s="61" t="s">
+        <v>150</v>
       </c>
       <c r="C179" s="253" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="D179" s="254" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="E179" s="252" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="306"/>
-      <c r="B180" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C180" s="253" t="s">
-        <v>496</v>
-      </c>
-      <c r="D180" s="254" t="s">
-        <v>769</v>
-      </c>
-      <c r="E180" s="252" t="s">
-        <v>811</v>
+      <c r="B180" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="255"/>
+      <c r="F180" s="256" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="306"/>
-      <c r="B181" s="241" t="s">
-        <v>156</v>
-      </c>
-      <c r="C181" s="255"/>
-      <c r="F181" s="256" t="s">
-        <v>815</v>
+      <c r="B181" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C181" s="253" t="s">
+        <v>493</v>
+      </c>
+      <c r="D181" s="254" t="s">
+        <v>783</v>
+      </c>
+      <c r="E181" s="252" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="306"/>
-      <c r="B182" s="241" t="s">
-        <v>157</v>
-      </c>
-      <c r="C182" s="255"/>
-      <c r="F182" s="256" t="s">
-        <v>815</v>
+      <c r="B182" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C182" s="253" t="s">
+        <v>496</v>
+      </c>
+      <c r="D182" s="254" t="s">
+        <v>769</v>
+      </c>
+      <c r="E182" s="252" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="306"/>
-      <c r="B183" s="63" t="s">
-        <v>158</v>
+      <c r="B183" s="64" t="s">
+        <v>154</v>
       </c>
       <c r="C183" s="253" t="s">
-        <v>717</v>
+        <v>496</v>
       </c>
       <c r="D183" s="254" t="s">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="E183" s="252" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="306"/>
-      <c r="B184" s="57" t="s">
-        <v>96</v>
+      <c r="B184" s="64" t="s">
+        <v>155</v>
       </c>
       <c r="C184" s="253" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D184" s="254" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E184" s="252" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="306"/>
-      <c r="B185" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C185" s="253" t="s">
-        <v>568</v>
-      </c>
-      <c r="D185" s="254" t="s">
-        <v>773</v>
-      </c>
-      <c r="E185" s="252" t="s">
-        <v>799</v>
+      <c r="B185" s="241" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185" s="255"/>
+      <c r="F185" s="256" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="306"/>
-      <c r="B186" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="C186" s="253" t="s">
-        <v>722</v>
-      </c>
-      <c r="D186" s="254" t="s">
-        <v>770</v>
-      </c>
-      <c r="E186" s="252" t="s">
-        <v>811</v>
+      <c r="B186" s="241" t="s">
+        <v>157</v>
+      </c>
+      <c r="C186" s="255"/>
+      <c r="F186" s="256" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="306"/>
-      <c r="B187" s="57" t="s">
-        <v>160</v>
+      <c r="B187" s="63" t="s">
+        <v>158</v>
       </c>
       <c r="C187" s="253" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D187" s="254" t="s">
-        <v>770</v>
+        <v>714</v>
       </c>
       <c r="E187" s="252" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="306"/>
       <c r="B188" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C188" s="303" t="s">
-        <v>681</v>
+        <v>96</v>
+      </c>
+      <c r="C188" s="253" t="s">
+        <v>505</v>
       </c>
       <c r="D188" s="254" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="E188" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F188" s="305" t="s">
-        <v>681</v>
+        <v>800</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="306"/>
-      <c r="B189" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="C189" s="255"/>
-      <c r="F189" s="256" t="s">
-        <v>753</v>
+      <c r="B189" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" s="253" t="s">
+        <v>568</v>
+      </c>
+      <c r="D189" s="254" t="s">
+        <v>773</v>
+      </c>
+      <c r="E189" s="252" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="306"/>
-      <c r="B190" s="239" t="s">
-        <v>99</v>
-      </c>
-      <c r="C190" s="255"/>
-      <c r="F190" s="256" t="s">
-        <v>753</v>
+      <c r="B190" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C190" s="253" t="s">
+        <v>722</v>
+      </c>
+      <c r="D190" s="254" t="s">
+        <v>770</v>
+      </c>
+      <c r="E190" s="252" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="306"/>
-      <c r="B191" s="240" t="s">
-        <v>98</v>
-      </c>
-      <c r="C191" s="255"/>
-      <c r="F191" s="256" t="s">
-        <v>753</v>
+      <c r="B191" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C191" s="253" t="s">
+        <v>722</v>
+      </c>
+      <c r="D191" s="254" t="s">
+        <v>770</v>
+      </c>
+      <c r="E191" s="252" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="306"/>
-      <c r="B192" s="229" t="s">
-        <v>101</v>
-      </c>
-      <c r="C192" s="255" t="s">
-        <v>722</v>
+      <c r="B192" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" s="303" t="s">
+        <v>681</v>
       </c>
       <c r="D192" s="254" t="s">
-        <v>770</v>
+        <v>682</v>
       </c>
       <c r="E192" s="252" t="s">
-        <v>811</v>
-      </c>
-      <c r="F192" s="256" t="s">
-        <v>753</v>
+        <v>799</v>
+      </c>
+      <c r="F192" s="305" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="306"/>
-      <c r="B193" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C193" s="255" t="s">
-        <v>568</v>
-      </c>
-      <c r="D193" s="254" t="s">
-        <v>773</v>
-      </c>
-      <c r="E193" s="252" t="s">
-        <v>799</v>
-      </c>
+      <c r="B193" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C193" s="255"/>
       <c r="F193" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="307"/>
-      <c r="B194" s="257" t="s">
-        <v>507</v>
-      </c>
-      <c r="C194" s="253" t="s">
-        <v>904</v>
-      </c>
-      <c r="D194" s="254" t="s">
-        <v>905</v>
-      </c>
-      <c r="E194" s="252" t="s">
+      <c r="A194" s="306"/>
+      <c r="B194" s="239" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194" s="255"/>
+      <c r="F194" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="306"/>
+      <c r="B195" s="240" t="s">
+        <v>98</v>
+      </c>
+      <c r="C195" s="255"/>
+      <c r="F195" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="306"/>
+      <c r="B196" s="229" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" s="255" t="s">
+        <v>722</v>
+      </c>
+      <c r="D196" s="254" t="s">
+        <v>770</v>
+      </c>
+      <c r="E196" s="252" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="30">
-      <c r="A195" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B195" s="249" t="s">
-        <v>698</v>
-      </c>
-      <c r="C195" s="249" t="s">
-        <v>622</v>
-      </c>
-      <c r="D195" s="250" t="s">
-        <v>438</v>
-      </c>
-      <c r="E195" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F195" s="251" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1">
-      <c r="A196" s="310" t="s">
-        <v>704</v>
-      </c>
-      <c r="B196" s="219" t="s">
-        <v>66</v>
-      </c>
-      <c r="C196" s="253" t="s">
-        <v>721</v>
-      </c>
-      <c r="D196" s="254" t="s">
-        <v>762</v>
-      </c>
-      <c r="E196" s="252" t="s">
-        <v>807</v>
+      <c r="F196" s="256" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="306"/>
-      <c r="B197" s="220" t="s">
-        <v>51</v>
-      </c>
-      <c r="C197" s="255"/>
+      <c r="B197" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C197" s="255" t="s">
+        <v>568</v>
+      </c>
+      <c r="D197" s="254" t="s">
+        <v>773</v>
+      </c>
+      <c r="E197" s="252" t="s">
+        <v>800</v>
+      </c>
       <c r="F197" s="256" t="s">
-        <v>815</v>
+        <v>753</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="306"/>
-      <c r="B198" s="14" t="s">
-        <v>165</v>
+      <c r="A198" s="307"/>
+      <c r="B198" s="257" t="s">
+        <v>507</v>
       </c>
       <c r="C198" s="253" t="s">
-        <v>563</v>
+        <v>904</v>
       </c>
       <c r="D198" s="254" t="s">
-        <v>763</v>
+        <v>905</v>
       </c>
       <c r="E198" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="306"/>
-      <c r="B199" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C199" s="253" t="s">
-        <v>563</v>
-      </c>
-      <c r="D199" s="254" t="s">
-        <v>763</v>
-      </c>
-      <c r="E199" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="306"/>
-      <c r="B200" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C200" s="255"/>
-      <c r="F200" s="256" t="s">
-        <v>753</v>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30">
+      <c r="A199" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B199" s="249" t="s">
+        <v>698</v>
+      </c>
+      <c r="C199" s="249" t="s">
+        <v>622</v>
+      </c>
+      <c r="D199" s="250" t="s">
+        <v>438</v>
+      </c>
+      <c r="E199" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F199" s="251" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15" customHeight="1">
+      <c r="A200" s="310" t="s">
+        <v>704</v>
+      </c>
+      <c r="B200" s="219" t="s">
+        <v>66</v>
+      </c>
+      <c r="C200" s="253" t="s">
+        <v>721</v>
+      </c>
+      <c r="D200" s="254" t="s">
+        <v>762</v>
+      </c>
+      <c r="E200" s="252" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="306"/>
-      <c r="B201" s="221" t="s">
-        <v>73</v>
-      </c>
-      <c r="C201" s="253" t="s">
-        <v>719</v>
+      <c r="B201" s="220" t="s">
+        <v>51</v>
+      </c>
+      <c r="C201" s="255" t="s">
+        <v>606</v>
       </c>
       <c r="D201" s="254" t="s">
-        <v>756</v>
-      </c>
-      <c r="E201" s="252" t="s">
-        <v>798</v>
+        <v>784</v>
+      </c>
+      <c r="F201" s="256" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="306"/>
-      <c r="B202" s="221" t="s">
-        <v>74</v>
-      </c>
-      <c r="C202" s="253" t="s">
-        <v>715</v>
+      <c r="B202" s="257" t="s">
+        <v>907</v>
+      </c>
+      <c r="C202" s="255" t="s">
+        <v>563</v>
       </c>
       <c r="D202" s="254" t="s">
-        <v>726</v>
-      </c>
-      <c r="E202" s="252" t="s">
-        <v>798</v>
+        <v>763</v>
+      </c>
+      <c r="F202" s="256" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="306"/>
-      <c r="B203" s="221" t="s">
-        <v>75</v>
+      <c r="B203" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="C203" s="253" t="s">
-        <v>719</v>
+        <v>563</v>
       </c>
       <c r="D203" s="254" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="E203" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="306"/>
-      <c r="B204" s="221" t="s">
-        <v>76</v>
+      <c r="B204" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C204" s="253" t="s">
-        <v>715</v>
+        <v>563</v>
       </c>
       <c r="D204" s="254" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="E204" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="306"/>
-      <c r="B205" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C205" s="253" t="s">
-        <v>716</v>
-      </c>
-      <c r="D205" s="254" t="s">
-        <v>713</v>
-      </c>
-      <c r="E205" s="252" t="s">
-        <v>807</v>
+      <c r="B205" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205" s="255"/>
+      <c r="F205" s="256" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="306"/>
-      <c r="B206" s="222" t="s">
-        <v>78</v>
+      <c r="B206" s="221" t="s">
+        <v>73</v>
       </c>
       <c r="C206" s="253" t="s">
-        <v>465</v>
+        <v>719</v>
       </c>
       <c r="D206" s="254" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="E206" s="252" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="306"/>
-      <c r="B207" s="60" t="s">
-        <v>895</v>
+      <c r="B207" s="221" t="s">
+        <v>74</v>
       </c>
       <c r="C207" s="253" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D207" s="254" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="E207" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="306"/>
-      <c r="B208" s="223" t="s">
-        <v>167</v>
+      <c r="B208" s="221" t="s">
+        <v>75</v>
       </c>
       <c r="C208" s="253" t="s">
         <v>719</v>
@@ -15522,13 +15571,13 @@
         <v>756</v>
       </c>
       <c r="E208" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="306"/>
-      <c r="B209" s="223" t="s">
-        <v>83</v>
+      <c r="B209" s="221" t="s">
+        <v>76</v>
       </c>
       <c r="C209" s="253" t="s">
         <v>715</v>
@@ -15537,437 +15586,434 @@
         <v>726</v>
       </c>
       <c r="E209" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="306"/>
-      <c r="B210" s="61" t="s">
+      <c r="B210" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C210" s="253" t="s">
+        <v>716</v>
+      </c>
+      <c r="D210" s="254" t="s">
+        <v>713</v>
+      </c>
+      <c r="E210" s="252" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="306"/>
+      <c r="B211" s="222" t="s">
+        <v>78</v>
+      </c>
+      <c r="C211" s="253" t="s">
+        <v>465</v>
+      </c>
+      <c r="D211" s="254" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="306"/>
+      <c r="B212" s="60" t="s">
+        <v>895</v>
+      </c>
+      <c r="C212" s="253" t="s">
+        <v>717</v>
+      </c>
+      <c r="D212" s="254" t="s">
+        <v>714</v>
+      </c>
+      <c r="E212" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="306"/>
+      <c r="B213" s="223" t="s">
+        <v>167</v>
+      </c>
+      <c r="C213" s="253" t="s">
+        <v>719</v>
+      </c>
+      <c r="D213" s="254" t="s">
+        <v>756</v>
+      </c>
+      <c r="E213" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="306"/>
+      <c r="B214" s="223" t="s">
+        <v>83</v>
+      </c>
+      <c r="C214" s="253" t="s">
+        <v>715</v>
+      </c>
+      <c r="D214" s="254" t="s">
+        <v>726</v>
+      </c>
+      <c r="E214" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="306"/>
+      <c r="B215" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="C210" s="253" t="s">
+      <c r="C215" s="253" t="s">
         <v>725</v>
       </c>
-      <c r="D210" s="254" t="s">
-        <v>784</v>
-      </c>
-      <c r="E210" s="252" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="306"/>
-      <c r="B211" s="223" t="s">
+      <c r="D215" s="254" t="s">
+        <v>785</v>
+      </c>
+      <c r="E215" s="252" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="306"/>
+      <c r="B216" s="223" t="s">
         <v>169</v>
       </c>
-      <c r="C211" s="253" t="s">
+      <c r="C216" s="253" t="s">
         <v>539</v>
       </c>
-      <c r="D211" s="254" t="s">
+      <c r="D216" s="254" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="306"/>
-      <c r="B212" s="61" t="s">
+    <row r="217" spans="1:5">
+      <c r="A217" s="306"/>
+      <c r="B217" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C212" s="253" t="s">
+      <c r="C217" s="253" t="s">
         <v>715</v>
       </c>
-      <c r="D212" s="254" t="s">
+      <c r="D217" s="254" t="s">
         <v>726</v>
       </c>
-      <c r="E212" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="306"/>
-      <c r="B213" s="242" t="s">
+      <c r="E217" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="306"/>
+      <c r="B218" s="242" t="s">
         <v>88</v>
       </c>
-      <c r="C213" s="253" t="s">
+      <c r="C218" s="253" t="s">
         <v>559</v>
       </c>
-      <c r="D213" s="254" t="s">
+      <c r="D218" s="254" t="s">
         <v>767</v>
       </c>
-      <c r="E213" s="252" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="306"/>
-      <c r="B214" s="242" t="s">
+      <c r="E218" s="252" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="306"/>
+      <c r="B219" s="242" t="s">
         <v>89</v>
       </c>
-      <c r="C214" s="253" t="s">
+      <c r="C219" s="253" t="s">
         <v>493</v>
       </c>
-      <c r="D214" s="254" t="s">
+      <c r="D219" s="254" t="s">
         <v>783</v>
       </c>
-      <c r="E214" s="252" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="306"/>
-      <c r="B215" s="242" t="s">
+      <c r="E219" s="252" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="306"/>
+      <c r="B220" s="242" t="s">
         <v>90</v>
       </c>
-      <c r="C215" s="253" t="s">
+      <c r="C220" s="253" t="s">
         <v>496</v>
       </c>
-      <c r="D215" s="254" t="s">
+      <c r="D220" s="254" t="s">
         <v>769</v>
       </c>
-      <c r="E215" s="252" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="306"/>
-      <c r="B216" s="242" t="s">
+      <c r="E220" s="252" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="306"/>
+      <c r="B221" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="C216" s="253" t="s">
+      <c r="C221" s="253" t="s">
         <v>496</v>
       </c>
-      <c r="D216" s="254" t="s">
+      <c r="D221" s="254" t="s">
         <v>769</v>
       </c>
-      <c r="E216" s="252" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="306"/>
-      <c r="B217" s="242" t="s">
+      <c r="E221" s="252" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="306"/>
+      <c r="B222" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="253" t="s">
+      <c r="C222" s="253" t="s">
         <v>496</v>
       </c>
-      <c r="D217" s="254" t="s">
+      <c r="D222" s="254" t="s">
         <v>769</v>
       </c>
-      <c r="E217" s="252" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="306"/>
-      <c r="B218" s="243" t="s">
+      <c r="E222" s="252" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="306"/>
+      <c r="B223" s="243" t="s">
         <v>170</v>
       </c>
-      <c r="C218" s="253" t="s">
+      <c r="C223" s="253" t="s">
         <v>722</v>
       </c>
-      <c r="D218" s="254" t="s">
+      <c r="D223" s="254" t="s">
         <v>770</v>
       </c>
-      <c r="E218" s="252" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="306"/>
-      <c r="B219" s="243" t="s">
+      <c r="E223" s="252" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="306"/>
+      <c r="B224" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="C219" s="253" t="s">
+      <c r="C224" s="253" t="s">
         <v>502</v>
       </c>
-      <c r="D219" s="254" t="s">
+      <c r="D224" s="254" t="s">
         <v>771</v>
       </c>
-      <c r="E219" s="252" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="306"/>
-      <c r="B220" s="243" t="s">
-        <v>96</v>
-      </c>
-      <c r="C220" s="253" t="s">
-        <v>505</v>
-      </c>
-      <c r="D220" s="254" t="s">
-        <v>772</v>
-      </c>
-      <c r="E220" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="306"/>
-      <c r="B221" s="243" t="s">
-        <v>97</v>
-      </c>
-      <c r="C221" s="253" t="s">
-        <v>568</v>
-      </c>
-      <c r="D221" s="254" t="s">
-        <v>773</v>
-      </c>
-      <c r="E221" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="306"/>
-      <c r="B222" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="C222" s="255"/>
-      <c r="F222" s="256" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="306"/>
-      <c r="B223" s="239" t="s">
-        <v>99</v>
-      </c>
-      <c r="C223" s="255"/>
-      <c r="F223" s="256" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="306"/>
-      <c r="B224" s="240" t="s">
-        <v>98</v>
-      </c>
-      <c r="C224" s="255"/>
-      <c r="F224" s="256" t="s">
-        <v>753</v>
+      <c r="E224" s="252" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="306"/>
-      <c r="B225" s="244" t="s">
-        <v>100</v>
+      <c r="B225" s="243" t="s">
+        <v>96</v>
       </c>
       <c r="C225" s="253" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D225" s="254" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E225" s="252" t="s">
-        <v>811</v>
-      </c>
-      <c r="F225" s="256" t="s">
-        <v>753</v>
+        <v>800</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="306"/>
-      <c r="B226" s="229" t="s">
-        <v>101</v>
-      </c>
-      <c r="C226" s="255" t="s">
-        <v>722</v>
+      <c r="B226" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C226" s="253" t="s">
+        <v>568</v>
       </c>
       <c r="D226" s="254" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E226" s="252" t="s">
-        <v>811</v>
-      </c>
-      <c r="F226" s="256" t="s">
-        <v>753</v>
+        <v>800</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="306"/>
-      <c r="B227" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C227" s="255" t="s">
-        <v>568</v>
-      </c>
-      <c r="D227" s="254" t="s">
-        <v>773</v>
-      </c>
-      <c r="E227" s="252" t="s">
-        <v>799</v>
-      </c>
+      <c r="B227" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C227" s="255"/>
       <c r="F227" s="256" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="307"/>
-      <c r="B228" s="257" t="s">
-        <v>507</v>
-      </c>
-      <c r="C228" s="253" t="s">
-        <v>904</v>
-      </c>
-      <c r="D228" s="254" t="s">
-        <v>905</v>
-      </c>
-      <c r="E228" s="252" t="s">
+      <c r="A228" s="306"/>
+      <c r="B228" s="239" t="s">
+        <v>99</v>
+      </c>
+      <c r="C228" s="255"/>
+      <c r="F228" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="306"/>
+      <c r="B229" s="240" t="s">
+        <v>98</v>
+      </c>
+      <c r="C229" s="255"/>
+      <c r="F229" s="256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="306"/>
+      <c r="B230" s="244" t="s">
+        <v>100</v>
+      </c>
+      <c r="C230" s="253" t="s">
+        <v>502</v>
+      </c>
+      <c r="D230" s="254" t="s">
+        <v>771</v>
+      </c>
+      <c r="E230" s="252" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="30">
-      <c r="A229" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B229" s="249" t="s">
-        <v>698</v>
-      </c>
-      <c r="C229" s="249" t="s">
-        <v>622</v>
-      </c>
-      <c r="D229" s="250" t="s">
-        <v>438</v>
-      </c>
-      <c r="E229" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F229" s="251" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="15" customHeight="1">
-      <c r="A230" s="310" t="s">
-        <v>706</v>
-      </c>
-      <c r="B230" s="245" t="s">
-        <v>179</v>
-      </c>
-      <c r="C230" s="253" t="s">
-        <v>687</v>
-      </c>
-      <c r="D230" s="254" t="s">
-        <v>785</v>
-      </c>
-      <c r="E230" s="252" t="s">
-        <v>807</v>
+      <c r="F230" s="256" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="306"/>
-      <c r="B231" s="245" t="s">
-        <v>180</v>
-      </c>
-      <c r="C231" s="253" t="s">
-        <v>576</v>
+      <c r="B231" s="229" t="s">
+        <v>101</v>
+      </c>
+      <c r="C231" s="255" t="s">
+        <v>722</v>
       </c>
       <c r="D231" s="254" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="E231" s="252" t="s">
-        <v>800</v>
+        <v>812</v>
+      </c>
+      <c r="F231" s="256" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="306"/>
-      <c r="B232" s="245" t="s">
-        <v>181</v>
-      </c>
-      <c r="C232" s="253" t="s">
-        <v>577</v>
+      <c r="B232" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C232" s="255" t="s">
+        <v>568</v>
       </c>
       <c r="D232" s="254" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="E232" s="252" t="s">
         <v>800</v>
       </c>
+      <c r="F232" s="256" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="306"/>
-      <c r="B233" s="245" t="s">
-        <v>892</v>
+      <c r="A233" s="307"/>
+      <c r="B233" s="257" t="s">
+        <v>507</v>
       </c>
       <c r="C233" s="253" t="s">
-        <v>717</v>
+        <v>904</v>
       </c>
       <c r="D233" s="254" t="s">
-        <v>714</v>
+        <v>905</v>
       </c>
       <c r="E233" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="306"/>
-      <c r="B234" s="206" t="s">
-        <v>183</v>
-      </c>
-      <c r="C234" s="253" t="s">
-        <v>578</v>
-      </c>
-      <c r="D234" s="254" t="s">
-        <v>788</v>
-      </c>
-      <c r="E234" s="252" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="306"/>
-      <c r="B235" s="206" t="s">
-        <v>184</v>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="30">
+      <c r="A234" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B234" s="249" t="s">
+        <v>698</v>
+      </c>
+      <c r="C234" s="249" t="s">
+        <v>622</v>
+      </c>
+      <c r="D234" s="250" t="s">
+        <v>438</v>
+      </c>
+      <c r="E234" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F234" s="251" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15" customHeight="1">
+      <c r="A235" s="310" t="s">
+        <v>706</v>
+      </c>
+      <c r="B235" s="245" t="s">
+        <v>179</v>
       </c>
       <c r="C235" s="253" t="s">
-        <v>579</v>
+        <v>687</v>
       </c>
       <c r="D235" s="254" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E235" s="252" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="29.25" customHeight="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="306"/>
-      <c r="B236" s="205" t="s">
-        <v>186</v>
+      <c r="B236" s="245" t="s">
+        <v>180</v>
       </c>
       <c r="C236" s="253" t="s">
-        <v>686</v>
+        <v>576</v>
       </c>
       <c r="D236" s="254" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E236" s="252" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="306"/>
-      <c r="B237" s="205" t="s">
-        <v>187</v>
+      <c r="B237" s="245" t="s">
+        <v>181</v>
       </c>
       <c r="C237" s="253" t="s">
-        <v>686</v>
+        <v>577</v>
       </c>
       <c r="D237" s="254" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E237" s="252" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="306"/>
-      <c r="B238" s="205" t="s">
-        <v>188</v>
+      <c r="B238" s="245" t="s">
+        <v>892</v>
       </c>
       <c r="C238" s="253" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="D238" s="254" t="s">
-        <v>790</v>
+        <v>714</v>
       </c>
       <c r="E238" s="252" t="s">
         <v>799</v>
@@ -15975,698 +16021,657 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="306"/>
-      <c r="B239" s="205" t="s">
-        <v>189</v>
+      <c r="B239" s="206" t="s">
+        <v>183</v>
       </c>
       <c r="C239" s="253" t="s">
-        <v>691</v>
+        <v>578</v>
       </c>
       <c r="D239" s="254" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E239" s="252" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="306"/>
-      <c r="B240" s="205" t="s">
-        <v>190</v>
+      <c r="B240" s="206" t="s">
+        <v>184</v>
       </c>
       <c r="C240" s="253" t="s">
-        <v>691</v>
+        <v>579</v>
       </c>
       <c r="D240" s="254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E240" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="307"/>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A241" s="306"/>
       <c r="B241" s="205" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C241" s="253" t="s">
         <v>686</v>
       </c>
       <c r="D241" s="254" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E241" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="30">
-      <c r="A242" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B242" s="249" t="s">
-        <v>698</v>
-      </c>
-      <c r="C242" s="249" t="s">
-        <v>622</v>
-      </c>
-      <c r="D242" s="250" t="s">
-        <v>438</v>
-      </c>
-      <c r="E242" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F242" s="251" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="15" customHeight="1">
-      <c r="A243" s="310" t="s">
-        <v>710</v>
-      </c>
-      <c r="B243" s="246" t="s">
-        <v>213</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="306"/>
+      <c r="B242" s="205" t="s">
+        <v>187</v>
+      </c>
+      <c r="C242" s="253" t="s">
+        <v>686</v>
+      </c>
+      <c r="D242" s="254" t="s">
+        <v>791</v>
+      </c>
+      <c r="E242" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="306"/>
+      <c r="B243" s="205" t="s">
+        <v>188</v>
       </c>
       <c r="C243" s="253" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="D243" s="254" t="s">
-        <v>754</v>
+        <v>791</v>
       </c>
       <c r="E243" s="252" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="306"/>
-      <c r="B244" s="246" t="s">
-        <v>214</v>
+      <c r="B244" s="205" t="s">
+        <v>189</v>
       </c>
       <c r="C244" s="253" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D244" s="254" t="s">
         <v>792</v>
       </c>
       <c r="E244" s="252" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="306"/>
-      <c r="B245" s="246" t="s">
-        <v>892</v>
+      <c r="B245" s="205" t="s">
+        <v>190</v>
       </c>
       <c r="C245" s="253" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="D245" s="254" t="s">
-        <v>714</v>
+        <v>792</v>
       </c>
       <c r="E245" s="252" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="306"/>
+      <c r="A246" s="307"/>
       <c r="B246" s="205" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C246" s="253" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D246" s="254" t="s">
         <v>791</v>
       </c>
       <c r="E246" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="306"/>
-      <c r="B247" s="205" t="s">
-        <v>207</v>
-      </c>
-      <c r="C247" s="253" t="s">
-        <v>686</v>
-      </c>
-      <c r="D247" s="254" t="s">
-        <v>790</v>
-      </c>
-      <c r="E247" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="307"/>
-      <c r="B248" s="205" t="s">
-        <v>206</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="30">
+      <c r="A247" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B247" s="249" t="s">
+        <v>698</v>
+      </c>
+      <c r="C247" s="249" t="s">
+        <v>622</v>
+      </c>
+      <c r="D247" s="250" t="s">
+        <v>438</v>
+      </c>
+      <c r="E247" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F247" s="251" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15" customHeight="1">
+      <c r="A248" s="310" t="s">
+        <v>710</v>
+      </c>
+      <c r="B248" s="246" t="s">
+        <v>213</v>
       </c>
       <c r="C248" s="253" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="D248" s="254" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
       <c r="E248" s="252" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="30">
-      <c r="A249" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B249" s="249" t="s">
-        <v>698</v>
-      </c>
-      <c r="C249" s="249" t="s">
-        <v>622</v>
-      </c>
-      <c r="D249" s="250" t="s">
-        <v>438</v>
-      </c>
-      <c r="E249" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F249" s="251" t="s">
-        <v>441</v>
+    <row r="249" spans="1:6">
+      <c r="A249" s="306"/>
+      <c r="B249" s="246" t="s">
+        <v>214</v>
+      </c>
+      <c r="C249" s="253" t="s">
+        <v>689</v>
+      </c>
+      <c r="D249" s="254" t="s">
+        <v>793</v>
+      </c>
+      <c r="E249" s="252" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="310" t="s">
-        <v>707</v>
-      </c>
-      <c r="B250" s="258" t="s">
-        <v>535</v>
-      </c>
-      <c r="C250" s="303" t="s">
-        <v>794</v>
+      <c r="A250" s="306"/>
+      <c r="B250" s="246" t="s">
+        <v>892</v>
+      </c>
+      <c r="C250" s="253" t="s">
+        <v>717</v>
       </c>
       <c r="D250" s="254" t="s">
-        <v>793</v>
+        <v>714</v>
       </c>
       <c r="E250" s="252" t="s">
         <v>799</v>
-      </c>
-      <c r="F250" s="304" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="306"/>
       <c r="B251" s="246" t="s">
-        <v>197</v>
-      </c>
-      <c r="C251" s="253" t="s">
-        <v>661</v>
-      </c>
-      <c r="D251" s="254" t="s">
-        <v>754</v>
-      </c>
-      <c r="E251" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="15" customHeight="1">
+        <v>908</v>
+      </c>
+      <c r="C251" s="255"/>
+      <c r="F251" s="256" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="306"/>
       <c r="B252" s="246" t="s">
-        <v>198</v>
-      </c>
-      <c r="C252" s="253" t="s">
-        <v>696</v>
-      </c>
-      <c r="D252" s="254" t="s">
-        <v>792</v>
-      </c>
-      <c r="E252" s="252" t="s">
-        <v>798</v>
+        <v>909</v>
+      </c>
+      <c r="C252" s="255"/>
+      <c r="F252" s="256" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="306"/>
       <c r="B253" s="246" t="s">
-        <v>892</v>
-      </c>
-      <c r="C253" s="253" t="s">
-        <v>717</v>
-      </c>
-      <c r="D253" s="254" t="s">
-        <v>714</v>
-      </c>
-      <c r="E253" s="252" t="s">
-        <v>798</v>
+        <v>910</v>
+      </c>
+      <c r="C253" s="255"/>
+      <c r="F253" s="256" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="306"/>
       <c r="B254" s="246" t="s">
-        <v>200</v>
+        <v>911</v>
       </c>
       <c r="C254" s="255"/>
       <c r="F254" s="256" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="306"/>
       <c r="B255" s="246" t="s">
-        <v>536</v>
-      </c>
-      <c r="C255" s="303" t="s">
-        <v>794</v>
-      </c>
-      <c r="D255" s="254" t="s">
-        <v>793</v>
-      </c>
-      <c r="E255" s="252" t="s">
-        <v>799</v>
+        <v>912</v>
+      </c>
+      <c r="C255" s="255"/>
+      <c r="F255" s="256" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="306"/>
-      <c r="B256" s="208" t="s">
-        <v>201</v>
-      </c>
-      <c r="C256" s="303" t="s">
-        <v>582</v>
+      <c r="B256" s="205" t="s">
+        <v>189</v>
+      </c>
+      <c r="C256" s="253" t="s">
+        <v>691</v>
       </c>
       <c r="D256" s="254" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E256" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F256" s="305" t="s">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="306"/>
-      <c r="B257" s="208" t="s">
-        <v>202</v>
-      </c>
-      <c r="C257" s="303" t="s">
-        <v>582</v>
+      <c r="B257" s="205" t="s">
+        <v>207</v>
+      </c>
+      <c r="C257" s="253" t="s">
+        <v>686</v>
       </c>
       <c r="D257" s="254" t="s">
+        <v>791</v>
+      </c>
+      <c r="E257" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="307"/>
+      <c r="B258" s="205" t="s">
+        <v>206</v>
+      </c>
+      <c r="C258" s="253" t="s">
+        <v>686</v>
+      </c>
+      <c r="D258" s="254" t="s">
+        <v>791</v>
+      </c>
+      <c r="E258" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="30">
+      <c r="A259" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B259" s="249" t="s">
+        <v>698</v>
+      </c>
+      <c r="C259" s="249" t="s">
+        <v>622</v>
+      </c>
+      <c r="D259" s="250" t="s">
+        <v>438</v>
+      </c>
+      <c r="E259" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F259" s="251" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="310" t="s">
+        <v>707</v>
+      </c>
+      <c r="B260" s="258" t="s">
+        <v>535</v>
+      </c>
+      <c r="C260" s="303" t="s">
         <v>795</v>
       </c>
-      <c r="E257" s="252" t="s">
-        <v>799</v>
-      </c>
-      <c r="F257" s="304" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="306"/>
-      <c r="B258" s="209" t="s">
-        <v>203</v>
-      </c>
-      <c r="C258" s="253" t="s">
-        <v>203</v>
-      </c>
-      <c r="D258" s="254" t="s">
-        <v>796</v>
-      </c>
-      <c r="E258" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="306"/>
-      <c r="B259" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="C259" s="253" t="s">
-        <v>204</v>
-      </c>
-      <c r="D259" s="254" t="s">
-        <v>797</v>
-      </c>
-      <c r="E259" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="306"/>
-      <c r="B260" s="247" t="s">
-        <v>205</v>
-      </c>
-      <c r="C260" s="253" t="s">
-        <v>686</v>
-      </c>
       <c r="D260" s="254" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E260" s="252" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="F260" s="304" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="306"/>
-      <c r="B261" s="247" t="s">
-        <v>206</v>
+      <c r="B261" s="246" t="s">
+        <v>197</v>
       </c>
       <c r="C261" s="253" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="D261" s="254" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
       <c r="E261" s="252" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" ht="15" customHeight="1">
       <c r="A262" s="306"/>
-      <c r="B262" s="247" t="s">
-        <v>207</v>
+      <c r="B262" s="246" t="s">
+        <v>198</v>
       </c>
       <c r="C262" s="253" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="D262" s="254" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="E262" s="252" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="307"/>
-      <c r="B263" s="247" t="s">
-        <v>208</v>
+      <c r="A263" s="306"/>
+      <c r="B263" s="246" t="s">
+        <v>892</v>
       </c>
       <c r="C263" s="253" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="D263" s="254" t="s">
-        <v>790</v>
+        <v>714</v>
       </c>
       <c r="E263" s="252" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30">
-      <c r="A264" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B264" s="249" t="s">
-        <v>698</v>
-      </c>
-      <c r="C264" s="249" t="s">
-        <v>622</v>
-      </c>
-      <c r="D264" s="250" t="s">
-        <v>438</v>
-      </c>
-      <c r="E264" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F264" s="251" t="s">
-        <v>441</v>
+    <row r="264" spans="1:6">
+      <c r="A264" s="306"/>
+      <c r="B264" s="246" t="s">
+        <v>200</v>
+      </c>
+      <c r="C264" s="255"/>
+      <c r="F264" s="256" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="311" t="s">
-        <v>881</v>
-      </c>
+      <c r="A265" s="306"/>
       <c r="B265" s="246" t="s">
-        <v>218</v>
-      </c>
-      <c r="C265" s="253" t="s">
-        <v>661</v>
+        <v>536</v>
+      </c>
+      <c r="C265" s="303" t="s">
+        <v>795</v>
       </c>
       <c r="D265" s="254" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="E265" s="252" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="311"/>
-      <c r="B266" s="246" t="s">
-        <v>219</v>
-      </c>
-      <c r="C266" s="253" t="s">
-        <v>689</v>
+      <c r="A266" s="306"/>
+      <c r="B266" s="208" t="s">
+        <v>201</v>
+      </c>
+      <c r="C266" s="303" t="s">
+        <v>582</v>
       </c>
       <c r="D266" s="254" t="s">
-        <v>754</v>
+        <v>796</v>
       </c>
       <c r="E266" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F266" s="302"/>
+        <v>800</v>
+      </c>
+      <c r="F266" s="305" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="311"/>
-      <c r="B267" s="246" t="s">
-        <v>220</v>
-      </c>
-      <c r="C267" s="253" t="s">
-        <v>689</v>
+      <c r="A267" s="306"/>
+      <c r="B267" s="208" t="s">
+        <v>202</v>
+      </c>
+      <c r="C267" s="303" t="s">
+        <v>582</v>
       </c>
       <c r="D267" s="254" t="s">
-        <v>754</v>
+        <v>796</v>
       </c>
       <c r="E267" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F267" s="302"/>
+        <v>800</v>
+      </c>
+      <c r="F267" s="304" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="311"/>
-      <c r="B268" s="208" t="s">
-        <v>221</v>
-      </c>
-      <c r="C268" s="303" t="s">
-        <v>582</v>
+      <c r="A268" s="306"/>
+      <c r="B268" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="C268" s="253" t="s">
+        <v>203</v>
       </c>
       <c r="D268" s="254" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E268" s="252" t="s">
         <v>799</v>
       </c>
-      <c r="F268" s="304" t="s">
-        <v>806</v>
-      </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="311"/>
-      <c r="B269" s="208" t="s">
-        <v>711</v>
+      <c r="A269" s="306"/>
+      <c r="B269" s="209" t="s">
+        <v>204</v>
       </c>
       <c r="C269" s="253" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D269" s="254" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E269" s="252" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="311"/>
-      <c r="B270" s="208" t="s">
-        <v>712</v>
+      <c r="A270" s="306"/>
+      <c r="B270" s="247" t="s">
+        <v>205</v>
       </c>
       <c r="C270" s="253" t="s">
-        <v>204</v>
+        <v>686</v>
       </c>
       <c r="D270" s="254" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E270" s="252" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="311"/>
-      <c r="B271" s="208" t="s">
-        <v>208</v>
+      <c r="A271" s="306"/>
+      <c r="B271" s="247" t="s">
+        <v>206</v>
       </c>
       <c r="C271" s="253" t="s">
         <v>686</v>
       </c>
       <c r="D271" s="254" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E271" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="30">
-      <c r="A272" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B272" s="249" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="306"/>
+      <c r="B272" s="247" t="s">
+        <v>207</v>
+      </c>
+      <c r="C272" s="253" t="s">
+        <v>686</v>
+      </c>
+      <c r="D272" s="254" t="s">
+        <v>791</v>
+      </c>
+      <c r="E272" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="307"/>
+      <c r="B273" s="247" t="s">
+        <v>208</v>
+      </c>
+      <c r="C273" s="253" t="s">
+        <v>686</v>
+      </c>
+      <c r="D273" s="254" t="s">
+        <v>791</v>
+      </c>
+      <c r="E273" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="30">
+      <c r="A274" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B274" s="249" t="s">
         <v>698</v>
       </c>
-      <c r="C272" s="249" t="s">
+      <c r="C274" s="249" t="s">
         <v>622</v>
       </c>
-      <c r="D272" s="250" t="s">
+      <c r="D274" s="250" t="s">
         <v>438</v>
       </c>
-      <c r="E272" s="251" t="s">
-        <v>820</v>
-      </c>
-      <c r="F272" s="251" t="s">
+      <c r="E274" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F274" s="251" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="311" t="s">
-        <v>880</v>
-      </c>
-      <c r="B273" s="246" t="s">
-        <v>227</v>
-      </c>
-      <c r="C273" s="253" t="s">
+    <row r="275" spans="1:6">
+      <c r="A275" s="311" t="s">
+        <v>881</v>
+      </c>
+      <c r="B275" s="246" t="s">
+        <v>218</v>
+      </c>
+      <c r="C275" s="253" t="s">
         <v>661</v>
-      </c>
-      <c r="D273" s="254" t="s">
-        <v>754</v>
-      </c>
-      <c r="E273" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="311"/>
-      <c r="B274" s="246" t="s">
-        <v>228</v>
-      </c>
-      <c r="C274" s="253" t="s">
-        <v>689</v>
-      </c>
-      <c r="D274" s="254" t="s">
-        <v>754</v>
-      </c>
-      <c r="E274" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F274" s="302"/>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="311"/>
-      <c r="B275" s="246" t="s">
-        <v>229</v>
-      </c>
-      <c r="C275" s="253" t="s">
-        <v>689</v>
       </c>
       <c r="D275" s="254" t="s">
         <v>754</v>
       </c>
       <c r="E275" s="252" t="s">
-        <v>798</v>
-      </c>
-      <c r="F275" s="302"/>
+        <v>799</v>
+      </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="311"/>
-      <c r="B276" s="208" t="s">
-        <v>711</v>
+      <c r="B276" s="246" t="s">
+        <v>219</v>
       </c>
       <c r="C276" s="253" t="s">
-        <v>203</v>
+        <v>689</v>
       </c>
       <c r="D276" s="254" t="s">
-        <v>796</v>
+        <v>754</v>
       </c>
       <c r="E276" s="252" t="s">
-        <v>798</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F276" s="302"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="311"/>
-      <c r="B277" s="208" t="s">
-        <v>712</v>
+      <c r="B277" s="246" t="s">
+        <v>220</v>
       </c>
       <c r="C277" s="253" t="s">
-        <v>204</v>
+        <v>689</v>
       </c>
       <c r="D277" s="254" t="s">
-        <v>797</v>
+        <v>754</v>
       </c>
       <c r="E277" s="252" t="s">
-        <v>798</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F277" s="302"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="311"/>
       <c r="B278" s="208" t="s">
+        <v>221</v>
+      </c>
+      <c r="C278" s="303" t="s">
+        <v>582</v>
+      </c>
+      <c r="D278" s="254" t="s">
+        <v>796</v>
+      </c>
+      <c r="E278" s="252" t="s">
+        <v>800</v>
+      </c>
+      <c r="F278" s="304" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="311"/>
+      <c r="B279" s="208" t="s">
+        <v>711</v>
+      </c>
+      <c r="C279" s="253" t="s">
+        <v>203</v>
+      </c>
+      <c r="D279" s="254" t="s">
+        <v>797</v>
+      </c>
+      <c r="E279" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="311"/>
+      <c r="B280" s="208" t="s">
+        <v>712</v>
+      </c>
+      <c r="C280" s="253" t="s">
+        <v>204</v>
+      </c>
+      <c r="D280" s="254" t="s">
+        <v>798</v>
+      </c>
+      <c r="E280" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="311"/>
+      <c r="B281" s="208" t="s">
         <v>208</v>
       </c>
-      <c r="C278" s="253" t="s">
+      <c r="C281" s="253" t="s">
         <v>686</v>
       </c>
-      <c r="D278" s="254" t="s">
-        <v>790</v>
-      </c>
-      <c r="E278" s="252" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="30">
-      <c r="A279" s="248" t="s">
-        <v>819</v>
-      </c>
-      <c r="B279" s="249" t="s">
-        <v>698</v>
-      </c>
-      <c r="C279" s="249" t="s">
-        <v>622</v>
-      </c>
-      <c r="D279" s="250" t="s">
-        <v>438</v>
-      </c>
-      <c r="E279" s="251" t="s">
+      <c r="D281" s="254" t="s">
+        <v>791</v>
+      </c>
+      <c r="E281" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="30">
+      <c r="A282" s="248" t="s">
         <v>820</v>
-      </c>
-      <c r="F279" s="251" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="310" t="s">
-        <v>708</v>
-      </c>
-      <c r="B280" s="246" t="s">
-        <v>528</v>
-      </c>
-      <c r="C280" s="253" t="s">
-        <v>716</v>
-      </c>
-      <c r="D280" s="254" t="s">
-        <v>713</v>
-      </c>
-      <c r="E280" s="252" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="307"/>
-      <c r="B281" s="246" t="s">
-        <v>899</v>
-      </c>
-      <c r="C281" s="253" t="s">
-        <v>717</v>
-      </c>
-      <c r="D281" s="254" t="s">
-        <v>714</v>
-      </c>
-      <c r="E281" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="15" customHeight="1">
-      <c r="A282" s="248" t="s">
-        <v>819</v>
       </c>
       <c r="B282" s="249" t="s">
         <v>698</v>
@@ -16678,67 +16683,233 @@
         <v>438</v>
       </c>
       <c r="E282" s="251" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F282" s="251" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="310" t="s">
+      <c r="A283" s="311" t="s">
+        <v>880</v>
+      </c>
+      <c r="B283" s="246" t="s">
+        <v>227</v>
+      </c>
+      <c r="C283" s="253" t="s">
+        <v>661</v>
+      </c>
+      <c r="D283" s="254" t="s">
+        <v>754</v>
+      </c>
+      <c r="E283" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="311"/>
+      <c r="B284" s="246" t="s">
+        <v>228</v>
+      </c>
+      <c r="C284" s="253" t="s">
+        <v>689</v>
+      </c>
+      <c r="D284" s="254" t="s">
+        <v>754</v>
+      </c>
+      <c r="E284" s="252" t="s">
+        <v>799</v>
+      </c>
+      <c r="F284" s="302"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="311"/>
+      <c r="B285" s="246" t="s">
+        <v>229</v>
+      </c>
+      <c r="C285" s="253" t="s">
+        <v>689</v>
+      </c>
+      <c r="D285" s="254" t="s">
+        <v>754</v>
+      </c>
+      <c r="E285" s="252" t="s">
+        <v>799</v>
+      </c>
+      <c r="F285" s="302"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="311"/>
+      <c r="B286" s="208" t="s">
+        <v>711</v>
+      </c>
+      <c r="C286" s="253" t="s">
+        <v>203</v>
+      </c>
+      <c r="D286" s="254" t="s">
+        <v>797</v>
+      </c>
+      <c r="E286" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="311"/>
+      <c r="B287" s="208" t="s">
+        <v>712</v>
+      </c>
+      <c r="C287" s="253" t="s">
+        <v>204</v>
+      </c>
+      <c r="D287" s="254" t="s">
+        <v>798</v>
+      </c>
+      <c r="E287" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="311"/>
+      <c r="B288" s="208" t="s">
+        <v>208</v>
+      </c>
+      <c r="C288" s="253" t="s">
+        <v>686</v>
+      </c>
+      <c r="D288" s="254" t="s">
+        <v>791</v>
+      </c>
+      <c r="E288" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="30">
+      <c r="A289" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B289" s="249" t="s">
+        <v>698</v>
+      </c>
+      <c r="C289" s="249" t="s">
+        <v>622</v>
+      </c>
+      <c r="D289" s="250" t="s">
+        <v>438</v>
+      </c>
+      <c r="E289" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F289" s="251" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="310" t="s">
+        <v>708</v>
+      </c>
+      <c r="B290" s="246" t="s">
+        <v>528</v>
+      </c>
+      <c r="C290" s="253" t="s">
+        <v>716</v>
+      </c>
+      <c r="D290" s="254" t="s">
+        <v>713</v>
+      </c>
+      <c r="E290" s="252" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="307"/>
+      <c r="B291" s="246" t="s">
+        <v>899</v>
+      </c>
+      <c r="C291" s="253" t="s">
+        <v>717</v>
+      </c>
+      <c r="D291" s="254" t="s">
+        <v>714</v>
+      </c>
+      <c r="E291" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15" customHeight="1">
+      <c r="A292" s="248" t="s">
+        <v>820</v>
+      </c>
+      <c r="B292" s="249" t="s">
+        <v>698</v>
+      </c>
+      <c r="C292" s="249" t="s">
+        <v>622</v>
+      </c>
+      <c r="D292" s="250" t="s">
+        <v>438</v>
+      </c>
+      <c r="E292" s="251" t="s">
+        <v>821</v>
+      </c>
+      <c r="F292" s="251" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="310" t="s">
         <v>709</v>
       </c>
-      <c r="B283" s="246" t="s">
+      <c r="B293" s="246" t="s">
         <v>532</v>
       </c>
-      <c r="C283" s="253" t="s">
+      <c r="C293" s="253" t="s">
         <v>716</v>
       </c>
-      <c r="D283" s="254" t="s">
+      <c r="D293" s="254" t="s">
         <v>713</v>
       </c>
-      <c r="E283" s="252" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="307"/>
-      <c r="B284" s="246" t="s">
+      <c r="E293" s="252" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="307"/>
+      <c r="B294" s="246" t="s">
         <v>898</v>
       </c>
-      <c r="C284" s="253" t="s">
+      <c r="C294" s="253" t="s">
         <v>717</v>
       </c>
-      <c r="D284" s="254" t="s">
+      <c r="D294" s="254" t="s">
         <v>714</v>
       </c>
-      <c r="E284" s="252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="15" customHeight="1"/>
-    <row r="290" ht="29.25" customHeight="1"/>
+      <c r="E294" s="252" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15" customHeight="1"/>
+    <row r="300" spans="1:6" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A243:A248"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="A33:A68"/>
-    <mergeCell ref="A70:A118"/>
-    <mergeCell ref="A120:A161"/>
-    <mergeCell ref="A163:A194"/>
-    <mergeCell ref="A196:A228"/>
-    <mergeCell ref="A273:A278"/>
-    <mergeCell ref="A265:A271"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="A250:A263"/>
+    <mergeCell ref="A248:A258"/>
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="A71:A120"/>
+    <mergeCell ref="A122:A164"/>
+    <mergeCell ref="A166:A198"/>
+    <mergeCell ref="A200:A233"/>
+    <mergeCell ref="A235:A246"/>
+    <mergeCell ref="A34:A69"/>
+    <mergeCell ref="A283:A288"/>
+    <mergeCell ref="A275:A281"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A293:A294"/>
+    <mergeCell ref="A260:A273"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="68" max="16383" man="1"/>
-    <brk id="241" max="5" man="1"/>
+    <brk id="69" max="16383" man="1"/>
+    <brk id="246" max="5" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\NVT_Data-Model\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCBC9C-A3F2-444D-AACD-35440B442D2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0262060C-569E-4FBA-9D15-E67BBA82593D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CBD947D1-2C33-4D11-A007-77348F675747}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CBD947D1-2C33-4D11-A007-77348F675747}"/>
   </bookViews>
   <sheets>
     <sheet name="Subjects" sheetId="17" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="916">
   <si>
     <t>Basisinformationen</t>
   </si>
@@ -2783,15 +2783,9 @@
     <t>geo:location ecrm</t>
   </si>
   <si>
-    <t>ungleich Tabelle</t>
-  </si>
-  <si>
     <t>fehlt in RDAU Datei</t>
   </si>
   <si>
-    <t>subject ungenau</t>
-  </si>
-  <si>
     <t>edm:type</t>
   </si>
   <si>
@@ -2829,6 +2823,9 @@
   </si>
   <si>
     <t>3xalle, inkonsistent?</t>
+  </si>
+  <si>
+    <t>besprechen</t>
   </si>
 </sst>
 </file>
@@ -4019,7 +4016,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4811,6 +4808,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="61" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5061,6 +5061,8 @@
     <xf numFmtId="0" fontId="5" fillId="52" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Erklärender Text 2" xfId="2" xr:uid="{3CAA10F5-120A-4552-9D71-876FCEBDD02C}"/>
@@ -5436,7 +5438,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="323" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -5453,7 +5455,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="322"/>
+      <c r="A3" s="323"/>
       <c r="B3" s="18" t="s">
         <v>64</v>
       </c>
@@ -5468,7 +5470,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25">
-      <c r="A4" s="322"/>
+      <c r="A4" s="323"/>
       <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
@@ -5483,7 +5485,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="39">
-      <c r="A5" s="322"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
@@ -5504,7 +5506,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25">
-      <c r="A6" s="322"/>
+      <c r="A6" s="323"/>
       <c r="B6" s="17" t="s">
         <v>67</v>
       </c>
@@ -5522,7 +5524,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="322"/>
+      <c r="A7" s="323"/>
       <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
@@ -5538,7 +5540,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="322"/>
+      <c r="A8" s="323"/>
       <c r="B8" s="19" t="s">
         <v>69</v>
       </c>
@@ -5554,10 +5556,10 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="334" t="s">
+      <c r="A9" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="334"/>
+      <c r="B9" s="335"/>
       <c r="C9" s="30" t="s">
         <v>38</v>
       </c>
@@ -5567,7 +5569,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="51.75">
-      <c r="A10" s="379" t="s">
+      <c r="A10" s="380" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -5590,7 +5592,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="335"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="14" t="s">
         <v>71</v>
       </c>
@@ -5609,7 +5611,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="336"/>
+      <c r="A12" s="337"/>
       <c r="B12" s="15" t="s">
         <v>166</v>
       </c>
@@ -5622,7 +5624,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="337" t="s">
+      <c r="A13" s="338" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -5646,7 +5648,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="337"/>
+      <c r="A14" s="338"/>
       <c r="B14" s="20" t="s">
         <v>74</v>
       </c>
@@ -5671,7 +5673,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="337"/>
+      <c r="A15" s="338"/>
       <c r="B15" s="20" t="s">
         <v>75</v>
       </c>
@@ -5693,7 +5695,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="337"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="20" t="s">
         <v>76</v>
       </c>
@@ -5718,7 +5720,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="338" t="s">
+      <c r="A17" s="339" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -5739,7 +5741,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="22" t="s">
         <v>78</v>
       </c>
@@ -5758,7 +5760,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
@@ -5777,7 +5779,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="21" t="s">
         <v>80</v>
       </c>
@@ -5790,7 +5792,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="39">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="325" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5816,7 +5818,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="39">
-      <c r="A22" s="324"/>
+      <c r="A22" s="325"/>
       <c r="B22" s="3" t="s">
         <v>83</v>
       </c>
@@ -5843,7 +5845,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="39">
-      <c r="A23" s="324"/>
+      <c r="A23" s="325"/>
       <c r="B23" s="23" t="s">
         <v>168</v>
       </c>
@@ -5867,7 +5869,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="39">
-      <c r="A24" s="324"/>
+      <c r="A24" s="325"/>
       <c r="B24" s="3" t="s">
         <v>169</v>
       </c>
@@ -5891,7 +5893,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25">
-      <c r="A25" s="324"/>
+      <c r="A25" s="325"/>
       <c r="B25" s="23" t="s">
         <v>84</v>
       </c>
@@ -5936,7 +5938,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="372" t="s">
+      <c r="A27" s="373" t="s">
         <v>143</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -5959,7 +5961,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="51.75">
-      <c r="A28" s="373"/>
+      <c r="A28" s="374"/>
       <c r="B28" s="11" t="s">
         <v>89</v>
       </c>
@@ -5980,7 +5982,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.25">
-      <c r="A29" s="373"/>
+      <c r="A29" s="374"/>
       <c r="B29" s="11" t="s">
         <v>90</v>
       </c>
@@ -6001,7 +6003,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="373"/>
+      <c r="A30" s="374"/>
       <c r="B30" s="11" t="s">
         <v>33</v>
       </c>
@@ -6023,7 +6025,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="374"/>
+      <c r="A31" s="375"/>
       <c r="B31" s="11" t="s">
         <v>34</v>
       </c>
@@ -6045,7 +6047,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="26.25">
-      <c r="A32" s="375" t="s">
+      <c r="A32" s="376" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="67" t="s">
@@ -6068,7 +6070,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="376"/>
+      <c r="A33" s="377"/>
       <c r="B33" s="67" t="s">
         <v>92</v>
       </c>
@@ -6089,7 +6091,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="376"/>
+      <c r="A34" s="377"/>
       <c r="B34" s="68" t="s">
         <v>93</v>
       </c>
@@ -6107,7 +6109,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="376"/>
+      <c r="A35" s="377"/>
       <c r="B35" s="68" t="s">
         <v>94</v>
       </c>
@@ -6125,7 +6127,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="376"/>
+      <c r="A36" s="377"/>
       <c r="B36" s="68" t="s">
         <v>95</v>
       </c>
@@ -6143,7 +6145,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="376"/>
+      <c r="A37" s="377"/>
       <c r="B37" s="67" t="s">
         <v>96</v>
       </c>
@@ -6162,7 +6164,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="376"/>
+      <c r="A38" s="377"/>
       <c r="B38" s="67" t="s">
         <v>97</v>
       </c>
@@ -6181,7 +6183,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="376"/>
+      <c r="A39" s="377"/>
       <c r="B39" s="36" t="s">
         <v>98</v>
       </c>
@@ -6197,7 +6199,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="377"/>
+      <c r="A40" s="378"/>
       <c r="B40" s="37" t="s">
         <v>99</v>
       </c>
@@ -6213,7 +6215,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="26.25">
-      <c r="A41" s="378" t="s">
+      <c r="A41" s="379" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="71" t="s">
@@ -6236,7 +6238,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="25.5">
-      <c r="A42" s="378"/>
+      <c r="A42" s="379"/>
       <c r="B42" s="71" t="s">
         <v>100</v>
       </c>
@@ -6254,7 +6256,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="378"/>
+      <c r="A43" s="379"/>
       <c r="B43" s="71" t="s">
         <v>101</v>
       </c>
@@ -6270,7 +6272,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="378"/>
+      <c r="A44" s="379"/>
       <c r="B44" s="26" t="s">
         <v>102</v>
       </c>
@@ -6433,7 +6435,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="381" t="s">
+      <c r="A6" s="382" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -6451,7 +6453,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="381"/>
+      <c r="A7" s="382"/>
       <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
@@ -6461,7 +6463,7 @@
       <c r="D7" s="79"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A8" s="382" t="s">
+      <c r="A8" s="383" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="56" t="s">
@@ -6481,7 +6483,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="382"/>
+      <c r="A9" s="383"/>
       <c r="B9" s="56" t="s">
         <v>104</v>
       </c>
@@ -6499,7 +6501,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="382"/>
+      <c r="A10" s="383"/>
       <c r="B10" s="27" t="s">
         <v>36</v>
       </c>
@@ -6514,7 +6516,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="380" t="s">
+      <c r="A11" s="381" t="s">
         <v>177</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -6535,7 +6537,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="380"/>
+      <c r="A12" s="381"/>
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
@@ -6551,7 +6553,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A13" s="380"/>
+      <c r="A13" s="381"/>
       <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
@@ -6567,7 +6569,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="380"/>
+      <c r="A14" s="381"/>
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
@@ -6585,7 +6587,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" s="380"/>
+      <c r="A15" s="381"/>
       <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
@@ -6603,7 +6605,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A16" s="380"/>
+      <c r="A16" s="381"/>
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -7522,25 +7524,25 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="384" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="383"/>
+      <c r="B1" s="384"/>
       <c r="C1" s="93"/>
-      <c r="D1" s="383" t="s">
+      <c r="D1" s="384" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="383"/>
+      <c r="E1" s="384"/>
       <c r="F1" s="82"/>
-      <c r="G1" s="384" t="s">
+      <c r="G1" s="385" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="384"/>
+      <c r="H1" s="385"/>
       <c r="I1" s="82"/>
-      <c r="J1" s="385" t="s">
+      <c r="J1" s="386" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="385"/>
+      <c r="K1" s="386"/>
       <c r="L1" s="82"/>
       <c r="M1" s="81" t="s">
         <v>234</v>
@@ -7554,15 +7556,15 @@
         <v>236</v>
       </c>
       <c r="R1" s="82"/>
-      <c r="S1" s="383" t="s">
+      <c r="S1" s="384" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="383"/>
+      <c r="T1" s="384"/>
       <c r="U1" s="82"/>
-      <c r="V1" s="383" t="s">
+      <c r="V1" s="384" t="s">
         <v>238</v>
       </c>
-      <c r="W1" s="383"/>
+      <c r="W1" s="384"/>
       <c r="X1" s="82"/>
       <c r="Y1" s="90" t="s">
         <v>239</v>
@@ -9139,8 +9141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016E62FF-7053-4FDB-9A89-033051574350}">
   <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9195,7 +9197,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="311" t="s">
         <v>822</v>
       </c>
       <c r="B2" s="290" t="s">
@@ -9217,7 +9219,7 @@
       <c r="J2" s="265"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="309"/>
+      <c r="A3" s="310"/>
       <c r="B3" s="291" t="s">
         <v>556</v>
       </c>
@@ -9237,7 +9239,7 @@
       <c r="J3" s="269"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="309" t="s">
         <v>823</v>
       </c>
       <c r="B4" s="292" t="s">
@@ -9261,7 +9263,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="306"/>
+      <c r="A5" s="307"/>
       <c r="B5" s="293" t="s">
         <v>493</v>
       </c>
@@ -9277,7 +9279,7 @@
       <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="306"/>
+      <c r="A6" s="307"/>
       <c r="B6" s="293" t="s">
         <v>725</v>
       </c>
@@ -9295,7 +9297,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="306"/>
+      <c r="A7" s="307"/>
       <c r="B7" s="293" t="s">
         <v>720</v>
       </c>
@@ -9311,7 +9313,7 @@
       <c r="J7" s="277"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="306"/>
+      <c r="A8" s="307"/>
       <c r="B8" s="293" t="s">
         <v>717</v>
       </c>
@@ -9329,7 +9331,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="306"/>
+      <c r="A9" s="307"/>
       <c r="B9" s="293" t="s">
         <v>502</v>
       </c>
@@ -9347,7 +9349,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="306"/>
+      <c r="A10" s="307"/>
       <c r="B10" s="293" t="s">
         <v>722</v>
       </c>
@@ -9365,7 +9367,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="306"/>
+      <c r="A11" s="307"/>
       <c r="B11" s="293" t="s">
         <v>721</v>
       </c>
@@ -9383,7 +9385,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="306"/>
+      <c r="A12" s="307"/>
       <c r="B12" s="293" t="s">
         <v>563</v>
       </c>
@@ -9397,11 +9399,11 @@
         <v>846</v>
       </c>
       <c r="J12" s="277" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="306"/>
+      <c r="A13" s="307"/>
       <c r="B13" s="293" t="s">
         <v>724</v>
       </c>
@@ -9417,7 +9419,7 @@
       <c r="J13" s="277"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="306"/>
+      <c r="A14" s="307"/>
       <c r="B14" s="293" t="s">
         <v>559</v>
       </c>
@@ -9433,7 +9435,7 @@
       <c r="J14" s="277"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="306"/>
+      <c r="A15" s="307"/>
       <c r="B15" s="293" t="s">
         <v>694</v>
       </c>
@@ -9449,7 +9451,7 @@
       <c r="J15" s="277"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="306"/>
+      <c r="A16" s="307"/>
       <c r="B16" s="293" t="s">
         <v>505</v>
       </c>
@@ -9465,7 +9467,7 @@
       <c r="J16" s="277"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="306"/>
+      <c r="A17" s="307"/>
       <c r="B17" s="293" t="s">
         <v>723</v>
       </c>
@@ -9483,7 +9485,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="306"/>
+      <c r="A18" s="307"/>
       <c r="B18" s="293" t="s">
         <v>715</v>
       </c>
@@ -9501,7 +9503,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="306"/>
+      <c r="A19" s="307"/>
       <c r="B19" s="293" t="s">
         <v>568</v>
       </c>
@@ -9519,7 +9521,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="306"/>
+      <c r="A20" s="307"/>
       <c r="B20" s="293" t="s">
         <v>496</v>
       </c>
@@ -9537,7 +9539,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="306"/>
+      <c r="A21" s="307"/>
       <c r="B21" s="293" t="s">
         <v>719</v>
       </c>
@@ -9555,7 +9557,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="306"/>
+      <c r="A22" s="307"/>
       <c r="B22" s="293" t="s">
         <v>512</v>
       </c>
@@ -9571,7 +9573,7 @@
       <c r="J22" s="277"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="306"/>
+      <c r="A23" s="307"/>
       <c r="B23" s="293" t="s">
         <v>802</v>
       </c>
@@ -9589,7 +9591,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
-      <c r="A24" s="309"/>
+      <c r="A24" s="310"/>
       <c r="B24" s="291" t="s">
         <v>716</v>
       </c>
@@ -9609,7 +9611,7 @@
       <c r="J24" s="269"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="308" t="s">
+      <c r="A25" s="309" t="s">
         <v>824</v>
       </c>
       <c r="B25" s="292" t="s">
@@ -9631,7 +9633,7 @@
       <c r="J25" s="273"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="306"/>
+      <c r="A26" s="307"/>
       <c r="B26" s="293" t="s">
         <v>579</v>
       </c>
@@ -9647,7 +9649,7 @@
       <c r="J26" s="277"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="309"/>
+      <c r="A27" s="310"/>
       <c r="B27" s="291" t="s">
         <v>465</v>
       </c>
@@ -9667,7 +9669,7 @@
       <c r="J27" s="269"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="308" t="s">
+      <c r="A28" s="309" t="s">
         <v>825</v>
       </c>
       <c r="B28" s="292" t="s">
@@ -9689,7 +9691,7 @@
       <c r="J28" s="273"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="306"/>
+      <c r="A29" s="307"/>
       <c r="B29" s="293" t="s">
         <v>616</v>
       </c>
@@ -9705,7 +9707,7 @@
       <c r="J29" s="277"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="306"/>
+      <c r="A30" s="307"/>
       <c r="B30" s="293" t="s">
         <v>478</v>
       </c>
@@ -9721,7 +9723,7 @@
       <c r="J30" s="277"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="306"/>
+      <c r="A31" s="307"/>
       <c r="B31" s="293" t="s">
         <v>490</v>
       </c>
@@ -9737,7 +9739,7 @@
       <c r="J31" s="277"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="306"/>
+      <c r="A32" s="307"/>
       <c r="B32" s="293" t="s">
         <v>608</v>
       </c>
@@ -9753,7 +9755,7 @@
       <c r="J32" s="277"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="306"/>
+      <c r="A33" s="307"/>
       <c r="B33" s="293" t="s">
         <v>481</v>
       </c>
@@ -9769,7 +9771,7 @@
       <c r="J33" s="277"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="306"/>
+      <c r="A34" s="307"/>
       <c r="B34" s="293" t="s">
         <v>486</v>
       </c>
@@ -9785,7 +9787,7 @@
       <c r="J34" s="277"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="306"/>
+      <c r="A35" s="307"/>
       <c r="B35" s="293" t="s">
         <v>539</v>
       </c>
@@ -9801,7 +9803,7 @@
       <c r="J35" s="277"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="306"/>
+      <c r="A36" s="307"/>
       <c r="B36" s="293" t="s">
         <v>479</v>
       </c>
@@ -9817,7 +9819,7 @@
       <c r="J36" s="277"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="306"/>
+      <c r="A37" s="307"/>
       <c r="B37" s="293" t="s">
         <v>553</v>
       </c>
@@ -9833,7 +9835,7 @@
       <c r="J37" s="277"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="306"/>
+      <c r="A38" s="307"/>
       <c r="B38" s="293" t="s">
         <v>483</v>
       </c>
@@ -9849,7 +9851,7 @@
       <c r="J38" s="277"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="306"/>
+      <c r="A39" s="307"/>
       <c r="B39" s="293" t="s">
         <v>482</v>
       </c>
@@ -9865,7 +9867,7 @@
       <c r="J39" s="277"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="306"/>
+      <c r="A40" s="307"/>
       <c r="B40" s="293" t="s">
         <v>489</v>
       </c>
@@ -9881,7 +9883,7 @@
       <c r="J40" s="277"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="306"/>
+      <c r="A41" s="307"/>
       <c r="B41" s="293" t="s">
         <v>487</v>
       </c>
@@ -9897,7 +9899,7 @@
       <c r="J41" s="277"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="306"/>
+      <c r="A42" s="307"/>
       <c r="B42" s="293" t="s">
         <v>488</v>
       </c>
@@ -9913,7 +9915,7 @@
       <c r="J42" s="277"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="309"/>
+      <c r="A43" s="310"/>
       <c r="B43" s="291" t="s">
         <v>480</v>
       </c>
@@ -9935,7 +9937,7 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="308" t="s">
+      <c r="A44" s="309" t="s">
         <v>807</v>
       </c>
       <c r="B44" s="292" t="s">
@@ -9957,7 +9959,7 @@
       <c r="J44" s="273"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="306"/>
+      <c r="A45" s="307"/>
       <c r="B45" s="293" t="s">
         <v>795</v>
       </c>
@@ -9975,7 +9977,7 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="309"/>
+      <c r="A46" s="310"/>
       <c r="B46" s="291" t="s">
         <v>582</v>
       </c>
@@ -9997,7 +9999,7 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="308" t="s">
+      <c r="A47" s="309" t="s">
         <v>826</v>
       </c>
       <c r="B47" s="292" t="s">
@@ -10021,7 +10023,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="306"/>
+      <c r="A48" s="307"/>
       <c r="B48" s="293" t="s">
         <v>748</v>
       </c>
@@ -10037,7 +10039,7 @@
       <c r="J48" s="277"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="306"/>
+      <c r="A49" s="307"/>
       <c r="B49" s="293" t="s">
         <v>545</v>
       </c>
@@ -10055,7 +10057,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="30">
-      <c r="A50" s="306"/>
+      <c r="A50" s="307"/>
       <c r="B50" s="293" t="s">
         <v>606</v>
       </c>
@@ -10066,14 +10068,14 @@
         <v>813</v>
       </c>
       <c r="E50" s="276" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J50" s="277" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="306"/>
+      <c r="A51" s="307"/>
       <c r="B51" s="293" t="s">
         <v>600</v>
       </c>
@@ -10089,12 +10091,12 @@
       <c r="J51" s="277"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="306"/>
+      <c r="A52" s="307"/>
       <c r="B52" s="293" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C52" s="275" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D52" s="299" t="s">
         <v>800</v>
@@ -10105,7 +10107,7 @@
       <c r="J52" s="277"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="309"/>
+      <c r="A53" s="310"/>
       <c r="B53" s="291" t="s">
         <v>495</v>
       </c>
@@ -10127,7 +10129,7 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="308" t="s">
+      <c r="A54" s="309" t="s">
         <v>827</v>
       </c>
       <c r="B54" s="292" t="s">
@@ -10149,7 +10151,7 @@
       <c r="J54" s="273"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="306"/>
+      <c r="A55" s="307"/>
       <c r="B55" s="293" t="s">
         <v>576</v>
       </c>
@@ -10165,7 +10167,7 @@
       <c r="J55" s="277"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="306"/>
+      <c r="A56" s="307"/>
       <c r="B56" s="293" t="s">
         <v>691</v>
       </c>
@@ -10183,7 +10185,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="309"/>
+      <c r="A57" s="310"/>
       <c r="B57" s="291" t="s">
         <v>687</v>
       </c>
@@ -10203,7 +10205,7 @@
       <c r="J57" s="269"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="308" t="s">
+      <c r="A58" s="309" t="s">
         <v>828</v>
       </c>
       <c r="B58" s="292" t="s">
@@ -10225,7 +10227,7 @@
       <c r="J58" s="273"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="309"/>
+      <c r="A59" s="310"/>
       <c r="B59" s="291" t="s">
         <v>204</v>
       </c>
@@ -10245,7 +10247,7 @@
       <c r="J59" s="269"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="308" t="s">
+      <c r="A60" s="309" t="s">
         <v>829</v>
       </c>
       <c r="B60" s="292" t="s">
@@ -10267,7 +10269,7 @@
       <c r="J60" s="273"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="309"/>
+      <c r="A61" s="310"/>
       <c r="B61" s="291" t="s">
         <v>518</v>
       </c>
@@ -10311,7 +10313,7 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="308" t="s">
+      <c r="A63" s="309" t="s">
         <v>831</v>
       </c>
       <c r="B63" s="292" t="s">
@@ -10333,7 +10335,7 @@
       <c r="J63" s="273"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="306"/>
+      <c r="A64" s="307"/>
       <c r="B64" s="293" t="s">
         <v>675</v>
       </c>
@@ -10349,7 +10351,7 @@
       <c r="J64" s="277"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="309"/>
+      <c r="A65" s="310"/>
       <c r="B65" s="291" t="s">
         <v>516</v>
       </c>
@@ -10369,7 +10371,7 @@
       <c r="J65" s="269"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="308" t="s">
+      <c r="A66" s="309" t="s">
         <v>805</v>
       </c>
       <c r="B66" s="292" t="s">
@@ -10391,7 +10393,7 @@
       <c r="J66" s="273"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="309"/>
+      <c r="A67" s="310"/>
       <c r="B67" s="291" t="s">
         <v>681</v>
       </c>
@@ -10411,7 +10413,7 @@
       <c r="J67" s="269"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="306" t="s">
+      <c r="A68" s="307" t="s">
         <v>832</v>
       </c>
       <c r="B68" s="293" t="s">
@@ -10431,7 +10433,7 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="306"/>
+      <c r="A69" s="307"/>
       <c r="B69" s="293" t="s">
         <v>662</v>
       </c>
@@ -10449,7 +10451,7 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="307"/>
+      <c r="A70" s="308"/>
       <c r="B70" s="295" t="s">
         <v>661</v>
       </c>
@@ -12379,8 +12381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB716-2721-48C2-B8B7-2D62A098DA95}">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12415,7 +12417,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="311" t="s">
         <v>701</v>
       </c>
       <c r="B2" s="210" t="s">
@@ -12432,7 +12434,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="306"/>
+      <c r="A3" s="307"/>
       <c r="B3" s="210" t="s">
         <v>892</v>
       </c>
@@ -12447,23 +12449,23 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="306"/>
-      <c r="B4" s="386" t="s">
-        <v>906</v>
+      <c r="A4" s="307"/>
+      <c r="B4" s="387" t="s">
+        <v>904</v>
       </c>
       <c r="C4" s="255" t="s">
         <v>606</v>
       </c>
       <c r="F4" s="256" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="306"/>
+      <c r="A5" s="307"/>
       <c r="B5" s="211" t="s">
         <v>891</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="304" t="s">
         <v>715</v>
       </c>
       <c r="D5" s="254" t="s">
@@ -12472,12 +12474,12 @@
       <c r="E5" s="252" t="s">
         <v>799</v>
       </c>
-      <c r="F5" s="305" t="s">
+      <c r="F5" s="306" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="306"/>
+      <c r="A6" s="307"/>
       <c r="B6" s="212" t="s">
         <v>8</v>
       </c>
@@ -12493,7 +12495,7 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="306"/>
+      <c r="A7" s="307"/>
       <c r="B7" s="212" t="s">
         <v>9</v>
       </c>
@@ -12508,7 +12510,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="306"/>
+      <c r="A8" s="307"/>
       <c r="B8" s="212" t="s">
         <v>10</v>
       </c>
@@ -12523,7 +12525,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="306"/>
+      <c r="A9" s="307"/>
       <c r="B9" s="212" t="s">
         <v>11</v>
       </c>
@@ -12538,7 +12540,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="306"/>
+      <c r="A10" s="307"/>
       <c r="B10" s="212" t="s">
         <v>12</v>
       </c>
@@ -12553,11 +12555,11 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="306"/>
+      <c r="A11" s="307"/>
       <c r="B11" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="303" t="s">
+      <c r="C11" s="304" t="s">
         <v>639</v>
       </c>
       <c r="D11" s="254" t="s">
@@ -12566,12 +12568,12 @@
       <c r="E11" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F11" s="305" t="s">
+      <c r="F11" s="306" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="306"/>
+      <c r="A12" s="307"/>
       <c r="B12" s="212" t="s">
         <v>14</v>
       </c>
@@ -12586,7 +12588,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="306"/>
+      <c r="A13" s="307"/>
       <c r="B13" s="212" t="s">
         <v>15</v>
       </c>
@@ -12601,7 +12603,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="306"/>
+      <c r="A14" s="307"/>
       <c r="B14" s="212" t="s">
         <v>16</v>
       </c>
@@ -12616,7 +12618,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="306"/>
+      <c r="A15" s="307"/>
       <c r="B15" s="212" t="s">
         <v>17</v>
       </c>
@@ -12631,7 +12633,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="306"/>
+      <c r="A16" s="307"/>
       <c r="B16" s="213" t="s">
         <v>18</v>
       </c>
@@ -12646,7 +12648,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="306"/>
+      <c r="A17" s="307"/>
       <c r="B17" s="213" t="s">
         <v>19</v>
       </c>
@@ -12661,7 +12663,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="306"/>
+      <c r="A18" s="307"/>
       <c r="B18" s="212" t="s">
         <v>20</v>
       </c>
@@ -12676,11 +12678,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="306"/>
+      <c r="A19" s="307"/>
       <c r="B19" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="303" t="s">
+      <c r="C19" s="304" t="s">
         <v>480</v>
       </c>
       <c r="D19" s="254" t="s">
@@ -12689,12 +12691,12 @@
       <c r="E19" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F19" s="305" t="s">
+      <c r="F19" s="306" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="306"/>
+      <c r="A20" s="307"/>
       <c r="B20" s="212" t="s">
         <v>22</v>
       </c>
@@ -12709,7 +12711,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="306"/>
+      <c r="A21" s="307"/>
       <c r="B21" s="212" t="s">
         <v>23</v>
       </c>
@@ -12724,7 +12726,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="306"/>
+      <c r="A22" s="307"/>
       <c r="B22" s="212" t="s">
         <v>24</v>
       </c>
@@ -12739,7 +12741,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="306"/>
+      <c r="A23" s="307"/>
       <c r="B23" s="212" t="s">
         <v>25</v>
       </c>
@@ -12754,7 +12756,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="306"/>
+      <c r="A24" s="307"/>
       <c r="B24" s="213" t="s">
         <v>26</v>
       </c>
@@ -12769,7 +12771,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="306"/>
+      <c r="A25" s="307"/>
       <c r="B25" s="213" t="s">
         <v>29</v>
       </c>
@@ -12784,7 +12786,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="306"/>
+      <c r="A26" s="307"/>
       <c r="B26" s="214" t="s">
         <v>525</v>
       </c>
@@ -12799,7 +12801,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="306"/>
+      <c r="A27" s="307"/>
       <c r="B27" s="209" t="s">
         <v>610</v>
       </c>
@@ -12817,7 +12819,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="306"/>
+      <c r="A28" s="307"/>
       <c r="B28" s="209" t="s">
         <v>745</v>
       </c>
@@ -12835,7 +12837,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="306"/>
+      <c r="A29" s="307"/>
       <c r="B29" s="209" t="s">
         <v>746</v>
       </c>
@@ -12853,11 +12855,11 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="306"/>
+      <c r="A30" s="307"/>
       <c r="B30" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="304" t="s">
         <v>885</v>
       </c>
       <c r="D30" s="254" t="s">
@@ -12866,16 +12868,16 @@
       <c r="E30" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F30" s="305" t="s">
-        <v>902</v>
+      <c r="F30" s="306" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="306"/>
+      <c r="A31" s="307"/>
       <c r="B31" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="304" t="s">
         <v>885</v>
       </c>
       <c r="D31" s="254" t="s">
@@ -12884,16 +12886,16 @@
       <c r="E31" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F31" s="305" t="s">
-        <v>902</v>
+      <c r="F31" s="306" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="307"/>
+      <c r="A32" s="308"/>
       <c r="B32" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="303" t="s">
+      <c r="C32" s="304" t="s">
         <v>885</v>
       </c>
       <c r="D32" s="254" t="s">
@@ -12902,8 +12904,8 @@
       <c r="E32" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F32" s="305" t="s">
-        <v>902</v>
+      <c r="F32" s="306" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -12927,7 +12929,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
-      <c r="A34" s="310" t="s">
+      <c r="A34" s="311" t="s">
         <v>890</v>
       </c>
       <c r="B34" s="210" t="s">
@@ -12945,7 +12947,7 @@
       <c r="F34" s="302"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="306"/>
+      <c r="A35" s="307"/>
       <c r="B35" s="210" t="s">
         <v>5</v>
       </c>
@@ -12963,7 +12965,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="306"/>
+      <c r="A36" s="307"/>
       <c r="B36" s="210" t="s">
         <v>892</v>
       </c>
@@ -12981,7 +12983,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="306"/>
+      <c r="A37" s="307"/>
       <c r="B37" s="210" t="s">
         <v>6</v>
       </c>
@@ -12991,11 +12993,11 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="306"/>
+      <c r="A38" s="307"/>
       <c r="B38" s="210" t="s">
         <v>699</v>
       </c>
-      <c r="C38" s="303" t="s">
+      <c r="C38" s="253" t="s">
         <v>715</v>
       </c>
       <c r="D38" s="254" t="s">
@@ -13004,16 +13006,14 @@
       <c r="E38" s="252" t="s">
         <v>799</v>
       </c>
-      <c r="F38" s="305" t="s">
-        <v>901</v>
-      </c>
+      <c r="F38" s="302"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="306"/>
+      <c r="A39" s="307"/>
       <c r="B39" s="210" t="s">
         <v>700</v>
       </c>
-      <c r="C39" s="303" t="s">
+      <c r="C39" s="253" t="s">
         <v>719</v>
       </c>
       <c r="D39" s="254" t="s">
@@ -13022,16 +13022,14 @@
       <c r="E39" s="252" t="s">
         <v>799</v>
       </c>
-      <c r="F39" s="305" t="s">
-        <v>901</v>
-      </c>
+      <c r="F39" s="302"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="306"/>
+      <c r="A40" s="307"/>
       <c r="B40" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="303" t="s">
+      <c r="C40" s="304" t="s">
         <v>544</v>
       </c>
       <c r="D40" s="254" t="s">
@@ -13040,16 +13038,16 @@
       <c r="E40" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F40" s="305" t="s">
+      <c r="F40" s="306" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="306"/>
+      <c r="A41" s="307"/>
       <c r="B41" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="303" t="s">
+      <c r="C41" s="304" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="254" t="s">
@@ -13058,12 +13056,12 @@
       <c r="E41" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F41" s="305" t="s">
+      <c r="F41" s="306" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="306"/>
+      <c r="A42" s="307"/>
       <c r="B42" s="212" t="s">
         <v>9</v>
       </c>
@@ -13078,7 +13076,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="306"/>
+      <c r="A43" s="307"/>
       <c r="B43" s="212" t="s">
         <v>10</v>
       </c>
@@ -13093,7 +13091,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="306"/>
+      <c r="A44" s="307"/>
       <c r="B44" s="212" t="s">
         <v>11</v>
       </c>
@@ -13108,7 +13106,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="306"/>
+      <c r="A45" s="307"/>
       <c r="B45" s="212" t="s">
         <v>12</v>
       </c>
@@ -13123,11 +13121,11 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="306"/>
+      <c r="A46" s="307"/>
       <c r="B46" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="303" t="s">
+      <c r="C46" s="304" t="s">
         <v>639</v>
       </c>
       <c r="D46" s="254" t="s">
@@ -13136,12 +13134,12 @@
       <c r="E46" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F46" s="305" t="s">
+      <c r="F46" s="306" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="306"/>
+      <c r="A47" s="307"/>
       <c r="B47" s="212" t="s">
         <v>14</v>
       </c>
@@ -13156,7 +13154,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="306"/>
+      <c r="A48" s="307"/>
       <c r="B48" s="212" t="s">
         <v>15</v>
       </c>
@@ -13171,7 +13169,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="306"/>
+      <c r="A49" s="307"/>
       <c r="B49" s="212" t="s">
         <v>16</v>
       </c>
@@ -13186,7 +13184,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="306"/>
+      <c r="A50" s="307"/>
       <c r="B50" s="212" t="s">
         <v>17</v>
       </c>
@@ -13201,7 +13199,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="306"/>
+      <c r="A51" s="307"/>
       <c r="B51" s="213" t="s">
         <v>18</v>
       </c>
@@ -13216,7 +13214,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="306"/>
+      <c r="A52" s="307"/>
       <c r="B52" s="213" t="s">
         <v>19</v>
       </c>
@@ -13231,7 +13229,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="306"/>
+      <c r="A53" s="307"/>
       <c r="B53" s="212" t="s">
         <v>20</v>
       </c>
@@ -13246,11 +13244,11 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="306"/>
+      <c r="A54" s="307"/>
       <c r="B54" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="303" t="s">
+      <c r="C54" s="304" t="s">
         <v>480</v>
       </c>
       <c r="D54" s="254" t="s">
@@ -13259,12 +13257,12 @@
       <c r="E54" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F54" s="305" t="s">
+      <c r="F54" s="306" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="306"/>
+      <c r="A55" s="307"/>
       <c r="B55" s="212" t="s">
         <v>22</v>
       </c>
@@ -13279,7 +13277,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="306"/>
+      <c r="A56" s="307"/>
       <c r="B56" s="212" t="s">
         <v>23</v>
       </c>
@@ -13294,7 +13292,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="306"/>
+      <c r="A57" s="307"/>
       <c r="B57" s="212" t="s">
         <v>24</v>
       </c>
@@ -13309,7 +13307,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="306"/>
+      <c r="A58" s="307"/>
       <c r="B58" s="212" t="s">
         <v>25</v>
       </c>
@@ -13324,7 +13322,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="306"/>
+      <c r="A59" s="307"/>
       <c r="B59" s="213" t="s">
         <v>26</v>
       </c>
@@ -13339,7 +13337,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="306"/>
+      <c r="A60" s="307"/>
       <c r="B60" s="213" t="s">
         <v>27</v>
       </c>
@@ -13354,7 +13352,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="306"/>
+      <c r="A61" s="307"/>
       <c r="B61" s="213" t="s">
         <v>28</v>
       </c>
@@ -13369,7 +13367,7 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="306"/>
+      <c r="A62" s="307"/>
       <c r="B62" s="213" t="s">
         <v>29</v>
       </c>
@@ -13384,7 +13382,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="306"/>
+      <c r="A63" s="307"/>
       <c r="B63" s="216" t="s">
         <v>31</v>
       </c>
@@ -13399,7 +13397,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="306"/>
+      <c r="A64" s="307"/>
       <c r="B64" s="217" t="s">
         <v>603</v>
       </c>
@@ -13417,7 +13415,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="306"/>
+      <c r="A65" s="307"/>
       <c r="B65" s="216" t="s">
         <v>751</v>
       </c>
@@ -13435,7 +13433,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="306"/>
+      <c r="A66" s="307"/>
       <c r="B66" s="216" t="s">
         <v>752</v>
       </c>
@@ -13453,7 +13451,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="306"/>
+      <c r="A67" s="307"/>
       <c r="B67" s="218" t="s">
         <v>32</v>
       </c>
@@ -13468,7 +13466,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="306"/>
+      <c r="A68" s="307"/>
       <c r="B68" s="218" t="s">
         <v>33</v>
       </c>
@@ -13483,7 +13481,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="307"/>
+      <c r="A69" s="308"/>
       <c r="B69" s="218" t="s">
         <v>34</v>
       </c>
@@ -13518,7 +13516,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="A71" s="310" t="s">
+      <c r="A71" s="311" t="s">
         <v>702</v>
       </c>
       <c r="B71" s="219" t="s">
@@ -13535,7 +13533,7 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="306"/>
+      <c r="A72" s="307"/>
       <c r="B72" s="220" t="s">
         <v>51</v>
       </c>
@@ -13546,13 +13544,13 @@
         <v>784</v>
       </c>
       <c r="F72" s="256" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="306"/>
+      <c r="A73" s="307"/>
       <c r="B73" s="257" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C73" s="255" t="s">
         <v>563</v>
@@ -13561,11 +13559,11 @@
         <v>763</v>
       </c>
       <c r="F73" s="256" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="306"/>
+      <c r="A74" s="307"/>
       <c r="B74" s="14" t="s">
         <v>70</v>
       </c>
@@ -13580,7 +13578,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="306"/>
+      <c r="A75" s="307"/>
       <c r="B75" s="14" t="s">
         <v>71</v>
       </c>
@@ -13595,7 +13593,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="306"/>
+      <c r="A76" s="307"/>
       <c r="B76" s="15" t="s">
         <v>72</v>
       </c>
@@ -13605,70 +13603,79 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="306"/>
+      <c r="A77" s="307"/>
       <c r="B77" s="221" t="s">
         <v>73</v>
       </c>
       <c r="C77" s="303" t="s">
         <v>719</v>
       </c>
-      <c r="D77" s="254" t="s">
+      <c r="D77" s="389" t="s">
         <v>756</v>
       </c>
-      <c r="E77" s="252" t="s">
+      <c r="E77" s="388" t="s">
         <v>799</v>
       </c>
-      <c r="F77" s="305" t="s">
-        <v>903</v>
+      <c r="F77" s="388" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="306"/>
+      <c r="A78" s="307"/>
       <c r="B78" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="253" t="s">
+      <c r="C78" s="303" t="s">
         <v>715</v>
       </c>
-      <c r="D78" s="254" t="s">
+      <c r="D78" s="389" t="s">
         <v>726</v>
       </c>
-      <c r="E78" s="252" t="s">
+      <c r="E78" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F78" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="306"/>
+      <c r="A79" s="307"/>
       <c r="B79" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="253" t="s">
+      <c r="C79" s="303" t="s">
         <v>719</v>
       </c>
-      <c r="D79" s="254" t="s">
+      <c r="D79" s="389" t="s">
         <v>756</v>
       </c>
-      <c r="E79" s="252" t="s">
+      <c r="E79" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F79" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="306"/>
+      <c r="A80" s="307"/>
       <c r="B80" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="253" t="s">
+      <c r="C80" s="303" t="s">
         <v>715</v>
       </c>
-      <c r="D80" s="254" t="s">
+      <c r="D80" s="389" t="s">
         <v>726</v>
       </c>
-      <c r="E80" s="252" t="s">
+      <c r="E80" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F80" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="306"/>
+      <c r="A81" s="307"/>
       <c r="B81" s="60" t="s">
         <v>77</v>
       </c>
@@ -13683,7 +13690,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="306"/>
+      <c r="A82" s="307"/>
       <c r="B82" s="222" t="s">
         <v>78</v>
       </c>
@@ -13698,7 +13705,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="306"/>
+      <c r="A83" s="307"/>
       <c r="B83" s="60" t="s">
         <v>895</v>
       </c>
@@ -13713,7 +13720,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="306"/>
+      <c r="A84" s="307"/>
       <c r="B84" s="61" t="s">
         <v>81</v>
       </c>
@@ -13728,7 +13735,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="306"/>
+      <c r="A85" s="307"/>
       <c r="B85" s="223" t="s">
         <v>82</v>
       </c>
@@ -13743,7 +13750,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="306"/>
+      <c r="A86" s="307"/>
       <c r="B86" s="223" t="s">
         <v>83</v>
       </c>
@@ -13758,7 +13765,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="306"/>
+      <c r="A87" s="307"/>
       <c r="B87" s="61" t="s">
         <v>84</v>
       </c>
@@ -13773,7 +13780,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="306"/>
+      <c r="A88" s="307"/>
       <c r="B88" s="224" t="s">
         <v>85</v>
       </c>
@@ -13788,7 +13795,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="306"/>
+      <c r="A89" s="307"/>
       <c r="B89" s="225" t="s">
         <v>86</v>
       </c>
@@ -13803,11 +13810,11 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="306"/>
+      <c r="A90" s="307"/>
       <c r="B90" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="303" t="s">
+      <c r="C90" s="304" t="s">
         <v>639</v>
       </c>
       <c r="D90" s="254" t="s">
@@ -13816,12 +13823,12 @@
       <c r="E90" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F90" s="305" t="s">
+      <c r="F90" s="306" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="306"/>
+      <c r="A91" s="307"/>
       <c r="B91" s="224" t="s">
         <v>14</v>
       </c>
@@ -13836,7 +13843,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="306"/>
+      <c r="A92" s="307"/>
       <c r="B92" s="224" t="s">
         <v>15</v>
       </c>
@@ -13851,7 +13858,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="306"/>
+      <c r="A93" s="307"/>
       <c r="B93" s="224" t="s">
         <v>16</v>
       </c>
@@ -13866,7 +13873,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="306"/>
+      <c r="A94" s="307"/>
       <c r="B94" s="224" t="s">
         <v>17</v>
       </c>
@@ -13881,7 +13888,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="306"/>
+      <c r="A95" s="307"/>
       <c r="B95" s="225" t="s">
         <v>87</v>
       </c>
@@ -13896,7 +13903,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="306"/>
+      <c r="A96" s="307"/>
       <c r="B96" s="224" t="s">
         <v>20</v>
       </c>
@@ -13911,7 +13918,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="306"/>
+      <c r="A97" s="307"/>
       <c r="B97" s="224" t="s">
         <v>21</v>
       </c>
@@ -13926,7 +13933,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="306"/>
+      <c r="A98" s="307"/>
       <c r="B98" s="224" t="s">
         <v>22</v>
       </c>
@@ -13941,7 +13948,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="306"/>
+      <c r="A99" s="307"/>
       <c r="B99" s="224" t="s">
         <v>23</v>
       </c>
@@ -13956,7 +13963,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="306"/>
+      <c r="A100" s="307"/>
       <c r="B100" s="224" t="s">
         <v>24</v>
       </c>
@@ -13971,7 +13978,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="306"/>
+      <c r="A101" s="307"/>
       <c r="B101" s="225" t="s">
         <v>18</v>
       </c>
@@ -13986,7 +13993,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="306"/>
+      <c r="A102" s="307"/>
       <c r="B102" s="224" t="s">
         <v>25</v>
       </c>
@@ -14001,7 +14008,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="306"/>
+      <c r="A103" s="307"/>
       <c r="B103" s="225" t="s">
         <v>26</v>
       </c>
@@ -14016,7 +14023,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="306"/>
+      <c r="A104" s="307"/>
       <c r="B104" s="223" t="s">
         <v>29</v>
       </c>
@@ -14031,7 +14038,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="306"/>
+      <c r="A105" s="307"/>
       <c r="B105" s="64" t="s">
         <v>88</v>
       </c>
@@ -14046,7 +14053,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="306"/>
+      <c r="A106" s="307"/>
       <c r="B106" s="64" t="s">
         <v>89</v>
       </c>
@@ -14061,11 +14068,11 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="306"/>
+      <c r="A107" s="307"/>
       <c r="B107" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="C107" s="303" t="s">
+      <c r="C107" s="304" t="s">
         <v>496</v>
       </c>
       <c r="D107" s="254" t="s">
@@ -14074,16 +14081,16 @@
       <c r="E107" s="252" t="s">
         <v>812</v>
       </c>
-      <c r="F107" s="305" t="s">
+      <c r="F107" s="306" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="306"/>
+      <c r="A108" s="307"/>
       <c r="B108" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C108" s="303" t="s">
+      <c r="C108" s="304" t="s">
         <v>496</v>
       </c>
       <c r="D108" s="254" t="s">
@@ -14092,16 +14099,16 @@
       <c r="E108" s="252" t="s">
         <v>812</v>
       </c>
-      <c r="F108" s="305" t="s">
+      <c r="F108" s="306" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="306"/>
+      <c r="A109" s="307"/>
       <c r="B109" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="303" t="s">
+      <c r="C109" s="304" t="s">
         <v>496</v>
       </c>
       <c r="D109" s="254" t="s">
@@ -14110,12 +14117,12 @@
       <c r="E109" s="252" t="s">
         <v>812</v>
       </c>
-      <c r="F109" s="305" t="s">
+      <c r="F109" s="306" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="306"/>
+      <c r="A110" s="307"/>
       <c r="B110" s="226" t="s">
         <v>91</v>
       </c>
@@ -14130,7 +14137,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="306"/>
+      <c r="A111" s="307"/>
       <c r="B111" s="226" t="s">
         <v>92</v>
       </c>
@@ -14145,7 +14152,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="306"/>
+      <c r="A112" s="307"/>
       <c r="B112" s="226" t="s">
         <v>96</v>
       </c>
@@ -14160,7 +14167,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="306"/>
+      <c r="A113" s="307"/>
       <c r="B113" s="227" t="s">
         <v>97</v>
       </c>
@@ -14175,7 +14182,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="306"/>
+      <c r="A114" s="307"/>
       <c r="B114" s="36" t="s">
         <v>98</v>
       </c>
@@ -14185,7 +14192,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="306"/>
+      <c r="A115" s="307"/>
       <c r="B115" s="228" t="s">
         <v>99</v>
       </c>
@@ -14195,7 +14202,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="306"/>
+      <c r="A116" s="307"/>
       <c r="B116" s="229" t="s">
         <v>98</v>
       </c>
@@ -14205,7 +14212,7 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="306"/>
+      <c r="A117" s="307"/>
       <c r="B117" s="229" t="s">
         <v>100</v>
       </c>
@@ -14223,7 +14230,7 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="306"/>
+      <c r="A118" s="307"/>
       <c r="B118" s="229" t="s">
         <v>101</v>
       </c>
@@ -14241,7 +14248,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="306"/>
+      <c r="A119" s="307"/>
       <c r="B119" s="230" t="s">
         <v>102</v>
       </c>
@@ -14259,15 +14266,15 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="307"/>
+      <c r="A120" s="308"/>
       <c r="B120" s="257" t="s">
         <v>507</v>
       </c>
       <c r="C120" s="253" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D120" s="254" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E120" s="252" t="s">
         <v>813</v>
@@ -14294,7 +14301,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="310" t="s">
+      <c r="A122" s="311" t="s">
         <v>703</v>
       </c>
       <c r="B122" s="231" t="s">
@@ -14311,7 +14318,7 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="306"/>
+      <c r="A123" s="307"/>
       <c r="B123" s="257" t="s">
         <v>51</v>
       </c>
@@ -14322,13 +14329,13 @@
         <v>784</v>
       </c>
       <c r="F123" s="256" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="306"/>
+      <c r="A124" s="307"/>
       <c r="B124" s="257" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C124" s="255" t="s">
         <v>563</v>
@@ -14337,13 +14344,13 @@
         <v>763</v>
       </c>
       <c r="F124" s="256" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="306"/>
+      <c r="A125" s="307"/>
       <c r="B125" s="157" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C125" s="255" t="s">
         <v>563</v>
@@ -14359,7 +14366,7 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="306"/>
+      <c r="A126" s="307"/>
       <c r="B126" s="157" t="s">
         <v>71</v>
       </c>
@@ -14374,7 +14381,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="306"/>
+      <c r="A127" s="307"/>
       <c r="B127" s="158" t="s">
         <v>123</v>
       </c>
@@ -14384,67 +14391,79 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="306"/>
+      <c r="A128" s="307"/>
       <c r="B128" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="C128" s="253" t="s">
+      <c r="C128" s="303" t="s">
         <v>719</v>
       </c>
-      <c r="D128" s="254" t="s">
+      <c r="D128" s="389" t="s">
         <v>756</v>
       </c>
-      <c r="E128" s="252" t="s">
+      <c r="E128" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F128" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="306"/>
+      <c r="A129" s="307"/>
       <c r="B129" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="C129" s="253" t="s">
+      <c r="C129" s="303" t="s">
         <v>715</v>
       </c>
-      <c r="D129" s="254" t="s">
+      <c r="D129" s="389" t="s">
         <v>726</v>
       </c>
-      <c r="E129" s="252" t="s">
+      <c r="E129" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F129" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="306"/>
+      <c r="A130" s="307"/>
       <c r="B130" s="232" t="s">
         <v>75</v>
       </c>
-      <c r="C130" s="253" t="s">
+      <c r="C130" s="303" t="s">
         <v>719</v>
       </c>
-      <c r="D130" s="254" t="s">
+      <c r="D130" s="389" t="s">
         <v>756</v>
       </c>
-      <c r="E130" s="252" t="s">
+      <c r="E130" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F130" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="306"/>
+      <c r="A131" s="307"/>
       <c r="B131" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="C131" s="253" t="s">
+      <c r="C131" s="303" t="s">
         <v>715</v>
       </c>
-      <c r="D131" s="254" t="s">
+      <c r="D131" s="389" t="s">
         <v>726</v>
       </c>
-      <c r="E131" s="252" t="s">
+      <c r="E131" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F131" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="306"/>
+      <c r="A132" s="307"/>
       <c r="B132" s="233" t="s">
         <v>77</v>
       </c>
@@ -14459,7 +14478,7 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="306"/>
+      <c r="A133" s="307"/>
       <c r="B133" s="234" t="s">
         <v>78</v>
       </c>
@@ -14474,7 +14493,7 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="306"/>
+      <c r="A134" s="307"/>
       <c r="B134" s="233" t="s">
         <v>895</v>
       </c>
@@ -14489,7 +14508,7 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="306"/>
+      <c r="A135" s="307"/>
       <c r="B135" s="233" t="s">
         <v>124</v>
       </c>
@@ -14504,7 +14523,7 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="306"/>
+      <c r="A136" s="307"/>
       <c r="B136" s="235" t="s">
         <v>451</v>
       </c>
@@ -14519,7 +14538,7 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="306"/>
+      <c r="A137" s="307"/>
       <c r="B137" s="235" t="s">
         <v>125</v>
       </c>
@@ -14534,7 +14553,7 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="306"/>
+      <c r="A138" s="307"/>
       <c r="B138" s="236" t="s">
         <v>126</v>
       </c>
@@ -14549,7 +14568,7 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="306"/>
+      <c r="A139" s="307"/>
       <c r="B139" s="236" t="s">
         <v>127</v>
       </c>
@@ -14564,7 +14583,7 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="306"/>
+      <c r="A140" s="307"/>
       <c r="B140" s="236" t="s">
         <v>452</v>
       </c>
@@ -14580,7 +14599,7 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="306"/>
+      <c r="A141" s="307"/>
       <c r="B141" s="236" t="s">
         <v>453</v>
       </c>
@@ -14595,7 +14614,7 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="306"/>
+      <c r="A142" s="307"/>
       <c r="B142" s="236" t="s">
         <v>454</v>
       </c>
@@ -14610,7 +14629,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="306"/>
+      <c r="A143" s="307"/>
       <c r="B143" s="236" t="s">
         <v>455</v>
       </c>
@@ -14625,7 +14644,7 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="306"/>
+      <c r="A144" s="307"/>
       <c r="B144" s="236" t="s">
         <v>29</v>
       </c>
@@ -14640,7 +14659,7 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="306"/>
+      <c r="A145" s="307"/>
       <c r="B145" s="236" t="s">
         <v>128</v>
       </c>
@@ -14655,7 +14674,7 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="306"/>
+      <c r="A146" s="307"/>
       <c r="B146" s="236" t="s">
         <v>456</v>
       </c>
@@ -14670,7 +14689,7 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="306"/>
+      <c r="A147" s="307"/>
       <c r="B147" s="215" t="s">
         <v>129</v>
       </c>
@@ -14685,7 +14704,7 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="306"/>
+      <c r="A148" s="307"/>
       <c r="B148" s="237" t="s">
         <v>130</v>
       </c>
@@ -14703,7 +14722,7 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="306"/>
+      <c r="A149" s="307"/>
       <c r="B149" s="238" t="s">
         <v>131</v>
       </c>
@@ -14713,7 +14732,7 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="306"/>
+      <c r="A150" s="307"/>
       <c r="B150" s="237" t="s">
         <v>132</v>
       </c>
@@ -14728,7 +14747,7 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="306"/>
+      <c r="A151" s="307"/>
       <c r="B151" s="215" t="s">
         <v>133</v>
       </c>
@@ -14743,7 +14762,7 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="306"/>
+      <c r="A152" s="307"/>
       <c r="B152" s="215" t="s">
         <v>134</v>
       </c>
@@ -14758,7 +14777,7 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="306"/>
+      <c r="A153" s="307"/>
       <c r="B153" s="238" t="s">
         <v>34</v>
       </c>
@@ -14773,7 +14792,7 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="306"/>
+      <c r="A154" s="307"/>
       <c r="B154" s="215" t="s">
         <v>135</v>
       </c>
@@ -14791,7 +14810,7 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="306"/>
+      <c r="A155" s="307"/>
       <c r="B155" s="215" t="s">
         <v>136</v>
       </c>
@@ -14806,7 +14825,7 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="306"/>
+      <c r="A156" s="307"/>
       <c r="B156" s="102" t="s">
         <v>91</v>
       </c>
@@ -14821,7 +14840,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="306"/>
+      <c r="A157" s="307"/>
       <c r="B157" s="102" t="s">
         <v>96</v>
       </c>
@@ -14836,7 +14855,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="306"/>
+      <c r="A158" s="307"/>
       <c r="B158" s="102" t="s">
         <v>139</v>
       </c>
@@ -14851,7 +14870,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="306"/>
+      <c r="A159" s="307"/>
       <c r="B159" s="104" t="s">
         <v>98</v>
       </c>
@@ -14861,7 +14880,7 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="306"/>
+      <c r="A160" s="307"/>
       <c r="B160" s="239" t="s">
         <v>99</v>
       </c>
@@ -14871,7 +14890,7 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="306"/>
+      <c r="A161" s="307"/>
       <c r="B161" s="240" t="s">
         <v>98</v>
       </c>
@@ -14881,7 +14900,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="306"/>
+      <c r="A162" s="307"/>
       <c r="B162" s="229" t="s">
         <v>101</v>
       </c>
@@ -14899,7 +14918,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="306"/>
+      <c r="A163" s="307"/>
       <c r="B163" s="230" t="s">
         <v>102</v>
       </c>
@@ -14917,15 +14936,15 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="307"/>
+      <c r="A164" s="308"/>
       <c r="B164" s="257" t="s">
         <v>507</v>
       </c>
       <c r="C164" s="253" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D164" s="254" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E164" s="252" t="s">
         <v>813</v>
@@ -14952,7 +14971,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1">
-      <c r="A166" s="310" t="s">
+      <c r="A166" s="311" t="s">
         <v>705</v>
       </c>
       <c r="B166" s="219" t="s">
@@ -14969,7 +14988,7 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="306"/>
+      <c r="A167" s="307"/>
       <c r="B167" s="220" t="s">
         <v>51</v>
       </c>
@@ -14980,13 +14999,13 @@
         <v>784</v>
       </c>
       <c r="F167" s="256" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="306"/>
+      <c r="A168" s="307"/>
       <c r="B168" s="257" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C168" s="255" t="s">
         <v>563</v>
@@ -14995,13 +15014,13 @@
         <v>763</v>
       </c>
       <c r="F168" s="256" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="306"/>
+      <c r="A169" s="307"/>
       <c r="B169" s="59" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C169" s="253" t="s">
         <v>563</v>
@@ -15014,7 +15033,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="306"/>
+      <c r="A170" s="307"/>
       <c r="B170" s="59" t="s">
         <v>71</v>
       </c>
@@ -15029,7 +15048,7 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="306"/>
+      <c r="A171" s="307"/>
       <c r="B171" s="15" t="s">
         <v>146</v>
       </c>
@@ -15039,67 +15058,79 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="306"/>
+      <c r="A172" s="307"/>
       <c r="B172" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="C172" s="253" t="s">
+      <c r="C172" s="303" t="s">
         <v>719</v>
       </c>
-      <c r="D172" s="254" t="s">
+      <c r="D172" s="389" t="s">
         <v>756</v>
       </c>
-      <c r="E172" s="252" t="s">
+      <c r="E172" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F172" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="306"/>
+      <c r="A173" s="307"/>
       <c r="B173" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C173" s="253" t="s">
+      <c r="C173" s="303" t="s">
         <v>715</v>
       </c>
-      <c r="D173" s="254" t="s">
+      <c r="D173" s="389" t="s">
         <v>726</v>
       </c>
-      <c r="E173" s="252" t="s">
+      <c r="E173" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F173" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="306"/>
+      <c r="A174" s="307"/>
       <c r="B174" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="C174" s="253" t="s">
+      <c r="C174" s="303" t="s">
         <v>719</v>
       </c>
-      <c r="D174" s="254" t="s">
+      <c r="D174" s="389" t="s">
         <v>756</v>
       </c>
-      <c r="E174" s="252" t="s">
+      <c r="E174" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F174" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="306"/>
+      <c r="A175" s="307"/>
       <c r="B175" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="C175" s="253" t="s">
+      <c r="C175" s="303" t="s">
         <v>715</v>
       </c>
-      <c r="D175" s="254" t="s">
+      <c r="D175" s="389" t="s">
         <v>726</v>
       </c>
-      <c r="E175" s="252" t="s">
+      <c r="E175" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F175" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="306"/>
+      <c r="A176" s="307"/>
       <c r="B176" s="60" t="s">
         <v>77</v>
       </c>
@@ -15114,11 +15145,11 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="306"/>
+      <c r="A177" s="307"/>
       <c r="B177" s="60" t="s">
         <v>896</v>
       </c>
-      <c r="C177" s="253" t="s">
+      <c r="C177" s="303" t="s">
         <v>717</v>
       </c>
       <c r="D177" s="254" t="s">
@@ -15127,9 +15158,12 @@
       <c r="E177" s="252" t="s">
         <v>799</v>
       </c>
+      <c r="F177" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="306"/>
+      <c r="A178" s="307"/>
       <c r="B178" s="61" t="s">
         <v>149</v>
       </c>
@@ -15144,7 +15178,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="306"/>
+      <c r="A179" s="307"/>
       <c r="B179" s="61" t="s">
         <v>150</v>
       </c>
@@ -15159,7 +15193,7 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="306"/>
+      <c r="A180" s="307"/>
       <c r="B180" s="61" t="s">
         <v>151</v>
       </c>
@@ -15169,7 +15203,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="306"/>
+      <c r="A181" s="307"/>
       <c r="B181" s="64" t="s">
         <v>152</v>
       </c>
@@ -15184,7 +15218,7 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="306"/>
+      <c r="A182" s="307"/>
       <c r="B182" s="64" t="s">
         <v>153</v>
       </c>
@@ -15199,7 +15233,7 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="306"/>
+      <c r="A183" s="307"/>
       <c r="B183" s="64" t="s">
         <v>154</v>
       </c>
@@ -15214,7 +15248,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="306"/>
+      <c r="A184" s="307"/>
       <c r="B184" s="64" t="s">
         <v>155</v>
       </c>
@@ -15229,7 +15263,7 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="306"/>
+      <c r="A185" s="307"/>
       <c r="B185" s="241" t="s">
         <v>156</v>
       </c>
@@ -15239,7 +15273,7 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="306"/>
+      <c r="A186" s="307"/>
       <c r="B186" s="241" t="s">
         <v>157</v>
       </c>
@@ -15249,7 +15283,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="306"/>
+      <c r="A187" s="307"/>
       <c r="B187" s="63" t="s">
         <v>158</v>
       </c>
@@ -15264,7 +15298,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="306"/>
+      <c r="A188" s="307"/>
       <c r="B188" s="57" t="s">
         <v>96</v>
       </c>
@@ -15279,7 +15313,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="306"/>
+      <c r="A189" s="307"/>
       <c r="B189" s="57" t="s">
         <v>97</v>
       </c>
@@ -15294,7 +15328,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="306"/>
+      <c r="A190" s="307"/>
       <c r="B190" s="57" t="s">
         <v>159</v>
       </c>
@@ -15309,7 +15343,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="306"/>
+      <c r="A191" s="307"/>
       <c r="B191" s="57" t="s">
         <v>160</v>
       </c>
@@ -15324,11 +15358,11 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="306"/>
+      <c r="A192" s="307"/>
       <c r="B192" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C192" s="303" t="s">
+      <c r="C192" s="304" t="s">
         <v>681</v>
       </c>
       <c r="D192" s="254" t="s">
@@ -15337,12 +15371,12 @@
       <c r="E192" s="252" t="s">
         <v>799</v>
       </c>
-      <c r="F192" s="305" t="s">
+      <c r="F192" s="306" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="306"/>
+      <c r="A193" s="307"/>
       <c r="B193" s="104" t="s">
         <v>98</v>
       </c>
@@ -15352,7 +15386,7 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="306"/>
+      <c r="A194" s="307"/>
       <c r="B194" s="239" t="s">
         <v>99</v>
       </c>
@@ -15362,7 +15396,7 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="306"/>
+      <c r="A195" s="307"/>
       <c r="B195" s="240" t="s">
         <v>98</v>
       </c>
@@ -15372,7 +15406,7 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="306"/>
+      <c r="A196" s="307"/>
       <c r="B196" s="229" t="s">
         <v>101</v>
       </c>
@@ -15390,7 +15424,7 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="306"/>
+      <c r="A197" s="307"/>
       <c r="B197" s="230" t="s">
         <v>102</v>
       </c>
@@ -15408,15 +15442,15 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="307"/>
+      <c r="A198" s="308"/>
       <c r="B198" s="257" t="s">
         <v>507</v>
       </c>
       <c r="C198" s="253" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D198" s="254" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E198" s="252" t="s">
         <v>813</v>
@@ -15443,7 +15477,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1">
-      <c r="A200" s="310" t="s">
+      <c r="A200" s="311" t="s">
         <v>704</v>
       </c>
       <c r="B200" s="219" t="s">
@@ -15460,7 +15494,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="306"/>
+      <c r="A201" s="307"/>
       <c r="B201" s="220" t="s">
         <v>51</v>
       </c>
@@ -15471,13 +15505,13 @@
         <v>784</v>
       </c>
       <c r="F201" s="256" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="306"/>
+      <c r="A202" s="307"/>
       <c r="B202" s="257" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C202" s="255" t="s">
         <v>563</v>
@@ -15486,11 +15520,11 @@
         <v>763</v>
       </c>
       <c r="F202" s="256" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="306"/>
+      <c r="A203" s="307"/>
       <c r="B203" s="14" t="s">
         <v>165</v>
       </c>
@@ -15505,7 +15539,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="306"/>
+      <c r="A204" s="307"/>
       <c r="B204" s="14" t="s">
         <v>71</v>
       </c>
@@ -15520,7 +15554,7 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="306"/>
+      <c r="A205" s="307"/>
       <c r="B205" s="15" t="s">
         <v>166</v>
       </c>
@@ -15530,67 +15564,79 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="306"/>
+      <c r="A206" s="307"/>
       <c r="B206" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="C206" s="253" t="s">
+      <c r="C206" s="303" t="s">
         <v>719</v>
       </c>
-      <c r="D206" s="254" t="s">
+      <c r="D206" s="389" t="s">
         <v>756</v>
       </c>
-      <c r="E206" s="252" t="s">
+      <c r="E206" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F206" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="306"/>
+      <c r="A207" s="307"/>
       <c r="B207" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C207" s="253" t="s">
+      <c r="C207" s="303" t="s">
         <v>715</v>
       </c>
-      <c r="D207" s="254" t="s">
+      <c r="D207" s="389" t="s">
         <v>726</v>
       </c>
-      <c r="E207" s="252" t="s">
+      <c r="E207" s="388" t="s">
         <v>799</v>
       </c>
+      <c r="F207" s="388" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="306"/>
+      <c r="A208" s="307"/>
       <c r="B208" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="C208" s="253" t="s">
+      <c r="C208" s="303" t="s">
         <v>719</v>
       </c>
-      <c r="D208" s="254" t="s">
+      <c r="D208" s="389" t="s">
         <v>756</v>
       </c>
-      <c r="E208" s="252" t="s">
+      <c r="E208" s="388" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="306"/>
+      <c r="F208" s="388" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="307"/>
       <c r="B209" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="C209" s="253" t="s">
+      <c r="C209" s="303" t="s">
         <v>715</v>
       </c>
-      <c r="D209" s="254" t="s">
+      <c r="D209" s="389" t="s">
         <v>726</v>
       </c>
-      <c r="E209" s="252" t="s">
+      <c r="E209" s="388" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="306"/>
+      <c r="F209" s="388" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="307"/>
       <c r="B210" s="60" t="s">
         <v>77</v>
       </c>
@@ -15604,8 +15650,8 @@
         <v>808</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="306"/>
+    <row r="211" spans="1:6">
+      <c r="A211" s="307"/>
       <c r="B211" s="222" t="s">
         <v>78</v>
       </c>
@@ -15616,8 +15662,8 @@
         <v>764</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="306"/>
+    <row r="212" spans="1:6">
+      <c r="A212" s="307"/>
       <c r="B212" s="60" t="s">
         <v>895</v>
       </c>
@@ -15631,8 +15677,8 @@
         <v>799</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="306"/>
+    <row r="213" spans="1:6">
+      <c r="A213" s="307"/>
       <c r="B213" s="223" t="s">
         <v>167</v>
       </c>
@@ -15646,8 +15692,8 @@
         <v>799</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="306"/>
+    <row r="214" spans="1:6">
+      <c r="A214" s="307"/>
       <c r="B214" s="223" t="s">
         <v>83</v>
       </c>
@@ -15661,8 +15707,8 @@
         <v>799</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="306"/>
+    <row r="215" spans="1:6">
+      <c r="A215" s="307"/>
       <c r="B215" s="61" t="s">
         <v>168</v>
       </c>
@@ -15676,8 +15722,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="306"/>
+    <row r="216" spans="1:6">
+      <c r="A216" s="307"/>
       <c r="B216" s="223" t="s">
         <v>169</v>
       </c>
@@ -15688,8 +15734,8 @@
         <v>731</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="306"/>
+    <row r="217" spans="1:6">
+      <c r="A217" s="307"/>
       <c r="B217" s="61" t="s">
         <v>84</v>
       </c>
@@ -15703,8 +15749,8 @@
         <v>799</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="306"/>
+    <row r="218" spans="1:6">
+      <c r="A218" s="307"/>
       <c r="B218" s="242" t="s">
         <v>88</v>
       </c>
@@ -15718,8 +15764,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="306"/>
+    <row r="219" spans="1:6">
+      <c r="A219" s="307"/>
       <c r="B219" s="242" t="s">
         <v>89</v>
       </c>
@@ -15733,8 +15779,8 @@
         <v>808</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="306"/>
+    <row r="220" spans="1:6">
+      <c r="A220" s="307"/>
       <c r="B220" s="242" t="s">
         <v>90</v>
       </c>
@@ -15748,8 +15794,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="306"/>
+    <row r="221" spans="1:6">
+      <c r="A221" s="307"/>
       <c r="B221" s="242" t="s">
         <v>33</v>
       </c>
@@ -15763,8 +15809,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="306"/>
+    <row r="222" spans="1:6">
+      <c r="A222" s="307"/>
       <c r="B222" s="242" t="s">
         <v>34</v>
       </c>
@@ -15778,8 +15824,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="306"/>
+    <row r="223" spans="1:6">
+      <c r="A223" s="307"/>
       <c r="B223" s="243" t="s">
         <v>170</v>
       </c>
@@ -15793,8 +15839,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="306"/>
+    <row r="224" spans="1:6">
+      <c r="A224" s="307"/>
       <c r="B224" s="243" t="s">
         <v>92</v>
       </c>
@@ -15809,7 +15855,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="306"/>
+      <c r="A225" s="307"/>
       <c r="B225" s="243" t="s">
         <v>96</v>
       </c>
@@ -15824,7 +15870,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="306"/>
+      <c r="A226" s="307"/>
       <c r="B226" s="243" t="s">
         <v>97</v>
       </c>
@@ -15839,7 +15885,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="306"/>
+      <c r="A227" s="307"/>
       <c r="B227" s="104" t="s">
         <v>98</v>
       </c>
@@ -15849,7 +15895,7 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="306"/>
+      <c r="A228" s="307"/>
       <c r="B228" s="239" t="s">
         <v>99</v>
       </c>
@@ -15859,7 +15905,7 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="306"/>
+      <c r="A229" s="307"/>
       <c r="B229" s="240" t="s">
         <v>98</v>
       </c>
@@ -15869,7 +15915,7 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="306"/>
+      <c r="A230" s="307"/>
       <c r="B230" s="244" t="s">
         <v>100</v>
       </c>
@@ -15887,7 +15933,7 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="306"/>
+      <c r="A231" s="307"/>
       <c r="B231" s="229" t="s">
         <v>101</v>
       </c>
@@ -15905,7 +15951,7 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="306"/>
+      <c r="A232" s="307"/>
       <c r="B232" s="230" t="s">
         <v>102</v>
       </c>
@@ -15923,15 +15969,15 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="307"/>
+      <c r="A233" s="308"/>
       <c r="B233" s="257" t="s">
         <v>507</v>
       </c>
       <c r="C233" s="253" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D233" s="254" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E233" s="252" t="s">
         <v>813</v>
@@ -15958,7 +16004,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="15" customHeight="1">
-      <c r="A235" s="310" t="s">
+      <c r="A235" s="311" t="s">
         <v>706</v>
       </c>
       <c r="B235" s="245" t="s">
@@ -15975,7 +16021,7 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="306"/>
+      <c r="A236" s="307"/>
       <c r="B236" s="245" t="s">
         <v>180</v>
       </c>
@@ -15990,7 +16036,7 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="306"/>
+      <c r="A237" s="307"/>
       <c r="B237" s="245" t="s">
         <v>181</v>
       </c>
@@ -16005,7 +16051,7 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="306"/>
+      <c r="A238" s="307"/>
       <c r="B238" s="245" t="s">
         <v>892</v>
       </c>
@@ -16020,7 +16066,7 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="306"/>
+      <c r="A239" s="307"/>
       <c r="B239" s="206" t="s">
         <v>183</v>
       </c>
@@ -16035,7 +16081,7 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="306"/>
+      <c r="A240" s="307"/>
       <c r="B240" s="206" t="s">
         <v>184</v>
       </c>
@@ -16050,7 +16096,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A241" s="306"/>
+      <c r="A241" s="307"/>
       <c r="B241" s="205" t="s">
         <v>186</v>
       </c>
@@ -16065,7 +16111,7 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="306"/>
+      <c r="A242" s="307"/>
       <c r="B242" s="205" t="s">
         <v>187</v>
       </c>
@@ -16080,7 +16126,7 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="306"/>
+      <c r="A243" s="307"/>
       <c r="B243" s="205" t="s">
         <v>188</v>
       </c>
@@ -16095,7 +16141,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="306"/>
+      <c r="A244" s="307"/>
       <c r="B244" s="205" t="s">
         <v>189</v>
       </c>
@@ -16110,7 +16156,7 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="306"/>
+      <c r="A245" s="307"/>
       <c r="B245" s="205" t="s">
         <v>190</v>
       </c>
@@ -16125,7 +16171,7 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="307"/>
+      <c r="A246" s="308"/>
       <c r="B246" s="205" t="s">
         <v>191</v>
       </c>
@@ -16160,7 +16206,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1">
-      <c r="A248" s="310" t="s">
+      <c r="A248" s="311" t="s">
         <v>710</v>
       </c>
       <c r="B248" s="246" t="s">
@@ -16177,7 +16223,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="306"/>
+      <c r="A249" s="307"/>
       <c r="B249" s="246" t="s">
         <v>214</v>
       </c>
@@ -16192,7 +16238,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="306"/>
+      <c r="A250" s="307"/>
       <c r="B250" s="246" t="s">
         <v>892</v>
       </c>
@@ -16207,9 +16253,9 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="306"/>
+      <c r="A251" s="307"/>
       <c r="B251" s="246" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C251" s="255"/>
       <c r="F251" s="256" t="s">
@@ -16217,9 +16263,9 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="306"/>
+      <c r="A252" s="307"/>
       <c r="B252" s="246" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C252" s="255"/>
       <c r="F252" s="256" t="s">
@@ -16227,9 +16273,9 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="306"/>
+      <c r="A253" s="307"/>
       <c r="B253" s="246" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C253" s="255"/>
       <c r="F253" s="256" t="s">
@@ -16237,9 +16283,9 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="306"/>
+      <c r="A254" s="307"/>
       <c r="B254" s="246" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C254" s="255"/>
       <c r="F254" s="256" t="s">
@@ -16247,9 +16293,9 @@
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="306"/>
+      <c r="A255" s="307"/>
       <c r="B255" s="246" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C255" s="255"/>
       <c r="F255" s="256" t="s">
@@ -16257,7 +16303,7 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="306"/>
+      <c r="A256" s="307"/>
       <c r="B256" s="205" t="s">
         <v>189</v>
       </c>
@@ -16272,7 +16318,7 @@
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="306"/>
+      <c r="A257" s="307"/>
       <c r="B257" s="205" t="s">
         <v>207</v>
       </c>
@@ -16287,7 +16333,7 @@
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="307"/>
+      <c r="A258" s="308"/>
       <c r="B258" s="205" t="s">
         <v>206</v>
       </c>
@@ -16322,13 +16368,13 @@
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="310" t="s">
+      <c r="A260" s="311" t="s">
         <v>707</v>
       </c>
       <c r="B260" s="258" t="s">
         <v>535</v>
       </c>
-      <c r="C260" s="303" t="s">
+      <c r="C260" s="304" t="s">
         <v>795</v>
       </c>
       <c r="D260" s="254" t="s">
@@ -16337,12 +16383,12 @@
       <c r="E260" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F260" s="304" t="s">
+      <c r="F260" s="305" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="306"/>
+      <c r="A261" s="307"/>
       <c r="B261" s="246" t="s">
         <v>197</v>
       </c>
@@ -16357,7 +16403,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1">
-      <c r="A262" s="306"/>
+      <c r="A262" s="307"/>
       <c r="B262" s="246" t="s">
         <v>198</v>
       </c>
@@ -16372,7 +16418,7 @@
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="306"/>
+      <c r="A263" s="307"/>
       <c r="B263" s="246" t="s">
         <v>892</v>
       </c>
@@ -16387,7 +16433,7 @@
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="306"/>
+      <c r="A264" s="307"/>
       <c r="B264" s="246" t="s">
         <v>200</v>
       </c>
@@ -16397,11 +16443,11 @@
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="306"/>
+      <c r="A265" s="307"/>
       <c r="B265" s="246" t="s">
         <v>536</v>
       </c>
-      <c r="C265" s="303" t="s">
+      <c r="C265" s="304" t="s">
         <v>795</v>
       </c>
       <c r="D265" s="254" t="s">
@@ -16412,11 +16458,11 @@
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="306"/>
+      <c r="A266" s="307"/>
       <c r="B266" s="208" t="s">
         <v>201</v>
       </c>
-      <c r="C266" s="303" t="s">
+      <c r="C266" s="304" t="s">
         <v>582</v>
       </c>
       <c r="D266" s="254" t="s">
@@ -16425,16 +16471,16 @@
       <c r="E266" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F266" s="305" t="s">
+      <c r="F266" s="306" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="306"/>
+      <c r="A267" s="307"/>
       <c r="B267" s="208" t="s">
         <v>202</v>
       </c>
-      <c r="C267" s="303" t="s">
+      <c r="C267" s="304" t="s">
         <v>582</v>
       </c>
       <c r="D267" s="254" t="s">
@@ -16443,12 +16489,12 @@
       <c r="E267" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F267" s="304" t="s">
+      <c r="F267" s="305" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="306"/>
+      <c r="A268" s="307"/>
       <c r="B268" s="209" t="s">
         <v>203</v>
       </c>
@@ -16463,7 +16509,7 @@
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="306"/>
+      <c r="A269" s="307"/>
       <c r="B269" s="209" t="s">
         <v>204</v>
       </c>
@@ -16478,7 +16524,7 @@
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="306"/>
+      <c r="A270" s="307"/>
       <c r="B270" s="247" t="s">
         <v>205</v>
       </c>
@@ -16493,7 +16539,7 @@
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="306"/>
+      <c r="A271" s="307"/>
       <c r="B271" s="247" t="s">
         <v>206</v>
       </c>
@@ -16508,7 +16554,7 @@
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="306"/>
+      <c r="A272" s="307"/>
       <c r="B272" s="247" t="s">
         <v>207</v>
       </c>
@@ -16523,7 +16569,7 @@
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="307"/>
+      <c r="A273" s="308"/>
       <c r="B273" s="247" t="s">
         <v>208</v>
       </c>
@@ -16558,7 +16604,7 @@
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="311" t="s">
+      <c r="A275" s="312" t="s">
         <v>881</v>
       </c>
       <c r="B275" s="246" t="s">
@@ -16575,7 +16621,7 @@
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="311"/>
+      <c r="A276" s="312"/>
       <c r="B276" s="246" t="s">
         <v>219</v>
       </c>
@@ -16591,7 +16637,7 @@
       <c r="F276" s="302"/>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="311"/>
+      <c r="A277" s="312"/>
       <c r="B277" s="246" t="s">
         <v>220</v>
       </c>
@@ -16607,11 +16653,11 @@
       <c r="F277" s="302"/>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="311"/>
+      <c r="A278" s="312"/>
       <c r="B278" s="208" t="s">
         <v>221</v>
       </c>
-      <c r="C278" s="303" t="s">
+      <c r="C278" s="304" t="s">
         <v>582</v>
       </c>
       <c r="D278" s="254" t="s">
@@ -16620,12 +16666,12 @@
       <c r="E278" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="F278" s="304" t="s">
+      <c r="F278" s="305" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="311"/>
+      <c r="A279" s="312"/>
       <c r="B279" s="208" t="s">
         <v>711</v>
       </c>
@@ -16640,7 +16686,7 @@
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="311"/>
+      <c r="A280" s="312"/>
       <c r="B280" s="208" t="s">
         <v>712</v>
       </c>
@@ -16655,7 +16701,7 @@
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="311"/>
+      <c r="A281" s="312"/>
       <c r="B281" s="208" t="s">
         <v>208</v>
       </c>
@@ -16690,7 +16736,7 @@
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="311" t="s">
+      <c r="A283" s="312" t="s">
         <v>880</v>
       </c>
       <c r="B283" s="246" t="s">
@@ -16707,7 +16753,7 @@
       </c>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="311"/>
+      <c r="A284" s="312"/>
       <c r="B284" s="246" t="s">
         <v>228</v>
       </c>
@@ -16723,7 +16769,7 @@
       <c r="F284" s="302"/>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="311"/>
+      <c r="A285" s="312"/>
       <c r="B285" s="246" t="s">
         <v>229</v>
       </c>
@@ -16739,7 +16785,7 @@
       <c r="F285" s="302"/>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="311"/>
+      <c r="A286" s="312"/>
       <c r="B286" s="208" t="s">
         <v>711</v>
       </c>
@@ -16754,7 +16800,7 @@
       </c>
     </row>
     <row r="287" spans="1:6">
-      <c r="A287" s="311"/>
+      <c r="A287" s="312"/>
       <c r="B287" s="208" t="s">
         <v>712</v>
       </c>
@@ -16769,7 +16815,7 @@
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="311"/>
+      <c r="A288" s="312"/>
       <c r="B288" s="208" t="s">
         <v>208</v>
       </c>
@@ -16804,7 +16850,7 @@
       </c>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="310" t="s">
+      <c r="A290" s="311" t="s">
         <v>708</v>
       </c>
       <c r="B290" s="246" t="s">
@@ -16821,7 +16867,7 @@
       </c>
     </row>
     <row r="291" spans="1:6">
-      <c r="A291" s="307"/>
+      <c r="A291" s="308"/>
       <c r="B291" s="246" t="s">
         <v>899</v>
       </c>
@@ -16856,7 +16902,7 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="310" t="s">
+      <c r="A293" s="311" t="s">
         <v>709</v>
       </c>
       <c r="B293" s="246" t="s">
@@ -16873,7 +16919,7 @@
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="307"/>
+      <c r="A294" s="308"/>
       <c r="B294" s="246" t="s">
         <v>898</v>
       </c>
@@ -16919,7 +16965,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17099,7 +17145,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="26.25">
-      <c r="A8" s="312" t="s">
+      <c r="A8" s="313" t="s">
         <v>524</v>
       </c>
       <c r="B8" s="136" t="s">
@@ -17134,7 +17180,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="26.25">
-      <c r="A9" s="313"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="136" t="s">
         <v>9</v>
       </c>
@@ -17161,7 +17207,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="26.25">
-      <c r="A10" s="313"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="136" t="s">
         <v>10</v>
       </c>
@@ -17188,7 +17234,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.25">
-      <c r="A11" s="313"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="136" t="s">
         <v>11</v>
       </c>
@@ -17218,7 +17264,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="26.25">
-      <c r="A12" s="313"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="136" t="s">
         <v>12</v>
       </c>
@@ -17251,7 +17297,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="26.25">
-      <c r="A13" s="313"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="140" t="s">
         <v>13</v>
       </c>
@@ -17281,7 +17327,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="26.25">
-      <c r="A14" s="313"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="136" t="s">
         <v>14</v>
       </c>
@@ -17311,7 +17357,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="26.25">
-      <c r="A15" s="313"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="136" t="s">
         <v>15</v>
       </c>
@@ -17338,7 +17384,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="26.25">
-      <c r="A16" s="313"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="136" t="s">
         <v>16</v>
       </c>
@@ -17365,7 +17411,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="26.25">
-      <c r="A17" s="313"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="136" t="s">
         <v>17</v>
       </c>
@@ -17395,7 +17441,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="26.25">
-      <c r="A18" s="313"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="140" t="s">
         <v>18</v>
       </c>
@@ -17422,7 +17468,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="26.25">
-      <c r="A19" s="313"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="140" t="s">
         <v>19</v>
       </c>
@@ -17449,7 +17495,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="26.25">
-      <c r="A20" s="313"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="136" t="s">
         <v>20</v>
       </c>
@@ -17479,7 +17525,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="26.25">
-      <c r="A21" s="313"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="136" t="s">
         <v>21</v>
       </c>
@@ -17506,7 +17552,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="26.25">
-      <c r="A22" s="313"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="136" t="s">
         <v>22</v>
       </c>
@@ -17536,7 +17582,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="26.25">
-      <c r="A23" s="313"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="136" t="s">
         <v>23</v>
       </c>
@@ -17569,7 +17615,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="26.25">
-      <c r="A24" s="313"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="136" t="s">
         <v>24</v>
       </c>
@@ -17599,7 +17645,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="26.25">
-      <c r="A25" s="313"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="136" t="s">
         <v>25</v>
       </c>
@@ -17632,7 +17678,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="26.25">
-      <c r="A26" s="313"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="140" t="s">
         <v>26</v>
       </c>
@@ -17662,7 +17708,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="313"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="142" t="s">
         <v>30</v>
       </c>
@@ -17680,7 +17726,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="26.25">
-      <c r="A28" s="314"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="140" t="s">
         <v>29</v>
       </c>
@@ -17707,7 +17753,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="315" t="s">
+      <c r="A29" s="316" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="164" t="s">
@@ -17733,7 +17779,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="316"/>
+      <c r="A30" s="317"/>
       <c r="B30" s="165" t="s">
         <v>610</v>
       </c>
@@ -17757,7 +17803,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="316"/>
+      <c r="A31" s="317"/>
       <c r="B31" s="165" t="s">
         <v>611</v>
       </c>
@@ -17781,7 +17827,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="316"/>
+      <c r="A32" s="317"/>
       <c r="B32" s="98" t="s">
         <v>32</v>
       </c>
@@ -17808,7 +17854,7 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="316"/>
+      <c r="A33" s="317"/>
       <c r="B33" s="98" t="s">
         <v>33</v>
       </c>
@@ -17830,7 +17876,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="316"/>
+      <c r="A34" s="317"/>
       <c r="B34" s="166" t="s">
         <v>34</v>
       </c>
@@ -18070,7 +18116,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="317" t="s">
+      <c r="A10" s="318" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="136" t="s">
@@ -18093,7 +18139,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="318"/>
+      <c r="A11" s="319"/>
       <c r="B11" s="136" t="s">
         <v>9</v>
       </c>
@@ -18114,7 +18160,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="318"/>
+      <c r="A12" s="319"/>
       <c r="B12" s="136" t="s">
         <v>10</v>
       </c>
@@ -18138,7 +18184,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="318"/>
+      <c r="A13" s="319"/>
       <c r="B13" s="136" t="s">
         <v>11</v>
       </c>
@@ -18159,7 +18205,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="318"/>
+      <c r="A14" s="319"/>
       <c r="B14" s="136" t="s">
         <v>12</v>
       </c>
@@ -18183,7 +18229,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="318"/>
+      <c r="A15" s="319"/>
       <c r="B15" s="140" t="s">
         <v>13</v>
       </c>
@@ -18207,7 +18253,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="318"/>
+      <c r="A16" s="319"/>
       <c r="B16" s="136" t="s">
         <v>14</v>
       </c>
@@ -18231,7 +18277,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="318"/>
+      <c r="A17" s="319"/>
       <c r="B17" s="136" t="s">
         <v>15</v>
       </c>
@@ -18255,7 +18301,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="318"/>
+      <c r="A18" s="319"/>
       <c r="B18" s="136" t="s">
         <v>16</v>
       </c>
@@ -18279,7 +18325,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="318"/>
+      <c r="A19" s="319"/>
       <c r="B19" s="136" t="s">
         <v>17</v>
       </c>
@@ -18303,7 +18349,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="318"/>
+      <c r="A20" s="319"/>
       <c r="B20" s="140" t="s">
         <v>18</v>
       </c>
@@ -18327,7 +18373,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="318"/>
+      <c r="A21" s="319"/>
       <c r="B21" s="140" t="s">
         <v>19</v>
       </c>
@@ -18351,7 +18397,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="318"/>
+      <c r="A22" s="319"/>
       <c r="B22" s="136" t="s">
         <v>20</v>
       </c>
@@ -18375,7 +18421,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="318"/>
+      <c r="A23" s="319"/>
       <c r="B23" s="136" t="s">
         <v>21</v>
       </c>
@@ -18402,7 +18448,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="318"/>
+      <c r="A24" s="319"/>
       <c r="B24" s="136" t="s">
         <v>22</v>
       </c>
@@ -18426,7 +18472,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="318"/>
+      <c r="A25" s="319"/>
       <c r="B25" s="136" t="s">
         <v>23</v>
       </c>
@@ -18450,7 +18496,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="318"/>
+      <c r="A26" s="319"/>
       <c r="B26" s="136" t="s">
         <v>24</v>
       </c>
@@ -18474,7 +18520,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="318"/>
+      <c r="A27" s="319"/>
       <c r="B27" s="136" t="s">
         <v>25</v>
       </c>
@@ -18498,7 +18544,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="318"/>
+      <c r="A28" s="319"/>
       <c r="B28" s="140" t="s">
         <v>26</v>
       </c>
@@ -18522,7 +18568,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="318"/>
+      <c r="A29" s="319"/>
       <c r="B29" s="140" t="s">
         <v>27</v>
       </c>
@@ -18549,7 +18595,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="318"/>
+      <c r="A30" s="319"/>
       <c r="B30" s="140" t="s">
         <v>28</v>
       </c>
@@ -18573,7 +18619,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="319"/>
+      <c r="A31" s="320"/>
       <c r="B31" s="140" t="s">
         <v>29</v>
       </c>
@@ -18612,7 +18658,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="320" t="s">
+      <c r="A33" s="321" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="143" t="s">
@@ -18635,7 +18681,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="321"/>
+      <c r="A34" s="322"/>
       <c r="B34" s="146" t="s">
         <v>603</v>
       </c>
@@ -18659,7 +18705,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="321"/>
+      <c r="A35" s="322"/>
       <c r="B35" s="143" t="s">
         <v>604</v>
       </c>
@@ -18680,7 +18726,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="321"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="149" t="s">
         <v>32</v>
       </c>
@@ -18701,7 +18747,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="321"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="149" t="s">
         <v>33</v>
       </c>
@@ -18723,7 +18769,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="321"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="150" t="s">
         <v>34</v>
       </c>
@@ -18792,7 +18838,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="323" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -18809,7 +18855,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="322"/>
+      <c r="A3" s="323"/>
       <c r="B3" s="18" t="s">
         <v>64</v>
       </c>
@@ -18824,7 +18870,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="322"/>
+      <c r="A4" s="323"/>
       <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
@@ -18839,7 +18885,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="39">
-      <c r="A5" s="322"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
@@ -18860,7 +18906,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25">
-      <c r="A6" s="322"/>
+      <c r="A6" s="323"/>
       <c r="B6" s="17" t="s">
         <v>67</v>
       </c>
@@ -18875,7 +18921,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="322"/>
+      <c r="A7" s="323"/>
       <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
@@ -18888,7 +18934,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="323"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="44" t="s">
         <v>69</v>
       </c>
@@ -18901,17 +18947,17 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="334" t="s">
+      <c r="A9" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="334"/>
+      <c r="B9" s="335"/>
       <c r="C9" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="51.75">
-      <c r="A10" s="335" t="s">
+      <c r="A10" s="336" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -18937,7 +18983,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="335"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="14" t="s">
         <v>71</v>
       </c>
@@ -18953,7 +18999,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="336"/>
+      <c r="A12" s="337"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
@@ -18967,7 +19013,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="337" t="s">
+      <c r="A13" s="338" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -18994,7 +19040,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="337"/>
+      <c r="A14" s="338"/>
       <c r="B14" s="20" t="s">
         <v>74</v>
       </c>
@@ -19019,7 +19065,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="337"/>
+      <c r="A15" s="338"/>
       <c r="B15" s="20" t="s">
         <v>75</v>
       </c>
@@ -19041,7 +19087,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="337"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="20" t="s">
         <v>76</v>
       </c>
@@ -19066,7 +19112,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="338" t="s">
+      <c r="A17" s="339" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -19087,7 +19133,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="22" t="s">
         <v>78</v>
       </c>
@@ -19109,7 +19155,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
@@ -19128,7 +19174,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="21" t="s">
         <v>80</v>
       </c>
@@ -19171,7 +19217,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="39">
-      <c r="A22" s="324" t="s">
+      <c r="A22" s="325" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -19197,7 +19243,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="39">
-      <c r="A23" s="324"/>
+      <c r="A23" s="325"/>
       <c r="B23" s="3" t="s">
         <v>83</v>
       </c>
@@ -19221,7 +19267,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="26.25">
-      <c r="A24" s="324"/>
+      <c r="A24" s="325"/>
       <c r="B24" s="23" t="s">
         <v>84</v>
       </c>
@@ -19245,7 +19291,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="39">
-      <c r="A25" s="324" t="s">
+      <c r="A25" s="325" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -19271,7 +19317,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="39">
-      <c r="A26" s="324"/>
+      <c r="A26" s="325"/>
       <c r="B26" s="39" t="s">
         <v>86</v>
       </c>
@@ -19298,7 +19344,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="39">
-      <c r="A27" s="324"/>
+      <c r="A27" s="325"/>
       <c r="B27" s="39" t="s">
         <v>13</v>
       </c>
@@ -19322,7 +19368,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="39">
-      <c r="A28" s="324"/>
+      <c r="A28" s="325"/>
       <c r="B28" s="38" t="s">
         <v>14</v>
       </c>
@@ -19346,7 +19392,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="39">
-      <c r="A29" s="324"/>
+      <c r="A29" s="325"/>
       <c r="B29" s="38" t="s">
         <v>15</v>
       </c>
@@ -19370,7 +19416,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="39">
-      <c r="A30" s="324"/>
+      <c r="A30" s="325"/>
       <c r="B30" s="38" t="s">
         <v>16</v>
       </c>
@@ -19394,7 +19440,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="39">
-      <c r="A31" s="324"/>
+      <c r="A31" s="325"/>
       <c r="B31" s="38" t="s">
         <v>17</v>
       </c>
@@ -19418,7 +19464,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="39">
-      <c r="A32" s="324"/>
+      <c r="A32" s="325"/>
       <c r="B32" s="39" t="s">
         <v>87</v>
       </c>
@@ -19442,7 +19488,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="39">
-      <c r="A33" s="324"/>
+      <c r="A33" s="325"/>
       <c r="B33" s="38" t="s">
         <v>20</v>
       </c>
@@ -19466,7 +19512,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="39">
-      <c r="A34" s="324"/>
+      <c r="A34" s="325"/>
       <c r="B34" s="38" t="s">
         <v>21</v>
       </c>
@@ -19493,7 +19539,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="39">
-      <c r="A35" s="324"/>
+      <c r="A35" s="325"/>
       <c r="B35" s="38" t="s">
         <v>22</v>
       </c>
@@ -19517,7 +19563,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="39">
-      <c r="A36" s="324"/>
+      <c r="A36" s="325"/>
       <c r="B36" s="38" t="s">
         <v>23</v>
       </c>
@@ -19541,7 +19587,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="39">
-      <c r="A37" s="324"/>
+      <c r="A37" s="325"/>
       <c r="B37" s="38" t="s">
         <v>24</v>
       </c>
@@ -19565,7 +19611,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="39">
-      <c r="A38" s="324"/>
+      <c r="A38" s="325"/>
       <c r="B38" s="39" t="s">
         <v>18</v>
       </c>
@@ -19589,7 +19635,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="39">
-      <c r="A39" s="324"/>
+      <c r="A39" s="325"/>
       <c r="B39" s="38" t="s">
         <v>25</v>
       </c>
@@ -19613,7 +19659,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="39">
-      <c r="A40" s="324"/>
+      <c r="A40" s="325"/>
       <c r="B40" s="39" t="s">
         <v>26</v>
       </c>
@@ -19675,7 +19721,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="325" t="s">
+      <c r="A43" s="326" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -19698,7 +19744,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="51.75">
-      <c r="A44" s="326"/>
+      <c r="A44" s="327"/>
       <c r="B44" s="24" t="s">
         <v>89</v>
       </c>
@@ -19722,7 +19768,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="26.25">
-      <c r="A45" s="326"/>
+      <c r="A45" s="327"/>
       <c r="B45" s="24" t="s">
         <v>153</v>
       </c>
@@ -19749,7 +19795,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="326"/>
+      <c r="A46" s="327"/>
       <c r="B46" s="24" t="s">
         <v>33</v>
       </c>
@@ -19768,7 +19814,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="327"/>
+      <c r="A47" s="328"/>
       <c r="B47" s="24" t="s">
         <v>34</v>
       </c>
@@ -19787,7 +19833,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="26.25">
-      <c r="A48" s="328" t="s">
+      <c r="A48" s="329" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="51" t="s">
@@ -19813,7 +19859,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="329"/>
+      <c r="A49" s="330"/>
       <c r="B49" s="51" t="s">
         <v>92</v>
       </c>
@@ -19834,7 +19880,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="329"/>
+      <c r="A50" s="330"/>
       <c r="B50" s="52" t="s">
         <v>93</v>
       </c>
@@ -19849,7 +19895,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="329"/>
+      <c r="A51" s="330"/>
       <c r="B51" s="52" t="s">
         <v>94</v>
       </c>
@@ -19864,7 +19910,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="329"/>
+      <c r="A52" s="330"/>
       <c r="B52" s="195" t="s">
         <v>95</v>
       </c>
@@ -19886,7 +19932,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="329"/>
+      <c r="A53" s="330"/>
       <c r="B53" s="51" t="s">
         <v>96</v>
       </c>
@@ -19905,7 +19951,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="329"/>
+      <c r="A54" s="330"/>
       <c r="B54" s="53" t="s">
         <v>97</v>
       </c>
@@ -19924,7 +19970,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="329"/>
+      <c r="A55" s="330"/>
       <c r="B55" s="36" t="s">
         <v>98</v>
       </c>
@@ -19940,7 +19986,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="330"/>
+      <c r="A56" s="331"/>
       <c r="B56" s="37" t="s">
         <v>99</v>
       </c>
@@ -19953,7 +19999,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="26.25">
-      <c r="A57" s="331" t="s">
+      <c r="A57" s="332" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -19973,7 +20019,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="25.5">
-      <c r="A58" s="332"/>
+      <c r="A58" s="333"/>
       <c r="B58" s="25" t="s">
         <v>100</v>
       </c>
@@ -19997,7 +20043,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="332"/>
+      <c r="A59" s="333"/>
       <c r="B59" s="25" t="s">
         <v>101</v>
       </c>
@@ -20019,7 +20065,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="333"/>
+      <c r="A60" s="334"/>
       <c r="B60" s="26" t="s">
         <v>102</v>
       </c>
@@ -20127,7 +20173,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="346" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="153" t="s">
@@ -20141,7 +20187,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="346"/>
+      <c r="A3" s="347"/>
       <c r="B3" s="153" t="s">
         <v>121</v>
       </c>
@@ -20153,7 +20199,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="346"/>
+      <c r="A4" s="347"/>
       <c r="B4" s="154" t="s">
         <v>65</v>
       </c>
@@ -20165,7 +20211,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="346"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="154" t="s">
         <v>66</v>
       </c>
@@ -20183,7 +20229,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="346"/>
+      <c r="A6" s="347"/>
       <c r="B6" s="153" t="s">
         <v>67</v>
       </c>
@@ -20195,7 +20241,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="346"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="155" t="s">
         <v>459</v>
       </c>
@@ -20207,7 +20253,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="347"/>
+      <c r="A8" s="348"/>
       <c r="B8" s="154" t="s">
         <v>69</v>
       </c>
@@ -20219,16 +20265,16 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="348" t="s">
+      <c r="A9" s="349" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="349"/>
+      <c r="B9" s="350"/>
       <c r="C9" s="156" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="350" t="s">
+      <c r="A10" s="351" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="157" t="s">
@@ -20245,7 +20291,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="351"/>
+      <c r="A11" s="352"/>
       <c r="B11" s="157" t="s">
         <v>71</v>
       </c>
@@ -20260,7 +20306,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="352"/>
+      <c r="A12" s="353"/>
       <c r="B12" s="158" t="s">
         <v>123</v>
       </c>
@@ -20269,7 +20315,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="353" t="s">
+      <c r="A13" s="354" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="159" t="s">
@@ -20293,7 +20339,7 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="354"/>
+      <c r="A14" s="355"/>
       <c r="B14" s="159" t="s">
         <v>74</v>
       </c>
@@ -20317,7 +20363,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="354"/>
+      <c r="A15" s="355"/>
       <c r="B15" s="159" t="s">
         <v>75</v>
       </c>
@@ -20339,7 +20385,7 @@
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="355"/>
+      <c r="A16" s="356"/>
       <c r="B16" s="159" t="s">
         <v>76</v>
       </c>
@@ -20363,7 +20409,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="356" t="s">
+      <c r="A17" s="357" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="160" t="s">
@@ -20383,7 +20429,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="357"/>
+      <c r="A18" s="358"/>
       <c r="B18" s="161" t="s">
         <v>78</v>
       </c>
@@ -20401,7 +20447,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="357"/>
+      <c r="A19" s="358"/>
       <c r="B19" s="160" t="s">
         <v>79</v>
       </c>
@@ -20419,7 +20465,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="357"/>
+      <c r="A20" s="358"/>
       <c r="B20" s="160" t="s">
         <v>80</v>
       </c>
@@ -20435,7 +20481,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="358"/>
+      <c r="A21" s="359"/>
       <c r="B21" s="160" t="s">
         <v>124</v>
       </c>
@@ -20456,7 +20502,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.25">
-      <c r="A22" s="359" t="s">
+      <c r="A22" s="360" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="96" t="s">
@@ -20479,7 +20525,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="360"/>
+      <c r="A23" s="361"/>
       <c r="B23" s="96" t="s">
         <v>125</v>
       </c>
@@ -20500,7 +20546,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="360"/>
+      <c r="A24" s="361"/>
       <c r="B24" s="97" t="s">
         <v>126</v>
       </c>
@@ -20524,7 +20570,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="360"/>
+      <c r="A25" s="361"/>
       <c r="B25" s="97" t="s">
         <v>127</v>
       </c>
@@ -20545,7 +20591,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="360"/>
+      <c r="A26" s="361"/>
       <c r="B26" s="97" t="s">
         <v>452</v>
       </c>
@@ -20566,7 +20612,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="360"/>
+      <c r="A27" s="361"/>
       <c r="B27" s="97" t="s">
         <v>453</v>
       </c>
@@ -20587,7 +20633,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="360"/>
+      <c r="A28" s="361"/>
       <c r="B28" s="97" t="s">
         <v>454</v>
       </c>
@@ -20608,7 +20654,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="360"/>
+      <c r="A29" s="361"/>
       <c r="B29" s="97" t="s">
         <v>455</v>
       </c>
@@ -20629,7 +20675,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="360"/>
+      <c r="A30" s="361"/>
       <c r="B30" s="97" t="s">
         <v>29</v>
       </c>
@@ -20650,7 +20696,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="360"/>
+      <c r="A31" s="361"/>
       <c r="B31" s="97" t="s">
         <v>128</v>
       </c>
@@ -20671,7 +20717,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="361"/>
+      <c r="A32" s="362"/>
       <c r="B32" s="97" t="s">
         <v>456</v>
       </c>
@@ -20850,7 +20896,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="339" t="s">
+      <c r="A42" s="340" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="101" t="s">
@@ -20867,7 +20913,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="340"/>
+      <c r="A43" s="341"/>
       <c r="B43" s="101" t="s">
         <v>96</v>
       </c>
@@ -20882,7 +20928,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="340"/>
+      <c r="A44" s="341"/>
       <c r="B44" s="102" t="s">
         <v>137</v>
       </c>
@@ -20894,7 +20940,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="340"/>
+      <c r="A45" s="341"/>
       <c r="B45" s="103" t="s">
         <v>138</v>
       </c>
@@ -20906,7 +20952,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="340"/>
+      <c r="A46" s="341"/>
       <c r="B46" s="101" t="s">
         <v>139</v>
       </c>
@@ -20922,7 +20968,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="340"/>
+      <c r="A47" s="341"/>
       <c r="B47" s="104" t="s">
         <v>98</v>
       </c>
@@ -20937,7 +20983,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="341"/>
+      <c r="A48" s="342"/>
       <c r="B48" s="105" t="s">
         <v>99</v>
       </c>
@@ -20949,7 +20995,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="342" t="s">
+      <c r="A49" s="343" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="106" t="s">
@@ -20963,7 +21009,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="343"/>
+      <c r="A50" s="344"/>
       <c r="B50" s="106" t="s">
         <v>101</v>
       </c>
@@ -20972,7 +21018,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="344"/>
+      <c r="A51" s="345"/>
       <c r="B51" s="107" t="s">
         <v>102</v>
       </c>
@@ -21044,8 +21090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BF40B2-61F6-4EA8-BEC6-BC0CD2491711}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21078,7 +21124,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="366" t="s">
+      <c r="A2" s="367" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -21095,7 +21141,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="367"/>
+      <c r="A3" s="368"/>
       <c r="B3" s="18" t="s">
         <v>64</v>
       </c>
@@ -21110,7 +21156,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25">
-      <c r="A4" s="367"/>
+      <c r="A4" s="368"/>
       <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
@@ -21125,7 +21171,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.25">
-      <c r="A5" s="367"/>
+      <c r="A5" s="368"/>
       <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
@@ -21146,7 +21192,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="39">
-      <c r="A6" s="367"/>
+      <c r="A6" s="368"/>
       <c r="B6" s="19" t="s">
         <v>144</v>
       </c>
@@ -21164,7 +21210,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="26.25">
-      <c r="A7" s="367"/>
+      <c r="A7" s="368"/>
       <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
@@ -21182,7 +21228,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="367"/>
+      <c r="A8" s="368"/>
       <c r="B8" s="19" t="s">
         <v>68</v>
       </c>
@@ -21198,7 +21244,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="368"/>
+      <c r="A9" s="369"/>
       <c r="B9" s="19" t="s">
         <v>69</v>
       </c>
@@ -21214,10 +21260,10 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="334" t="s">
+      <c r="A10" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="334"/>
+      <c r="B10" s="335"/>
       <c r="C10" s="30" t="s">
         <v>38</v>
       </c>
@@ -21227,7 +21273,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="39">
-      <c r="A11" s="369" t="s">
+      <c r="A11" s="370" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -21250,7 +21296,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="370"/>
+      <c r="A12" s="371"/>
       <c r="B12" s="59" t="s">
         <v>71</v>
       </c>
@@ -21269,7 +21315,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="371"/>
+      <c r="A13" s="372"/>
       <c r="B13" s="15" t="s">
         <v>146</v>
       </c>
@@ -21285,7 +21331,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="337" t="s">
+      <c r="A14" s="338" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -21309,7 +21355,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="337"/>
+      <c r="A15" s="338"/>
       <c r="B15" s="20" t="s">
         <v>74</v>
       </c>
@@ -21334,7 +21380,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="337"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="20" t="s">
         <v>75</v>
       </c>
@@ -21359,7 +21405,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="337"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="20" t="s">
         <v>76</v>
       </c>
@@ -21384,7 +21430,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="338" t="s">
+      <c r="A18" s="339" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="60" t="s">
@@ -21405,7 +21451,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="39">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="60" t="s">
         <v>147</v>
       </c>
@@ -21426,7 +21472,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="60" t="s">
         <v>148</v>
       </c>
@@ -21441,7 +21487,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="325" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="61" t="s">
@@ -21462,7 +21508,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="324"/>
+      <c r="A22" s="325"/>
       <c r="B22" s="61" t="s">
         <v>150</v>
       </c>
@@ -21484,7 +21530,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="324"/>
+      <c r="A23" s="325"/>
       <c r="B23" s="61" t="s">
         <v>151</v>
       </c>
@@ -21501,7 +21547,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="362" t="s">
+      <c r="A24" s="363" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="64" t="s">
@@ -21524,7 +21570,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="362"/>
+      <c r="A25" s="363"/>
       <c r="B25" s="64" t="s">
         <v>153</v>
       </c>
@@ -21546,7 +21592,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="362"/>
+      <c r="A26" s="363"/>
       <c r="B26" s="64" t="s">
         <v>154</v>
       </c>
@@ -21568,7 +21614,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="362"/>
+      <c r="A27" s="363"/>
       <c r="B27" s="64" t="s">
         <v>155</v>
       </c>
@@ -21590,7 +21636,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="363" t="s">
+      <c r="A28" s="364" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -21609,7 +21655,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="363"/>
+      <c r="A29" s="364"/>
       <c r="B29" s="62" t="s">
         <v>157</v>
       </c>
@@ -21626,7 +21672,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="363"/>
+      <c r="A30" s="364"/>
       <c r="B30" s="63" t="s">
         <v>158</v>
       </c>
@@ -21645,7 +21691,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="363"/>
+      <c r="A31" s="364"/>
       <c r="B31" s="55" t="s">
         <v>96</v>
       </c>
@@ -21664,7 +21710,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="363"/>
+      <c r="A32" s="364"/>
       <c r="B32" s="55" t="s">
         <v>97</v>
       </c>
@@ -21683,7 +21729,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="363"/>
+      <c r="A33" s="364"/>
       <c r="B33" s="57" t="s">
         <v>137</v>
       </c>
@@ -21700,11 +21746,11 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="363"/>
+      <c r="A34" s="364"/>
       <c r="B34" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="364" t="s">
+      <c r="C34" s="365" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -21721,11 +21767,11 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="363"/>
+      <c r="A35" s="364"/>
       <c r="B35" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="364"/>
+      <c r="C35" s="365"/>
       <c r="D35" s="8"/>
       <c r="E35" t="s">
         <v>551</v>
@@ -21735,7 +21781,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="363"/>
+      <c r="A36" s="364"/>
       <c r="B36" s="57" t="s">
         <v>161</v>
       </c>
@@ -21754,7 +21800,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="363"/>
+      <c r="A37" s="364"/>
       <c r="B37" s="36" t="s">
         <v>98</v>
       </c>
@@ -21770,7 +21816,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="363"/>
+      <c r="A38" s="364"/>
       <c r="B38" s="37" t="s">
         <v>99</v>
       </c>
@@ -21786,7 +21832,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="26.25">
-      <c r="A39" s="365" t="s">
+      <c r="A39" s="366" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -21806,7 +21852,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="365"/>
+      <c r="A40" s="366"/>
       <c r="B40" s="25" t="s">
         <v>101</v>
       </c>
@@ -21819,7 +21865,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="365"/>
+      <c r="A41" s="366"/>
       <c r="B41" s="26" t="s">
         <v>102</v>
       </c>

--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Administrator/CODE/Github/NVT_Data-Model/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C7B3CB-B384-9449-A904-7C2CFAF0C5EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF05A2D-D558-1747-BC2A-1F768EA6EE63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27360" activeTab="4" xr2:uid="{CBD947D1-2C33-4D11-A007-77348F675747}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5302" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5344" uniqueCount="967">
   <si>
     <t>Basisinformationen</t>
   </si>
@@ -3013,6 +3013,18 @@
   <si>
     <t>offiziell alles nicht supported in Standard-EDM?
 Evtl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - in EDM aber nicht in FID-EDM ? -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - hier nicht vorgesehen ? -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pro:translator ? -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - inverseOf(edm:wasPresentAt) ? -</t>
   </si>
   <si>
     <r>
@@ -3145,6 +3157,48 @@
       </rPr>
       <t xml:space="preserve"> sehr wahrscheinlich nicht im Sinne der Definition</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>braun:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fragen an Julia</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3154,7 +3208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3406,6 +3460,27 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4514,7 +4589,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5589,12 +5664,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5607,8 +5676,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5635,6 +5704,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="62" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5709,6 +5781,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="67" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -18444,8 +18525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFF7A04-8F9A-2748-9A8A-994A8354BE61}">
   <dimension ref="A1:K302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -18458,36 +18539,36 @@
     <col min="8" max="8" width="25.83203125" style="254" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="252" customWidth="1"/>
     <col min="10" max="10" width="23.5" style="252" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" style="405" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="403" customWidth="1"/>
     <col min="12" max="16384" width="11.5" style="252"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="113" customHeight="1">
-      <c r="C1" s="410" t="s">
-        <v>962</v>
-      </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="412"/>
-      <c r="K1" s="405" t="s">
+    <row r="1" spans="1:11" ht="129" customHeight="1">
+      <c r="C1" s="408" t="s">
+        <v>966</v>
+      </c>
+      <c r="D1" s="409"/>
+      <c r="E1" s="409"/>
+      <c r="F1" s="409"/>
+      <c r="G1" s="409"/>
+      <c r="H1" s="410"/>
+      <c r="K1" s="403" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="31" customHeight="1">
-      <c r="C2" s="418" t="s">
+      <c r="C2" s="417" t="s">
         <v>917</v>
       </c>
-      <c r="D2" s="419"/>
-      <c r="E2" s="420" t="s">
+      <c r="D2" s="418"/>
+      <c r="E2" s="419" t="s">
         <v>918</v>
       </c>
-      <c r="F2" s="421"/>
-      <c r="G2" s="422" t="s">
+      <c r="F2" s="420"/>
+      <c r="G2" s="421" t="s">
         <v>919</v>
       </c>
-      <c r="H2" s="423"/>
+      <c r="H2" s="422"/>
     </row>
     <row r="3" spans="1:11" ht="29.25" customHeight="1">
       <c r="A3" s="248" t="s">
@@ -18533,18 +18614,18 @@
       </c>
       <c r="C4" s="390"/>
       <c r="D4" s="391"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="428" t="s">
+      <c r="E4" s="412"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="427" t="s">
         <v>716</v>
       </c>
-      <c r="H4" s="427" t="s">
+      <c r="H4" s="426" t="s">
         <v>713</v>
       </c>
       <c r="I4" s="252" t="s">
         <v>808</v>
       </c>
-      <c r="K4" s="424" t="s">
+      <c r="K4" s="423" t="s">
         <v>947</v>
       </c>
     </row>
@@ -18555,18 +18636,18 @@
       </c>
       <c r="C5" s="390"/>
       <c r="D5" s="391"/>
-      <c r="E5" s="414"/>
-      <c r="F5" s="415"/>
-      <c r="G5" s="428" t="s">
+      <c r="E5" s="412"/>
+      <c r="F5" s="413"/>
+      <c r="G5" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H5" s="427" t="s">
+      <c r="H5" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I5" s="252" t="s">
         <v>799</v>
       </c>
-      <c r="K5" s="425"/>
+      <c r="K5" s="424"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="311"/>
@@ -18575,16 +18656,16 @@
       </c>
       <c r="C6" s="390"/>
       <c r="D6" s="398"/>
-      <c r="E6" s="414"/>
-      <c r="F6" s="414"/>
+      <c r="E6" s="412"/>
+      <c r="F6" s="412"/>
       <c r="G6" s="255" t="s">
         <v>606</v>
       </c>
-      <c r="H6" s="427"/>
+      <c r="H6" s="426"/>
       <c r="J6" s="256" t="s">
         <v>912</v>
       </c>
-      <c r="K6" s="425"/>
+      <c r="K6" s="424"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="311"/>
@@ -18593,12 +18674,12 @@
       </c>
       <c r="C7" s="390"/>
       <c r="D7" s="398"/>
-      <c r="E7" s="414"/>
-      <c r="F7" s="414"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="412"/>
       <c r="G7" s="304" t="s">
         <v>715</v>
       </c>
-      <c r="H7" s="427" t="s">
+      <c r="H7" s="426" t="s">
         <v>726</v>
       </c>
       <c r="I7" s="252" t="s">
@@ -18607,7 +18688,7 @@
       <c r="J7" s="306" t="s">
         <v>804</v>
       </c>
-      <c r="K7" s="425"/>
+      <c r="K7" s="424"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="311"/>
@@ -18616,19 +18697,19 @@
       </c>
       <c r="C8" s="390"/>
       <c r="D8" s="398"/>
-      <c r="E8" s="414"/>
-      <c r="F8" s="414"/>
-      <c r="G8" s="428" t="s">
+      <c r="E8" s="412"/>
+      <c r="F8" s="412"/>
+      <c r="G8" s="427" t="s">
         <v>718</v>
       </c>
-      <c r="H8" s="427" t="s">
+      <c r="H8" s="426" t="s">
         <v>727</v>
       </c>
       <c r="I8" s="252" t="s">
         <v>812</v>
       </c>
       <c r="J8"/>
-      <c r="K8" s="425"/>
+      <c r="K8" s="424"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="311"/>
@@ -18637,18 +18718,18 @@
       </c>
       <c r="C9" s="390"/>
       <c r="D9" s="398"/>
-      <c r="E9" s="414"/>
-      <c r="F9" s="414"/>
-      <c r="G9" s="428" t="s">
+      <c r="E9" s="412"/>
+      <c r="F9" s="412"/>
+      <c r="G9" s="427" t="s">
         <v>608</v>
       </c>
-      <c r="H9" s="427" t="s">
+      <c r="H9" s="426" t="s">
         <v>728</v>
       </c>
       <c r="I9" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K9" s="425"/>
+      <c r="K9" s="424"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="311"/>
@@ -18657,18 +18738,18 @@
       </c>
       <c r="C10" s="390"/>
       <c r="D10" s="398"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="428" t="s">
+      <c r="E10" s="412"/>
+      <c r="F10" s="412"/>
+      <c r="G10" s="427" t="s">
         <v>616</v>
       </c>
-      <c r="H10" s="427" t="s">
+      <c r="H10" s="426" t="s">
         <v>729</v>
       </c>
       <c r="I10" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K10" s="425"/>
+      <c r="K10" s="424"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="311"/>
@@ -18677,18 +18758,18 @@
       </c>
       <c r="C11" s="390"/>
       <c r="D11" s="398"/>
-      <c r="E11" s="414"/>
-      <c r="F11" s="414"/>
-      <c r="G11" s="428" t="s">
+      <c r="E11" s="412"/>
+      <c r="F11" s="412"/>
+      <c r="G11" s="427" t="s">
         <v>516</v>
       </c>
-      <c r="H11" s="427" t="s">
+      <c r="H11" s="426" t="s">
         <v>730</v>
       </c>
       <c r="I11" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K11" s="425"/>
+      <c r="K11" s="424"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="311"/>
@@ -18697,18 +18778,18 @@
       </c>
       <c r="C12" s="390"/>
       <c r="D12" s="398"/>
-      <c r="E12" s="414"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="428" t="s">
+      <c r="E12" s="412"/>
+      <c r="F12" s="412"/>
+      <c r="G12" s="427" t="s">
         <v>539</v>
       </c>
-      <c r="H12" s="427" t="s">
+      <c r="H12" s="426" t="s">
         <v>731</v>
       </c>
       <c r="I12" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K12" s="425"/>
+      <c r="K12" s="424"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="311"/>
@@ -18717,12 +18798,12 @@
       </c>
       <c r="C13" s="390"/>
       <c r="D13" s="398"/>
-      <c r="E13" s="414"/>
-      <c r="F13" s="414"/>
+      <c r="E13" s="412"/>
+      <c r="F13" s="412"/>
       <c r="G13" s="304" t="s">
         <v>639</v>
       </c>
-      <c r="H13" s="427" t="s">
+      <c r="H13" s="426" t="s">
         <v>640</v>
       </c>
       <c r="I13" s="252" t="s">
@@ -18731,7 +18812,7 @@
       <c r="J13" s="306" t="s">
         <v>805</v>
       </c>
-      <c r="K13" s="425"/>
+      <c r="K13" s="424"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="311"/>
@@ -18740,18 +18821,18 @@
       </c>
       <c r="C14" s="390"/>
       <c r="D14" s="398"/>
-      <c r="E14" s="414"/>
-      <c r="F14" s="414"/>
-      <c r="G14" s="428" t="s">
+      <c r="E14" s="412"/>
+      <c r="F14" s="412"/>
+      <c r="G14" s="427" t="s">
         <v>478</v>
       </c>
-      <c r="H14" s="427" t="s">
+      <c r="H14" s="426" t="s">
         <v>732</v>
       </c>
       <c r="I14" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K14" s="425"/>
+      <c r="K14" s="424"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="311"/>
@@ -18760,18 +18841,18 @@
       </c>
       <c r="C15" s="390"/>
       <c r="D15" s="398"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="428" t="s">
+      <c r="E15" s="412"/>
+      <c r="F15" s="412"/>
+      <c r="G15" s="427" t="s">
         <v>479</v>
       </c>
-      <c r="H15" s="427" t="s">
+      <c r="H15" s="426" t="s">
         <v>733</v>
       </c>
       <c r="I15" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K15" s="425"/>
+      <c r="K15" s="424"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="311"/>
@@ -18780,18 +18861,18 @@
       </c>
       <c r="C16" s="390"/>
       <c r="D16" s="398"/>
-      <c r="E16" s="414"/>
-      <c r="F16" s="414"/>
-      <c r="G16" s="428" t="s">
+      <c r="E16" s="412"/>
+      <c r="F16" s="412"/>
+      <c r="G16" s="427" t="s">
         <v>480</v>
       </c>
-      <c r="H16" s="427" t="s">
+      <c r="H16" s="426" t="s">
         <v>734</v>
       </c>
       <c r="I16" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K16" s="425"/>
+      <c r="K16" s="424"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="311"/>
@@ -18800,18 +18881,18 @@
       </c>
       <c r="C17" s="390"/>
       <c r="D17" s="398"/>
-      <c r="E17" s="414"/>
-      <c r="F17" s="414"/>
-      <c r="G17" s="428" t="s">
+      <c r="E17" s="412"/>
+      <c r="F17" s="412"/>
+      <c r="G17" s="427" t="s">
         <v>481</v>
       </c>
-      <c r="H17" s="427" t="s">
+      <c r="H17" s="426" t="s">
         <v>735</v>
       </c>
       <c r="I17" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K17" s="425"/>
+      <c r="K17" s="424"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="311"/>
@@ -18820,18 +18901,18 @@
       </c>
       <c r="C18" s="390"/>
       <c r="D18" s="398"/>
-      <c r="E18" s="414"/>
-      <c r="F18" s="414"/>
-      <c r="G18" s="428" t="s">
+      <c r="E18" s="412"/>
+      <c r="F18" s="412"/>
+      <c r="G18" s="427" t="s">
         <v>488</v>
       </c>
-      <c r="H18" s="427" t="s">
+      <c r="H18" s="426" t="s">
         <v>736</v>
       </c>
       <c r="I18" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K18" s="425"/>
+      <c r="K18" s="424"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="311"/>
@@ -18840,18 +18921,18 @@
       </c>
       <c r="C19" s="390"/>
       <c r="D19" s="398"/>
-      <c r="E19" s="414"/>
-      <c r="F19" s="414"/>
-      <c r="G19" s="428" t="s">
+      <c r="E19" s="412"/>
+      <c r="F19" s="412"/>
+      <c r="G19" s="427" t="s">
         <v>482</v>
       </c>
-      <c r="H19" s="427" t="s">
+      <c r="H19" s="426" t="s">
         <v>737</v>
       </c>
       <c r="I19" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K19" s="425"/>
+      <c r="K19" s="424"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="311"/>
@@ -18860,18 +18941,18 @@
       </c>
       <c r="C20" s="390"/>
       <c r="D20" s="398"/>
-      <c r="E20" s="414"/>
-      <c r="F20" s="414"/>
-      <c r="G20" s="428" t="s">
+      <c r="E20" s="412"/>
+      <c r="F20" s="412"/>
+      <c r="G20" s="427" t="s">
         <v>483</v>
       </c>
-      <c r="H20" s="427" t="s">
+      <c r="H20" s="426" t="s">
         <v>738</v>
       </c>
       <c r="I20" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K20" s="425"/>
+      <c r="K20" s="424"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="311"/>
@@ -18880,12 +18961,12 @@
       </c>
       <c r="C21" s="390"/>
       <c r="D21" s="398"/>
-      <c r="E21" s="414"/>
-      <c r="F21" s="414"/>
+      <c r="E21" s="412"/>
+      <c r="F21" s="412"/>
       <c r="G21" s="304" t="s">
         <v>480</v>
       </c>
-      <c r="H21" s="427" t="s">
+      <c r="H21" s="426" t="s">
         <v>734</v>
       </c>
       <c r="I21" s="252" t="s">
@@ -18894,7 +18975,7 @@
       <c r="J21" s="306" t="s">
         <v>806</v>
       </c>
-      <c r="K21" s="425"/>
+      <c r="K21" s="424"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="311"/>
@@ -18903,18 +18984,18 @@
       </c>
       <c r="C22" s="390"/>
       <c r="D22" s="398"/>
-      <c r="E22" s="414"/>
-      <c r="F22" s="414"/>
-      <c r="G22" s="428" t="s">
+      <c r="E22" s="412"/>
+      <c r="F22" s="412"/>
+      <c r="G22" s="427" t="s">
         <v>485</v>
       </c>
-      <c r="H22" s="427" t="s">
+      <c r="H22" s="426" t="s">
         <v>739</v>
       </c>
       <c r="I22" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K22" s="425"/>
+      <c r="K22" s="424"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="311"/>
@@ -18923,18 +19004,18 @@
       </c>
       <c r="C23" s="390"/>
       <c r="D23" s="398"/>
-      <c r="E23" s="414"/>
-      <c r="F23" s="414"/>
-      <c r="G23" s="428" t="s">
+      <c r="E23" s="412"/>
+      <c r="F23" s="412"/>
+      <c r="G23" s="427" t="s">
         <v>486</v>
       </c>
-      <c r="H23" s="427" t="s">
+      <c r="H23" s="426" t="s">
         <v>740</v>
       </c>
       <c r="I23" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K23" s="425"/>
+      <c r="K23" s="424"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="311"/>
@@ -18943,18 +19024,18 @@
       </c>
       <c r="C24" s="390"/>
       <c r="D24" s="398"/>
-      <c r="E24" s="414"/>
-      <c r="F24" s="414"/>
-      <c r="G24" s="428" t="s">
+      <c r="E24" s="412"/>
+      <c r="F24" s="412"/>
+      <c r="G24" s="427" t="s">
         <v>487</v>
       </c>
-      <c r="H24" s="427" t="s">
+      <c r="H24" s="426" t="s">
         <v>741</v>
       </c>
       <c r="I24" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K24" s="425"/>
+      <c r="K24" s="424"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="311"/>
@@ -18963,18 +19044,18 @@
       </c>
       <c r="C25" s="390"/>
       <c r="D25" s="398"/>
-      <c r="E25" s="414"/>
-      <c r="F25" s="414"/>
-      <c r="G25" s="428" t="s">
+      <c r="E25" s="412"/>
+      <c r="F25" s="412"/>
+      <c r="G25" s="427" t="s">
         <v>489</v>
       </c>
-      <c r="H25" s="427" t="s">
+      <c r="H25" s="426" t="s">
         <v>742</v>
       </c>
       <c r="I25" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K25" s="425"/>
+      <c r="K25" s="424"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="311"/>
@@ -18983,18 +19064,18 @@
       </c>
       <c r="C26" s="390"/>
       <c r="D26" s="398"/>
-      <c r="E26" s="414"/>
-      <c r="F26" s="414"/>
-      <c r="G26" s="428" t="s">
+      <c r="E26" s="412"/>
+      <c r="F26" s="412"/>
+      <c r="G26" s="427" t="s">
         <v>490</v>
       </c>
-      <c r="H26" s="427" t="s">
+      <c r="H26" s="426" t="s">
         <v>743</v>
       </c>
       <c r="I26" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K26" s="425"/>
+      <c r="K26" s="424"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="311"/>
@@ -19003,18 +19084,18 @@
       </c>
       <c r="C27" s="390"/>
       <c r="D27" s="398"/>
-      <c r="E27" s="414"/>
-      <c r="F27" s="414"/>
-      <c r="G27" s="428" t="s">
+      <c r="E27" s="412"/>
+      <c r="F27" s="412"/>
+      <c r="G27" s="427" t="s">
         <v>718</v>
       </c>
-      <c r="H27" s="427" t="s">
+      <c r="H27" s="426" t="s">
         <v>727</v>
       </c>
       <c r="I27" s="252" t="s">
         <v>812</v>
       </c>
-      <c r="K27" s="425"/>
+      <c r="K27" s="424"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="311"/>
@@ -19023,18 +19104,18 @@
       </c>
       <c r="C28" s="390"/>
       <c r="D28" s="398"/>
-      <c r="E28" s="414"/>
-      <c r="F28" s="414"/>
-      <c r="G28" s="428" t="s">
+      <c r="E28" s="412"/>
+      <c r="F28" s="412"/>
+      <c r="G28" s="427" t="s">
         <v>553</v>
       </c>
-      <c r="H28" s="427" t="s">
+      <c r="H28" s="426" t="s">
         <v>744</v>
       </c>
       <c r="I28" s="252" t="s">
         <v>801</v>
       </c>
-      <c r="K28" s="425"/>
+      <c r="K28" s="424"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="311"/>
@@ -19043,12 +19124,12 @@
       </c>
       <c r="C29" s="390"/>
       <c r="D29" s="398"/>
-      <c r="E29" s="414"/>
-      <c r="F29" s="414"/>
-      <c r="G29" s="428" t="s">
+      <c r="E29" s="412"/>
+      <c r="F29" s="412"/>
+      <c r="G29" s="427" t="s">
         <v>802</v>
       </c>
-      <c r="H29" s="427" t="s">
+      <c r="H29" s="426" t="s">
         <v>803</v>
       </c>
       <c r="I29" s="252" t="s">
@@ -19057,7 +19138,7 @@
       <c r="J29" s="302" t="s">
         <v>893</v>
       </c>
-      <c r="K29" s="425"/>
+      <c r="K29" s="424"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="311"/>
@@ -19066,12 +19147,12 @@
       </c>
       <c r="C30" s="390"/>
       <c r="D30" s="398"/>
-      <c r="E30" s="414"/>
-      <c r="F30" s="414"/>
-      <c r="G30" s="428" t="s">
+      <c r="E30" s="412"/>
+      <c r="F30" s="412"/>
+      <c r="G30" s="427" t="s">
         <v>747</v>
       </c>
-      <c r="H30" s="427" t="s">
+      <c r="H30" s="426" t="s">
         <v>750</v>
       </c>
       <c r="I30" s="252" t="s">
@@ -19080,7 +19161,7 @@
       <c r="J30" s="302" t="s">
         <v>894</v>
       </c>
-      <c r="K30" s="425"/>
+      <c r="K30" s="424"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="311"/>
@@ -19089,12 +19170,12 @@
       </c>
       <c r="C31" s="390"/>
       <c r="D31" s="398"/>
-      <c r="E31" s="414"/>
-      <c r="F31" s="414"/>
-      <c r="G31" s="428" t="s">
+      <c r="E31" s="412"/>
+      <c r="F31" s="412"/>
+      <c r="G31" s="427" t="s">
         <v>748</v>
       </c>
-      <c r="H31" s="427" t="s">
+      <c r="H31" s="426" t="s">
         <v>749</v>
       </c>
       <c r="I31" s="252" t="s">
@@ -19103,7 +19184,7 @@
       <c r="J31" s="302" t="s">
         <v>894</v>
       </c>
-      <c r="K31" s="425"/>
+      <c r="K31" s="424"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="311"/>
@@ -19112,12 +19193,12 @@
       </c>
       <c r="C32" s="390"/>
       <c r="D32" s="398"/>
-      <c r="E32" s="414"/>
-      <c r="F32" s="414"/>
+      <c r="E32" s="412"/>
+      <c r="F32" s="412"/>
       <c r="G32" s="304" t="s">
         <v>885</v>
       </c>
-      <c r="H32" s="427" t="s">
+      <c r="H32" s="426" t="s">
         <v>884</v>
       </c>
       <c r="I32" s="252" t="s">
@@ -19126,7 +19207,7 @@
       <c r="J32" s="306" t="s">
         <v>901</v>
       </c>
-      <c r="K32" s="425"/>
+      <c r="K32" s="424"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="311"/>
@@ -19135,12 +19216,12 @@
       </c>
       <c r="C33" s="390"/>
       <c r="D33" s="398"/>
-      <c r="E33" s="414"/>
-      <c r="F33" s="414"/>
+      <c r="E33" s="412"/>
+      <c r="F33" s="412"/>
       <c r="G33" s="304" t="s">
         <v>885</v>
       </c>
-      <c r="H33" s="427" t="s">
+      <c r="H33" s="426" t="s">
         <v>884</v>
       </c>
       <c r="I33" s="252" t="s">
@@ -19149,7 +19230,7 @@
       <c r="J33" s="306" t="s">
         <v>901</v>
       </c>
-      <c r="K33" s="425"/>
+      <c r="K33" s="424"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="314"/>
@@ -19158,12 +19239,12 @@
       </c>
       <c r="C34" s="390"/>
       <c r="D34" s="398"/>
-      <c r="E34" s="414"/>
-      <c r="F34" s="414"/>
+      <c r="E34" s="412"/>
+      <c r="F34" s="412"/>
       <c r="G34" s="304" t="s">
         <v>885</v>
       </c>
-      <c r="H34" s="427" t="s">
+      <c r="H34" s="426" t="s">
         <v>884</v>
       </c>
       <c r="I34" s="252" t="s">
@@ -19172,7 +19253,7 @@
       <c r="J34" s="306" t="s">
         <v>901</v>
       </c>
-      <c r="K34" s="426"/>
+      <c r="K34" s="425"/>
     </row>
     <row r="35" spans="1:11" ht="32" customHeight="1">
       <c r="A35" s="248" t="s">
@@ -19219,16 +19300,16 @@
       <c r="D36" s="391" t="s">
         <v>754</v>
       </c>
-      <c r="E36" s="414" t="s">
+      <c r="E36" s="412" t="s">
         <v>661</v>
       </c>
-      <c r="F36" s="415" t="s">
+      <c r="F36" s="413" t="s">
         <v>754</v>
       </c>
-      <c r="G36" s="428" t="s">
+      <c r="G36" s="427" t="s">
         <v>661</v>
       </c>
-      <c r="H36" s="427" t="s">
+      <c r="H36" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I36" s="252" t="s">
@@ -19247,16 +19328,16 @@
       <c r="D37" s="391" t="s">
         <v>774</v>
       </c>
-      <c r="E37" s="414" t="s">
+      <c r="E37" s="412" t="s">
         <v>606</v>
       </c>
-      <c r="F37" s="415" t="s">
+      <c r="F37" s="413" t="s">
         <v>774</v>
       </c>
-      <c r="G37" s="428" t="s">
+      <c r="G37" s="427" t="s">
         <v>606</v>
       </c>
-      <c r="H37" s="427" t="s">
+      <c r="H37" s="426" t="s">
         <v>774</v>
       </c>
       <c r="I37" s="302" t="s">
@@ -19277,12 +19358,16 @@
       <c r="D38" s="391" t="s">
         <v>755</v>
       </c>
-      <c r="E38" s="414"/>
-      <c r="F38" s="414"/>
-      <c r="G38" s="428" t="s">
+      <c r="E38" s="390" t="s">
         <v>662</v>
       </c>
-      <c r="H38" s="427" t="s">
+      <c r="F38" s="391" t="s">
+        <v>755</v>
+      </c>
+      <c r="G38" s="427" t="s">
+        <v>662</v>
+      </c>
+      <c r="H38" s="426" t="s">
         <v>755</v>
       </c>
       <c r="I38" s="252" t="s">
@@ -19297,18 +19382,20 @@
       <c r="B39" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="400" t="s">
+      <c r="C39" s="434" t="s">
         <v>925</v>
       </c>
       <c r="D39" s="398"/>
-      <c r="E39" s="429"/>
-      <c r="F39" s="429"/>
+      <c r="E39" s="445" t="s">
+        <v>962</v>
+      </c>
+      <c r="F39" s="428"/>
       <c r="G39" s="256"/>
-      <c r="H39" s="427"/>
+      <c r="H39" s="426"/>
       <c r="J39" s="256" t="s">
         <v>816</v>
       </c>
-      <c r="K39" s="405" t="s">
+      <c r="K39" s="403" t="s">
         <v>928</v>
       </c>
     </row>
@@ -19317,14 +19404,18 @@
       <c r="B40" s="210" t="s">
         <v>699</v>
       </c>
-      <c r="C40" s="406"/>
+      <c r="C40" s="404" t="s">
+        <v>925</v>
+      </c>
       <c r="D40" s="398"/>
-      <c r="E40" s="414"/>
-      <c r="F40" s="414"/>
-      <c r="G40" s="428" t="s">
+      <c r="E40" s="445" t="s">
+        <v>962</v>
+      </c>
+      <c r="F40" s="412"/>
+      <c r="G40" s="427" t="s">
         <v>715</v>
       </c>
-      <c r="H40" s="427" t="s">
+      <c r="H40" s="426" t="s">
         <v>726</v>
       </c>
       <c r="I40" s="252" t="s">
@@ -19337,14 +19428,18 @@
       <c r="B41" s="210" t="s">
         <v>700</v>
       </c>
-      <c r="C41" s="401"/>
+      <c r="C41" s="434" t="s">
+        <v>925</v>
+      </c>
       <c r="D41" s="398"/>
-      <c r="E41" s="414"/>
-      <c r="F41" s="414"/>
-      <c r="G41" s="428" t="s">
+      <c r="E41" s="445" t="s">
+        <v>962</v>
+      </c>
+      <c r="F41" s="412"/>
+      <c r="G41" s="427" t="s">
         <v>719</v>
       </c>
-      <c r="H41" s="427" t="s">
+      <c r="H41" s="426" t="s">
         <v>756</v>
       </c>
       <c r="I41" s="252" t="s">
@@ -19363,12 +19458,14 @@
       <c r="D42" s="398" t="s">
         <v>924</v>
       </c>
-      <c r="E42" s="414"/>
-      <c r="F42" s="414"/>
+      <c r="E42" s="445" t="s">
+        <v>963</v>
+      </c>
+      <c r="F42" s="412"/>
       <c r="G42" s="304" t="s">
         <v>544</v>
       </c>
-      <c r="H42" s="427" t="s">
+      <c r="H42" s="426" t="s">
         <v>757</v>
       </c>
       <c r="I42" s="252" t="s">
@@ -19377,7 +19474,7 @@
       <c r="J42" s="306" t="s">
         <v>807</v>
       </c>
-      <c r="K42" s="405" t="s">
+      <c r="K42" s="403" t="s">
         <v>923</v>
       </c>
     </row>
@@ -19386,16 +19483,18 @@
       <c r="B43" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="441" t="s">
+      <c r="C43" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D43" s="398"/>
-      <c r="E43" s="414"/>
-      <c r="F43" s="414"/>
+      <c r="E43" s="414" t="s">
+        <v>476</v>
+      </c>
+      <c r="F43" s="412"/>
       <c r="G43" s="304" t="s">
         <v>495</v>
       </c>
-      <c r="H43" s="427" t="s">
+      <c r="H43" s="426" t="s">
         <v>758</v>
       </c>
       <c r="I43" s="252" t="s">
@@ -19404,7 +19503,7 @@
       <c r="J43" s="306" t="s">
         <v>806</v>
       </c>
-      <c r="K43" s="402" t="s">
+      <c r="K43" s="400" t="s">
         <v>961</v>
       </c>
     </row>
@@ -19413,104 +19512,114 @@
       <c r="B44" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="441" t="s">
+      <c r="C44" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D44" s="398"/>
-      <c r="E44" s="414"/>
-      <c r="F44" s="414"/>
-      <c r="G44" s="428" t="s">
+      <c r="E44" s="414" t="s">
+        <v>476</v>
+      </c>
+      <c r="F44" s="412"/>
+      <c r="G44" s="427" t="s">
         <v>608</v>
       </c>
-      <c r="H44" s="427" t="s">
+      <c r="H44" s="426" t="s">
         <v>728</v>
       </c>
       <c r="I44" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K44" s="403"/>
+      <c r="K44" s="401"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="311"/>
       <c r="B45" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="441" t="s">
+      <c r="C45" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D45" s="398"/>
-      <c r="E45" s="414"/>
-      <c r="F45" s="414"/>
-      <c r="G45" s="428" t="s">
+      <c r="E45" s="412" t="s">
         <v>616</v>
       </c>
-      <c r="H45" s="427" t="s">
+      <c r="F45" s="412"/>
+      <c r="G45" s="427" t="s">
+        <v>616</v>
+      </c>
+      <c r="H45" s="426" t="s">
         <v>729</v>
       </c>
       <c r="I45" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K45" s="403"/>
+      <c r="K45" s="401"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="311"/>
       <c r="B46" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="441" t="s">
+      <c r="C46" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D46" s="398"/>
-      <c r="E46" s="414"/>
-      <c r="F46" s="414"/>
-      <c r="G46" s="428" t="s">
+      <c r="E46" s="443" t="s">
+        <v>964</v>
+      </c>
+      <c r="F46" s="412"/>
+      <c r="G46" s="427" t="s">
         <v>516</v>
       </c>
-      <c r="H46" s="427" t="s">
+      <c r="H46" s="426" t="s">
         <v>730</v>
       </c>
       <c r="I46" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K46" s="403"/>
+      <c r="K46" s="401"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="311"/>
       <c r="B47" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="441" t="s">
+      <c r="C47" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D47" s="398"/>
-      <c r="E47" s="414"/>
-      <c r="F47" s="414"/>
-      <c r="G47" s="428" t="s">
+      <c r="E47" s="412" t="s">
         <v>539</v>
       </c>
-      <c r="H47" s="427" t="s">
+      <c r="F47" s="412"/>
+      <c r="G47" s="427" t="s">
+        <v>539</v>
+      </c>
+      <c r="H47" s="426" t="s">
         <v>731</v>
       </c>
       <c r="I47" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K47" s="403"/>
+      <c r="K47" s="401"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="311"/>
       <c r="B48" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="441" t="s">
+      <c r="C48" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D48" s="398"/>
-      <c r="E48" s="414"/>
-      <c r="F48" s="414"/>
+      <c r="E48" s="414" t="s">
+        <v>476</v>
+      </c>
+      <c r="F48" s="412"/>
       <c r="G48" s="304" t="s">
         <v>639</v>
       </c>
-      <c r="H48" s="427" t="s">
+      <c r="H48" s="426" t="s">
         <v>640</v>
       </c>
       <c r="I48" s="252" t="s">
@@ -19519,177 +19628,193 @@
       <c r="J48" s="306" t="s">
         <v>805</v>
       </c>
-      <c r="K48" s="403"/>
+      <c r="K48" s="401"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="311"/>
       <c r="B49" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="441" t="s">
+      <c r="C49" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D49" s="398"/>
-      <c r="E49" s="414"/>
-      <c r="F49" s="414"/>
-      <c r="G49" s="428" t="s">
+      <c r="E49" s="412" t="s">
         <v>478</v>
       </c>
-      <c r="H49" s="427" t="s">
+      <c r="F49" s="412"/>
+      <c r="G49" s="427" t="s">
+        <v>478</v>
+      </c>
+      <c r="H49" s="426" t="s">
         <v>732</v>
       </c>
       <c r="I49" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K49" s="403"/>
+      <c r="K49" s="401"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="311"/>
       <c r="B50" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="441" t="s">
+      <c r="C50" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D50" s="398"/>
-      <c r="E50" s="414"/>
-      <c r="F50" s="414"/>
-      <c r="G50" s="428" t="s">
+      <c r="E50" s="412" t="s">
         <v>479</v>
       </c>
-      <c r="H50" s="427" t="s">
+      <c r="F50" s="412"/>
+      <c r="G50" s="427" t="s">
+        <v>479</v>
+      </c>
+      <c r="H50" s="426" t="s">
         <v>733</v>
       </c>
       <c r="I50" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K50" s="403"/>
+      <c r="K50" s="401"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="311"/>
       <c r="B51" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="441" t="s">
+      <c r="C51" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D51" s="398"/>
-      <c r="E51" s="414"/>
-      <c r="F51" s="414"/>
-      <c r="G51" s="428" t="s">
+      <c r="E51" s="412" t="s">
         <v>480</v>
       </c>
-      <c r="H51" s="427" t="s">
+      <c r="F51" s="412"/>
+      <c r="G51" s="427" t="s">
+        <v>480</v>
+      </c>
+      <c r="H51" s="426" t="s">
         <v>734</v>
       </c>
       <c r="I51" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K51" s="403"/>
+      <c r="K51" s="401"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="311"/>
       <c r="B52" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="441" t="s">
+      <c r="C52" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D52" s="398"/>
-      <c r="E52" s="414"/>
-      <c r="F52" s="414"/>
-      <c r="G52" s="428" t="s">
+      <c r="E52" s="412" t="s">
         <v>481</v>
       </c>
-      <c r="H52" s="427" t="s">
+      <c r="F52" s="412"/>
+      <c r="G52" s="427" t="s">
+        <v>481</v>
+      </c>
+      <c r="H52" s="426" t="s">
         <v>735</v>
       </c>
       <c r="I52" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K52" s="403"/>
+      <c r="K52" s="401"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="311"/>
       <c r="B53" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="441" t="s">
+      <c r="C53" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D53" s="398"/>
-      <c r="E53" s="414"/>
-      <c r="F53" s="414"/>
-      <c r="G53" s="428" t="s">
+      <c r="E53" s="412" t="s">
         <v>488</v>
       </c>
-      <c r="H53" s="427" t="s">
+      <c r="F53" s="412"/>
+      <c r="G53" s="427" t="s">
+        <v>488</v>
+      </c>
+      <c r="H53" s="426" t="s">
         <v>736</v>
       </c>
       <c r="I53" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K53" s="403"/>
+      <c r="K53" s="401"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="311"/>
       <c r="B54" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="441" t="s">
+      <c r="C54" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D54" s="398"/>
-      <c r="E54" s="414"/>
-      <c r="F54" s="414"/>
-      <c r="G54" s="428" t="s">
+      <c r="E54" s="412" t="s">
         <v>482</v>
       </c>
-      <c r="H54" s="427" t="s">
+      <c r="F54" s="412"/>
+      <c r="G54" s="427" t="s">
+        <v>482</v>
+      </c>
+      <c r="H54" s="426" t="s">
         <v>737</v>
       </c>
       <c r="I54" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K54" s="403"/>
+      <c r="K54" s="401"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="311"/>
       <c r="B55" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="441" t="s">
+      <c r="C55" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D55" s="398"/>
-      <c r="E55" s="414"/>
-      <c r="F55" s="414"/>
-      <c r="G55" s="428" t="s">
+      <c r="E55" s="412" t="s">
         <v>483</v>
       </c>
-      <c r="H55" s="427" t="s">
+      <c r="F55" s="412"/>
+      <c r="G55" s="427" t="s">
+        <v>483</v>
+      </c>
+      <c r="H55" s="426" t="s">
         <v>738</v>
       </c>
       <c r="I55" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K55" s="403"/>
+      <c r="K55" s="401"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="311"/>
       <c r="B56" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="441" t="s">
+      <c r="C56" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D56" s="398"/>
-      <c r="E56" s="414"/>
-      <c r="F56" s="414"/>
+      <c r="E56" s="414" t="s">
+        <v>480</v>
+      </c>
+      <c r="F56" s="412"/>
       <c r="G56" s="304" t="s">
         <v>480</v>
       </c>
-      <c r="H56" s="427" t="s">
+      <c r="H56" s="426" t="s">
         <v>734</v>
       </c>
       <c r="I56" s="252" t="s">
@@ -19698,183 +19823,199 @@
       <c r="J56" s="306" t="s">
         <v>806</v>
       </c>
-      <c r="K56" s="403"/>
+      <c r="K56" s="401"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="311"/>
       <c r="B57" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="441" t="s">
+      <c r="C57" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D57" s="398"/>
-      <c r="E57" s="414"/>
-      <c r="F57" s="414"/>
-      <c r="G57" s="428" t="s">
+      <c r="E57" s="412" t="s">
         <v>485</v>
       </c>
-      <c r="H57" s="427" t="s">
+      <c r="F57" s="412"/>
+      <c r="G57" s="427" t="s">
+        <v>485</v>
+      </c>
+      <c r="H57" s="426" t="s">
         <v>739</v>
       </c>
       <c r="I57" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K57" s="403"/>
+      <c r="K57" s="401"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="311"/>
       <c r="B58" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="441" t="s">
+      <c r="C58" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D58" s="398"/>
-      <c r="E58" s="414"/>
-      <c r="F58" s="414"/>
-      <c r="G58" s="428" t="s">
+      <c r="E58" s="412" t="s">
         <v>486</v>
       </c>
-      <c r="H58" s="427" t="s">
+      <c r="F58" s="412"/>
+      <c r="G58" s="427" t="s">
+        <v>486</v>
+      </c>
+      <c r="H58" s="426" t="s">
         <v>740</v>
       </c>
       <c r="I58" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K58" s="403"/>
+      <c r="K58" s="401"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="311"/>
       <c r="B59" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="441" t="s">
+      <c r="C59" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D59" s="398"/>
-      <c r="E59" s="414"/>
-      <c r="F59" s="414"/>
-      <c r="G59" s="428" t="s">
+      <c r="E59" s="412" t="s">
         <v>487</v>
       </c>
-      <c r="H59" s="427" t="s">
+      <c r="F59" s="412"/>
+      <c r="G59" s="427" t="s">
+        <v>487</v>
+      </c>
+      <c r="H59" s="426" t="s">
         <v>741</v>
       </c>
       <c r="I59" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K59" s="403"/>
+      <c r="K59" s="401"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="311"/>
       <c r="B60" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="441" t="s">
+      <c r="C60" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D60" s="398"/>
-      <c r="E60" s="414"/>
-      <c r="F60" s="414"/>
-      <c r="G60" s="428" t="s">
+      <c r="E60" s="412" t="s">
         <v>489</v>
       </c>
-      <c r="H60" s="427" t="s">
+      <c r="F60" s="412"/>
+      <c r="G60" s="427" t="s">
+        <v>489</v>
+      </c>
+      <c r="H60" s="426" t="s">
         <v>742</v>
       </c>
       <c r="I60" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K60" s="403"/>
+      <c r="K60" s="401"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="311"/>
       <c r="B61" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="441" t="s">
+      <c r="C61" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D61" s="398"/>
-      <c r="E61" s="414"/>
-      <c r="F61" s="414"/>
-      <c r="G61" s="428" t="s">
+      <c r="E61" s="412" t="s">
         <v>490</v>
       </c>
-      <c r="H61" s="427" t="s">
+      <c r="F61" s="412"/>
+      <c r="G61" s="427" t="s">
+        <v>490</v>
+      </c>
+      <c r="H61" s="426" t="s">
         <v>743</v>
       </c>
       <c r="I61" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K61" s="403"/>
+      <c r="K61" s="401"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="311"/>
       <c r="B62" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="441" t="s">
+      <c r="C62" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D62" s="398"/>
-      <c r="E62" s="414"/>
-      <c r="F62" s="414"/>
-      <c r="G62" s="428" t="s">
+      <c r="E62" s="414" t="s">
+        <v>476</v>
+      </c>
+      <c r="F62" s="412"/>
+      <c r="G62" s="427" t="s">
         <v>694</v>
       </c>
-      <c r="H62" s="427" t="s">
+      <c r="H62" s="426" t="s">
         <v>759</v>
       </c>
       <c r="I62" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K62" s="403"/>
+      <c r="K62" s="401"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="311"/>
       <c r="B63" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="441" t="s">
+      <c r="C63" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D63" s="398"/>
-      <c r="E63" s="414"/>
-      <c r="F63" s="414"/>
-      <c r="G63" s="428" t="s">
+      <c r="E63" s="445" t="s">
+        <v>965</v>
+      </c>
+      <c r="F63" s="412"/>
+      <c r="G63" s="444" t="s">
         <v>495</v>
       </c>
-      <c r="H63" s="427" t="s">
+      <c r="H63" s="426" t="s">
         <v>758</v>
       </c>
       <c r="I63" s="252" t="s">
         <v>800</v>
       </c>
-      <c r="K63" s="403"/>
+      <c r="K63" s="401"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="311"/>
       <c r="B64" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="441" t="s">
+      <c r="C64" s="440" t="s">
         <v>925</v>
       </c>
       <c r="D64" s="398"/>
-      <c r="E64" s="414"/>
-      <c r="F64" s="414"/>
-      <c r="G64" s="428" t="s">
+      <c r="E64" s="412" t="s">
+        <v>476</v>
+      </c>
+      <c r="F64" s="412"/>
+      <c r="G64" s="427" t="s">
         <v>718</v>
       </c>
-      <c r="H64" s="427" t="s">
+      <c r="H64" s="426" t="s">
         <v>727</v>
       </c>
       <c r="I64" s="252" t="s">
         <v>812</v>
       </c>
-      <c r="K64" s="403"/>
+      <c r="K64" s="401"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="311"/>
@@ -19883,18 +20024,18 @@
       </c>
       <c r="C65" s="390"/>
       <c r="D65" s="398"/>
-      <c r="E65" s="414"/>
-      <c r="F65" s="414"/>
-      <c r="G65" s="428" t="s">
+      <c r="E65" s="412"/>
+      <c r="F65" s="412"/>
+      <c r="G65" s="427" t="s">
         <v>720</v>
       </c>
-      <c r="H65" s="427" t="s">
+      <c r="H65" s="426" t="s">
         <v>760</v>
       </c>
       <c r="I65" s="252" t="s">
         <v>808</v>
       </c>
-      <c r="K65" s="404"/>
+      <c r="K65" s="402"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="311"/>
@@ -19907,12 +20048,16 @@
       <c r="D66" s="391" t="s">
         <v>761</v>
       </c>
-      <c r="E66" s="414"/>
-      <c r="F66" s="414"/>
-      <c r="G66" s="428" t="s">
+      <c r="E66" s="390" t="s">
         <v>600</v>
       </c>
-      <c r="H66" s="427" t="s">
+      <c r="F66" s="391" t="s">
+        <v>761</v>
+      </c>
+      <c r="G66" s="427" t="s">
+        <v>600</v>
+      </c>
+      <c r="H66" s="426" t="s">
         <v>761</v>
       </c>
       <c r="I66" s="252" t="s">
@@ -19933,12 +20078,16 @@
       <c r="D67" s="391" t="s">
         <v>750</v>
       </c>
-      <c r="E67" s="414"/>
-      <c r="F67" s="414"/>
-      <c r="G67" s="428" t="s">
+      <c r="E67" s="390" t="s">
+        <v>926</v>
+      </c>
+      <c r="F67" s="391" t="s">
+        <v>750</v>
+      </c>
+      <c r="G67" s="427" t="s">
         <v>747</v>
       </c>
-      <c r="H67" s="427" t="s">
+      <c r="H67" s="426" t="s">
         <v>750</v>
       </c>
       <c r="I67" s="252" t="s">
@@ -19959,12 +20108,16 @@
       <c r="D68" s="391" t="s">
         <v>749</v>
       </c>
-      <c r="E68" s="414"/>
-      <c r="F68" s="414"/>
-      <c r="G68" s="428" t="s">
+      <c r="E68" s="390" t="s">
+        <v>927</v>
+      </c>
+      <c r="F68" s="391" t="s">
+        <v>749</v>
+      </c>
+      <c r="G68" s="427" t="s">
         <v>748</v>
       </c>
-      <c r="H68" s="427" t="s">
+      <c r="H68" s="426" t="s">
         <v>749</v>
       </c>
       <c r="I68" s="252" t="s">
@@ -19985,12 +20138,16 @@
       <c r="D69" s="391" t="s">
         <v>811</v>
       </c>
-      <c r="E69" s="414"/>
-      <c r="F69" s="414"/>
-      <c r="G69" s="428" t="s">
+      <c r="E69" s="390" t="s">
         <v>545</v>
       </c>
-      <c r="H69" s="427" t="s">
+      <c r="F69" s="391" t="s">
+        <v>811</v>
+      </c>
+      <c r="G69" s="427" t="s">
+        <v>545</v>
+      </c>
+      <c r="H69" s="426" t="s">
         <v>811</v>
       </c>
       <c r="I69" s="252" t="s">
@@ -20008,12 +20165,16 @@
       <c r="D70" s="391" t="s">
         <v>811</v>
       </c>
-      <c r="E70" s="414"/>
-      <c r="F70" s="414"/>
-      <c r="G70" s="428" t="s">
+      <c r="E70" s="390" t="s">
         <v>545</v>
       </c>
-      <c r="H70" s="427" t="s">
+      <c r="F70" s="391" t="s">
+        <v>811</v>
+      </c>
+      <c r="G70" s="427" t="s">
+        <v>545</v>
+      </c>
+      <c r="H70" s="426" t="s">
         <v>811</v>
       </c>
       <c r="I70" s="252" t="s">
@@ -20031,12 +20192,16 @@
       <c r="D71" s="391" t="s">
         <v>811</v>
       </c>
-      <c r="E71" s="414"/>
-      <c r="F71" s="414"/>
-      <c r="G71" s="428" t="s">
+      <c r="E71" s="390" t="s">
         <v>545</v>
       </c>
-      <c r="H71" s="427" t="s">
+      <c r="F71" s="391" t="s">
+        <v>811</v>
+      </c>
+      <c r="G71" s="427" t="s">
+        <v>545</v>
+      </c>
+      <c r="H71" s="426" t="s">
         <v>811</v>
       </c>
       <c r="I71" s="252" t="s">
@@ -20088,18 +20253,18 @@
       <c r="D73" s="398" t="s">
         <v>762</v>
       </c>
-      <c r="E73" s="414"/>
-      <c r="F73" s="414"/>
-      <c r="G73" s="428" t="s">
+      <c r="E73" s="412"/>
+      <c r="F73" s="412"/>
+      <c r="G73" s="427" t="s">
         <v>721</v>
       </c>
-      <c r="H73" s="427" t="s">
+      <c r="H73" s="426" t="s">
         <v>762</v>
       </c>
       <c r="I73" s="252" t="s">
         <v>808</v>
       </c>
-      <c r="K73" s="405" t="s">
+      <c r="K73" s="403" t="s">
         <v>929</v>
       </c>
     </row>
@@ -20112,18 +20277,18 @@
         <v>930</v>
       </c>
       <c r="D74" s="398"/>
-      <c r="E74" s="414"/>
-      <c r="F74" s="414"/>
+      <c r="E74" s="412"/>
+      <c r="F74" s="412"/>
       <c r="G74" s="255" t="s">
         <v>606</v>
       </c>
-      <c r="H74" s="427" t="s">
+      <c r="H74" s="426" t="s">
         <v>784</v>
       </c>
       <c r="J74" s="256" t="s">
         <v>912</v>
       </c>
-      <c r="K74" s="405" t="s">
+      <c r="K74" s="403" t="s">
         <v>931</v>
       </c>
     </row>
@@ -20132,24 +20297,24 @@
       <c r="B75" s="257" t="s">
         <v>905</v>
       </c>
-      <c r="C75" s="416" t="s">
+      <c r="C75" s="415" t="s">
         <v>563</v>
       </c>
       <c r="D75" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E75" s="414"/>
-      <c r="F75" s="414"/>
+      <c r="E75" s="412"/>
+      <c r="F75" s="412"/>
       <c r="G75" s="255" t="s">
         <v>563</v>
       </c>
-      <c r="H75" s="427" t="s">
+      <c r="H75" s="426" t="s">
         <v>763</v>
       </c>
       <c r="J75" s="256" t="s">
         <v>911</v>
       </c>
-      <c r="K75" s="407" t="s">
+      <c r="K75" s="405" t="s">
         <v>932</v>
       </c>
     </row>
@@ -20158,62 +20323,62 @@
       <c r="B76" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="413" t="s">
+      <c r="C76" s="411" t="s">
         <v>563</v>
       </c>
       <c r="D76" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E76" s="414"/>
-      <c r="F76" s="414"/>
-      <c r="G76" s="428" t="s">
+      <c r="E76" s="412"/>
+      <c r="F76" s="412"/>
+      <c r="G76" s="427" t="s">
         <v>563</v>
       </c>
-      <c r="H76" s="427" t="s">
+      <c r="H76" s="426" t="s">
         <v>763</v>
       </c>
       <c r="I76" s="252" t="s">
         <v>799</v>
       </c>
-      <c r="K76" s="408"/>
+      <c r="K76" s="406"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="311"/>
       <c r="B77" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="416" t="s">
+      <c r="C77" s="415" t="s">
         <v>563</v>
       </c>
       <c r="D77" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E77" s="414"/>
-      <c r="F77" s="414"/>
-      <c r="G77" s="428" t="s">
+      <c r="E77" s="412"/>
+      <c r="F77" s="412"/>
+      <c r="G77" s="427" t="s">
         <v>563</v>
       </c>
-      <c r="H77" s="427" t="s">
+      <c r="H77" s="426" t="s">
         <v>763</v>
       </c>
       <c r="I77" s="252" t="s">
         <v>799</v>
       </c>
-      <c r="K77" s="409"/>
+      <c r="K77" s="407"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="311"/>
       <c r="B78" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="417" t="s">
+      <c r="C78" s="416" t="s">
         <v>925</v>
       </c>
       <c r="D78" s="398"/>
-      <c r="E78" s="414"/>
-      <c r="F78" s="414"/>
+      <c r="E78" s="412"/>
+      <c r="F78" s="412"/>
       <c r="G78" s="255"/>
-      <c r="H78" s="427"/>
+      <c r="H78" s="426"/>
       <c r="J78" s="256" t="s">
         <v>753</v>
       </c>
@@ -20223,14 +20388,14 @@
       <c r="B79" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="413" t="s">
+      <c r="C79" s="411" t="s">
         <v>937</v>
       </c>
       <c r="D79" s="398" t="s">
         <v>938</v>
       </c>
-      <c r="E79" s="414"/>
-      <c r="F79" s="414"/>
+      <c r="E79" s="412"/>
+      <c r="F79" s="412"/>
       <c r="G79" s="303" t="s">
         <v>719</v>
       </c>
@@ -20243,7 +20408,7 @@
       <c r="J79" s="308" t="s">
         <v>915</v>
       </c>
-      <c r="K79" s="405" t="s">
+      <c r="K79" s="403" t="s">
         <v>934</v>
       </c>
     </row>
@@ -20252,14 +20417,14 @@
       <c r="B80" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="413" t="s">
+      <c r="C80" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D80" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E80" s="414"/>
-      <c r="F80" s="414"/>
+      <c r="E80" s="412"/>
+      <c r="F80" s="412"/>
       <c r="G80" s="303" t="s">
         <v>715</v>
       </c>
@@ -20284,8 +20449,8 @@
       <c r="D81" s="398" t="s">
         <v>758</v>
       </c>
-      <c r="E81" s="414"/>
-      <c r="F81" s="414"/>
+      <c r="E81" s="412"/>
+      <c r="F81" s="412"/>
       <c r="G81" s="303" t="s">
         <v>719</v>
       </c>
@@ -20304,14 +20469,14 @@
       <c r="B82" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="413" t="s">
+      <c r="C82" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D82" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E82" s="414"/>
-      <c r="F82" s="414"/>
+      <c r="E82" s="412"/>
+      <c r="F82" s="412"/>
       <c r="G82" s="303" t="s">
         <v>715</v>
       </c>
@@ -20336,12 +20501,12 @@
       <c r="D83" s="398" t="s">
         <v>713</v>
       </c>
-      <c r="E83" s="414"/>
-      <c r="F83" s="414"/>
-      <c r="G83" s="428" t="s">
+      <c r="E83" s="412"/>
+      <c r="F83" s="412"/>
+      <c r="G83" s="427" t="s">
         <v>716</v>
       </c>
-      <c r="H83" s="427" t="s">
+      <c r="H83" s="426" t="s">
         <v>713</v>
       </c>
       <c r="I83" s="252" t="s">
@@ -20359,12 +20524,12 @@
       <c r="D84" s="398" t="s">
         <v>713</v>
       </c>
-      <c r="E84" s="414"/>
-      <c r="F84" s="414"/>
-      <c r="G84" s="428" t="s">
+      <c r="E84" s="412"/>
+      <c r="F84" s="412"/>
+      <c r="G84" s="427" t="s">
         <v>465</v>
       </c>
-      <c r="H84" s="427" t="s">
+      <c r="H84" s="426" t="s">
         <v>764</v>
       </c>
       <c r="I84" s="252" t="s">
@@ -20382,12 +20547,12 @@
       <c r="D85" s="398" t="s">
         <v>714</v>
       </c>
-      <c r="E85" s="414"/>
-      <c r="F85" s="414"/>
-      <c r="G85" s="428" t="s">
+      <c r="E85" s="412"/>
+      <c r="F85" s="412"/>
+      <c r="G85" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H85" s="427" t="s">
+      <c r="H85" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I85" s="252" t="s">
@@ -20399,16 +20564,16 @@
       <c r="B86" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="435" t="s">
+      <c r="C86" s="434" t="s">
         <v>936</v>
       </c>
       <c r="D86" s="398"/>
-      <c r="E86" s="414"/>
-      <c r="F86" s="414"/>
-      <c r="G86" s="428" t="s">
+      <c r="E86" s="412"/>
+      <c r="F86" s="412"/>
+      <c r="G86" s="427" t="s">
         <v>674</v>
       </c>
-      <c r="H86" s="427" t="s">
+      <c r="H86" s="426" t="s">
         <v>765</v>
       </c>
       <c r="I86" s="252" t="s">
@@ -20420,18 +20585,18 @@
       <c r="B87" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="413" t="s">
+      <c r="C87" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D87" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E87" s="414"/>
-      <c r="F87" s="414"/>
-      <c r="G87" s="428" t="s">
+      <c r="E87" s="412"/>
+      <c r="F87" s="412"/>
+      <c r="G87" s="427" t="s">
         <v>719</v>
       </c>
-      <c r="H87" s="427" t="s">
+      <c r="H87" s="426" t="s">
         <v>756</v>
       </c>
       <c r="I87" s="252" t="s">
@@ -20443,18 +20608,18 @@
       <c r="B88" s="223" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="413" t="s">
+      <c r="C88" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D88" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E88" s="414"/>
-      <c r="F88" s="414"/>
-      <c r="G88" s="428" t="s">
+      <c r="E88" s="412"/>
+      <c r="F88" s="412"/>
+      <c r="G88" s="427" t="s">
         <v>715</v>
       </c>
-      <c r="H88" s="427" t="s">
+      <c r="H88" s="426" t="s">
         <v>726</v>
       </c>
       <c r="I88" s="252" t="s">
@@ -20466,18 +20631,18 @@
       <c r="B89" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="437" t="s">
+      <c r="C89" s="436" t="s">
         <v>715</v>
       </c>
       <c r="D89" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E89" s="414"/>
-      <c r="F89" s="414"/>
-      <c r="G89" s="428" t="s">
+      <c r="E89" s="412"/>
+      <c r="F89" s="412"/>
+      <c r="G89" s="427" t="s">
         <v>715</v>
       </c>
-      <c r="H89" s="427" t="s">
+      <c r="H89" s="426" t="s">
         <v>726</v>
       </c>
       <c r="I89" s="252" t="s">
@@ -20489,16 +20654,16 @@
       <c r="B90" s="224" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="436" t="s">
+      <c r="C90" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D90" s="398"/>
-      <c r="E90" s="414"/>
-      <c r="F90" s="414"/>
-      <c r="G90" s="428" t="s">
+      <c r="E90" s="412"/>
+      <c r="F90" s="412"/>
+      <c r="G90" s="427" t="s">
         <v>477</v>
       </c>
-      <c r="H90" s="427" t="s">
+      <c r="H90" s="426" t="s">
         <v>766</v>
       </c>
       <c r="I90" s="252" t="s">
@@ -20510,16 +20675,16 @@
       <c r="B91" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="436" t="s">
+      <c r="C91" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D91" s="398"/>
-      <c r="E91" s="414"/>
-      <c r="F91" s="414"/>
-      <c r="G91" s="428" t="s">
+      <c r="E91" s="412"/>
+      <c r="F91" s="412"/>
+      <c r="G91" s="427" t="s">
         <v>539</v>
       </c>
-      <c r="H91" s="427" t="s">
+      <c r="H91" s="426" t="s">
         <v>731</v>
       </c>
       <c r="I91" s="252" t="s">
@@ -20531,16 +20696,16 @@
       <c r="B92" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="436" t="s">
+      <c r="C92" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D92" s="398"/>
-      <c r="E92" s="414"/>
-      <c r="F92" s="414"/>
+      <c r="E92" s="412"/>
+      <c r="F92" s="412"/>
       <c r="G92" s="304" t="s">
         <v>639</v>
       </c>
-      <c r="H92" s="427" t="s">
+      <c r="H92" s="426" t="s">
         <v>640</v>
       </c>
       <c r="I92" s="252" t="s">
@@ -20555,16 +20720,16 @@
       <c r="B93" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="436" t="s">
+      <c r="C93" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D93" s="398"/>
-      <c r="E93" s="414"/>
-      <c r="F93" s="414"/>
-      <c r="G93" s="428" t="s">
+      <c r="E93" s="412"/>
+      <c r="F93" s="412"/>
+      <c r="G93" s="427" t="s">
         <v>478</v>
       </c>
-      <c r="H93" s="427" t="s">
+      <c r="H93" s="426" t="s">
         <v>732</v>
       </c>
       <c r="I93" s="252" t="s">
@@ -20576,16 +20741,16 @@
       <c r="B94" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="436" t="s">
+      <c r="C94" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D94" s="398"/>
-      <c r="E94" s="414"/>
-      <c r="F94" s="414"/>
-      <c r="G94" s="428" t="s">
+      <c r="E94" s="412"/>
+      <c r="F94" s="412"/>
+      <c r="G94" s="427" t="s">
         <v>479</v>
       </c>
-      <c r="H94" s="427" t="s">
+      <c r="H94" s="426" t="s">
         <v>733</v>
       </c>
       <c r="I94" s="252" t="s">
@@ -20597,16 +20762,16 @@
       <c r="B95" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="436" t="s">
+      <c r="C95" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D95" s="398"/>
-      <c r="E95" s="414"/>
-      <c r="F95" s="414"/>
-      <c r="G95" s="428" t="s">
+      <c r="E95" s="412"/>
+      <c r="F95" s="412"/>
+      <c r="G95" s="427" t="s">
         <v>480</v>
       </c>
-      <c r="H95" s="427" t="s">
+      <c r="H95" s="426" t="s">
         <v>734</v>
       </c>
       <c r="I95" s="252" t="s">
@@ -20618,16 +20783,16 @@
       <c r="B96" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="436" t="s">
+      <c r="C96" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D96" s="398"/>
-      <c r="E96" s="414"/>
-      <c r="F96" s="414"/>
-      <c r="G96" s="428" t="s">
+      <c r="E96" s="412"/>
+      <c r="F96" s="412"/>
+      <c r="G96" s="427" t="s">
         <v>481</v>
       </c>
-      <c r="H96" s="427" t="s">
+      <c r="H96" s="426" t="s">
         <v>735</v>
       </c>
       <c r="I96" s="252" t="s">
@@ -20639,16 +20804,16 @@
       <c r="B97" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="436" t="s">
+      <c r="C97" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D97" s="398"/>
-      <c r="E97" s="414"/>
-      <c r="F97" s="414"/>
-      <c r="G97" s="428" t="s">
+      <c r="E97" s="412"/>
+      <c r="F97" s="412"/>
+      <c r="G97" s="427" t="s">
         <v>482</v>
       </c>
-      <c r="H97" s="427" t="s">
+      <c r="H97" s="426" t="s">
         <v>737</v>
       </c>
       <c r="I97" s="252" t="s">
@@ -20660,16 +20825,16 @@
       <c r="B98" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="436" t="s">
+      <c r="C98" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D98" s="398"/>
-      <c r="E98" s="414"/>
-      <c r="F98" s="414"/>
-      <c r="G98" s="428" t="s">
+      <c r="E98" s="412"/>
+      <c r="F98" s="412"/>
+      <c r="G98" s="427" t="s">
         <v>483</v>
       </c>
-      <c r="H98" s="427" t="s">
+      <c r="H98" s="426" t="s">
         <v>738</v>
       </c>
       <c r="I98" s="252" t="s">
@@ -20681,16 +20846,16 @@
       <c r="B99" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="436" t="s">
+      <c r="C99" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D99" s="398"/>
-      <c r="E99" s="414"/>
-      <c r="F99" s="414"/>
-      <c r="G99" s="428" t="s">
+      <c r="E99" s="412"/>
+      <c r="F99" s="412"/>
+      <c r="G99" s="427" t="s">
         <v>480</v>
       </c>
-      <c r="H99" s="427" t="s">
+      <c r="H99" s="426" t="s">
         <v>734</v>
       </c>
       <c r="I99" s="252" t="s">
@@ -20702,16 +20867,16 @@
       <c r="B100" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="436" t="s">
+      <c r="C100" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D100" s="398"/>
-      <c r="E100" s="414"/>
-      <c r="F100" s="414"/>
-      <c r="G100" s="428" t="s">
+      <c r="E100" s="412"/>
+      <c r="F100" s="412"/>
+      <c r="G100" s="427" t="s">
         <v>485</v>
       </c>
-      <c r="H100" s="427" t="s">
+      <c r="H100" s="426" t="s">
         <v>739</v>
       </c>
       <c r="I100" s="252" t="s">
@@ -20723,16 +20888,16 @@
       <c r="B101" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="436" t="s">
+      <c r="C101" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D101" s="398"/>
-      <c r="E101" s="414"/>
-      <c r="F101" s="414"/>
-      <c r="G101" s="428" t="s">
+      <c r="E101" s="412"/>
+      <c r="F101" s="412"/>
+      <c r="G101" s="427" t="s">
         <v>486</v>
       </c>
-      <c r="H101" s="427" t="s">
+      <c r="H101" s="426" t="s">
         <v>740</v>
       </c>
       <c r="I101" s="252" t="s">
@@ -20744,16 +20909,16 @@
       <c r="B102" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="436" t="s">
+      <c r="C102" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D102" s="398"/>
-      <c r="E102" s="414"/>
-      <c r="F102" s="414"/>
-      <c r="G102" s="428" t="s">
+      <c r="E102" s="412"/>
+      <c r="F102" s="412"/>
+      <c r="G102" s="427" t="s">
         <v>487</v>
       </c>
-      <c r="H102" s="427" t="s">
+      <c r="H102" s="426" t="s">
         <v>741</v>
       </c>
       <c r="I102" s="252" t="s">
@@ -20765,16 +20930,16 @@
       <c r="B103" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="436" t="s">
+      <c r="C103" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D103" s="398"/>
-      <c r="E103" s="414"/>
-      <c r="F103" s="414"/>
-      <c r="G103" s="428" t="s">
+      <c r="E103" s="412"/>
+      <c r="F103" s="412"/>
+      <c r="G103" s="427" t="s">
         <v>488</v>
       </c>
-      <c r="H103" s="427" t="s">
+      <c r="H103" s="426" t="s">
         <v>736</v>
       </c>
       <c r="I103" s="252" t="s">
@@ -20786,16 +20951,16 @@
       <c r="B104" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C104" s="436" t="s">
+      <c r="C104" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D104" s="398"/>
-      <c r="E104" s="414"/>
-      <c r="F104" s="414"/>
-      <c r="G104" s="428" t="s">
+      <c r="E104" s="412"/>
+      <c r="F104" s="412"/>
+      <c r="G104" s="427" t="s">
         <v>489</v>
       </c>
-      <c r="H104" s="427" t="s">
+      <c r="H104" s="426" t="s">
         <v>742</v>
       </c>
       <c r="I104" s="252" t="s">
@@ -20807,16 +20972,16 @@
       <c r="B105" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="436" t="s">
+      <c r="C105" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D105" s="398"/>
-      <c r="E105" s="414"/>
-      <c r="F105" s="414"/>
-      <c r="G105" s="428" t="s">
+      <c r="E105" s="412"/>
+      <c r="F105" s="412"/>
+      <c r="G105" s="427" t="s">
         <v>490</v>
       </c>
-      <c r="H105" s="427" t="s">
+      <c r="H105" s="426" t="s">
         <v>743</v>
       </c>
       <c r="I105" s="252" t="s">
@@ -20828,16 +20993,16 @@
       <c r="B106" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="C106" s="436" t="s">
+      <c r="C106" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D106" s="398"/>
-      <c r="E106" s="414"/>
-      <c r="F106" s="414"/>
-      <c r="G106" s="428" t="s">
+      <c r="E106" s="412"/>
+      <c r="F106" s="412"/>
+      <c r="G106" s="427" t="s">
         <v>718</v>
       </c>
-      <c r="H106" s="427" t="s">
+      <c r="H106" s="426" t="s">
         <v>727</v>
       </c>
       <c r="I106" s="252" t="s">
@@ -20855,12 +21020,12 @@
       <c r="D107" s="391" t="s">
         <v>767</v>
       </c>
-      <c r="E107" s="414"/>
-      <c r="F107" s="414"/>
-      <c r="G107" s="428" t="s">
+      <c r="E107" s="412"/>
+      <c r="F107" s="412"/>
+      <c r="G107" s="427" t="s">
         <v>559</v>
       </c>
-      <c r="H107" s="427" t="s">
+      <c r="H107" s="426" t="s">
         <v>767</v>
       </c>
       <c r="I107" s="252" t="s">
@@ -20878,12 +21043,12 @@
       <c r="D108" s="391" t="s">
         <v>768</v>
       </c>
-      <c r="E108" s="414"/>
-      <c r="F108" s="414"/>
-      <c r="G108" s="428" t="s">
+      <c r="E108" s="412"/>
+      <c r="F108" s="412"/>
+      <c r="G108" s="427" t="s">
         <v>493</v>
       </c>
-      <c r="H108" s="427" t="s">
+      <c r="H108" s="426" t="s">
         <v>768</v>
       </c>
       <c r="I108" s="252" t="s">
@@ -20895,18 +21060,18 @@
       <c r="B109" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="413" t="s">
+      <c r="C109" s="411" t="s">
         <v>496</v>
       </c>
       <c r="D109" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E109" s="414"/>
-      <c r="F109" s="414"/>
+      <c r="E109" s="412"/>
+      <c r="F109" s="412"/>
       <c r="G109" s="304" t="s">
         <v>496</v>
       </c>
-      <c r="H109" s="427" t="s">
+      <c r="H109" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I109" s="252" t="s">
@@ -20921,18 +21086,18 @@
       <c r="B110" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C110" s="413" t="s">
+      <c r="C110" s="411" t="s">
         <v>496</v>
       </c>
       <c r="D110" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E110" s="414"/>
-      <c r="F110" s="414"/>
+      <c r="E110" s="412"/>
+      <c r="F110" s="412"/>
       <c r="G110" s="304" t="s">
         <v>496</v>
       </c>
-      <c r="H110" s="427" t="s">
+      <c r="H110" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I110" s="252" t="s">
@@ -20947,18 +21112,18 @@
       <c r="B111" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="413" t="s">
+      <c r="C111" s="411" t="s">
         <v>496</v>
       </c>
       <c r="D111" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E111" s="414"/>
-      <c r="F111" s="414"/>
+      <c r="E111" s="412"/>
+      <c r="F111" s="412"/>
       <c r="G111" s="304" t="s">
         <v>496</v>
       </c>
-      <c r="H111" s="427" t="s">
+      <c r="H111" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I111" s="252" t="s">
@@ -20979,12 +21144,12 @@
       <c r="D112" s="391" t="s">
         <v>770</v>
       </c>
-      <c r="E112" s="414"/>
-      <c r="F112" s="414"/>
-      <c r="G112" s="428" t="s">
+      <c r="E112" s="412"/>
+      <c r="F112" s="412"/>
+      <c r="G112" s="427" t="s">
         <v>722</v>
       </c>
-      <c r="H112" s="427" t="s">
+      <c r="H112" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I112" s="252" t="s">
@@ -21002,12 +21167,12 @@
       <c r="D113" s="391" t="s">
         <v>771</v>
       </c>
-      <c r="E113" s="414"/>
-      <c r="F113" s="414"/>
-      <c r="G113" s="428" t="s">
+      <c r="E113" s="412"/>
+      <c r="F113" s="412"/>
+      <c r="G113" s="427" t="s">
         <v>502</v>
       </c>
-      <c r="H113" s="427" t="s">
+      <c r="H113" s="426" t="s">
         <v>771</v>
       </c>
       <c r="I113" s="252" t="s">
@@ -21025,12 +21190,12 @@
       <c r="D114" s="391" t="s">
         <v>772</v>
       </c>
-      <c r="E114" s="414"/>
-      <c r="F114" s="414"/>
-      <c r="G114" s="428" t="s">
+      <c r="E114" s="412"/>
+      <c r="F114" s="412"/>
+      <c r="G114" s="427" t="s">
         <v>505</v>
       </c>
-      <c r="H114" s="427" t="s">
+      <c r="H114" s="426" t="s">
         <v>772</v>
       </c>
       <c r="I114" s="252" t="s">
@@ -21048,12 +21213,12 @@
       <c r="D115" s="391" t="s">
         <v>773</v>
       </c>
-      <c r="E115" s="414"/>
-      <c r="F115" s="414"/>
-      <c r="G115" s="428" t="s">
+      <c r="E115" s="412"/>
+      <c r="F115" s="412"/>
+      <c r="G115" s="427" t="s">
         <v>568</v>
       </c>
-      <c r="H115" s="427" t="s">
+      <c r="H115" s="426" t="s">
         <v>773</v>
       </c>
       <c r="I115" s="252" t="s">
@@ -21069,10 +21234,10 @@
         <v>605</v>
       </c>
       <c r="D116" s="398"/>
-      <c r="E116" s="414"/>
-      <c r="F116" s="414"/>
+      <c r="E116" s="412"/>
+      <c r="F116" s="412"/>
       <c r="G116" s="255"/>
-      <c r="H116" s="427"/>
+      <c r="H116" s="426"/>
       <c r="J116" s="256" t="s">
         <v>753</v>
       </c>
@@ -21086,10 +21251,10 @@
         <v>605</v>
       </c>
       <c r="D117" s="398"/>
-      <c r="E117" s="414"/>
-      <c r="F117" s="414"/>
+      <c r="E117" s="412"/>
+      <c r="F117" s="412"/>
       <c r="G117" s="255"/>
-      <c r="H117" s="427"/>
+      <c r="H117" s="426"/>
       <c r="J117" s="256" t="s">
         <v>753</v>
       </c>
@@ -21103,10 +21268,10 @@
         <v>605</v>
       </c>
       <c r="D118" s="398"/>
-      <c r="E118" s="414"/>
-      <c r="F118" s="414"/>
+      <c r="E118" s="412"/>
+      <c r="F118" s="412"/>
       <c r="G118" s="255"/>
-      <c r="H118" s="427"/>
+      <c r="H118" s="426"/>
       <c r="J118" s="256" t="s">
         <v>753</v>
       </c>
@@ -21122,12 +21287,12 @@
       <c r="D119" s="391" t="s">
         <v>771</v>
       </c>
-      <c r="E119" s="414"/>
-      <c r="F119" s="414"/>
+      <c r="E119" s="412"/>
+      <c r="F119" s="412"/>
       <c r="G119" s="255" t="s">
         <v>502</v>
       </c>
-      <c r="H119" s="427" t="s">
+      <c r="H119" s="426" t="s">
         <v>771</v>
       </c>
       <c r="I119" s="252" t="s">
@@ -21142,18 +21307,18 @@
       <c r="B120" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="C120" s="416" t="s">
+      <c r="C120" s="415" t="s">
         <v>722</v>
       </c>
       <c r="D120" s="398" t="s">
         <v>770</v>
       </c>
-      <c r="E120" s="414"/>
-      <c r="F120" s="414"/>
+      <c r="E120" s="412"/>
+      <c r="F120" s="412"/>
       <c r="G120" s="255" t="s">
         <v>722</v>
       </c>
-      <c r="H120" s="427" t="s">
+      <c r="H120" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I120" s="252" t="s">
@@ -21174,12 +21339,12 @@
       <c r="D121" s="398" t="s">
         <v>940</v>
       </c>
-      <c r="E121" s="414"/>
-      <c r="F121" s="414"/>
+      <c r="E121" s="412"/>
+      <c r="F121" s="412"/>
       <c r="G121" s="255" t="s">
         <v>568</v>
       </c>
-      <c r="H121" s="427" t="s">
+      <c r="H121" s="426" t="s">
         <v>773</v>
       </c>
       <c r="I121" s="252" t="s">
@@ -21200,12 +21365,12 @@
       <c r="D122" s="391" t="s">
         <v>903</v>
       </c>
-      <c r="E122" s="414"/>
-      <c r="F122" s="414"/>
-      <c r="G122" s="428" t="s">
+      <c r="E122" s="412"/>
+      <c r="F122" s="412"/>
+      <c r="G122" s="427" t="s">
         <v>902</v>
       </c>
-      <c r="H122" s="427" t="s">
+      <c r="H122" s="426" t="s">
         <v>903</v>
       </c>
       <c r="I122" s="252" t="s">
@@ -21255,12 +21420,12 @@
         <v>599</v>
       </c>
       <c r="D124" s="398"/>
-      <c r="E124" s="414"/>
-      <c r="F124" s="414"/>
-      <c r="G124" s="428" t="s">
+      <c r="E124" s="412"/>
+      <c r="F124" s="412"/>
+      <c r="G124" s="427" t="s">
         <v>721</v>
       </c>
-      <c r="H124" s="427" t="s">
+      <c r="H124" s="426" t="s">
         <v>762</v>
       </c>
       <c r="I124" s="252" t="s">
@@ -21276,12 +21441,12 @@
         <v>930</v>
       </c>
       <c r="D125" s="398"/>
-      <c r="E125" s="414"/>
-      <c r="F125" s="414"/>
+      <c r="E125" s="412"/>
+      <c r="F125" s="412"/>
       <c r="G125" s="255" t="s">
         <v>606</v>
       </c>
-      <c r="H125" s="427" t="s">
+      <c r="H125" s="426" t="s">
         <v>784</v>
       </c>
       <c r="J125" s="256" t="s">
@@ -21293,18 +21458,18 @@
       <c r="B126" s="257" t="s">
         <v>905</v>
       </c>
-      <c r="C126" s="416" t="s">
+      <c r="C126" s="415" t="s">
         <v>563</v>
       </c>
       <c r="D126" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E126" s="414"/>
-      <c r="F126" s="414"/>
+      <c r="E126" s="412"/>
+      <c r="F126" s="412"/>
       <c r="G126" s="255" t="s">
         <v>563</v>
       </c>
-      <c r="H126" s="427" t="s">
+      <c r="H126" s="426" t="s">
         <v>763</v>
       </c>
       <c r="J126" s="256" t="s">
@@ -21316,18 +21481,18 @@
       <c r="B127" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="C127" s="413" t="s">
+      <c r="C127" s="411" t="s">
         <v>563</v>
       </c>
       <c r="D127" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E127" s="414"/>
-      <c r="F127" s="414"/>
+      <c r="E127" s="412"/>
+      <c r="F127" s="412"/>
       <c r="G127" s="255" t="s">
         <v>563</v>
       </c>
-      <c r="H127" s="427" t="s">
+      <c r="H127" s="426" t="s">
         <v>763</v>
       </c>
       <c r="I127" s="252" t="s">
@@ -21342,18 +21507,18 @@
       <c r="B128" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="C128" s="416" t="s">
+      <c r="C128" s="415" t="s">
         <v>563</v>
       </c>
       <c r="D128" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E128" s="414"/>
-      <c r="F128" s="414"/>
-      <c r="G128" s="428" t="s">
+      <c r="E128" s="412"/>
+      <c r="F128" s="412"/>
+      <c r="G128" s="427" t="s">
         <v>563</v>
       </c>
-      <c r="H128" s="427" t="s">
+      <c r="H128" s="426" t="s">
         <v>763</v>
       </c>
       <c r="I128" s="252" t="s">
@@ -21365,14 +21530,14 @@
       <c r="B129" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="417" t="s">
+      <c r="C129" s="416" t="s">
         <v>925</v>
       </c>
       <c r="D129" s="398"/>
-      <c r="E129" s="414"/>
-      <c r="F129" s="414"/>
+      <c r="E129" s="412"/>
+      <c r="F129" s="412"/>
       <c r="G129" s="255"/>
-      <c r="H129" s="427"/>
+      <c r="H129" s="426"/>
       <c r="J129" s="256" t="s">
         <v>816</v>
       </c>
@@ -21382,14 +21547,14 @@
       <c r="B130" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="C130" s="413" t="s">
+      <c r="C130" s="411" t="s">
         <v>937</v>
       </c>
       <c r="D130" s="398" t="s">
         <v>938</v>
       </c>
-      <c r="E130" s="414"/>
-      <c r="F130" s="414"/>
+      <c r="E130" s="412"/>
+      <c r="F130" s="412"/>
       <c r="G130" s="303" t="s">
         <v>719</v>
       </c>
@@ -21408,14 +21573,14 @@
       <c r="B131" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="C131" s="413" t="s">
+      <c r="C131" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D131" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E131" s="414"/>
-      <c r="F131" s="414"/>
+      <c r="E131" s="412"/>
+      <c r="F131" s="412"/>
       <c r="G131" s="303" t="s">
         <v>715</v>
       </c>
@@ -21440,8 +21605,8 @@
       <c r="D132" s="398" t="s">
         <v>758</v>
       </c>
-      <c r="E132" s="414"/>
-      <c r="F132" s="414"/>
+      <c r="E132" s="412"/>
+      <c r="F132" s="412"/>
       <c r="G132" s="303" t="s">
         <v>719</v>
       </c>
@@ -21460,12 +21625,12 @@
       <c r="B133" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="413" t="s">
+      <c r="C133" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D133" s="398"/>
-      <c r="E133" s="414"/>
-      <c r="F133" s="414"/>
+      <c r="E133" s="412"/>
+      <c r="F133" s="412"/>
       <c r="G133" s="303" t="s">
         <v>715</v>
       </c>
@@ -21490,12 +21655,12 @@
       <c r="D134" s="398" t="s">
         <v>713</v>
       </c>
-      <c r="E134" s="414"/>
-      <c r="F134" s="414"/>
-      <c r="G134" s="428" t="s">
+      <c r="E134" s="412"/>
+      <c r="F134" s="412"/>
+      <c r="G134" s="427" t="s">
         <v>716</v>
       </c>
-      <c r="H134" s="427" t="s">
+      <c r="H134" s="426" t="s">
         <v>713</v>
       </c>
       <c r="I134" s="252" t="s">
@@ -21513,12 +21678,12 @@
       <c r="D135" s="398" t="s">
         <v>713</v>
       </c>
-      <c r="E135" s="414"/>
-      <c r="F135" s="414"/>
-      <c r="G135" s="428" t="s">
+      <c r="E135" s="412"/>
+      <c r="F135" s="412"/>
+      <c r="G135" s="427" t="s">
         <v>465</v>
       </c>
-      <c r="H135" s="427" t="s">
+      <c r="H135" s="426" t="s">
         <v>764</v>
       </c>
       <c r="I135" s="252" t="s">
@@ -21533,15 +21698,15 @@
       <c r="C136" s="390" t="s">
         <v>605</v>
       </c>
-      <c r="D136" s="434" t="s">
+      <c r="D136" s="433" t="s">
         <v>714</v>
       </c>
-      <c r="E136" s="414"/>
-      <c r="F136" s="414"/>
-      <c r="G136" s="428" t="s">
+      <c r="E136" s="412"/>
+      <c r="F136" s="412"/>
+      <c r="G136" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H136" s="427" t="s">
+      <c r="H136" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I136" s="252" t="s">
@@ -21559,12 +21724,12 @@
       <c r="D137" s="398" t="s">
         <v>941</v>
       </c>
-      <c r="E137" s="414"/>
-      <c r="F137" s="414"/>
-      <c r="G137" s="428" t="s">
+      <c r="E137" s="412"/>
+      <c r="F137" s="412"/>
+      <c r="G137" s="427" t="s">
         <v>512</v>
       </c>
-      <c r="H137" s="427" t="s">
+      <c r="H137" s="426" t="s">
         <v>775</v>
       </c>
       <c r="I137" s="252" t="s">
@@ -21580,12 +21745,12 @@
         <v>514</v>
       </c>
       <c r="D138" s="398"/>
-      <c r="E138" s="414"/>
-      <c r="F138" s="414"/>
-      <c r="G138" s="428" t="s">
+      <c r="E138" s="412"/>
+      <c r="F138" s="412"/>
+      <c r="G138" s="427" t="s">
         <v>723</v>
       </c>
-      <c r="H138" s="427" t="s">
+      <c r="H138" s="426" t="s">
         <v>776</v>
       </c>
       <c r="I138" s="252" t="s">
@@ -21601,12 +21766,12 @@
         <v>514</v>
       </c>
       <c r="D139" s="398"/>
-      <c r="E139" s="414"/>
-      <c r="F139" s="414"/>
-      <c r="G139" s="428" t="s">
+      <c r="E139" s="412"/>
+      <c r="F139" s="412"/>
+      <c r="G139" s="427" t="s">
         <v>723</v>
       </c>
-      <c r="H139" s="427" t="s">
+      <c r="H139" s="426" t="s">
         <v>776</v>
       </c>
       <c r="I139" s="252" t="s">
@@ -21618,16 +21783,16 @@
       <c r="B140" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="436" t="s">
+      <c r="C140" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D140" s="398"/>
-      <c r="E140" s="414"/>
-      <c r="F140" s="414"/>
-      <c r="G140" s="428" t="s">
+      <c r="E140" s="412"/>
+      <c r="F140" s="412"/>
+      <c r="G140" s="427" t="s">
         <v>477</v>
       </c>
-      <c r="H140" s="427" t="s">
+      <c r="H140" s="426" t="s">
         <v>766</v>
       </c>
       <c r="I140" s="252" t="s">
@@ -21639,16 +21804,16 @@
       <c r="B141" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="C141" s="436" t="s">
+      <c r="C141" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D141" s="398"/>
-      <c r="E141" s="414"/>
-      <c r="F141" s="414"/>
-      <c r="G141" s="428" t="s">
+      <c r="E141" s="412"/>
+      <c r="F141" s="412"/>
+      <c r="G141" s="427" t="s">
         <v>516</v>
       </c>
-      <c r="H141" s="427" t="s">
+      <c r="H141" s="426" t="s">
         <v>730</v>
       </c>
       <c r="I141" s="252" t="s">
@@ -21660,14 +21825,14 @@
       <c r="B142" s="236" t="s">
         <v>452</v>
       </c>
-      <c r="C142" s="436" t="s">
+      <c r="C142" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D142" s="398"/>
-      <c r="E142" s="414"/>
-      <c r="F142" s="414"/>
+      <c r="E142" s="412"/>
+      <c r="F142" s="412"/>
       <c r="G142" s="255"/>
-      <c r="H142" s="427" t="s">
+      <c r="H142" s="426" t="s">
         <v>777</v>
       </c>
       <c r="I142" s="252" t="s">
@@ -21682,16 +21847,16 @@
       <c r="B143" s="236" t="s">
         <v>453</v>
       </c>
-      <c r="C143" s="436" t="s">
+      <c r="C143" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D143" s="398"/>
-      <c r="E143" s="414"/>
-      <c r="F143" s="414"/>
-      <c r="G143" s="428" t="s">
+      <c r="E143" s="412"/>
+      <c r="F143" s="412"/>
+      <c r="G143" s="427" t="s">
         <v>675</v>
       </c>
-      <c r="H143" s="427" t="s">
+      <c r="H143" s="426" t="s">
         <v>778</v>
       </c>
       <c r="I143" s="252" t="s">
@@ -21703,16 +21868,16 @@
       <c r="B144" s="236" t="s">
         <v>454</v>
       </c>
-      <c r="C144" s="436" t="s">
+      <c r="C144" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D144" s="398"/>
-      <c r="E144" s="414"/>
-      <c r="F144" s="414"/>
-      <c r="G144" s="428" t="s">
+      <c r="E144" s="412"/>
+      <c r="F144" s="412"/>
+      <c r="G144" s="427" t="s">
         <v>677</v>
       </c>
-      <c r="H144" s="427" t="s">
+      <c r="H144" s="426" t="s">
         <v>779</v>
       </c>
       <c r="I144" s="252" t="s">
@@ -21724,16 +21889,16 @@
       <c r="B145" s="236" t="s">
         <v>455</v>
       </c>
-      <c r="C145" s="436" t="s">
+      <c r="C145" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D145" s="398"/>
-      <c r="E145" s="414"/>
-      <c r="F145" s="414"/>
-      <c r="G145" s="428" t="s">
+      <c r="E145" s="412"/>
+      <c r="F145" s="412"/>
+      <c r="G145" s="427" t="s">
         <v>518</v>
       </c>
-      <c r="H145" s="427" t="s">
+      <c r="H145" s="426" t="s">
         <v>780</v>
       </c>
       <c r="I145" s="252" t="s">
@@ -21745,16 +21910,16 @@
       <c r="B146" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="C146" s="436" t="s">
+      <c r="C146" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D146" s="398"/>
-      <c r="E146" s="414"/>
-      <c r="F146" s="414"/>
-      <c r="G146" s="428" t="s">
+      <c r="E146" s="412"/>
+      <c r="F146" s="412"/>
+      <c r="G146" s="427" t="s">
         <v>718</v>
       </c>
-      <c r="H146" s="427" t="s">
+      <c r="H146" s="426" t="s">
         <v>727</v>
       </c>
       <c r="I146" s="252" t="s">
@@ -21766,16 +21931,16 @@
       <c r="B147" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="C147" s="413" t="s">
+      <c r="C147" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D147" s="398"/>
-      <c r="E147" s="414"/>
-      <c r="F147" s="414"/>
-      <c r="G147" s="428" t="s">
+      <c r="E147" s="412"/>
+      <c r="F147" s="412"/>
+      <c r="G147" s="427" t="s">
         <v>715</v>
       </c>
-      <c r="H147" s="427" t="s">
+      <c r="H147" s="426" t="s">
         <v>726</v>
       </c>
       <c r="I147" s="252" t="s">
@@ -21787,16 +21952,16 @@
       <c r="B148" s="236" t="s">
         <v>456</v>
       </c>
-      <c r="C148" s="413" t="s">
+      <c r="C148" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D148" s="398"/>
-      <c r="E148" s="414"/>
-      <c r="F148" s="414"/>
-      <c r="G148" s="428" t="s">
+      <c r="E148" s="412"/>
+      <c r="F148" s="412"/>
+      <c r="G148" s="427" t="s">
         <v>715</v>
       </c>
-      <c r="H148" s="427" t="s">
+      <c r="H148" s="426" t="s">
         <v>726</v>
       </c>
       <c r="I148" s="252" t="s">
@@ -21814,12 +21979,12 @@
       <c r="D149" s="398" t="s">
         <v>776</v>
       </c>
-      <c r="E149" s="414"/>
-      <c r="F149" s="414"/>
-      <c r="G149" s="428" t="s">
+      <c r="E149" s="412"/>
+      <c r="F149" s="412"/>
+      <c r="G149" s="427" t="s">
         <v>723</v>
       </c>
-      <c r="H149" s="427" t="s">
+      <c r="H149" s="426" t="s">
         <v>776</v>
       </c>
       <c r="I149" s="252" t="s">
@@ -21837,12 +22002,12 @@
       <c r="D150" s="398" t="s">
         <v>889</v>
       </c>
-      <c r="E150" s="414"/>
-      <c r="F150" s="414"/>
+      <c r="E150" s="412"/>
+      <c r="F150" s="412"/>
       <c r="G150" s="255" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="427" t="s">
+      <c r="H150" s="426" t="s">
         <v>889</v>
       </c>
       <c r="I150" s="252" t="s">
@@ -21857,16 +22022,16 @@
       <c r="B151" s="238" t="s">
         <v>131</v>
       </c>
-      <c r="C151" s="430" t="s">
+      <c r="C151" s="429" t="s">
         <v>942</v>
       </c>
-      <c r="D151" s="443" t="s">
+      <c r="D151" s="442" t="s">
         <v>889</v>
       </c>
-      <c r="E151" s="414"/>
-      <c r="F151" s="414"/>
+      <c r="E151" s="412"/>
+      <c r="F151" s="412"/>
       <c r="G151" s="255"/>
-      <c r="H151" s="427"/>
+      <c r="H151" s="426"/>
       <c r="J151" s="256" t="s">
         <v>818</v>
       </c>
@@ -21882,12 +22047,12 @@
       <c r="D152" s="391" t="s">
         <v>781</v>
       </c>
-      <c r="E152" s="414"/>
-      <c r="F152" s="414"/>
-      <c r="G152" s="428" t="s">
+      <c r="E152" s="412"/>
+      <c r="F152" s="412"/>
+      <c r="G152" s="427" t="s">
         <v>724</v>
       </c>
-      <c r="H152" s="427" t="s">
+      <c r="H152" s="426" t="s">
         <v>781</v>
       </c>
       <c r="I152" s="252" t="s">
@@ -21899,18 +22064,18 @@
       <c r="B153" s="215" t="s">
         <v>133</v>
       </c>
-      <c r="C153" s="413" t="s">
+      <c r="C153" s="411" t="s">
         <v>496</v>
       </c>
-      <c r="D153" s="432" t="s">
+      <c r="D153" s="431" t="s">
         <v>769</v>
       </c>
-      <c r="E153" s="414"/>
-      <c r="F153" s="414"/>
-      <c r="G153" s="428" t="s">
+      <c r="E153" s="412"/>
+      <c r="F153" s="412"/>
+      <c r="G153" s="427" t="s">
         <v>496</v>
       </c>
-      <c r="H153" s="427" t="s">
+      <c r="H153" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I153" s="252" t="s">
@@ -21922,18 +22087,18 @@
       <c r="B154" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="C154" s="413" t="s">
+      <c r="C154" s="411" t="s">
         <v>559</v>
       </c>
-      <c r="D154" s="432" t="s">
+      <c r="D154" s="431" t="s">
         <v>767</v>
       </c>
-      <c r="E154" s="414"/>
-      <c r="F154" s="414"/>
-      <c r="G154" s="428" t="s">
+      <c r="E154" s="412"/>
+      <c r="F154" s="412"/>
+      <c r="G154" s="427" t="s">
         <v>559</v>
       </c>
-      <c r="H154" s="427" t="s">
+      <c r="H154" s="426" t="s">
         <v>767</v>
       </c>
       <c r="I154" s="252" t="s">
@@ -21945,18 +22110,18 @@
       <c r="B155" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="C155" s="431" t="s">
+      <c r="C155" s="430" t="s">
         <v>496</v>
       </c>
-      <c r="D155" s="433" t="s">
+      <c r="D155" s="432" t="s">
         <v>769</v>
       </c>
-      <c r="E155" s="414"/>
-      <c r="F155" s="414"/>
-      <c r="G155" s="428" t="s">
+      <c r="E155" s="412"/>
+      <c r="F155" s="412"/>
+      <c r="G155" s="427" t="s">
         <v>496</v>
       </c>
-      <c r="H155" s="427" t="s">
+      <c r="H155" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I155" s="252" t="s">
@@ -21968,16 +22133,16 @@
       <c r="B156" s="215" t="s">
         <v>135</v>
       </c>
-      <c r="C156" s="430" t="s">
+      <c r="C156" s="429" t="s">
         <v>946</v>
       </c>
       <c r="D156" s="398"/>
-      <c r="E156" s="414"/>
-      <c r="F156" s="414"/>
+      <c r="E156" s="412"/>
+      <c r="F156" s="412"/>
       <c r="G156" s="255" t="s">
         <v>721</v>
       </c>
-      <c r="H156" s="427" t="s">
+      <c r="H156" s="426" t="s">
         <v>762</v>
       </c>
       <c r="I156" s="252" t="s">
@@ -21986,7 +22151,7 @@
       <c r="J156" s="256" t="s">
         <v>809</v>
       </c>
-      <c r="K156" s="405" t="s">
+      <c r="K156" s="403" t="s">
         <v>943</v>
       </c>
     </row>
@@ -21995,22 +22160,22 @@
       <c r="B157" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="C157" s="430" t="s">
+      <c r="C157" s="429" t="s">
         <v>599</v>
       </c>
       <c r="D157" s="398"/>
-      <c r="E157" s="414"/>
-      <c r="F157" s="414"/>
-      <c r="G157" s="428" t="s">
+      <c r="E157" s="412"/>
+      <c r="F157" s="412"/>
+      <c r="G157" s="427" t="s">
         <v>556</v>
       </c>
-      <c r="H157" s="427" t="s">
+      <c r="H157" s="426" t="s">
         <v>782</v>
       </c>
       <c r="I157" s="252" t="s">
         <v>801</v>
       </c>
-      <c r="K157" s="405" t="s">
+      <c r="K157" s="403" t="s">
         <v>944</v>
       </c>
     </row>
@@ -22023,12 +22188,12 @@
         <v>945</v>
       </c>
       <c r="D158" s="398"/>
-      <c r="E158" s="414"/>
-      <c r="F158" s="414"/>
-      <c r="G158" s="428" t="s">
+      <c r="E158" s="412"/>
+      <c r="F158" s="412"/>
+      <c r="G158" s="427" t="s">
         <v>722</v>
       </c>
-      <c r="H158" s="427" t="s">
+      <c r="H158" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I158" s="252" t="s">
@@ -22040,18 +22205,18 @@
       <c r="B159" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="C159" s="416" t="s">
+      <c r="C159" s="415" t="s">
         <v>505</v>
       </c>
-      <c r="D159" s="432" t="s">
+      <c r="D159" s="431" t="s">
         <v>772</v>
       </c>
-      <c r="E159" s="414"/>
-      <c r="F159" s="414"/>
-      <c r="G159" s="428" t="s">
+      <c r="E159" s="412"/>
+      <c r="F159" s="412"/>
+      <c r="G159" s="427" t="s">
         <v>505</v>
       </c>
-      <c r="H159" s="427" t="s">
+      <c r="H159" s="426" t="s">
         <v>772</v>
       </c>
       <c r="I159" s="252" t="s">
@@ -22063,18 +22228,18 @@
       <c r="B160" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="C160" s="416" t="s">
+      <c r="C160" s="415" t="s">
         <v>502</v>
       </c>
-      <c r="D160" s="432" t="s">
+      <c r="D160" s="431" t="s">
         <v>771</v>
       </c>
-      <c r="E160" s="414"/>
-      <c r="F160" s="414"/>
-      <c r="G160" s="428" t="s">
+      <c r="E160" s="412"/>
+      <c r="F160" s="412"/>
+      <c r="G160" s="427" t="s">
         <v>502</v>
       </c>
-      <c r="H160" s="427" t="s">
+      <c r="H160" s="426" t="s">
         <v>771</v>
       </c>
       <c r="I160" s="252" t="s">
@@ -22089,13 +22254,13 @@
       <c r="C161" s="390" t="s">
         <v>605</v>
       </c>
-      <c r="D161" s="434" t="s">
+      <c r="D161" s="433" t="s">
         <v>714</v>
       </c>
-      <c r="E161" s="414"/>
-      <c r="F161" s="414"/>
+      <c r="E161" s="412"/>
+      <c r="F161" s="412"/>
       <c r="G161" s="255"/>
-      <c r="H161" s="427"/>
+      <c r="H161" s="426"/>
       <c r="J161" s="256" t="s">
         <v>753</v>
       </c>
@@ -22108,13 +22273,13 @@
       <c r="C162" s="390" t="s">
         <v>605</v>
       </c>
-      <c r="D162" s="434" t="s">
+      <c r="D162" s="433" t="s">
         <v>714</v>
       </c>
-      <c r="E162" s="414"/>
-      <c r="F162" s="414"/>
+      <c r="E162" s="412"/>
+      <c r="F162" s="412"/>
       <c r="G162" s="255"/>
-      <c r="H162" s="427"/>
+      <c r="H162" s="426"/>
       <c r="J162" s="256" t="s">
         <v>753</v>
       </c>
@@ -22124,16 +22289,16 @@
       <c r="B163" s="240" t="s">
         <v>98</v>
       </c>
-      <c r="C163" s="442" t="s">
+      <c r="C163" s="441" t="s">
         <v>605</v>
       </c>
-      <c r="D163" s="434" t="s">
+      <c r="D163" s="433" t="s">
         <v>714</v>
       </c>
-      <c r="E163" s="414"/>
-      <c r="F163" s="414"/>
+      <c r="E163" s="412"/>
+      <c r="F163" s="412"/>
       <c r="G163" s="255"/>
-      <c r="H163" s="427"/>
+      <c r="H163" s="426"/>
       <c r="J163" s="256" t="s">
         <v>753</v>
       </c>
@@ -22143,18 +22308,18 @@
       <c r="B164" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="C164" s="416" t="s">
+      <c r="C164" s="415" t="s">
         <v>722</v>
       </c>
-      <c r="D164" s="432" t="s">
+      <c r="D164" s="431" t="s">
         <v>770</v>
       </c>
-      <c r="E164" s="414"/>
-      <c r="F164" s="414"/>
+      <c r="E164" s="412"/>
+      <c r="F164" s="412"/>
       <c r="G164" s="255" t="s">
         <v>722</v>
       </c>
-      <c r="H164" s="427" t="s">
+      <c r="H164" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I164" s="252" t="s">
@@ -22169,18 +22334,18 @@
       <c r="B165" s="230" t="s">
         <v>102</v>
       </c>
-      <c r="C165" s="416" t="s">
+      <c r="C165" s="415" t="s">
         <v>568</v>
       </c>
-      <c r="D165" s="432" t="s">
+      <c r="D165" s="431" t="s">
         <v>773</v>
       </c>
-      <c r="E165" s="414"/>
-      <c r="F165" s="414"/>
+      <c r="E165" s="412"/>
+      <c r="F165" s="412"/>
       <c r="G165" s="255" t="s">
         <v>568</v>
       </c>
-      <c r="H165" s="427" t="s">
+      <c r="H165" s="426" t="s">
         <v>773</v>
       </c>
       <c r="I165" s="252" t="s">
@@ -22195,18 +22360,18 @@
       <c r="B166" s="257" t="s">
         <v>507</v>
       </c>
-      <c r="C166" s="416" t="s">
+      <c r="C166" s="415" t="s">
         <v>902</v>
       </c>
-      <c r="D166" s="432" t="s">
+      <c r="D166" s="431" t="s">
         <v>903</v>
       </c>
-      <c r="E166" s="414"/>
-      <c r="F166" s="414"/>
-      <c r="G166" s="428" t="s">
+      <c r="E166" s="412"/>
+      <c r="F166" s="412"/>
+      <c r="G166" s="427" t="s">
         <v>902</v>
       </c>
-      <c r="H166" s="427" t="s">
+      <c r="H166" s="426" t="s">
         <v>903</v>
       </c>
       <c r="I166" s="252" t="s">
@@ -22256,12 +22421,12 @@
         <v>599</v>
       </c>
       <c r="D168" s="398"/>
-      <c r="E168" s="414"/>
-      <c r="F168" s="414"/>
-      <c r="G168" s="428" t="s">
+      <c r="E168" s="412"/>
+      <c r="F168" s="412"/>
+      <c r="G168" s="427" t="s">
         <v>721</v>
       </c>
-      <c r="H168" s="427" t="s">
+      <c r="H168" s="426" t="s">
         <v>762</v>
       </c>
       <c r="I168" s="252" t="s">
@@ -22277,12 +22442,12 @@
         <v>930</v>
       </c>
       <c r="D169" s="398"/>
-      <c r="E169" s="414"/>
-      <c r="F169" s="414"/>
+      <c r="E169" s="412"/>
+      <c r="F169" s="412"/>
       <c r="G169" s="255" t="s">
         <v>606</v>
       </c>
-      <c r="H169" s="427" t="s">
+      <c r="H169" s="426" t="s">
         <v>784</v>
       </c>
       <c r="J169" s="256" t="s">
@@ -22294,18 +22459,18 @@
       <c r="B170" s="257" t="s">
         <v>905</v>
       </c>
-      <c r="C170" s="416" t="s">
+      <c r="C170" s="415" t="s">
         <v>563</v>
       </c>
       <c r="D170" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E170" s="414"/>
-      <c r="F170" s="414"/>
+      <c r="E170" s="412"/>
+      <c r="F170" s="412"/>
       <c r="G170" s="255" t="s">
         <v>563</v>
       </c>
-      <c r="H170" s="427" t="s">
+      <c r="H170" s="426" t="s">
         <v>763</v>
       </c>
       <c r="J170" s="256" t="s">
@@ -22317,18 +22482,18 @@
       <c r="B171" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C171" s="413" t="s">
+      <c r="C171" s="411" t="s">
         <v>563</v>
       </c>
       <c r="D171" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E171" s="414"/>
-      <c r="F171" s="414"/>
-      <c r="G171" s="428" t="s">
+      <c r="E171" s="412"/>
+      <c r="F171" s="412"/>
+      <c r="G171" s="427" t="s">
         <v>563</v>
       </c>
-      <c r="H171" s="427" t="s">
+      <c r="H171" s="426" t="s">
         <v>763</v>
       </c>
       <c r="I171" s="252" t="s">
@@ -22340,18 +22505,18 @@
       <c r="B172" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C172" s="416" t="s">
+      <c r="C172" s="415" t="s">
         <v>563</v>
       </c>
       <c r="D172" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E172" s="414"/>
-      <c r="F172" s="414"/>
-      <c r="G172" s="428" t="s">
+      <c r="E172" s="412"/>
+      <c r="F172" s="412"/>
+      <c r="G172" s="427" t="s">
         <v>563</v>
       </c>
-      <c r="H172" s="427" t="s">
+      <c r="H172" s="426" t="s">
         <v>763</v>
       </c>
       <c r="I172" s="252" t="s">
@@ -22363,14 +22528,14 @@
       <c r="B173" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C173" s="417" t="s">
+      <c r="C173" s="416" t="s">
         <v>925</v>
       </c>
       <c r="D173" s="398"/>
-      <c r="E173" s="414"/>
-      <c r="F173" s="414"/>
+      <c r="E173" s="412"/>
+      <c r="F173" s="412"/>
       <c r="G173" s="255"/>
-      <c r="H173" s="427"/>
+      <c r="H173" s="426"/>
       <c r="J173" s="256" t="s">
         <v>753</v>
       </c>
@@ -22380,14 +22545,14 @@
       <c r="B174" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="C174" s="413" t="s">
+      <c r="C174" s="411" t="s">
         <v>937</v>
       </c>
       <c r="D174" s="398" t="s">
         <v>938</v>
       </c>
-      <c r="E174" s="414"/>
-      <c r="F174" s="414"/>
+      <c r="E174" s="412"/>
+      <c r="F174" s="412"/>
       <c r="G174" s="303" t="s">
         <v>719</v>
       </c>
@@ -22406,14 +22571,14 @@
       <c r="B175" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C175" s="413" t="s">
+      <c r="C175" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D175" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E175" s="414"/>
-      <c r="F175" s="414"/>
+      <c r="E175" s="412"/>
+      <c r="F175" s="412"/>
       <c r="G175" s="303" t="s">
         <v>715</v>
       </c>
@@ -22438,8 +22603,8 @@
       <c r="D176" s="398" t="s">
         <v>758</v>
       </c>
-      <c r="E176" s="414"/>
-      <c r="F176" s="414"/>
+      <c r="E176" s="412"/>
+      <c r="F176" s="412"/>
       <c r="G176" s="303" t="s">
         <v>719</v>
       </c>
@@ -22458,12 +22623,12 @@
       <c r="B177" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="C177" s="413" t="s">
+      <c r="C177" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D177" s="398"/>
-      <c r="E177" s="414"/>
-      <c r="F177" s="414"/>
+      <c r="E177" s="412"/>
+      <c r="F177" s="412"/>
       <c r="G177" s="303" t="s">
         <v>715</v>
       </c>
@@ -22486,12 +22651,12 @@
         <v>564</v>
       </c>
       <c r="D178" s="398"/>
-      <c r="E178" s="414"/>
-      <c r="F178" s="414"/>
-      <c r="G178" s="428" t="s">
+      <c r="E178" s="412"/>
+      <c r="F178" s="412"/>
+      <c r="G178" s="427" t="s">
         <v>716</v>
       </c>
-      <c r="H178" s="427" t="s">
+      <c r="H178" s="426" t="s">
         <v>713</v>
       </c>
       <c r="I178" s="252" t="s">
@@ -22509,12 +22674,12 @@
       <c r="D179" s="391" t="s">
         <v>714</v>
       </c>
-      <c r="E179" s="414"/>
-      <c r="F179" s="414"/>
+      <c r="E179" s="412"/>
+      <c r="F179" s="412"/>
       <c r="G179" s="303" t="s">
         <v>717</v>
       </c>
-      <c r="H179" s="427" t="s">
+      <c r="H179" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I179" s="252" t="s">
@@ -22529,18 +22694,18 @@
       <c r="B180" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="C180" s="413" t="s">
+      <c r="C180" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D180" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E180" s="414"/>
-      <c r="F180" s="414"/>
-      <c r="G180" s="428" t="s">
+      <c r="E180" s="412"/>
+      <c r="F180" s="412"/>
+      <c r="G180" s="427" t="s">
         <v>719</v>
       </c>
-      <c r="H180" s="427" t="s">
+      <c r="H180" s="426" t="s">
         <v>756</v>
       </c>
       <c r="I180" s="252" t="s">
@@ -22552,16 +22717,16 @@
       <c r="B181" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="C181" s="436" t="s">
+      <c r="C181" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D181" s="398"/>
-      <c r="E181" s="414"/>
-      <c r="F181" s="414"/>
-      <c r="G181" s="428" t="s">
+      <c r="E181" s="412"/>
+      <c r="F181" s="412"/>
+      <c r="G181" s="427" t="s">
         <v>518</v>
       </c>
-      <c r="H181" s="427" t="s">
+      <c r="H181" s="426" t="s">
         <v>780</v>
       </c>
       <c r="I181" s="252" t="s">
@@ -22573,14 +22738,14 @@
       <c r="B182" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="C182" s="436" t="s">
+      <c r="C182" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D182" s="398"/>
-      <c r="E182" s="414"/>
-      <c r="F182" s="414"/>
+      <c r="E182" s="412"/>
+      <c r="F182" s="412"/>
       <c r="G182" s="255"/>
-      <c r="H182" s="427"/>
+      <c r="H182" s="426"/>
       <c r="J182" s="256" t="s">
         <v>819</v>
       </c>
@@ -22596,12 +22761,12 @@
       <c r="D183" s="391" t="s">
         <v>783</v>
       </c>
-      <c r="E183" s="414"/>
-      <c r="F183" s="414"/>
-      <c r="G183" s="428" t="s">
+      <c r="E183" s="412"/>
+      <c r="F183" s="412"/>
+      <c r="G183" s="427" t="s">
         <v>493</v>
       </c>
-      <c r="H183" s="427" t="s">
+      <c r="H183" s="426" t="s">
         <v>783</v>
       </c>
       <c r="I183" s="252" t="s">
@@ -22619,12 +22784,12 @@
       <c r="D184" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E184" s="414"/>
-      <c r="F184" s="414"/>
-      <c r="G184" s="428" t="s">
+      <c r="E184" s="412"/>
+      <c r="F184" s="412"/>
+      <c r="G184" s="427" t="s">
         <v>496</v>
       </c>
-      <c r="H184" s="427" t="s">
+      <c r="H184" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I184" s="252" t="s">
@@ -22642,12 +22807,12 @@
       <c r="D185" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E185" s="414"/>
-      <c r="F185" s="414"/>
-      <c r="G185" s="428" t="s">
+      <c r="E185" s="412"/>
+      <c r="F185" s="412"/>
+      <c r="G185" s="427" t="s">
         <v>496</v>
       </c>
-      <c r="H185" s="427" t="s">
+      <c r="H185" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I185" s="252" t="s">
@@ -22665,12 +22830,12 @@
       <c r="D186" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E186" s="414"/>
-      <c r="F186" s="414"/>
-      <c r="G186" s="428" t="s">
+      <c r="E186" s="412"/>
+      <c r="F186" s="412"/>
+      <c r="G186" s="427" t="s">
         <v>496</v>
       </c>
-      <c r="H186" s="427" t="s">
+      <c r="H186" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I186" s="252" t="s">
@@ -22688,10 +22853,10 @@
       <c r="D187" s="398" t="s">
         <v>714</v>
       </c>
-      <c r="E187" s="414"/>
-      <c r="F187" s="414"/>
+      <c r="E187" s="412"/>
+      <c r="F187" s="412"/>
       <c r="G187" s="255"/>
-      <c r="H187" s="427"/>
+      <c r="H187" s="426"/>
       <c r="J187" s="256" t="s">
         <v>816</v>
       </c>
@@ -22707,10 +22872,10 @@
       <c r="D188" s="398" t="s">
         <v>714</v>
       </c>
-      <c r="E188" s="414"/>
-      <c r="F188" s="414"/>
+      <c r="E188" s="412"/>
+      <c r="F188" s="412"/>
       <c r="G188" s="255"/>
-      <c r="H188" s="427"/>
+      <c r="H188" s="426"/>
       <c r="J188" s="256" t="s">
         <v>816</v>
       </c>
@@ -22726,12 +22891,12 @@
       <c r="D189" s="398" t="s">
         <v>714</v>
       </c>
-      <c r="E189" s="414"/>
-      <c r="F189" s="414"/>
-      <c r="G189" s="428" t="s">
+      <c r="E189" s="412"/>
+      <c r="F189" s="412"/>
+      <c r="G189" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H189" s="427" t="s">
+      <c r="H189" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I189" s="252" t="s">
@@ -22749,12 +22914,12 @@
       <c r="D190" s="391" t="s">
         <v>772</v>
       </c>
-      <c r="E190" s="414"/>
-      <c r="F190" s="414"/>
-      <c r="G190" s="428" t="s">
+      <c r="E190" s="412"/>
+      <c r="F190" s="412"/>
+      <c r="G190" s="427" t="s">
         <v>505</v>
       </c>
-      <c r="H190" s="427" t="s">
+      <c r="H190" s="426" t="s">
         <v>772</v>
       </c>
       <c r="I190" s="252" t="s">
@@ -22772,12 +22937,12 @@
       <c r="D191" s="391" t="s">
         <v>773</v>
       </c>
-      <c r="E191" s="414"/>
-      <c r="F191" s="414"/>
-      <c r="G191" s="428" t="s">
+      <c r="E191" s="412"/>
+      <c r="F191" s="412"/>
+      <c r="G191" s="427" t="s">
         <v>568</v>
       </c>
-      <c r="H191" s="427" t="s">
+      <c r="H191" s="426" t="s">
         <v>773</v>
       </c>
       <c r="I191" s="252" t="s">
@@ -22795,12 +22960,12 @@
       <c r="D192" s="391" t="s">
         <v>770</v>
       </c>
-      <c r="E192" s="414"/>
-      <c r="F192" s="414"/>
-      <c r="G192" s="428" t="s">
+      <c r="E192" s="412"/>
+      <c r="F192" s="412"/>
+      <c r="G192" s="427" t="s">
         <v>722</v>
       </c>
-      <c r="H192" s="427" t="s">
+      <c r="H192" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I192" s="252" t="s">
@@ -22818,12 +22983,12 @@
       <c r="D193" s="391" t="s">
         <v>770</v>
       </c>
-      <c r="E193" s="414"/>
-      <c r="F193" s="414"/>
-      <c r="G193" s="428" t="s">
+      <c r="E193" s="412"/>
+      <c r="F193" s="412"/>
+      <c r="G193" s="427" t="s">
         <v>722</v>
       </c>
-      <c r="H193" s="427" t="s">
+      <c r="H193" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I193" s="252" t="s">
@@ -22839,12 +23004,12 @@
         <v>948</v>
       </c>
       <c r="D194" s="398"/>
-      <c r="E194" s="414"/>
-      <c r="F194" s="414"/>
+      <c r="E194" s="412"/>
+      <c r="F194" s="412"/>
       <c r="G194" s="304" t="s">
         <v>681</v>
       </c>
-      <c r="H194" s="427" t="s">
+      <c r="H194" s="426" t="s">
         <v>682</v>
       </c>
       <c r="I194" s="252" t="s">
@@ -22863,10 +23028,10 @@
         <v>605</v>
       </c>
       <c r="D195" s="398"/>
-      <c r="E195" s="414"/>
-      <c r="F195" s="414"/>
+      <c r="E195" s="412"/>
+      <c r="F195" s="412"/>
       <c r="G195" s="255"/>
-      <c r="H195" s="427"/>
+      <c r="H195" s="426"/>
       <c r="J195" s="256" t="s">
         <v>753</v>
       </c>
@@ -22880,10 +23045,10 @@
         <v>605</v>
       </c>
       <c r="D196" s="398"/>
-      <c r="E196" s="414"/>
-      <c r="F196" s="414"/>
+      <c r="E196" s="412"/>
+      <c r="F196" s="412"/>
       <c r="G196" s="255"/>
-      <c r="H196" s="427"/>
+      <c r="H196" s="426"/>
       <c r="J196" s="256" t="s">
         <v>753</v>
       </c>
@@ -22893,14 +23058,14 @@
       <c r="B197" s="240" t="s">
         <v>98</v>
       </c>
-      <c r="C197" s="442" t="s">
+      <c r="C197" s="441" t="s">
         <v>605</v>
       </c>
       <c r="D197" s="398"/>
-      <c r="E197" s="414"/>
-      <c r="F197" s="414"/>
+      <c r="E197" s="412"/>
+      <c r="F197" s="412"/>
       <c r="G197" s="255"/>
-      <c r="H197" s="427"/>
+      <c r="H197" s="426"/>
       <c r="J197" s="256" t="s">
         <v>753</v>
       </c>
@@ -22916,12 +23081,12 @@
       <c r="D198" s="391" t="s">
         <v>770</v>
       </c>
-      <c r="E198" s="414"/>
-      <c r="F198" s="414"/>
+      <c r="E198" s="412"/>
+      <c r="F198" s="412"/>
       <c r="G198" s="255" t="s">
         <v>722</v>
       </c>
-      <c r="H198" s="427" t="s">
+      <c r="H198" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I198" s="252" t="s">
@@ -22942,12 +23107,12 @@
       <c r="D199" s="391" t="s">
         <v>773</v>
       </c>
-      <c r="E199" s="414"/>
-      <c r="F199" s="414"/>
+      <c r="E199" s="412"/>
+      <c r="F199" s="412"/>
       <c r="G199" s="255" t="s">
         <v>568</v>
       </c>
-      <c r="H199" s="427" t="s">
+      <c r="H199" s="426" t="s">
         <v>773</v>
       </c>
       <c r="I199" s="252" t="s">
@@ -22968,12 +23133,12 @@
       <c r="D200" s="391" t="s">
         <v>903</v>
       </c>
-      <c r="E200" s="414"/>
-      <c r="F200" s="414"/>
-      <c r="G200" s="428" t="s">
+      <c r="E200" s="412"/>
+      <c r="F200" s="412"/>
+      <c r="G200" s="427" t="s">
         <v>902</v>
       </c>
-      <c r="H200" s="427" t="s">
+      <c r="H200" s="426" t="s">
         <v>903</v>
       </c>
       <c r="I200" s="252" t="s">
@@ -23023,12 +23188,12 @@
         <v>599</v>
       </c>
       <c r="D202" s="398"/>
-      <c r="E202" s="414"/>
-      <c r="F202" s="414"/>
-      <c r="G202" s="428" t="s">
+      <c r="E202" s="412"/>
+      <c r="F202" s="412"/>
+      <c r="G202" s="427" t="s">
         <v>721</v>
       </c>
-      <c r="H202" s="427" t="s">
+      <c r="H202" s="426" t="s">
         <v>762</v>
       </c>
       <c r="I202" s="252" t="s">
@@ -23044,12 +23209,12 @@
         <v>930</v>
       </c>
       <c r="D203" s="398"/>
-      <c r="E203" s="414"/>
-      <c r="F203" s="414"/>
+      <c r="E203" s="412"/>
+      <c r="F203" s="412"/>
       <c r="G203" s="255" t="s">
         <v>606</v>
       </c>
-      <c r="H203" s="427" t="s">
+      <c r="H203" s="426" t="s">
         <v>784</v>
       </c>
       <c r="J203" s="256" t="s">
@@ -23061,18 +23226,18 @@
       <c r="B204" s="257" t="s">
         <v>905</v>
       </c>
-      <c r="C204" s="416" t="s">
+      <c r="C204" s="415" t="s">
         <v>563</v>
       </c>
       <c r="D204" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E204" s="414"/>
-      <c r="F204" s="414"/>
+      <c r="E204" s="412"/>
+      <c r="F204" s="412"/>
       <c r="G204" s="255" t="s">
         <v>563</v>
       </c>
-      <c r="H204" s="427" t="s">
+      <c r="H204" s="426" t="s">
         <v>763</v>
       </c>
       <c r="J204" s="256" t="s">
@@ -23084,18 +23249,18 @@
       <c r="B205" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C205" s="413" t="s">
+      <c r="C205" s="411" t="s">
         <v>563</v>
       </c>
       <c r="D205" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E205" s="414"/>
-      <c r="F205" s="414"/>
-      <c r="G205" s="428" t="s">
+      <c r="E205" s="412"/>
+      <c r="F205" s="412"/>
+      <c r="G205" s="427" t="s">
         <v>563</v>
       </c>
-      <c r="H205" s="427" t="s">
+      <c r="H205" s="426" t="s">
         <v>763</v>
       </c>
       <c r="I205" s="252" t="s">
@@ -23107,18 +23272,18 @@
       <c r="B206" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C206" s="416" t="s">
+      <c r="C206" s="415" t="s">
         <v>563</v>
       </c>
       <c r="D206" s="391" t="s">
         <v>763</v>
       </c>
-      <c r="E206" s="414"/>
-      <c r="F206" s="414"/>
-      <c r="G206" s="428" t="s">
+      <c r="E206" s="412"/>
+      <c r="F206" s="412"/>
+      <c r="G206" s="427" t="s">
         <v>563</v>
       </c>
-      <c r="H206" s="427" t="s">
+      <c r="H206" s="426" t="s">
         <v>763</v>
       </c>
       <c r="I206" s="252" t="s">
@@ -23130,14 +23295,14 @@
       <c r="B207" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C207" s="417" t="s">
+      <c r="C207" s="416" t="s">
         <v>925</v>
       </c>
       <c r="D207" s="398"/>
-      <c r="E207" s="414"/>
-      <c r="F207" s="414"/>
+      <c r="E207" s="412"/>
+      <c r="F207" s="412"/>
       <c r="G207" s="255"/>
-      <c r="H207" s="427"/>
+      <c r="H207" s="426"/>
       <c r="J207" s="256" t="s">
         <v>753</v>
       </c>
@@ -23147,14 +23312,14 @@
       <c r="B208" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="413" t="s">
+      <c r="C208" s="411" t="s">
         <v>937</v>
       </c>
       <c r="D208" s="398" t="s">
         <v>938</v>
       </c>
-      <c r="E208" s="414"/>
-      <c r="F208" s="414"/>
+      <c r="E208" s="412"/>
+      <c r="F208" s="412"/>
       <c r="G208" s="303" t="s">
         <v>719</v>
       </c>
@@ -23173,14 +23338,14 @@
       <c r="B209" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C209" s="413" t="s">
+      <c r="C209" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D209" s="398" t="s">
         <v>726</v>
       </c>
-      <c r="E209" s="414"/>
-      <c r="F209" s="414"/>
+      <c r="E209" s="412"/>
+      <c r="F209" s="412"/>
       <c r="G209" s="303" t="s">
         <v>715</v>
       </c>
@@ -23205,8 +23370,8 @@
       <c r="D210" s="398" t="s">
         <v>758</v>
       </c>
-      <c r="E210" s="414"/>
-      <c r="F210" s="414"/>
+      <c r="E210" s="412"/>
+      <c r="F210" s="412"/>
       <c r="G210" s="303" t="s">
         <v>719</v>
       </c>
@@ -23225,12 +23390,12 @@
       <c r="B211" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="C211" s="413" t="s">
+      <c r="C211" s="411" t="s">
         <v>715</v>
       </c>
       <c r="D211" s="398"/>
-      <c r="E211" s="414"/>
-      <c r="F211" s="414"/>
+      <c r="E211" s="412"/>
+      <c r="F211" s="412"/>
       <c r="G211" s="303" t="s">
         <v>715</v>
       </c>
@@ -23253,12 +23418,12 @@
         <v>564</v>
       </c>
       <c r="D212" s="398"/>
-      <c r="E212" s="414"/>
-      <c r="F212" s="414"/>
-      <c r="G212" s="428" t="s">
+      <c r="E212" s="412"/>
+      <c r="F212" s="412"/>
+      <c r="G212" s="427" t="s">
         <v>716</v>
       </c>
-      <c r="H212" s="427" t="s">
+      <c r="H212" s="426" t="s">
         <v>713</v>
       </c>
       <c r="I212" s="252" t="s">
@@ -23274,12 +23439,12 @@
         <v>564</v>
       </c>
       <c r="D213" s="398"/>
-      <c r="E213" s="414"/>
-      <c r="F213" s="414"/>
-      <c r="G213" s="428" t="s">
+      <c r="E213" s="412"/>
+      <c r="F213" s="412"/>
+      <c r="G213" s="427" t="s">
         <v>465</v>
       </c>
-      <c r="H213" s="427" t="s">
+      <c r="H213" s="426" t="s">
         <v>764</v>
       </c>
     </row>
@@ -23294,12 +23459,12 @@
       <c r="D214" s="391" t="s">
         <v>714</v>
       </c>
-      <c r="E214" s="414"/>
-      <c r="F214" s="414"/>
-      <c r="G214" s="428" t="s">
+      <c r="E214" s="412"/>
+      <c r="F214" s="412"/>
+      <c r="G214" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H214" s="427" t="s">
+      <c r="H214" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I214" s="252" t="s">
@@ -23311,18 +23476,18 @@
       <c r="B215" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="C215" s="438" t="s">
+      <c r="C215" s="437" t="s">
         <v>715</v>
       </c>
-      <c r="D215" s="439" t="s">
+      <c r="D215" s="438" t="s">
         <v>726</v>
       </c>
-      <c r="E215" s="414"/>
-      <c r="F215" s="414"/>
-      <c r="G215" s="428" t="s">
+      <c r="E215" s="412"/>
+      <c r="F215" s="412"/>
+      <c r="G215" s="427" t="s">
         <v>719</v>
       </c>
-      <c r="H215" s="427" t="s">
+      <c r="H215" s="426" t="s">
         <v>756</v>
       </c>
       <c r="I215" s="252" t="s">
@@ -23334,18 +23499,18 @@
       <c r="B216" s="223" t="s">
         <v>83</v>
       </c>
-      <c r="C216" s="438" t="s">
+      <c r="C216" s="437" t="s">
         <v>715</v>
       </c>
-      <c r="D216" s="439" t="s">
+      <c r="D216" s="438" t="s">
         <v>726</v>
       </c>
-      <c r="E216" s="414"/>
-      <c r="F216" s="414"/>
-      <c r="G216" s="428" t="s">
+      <c r="E216" s="412"/>
+      <c r="F216" s="412"/>
+      <c r="G216" s="427" t="s">
         <v>715</v>
       </c>
-      <c r="H216" s="427" t="s">
+      <c r="H216" s="426" t="s">
         <v>726</v>
       </c>
       <c r="I216" s="252" t="s">
@@ -23357,16 +23522,16 @@
       <c r="B217" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="C217" s="436" t="s">
+      <c r="C217" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D217" s="398"/>
-      <c r="E217" s="414"/>
-      <c r="F217" s="414"/>
-      <c r="G217" s="428" t="s">
+      <c r="E217" s="412"/>
+      <c r="F217" s="412"/>
+      <c r="G217" s="427" t="s">
         <v>725</v>
       </c>
-      <c r="H217" s="427" t="s">
+      <c r="H217" s="426" t="s">
         <v>785</v>
       </c>
       <c r="I217" s="252" t="s">
@@ -23378,16 +23543,16 @@
       <c r="B218" s="223" t="s">
         <v>169</v>
       </c>
-      <c r="C218" s="436" t="s">
+      <c r="C218" s="435" t="s">
         <v>936</v>
       </c>
       <c r="D218" s="398"/>
-      <c r="E218" s="414"/>
-      <c r="F218" s="414"/>
-      <c r="G218" s="428" t="s">
+      <c r="E218" s="412"/>
+      <c r="F218" s="412"/>
+      <c r="G218" s="427" t="s">
         <v>539</v>
       </c>
-      <c r="H218" s="427" t="s">
+      <c r="H218" s="426" t="s">
         <v>731</v>
       </c>
     </row>
@@ -23396,18 +23561,18 @@
       <c r="B219" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C219" s="438" t="s">
+      <c r="C219" s="437" t="s">
         <v>715</v>
       </c>
-      <c r="D219" s="439" t="s">
+      <c r="D219" s="438" t="s">
         <v>726</v>
       </c>
-      <c r="E219" s="414"/>
-      <c r="F219" s="414"/>
-      <c r="G219" s="428" t="s">
+      <c r="E219" s="412"/>
+      <c r="F219" s="412"/>
+      <c r="G219" s="427" t="s">
         <v>715</v>
       </c>
-      <c r="H219" s="427" t="s">
+      <c r="H219" s="426" t="s">
         <v>726</v>
       </c>
       <c r="I219" s="252" t="s">
@@ -23425,12 +23590,12 @@
       <c r="D220" s="391" t="s">
         <v>767</v>
       </c>
-      <c r="E220" s="414"/>
-      <c r="F220" s="414"/>
-      <c r="G220" s="428" t="s">
+      <c r="E220" s="412"/>
+      <c r="F220" s="412"/>
+      <c r="G220" s="427" t="s">
         <v>559</v>
       </c>
-      <c r="H220" s="427" t="s">
+      <c r="H220" s="426" t="s">
         <v>767</v>
       </c>
       <c r="I220" s="252" t="s">
@@ -23448,12 +23613,12 @@
       <c r="D221" s="391" t="s">
         <v>783</v>
       </c>
-      <c r="E221" s="414"/>
-      <c r="F221" s="414"/>
-      <c r="G221" s="428" t="s">
+      <c r="E221" s="412"/>
+      <c r="F221" s="412"/>
+      <c r="G221" s="427" t="s">
         <v>493</v>
       </c>
-      <c r="H221" s="427" t="s">
+      <c r="H221" s="426" t="s">
         <v>783</v>
       </c>
       <c r="I221" s="252" t="s">
@@ -23471,12 +23636,12 @@
       <c r="D222" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E222" s="414"/>
-      <c r="F222" s="414"/>
-      <c r="G222" s="428" t="s">
+      <c r="E222" s="412"/>
+      <c r="F222" s="412"/>
+      <c r="G222" s="427" t="s">
         <v>496</v>
       </c>
-      <c r="H222" s="427" t="s">
+      <c r="H222" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I222" s="252" t="s">
@@ -23494,12 +23659,12 @@
       <c r="D223" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E223" s="414"/>
-      <c r="F223" s="414"/>
-      <c r="G223" s="428" t="s">
+      <c r="E223" s="412"/>
+      <c r="F223" s="412"/>
+      <c r="G223" s="427" t="s">
         <v>496</v>
       </c>
-      <c r="H223" s="427" t="s">
+      <c r="H223" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I223" s="252" t="s">
@@ -23517,12 +23682,12 @@
       <c r="D224" s="391" t="s">
         <v>769</v>
       </c>
-      <c r="E224" s="414"/>
-      <c r="F224" s="414"/>
-      <c r="G224" s="428" t="s">
+      <c r="E224" s="412"/>
+      <c r="F224" s="412"/>
+      <c r="G224" s="427" t="s">
         <v>496</v>
       </c>
-      <c r="H224" s="427" t="s">
+      <c r="H224" s="426" t="s">
         <v>769</v>
       </c>
       <c r="I224" s="252" t="s">
@@ -23540,12 +23705,12 @@
       <c r="D225" s="391" t="s">
         <v>770</v>
       </c>
-      <c r="E225" s="414"/>
-      <c r="F225" s="414"/>
-      <c r="G225" s="428" t="s">
+      <c r="E225" s="412"/>
+      <c r="F225" s="412"/>
+      <c r="G225" s="427" t="s">
         <v>722</v>
       </c>
-      <c r="H225" s="427" t="s">
+      <c r="H225" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I225" s="252" t="s">
@@ -23563,12 +23728,12 @@
       <c r="D226" s="391" t="s">
         <v>771</v>
       </c>
-      <c r="E226" s="414"/>
-      <c r="F226" s="414"/>
-      <c r="G226" s="428" t="s">
+      <c r="E226" s="412"/>
+      <c r="F226" s="412"/>
+      <c r="G226" s="427" t="s">
         <v>502</v>
       </c>
-      <c r="H226" s="427" t="s">
+      <c r="H226" s="426" t="s">
         <v>771</v>
       </c>
       <c r="I226" s="252" t="s">
@@ -23586,12 +23751,12 @@
       <c r="D227" s="391" t="s">
         <v>772</v>
       </c>
-      <c r="E227" s="414"/>
-      <c r="F227" s="414"/>
-      <c r="G227" s="428" t="s">
+      <c r="E227" s="412"/>
+      <c r="F227" s="412"/>
+      <c r="G227" s="427" t="s">
         <v>505</v>
       </c>
-      <c r="H227" s="427" t="s">
+      <c r="H227" s="426" t="s">
         <v>772</v>
       </c>
       <c r="I227" s="252" t="s">
@@ -23609,12 +23774,12 @@
       <c r="D228" s="391" t="s">
         <v>773</v>
       </c>
-      <c r="E228" s="414"/>
-      <c r="F228" s="414"/>
-      <c r="G228" s="428" t="s">
+      <c r="E228" s="412"/>
+      <c r="F228" s="412"/>
+      <c r="G228" s="427" t="s">
         <v>568</v>
       </c>
-      <c r="H228" s="427" t="s">
+      <c r="H228" s="426" t="s">
         <v>773</v>
       </c>
       <c r="I228" s="252" t="s">
@@ -23630,10 +23795,10 @@
         <v>605</v>
       </c>
       <c r="D229" s="398"/>
-      <c r="E229" s="414"/>
-      <c r="F229" s="414"/>
+      <c r="E229" s="412"/>
+      <c r="F229" s="412"/>
       <c r="G229" s="255"/>
-      <c r="H229" s="427"/>
+      <c r="H229" s="426"/>
       <c r="J229" s="256" t="s">
         <v>753</v>
       </c>
@@ -23647,10 +23812,10 @@
         <v>605</v>
       </c>
       <c r="D230" s="398"/>
-      <c r="E230" s="414"/>
-      <c r="F230" s="414"/>
+      <c r="E230" s="412"/>
+      <c r="F230" s="412"/>
       <c r="G230" s="255"/>
-      <c r="H230" s="427"/>
+      <c r="H230" s="426"/>
       <c r="J230" s="256" t="s">
         <v>753</v>
       </c>
@@ -23660,14 +23825,14 @@
       <c r="B231" s="240" t="s">
         <v>98</v>
       </c>
-      <c r="C231" s="442" t="s">
+      <c r="C231" s="441" t="s">
         <v>605</v>
       </c>
       <c r="D231" s="398"/>
-      <c r="E231" s="414"/>
-      <c r="F231" s="414"/>
+      <c r="E231" s="412"/>
+      <c r="F231" s="412"/>
       <c r="G231" s="255"/>
-      <c r="H231" s="427"/>
+      <c r="H231" s="426"/>
       <c r="J231" s="256" t="s">
         <v>753</v>
       </c>
@@ -23683,12 +23848,12 @@
       <c r="D232" s="391" t="s">
         <v>771</v>
       </c>
-      <c r="E232" s="414"/>
-      <c r="F232" s="414"/>
-      <c r="G232" s="428" t="s">
+      <c r="E232" s="412"/>
+      <c r="F232" s="412"/>
+      <c r="G232" s="427" t="s">
         <v>502</v>
       </c>
-      <c r="H232" s="427" t="s">
+      <c r="H232" s="426" t="s">
         <v>771</v>
       </c>
       <c r="I232" s="252" t="s">
@@ -23709,12 +23874,12 @@
       <c r="D233" s="391" t="s">
         <v>770</v>
       </c>
-      <c r="E233" s="414"/>
-      <c r="F233" s="414"/>
+      <c r="E233" s="412"/>
+      <c r="F233" s="412"/>
       <c r="G233" s="255" t="s">
         <v>722</v>
       </c>
-      <c r="H233" s="427" t="s">
+      <c r="H233" s="426" t="s">
         <v>770</v>
       </c>
       <c r="I233" s="252" t="s">
@@ -23735,12 +23900,12 @@
       <c r="D234" s="391" t="s">
         <v>773</v>
       </c>
-      <c r="E234" s="414"/>
-      <c r="F234" s="414"/>
+      <c r="E234" s="412"/>
+      <c r="F234" s="412"/>
       <c r="G234" s="255" t="s">
         <v>568</v>
       </c>
-      <c r="H234" s="427" t="s">
+      <c r="H234" s="426" t="s">
         <v>773</v>
       </c>
       <c r="I234" s="252" t="s">
@@ -23761,12 +23926,12 @@
       <c r="D235" s="391" t="s">
         <v>903</v>
       </c>
-      <c r="E235" s="414"/>
-      <c r="F235" s="414"/>
-      <c r="G235" s="428" t="s">
+      <c r="E235" s="412"/>
+      <c r="F235" s="412"/>
+      <c r="G235" s="427" t="s">
         <v>902</v>
       </c>
-      <c r="H235" s="427" t="s">
+      <c r="H235" s="426" t="s">
         <v>903</v>
       </c>
       <c r="I235" s="252" t="s">
@@ -23816,12 +23981,12 @@
         <v>949</v>
       </c>
       <c r="D237" s="398"/>
-      <c r="E237" s="414"/>
-      <c r="F237" s="414"/>
-      <c r="G237" s="428" t="s">
+      <c r="E237" s="412"/>
+      <c r="F237" s="412"/>
+      <c r="G237" s="427" t="s">
         <v>687</v>
       </c>
-      <c r="H237" s="427" t="s">
+      <c r="H237" s="426" t="s">
         <v>786</v>
       </c>
       <c r="I237" s="252" t="s">
@@ -23835,12 +24000,12 @@
       </c>
       <c r="C238" s="390"/>
       <c r="D238" s="398"/>
-      <c r="E238" s="414"/>
-      <c r="F238" s="414"/>
-      <c r="G238" s="428" t="s">
+      <c r="E238" s="412"/>
+      <c r="F238" s="412"/>
+      <c r="G238" s="427" t="s">
         <v>576</v>
       </c>
-      <c r="H238" s="427" t="s">
+      <c r="H238" s="426" t="s">
         <v>787</v>
       </c>
       <c r="I238" s="252" t="s">
@@ -23854,12 +24019,12 @@
       </c>
       <c r="C239" s="390"/>
       <c r="D239" s="398"/>
-      <c r="E239" s="414"/>
-      <c r="F239" s="414"/>
-      <c r="G239" s="428" t="s">
+      <c r="E239" s="412"/>
+      <c r="F239" s="412"/>
+      <c r="G239" s="427" t="s">
         <v>577</v>
       </c>
-      <c r="H239" s="427" t="s">
+      <c r="H239" s="426" t="s">
         <v>788</v>
       </c>
       <c r="I239" s="252" t="s">
@@ -23875,12 +24040,12 @@
         <v>950</v>
       </c>
       <c r="D240" s="398"/>
-      <c r="E240" s="414"/>
-      <c r="F240" s="414"/>
-      <c r="G240" s="428" t="s">
+      <c r="E240" s="412"/>
+      <c r="F240" s="412"/>
+      <c r="G240" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H240" s="427" t="s">
+      <c r="H240" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I240" s="252" t="s">
@@ -23896,18 +24061,18 @@
         <v>951</v>
       </c>
       <c r="D241" s="398"/>
-      <c r="E241" s="414"/>
-      <c r="F241" s="414"/>
-      <c r="G241" s="428" t="s">
+      <c r="E241" s="412"/>
+      <c r="F241" s="412"/>
+      <c r="G241" s="427" t="s">
         <v>578</v>
       </c>
-      <c r="H241" s="427" t="s">
+      <c r="H241" s="426" t="s">
         <v>789</v>
       </c>
       <c r="I241" s="252" t="s">
         <v>801</v>
       </c>
-      <c r="K241" s="405" t="s">
+      <c r="K241" s="403" t="s">
         <v>952</v>
       </c>
     </row>
@@ -23920,18 +24085,18 @@
         <v>953</v>
       </c>
       <c r="D242" s="398"/>
-      <c r="E242" s="414"/>
-      <c r="F242" s="414"/>
-      <c r="G242" s="428" t="s">
+      <c r="E242" s="412"/>
+      <c r="F242" s="412"/>
+      <c r="G242" s="427" t="s">
         <v>579</v>
       </c>
-      <c r="H242" s="427" t="s">
+      <c r="H242" s="426" t="s">
         <v>790</v>
       </c>
       <c r="I242" s="252" t="s">
         <v>801</v>
       </c>
-      <c r="K242" s="405" t="s">
+      <c r="K242" s="403" t="s">
         <v>952</v>
       </c>
     </row>
@@ -23944,12 +24109,12 @@
         <v>599</v>
       </c>
       <c r="D243" s="398"/>
-      <c r="E243" s="414"/>
-      <c r="F243" s="414"/>
-      <c r="G243" s="428" t="s">
+      <c r="E243" s="412"/>
+      <c r="F243" s="412"/>
+      <c r="G243" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H243" s="427" t="s">
+      <c r="H243" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I243" s="252" t="s">
@@ -23965,12 +24130,12 @@
         <v>599</v>
       </c>
       <c r="D244" s="398"/>
-      <c r="E244" s="414"/>
-      <c r="F244" s="414"/>
-      <c r="G244" s="428" t="s">
+      <c r="E244" s="412"/>
+      <c r="F244" s="412"/>
+      <c r="G244" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H244" s="427" t="s">
+      <c r="H244" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I244" s="252" t="s">
@@ -23986,12 +24151,12 @@
         <v>599</v>
       </c>
       <c r="D245" s="398"/>
-      <c r="E245" s="414"/>
-      <c r="F245" s="414"/>
-      <c r="G245" s="428" t="s">
+      <c r="E245" s="412"/>
+      <c r="F245" s="412"/>
+      <c r="G245" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H245" s="427" t="s">
+      <c r="H245" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I245" s="252" t="s">
@@ -24003,16 +24168,16 @@
       <c r="B246" s="205" t="s">
         <v>189</v>
       </c>
-      <c r="C246" s="430" t="s">
+      <c r="C246" s="429" t="s">
         <v>960</v>
       </c>
       <c r="D246" s="398"/>
-      <c r="E246" s="414"/>
-      <c r="F246" s="414"/>
-      <c r="G246" s="428" t="s">
+      <c r="E246" s="412"/>
+      <c r="F246" s="412"/>
+      <c r="G246" s="427" t="s">
         <v>691</v>
       </c>
-      <c r="H246" s="427" t="s">
+      <c r="H246" s="426" t="s">
         <v>792</v>
       </c>
       <c r="I246" s="252" t="s">
@@ -24026,12 +24191,12 @@
       </c>
       <c r="C247" s="390"/>
       <c r="D247" s="398"/>
-      <c r="E247" s="414"/>
-      <c r="F247" s="414"/>
-      <c r="G247" s="428" t="s">
+      <c r="E247" s="412"/>
+      <c r="F247" s="412"/>
+      <c r="G247" s="427" t="s">
         <v>691</v>
       </c>
-      <c r="H247" s="427" t="s">
+      <c r="H247" s="426" t="s">
         <v>792</v>
       </c>
       <c r="I247" s="252" t="s">
@@ -24043,16 +24208,16 @@
       <c r="B248" s="205" t="s">
         <v>191</v>
       </c>
-      <c r="C248" s="430" t="s">
+      <c r="C248" s="429" t="s">
         <v>960</v>
       </c>
       <c r="D248" s="398"/>
-      <c r="E248" s="414"/>
-      <c r="F248" s="414"/>
-      <c r="G248" s="428" t="s">
+      <c r="E248" s="412"/>
+      <c r="F248" s="412"/>
+      <c r="G248" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H248" s="427" t="s">
+      <c r="H248" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I248" s="252" t="s">
@@ -24104,12 +24269,12 @@
       <c r="D250" s="391" t="s">
         <v>754</v>
       </c>
-      <c r="E250" s="414"/>
-      <c r="F250" s="414"/>
-      <c r="G250" s="428" t="s">
+      <c r="E250" s="412"/>
+      <c r="F250" s="412"/>
+      <c r="G250" s="427" t="s">
         <v>661</v>
       </c>
-      <c r="H250" s="427" t="s">
+      <c r="H250" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I250" s="252" t="s">
@@ -24127,12 +24292,12 @@
       <c r="D251" s="391" t="s">
         <v>793</v>
       </c>
-      <c r="E251" s="414"/>
-      <c r="F251" s="414"/>
-      <c r="G251" s="428" t="s">
+      <c r="E251" s="412"/>
+      <c r="F251" s="412"/>
+      <c r="G251" s="427" t="s">
         <v>689</v>
       </c>
-      <c r="H251" s="427" t="s">
+      <c r="H251" s="426" t="s">
         <v>793</v>
       </c>
       <c r="I251" s="252" t="s">
@@ -24148,12 +24313,12 @@
         <v>950</v>
       </c>
       <c r="D252" s="398"/>
-      <c r="E252" s="414"/>
-      <c r="F252" s="414"/>
-      <c r="G252" s="428" t="s">
+      <c r="E252" s="412"/>
+      <c r="F252" s="412"/>
+      <c r="G252" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H252" s="427" t="s">
+      <c r="H252" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I252" s="252" t="s">
@@ -24165,14 +24330,14 @@
       <c r="B253" s="246" t="s">
         <v>906</v>
       </c>
-      <c r="C253" s="430" t="s">
+      <c r="C253" s="429" t="s">
         <v>662</v>
       </c>
       <c r="D253" s="398"/>
-      <c r="E253" s="414"/>
-      <c r="F253" s="414"/>
+      <c r="E253" s="412"/>
+      <c r="F253" s="412"/>
       <c r="G253" s="255"/>
-      <c r="H253" s="427"/>
+      <c r="H253" s="426"/>
       <c r="J253" s="256" t="s">
         <v>816</v>
       </c>
@@ -24182,14 +24347,14 @@
       <c r="B254" s="246" t="s">
         <v>907</v>
       </c>
-      <c r="C254" s="430" t="s">
+      <c r="C254" s="429" t="s">
         <v>662</v>
       </c>
       <c r="D254" s="398"/>
-      <c r="E254" s="414"/>
-      <c r="F254" s="414"/>
+      <c r="E254" s="412"/>
+      <c r="F254" s="412"/>
       <c r="G254" s="255"/>
-      <c r="H254" s="427"/>
+      <c r="H254" s="426"/>
       <c r="J254" s="256" t="s">
         <v>816</v>
       </c>
@@ -24199,14 +24364,14 @@
       <c r="B255" s="246" t="s">
         <v>908</v>
       </c>
-      <c r="C255" s="430" t="s">
+      <c r="C255" s="429" t="s">
         <v>662</v>
       </c>
       <c r="D255" s="398"/>
-      <c r="E255" s="414"/>
-      <c r="F255" s="414"/>
+      <c r="E255" s="412"/>
+      <c r="F255" s="412"/>
       <c r="G255" s="255"/>
-      <c r="H255" s="427"/>
+      <c r="H255" s="426"/>
       <c r="J255" s="256" t="s">
         <v>816</v>
       </c>
@@ -24216,14 +24381,14 @@
       <c r="B256" s="246" t="s">
         <v>909</v>
       </c>
-      <c r="C256" s="430" t="s">
+      <c r="C256" s="429" t="s">
         <v>662</v>
       </c>
       <c r="D256" s="398"/>
-      <c r="E256" s="414"/>
-      <c r="F256" s="414"/>
+      <c r="E256" s="412"/>
+      <c r="F256" s="412"/>
       <c r="G256" s="255"/>
-      <c r="H256" s="427"/>
+      <c r="H256" s="426"/>
       <c r="J256" s="256" t="s">
         <v>816</v>
       </c>
@@ -24233,14 +24398,14 @@
       <c r="B257" s="246" t="s">
         <v>910</v>
       </c>
-      <c r="C257" s="430" t="s">
+      <c r="C257" s="429" t="s">
         <v>662</v>
       </c>
       <c r="D257" s="398"/>
-      <c r="E257" s="414"/>
-      <c r="F257" s="414"/>
+      <c r="E257" s="412"/>
+      <c r="F257" s="412"/>
       <c r="G257" s="255"/>
-      <c r="H257" s="427"/>
+      <c r="H257" s="426"/>
       <c r="J257" s="256" t="s">
         <v>816</v>
       </c>
@@ -24250,16 +24415,16 @@
       <c r="B258" s="205" t="s">
         <v>189</v>
       </c>
-      <c r="C258" s="430" t="s">
+      <c r="C258" s="429" t="s">
         <v>960</v>
       </c>
       <c r="D258" s="398"/>
-      <c r="E258" s="414"/>
-      <c r="F258" s="414"/>
-      <c r="G258" s="428" t="s">
+      <c r="E258" s="412"/>
+      <c r="F258" s="412"/>
+      <c r="G258" s="427" t="s">
         <v>691</v>
       </c>
-      <c r="H258" s="427" t="s">
+      <c r="H258" s="426" t="s">
         <v>792</v>
       </c>
       <c r="I258" s="252" t="s">
@@ -24277,12 +24442,12 @@
       <c r="D259" s="398" t="s">
         <v>762</v>
       </c>
-      <c r="E259" s="414"/>
-      <c r="F259" s="414"/>
-      <c r="G259" s="428" t="s">
+      <c r="E259" s="412"/>
+      <c r="F259" s="412"/>
+      <c r="G259" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H259" s="427" t="s">
+      <c r="H259" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I259" s="252" t="s">
@@ -24300,12 +24465,12 @@
       <c r="D260" s="398" t="s">
         <v>762</v>
       </c>
-      <c r="E260" s="414"/>
-      <c r="F260" s="414"/>
-      <c r="G260" s="428" t="s">
+      <c r="E260" s="412"/>
+      <c r="F260" s="412"/>
+      <c r="G260" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H260" s="427" t="s">
+      <c r="H260" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I260" s="252" t="s">
@@ -24351,16 +24516,16 @@
       <c r="B262" s="258" t="s">
         <v>535</v>
       </c>
-      <c r="C262" s="440" t="s">
+      <c r="C262" s="439" t="s">
         <v>955</v>
       </c>
       <c r="D262" s="398"/>
-      <c r="E262" s="414"/>
-      <c r="F262" s="414"/>
+      <c r="E262" s="412"/>
+      <c r="F262" s="412"/>
       <c r="G262" s="304" t="s">
         <v>795</v>
       </c>
-      <c r="H262" s="427" t="s">
+      <c r="H262" s="426" t="s">
         <v>794</v>
       </c>
       <c r="I262" s="252" t="s">
@@ -24381,12 +24546,12 @@
       <c r="D263" s="391" t="s">
         <v>754</v>
       </c>
-      <c r="E263" s="414"/>
-      <c r="F263" s="414"/>
-      <c r="G263" s="428" t="s">
+      <c r="E263" s="412"/>
+      <c r="F263" s="412"/>
+      <c r="G263" s="427" t="s">
         <v>661</v>
       </c>
-      <c r="H263" s="427" t="s">
+      <c r="H263" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I263" s="252" t="s">
@@ -24404,12 +24569,12 @@
       <c r="D264" s="391" t="s">
         <v>793</v>
       </c>
-      <c r="E264" s="414"/>
-      <c r="F264" s="414"/>
-      <c r="G264" s="428" t="s">
+      <c r="E264" s="412"/>
+      <c r="F264" s="412"/>
+      <c r="G264" s="427" t="s">
         <v>696</v>
       </c>
-      <c r="H264" s="427" t="s">
+      <c r="H264" s="426" t="s">
         <v>793</v>
       </c>
       <c r="I264" s="252" t="s">
@@ -24425,12 +24590,12 @@
         <v>950</v>
       </c>
       <c r="D265" s="398"/>
-      <c r="E265" s="414"/>
-      <c r="F265" s="414"/>
-      <c r="G265" s="428" t="s">
+      <c r="E265" s="412"/>
+      <c r="F265" s="412"/>
+      <c r="G265" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H265" s="427" t="s">
+      <c r="H265" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I265" s="252" t="s">
@@ -24446,10 +24611,10 @@
         <v>950</v>
       </c>
       <c r="D266" s="398"/>
-      <c r="E266" s="414"/>
-      <c r="F266" s="414"/>
+      <c r="E266" s="412"/>
+      <c r="F266" s="412"/>
       <c r="G266" s="255"/>
-      <c r="H266" s="427"/>
+      <c r="H266" s="426"/>
       <c r="J266" s="256" t="s">
         <v>816</v>
       </c>
@@ -24463,12 +24628,12 @@
         <v>563</v>
       </c>
       <c r="D267" s="398"/>
-      <c r="E267" s="414"/>
-      <c r="F267" s="414"/>
+      <c r="E267" s="412"/>
+      <c r="F267" s="412"/>
       <c r="G267" s="304" t="s">
         <v>795</v>
       </c>
-      <c r="H267" s="427" t="s">
+      <c r="H267" s="426" t="s">
         <v>794</v>
       </c>
       <c r="I267" s="252" t="s">
@@ -24484,12 +24649,12 @@
         <v>563</v>
       </c>
       <c r="D268" s="398"/>
-      <c r="E268" s="414"/>
-      <c r="F268" s="414"/>
+      <c r="E268" s="412"/>
+      <c r="F268" s="412"/>
       <c r="G268" s="304" t="s">
         <v>582</v>
       </c>
-      <c r="H268" s="427" t="s">
+      <c r="H268" s="426" t="s">
         <v>796</v>
       </c>
       <c r="I268" s="252" t="s">
@@ -24508,12 +24673,12 @@
         <v>563</v>
       </c>
       <c r="D269" s="398"/>
-      <c r="E269" s="414"/>
-      <c r="F269" s="414"/>
+      <c r="E269" s="412"/>
+      <c r="F269" s="412"/>
       <c r="G269" s="304" t="s">
         <v>582</v>
       </c>
-      <c r="H269" s="427" t="s">
+      <c r="H269" s="426" t="s">
         <v>796</v>
       </c>
       <c r="I269" s="252" t="s">
@@ -24534,12 +24699,12 @@
       <c r="D270" s="398" t="s">
         <v>958</v>
       </c>
-      <c r="E270" s="414"/>
-      <c r="F270" s="414"/>
-      <c r="G270" s="428" t="s">
+      <c r="E270" s="412"/>
+      <c r="F270" s="412"/>
+      <c r="G270" s="427" t="s">
         <v>203</v>
       </c>
-      <c r="H270" s="427" t="s">
+      <c r="H270" s="426" t="s">
         <v>797</v>
       </c>
       <c r="I270" s="252" t="s">
@@ -24557,12 +24722,12 @@
       <c r="D271" s="398" t="s">
         <v>798</v>
       </c>
-      <c r="E271" s="414"/>
-      <c r="F271" s="414"/>
-      <c r="G271" s="428" t="s">
+      <c r="E271" s="412"/>
+      <c r="F271" s="412"/>
+      <c r="G271" s="427" t="s">
         <v>204</v>
       </c>
-      <c r="H271" s="427" t="s">
+      <c r="H271" s="426" t="s">
         <v>798</v>
       </c>
       <c r="I271" s="252" t="s">
@@ -24574,16 +24739,16 @@
       <c r="B272" s="247" t="s">
         <v>959</v>
       </c>
-      <c r="C272" s="430" t="s">
+      <c r="C272" s="429" t="s">
         <v>960</v>
       </c>
       <c r="D272" s="398"/>
-      <c r="E272" s="414"/>
-      <c r="F272" s="414"/>
-      <c r="G272" s="428" t="s">
+      <c r="E272" s="412"/>
+      <c r="F272" s="412"/>
+      <c r="G272" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H272" s="427" t="s">
+      <c r="H272" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I272" s="252" t="s">
@@ -24599,12 +24764,12 @@
         <v>599</v>
       </c>
       <c r="D273" s="398"/>
-      <c r="E273" s="414"/>
-      <c r="F273" s="414"/>
-      <c r="G273" s="428" t="s">
+      <c r="E273" s="412"/>
+      <c r="F273" s="412"/>
+      <c r="G273" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H273" s="427" t="s">
+      <c r="H273" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I273" s="252" t="s">
@@ -24620,12 +24785,12 @@
         <v>599</v>
       </c>
       <c r="D274" s="398"/>
-      <c r="E274" s="414"/>
-      <c r="F274" s="414"/>
-      <c r="G274" s="428" t="s">
+      <c r="E274" s="412"/>
+      <c r="F274" s="412"/>
+      <c r="G274" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H274" s="427" t="s">
+      <c r="H274" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I274" s="252" t="s">
@@ -24641,12 +24806,12 @@
         <v>599</v>
       </c>
       <c r="D275" s="398"/>
-      <c r="E275" s="414"/>
-      <c r="F275" s="414"/>
-      <c r="G275" s="428" t="s">
+      <c r="E275" s="412"/>
+      <c r="F275" s="412"/>
+      <c r="G275" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H275" s="427" t="s">
+      <c r="H275" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I275" s="252" t="s">
@@ -24698,12 +24863,12 @@
       <c r="D277" s="391" t="s">
         <v>754</v>
       </c>
-      <c r="E277" s="414"/>
-      <c r="F277" s="414"/>
-      <c r="G277" s="428" t="s">
+      <c r="E277" s="412"/>
+      <c r="F277" s="412"/>
+      <c r="G277" s="427" t="s">
         <v>661</v>
       </c>
-      <c r="H277" s="427" t="s">
+      <c r="H277" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I277" s="252" t="s">
@@ -24721,12 +24886,12 @@
       <c r="D278" s="391" t="s">
         <v>793</v>
       </c>
-      <c r="E278" s="414"/>
-      <c r="F278" s="414"/>
-      <c r="G278" s="428" t="s">
+      <c r="E278" s="412"/>
+      <c r="F278" s="412"/>
+      <c r="G278" s="427" t="s">
         <v>689</v>
       </c>
-      <c r="H278" s="427" t="s">
+      <c r="H278" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I278" s="252" t="s">
@@ -24745,12 +24910,12 @@
       <c r="D279" s="391" t="s">
         <v>793</v>
       </c>
-      <c r="E279" s="414"/>
-      <c r="F279" s="414"/>
-      <c r="G279" s="428" t="s">
+      <c r="E279" s="412"/>
+      <c r="F279" s="412"/>
+      <c r="G279" s="427" t="s">
         <v>689</v>
       </c>
-      <c r="H279" s="427" t="s">
+      <c r="H279" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I279" s="252" t="s">
@@ -24767,12 +24932,12 @@
         <v>563</v>
       </c>
       <c r="D280" s="398"/>
-      <c r="E280" s="414"/>
-      <c r="F280" s="414"/>
+      <c r="E280" s="412"/>
+      <c r="F280" s="412"/>
       <c r="G280" s="304" t="s">
         <v>582</v>
       </c>
-      <c r="H280" s="427" t="s">
+      <c r="H280" s="426" t="s">
         <v>796</v>
       </c>
       <c r="I280" s="252" t="s">
@@ -24791,12 +24956,12 @@
         <v>956</v>
       </c>
       <c r="D281" s="398"/>
-      <c r="E281" s="414"/>
-      <c r="F281" s="414"/>
-      <c r="G281" s="428" t="s">
+      <c r="E281" s="412"/>
+      <c r="F281" s="412"/>
+      <c r="G281" s="427" t="s">
         <v>203</v>
       </c>
-      <c r="H281" s="427" t="s">
+      <c r="H281" s="426" t="s">
         <v>797</v>
       </c>
       <c r="I281" s="252" t="s">
@@ -24812,12 +24977,12 @@
         <v>957</v>
       </c>
       <c r="D282" s="398"/>
-      <c r="E282" s="414"/>
-      <c r="F282" s="414"/>
-      <c r="G282" s="428" t="s">
+      <c r="E282" s="412"/>
+      <c r="F282" s="412"/>
+      <c r="G282" s="427" t="s">
         <v>204</v>
       </c>
-      <c r="H282" s="427" t="s">
+      <c r="H282" s="426" t="s">
         <v>798</v>
       </c>
       <c r="I282" s="252" t="s">
@@ -24833,12 +24998,12 @@
         <v>599</v>
       </c>
       <c r="D283" s="398"/>
-      <c r="E283" s="414"/>
-      <c r="F283" s="414"/>
-      <c r="G283" s="428" t="s">
+      <c r="E283" s="412"/>
+      <c r="F283" s="412"/>
+      <c r="G283" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H283" s="427" t="s">
+      <c r="H283" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I283" s="252" t="s">
@@ -24890,12 +25055,12 @@
       <c r="D285" s="391" t="s">
         <v>754</v>
       </c>
-      <c r="E285" s="414"/>
-      <c r="F285" s="414"/>
-      <c r="G285" s="428" t="s">
+      <c r="E285" s="412"/>
+      <c r="F285" s="412"/>
+      <c r="G285" s="427" t="s">
         <v>661</v>
       </c>
-      <c r="H285" s="427" t="s">
+      <c r="H285" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I285" s="252" t="s">
@@ -24913,12 +25078,12 @@
       <c r="D286" s="391" t="s">
         <v>793</v>
       </c>
-      <c r="E286" s="414"/>
-      <c r="F286" s="414"/>
-      <c r="G286" s="428" t="s">
+      <c r="E286" s="412"/>
+      <c r="F286" s="412"/>
+      <c r="G286" s="427" t="s">
         <v>689</v>
       </c>
-      <c r="H286" s="427" t="s">
+      <c r="H286" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I286" s="252" t="s">
@@ -24937,12 +25102,12 @@
       <c r="D287" s="391" t="s">
         <v>793</v>
       </c>
-      <c r="E287" s="414"/>
-      <c r="F287" s="414"/>
-      <c r="G287" s="428" t="s">
+      <c r="E287" s="412"/>
+      <c r="F287" s="412"/>
+      <c r="G287" s="427" t="s">
         <v>689</v>
       </c>
-      <c r="H287" s="427" t="s">
+      <c r="H287" s="426" t="s">
         <v>754</v>
       </c>
       <c r="I287" s="252" t="s">
@@ -24959,12 +25124,12 @@
         <v>956</v>
       </c>
       <c r="D288" s="398"/>
-      <c r="E288" s="414"/>
-      <c r="F288" s="414"/>
-      <c r="G288" s="428" t="s">
+      <c r="E288" s="412"/>
+      <c r="F288" s="412"/>
+      <c r="G288" s="427" t="s">
         <v>203</v>
       </c>
-      <c r="H288" s="427" t="s">
+      <c r="H288" s="426" t="s">
         <v>797</v>
       </c>
       <c r="I288" s="252" t="s">
@@ -24980,12 +25145,12 @@
         <v>957</v>
       </c>
       <c r="D289" s="398"/>
-      <c r="E289" s="414"/>
-      <c r="F289" s="414"/>
-      <c r="G289" s="428" t="s">
+      <c r="E289" s="412"/>
+      <c r="F289" s="412"/>
+      <c r="G289" s="427" t="s">
         <v>204</v>
       </c>
-      <c r="H289" s="427" t="s">
+      <c r="H289" s="426" t="s">
         <v>798</v>
       </c>
       <c r="I289" s="252" t="s">
@@ -25001,12 +25166,12 @@
         <v>599</v>
       </c>
       <c r="D290" s="398"/>
-      <c r="E290" s="414"/>
-      <c r="F290" s="414"/>
-      <c r="G290" s="428" t="s">
+      <c r="E290" s="412"/>
+      <c r="F290" s="412"/>
+      <c r="G290" s="427" t="s">
         <v>686</v>
       </c>
-      <c r="H290" s="427" t="s">
+      <c r="H290" s="426" t="s">
         <v>791</v>
       </c>
       <c r="I290" s="252" t="s">
@@ -25056,12 +25221,12 @@
         <v>564</v>
       </c>
       <c r="D292" s="398"/>
-      <c r="E292" s="414"/>
-      <c r="F292" s="414"/>
-      <c r="G292" s="428" t="s">
+      <c r="E292" s="412"/>
+      <c r="F292" s="412"/>
+      <c r="G292" s="427" t="s">
         <v>716</v>
       </c>
-      <c r="H292" s="427" t="s">
+      <c r="H292" s="426" t="s">
         <v>713</v>
       </c>
       <c r="I292" s="252" t="s">
@@ -25079,12 +25244,12 @@
       <c r="D293" s="391" t="s">
         <v>714</v>
       </c>
-      <c r="E293" s="414"/>
-      <c r="F293" s="414"/>
-      <c r="G293" s="428" t="s">
+      <c r="E293" s="412"/>
+      <c r="F293" s="412"/>
+      <c r="G293" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H293" s="427" t="s">
+      <c r="H293" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I293" s="252" t="s">
@@ -25134,12 +25299,12 @@
         <v>564</v>
       </c>
       <c r="D295" s="398"/>
-      <c r="E295" s="414"/>
-      <c r="F295" s="414"/>
-      <c r="G295" s="428" t="s">
+      <c r="E295" s="412"/>
+      <c r="F295" s="412"/>
+      <c r="G295" s="427" t="s">
         <v>716</v>
       </c>
-      <c r="H295" s="427" t="s">
+      <c r="H295" s="426" t="s">
         <v>713</v>
       </c>
       <c r="I295" s="252" t="s">
@@ -25157,12 +25322,12 @@
       <c r="D296" s="391" t="s">
         <v>714</v>
       </c>
-      <c r="E296" s="414"/>
-      <c r="F296" s="414"/>
-      <c r="G296" s="428" t="s">
+      <c r="E296" s="412"/>
+      <c r="F296" s="412"/>
+      <c r="G296" s="427" t="s">
         <v>717</v>
       </c>
-      <c r="H296" s="427" t="s">
+      <c r="H296" s="426" t="s">
         <v>714</v>
       </c>
       <c r="I296" s="252" t="s">
@@ -25172,7 +25337,7 @@
     <row r="297" spans="1:10" ht="15" customHeight="1"/>
     <row r="302" spans="1:10" ht="29.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A295:A296"/>
     <mergeCell ref="C2:D2"/>
@@ -25180,7 +25345,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K43:K65"/>
     <mergeCell ref="K4:K34"/>
-    <mergeCell ref="C39:C41"/>
     <mergeCell ref="K75:K77"/>
     <mergeCell ref="A237:A248"/>
     <mergeCell ref="A250:A260"/>

--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\NVT_Data-Model\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD14ACE7-3C87-49E0-9649-116994033BC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015882FA-7839-4BE8-A893-90B4EB606751}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Levels" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="698">
   <si>
     <r>
       <rPr>
@@ -2166,39 +2166,6 @@
     <t>nvto:TimeSpan</t>
   </si>
   <si>
-    <t>nvto:containsReference</t>
-  </si>
-  <si>
-    <t>nvto:containsAudioVisualReference</t>
-  </si>
-  <si>
-    <t>nvto:containsVisualReference</t>
-  </si>
-  <si>
-    <t>nvto:containsAudibleReference</t>
-  </si>
-  <si>
-    <t>nvto:containsTextualReference</t>
-  </si>
-  <si>
-    <t>contains reference</t>
-  </si>
-  <si>
-    <t>dcterm:references</t>
-  </si>
-  <si>
-    <t>contains audiovisual reference</t>
-  </si>
-  <si>
-    <t>contains visual reference</t>
-  </si>
-  <si>
-    <t>contains audible reference</t>
-  </si>
-  <si>
-    <t>contains textual reference</t>
-  </si>
-  <si>
     <t>creator nachtragn</t>
   </si>
   <si>
@@ -2268,10 +2235,37 @@
     <t>nvto:containsTextualReferenceTo</t>
   </si>
   <si>
-    <t>nvto:hasDigitalCopy</t>
-  </si>
-  <si>
-    <t>has digital copy</t>
+    <t>contains audible Reference To</t>
+  </si>
+  <si>
+    <t>contains audiovisual Reference To</t>
+  </si>
+  <si>
+    <t>contains Reference To</t>
+  </si>
+  <si>
+    <t>contains textual Reference To</t>
+  </si>
+  <si>
+    <t>contains visual Reference To</t>
+  </si>
+  <si>
+    <t>nvto:hasDigitalVersion</t>
+  </si>
+  <si>
+    <t>has digital Version</t>
+  </si>
+  <si>
+    <t>nvto:hasInformationCarrier</t>
+  </si>
+  <si>
+    <t>has information carrier</t>
+  </si>
+  <si>
+    <t>generell mapping levels = alle fürs mapping benötigte properties</t>
+  </si>
+  <si>
+    <t>unique properties = alle properties insgesamt</t>
   </si>
 </sst>
 </file>
@@ -2900,7 +2894,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3306,48 +3300,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3366,7 +3319,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Erklärender Text 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3753,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM322"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I250" sqref="I250"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3774,16 +3765,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60.95" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
       <c r="I1" s="137"/>
       <c r="J1" s="131"/>
       <c r="K1" s="6"/>
@@ -3826,15 +3817,15 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
       <c r="I4" s="139"/>
       <c r="J4" s="132"/>
       <c r="K4" s="9"/>
@@ -3845,14 +3836,14 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="9"/>
       <c r="I5" s="138"/>
       <c r="J5" s="9"/>
@@ -3864,14 +3855,14 @@
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="9"/>
       <c r="I6" s="138"/>
       <c r="J6" s="9"/>
@@ -3883,14 +3874,14 @@
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="9"/>
       <c r="I7" s="138"/>
       <c r="J7" s="9"/>
@@ -3902,14 +3893,14 @@
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
       <c r="H8" s="9"/>
       <c r="I8" s="138"/>
       <c r="J8" s="9"/>
@@ -3921,14 +3912,14 @@
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
       <c r="H9" s="9"/>
       <c r="I9" s="138"/>
       <c r="J9" s="9"/>
@@ -3940,14 +3931,14 @@
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
       <c r="H10" s="9"/>
       <c r="I10" s="138"/>
       <c r="J10" s="9"/>
@@ -3959,14 +3950,14 @@
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
       <c r="L11" s="1"/>
       <c r="M11" s="5"/>
     </row>
@@ -3975,22 +3966,22 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="30.95" customHeight="1">
-      <c r="C13" s="163" t="s">
+      <c r="C13" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="164" t="s">
+      <c r="D13" s="174"/>
+      <c r="E13" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="165" t="s">
+      <c r="F13" s="175"/>
+      <c r="G13" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="165"/>
-      <c r="I13" s="170" t="s">
+      <c r="H13" s="176"/>
+      <c r="I13" s="167" t="s">
         <v>647</v>
       </c>
-      <c r="J13" s="171"/>
+      <c r="J13" s="168"/>
     </row>
     <row r="14" spans="1:13" ht="29.25" customHeight="1">
       <c r="A14" s="18" t="s">
@@ -4031,7 +4022,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="160" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -4053,12 +4044,12 @@
       <c r="J15" s="133" t="s">
         <v>589</v>
       </c>
-      <c r="L15" s="176" t="s">
+      <c r="L15" s="163" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="174"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="27" t="s">
         <v>32</v>
       </c>
@@ -4078,10 +4069,10 @@
       <c r="J16" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="177"/>
+      <c r="L16" s="164"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="174"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="38" t="s">
         <v>39</v>
       </c>
@@ -4104,10 +4095,10 @@
       <c r="K17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="177"/>
+      <c r="L17" s="164"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="174"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="34" t="s">
         <v>35</v>
       </c>
@@ -4130,10 +4121,10 @@
       <c r="K18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="177"/>
+      <c r="L18" s="164"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="174"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="41" t="s">
         <v>43</v>
       </c>
@@ -4153,10 +4144,10 @@
       <c r="J19" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="177"/>
+      <c r="L19" s="164"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="174"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="41" t="s">
         <v>46</v>
       </c>
@@ -4176,10 +4167,10 @@
       <c r="J20" s="133" t="s">
         <v>591</v>
       </c>
-      <c r="L20" s="177"/>
+      <c r="L20" s="164"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="174"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="41" t="s">
         <v>49</v>
       </c>
@@ -4199,10 +4190,10 @@
       <c r="J21" s="133" t="s">
         <v>581</v>
       </c>
-      <c r="L21" s="177"/>
+      <c r="L21" s="164"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="174"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="41" t="s">
         <v>52</v>
       </c>
@@ -4222,10 +4213,10 @@
       <c r="J22" s="133" t="s">
         <v>624</v>
       </c>
-      <c r="L22" s="177"/>
+      <c r="L22" s="164"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="174"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="41" t="s">
         <v>55</v>
       </c>
@@ -4245,10 +4236,10 @@
       <c r="J23" s="133" t="s">
         <v>593</v>
       </c>
-      <c r="L23" s="177"/>
+      <c r="L23" s="164"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="174"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="42" t="s">
         <v>58</v>
       </c>
@@ -4271,10 +4262,10 @@
       <c r="K24" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="177"/>
+      <c r="L24" s="164"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="174"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="41" t="s">
         <v>62</v>
       </c>
@@ -4294,10 +4285,10 @@
       <c r="J25" s="133" t="s">
         <v>582</v>
       </c>
-      <c r="L25" s="177"/>
+      <c r="L25" s="164"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="174"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="41" t="s">
         <v>65</v>
       </c>
@@ -4317,10 +4308,10 @@
       <c r="J26" s="133" t="s">
         <v>594</v>
       </c>
-      <c r="L26" s="177"/>
+      <c r="L26" s="164"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="174"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="41" t="s">
         <v>68</v>
       </c>
@@ -4340,10 +4331,10 @@
       <c r="J27" s="133" t="s">
         <v>623</v>
       </c>
-      <c r="L27" s="177"/>
+      <c r="L27" s="164"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="174"/>
+      <c r="A28" s="161"/>
       <c r="B28" s="41" t="s">
         <v>71</v>
       </c>
@@ -4363,10 +4354,10 @@
       <c r="J28" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="L28" s="177"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="174"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="42" t="s">
         <v>74</v>
       </c>
@@ -4386,10 +4377,10 @@
       <c r="J29" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="L29" s="177"/>
+      <c r="L29" s="164"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="174"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="42" t="s">
         <v>77</v>
       </c>
@@ -4409,10 +4400,10 @@
       <c r="J30" s="133" t="s">
         <v>614</v>
       </c>
-      <c r="L30" s="177"/>
+      <c r="L30" s="164"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="174"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="41" t="s">
         <v>80</v>
       </c>
@@ -4432,10 +4423,10 @@
       <c r="J31" s="133" t="s">
         <v>613</v>
       </c>
-      <c r="L31" s="177"/>
+      <c r="L31" s="164"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="174"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="41" t="s">
         <v>83</v>
       </c>
@@ -4458,10 +4449,10 @@
       <c r="K32" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="177"/>
+      <c r="L32" s="164"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="174"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="41" t="s">
         <v>85</v>
       </c>
@@ -4481,10 +4472,10 @@
       <c r="J33" s="133" t="s">
         <v>580</v>
       </c>
-      <c r="L33" s="177"/>
+      <c r="L33" s="164"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="174"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="41" t="s">
         <v>88</v>
       </c>
@@ -4504,10 +4495,10 @@
       <c r="J34" s="133" t="s">
         <v>584</v>
       </c>
-      <c r="L34" s="177"/>
+      <c r="L34" s="164"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="174"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="41" t="s">
         <v>91</v>
       </c>
@@ -4527,10 +4518,10 @@
       <c r="J35" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="L35" s="177"/>
+      <c r="L35" s="164"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="174"/>
+      <c r="A36" s="161"/>
       <c r="B36" s="41" t="s">
         <v>94</v>
       </c>
@@ -4550,10 +4541,10 @@
       <c r="J36" s="133" t="s">
         <v>615</v>
       </c>
-      <c r="L36" s="177"/>
+      <c r="L36" s="164"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="174"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="42" t="s">
         <v>97</v>
       </c>
@@ -4573,10 +4564,10 @@
       <c r="J37" s="133" t="s">
         <v>583</v>
       </c>
-      <c r="L37" s="177"/>
+      <c r="L37" s="164"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="174"/>
+      <c r="A38" s="161"/>
       <c r="B38" s="42" t="s">
         <v>100</v>
       </c>
@@ -4596,10 +4587,10 @@
       <c r="J38" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="177"/>
+      <c r="L38" s="164"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="174"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="43" t="s">
         <v>101</v>
       </c>
@@ -4619,12 +4610,12 @@
       <c r="J39" s="133" t="s">
         <v>595</v>
       </c>
-      <c r="L39" s="177"/>
+      <c r="L39" s="164"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="174"/>
+      <c r="A40" s="161"/>
       <c r="B40" s="43" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="35"/>
@@ -4633,15 +4624,15 @@
       <c r="G40" s="32"/>
       <c r="H40" s="33"/>
       <c r="I40" s="141" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="J40" s="133" t="s">
-        <v>681</v>
-      </c>
-      <c r="L40" s="177"/>
+        <v>670</v>
+      </c>
+      <c r="L40" s="164"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="174"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="44" t="s">
         <v>104</v>
       </c>
@@ -4664,10 +4655,10 @@
       <c r="K41" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L41" s="177"/>
+      <c r="L41" s="164"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="174"/>
+      <c r="A42" s="161"/>
       <c r="B42" s="44" t="s">
         <v>108</v>
       </c>
@@ -4690,10 +4681,10 @@
       <c r="K42" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L42" s="177"/>
+      <c r="L42" s="164"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="174"/>
+      <c r="A43" s="161"/>
       <c r="B43" s="44" t="s">
         <v>112</v>
       </c>
@@ -4716,10 +4707,10 @@
       <c r="K43" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L43" s="177"/>
+      <c r="L43" s="164"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="174"/>
+      <c r="A44" s="161"/>
       <c r="B44" s="45" t="s">
         <v>115</v>
       </c>
@@ -4742,10 +4733,10 @@
       <c r="K44" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="L44" s="177"/>
+      <c r="L44" s="164"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="174"/>
+      <c r="A45" s="161"/>
       <c r="B45" s="45" t="s">
         <v>119</v>
       </c>
@@ -4768,10 +4759,10 @@
       <c r="K45" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="L45" s="177"/>
+      <c r="L45" s="164"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="175"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="45" t="s">
         <v>120</v>
       </c>
@@ -4794,7 +4785,7 @@
       <c r="K46" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="L46" s="178"/>
+      <c r="L46" s="165"/>
     </row>
     <row r="47" spans="1:12" ht="32.1" customHeight="1">
       <c r="A47" s="18" t="s">
@@ -4832,7 +4823,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="167" t="s">
+      <c r="A48" s="166" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -4865,7 +4856,7 @@
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="167"/>
+      <c r="A49" s="166"/>
       <c r="B49" s="27" t="s">
         <v>125</v>
       </c>
@@ -4898,7 +4889,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="167"/>
+      <c r="A50" s="166"/>
       <c r="B50" s="27" t="s">
         <v>128</v>
       </c>
@@ -4931,7 +4922,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="30">
-      <c r="A51" s="167"/>
+      <c r="A51" s="166"/>
       <c r="B51" s="27" t="s">
         <v>132</v>
       </c>
@@ -4963,9 +4954,9 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="167"/>
+      <c r="A52" s="166"/>
       <c r="B52" s="27" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C52" s="50" t="s">
         <v>133</v>
@@ -4982,7 +4973,7 @@
         <v>141</v>
       </c>
       <c r="I52" s="143" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J52" s="133" t="s">
         <v>141</v>
@@ -4990,9 +4981,9 @@
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="167"/>
+      <c r="A53" s="166"/>
       <c r="B53" s="27" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C53" s="46" t="s">
         <v>133</v>
@@ -5009,7 +5000,7 @@
         <v>144</v>
       </c>
       <c r="I53" s="143" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J53" s="133" t="s">
         <v>144</v>
@@ -5017,7 +5008,7 @@
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A54" s="167"/>
+      <c r="A54" s="166"/>
       <c r="B54" s="27" t="s">
         <v>145</v>
       </c>
@@ -5051,7 +5042,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="167"/>
+      <c r="A55" s="166"/>
       <c r="B55" s="41" t="s">
         <v>43</v>
       </c>
@@ -5078,12 +5069,12 @@
       <c r="K55" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="L55" s="168" t="s">
+      <c r="L55" s="170" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="167"/>
+      <c r="A56" s="166"/>
       <c r="B56" s="41" t="s">
         <v>46</v>
       </c>
@@ -5107,10 +5098,10 @@
       <c r="J56" s="133" t="s">
         <v>591</v>
       </c>
-      <c r="L56" s="168"/>
+      <c r="L56" s="170"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="167"/>
+      <c r="A57" s="166"/>
       <c r="B57" s="41" t="s">
         <v>49</v>
       </c>
@@ -5134,10 +5125,10 @@
       <c r="J57" s="133" t="s">
         <v>581</v>
       </c>
-      <c r="L57" s="168"/>
+      <c r="L57" s="170"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="167"/>
+      <c r="A58" s="166"/>
       <c r="B58" s="41" t="s">
         <v>52</v>
       </c>
@@ -5161,10 +5152,10 @@
       <c r="J58" s="133" t="s">
         <v>624</v>
       </c>
-      <c r="L58" s="168"/>
+      <c r="L58" s="170"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="167"/>
+      <c r="A59" s="166"/>
       <c r="B59" s="41" t="s">
         <v>55</v>
       </c>
@@ -5188,10 +5179,10 @@
       <c r="J59" s="133" t="s">
         <v>593</v>
       </c>
-      <c r="L59" s="168"/>
+      <c r="L59" s="170"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="167"/>
+      <c r="A60" s="166"/>
       <c r="B60" s="42" t="s">
         <v>58</v>
       </c>
@@ -5218,10 +5209,10 @@
       <c r="K60" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="168"/>
+      <c r="L60" s="170"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="167"/>
+      <c r="A61" s="166"/>
       <c r="B61" s="41" t="s">
         <v>62</v>
       </c>
@@ -5245,10 +5236,10 @@
       <c r="J61" s="133" t="s">
         <v>582</v>
       </c>
-      <c r="L61" s="168"/>
+      <c r="L61" s="170"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="167"/>
+      <c r="A62" s="166"/>
       <c r="B62" s="41" t="s">
         <v>65</v>
       </c>
@@ -5272,10 +5263,10 @@
       <c r="J62" s="133" t="s">
         <v>594</v>
       </c>
-      <c r="L62" s="168"/>
+      <c r="L62" s="170"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="167"/>
+      <c r="A63" s="166"/>
       <c r="B63" s="41" t="s">
         <v>68</v>
       </c>
@@ -5299,10 +5290,10 @@
       <c r="J63" s="133" t="s">
         <v>623</v>
       </c>
-      <c r="L63" s="168"/>
+      <c r="L63" s="170"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="167"/>
+      <c r="A64" s="166"/>
       <c r="B64" s="41" t="s">
         <v>71</v>
       </c>
@@ -5326,10 +5317,10 @@
       <c r="J64" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="L64" s="168"/>
+      <c r="L64" s="170"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="167"/>
+      <c r="A65" s="166"/>
       <c r="B65" s="42" t="s">
         <v>74</v>
       </c>
@@ -5353,10 +5344,10 @@
       <c r="J65" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="L65" s="168"/>
+      <c r="L65" s="170"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="167"/>
+      <c r="A66" s="166"/>
       <c r="B66" s="42" t="s">
         <v>77</v>
       </c>
@@ -5380,10 +5371,10 @@
       <c r="J66" s="133" t="s">
         <v>614</v>
       </c>
-      <c r="L66" s="168"/>
+      <c r="L66" s="170"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="167"/>
+      <c r="A67" s="166"/>
       <c r="B67" s="41" t="s">
         <v>80</v>
       </c>
@@ -5407,10 +5398,10 @@
       <c r="J67" s="133" t="s">
         <v>613</v>
       </c>
-      <c r="L67" s="168"/>
+      <c r="L67" s="170"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="167"/>
+      <c r="A68" s="166"/>
       <c r="B68" s="41" t="s">
         <v>83</v>
       </c>
@@ -5437,10 +5428,10 @@
       <c r="K68" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="L68" s="168"/>
+      <c r="L68" s="170"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="167"/>
+      <c r="A69" s="166"/>
       <c r="B69" s="41" t="s">
         <v>85</v>
       </c>
@@ -5464,10 +5455,10 @@
       <c r="J69" s="133" t="s">
         <v>580</v>
       </c>
-      <c r="L69" s="168"/>
+      <c r="L69" s="170"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="167"/>
+      <c r="A70" s="166"/>
       <c r="B70" s="41" t="s">
         <v>88</v>
       </c>
@@ -5491,10 +5482,10 @@
       <c r="J70" s="133" t="s">
         <v>584</v>
       </c>
-      <c r="L70" s="168"/>
+      <c r="L70" s="170"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="167"/>
+      <c r="A71" s="166"/>
       <c r="B71" s="41" t="s">
         <v>91</v>
       </c>
@@ -5518,10 +5509,10 @@
       <c r="J71" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="L71" s="168"/>
+      <c r="L71" s="170"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="167"/>
+      <c r="A72" s="166"/>
       <c r="B72" s="41" t="s">
         <v>94</v>
       </c>
@@ -5545,10 +5536,10 @@
       <c r="J72" s="133" t="s">
         <v>615</v>
       </c>
-      <c r="L72" s="168"/>
+      <c r="L72" s="170"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="167"/>
+      <c r="A73" s="166"/>
       <c r="B73" s="42" t="s">
         <v>97</v>
       </c>
@@ -5572,10 +5563,10 @@
       <c r="J73" s="133" t="s">
         <v>583</v>
       </c>
-      <c r="L73" s="168"/>
+      <c r="L73" s="170"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="167"/>
+      <c r="A74" s="166"/>
       <c r="B74" s="42" t="s">
         <v>155</v>
       </c>
@@ -5599,10 +5590,10 @@
       <c r="J74" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="L74" s="168"/>
+      <c r="L74" s="170"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="167"/>
+      <c r="A75" s="166"/>
       <c r="B75" s="42" t="s">
         <v>158</v>
       </c>
@@ -5629,10 +5620,10 @@
       <c r="K75" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="L75" s="168"/>
+      <c r="L75" s="170"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="167"/>
+      <c r="A76" s="166"/>
       <c r="B76" s="42" t="s">
         <v>100</v>
       </c>
@@ -5656,10 +5647,10 @@
       <c r="J76" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="L76" s="168"/>
+      <c r="L76" s="170"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="167"/>
+      <c r="A77" s="166"/>
       <c r="B77" s="55" t="s">
         <v>161</v>
       </c>
@@ -5679,10 +5670,10 @@
       <c r="J77" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="L77" s="168"/>
+      <c r="L77" s="170"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="167"/>
+      <c r="A78" s="166"/>
       <c r="B78" s="44" t="s">
         <v>164</v>
       </c>
@@ -5715,7 +5706,7 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="167"/>
+      <c r="A79" s="166"/>
       <c r="B79" s="55" t="s">
         <v>167</v>
       </c>
@@ -5748,7 +5739,7 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="167"/>
+      <c r="A80" s="166"/>
       <c r="B80" s="55" t="s">
         <v>169</v>
       </c>
@@ -5781,7 +5772,7 @@
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="167"/>
+      <c r="A81" s="166"/>
       <c r="B81" s="45" t="s">
         <v>115</v>
       </c>
@@ -5811,7 +5802,7 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="167"/>
+      <c r="A82" s="166"/>
       <c r="B82" s="45" t="s">
         <v>119</v>
       </c>
@@ -5841,7 +5832,7 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="167"/>
+      <c r="A83" s="166"/>
       <c r="B83" s="45" t="s">
         <v>120</v>
       </c>
@@ -5906,7 +5897,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1">
-      <c r="A85" s="173" t="s">
+      <c r="A85" s="160" t="s">
         <v>173</v>
       </c>
       <c r="B85" s="56" t="s">
@@ -5941,7 +5932,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1">
-      <c r="A86" s="174"/>
+      <c r="A86" s="161"/>
       <c r="B86" s="58" t="s">
         <v>179</v>
       </c>
@@ -5976,7 +5967,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
-      <c r="A87" s="174"/>
+      <c r="A87" s="161"/>
       <c r="B87" s="59" t="s">
         <v>186</v>
       </c>
@@ -6007,12 +5998,12 @@
       <c r="K87" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="L87" s="169" t="s">
+      <c r="L87" s="171" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="174"/>
+      <c r="A88" s="161"/>
       <c r="B88" s="62" t="s">
         <v>189</v>
       </c>
@@ -6040,10 +6031,10 @@
       <c r="J88" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="L88" s="169"/>
+      <c r="L88" s="171"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="174"/>
+      <c r="A89" s="161"/>
       <c r="B89" s="62" t="s">
         <v>190</v>
       </c>
@@ -6071,10 +6062,10 @@
       <c r="J89" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="L89" s="169"/>
+      <c r="L89" s="171"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="174"/>
+      <c r="A90" s="161"/>
       <c r="B90" s="62" t="s">
         <v>191</v>
       </c>
@@ -6107,7 +6098,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="30">
-      <c r="A91" s="174"/>
+      <c r="A91" s="161"/>
       <c r="B91" s="66" t="s">
         <v>198</v>
       </c>
@@ -6128,7 +6119,7 @@
         <v>144</v>
       </c>
       <c r="I91" s="142" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="J91" s="134" t="s">
         <v>587</v>
@@ -6141,7 +6132,7 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="174"/>
+      <c r="A92" s="161"/>
       <c r="B92" s="66" t="s">
         <v>204</v>
       </c>
@@ -6162,7 +6153,7 @@
         <v>141</v>
       </c>
       <c r="I92" s="142" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J92" s="134" t="s">
         <v>586</v>
@@ -6172,7 +6163,7 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="174"/>
+      <c r="A93" s="161"/>
       <c r="B93" s="66" t="s">
         <v>206</v>
       </c>
@@ -6195,7 +6186,7 @@
         <v>144</v>
       </c>
       <c r="I93" s="142" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="J93" s="134" t="s">
         <v>587</v>
@@ -6205,7 +6196,7 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="174"/>
+      <c r="A94" s="161"/>
       <c r="B94" s="66" t="s">
         <v>208</v>
       </c>
@@ -6226,7 +6217,7 @@
         <v>141</v>
       </c>
       <c r="I94" s="142" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J94" s="134" t="s">
         <v>586</v>
@@ -6236,7 +6227,7 @@
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="174"/>
+      <c r="A95" s="161"/>
       <c r="B95" s="70" t="s">
         <v>209</v>
       </c>
@@ -6266,7 +6257,7 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="174"/>
+      <c r="A96" s="161"/>
       <c r="B96" s="71" t="s">
         <v>211</v>
       </c>
@@ -6296,7 +6287,7 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="174"/>
+      <c r="A97" s="161"/>
       <c r="B97" s="70" t="s">
         <v>214</v>
       </c>
@@ -6326,7 +6317,7 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="174"/>
+      <c r="A98" s="161"/>
       <c r="B98" s="72" t="s">
         <v>216</v>
       </c>
@@ -6352,9 +6343,9 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="174"/>
+      <c r="A99" s="161"/>
       <c r="B99" s="74" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C99" s="63" t="s">
         <v>140</v>
@@ -6373,16 +6364,16 @@
         <v>144</v>
       </c>
       <c r="I99" s="141" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="J99" s="133" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="174"/>
+      <c r="A100" s="161"/>
       <c r="B100" s="74" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C100" s="63" t="s">
         <v>140</v>
@@ -6401,16 +6392,16 @@
         <v>141</v>
       </c>
       <c r="I100" s="143" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="J100" s="133" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="174"/>
+      <c r="A101" s="161"/>
       <c r="B101" s="72" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="C101" s="63" t="s">
         <v>140</v>
@@ -6429,14 +6420,14 @@
         <v>141</v>
       </c>
       <c r="I101" s="143" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J101" s="133" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="174"/>
+      <c r="A102" s="161"/>
       <c r="B102" s="75" t="s">
         <v>223</v>
       </c>
@@ -6462,7 +6453,7 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="174"/>
+      <c r="A103" s="161"/>
       <c r="B103" s="76" t="s">
         <v>226</v>
       </c>
@@ -6488,7 +6479,7 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="174"/>
+      <c r="A104" s="161"/>
       <c r="B104" s="76" t="s">
         <v>58</v>
       </c>
@@ -6517,7 +6508,7 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="174"/>
+      <c r="A105" s="161"/>
       <c r="B105" s="75" t="s">
         <v>62</v>
       </c>
@@ -6543,7 +6534,7 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="174"/>
+      <c r="A106" s="161"/>
       <c r="B106" s="75" t="s">
         <v>65</v>
       </c>
@@ -6569,7 +6560,7 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="174"/>
+      <c r="A107" s="161"/>
       <c r="B107" s="75" t="s">
         <v>68</v>
       </c>
@@ -6595,7 +6586,7 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="174"/>
+      <c r="A108" s="161"/>
       <c r="B108" s="75" t="s">
         <v>71</v>
       </c>
@@ -6621,7 +6612,7 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="174"/>
+      <c r="A109" s="161"/>
       <c r="B109" s="76" t="s">
         <v>227</v>
       </c>
@@ -6647,7 +6638,7 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="174"/>
+      <c r="A110" s="161"/>
       <c r="B110" s="75" t="s">
         <v>80</v>
       </c>
@@ -6673,7 +6664,7 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="174"/>
+      <c r="A111" s="161"/>
       <c r="B111" s="75" t="s">
         <v>83</v>
       </c>
@@ -6699,7 +6690,7 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="174"/>
+      <c r="A112" s="161"/>
       <c r="B112" s="75" t="s">
         <v>85</v>
       </c>
@@ -6725,7 +6716,7 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="174"/>
+      <c r="A113" s="161"/>
       <c r="B113" s="75" t="s">
         <v>88</v>
       </c>
@@ -6751,7 +6742,7 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="174"/>
+      <c r="A114" s="161"/>
       <c r="B114" s="75" t="s">
         <v>91</v>
       </c>
@@ -6777,7 +6768,7 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="174"/>
+      <c r="A115" s="161"/>
       <c r="B115" s="76" t="s">
         <v>74</v>
       </c>
@@ -6803,7 +6794,7 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="174"/>
+      <c r="A116" s="161"/>
       <c r="B116" s="75" t="s">
         <v>94</v>
       </c>
@@ -6829,7 +6820,7 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="174"/>
+      <c r="A117" s="161"/>
       <c r="B117" s="76" t="s">
         <v>97</v>
       </c>
@@ -6855,7 +6846,7 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="174"/>
+      <c r="A118" s="161"/>
       <c r="B118" s="74" t="s">
         <v>100</v>
       </c>
@@ -6881,7 +6872,7 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="174"/>
+      <c r="A119" s="161"/>
       <c r="B119" s="77" t="s">
         <v>228</v>
       </c>
@@ -6911,7 +6902,7 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="174"/>
+      <c r="A120" s="161"/>
       <c r="B120" s="77" t="s">
         <v>232</v>
       </c>
@@ -6939,7 +6930,7 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="174"/>
+      <c r="A121" s="161"/>
       <c r="B121" s="77" t="s">
         <v>377</v>
       </c>
@@ -6975,7 +6966,7 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="174"/>
+      <c r="A122" s="161"/>
       <c r="B122" s="77" t="s">
         <v>119</v>
       </c>
@@ -7008,7 +6999,7 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="174"/>
+      <c r="A123" s="161"/>
       <c r="B123" s="77" t="s">
         <v>120</v>
       </c>
@@ -7041,7 +7032,7 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="174"/>
+      <c r="A124" s="161"/>
       <c r="B124" s="78" t="s">
         <v>242</v>
       </c>
@@ -7074,7 +7065,7 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="174"/>
+      <c r="A125" s="161"/>
       <c r="B125" s="78" t="s">
         <v>247</v>
       </c>
@@ -7107,7 +7098,7 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="174"/>
+      <c r="A126" s="161"/>
       <c r="B126" s="78" t="s">
         <v>251</v>
       </c>
@@ -7137,7 +7128,7 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="174"/>
+      <c r="A127" s="161"/>
       <c r="B127" s="79" t="s">
         <v>254</v>
       </c>
@@ -7167,7 +7158,7 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="174"/>
+      <c r="A128" s="161"/>
       <c r="B128" s="80" t="s">
         <v>257</v>
       </c>
@@ -7196,7 +7187,7 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="174"/>
+      <c r="A129" s="161"/>
       <c r="B129" s="81" t="s">
         <v>261</v>
       </c>
@@ -7217,9 +7208,9 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="174"/>
+      <c r="A130" s="161"/>
       <c r="B130" s="78" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="C130" s="63"/>
       <c r="D130" s="35"/>
@@ -7234,7 +7225,7 @@
       <c r="K130" s="37"/>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="174"/>
+      <c r="A131" s="161"/>
       <c r="B131" s="82" t="s">
         <v>257</v>
       </c>
@@ -7261,7 +7252,7 @@
       <c r="K131" s="37"/>
     </row>
     <row r="132" spans="1:12" ht="15" customHeight="1">
-      <c r="A132" s="174"/>
+      <c r="A132" s="161"/>
       <c r="B132" s="82" t="s">
         <v>265</v>
       </c>
@@ -7292,12 +7283,12 @@
       <c r="K132" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="L132" s="166" t="s">
+      <c r="L132" s="169" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="174"/>
+      <c r="A133" s="161"/>
       <c r="B133" s="82" t="s">
         <v>269</v>
       </c>
@@ -7328,10 +7319,10 @@
       <c r="K133" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="L133" s="166"/>
+      <c r="L133" s="169"/>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="174"/>
+      <c r="A134" s="161"/>
       <c r="B134" s="90" t="s">
         <v>272</v>
       </c>
@@ -7362,10 +7353,10 @@
       <c r="K134" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="L134" s="166"/>
+      <c r="L134" s="169"/>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="175"/>
+      <c r="A135" s="162"/>
       <c r="B135" s="59" t="s">
         <v>277</v>
       </c>
@@ -7430,7 +7421,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="15" customHeight="1">
-      <c r="A137" s="173" t="s">
+      <c r="A137" s="160" t="s">
         <v>281</v>
       </c>
       <c r="B137" s="92" t="s">
@@ -7460,7 +7451,7 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="174"/>
+      <c r="A138" s="161"/>
       <c r="B138" s="59" t="s">
         <v>179</v>
       </c>
@@ -7489,7 +7480,7 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="174"/>
+      <c r="A139" s="161"/>
       <c r="B139" s="59" t="s">
         <v>186</v>
       </c>
@@ -7522,9 +7513,9 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="174"/>
+      <c r="A140" s="161"/>
       <c r="B140" s="93" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C140" s="63" t="s">
         <v>135</v>
@@ -7555,7 +7546,7 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="174"/>
+      <c r="A141" s="161"/>
       <c r="B141" s="93" t="s">
         <v>190</v>
       </c>
@@ -7585,7 +7576,7 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="174"/>
+      <c r="A142" s="161"/>
       <c r="B142" s="93" t="s">
         <v>284</v>
       </c>
@@ -7616,7 +7607,7 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="174"/>
+      <c r="A143" s="161"/>
       <c r="B143" s="94" t="s">
         <v>198</v>
       </c>
@@ -7637,7 +7628,7 @@
         <v>144</v>
       </c>
       <c r="I143" s="142" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="J143" s="134" t="s">
         <v>587</v>
@@ -7647,7 +7638,7 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="174"/>
+      <c r="A144" s="161"/>
       <c r="B144" s="94" t="s">
         <v>204</v>
       </c>
@@ -7668,7 +7659,7 @@
         <v>141</v>
       </c>
       <c r="I144" s="142" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="J144" s="134" t="s">
         <v>586</v>
@@ -7678,7 +7669,7 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="174"/>
+      <c r="A145" s="161"/>
       <c r="B145" s="94" t="s">
         <v>206</v>
       </c>
@@ -7701,7 +7692,7 @@
         <v>144</v>
       </c>
       <c r="I145" s="142" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="J145" s="134" t="s">
         <v>587</v>
@@ -7711,7 +7702,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="174"/>
+      <c r="A146" s="161"/>
       <c r="B146" s="94" t="s">
         <v>208</v>
       </c>
@@ -7730,7 +7721,7 @@
         <v>141</v>
       </c>
       <c r="I146" s="142" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="J146" s="134" t="s">
         <v>586</v>
@@ -7740,7 +7731,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="174"/>
+      <c r="A147" s="161"/>
       <c r="B147" s="95" t="s">
         <v>209</v>
       </c>
@@ -7770,7 +7761,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="174"/>
+      <c r="A148" s="161"/>
       <c r="B148" s="96" t="s">
         <v>211</v>
       </c>
@@ -7800,7 +7791,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="174"/>
+      <c r="A149" s="161"/>
       <c r="B149" s="95" t="s">
         <v>214</v>
       </c>
@@ -7830,7 +7821,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="174"/>
+      <c r="A150" s="161"/>
       <c r="B150" s="95" t="s">
         <v>286</v>
       </c>
@@ -7860,7 +7851,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="174"/>
+      <c r="A151" s="161"/>
       <c r="B151" s="41" t="s">
         <v>290</v>
       </c>
@@ -7886,7 +7877,7 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="174"/>
+      <c r="A152" s="161"/>
       <c r="B152" s="41" t="s">
         <v>294</v>
       </c>
@@ -7912,7 +7903,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="174"/>
+      <c r="A153" s="161"/>
       <c r="B153" s="41" t="s">
         <v>295</v>
       </c>
@@ -7940,7 +7931,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="174"/>
+      <c r="A154" s="161"/>
       <c r="B154" s="41" t="s">
         <v>296</v>
       </c>
@@ -7968,7 +7959,7 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="174"/>
+      <c r="A155" s="161"/>
       <c r="B155" s="41" t="s">
         <v>297</v>
       </c>
@@ -7995,7 +7986,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="174"/>
+      <c r="A156" s="161"/>
       <c r="B156" s="41" t="s">
         <v>301</v>
       </c>
@@ -8023,7 +8014,7 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="174"/>
+      <c r="A157" s="161"/>
       <c r="B157" s="41" t="s">
         <v>304</v>
       </c>
@@ -8051,7 +8042,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="174"/>
+      <c r="A158" s="161"/>
       <c r="B158" s="41" t="s">
         <v>307</v>
       </c>
@@ -8079,7 +8070,7 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="174"/>
+      <c r="A159" s="161"/>
       <c r="B159" s="41" t="s">
         <v>100</v>
       </c>
@@ -8105,7 +8096,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="174"/>
+      <c r="A160" s="161"/>
       <c r="B160" s="41" t="s">
         <v>310</v>
       </c>
@@ -8124,14 +8115,14 @@
         <v>141</v>
       </c>
       <c r="I160" s="142" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="J160" s="133" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="174"/>
+      <c r="A161" s="161"/>
       <c r="B161" s="41" t="s">
         <v>311</v>
       </c>
@@ -8150,14 +8141,14 @@
         <v>141</v>
       </c>
       <c r="I161" s="142" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="J161" s="133" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="174"/>
+      <c r="A162" s="161"/>
       <c r="B162" s="41" t="s">
         <v>220</v>
       </c>
@@ -8168,14 +8159,14 @@
       <c r="G162" s="32"/>
       <c r="H162" s="33"/>
       <c r="I162" s="142" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="J162" s="133"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="174"/>
+      <c r="A163" s="161"/>
       <c r="B163" s="41" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="C163" s="63"/>
       <c r="D163" s="35"/>
@@ -8184,12 +8175,12 @@
       <c r="G163" s="32"/>
       <c r="H163" s="33"/>
       <c r="I163" s="142" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="J163" s="133"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="174"/>
+      <c r="A164" s="161"/>
       <c r="B164" s="45" t="s">
         <v>312</v>
       </c>
@@ -8219,7 +8210,7 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="174"/>
+      <c r="A165" s="161"/>
       <c r="B165" s="98" t="s">
         <v>313</v>
       </c>
@@ -8250,7 +8241,7 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="15" customHeight="1">
-      <c r="A166" s="174"/>
+      <c r="A166" s="161"/>
       <c r="B166" s="45" t="s">
         <v>318</v>
       </c>
@@ -8281,7 +8272,7 @@
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="174"/>
+      <c r="A167" s="161"/>
       <c r="B167" s="98" t="s">
         <v>321</v>
       </c>
@@ -8311,7 +8302,7 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="174"/>
+      <c r="A168" s="161"/>
       <c r="B168" s="45" t="s">
         <v>324</v>
       </c>
@@ -8342,7 +8333,7 @@
       </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="174"/>
+      <c r="A169" s="161"/>
       <c r="B169" s="45" t="s">
         <v>327</v>
       </c>
@@ -8372,7 +8363,7 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="174"/>
+      <c r="A170" s="161"/>
       <c r="B170" s="45" t="s">
         <v>120</v>
       </c>
@@ -8403,7 +8394,7 @@
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="174"/>
+      <c r="A171" s="161"/>
       <c r="B171" s="45" t="s">
         <v>329</v>
       </c>
@@ -8435,7 +8426,7 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="174"/>
+      <c r="A172" s="161"/>
       <c r="B172" s="45" t="s">
         <v>333</v>
       </c>
@@ -8458,7 +8449,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="30">
-      <c r="A173" s="174"/>
+      <c r="A173" s="161"/>
       <c r="B173" s="45" t="s">
         <v>335</v>
       </c>
@@ -8489,7 +8480,7 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="174"/>
+      <c r="A174" s="161"/>
       <c r="B174" s="102" t="s">
         <v>242</v>
       </c>
@@ -8517,7 +8508,7 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="174"/>
+      <c r="A175" s="161"/>
       <c r="B175" s="102" t="s">
         <v>251</v>
       </c>
@@ -8547,7 +8538,7 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="174"/>
+      <c r="A176" s="161"/>
       <c r="B176" s="102" t="s">
         <v>339</v>
       </c>
@@ -8577,9 +8568,9 @@
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="174"/>
+      <c r="A177" s="161"/>
       <c r="B177" s="102" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C177" s="60"/>
       <c r="D177" s="99"/>
@@ -8591,7 +8582,7 @@
       <c r="J177" s="133"/>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="174"/>
+      <c r="A178" s="161"/>
       <c r="B178" s="103" t="s">
         <v>257</v>
       </c>
@@ -8624,7 +8615,7 @@
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="174"/>
+      <c r="A179" s="161"/>
       <c r="B179" s="105" t="s">
         <v>261</v>
       </c>
@@ -8649,9 +8640,9 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="174"/>
+      <c r="A180" s="161"/>
       <c r="B180" s="102" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="C180" s="28"/>
       <c r="D180" s="97"/>
@@ -8666,7 +8657,7 @@
       <c r="K180" s="37"/>
     </row>
     <row r="181" spans="1:12" ht="15" customHeight="1">
-      <c r="A181" s="174"/>
+      <c r="A181" s="161"/>
       <c r="B181" s="106" t="s">
         <v>257</v>
       </c>
@@ -8697,12 +8688,12 @@
       <c r="K181" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="L181" s="166" t="s">
+      <c r="L181" s="169" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="174"/>
+      <c r="A182" s="161"/>
       <c r="B182" s="82" t="s">
         <v>269</v>
       </c>
@@ -8733,10 +8724,10 @@
       <c r="K182" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="L182" s="166"/>
+      <c r="L182" s="169"/>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="174"/>
+      <c r="A183" s="161"/>
       <c r="B183" s="90" t="s">
         <v>272</v>
       </c>
@@ -8767,10 +8758,10 @@
       <c r="K183" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="L183" s="166"/>
+      <c r="L183" s="169"/>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="175"/>
+      <c r="A184" s="162"/>
       <c r="B184" s="59" t="s">
         <v>277</v>
       </c>
@@ -8835,7 +8826,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="15" customHeight="1">
-      <c r="A186" s="172" t="s">
+      <c r="A186" s="160" t="s">
         <v>340</v>
       </c>
       <c r="B186" s="56" t="s">
@@ -8865,7 +8856,7 @@
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="172"/>
+      <c r="A187" s="161"/>
       <c r="B187" s="58" t="s">
         <v>179</v>
       </c>
@@ -8894,7 +8885,7 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="172"/>
+      <c r="A188" s="161"/>
       <c r="B188" s="59" t="s">
         <v>186</v>
       </c>
@@ -8927,9 +8918,9 @@
       </c>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="172"/>
+      <c r="A189" s="161"/>
       <c r="B189" s="62" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C189" s="63" t="s">
         <v>135</v>
@@ -8957,7 +8948,7 @@
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="172"/>
+      <c r="A190" s="161"/>
       <c r="B190" s="62" t="s">
         <v>190</v>
       </c>
@@ -8987,7 +8978,7 @@
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="172"/>
+      <c r="A191" s="161"/>
       <c r="B191" s="62" t="s">
         <v>341</v>
       </c>
@@ -9018,7 +9009,7 @@
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="172"/>
+      <c r="A192" s="161"/>
       <c r="B192" s="66" t="s">
         <v>198</v>
       </c>
@@ -9039,7 +9030,7 @@
         <v>144</v>
       </c>
       <c r="I192" s="142" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="J192" s="134" t="s">
         <v>587</v>
@@ -9049,7 +9040,7 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="172"/>
+      <c r="A193" s="161"/>
       <c r="B193" s="66" t="s">
         <v>204</v>
       </c>
@@ -9070,7 +9061,7 @@
         <v>141</v>
       </c>
       <c r="I193" s="142" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="J193" s="134" t="s">
         <v>586</v>
@@ -9080,7 +9071,7 @@
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="172"/>
+      <c r="A194" s="161"/>
       <c r="B194" s="66" t="s">
         <v>206</v>
       </c>
@@ -9103,7 +9094,7 @@
         <v>144</v>
       </c>
       <c r="I194" s="142" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="J194" s="134" t="s">
         <v>587</v>
@@ -9113,7 +9104,7 @@
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="172"/>
+      <c r="A195" s="161"/>
       <c r="B195" s="66" t="s">
         <v>208</v>
       </c>
@@ -9132,7 +9123,7 @@
         <v>141</v>
       </c>
       <c r="I195" s="142" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="J195" s="134" t="s">
         <v>586</v>
@@ -9142,7 +9133,7 @@
       </c>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="172"/>
+      <c r="A196" s="161"/>
       <c r="B196" s="70" t="s">
         <v>209</v>
       </c>
@@ -9170,7 +9161,7 @@
       </c>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="172"/>
+      <c r="A197" s="161"/>
       <c r="B197" s="70" t="s">
         <v>342</v>
       </c>
@@ -9203,9 +9194,9 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="30">
-      <c r="A198" s="172"/>
+      <c r="A198" s="161"/>
       <c r="B198" s="72" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C198" s="63" t="s">
         <v>140</v>
@@ -9224,7 +9215,7 @@
         <v>144</v>
       </c>
       <c r="I198" s="143" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="J198" s="133" t="s">
         <v>587</v>
@@ -9234,7 +9225,7 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="172"/>
+      <c r="A199" s="161"/>
       <c r="B199" s="72" t="s">
         <v>345</v>
       </c>
@@ -9260,7 +9251,7 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="172"/>
+      <c r="A200" s="161"/>
       <c r="B200" s="72" t="s">
         <v>346</v>
       </c>
@@ -9289,7 +9280,7 @@
       </c>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="172"/>
+      <c r="A201" s="161"/>
       <c r="B201" s="77" t="s">
         <v>349</v>
       </c>
@@ -9319,7 +9310,7 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="172"/>
+      <c r="A202" s="161"/>
       <c r="B202" s="77" t="s">
         <v>236</v>
       </c>
@@ -9352,7 +9343,7 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="172"/>
+      <c r="A203" s="161"/>
       <c r="B203" s="77" t="s">
         <v>351</v>
       </c>
@@ -9385,7 +9376,7 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="172"/>
+      <c r="A204" s="161"/>
       <c r="B204" s="77" t="s">
         <v>352</v>
       </c>
@@ -9418,7 +9409,7 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="172"/>
+      <c r="A205" s="161"/>
       <c r="B205" s="107" t="s">
         <v>353</v>
       </c>
@@ -9451,7 +9442,7 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="172"/>
+      <c r="A206" s="161"/>
       <c r="B206" s="107" t="s">
         <v>356</v>
       </c>
@@ -9484,7 +9475,7 @@
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="172"/>
+      <c r="A207" s="161"/>
       <c r="B207" s="110" t="s">
         <v>359</v>
       </c>
@@ -9514,7 +9505,7 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="172"/>
+      <c r="A208" s="161"/>
       <c r="B208" s="111" t="s">
         <v>251</v>
       </c>
@@ -9544,7 +9535,7 @@
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="172"/>
+      <c r="A209" s="161"/>
       <c r="B209" s="111" t="s">
         <v>254</v>
       </c>
@@ -9574,7 +9565,7 @@
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="172"/>
+      <c r="A210" s="161"/>
       <c r="B210" s="111" t="s">
         <v>360</v>
       </c>
@@ -9604,7 +9595,7 @@
       </c>
     </row>
     <row r="211" spans="1:12">
-      <c r="A211" s="172"/>
+      <c r="A211" s="161"/>
       <c r="B211" s="111" t="s">
         <v>361</v>
       </c>
@@ -9634,7 +9625,7 @@
       </c>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="172"/>
+      <c r="A212" s="161"/>
       <c r="B212" s="111" t="s">
         <v>362</v>
       </c>
@@ -9666,7 +9657,7 @@
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="172"/>
+      <c r="A213" s="161"/>
       <c r="B213" s="103" t="s">
         <v>257</v>
       </c>
@@ -9695,7 +9686,7 @@
       </c>
     </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="172"/>
+      <c r="A214" s="161"/>
       <c r="B214" s="105" t="s">
         <v>261</v>
       </c>
@@ -9716,9 +9707,9 @@
       </c>
     </row>
     <row r="215" spans="1:12">
-      <c r="A215" s="172"/>
+      <c r="A215" s="161"/>
       <c r="B215" s="111" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="C215" s="28"/>
       <c r="D215" s="35"/>
@@ -9733,7 +9724,7 @@
       <c r="K215" s="37"/>
     </row>
     <row r="216" spans="1:12" ht="15" customHeight="1">
-      <c r="A216" s="172"/>
+      <c r="A216" s="161"/>
       <c r="B216" s="106" t="s">
         <v>257</v>
       </c>
@@ -9760,12 +9751,12 @@
       <c r="K216" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="L216" s="166" t="s">
+      <c r="L216" s="169" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:12">
-      <c r="A217" s="172"/>
+      <c r="A217" s="161"/>
       <c r="B217" s="82" t="s">
         <v>269</v>
       </c>
@@ -9796,10 +9787,10 @@
       <c r="K217" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="L217" s="166"/>
+      <c r="L217" s="169"/>
     </row>
     <row r="218" spans="1:12">
-      <c r="A218" s="172"/>
+      <c r="A218" s="161"/>
       <c r="B218" s="90" t="s">
         <v>272</v>
       </c>
@@ -9830,10 +9821,10 @@
       <c r="K218" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="L218" s="166"/>
+      <c r="L218" s="169"/>
     </row>
     <row r="219" spans="1:12">
-      <c r="A219" s="172"/>
+      <c r="A219" s="162"/>
       <c r="B219" s="59" t="s">
         <v>277</v>
       </c>
@@ -9898,7 +9889,7 @@
       </c>
     </row>
     <row r="221" spans="1:12" ht="15" customHeight="1">
-      <c r="A221" s="173" t="s">
+      <c r="A221" s="160" t="s">
         <v>367</v>
       </c>
       <c r="B221" s="56" t="s">
@@ -9928,7 +9919,7 @@
       </c>
     </row>
     <row r="222" spans="1:12">
-      <c r="A222" s="174"/>
+      <c r="A222" s="161"/>
       <c r="B222" s="58" t="s">
         <v>179</v>
       </c>
@@ -9957,7 +9948,7 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="174"/>
+      <c r="A223" s="161"/>
       <c r="B223" s="59" t="s">
         <v>186</v>
       </c>
@@ -9990,7 +9981,7 @@
       </c>
     </row>
     <row r="224" spans="1:12">
-      <c r="A224" s="174"/>
+      <c r="A224" s="161"/>
       <c r="B224" s="62" t="s">
         <v>282</v>
       </c>
@@ -10020,7 +10011,7 @@
       </c>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="174"/>
+      <c r="A225" s="161"/>
       <c r="B225" s="62" t="s">
         <v>190</v>
       </c>
@@ -10050,7 +10041,7 @@
       </c>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="174"/>
+      <c r="A226" s="161"/>
       <c r="B226" s="62" t="s">
         <v>368</v>
       </c>
@@ -10081,7 +10072,7 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="174"/>
+      <c r="A227" s="161"/>
       <c r="B227" s="66" t="s">
         <v>198</v>
       </c>
@@ -10102,7 +10093,7 @@
         <v>144</v>
       </c>
       <c r="I227" s="142" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="J227" s="134" t="s">
         <v>587</v>
@@ -10112,7 +10103,7 @@
       </c>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="174"/>
+      <c r="A228" s="161"/>
       <c r="B228" s="66" t="s">
         <v>204</v>
       </c>
@@ -10133,7 +10124,7 @@
         <v>141</v>
       </c>
       <c r="I228" s="142" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J228" s="134" t="s">
         <v>586</v>
@@ -10143,7 +10134,7 @@
       </c>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="174"/>
+      <c r="A229" s="161"/>
       <c r="B229" s="66" t="s">
         <v>206</v>
       </c>
@@ -10166,7 +10157,7 @@
         <v>144</v>
       </c>
       <c r="I229" s="142" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="J229" s="134" t="s">
         <v>587</v>
@@ -10176,7 +10167,7 @@
       </c>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="174"/>
+      <c r="A230" s="161"/>
       <c r="B230" s="66" t="s">
         <v>208</v>
       </c>
@@ -10195,7 +10186,7 @@
         <v>141</v>
       </c>
       <c r="I230" s="142" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J230" s="134" t="s">
         <v>586</v>
@@ -10205,7 +10196,7 @@
       </c>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="174"/>
+      <c r="A231" s="161"/>
       <c r="B231" s="70" t="s">
         <v>209</v>
       </c>
@@ -10233,7 +10224,7 @@
       </c>
     </row>
     <row r="232" spans="1:12">
-      <c r="A232" s="174"/>
+      <c r="A232" s="161"/>
       <c r="B232" s="71" t="s">
         <v>211</v>
       </c>
@@ -10261,7 +10252,7 @@
       </c>
     </row>
     <row r="233" spans="1:12">
-      <c r="A233" s="174"/>
+      <c r="A233" s="161"/>
       <c r="B233" s="70" t="s">
         <v>214</v>
       </c>
@@ -10291,9 +10282,9 @@
       </c>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="174"/>
+      <c r="A234" s="161"/>
       <c r="B234" s="74" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C234" s="60" t="s">
         <v>140</v>
@@ -10312,16 +10303,16 @@
         <v>144</v>
       </c>
       <c r="I234" s="143" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="J234" s="133" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="235" spans="1:12">
-      <c r="A235" s="174"/>
+      <c r="A235" s="161"/>
       <c r="B235" s="74" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="C235" s="60" t="s">
         <v>140</v>
@@ -10340,14 +10331,14 @@
         <v>141</v>
       </c>
       <c r="I235" s="143" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J235" s="133" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="174"/>
+      <c r="A236" s="161"/>
       <c r="B236" s="72" t="s">
         <v>370</v>
       </c>
@@ -10376,7 +10367,7 @@
       </c>
     </row>
     <row r="237" spans="1:12">
-      <c r="A237" s="174"/>
+      <c r="A237" s="161"/>
       <c r="B237" s="74" t="s">
         <v>374</v>
       </c>
@@ -10405,7 +10396,7 @@
       </c>
     </row>
     <row r="238" spans="1:12">
-      <c r="A238" s="174"/>
+      <c r="A238" s="161"/>
       <c r="B238" s="72" t="s">
         <v>222</v>
       </c>
@@ -10426,14 +10417,14 @@
         <v>141</v>
       </c>
       <c r="I238" s="143" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="J238" s="133" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="239" spans="1:12">
-      <c r="A239" s="174"/>
+      <c r="A239" s="161"/>
       <c r="B239" s="77" t="s">
         <v>228</v>
       </c>
@@ -10463,7 +10454,7 @@
       </c>
     </row>
     <row r="240" spans="1:12">
-      <c r="A240" s="174"/>
+      <c r="A240" s="161"/>
       <c r="B240" s="77" t="s">
         <v>232</v>
       </c>
@@ -10493,7 +10484,7 @@
       </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="174"/>
+      <c r="A241" s="161"/>
       <c r="B241" s="77" t="s">
         <v>377</v>
       </c>
@@ -10526,7 +10517,7 @@
       </c>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="174"/>
+      <c r="A242" s="161"/>
       <c r="B242" s="77" t="s">
         <v>119</v>
       </c>
@@ -10559,7 +10550,7 @@
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="174"/>
+      <c r="A243" s="161"/>
       <c r="B243" s="77" t="s">
         <v>120</v>
       </c>
@@ -10592,7 +10583,7 @@
       </c>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="174"/>
+      <c r="A244" s="161"/>
       <c r="B244" s="111" t="s">
         <v>378</v>
       </c>
@@ -10622,7 +10613,7 @@
       </c>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="174"/>
+      <c r="A245" s="161"/>
       <c r="B245" s="111" t="s">
         <v>247</v>
       </c>
@@ -10652,7 +10643,7 @@
       </c>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="174"/>
+      <c r="A246" s="161"/>
       <c r="B246" s="111" t="s">
         <v>251</v>
       </c>
@@ -10682,7 +10673,7 @@
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="174"/>
+      <c r="A247" s="161"/>
       <c r="B247" s="111" t="s">
         <v>254</v>
       </c>
@@ -10712,7 +10703,7 @@
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="174"/>
+      <c r="A248" s="161"/>
       <c r="B248" s="103" t="s">
         <v>257</v>
       </c>
@@ -10741,7 +10732,7 @@
       </c>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="174"/>
+      <c r="A249" s="161"/>
       <c r="B249" s="105" t="s">
         <v>261</v>
       </c>
@@ -10762,9 +10753,9 @@
       </c>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="174"/>
+      <c r="A250" s="161"/>
       <c r="B250" s="111" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="C250" s="28"/>
       <c r="D250" s="35"/>
@@ -10777,7 +10768,7 @@
       <c r="K250" s="37"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="174"/>
+      <c r="A251" s="161"/>
       <c r="B251" s="106" t="s">
         <v>257</v>
       </c>
@@ -10804,7 +10795,7 @@
       <c r="K251" s="37"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="174"/>
+      <c r="A252" s="161"/>
       <c r="B252" s="82" t="s">
         <v>265</v>
       </c>
@@ -10837,7 +10828,7 @@
       </c>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="174"/>
+      <c r="A253" s="161"/>
       <c r="B253" s="82" t="s">
         <v>269</v>
       </c>
@@ -10870,7 +10861,7 @@
       </c>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="174"/>
+      <c r="A254" s="161"/>
       <c r="B254" s="90" t="s">
         <v>272</v>
       </c>
@@ -10903,7 +10894,7 @@
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="175"/>
+      <c r="A255" s="162"/>
       <c r="B255" s="59" t="s">
         <v>277</v>
       </c>
@@ -10968,7 +10959,7 @@
       </c>
     </row>
     <row r="257" spans="1:12" ht="15" customHeight="1">
-      <c r="A257" s="167" t="s">
+      <c r="A257" s="166" t="s">
         <v>379</v>
       </c>
       <c r="B257" s="114" t="s">
@@ -10996,7 +10987,7 @@
       </c>
     </row>
     <row r="258" spans="1:12">
-      <c r="A258" s="167"/>
+      <c r="A258" s="166"/>
       <c r="B258" s="114" t="s">
         <v>383</v>
       </c>
@@ -11018,7 +11009,7 @@
       </c>
     </row>
     <row r="259" spans="1:12">
-      <c r="A259" s="167"/>
+      <c r="A259" s="166"/>
       <c r="B259" s="114" t="s">
         <v>386</v>
       </c>
@@ -11040,7 +11031,7 @@
       </c>
     </row>
     <row r="260" spans="1:12">
-      <c r="A260" s="167"/>
+      <c r="A260" s="166"/>
       <c r="B260" s="114" t="s">
         <v>128</v>
       </c>
@@ -11066,7 +11057,7 @@
       </c>
     </row>
     <row r="261" spans="1:12">
-      <c r="A261" s="167"/>
+      <c r="A261" s="166"/>
       <c r="B261" s="115" t="s">
         <v>391</v>
       </c>
@@ -11095,7 +11086,7 @@
       </c>
     </row>
     <row r="262" spans="1:12">
-      <c r="A262" s="167"/>
+      <c r="A262" s="166"/>
       <c r="B262" s="115" t="s">
         <v>395</v>
       </c>
@@ -11124,7 +11115,7 @@
       </c>
     </row>
     <row r="263" spans="1:12" ht="15" customHeight="1">
-      <c r="A263" s="167"/>
+      <c r="A263" s="166"/>
       <c r="B263" s="116" t="s">
         <v>398</v>
       </c>
@@ -11150,7 +11141,7 @@
       </c>
     </row>
     <row r="264" spans="1:12">
-      <c r="A264" s="167"/>
+      <c r="A264" s="166"/>
       <c r="B264" s="116" t="s">
         <v>401</v>
       </c>
@@ -11176,7 +11167,7 @@
       </c>
     </row>
     <row r="265" spans="1:12">
-      <c r="A265" s="167"/>
+      <c r="A265" s="166"/>
       <c r="B265" s="116" t="s">
         <v>402</v>
       </c>
@@ -11202,7 +11193,7 @@
       </c>
     </row>
     <row r="266" spans="1:12">
-      <c r="A266" s="167"/>
+      <c r="A266" s="166"/>
       <c r="B266" s="116" t="s">
         <v>403</v>
       </c>
@@ -11228,7 +11219,7 @@
       </c>
     </row>
     <row r="267" spans="1:12">
-      <c r="A267" s="167"/>
+      <c r="A267" s="166"/>
       <c r="B267" s="116" t="s">
         <v>407</v>
       </c>
@@ -11250,7 +11241,7 @@
       </c>
     </row>
     <row r="268" spans="1:12">
-      <c r="A268" s="167"/>
+      <c r="A268" s="166"/>
       <c r="B268" s="116" t="s">
         <v>408</v>
       </c>
@@ -11311,7 +11302,7 @@
       </c>
     </row>
     <row r="270" spans="1:12" ht="15" customHeight="1">
-      <c r="A270" s="167" t="s">
+      <c r="A270" s="166" t="s">
         <v>409</v>
       </c>
       <c r="B270" s="94" t="s">
@@ -11343,7 +11334,7 @@
       </c>
     </row>
     <row r="271" spans="1:12">
-      <c r="A271" s="167"/>
+      <c r="A271" s="166"/>
       <c r="B271" s="94" t="s">
         <v>412</v>
       </c>
@@ -11373,7 +11364,7 @@
       </c>
     </row>
     <row r="272" spans="1:12">
-      <c r="A272" s="167"/>
+      <c r="A272" s="166"/>
       <c r="B272" s="94" t="s">
         <v>128</v>
       </c>
@@ -11399,7 +11390,7 @@
       </c>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="167"/>
+      <c r="A273" s="166"/>
       <c r="B273" s="94" t="s">
         <v>415</v>
       </c>
@@ -11428,7 +11419,7 @@
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="167"/>
+      <c r="A274" s="166"/>
       <c r="B274" s="94" t="s">
         <v>418</v>
       </c>
@@ -11457,7 +11448,7 @@
       </c>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="167"/>
+      <c r="A275" s="166"/>
       <c r="B275" s="94" t="s">
         <v>421</v>
       </c>
@@ -11486,7 +11477,7 @@
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="167"/>
+      <c r="A276" s="166"/>
       <c r="B276" s="94" t="s">
         <v>423</v>
       </c>
@@ -11515,7 +11506,7 @@
       </c>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="167"/>
+      <c r="A277" s="166"/>
       <c r="B277" s="94" t="s">
         <v>424</v>
       </c>
@@ -11544,7 +11535,7 @@
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="167"/>
+      <c r="A278" s="166"/>
       <c r="B278" s="116" t="s">
         <v>403</v>
       </c>
@@ -11570,7 +11561,7 @@
       </c>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="167"/>
+      <c r="A279" s="166"/>
       <c r="B279" s="116" t="s">
         <v>428</v>
       </c>
@@ -11596,7 +11587,7 @@
       </c>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="167"/>
+      <c r="A280" s="166"/>
       <c r="B280" s="116" t="s">
         <v>429</v>
       </c>
@@ -11657,7 +11648,7 @@
       </c>
     </row>
     <row r="282" spans="1:11" ht="15" customHeight="1">
-      <c r="A282" s="167" t="s">
+      <c r="A282" s="166" t="s">
         <v>430</v>
       </c>
       <c r="B282" s="119" t="s">
@@ -11686,7 +11677,7 @@
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="167"/>
+      <c r="A283" s="166"/>
       <c r="B283" s="94" t="s">
         <v>435</v>
       </c>
@@ -11716,7 +11707,7 @@
       </c>
     </row>
     <row r="284" spans="1:11" ht="15" customHeight="1">
-      <c r="A284" s="167"/>
+      <c r="A284" s="166"/>
       <c r="B284" s="94" t="s">
         <v>436</v>
       </c>
@@ -11746,7 +11737,7 @@
       </c>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="167"/>
+      <c r="A285" s="166"/>
       <c r="B285" s="94" t="s">
         <v>128</v>
       </c>
@@ -11772,7 +11763,7 @@
       </c>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="167"/>
+      <c r="A286" s="166"/>
       <c r="B286" s="94" t="s">
         <v>438</v>
       </c>
@@ -11801,7 +11792,7 @@
       </c>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="167"/>
+      <c r="A287" s="166"/>
       <c r="B287" s="94" t="s">
         <v>441</v>
       </c>
@@ -11827,7 +11818,7 @@
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="167"/>
+      <c r="A288" s="166"/>
       <c r="B288" s="122" t="s">
         <v>442</v>
       </c>
@@ -11856,7 +11847,7 @@
       </c>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="167"/>
+      <c r="A289" s="166"/>
       <c r="B289" s="122" t="s">
         <v>444</v>
       </c>
@@ -11885,7 +11876,7 @@
       </c>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="167"/>
+      <c r="A290" s="166"/>
       <c r="B290" s="44" t="s">
         <v>445</v>
       </c>
@@ -11915,7 +11906,7 @@
       </c>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="167"/>
+      <c r="A291" s="166"/>
       <c r="B291" s="44" t="s">
         <v>449</v>
       </c>
@@ -11945,7 +11936,7 @@
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="167"/>
+      <c r="A292" s="166"/>
       <c r="B292" s="123" t="s">
         <v>452</v>
       </c>
@@ -11971,7 +11962,7 @@
       </c>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="167"/>
+      <c r="A293" s="166"/>
       <c r="B293" s="123" t="s">
         <v>429</v>
       </c>
@@ -11997,7 +11988,7 @@
       </c>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="167"/>
+      <c r="A294" s="166"/>
       <c r="B294" s="123" t="s">
         <v>428</v>
       </c>
@@ -12023,7 +12014,7 @@
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="167"/>
+      <c r="A295" s="166"/>
       <c r="B295" s="123" t="s">
         <v>453</v>
       </c>
@@ -12084,7 +12075,7 @@
       </c>
     </row>
     <row r="297" spans="1:11" ht="15" customHeight="1">
-      <c r="A297" s="167" t="s">
+      <c r="A297" s="166" t="s">
         <v>454</v>
       </c>
       <c r="B297" s="94" t="s">
@@ -12116,7 +12107,7 @@
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="167"/>
+      <c r="A298" s="166"/>
       <c r="B298" s="94" t="s">
         <v>456</v>
       </c>
@@ -12147,7 +12138,7 @@
       <c r="K298" s="17"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="167"/>
+      <c r="A299" s="166"/>
       <c r="B299" s="94" t="s">
         <v>457</v>
       </c>
@@ -12178,7 +12169,7 @@
       <c r="K299" s="17"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="167"/>
+      <c r="A300" s="166"/>
       <c r="B300" s="122" t="s">
         <v>458</v>
       </c>
@@ -12207,7 +12198,7 @@
       </c>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="167"/>
+      <c r="A301" s="166"/>
       <c r="B301" s="122" t="s">
         <v>460</v>
       </c>
@@ -12233,7 +12224,7 @@
       </c>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="167"/>
+      <c r="A302" s="166"/>
       <c r="B302" s="122" t="s">
         <v>461</v>
       </c>
@@ -12259,7 +12250,7 @@
       </c>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="167"/>
+      <c r="A303" s="166"/>
       <c r="B303" s="122" t="s">
         <v>453</v>
       </c>
@@ -12320,7 +12311,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" ht="15" customHeight="1">
-      <c r="A305" s="167" t="s">
+      <c r="A305" s="166" t="s">
         <v>462</v>
       </c>
       <c r="B305" s="94" t="s">
@@ -12352,7 +12343,7 @@
       </c>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="167"/>
+      <c r="A306" s="166"/>
       <c r="B306" s="94" t="s">
         <v>464</v>
       </c>
@@ -12383,7 +12374,7 @@
       <c r="K306" s="17"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="167"/>
+      <c r="A307" s="166"/>
       <c r="B307" s="94" t="s">
         <v>465</v>
       </c>
@@ -12414,7 +12405,7 @@
       <c r="K307" s="17"/>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="167"/>
+      <c r="A308" s="166"/>
       <c r="B308" s="122" t="s">
         <v>460</v>
       </c>
@@ -12440,7 +12431,7 @@
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="167"/>
+      <c r="A309" s="166"/>
       <c r="B309" s="122" t="s">
         <v>461</v>
       </c>
@@ -12466,7 +12457,7 @@
       </c>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="167"/>
+      <c r="A310" s="166"/>
       <c r="B310" s="122" t="s">
         <v>453</v>
       </c>
@@ -12527,7 +12518,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" ht="15" customHeight="1">
-      <c r="A312" s="167" t="s">
+      <c r="A312" s="166" t="s">
         <v>466</v>
       </c>
       <c r="B312" s="94" t="s">
@@ -12555,7 +12546,7 @@
       </c>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="167"/>
+      <c r="A313" s="166"/>
       <c r="B313" s="94" t="s">
         <v>468</v>
       </c>
@@ -12620,7 +12611,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" ht="15" customHeight="1">
-      <c r="A315" s="167" t="s">
+      <c r="A315" s="166" t="s">
         <v>469</v>
       </c>
       <c r="B315" s="94" t="s">
@@ -12648,7 +12639,7 @@
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="167"/>
+      <c r="A316" s="166"/>
       <c r="B316" s="94" t="s">
         <v>471</v>
       </c>
@@ -12680,12 +12671,19 @@
     <row r="317" spans="1:11" ht="15" customHeight="1"/>
     <row r="322" ht="29.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A15:A46"/>
-    <mergeCell ref="L15:L46"/>
-    <mergeCell ref="A85:A135"/>
-    <mergeCell ref="A137:A184"/>
-    <mergeCell ref="A312:A313"/>
+  <mergeCells count="32">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="A315:A316"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="A257:A268"/>
@@ -12694,24 +12692,18 @@
     <mergeCell ref="A297:A303"/>
     <mergeCell ref="A305:A310"/>
     <mergeCell ref="A221:A255"/>
+    <mergeCell ref="A48:A83"/>
+    <mergeCell ref="A186:A219"/>
+    <mergeCell ref="A15:A46"/>
+    <mergeCell ref="L15:L46"/>
+    <mergeCell ref="A85:A135"/>
+    <mergeCell ref="A137:A184"/>
+    <mergeCell ref="A312:A313"/>
     <mergeCell ref="L181:L183"/>
     <mergeCell ref="L216:L218"/>
-    <mergeCell ref="A48:A83"/>
     <mergeCell ref="L55:L77"/>
     <mergeCell ref="L87:L89"/>
     <mergeCell ref="L132:L134"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" scale="65" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12732,8 +12724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12797,7 +12789,7 @@
       </c>
       <c r="E3" s="154"/>
       <c r="F3" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12892,7 +12884,7 @@
         <v>135</v>
       </c>
       <c r="E9" s="154"/>
-      <c r="G9" t="s">
+      <c r="G9" s="148" t="s">
         <v>478</v>
       </c>
     </row>
@@ -12946,6 +12938,9 @@
         <v>156</v>
       </c>
       <c r="E12" s="154"/>
+      <c r="G12" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="144" t="s">
@@ -12961,6 +12956,9 @@
         <v>245</v>
       </c>
       <c r="E13" s="154"/>
+      <c r="G13" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="144" t="s">
@@ -13177,6 +13175,7 @@
         <v>387</v>
       </c>
       <c r="E25" s="154"/>
+      <c r="G25" s="148"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="144" t="s">
@@ -13223,65 +13222,65 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="147" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="B29" s="151" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="C29" s="146" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D29" s="145"/>
       <c r="E29" s="154"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="147" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="B30" s="151" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="C30" s="146" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="D30" s="145"/>
       <c r="E30" s="154"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="147" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="B31" s="151" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="C31" s="146" t="s">
-        <v>670</v>
+        <v>140</v>
       </c>
       <c r="D31" s="145"/>
       <c r="E31" s="154"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="147" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="B32" s="151" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="C32" s="146" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="D32" s="145"/>
       <c r="E32" s="154"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="147" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="B33" s="151" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="C33" s="146" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D33" s="145"/>
       <c r="E33" s="154"/>
@@ -13528,670 +13527,679 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="147" t="s">
-        <v>561</v>
+        <v>692</v>
       </c>
       <c r="B50" s="151" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="C50" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="145" t="s">
-        <v>364</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="D50" s="145"/>
       <c r="E50" s="154"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="147" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="B51" s="151" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C51" s="146" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D51" s="145" t="s">
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="E51" s="154"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="147" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B52" s="151" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C52" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="145" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E52" s="154"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="147" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="B53" s="151" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C53" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D53" s="145" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="E53" s="154"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="147" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B54" s="151" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="C54" s="146" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D54" s="145" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E54" s="154"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="147" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B55" s="151" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C55" s="146" t="s">
         <v>129</v>
       </c>
       <c r="D55" s="145" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E55" s="154"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="147" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="B56" s="151" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C56" s="146" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D56" s="145" t="s">
-        <v>102</v>
+        <v>319</v>
       </c>
       <c r="E56" s="154"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="147" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B57" s="151" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="C57" s="146" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="D57" s="145" t="s">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="E57" s="154"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="147" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B58" s="151" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="C58" s="146" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D58" s="145" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="E58" s="154"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="147" t="s">
-        <v>560</v>
+        <v>694</v>
       </c>
       <c r="B59" s="151" t="s">
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="C59" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="145" t="s">
-        <v>357</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="D59" s="145"/>
       <c r="E59" s="154"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="147" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B60" s="151" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="C60" s="146" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="145" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E60" s="154"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="147" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B61" s="151" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C61" s="146" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D61" s="145" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="E61" s="154"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="147" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="B62" s="151" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C62" s="146" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D62" s="145" t="s">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="E62" s="154"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="147" t="s">
-        <v>530</v>
+        <v>669</v>
       </c>
       <c r="B63" s="151" t="s">
-        <v>614</v>
+        <v>670</v>
       </c>
       <c r="C63" s="146" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="145" t="s">
-        <v>78</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D63" s="145"/>
       <c r="E63" s="154"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="147" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="B64" s="151" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C64" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="145" t="s">
-        <v>95</v>
+        <v>298</v>
       </c>
       <c r="E64" s="154"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="147" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B65" s="151" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C65" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="145" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E65" s="154"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="147" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B66" s="151" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C66" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D66" s="145" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E66" s="154"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="147" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="B67" s="151" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C67" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="145" t="s">
-        <v>308</v>
+        <v>95</v>
       </c>
       <c r="E67" s="154"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="147" t="s">
-        <v>629</v>
+        <v>541</v>
       </c>
       <c r="B68" s="151" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="C68" s="146" t="s">
-        <v>644</v>
+        <v>44</v>
       </c>
       <c r="D68" s="145" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="E68" s="154"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="147" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="B69" s="151" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C69" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D69" s="145" t="s">
-        <v>347</v>
+        <v>92</v>
       </c>
       <c r="E69" s="154"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="147" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B70" s="151" t="s">
-        <v>417</v>
+        <v>618</v>
       </c>
       <c r="C70" s="146" t="s">
-        <v>643</v>
+        <v>44</v>
       </c>
       <c r="D70" s="145" t="s">
-        <v>416</v>
+        <v>308</v>
       </c>
       <c r="E70" s="154"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="147" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="B71" s="151" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="C71" s="146" t="s">
-        <v>237</v>
+        <v>644</v>
       </c>
       <c r="D71" s="145" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="E71" s="154"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="147" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="B72" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C72" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D72" s="145" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="E72" s="154"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="147" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B73" s="151" t="s">
-        <v>631</v>
+        <v>417</v>
       </c>
       <c r="C73" s="146" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D73" s="145" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="E73" s="154"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="147" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="B74" s="151" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="C74" s="146" t="s">
         <v>237</v>
       </c>
       <c r="D74" s="145" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
       <c r="E74" s="154"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="147" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="B75" s="151" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C75" s="146" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="D75" s="145" t="s">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="E75" s="154"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="147" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="B76" s="151" t="s">
-        <v>588</v>
+        <v>631</v>
       </c>
       <c r="C76" s="146" t="s">
-        <v>105</v>
+        <v>644</v>
       </c>
       <c r="D76" s="145" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="E76" s="154"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="147" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="B77" s="151" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C77" s="146" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="D77" s="145" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="E77" s="154"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="147" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="B78" s="151" t="s">
-        <v>60</v>
+        <v>622</v>
       </c>
       <c r="C78" s="146" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="D78" s="145" t="s">
-        <v>59</v>
+        <v>425</v>
       </c>
       <c r="E78" s="154"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="147" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B79" s="151" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="C79" s="146" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D79" s="145" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="E79" s="154"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="147" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="B80" s="151" t="s">
-        <v>420</v>
+        <v>623</v>
       </c>
       <c r="C80" s="146" t="s">
-        <v>643</v>
+        <v>44</v>
       </c>
       <c r="D80" s="145" t="s">
-        <v>419</v>
+        <v>69</v>
       </c>
       <c r="E80" s="154"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="147" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B81" s="151" t="s">
-        <v>624</v>
+        <v>60</v>
       </c>
       <c r="C81" s="146" t="s">
         <v>44</v>
       </c>
       <c r="D81" s="145" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E81" s="154"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="147" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="B82" s="151" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
       <c r="C82" s="146" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D82" s="145" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="E82" s="154"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="147" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B83" s="151" t="s">
-        <v>626</v>
+        <v>420</v>
       </c>
       <c r="C83" s="146" t="s">
-        <v>237</v>
+        <v>643</v>
       </c>
       <c r="D83" s="145" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="E83" s="154"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="147" t="s">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="B84" s="151" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C84" s="146" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D84" s="145" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="E84" s="154"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="147" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="B85" s="151" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C85" s="146" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="D85" s="145" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="E85" s="154"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="147" t="s">
-        <v>399</v>
+        <v>568</v>
       </c>
       <c r="B86" s="151" t="s">
-        <v>400</v>
-      </c>
-      <c r="C86" s="146"/>
+        <v>626</v>
+      </c>
+      <c r="C86" s="146" t="s">
+        <v>237</v>
+      </c>
       <c r="D86" s="145" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="E86" s="154"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="147" t="s">
-        <v>413</v>
+        <v>576</v>
       </c>
       <c r="B87" s="151" t="s">
-        <v>414</v>
+        <v>627</v>
       </c>
       <c r="C87" s="146" t="s">
-        <v>482</v>
+        <v>105</v>
       </c>
       <c r="D87" s="145" t="s">
-        <v>413</v>
+        <v>165</v>
       </c>
       <c r="E87" s="154"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="147" t="s">
-        <v>129</v>
+        <v>577</v>
       </c>
       <c r="B88" s="151" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" s="146"/>
+        <v>628</v>
+      </c>
+      <c r="C88" s="146" t="s">
+        <v>237</v>
+      </c>
       <c r="D88" s="145" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="E88" s="154"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="147" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="B89" s="151" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" s="146" t="s">
-        <v>482</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C89" s="146"/>
       <c r="D89" s="145" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="E89" s="154"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="147" t="s">
-        <v>632</v>
+        <v>413</v>
       </c>
       <c r="B90" s="151" t="s">
-        <v>633</v>
+        <v>414</v>
       </c>
       <c r="C90" s="146" t="s">
         <v>482</v>
       </c>
       <c r="D90" s="145" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="E90" s="154"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="147" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
       <c r="B91" s="151" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
       <c r="C91" s="146"/>
       <c r="D91" s="145" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
       <c r="E91" s="154"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="147" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="146" t="s">
+        <v>482</v>
+      </c>
+      <c r="D92" s="145" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="154"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="159" t="s">
+        <v>632</v>
+      </c>
+      <c r="B93" s="150" t="s">
+        <v>633</v>
+      </c>
+      <c r="C93" s="146" t="s">
+        <v>482</v>
+      </c>
+      <c r="D93" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="E93" s="154"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="159" t="s">
+        <v>446</v>
+      </c>
+      <c r="B94" s="150" t="s">
+        <v>448</v>
+      </c>
+      <c r="C94" s="146"/>
+      <c r="D94" s="145" t="s">
+        <v>446</v>
+      </c>
+      <c r="E94" s="154"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="159" t="s">
         <v>450</v>
       </c>
-      <c r="B92" s="151" t="s">
+      <c r="B95" s="150" t="s">
         <v>451</v>
       </c>
-      <c r="C92" s="146"/>
-      <c r="D92" s="145" t="s">
+      <c r="C95" s="146"/>
+      <c r="D95" s="145" t="s">
         <v>450</v>
       </c>
-      <c r="E92" s="154"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="179" t="s">
-        <v>680</v>
-      </c>
-      <c r="B93" s="150" t="s">
-        <v>681</v>
-      </c>
-      <c r="C93" s="146" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" s="145"/>
-      <c r="E93" s="154"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="179" t="s">
-        <v>698</v>
-      </c>
-      <c r="B94" s="150" t="s">
-        <v>699</v>
-      </c>
-      <c r="C94" s="146"/>
-      <c r="D94" s="145"/>
-      <c r="E94" s="154"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
+      <c r="E95" s="154"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96"/>
@@ -15400,8 +15408,8 @@
       <c r="D296"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E296">
-    <sortCondition ref="A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E95">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15493,7 +15501,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -15506,7 +15514,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15529,7 +15537,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15601,10 +15609,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="165"/>
+      <c r="D2" s="176"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="18" t="s">
@@ -15630,7 +15638,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="96" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="166" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -15650,7 +15658,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="167"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="27" t="s">
         <v>32</v>
       </c>
@@ -15666,7 +15674,7 @@
       <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="167"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="34" t="s">
         <v>35</v>
       </c>
@@ -15684,7 +15692,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="167"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="38" t="s">
         <v>39</v>
       </c>
@@ -15703,7 +15711,7 @@
       <c r="G7" s="127"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="167"/>
+      <c r="A8" s="166"/>
       <c r="B8" s="41" t="s">
         <v>43</v>
       </c>
@@ -15719,7 +15727,7 @@
       <c r="G8" s="127"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="167"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="41" t="s">
         <v>46</v>
       </c>
@@ -15735,7 +15743,7 @@
       <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="167"/>
+      <c r="A10" s="166"/>
       <c r="B10" s="41" t="s">
         <v>49</v>
       </c>
@@ -15751,7 +15759,7 @@
       <c r="G10" s="127"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="167"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="41" t="s">
         <v>52</v>
       </c>
@@ -15767,7 +15775,7 @@
       <c r="G11" s="127"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="167"/>
+      <c r="A12" s="166"/>
       <c r="B12" s="41" t="s">
         <v>55</v>
       </c>
@@ -15783,7 +15791,7 @@
       <c r="G12" s="127"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="167"/>
+      <c r="A13" s="166"/>
       <c r="B13" s="42" t="s">
         <v>58</v>
       </c>
@@ -15802,7 +15810,7 @@
       <c r="G13" s="127"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="167"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="41" t="s">
         <v>62</v>
       </c>
@@ -15818,7 +15826,7 @@
       <c r="G14" s="127"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="167"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="41" t="s">
         <v>65</v>
       </c>
@@ -15834,7 +15842,7 @@
       <c r="G15" s="127"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="167"/>
+      <c r="A16" s="166"/>
       <c r="B16" s="41" t="s">
         <v>68</v>
       </c>
@@ -15850,7 +15858,7 @@
       <c r="G16" s="127"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="167"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="41" t="s">
         <v>71</v>
       </c>
@@ -15866,7 +15874,7 @@
       <c r="G17" s="127"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="167"/>
+      <c r="A18" s="166"/>
       <c r="B18" s="42" t="s">
         <v>74</v>
       </c>
@@ -15882,7 +15890,7 @@
       <c r="G18" s="127"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="167"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="42" t="s">
         <v>77</v>
       </c>
@@ -15898,7 +15906,7 @@
       <c r="G19" s="127"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="167"/>
+      <c r="A20" s="166"/>
       <c r="B20" s="41" t="s">
         <v>80</v>
       </c>
@@ -15914,7 +15922,7 @@
       <c r="G20" s="127"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="167"/>
+      <c r="A21" s="166"/>
       <c r="B21" s="41" t="s">
         <v>83</v>
       </c>
@@ -15933,7 +15941,7 @@
       <c r="G21" s="127"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="167"/>
+      <c r="A22" s="166"/>
       <c r="B22" s="41" t="s">
         <v>85</v>
       </c>
@@ -15949,7 +15957,7 @@
       <c r="G22" s="127"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="167"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="41" t="s">
         <v>88</v>
       </c>
@@ -15965,7 +15973,7 @@
       <c r="G23" s="127"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="167"/>
+      <c r="A24" s="166"/>
       <c r="B24" s="41" t="s">
         <v>91</v>
       </c>
@@ -15981,7 +15989,7 @@
       <c r="G24" s="127"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="167"/>
+      <c r="A25" s="166"/>
       <c r="B25" s="41" t="s">
         <v>94</v>
       </c>
@@ -15997,7 +16005,7 @@
       <c r="G25" s="127"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="167"/>
+      <c r="A26" s="166"/>
       <c r="B26" s="42" t="s">
         <v>97</v>
       </c>
@@ -16013,7 +16021,7 @@
       <c r="G26" s="127"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="167"/>
+      <c r="A27" s="166"/>
       <c r="B27" s="42" t="s">
         <v>100</v>
       </c>
@@ -16029,7 +16037,7 @@
       <c r="G27" s="127"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="167"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="43" t="s">
         <v>101</v>
       </c>
@@ -16045,7 +16053,7 @@
       <c r="G28" s="127"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="167"/>
+      <c r="A29" s="166"/>
       <c r="B29" s="44" t="s">
         <v>104</v>
       </c>
@@ -16064,7 +16072,7 @@
       <c r="G29" s="127"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="167"/>
+      <c r="A30" s="166"/>
       <c r="B30" s="44" t="s">
         <v>108</v>
       </c>
@@ -16083,7 +16091,7 @@
       <c r="G30" s="127"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="167"/>
+      <c r="A31" s="166"/>
       <c r="B31" s="44" t="s">
         <v>112</v>
       </c>
@@ -16102,7 +16110,7 @@
       <c r="G31" s="127"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="167"/>
+      <c r="A32" s="166"/>
       <c r="B32" s="45" t="s">
         <v>115</v>
       </c>
@@ -16123,7 +16131,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="167"/>
+      <c r="A33" s="166"/>
       <c r="B33" s="45" t="s">
         <v>119</v>
       </c>
@@ -16144,7 +16152,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="167"/>
+      <c r="A34" s="166"/>
       <c r="B34" s="45" t="s">
         <v>120</v>
       </c>
@@ -16185,7 +16193,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="166" t="s">
         <v>121</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -16203,7 +16211,7 @@
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="167"/>
+      <c r="A37" s="166"/>
       <c r="B37" s="27" t="s">
         <v>125</v>
       </c>
@@ -16221,7 +16229,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="167"/>
+      <c r="A38" s="166"/>
       <c r="B38" s="27" t="s">
         <v>128</v>
       </c>
@@ -16239,7 +16247,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="167"/>
+      <c r="A39" s="166"/>
       <c r="B39" s="27" t="s">
         <v>132</v>
       </c>
@@ -16257,7 +16265,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="167"/>
+      <c r="A40" s="166"/>
       <c r="B40" s="27" t="s">
         <v>139</v>
       </c>
@@ -16273,7 +16281,7 @@
       <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="167"/>
+      <c r="A41" s="166"/>
       <c r="B41" s="27" t="s">
         <v>142</v>
       </c>
@@ -16289,7 +16297,7 @@
       <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="167"/>
+      <c r="A42" s="166"/>
       <c r="B42" s="27" t="s">
         <v>145</v>
       </c>
@@ -16310,7 +16318,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="167"/>
+      <c r="A43" s="166"/>
       <c r="B43" s="41" t="s">
         <v>43</v>
       </c>
@@ -16326,12 +16334,12 @@
       <c r="F43" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="168" t="s">
+      <c r="G43" s="170" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="167"/>
+      <c r="A44" s="166"/>
       <c r="B44" s="41" t="s">
         <v>46</v>
       </c>
@@ -16344,10 +16352,10 @@
       <c r="E44" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G44" s="168"/>
+      <c r="G44" s="170"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="167"/>
+      <c r="A45" s="166"/>
       <c r="B45" s="41" t="s">
         <v>49</v>
       </c>
@@ -16360,10 +16368,10 @@
       <c r="E45" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G45" s="168"/>
+      <c r="G45" s="170"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="167"/>
+      <c r="A46" s="166"/>
       <c r="B46" s="41" t="s">
         <v>52</v>
       </c>
@@ -16376,10 +16384,10 @@
       <c r="E46" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G46" s="168"/>
+      <c r="G46" s="170"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="167"/>
+      <c r="A47" s="166"/>
       <c r="B47" s="41" t="s">
         <v>55</v>
       </c>
@@ -16392,10 +16400,10 @@
       <c r="E47" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G47" s="168"/>
+      <c r="G47" s="170"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="167"/>
+      <c r="A48" s="166"/>
       <c r="B48" s="42" t="s">
         <v>58</v>
       </c>
@@ -16411,10 +16419,10 @@
       <c r="F48" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="168"/>
+      <c r="G48" s="170"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="167"/>
+      <c r="A49" s="166"/>
       <c r="B49" s="41" t="s">
         <v>62</v>
       </c>
@@ -16427,10 +16435,10 @@
       <c r="E49" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G49" s="168"/>
+      <c r="G49" s="170"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="167"/>
+      <c r="A50" s="166"/>
       <c r="B50" s="41" t="s">
         <v>65</v>
       </c>
@@ -16443,10 +16451,10 @@
       <c r="E50" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G50" s="168"/>
+      <c r="G50" s="170"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="167"/>
+      <c r="A51" s="166"/>
       <c r="B51" s="41" t="s">
         <v>68</v>
       </c>
@@ -16459,10 +16467,10 @@
       <c r="E51" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G51" s="168"/>
+      <c r="G51" s="170"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="167"/>
+      <c r="A52" s="166"/>
       <c r="B52" s="41" t="s">
         <v>71</v>
       </c>
@@ -16475,10 +16483,10 @@
       <c r="E52" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G52" s="168"/>
+      <c r="G52" s="170"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="167"/>
+      <c r="A53" s="166"/>
       <c r="B53" s="42" t="s">
         <v>74</v>
       </c>
@@ -16491,10 +16499,10 @@
       <c r="E53" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G53" s="168"/>
+      <c r="G53" s="170"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="167"/>
+      <c r="A54" s="166"/>
       <c r="B54" s="42" t="s">
         <v>77</v>
       </c>
@@ -16507,10 +16515,10 @@
       <c r="E54" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G54" s="168"/>
+      <c r="G54" s="170"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="167"/>
+      <c r="A55" s="166"/>
       <c r="B55" s="41" t="s">
         <v>80</v>
       </c>
@@ -16523,10 +16531,10 @@
       <c r="E55" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G55" s="168"/>
+      <c r="G55" s="170"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="167"/>
+      <c r="A56" s="166"/>
       <c r="B56" s="41" t="s">
         <v>83</v>
       </c>
@@ -16542,10 +16550,10 @@
       <c r="F56" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="168"/>
+      <c r="G56" s="170"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="167"/>
+      <c r="A57" s="166"/>
       <c r="B57" s="41" t="s">
         <v>85</v>
       </c>
@@ -16558,10 +16566,10 @@
       <c r="E57" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G57" s="168"/>
+      <c r="G57" s="170"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="167"/>
+      <c r="A58" s="166"/>
       <c r="B58" s="41" t="s">
         <v>88</v>
       </c>
@@ -16574,10 +16582,10 @@
       <c r="E58" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G58" s="168"/>
+      <c r="G58" s="170"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="167"/>
+      <c r="A59" s="166"/>
       <c r="B59" s="41" t="s">
         <v>91</v>
       </c>
@@ -16590,10 +16598,10 @@
       <c r="E59" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G59" s="168"/>
+      <c r="G59" s="170"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="167"/>
+      <c r="A60" s="166"/>
       <c r="B60" s="41" t="s">
         <v>94</v>
       </c>
@@ -16606,10 +16614,10 @@
       <c r="E60" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G60" s="168"/>
+      <c r="G60" s="170"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="167"/>
+      <c r="A61" s="166"/>
       <c r="B61" s="42" t="s">
         <v>97</v>
       </c>
@@ -16622,10 +16630,10 @@
       <c r="E61" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G61" s="168"/>
+      <c r="G61" s="170"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="167"/>
+      <c r="A62" s="166"/>
       <c r="B62" s="42" t="s">
         <v>155</v>
       </c>
@@ -16638,10 +16646,10 @@
       <c r="E62" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G62" s="168"/>
+      <c r="G62" s="170"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="167"/>
+      <c r="A63" s="166"/>
       <c r="B63" s="42" t="s">
         <v>158</v>
       </c>
@@ -16657,10 +16665,10 @@
       <c r="F63" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="168"/>
+      <c r="G63" s="170"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="167"/>
+      <c r="A64" s="166"/>
       <c r="B64" s="42" t="s">
         <v>100</v>
       </c>
@@ -16673,10 +16681,10 @@
       <c r="E64" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G64" s="168"/>
+      <c r="G64" s="170"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="167"/>
+      <c r="A65" s="166"/>
       <c r="B65" s="55" t="s">
         <v>161</v>
       </c>
@@ -16689,10 +16697,10 @@
       <c r="E65" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G65" s="168"/>
+      <c r="G65" s="170"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="167"/>
+      <c r="A66" s="166"/>
       <c r="B66" s="44" t="s">
         <v>164</v>
       </c>
@@ -16710,7 +16718,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="167"/>
+      <c r="A67" s="166"/>
       <c r="B67" s="55" t="s">
         <v>167</v>
       </c>
@@ -16728,7 +16736,7 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="167"/>
+      <c r="A68" s="166"/>
       <c r="B68" s="55" t="s">
         <v>169</v>
       </c>
@@ -16746,7 +16754,7 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="167"/>
+      <c r="A69" s="166"/>
       <c r="B69" s="45" t="s">
         <v>115</v>
       </c>
@@ -16761,7 +16769,7 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="167"/>
+      <c r="A70" s="166"/>
       <c r="B70" s="45" t="s">
         <v>119</v>
       </c>
@@ -16776,7 +16784,7 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="167"/>
+      <c r="A71" s="166"/>
       <c r="B71" s="45" t="s">
         <v>120</v>
       </c>
@@ -16811,7 +16819,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A73" s="167" t="s">
+      <c r="A73" s="166" t="s">
         <v>173</v>
       </c>
       <c r="B73" s="56" t="s">
@@ -16831,7 +16839,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="30">
-      <c r="A74" s="167"/>
+      <c r="A74" s="166"/>
       <c r="B74" s="58" t="s">
         <v>179</v>
       </c>
@@ -16849,7 +16857,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
-      <c r="A75" s="167"/>
+      <c r="A75" s="166"/>
       <c r="B75" s="59" t="s">
         <v>186</v>
       </c>
@@ -16862,12 +16870,12 @@
       <c r="F75" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="G75" s="169" t="s">
+      <c r="G75" s="171" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="167"/>
+      <c r="A76" s="166"/>
       <c r="B76" s="62" t="s">
         <v>189</v>
       </c>
@@ -16880,10 +16888,10 @@
       <c r="E76" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G76" s="169"/>
+      <c r="G76" s="171"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="167"/>
+      <c r="A77" s="166"/>
       <c r="B77" s="62" t="s">
         <v>190</v>
       </c>
@@ -16896,10 +16904,10 @@
       <c r="E77" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G77" s="169"/>
+      <c r="G77" s="171"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="167"/>
+      <c r="A78" s="166"/>
       <c r="B78" s="62" t="s">
         <v>191</v>
       </c>
@@ -16914,7 +16922,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="30">
-      <c r="A79" s="167"/>
+      <c r="A79" s="166"/>
       <c r="B79" s="66" t="s">
         <v>198</v>
       </c>
@@ -16935,7 +16943,7 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="167"/>
+      <c r="A80" s="166"/>
       <c r="B80" s="66" t="s">
         <v>204</v>
       </c>
@@ -16953,7 +16961,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="167"/>
+      <c r="A81" s="166"/>
       <c r="B81" s="66" t="s">
         <v>206</v>
       </c>
@@ -16971,7 +16979,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="167"/>
+      <c r="A82" s="166"/>
       <c r="B82" s="66" t="s">
         <v>208</v>
       </c>
@@ -16989,7 +16997,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="167"/>
+      <c r="A83" s="166"/>
       <c r="B83" s="70" t="s">
         <v>209</v>
       </c>
@@ -17004,7 +17012,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="167"/>
+      <c r="A84" s="166"/>
       <c r="B84" s="71" t="s">
         <v>211</v>
       </c>
@@ -17019,7 +17027,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="167"/>
+      <c r="A85" s="166"/>
       <c r="B85" s="70" t="s">
         <v>214</v>
       </c>
@@ -17034,7 +17042,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="167"/>
+      <c r="A86" s="166"/>
       <c r="B86" s="72" t="s">
         <v>216</v>
       </c>
@@ -17049,7 +17057,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="167"/>
+      <c r="A87" s="166"/>
       <c r="B87" s="74" t="s">
         <v>220</v>
       </c>
@@ -17064,7 +17072,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="167"/>
+      <c r="A88" s="166"/>
       <c r="B88" s="74" t="s">
         <v>221</v>
       </c>
@@ -17079,7 +17087,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="167"/>
+      <c r="A89" s="166"/>
       <c r="B89" s="72" t="s">
         <v>222</v>
       </c>
@@ -17094,7 +17102,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="167"/>
+      <c r="A90" s="166"/>
       <c r="B90" s="75" t="s">
         <v>223</v>
       </c>
@@ -17109,7 +17117,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="167"/>
+      <c r="A91" s="166"/>
       <c r="B91" s="76" t="s">
         <v>226</v>
       </c>
@@ -17124,7 +17132,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="167"/>
+      <c r="A92" s="166"/>
       <c r="B92" s="76" t="s">
         <v>58</v>
       </c>
@@ -17142,7 +17150,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="167"/>
+      <c r="A93" s="166"/>
       <c r="B93" s="75" t="s">
         <v>62</v>
       </c>
@@ -17157,7 +17165,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="167"/>
+      <c r="A94" s="166"/>
       <c r="B94" s="75" t="s">
         <v>65</v>
       </c>
@@ -17172,7 +17180,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="167"/>
+      <c r="A95" s="166"/>
       <c r="B95" s="75" t="s">
         <v>68</v>
       </c>
@@ -17187,7 +17195,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="167"/>
+      <c r="A96" s="166"/>
       <c r="B96" s="75" t="s">
         <v>71</v>
       </c>
@@ -17202,7 +17210,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="167"/>
+      <c r="A97" s="166"/>
       <c r="B97" s="76" t="s">
         <v>227</v>
       </c>
@@ -17217,7 +17225,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="167"/>
+      <c r="A98" s="166"/>
       <c r="B98" s="75" t="s">
         <v>80</v>
       </c>
@@ -17232,7 +17240,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="167"/>
+      <c r="A99" s="166"/>
       <c r="B99" s="75" t="s">
         <v>83</v>
       </c>
@@ -17247,7 +17255,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="167"/>
+      <c r="A100" s="166"/>
       <c r="B100" s="75" t="s">
         <v>85</v>
       </c>
@@ -17262,7 +17270,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="167"/>
+      <c r="A101" s="166"/>
       <c r="B101" s="75" t="s">
         <v>88</v>
       </c>
@@ -17277,7 +17285,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="167"/>
+      <c r="A102" s="166"/>
       <c r="B102" s="75" t="s">
         <v>91</v>
       </c>
@@ -17292,7 +17300,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="167"/>
+      <c r="A103" s="166"/>
       <c r="B103" s="76" t="s">
         <v>74</v>
       </c>
@@ -17307,7 +17315,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="167"/>
+      <c r="A104" s="166"/>
       <c r="B104" s="75" t="s">
         <v>94</v>
       </c>
@@ -17322,7 +17330,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="167"/>
+      <c r="A105" s="166"/>
       <c r="B105" s="76" t="s">
         <v>97</v>
       </c>
@@ -17337,7 +17345,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="167"/>
+      <c r="A106" s="166"/>
       <c r="B106" s="74" t="s">
         <v>100</v>
       </c>
@@ -17352,7 +17360,7 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="167"/>
+      <c r="A107" s="166"/>
       <c r="B107" s="77" t="s">
         <v>228</v>
       </c>
@@ -17367,7 +17375,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="167"/>
+      <c r="A108" s="166"/>
       <c r="B108" s="77" t="s">
         <v>232</v>
       </c>
@@ -17382,7 +17390,7 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="167"/>
+      <c r="A109" s="166"/>
       <c r="B109" s="77" t="s">
         <v>236</v>
       </c>
@@ -17400,7 +17408,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="167"/>
+      <c r="A110" s="166"/>
       <c r="B110" s="77" t="s">
         <v>119</v>
       </c>
@@ -17418,7 +17426,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="167"/>
+      <c r="A111" s="166"/>
       <c r="B111" s="77" t="s">
         <v>120</v>
       </c>
@@ -17436,7 +17444,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="167"/>
+      <c r="A112" s="166"/>
       <c r="B112" s="78" t="s">
         <v>242</v>
       </c>
@@ -17451,7 +17459,7 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="167"/>
+      <c r="A113" s="166"/>
       <c r="B113" s="78" t="s">
         <v>247</v>
       </c>
@@ -17466,7 +17474,7 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="167"/>
+      <c r="A114" s="166"/>
       <c r="B114" s="78" t="s">
         <v>251</v>
       </c>
@@ -17481,7 +17489,7 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="167"/>
+      <c r="A115" s="166"/>
       <c r="B115" s="79" t="s">
         <v>254</v>
       </c>
@@ -17496,7 +17504,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="167"/>
+      <c r="A116" s="166"/>
       <c r="B116" s="80" t="s">
         <v>257</v>
       </c>
@@ -17511,7 +17519,7 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="167"/>
+      <c r="A117" s="166"/>
       <c r="B117" s="81" t="s">
         <v>261</v>
       </c>
@@ -17522,7 +17530,7 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="167"/>
+      <c r="A118" s="166"/>
       <c r="B118" s="82" t="s">
         <v>257</v>
       </c>
@@ -17535,7 +17543,7 @@
       <c r="F118" s="37"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1">
-      <c r="A119" s="167"/>
+      <c r="A119" s="166"/>
       <c r="B119" s="82" t="s">
         <v>265</v>
       </c>
@@ -17551,12 +17559,12 @@
       <c r="F119" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="G119" s="166" t="s">
+      <c r="G119" s="169" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="167"/>
+      <c r="A120" s="166"/>
       <c r="B120" s="82" t="s">
         <v>269</v>
       </c>
@@ -17572,10 +17580,10 @@
       <c r="F120" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="G120" s="166"/>
+      <c r="G120" s="169"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="167"/>
+      <c r="A121" s="166"/>
       <c r="B121" s="90" t="s">
         <v>272</v>
       </c>
@@ -17591,10 +17599,10 @@
       <c r="F121" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G121" s="166"/>
+      <c r="G121" s="169"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="167"/>
+      <c r="A122" s="166"/>
       <c r="B122" s="59" t="s">
         <v>277</v>
       </c>
@@ -17629,7 +17637,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1">
-      <c r="A124" s="167" t="s">
+      <c r="A124" s="166" t="s">
         <v>281</v>
       </c>
       <c r="B124" s="92" t="s">
@@ -17646,7 +17654,7 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="167"/>
+      <c r="A125" s="166"/>
       <c r="B125" s="59" t="s">
         <v>179</v>
       </c>
@@ -17661,7 +17669,7 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="167"/>
+      <c r="A126" s="166"/>
       <c r="B126" s="59" t="s">
         <v>186</v>
       </c>
@@ -17676,7 +17684,7 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="167"/>
+      <c r="A127" s="166"/>
       <c r="B127" s="93" t="s">
         <v>282</v>
       </c>
@@ -17694,7 +17702,7 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="167"/>
+      <c r="A128" s="166"/>
       <c r="B128" s="93" t="s">
         <v>190</v>
       </c>
@@ -17709,7 +17717,7 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="167"/>
+      <c r="A129" s="166"/>
       <c r="B129" s="93" t="s">
         <v>284</v>
       </c>
@@ -17724,7 +17732,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="167"/>
+      <c r="A130" s="166"/>
       <c r="B130" s="94" t="s">
         <v>198</v>
       </c>
@@ -17742,7 +17750,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="167"/>
+      <c r="A131" s="166"/>
       <c r="B131" s="94" t="s">
         <v>204</v>
       </c>
@@ -17760,7 +17768,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="167"/>
+      <c r="A132" s="166"/>
       <c r="B132" s="94" t="s">
         <v>206</v>
       </c>
@@ -17778,7 +17786,7 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="167"/>
+      <c r="A133" s="166"/>
       <c r="B133" s="94" t="s">
         <v>208</v>
       </c>
@@ -17796,7 +17804,7 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="167"/>
+      <c r="A134" s="166"/>
       <c r="B134" s="95" t="s">
         <v>209</v>
       </c>
@@ -17811,7 +17819,7 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="167"/>
+      <c r="A135" s="166"/>
       <c r="B135" s="96" t="s">
         <v>211</v>
       </c>
@@ -17826,7 +17834,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="167"/>
+      <c r="A136" s="166"/>
       <c r="B136" s="95" t="s">
         <v>214</v>
       </c>
@@ -17841,7 +17849,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="167"/>
+      <c r="A137" s="166"/>
       <c r="B137" s="95" t="s">
         <v>286</v>
       </c>
@@ -17856,7 +17864,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="167"/>
+      <c r="A138" s="166"/>
       <c r="B138" s="41" t="s">
         <v>290</v>
       </c>
@@ -17874,7 +17882,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="167"/>
+      <c r="A139" s="166"/>
       <c r="B139" s="41" t="s">
         <v>294</v>
       </c>
@@ -17892,7 +17900,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="167"/>
+      <c r="A140" s="166"/>
       <c r="B140" s="41" t="s">
         <v>295</v>
       </c>
@@ -17907,7 +17915,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="167"/>
+      <c r="A141" s="166"/>
       <c r="B141" s="41" t="s">
         <v>296</v>
       </c>
@@ -17922,7 +17930,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="167"/>
+      <c r="A142" s="166"/>
       <c r="B142" s="41" t="s">
         <v>297</v>
       </c>
@@ -17940,7 +17948,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="167"/>
+      <c r="A143" s="166"/>
       <c r="B143" s="41" t="s">
         <v>301</v>
       </c>
@@ -17955,7 +17963,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="167"/>
+      <c r="A144" s="166"/>
       <c r="B144" s="41" t="s">
         <v>304</v>
       </c>
@@ -17970,7 +17978,7 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="167"/>
+      <c r="A145" s="166"/>
       <c r="B145" s="41" t="s">
         <v>307</v>
       </c>
@@ -17985,7 +17993,7 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="167"/>
+      <c r="A146" s="166"/>
       <c r="B146" s="41" t="s">
         <v>100</v>
       </c>
@@ -18000,7 +18008,7 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="167"/>
+      <c r="A147" s="166"/>
       <c r="B147" s="41" t="s">
         <v>310</v>
       </c>
@@ -18015,7 +18023,7 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="167"/>
+      <c r="A148" s="166"/>
       <c r="B148" s="41" t="s">
         <v>311</v>
       </c>
@@ -18030,7 +18038,7 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="167"/>
+      <c r="A149" s="166"/>
       <c r="B149" s="45" t="s">
         <v>312</v>
       </c>
@@ -18048,7 +18056,7 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="167"/>
+      <c r="A150" s="166"/>
       <c r="B150" s="98" t="s">
         <v>313</v>
       </c>
@@ -18066,7 +18074,7 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="167"/>
+      <c r="A151" s="166"/>
       <c r="B151" s="45" t="s">
         <v>318</v>
       </c>
@@ -18084,7 +18092,7 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="167"/>
+      <c r="A152" s="166"/>
       <c r="B152" s="98" t="s">
         <v>321</v>
       </c>
@@ -18099,7 +18107,7 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="167"/>
+      <c r="A153" s="166"/>
       <c r="B153" s="45" t="s">
         <v>324</v>
       </c>
@@ -18117,7 +18125,7 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="167"/>
+      <c r="A154" s="166"/>
       <c r="B154" s="45" t="s">
         <v>327</v>
       </c>
@@ -18135,7 +18143,7 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="167"/>
+      <c r="A155" s="166"/>
       <c r="B155" s="45" t="s">
         <v>120</v>
       </c>
@@ -18153,7 +18161,7 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="167"/>
+      <c r="A156" s="166"/>
       <c r="B156" s="45" t="s">
         <v>329</v>
       </c>
@@ -18174,7 +18182,7 @@
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="167"/>
+      <c r="A157" s="166"/>
       <c r="B157" s="45" t="s">
         <v>333</v>
       </c>
@@ -18187,7 +18195,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="30">
-      <c r="A158" s="167"/>
+      <c r="A158" s="166"/>
       <c r="B158" s="45" t="s">
         <v>335</v>
       </c>
@@ -18205,7 +18213,7 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="167"/>
+      <c r="A159" s="166"/>
       <c r="B159" s="102" t="s">
         <v>242</v>
       </c>
@@ -18223,7 +18231,7 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="167"/>
+      <c r="A160" s="166"/>
       <c r="B160" s="102" t="s">
         <v>251</v>
       </c>
@@ -18238,7 +18246,7 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="167"/>
+      <c r="A161" s="166"/>
       <c r="B161" s="102" t="s">
         <v>339</v>
       </c>
@@ -18253,7 +18261,7 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="167"/>
+      <c r="A162" s="166"/>
       <c r="B162" s="103" t="s">
         <v>257</v>
       </c>
@@ -18268,7 +18276,7 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="167"/>
+      <c r="A163" s="166"/>
       <c r="B163" s="105" t="s">
         <v>261</v>
       </c>
@@ -18279,7 +18287,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1">
-      <c r="A164" s="167"/>
+      <c r="A164" s="166"/>
       <c r="B164" s="106" t="s">
         <v>257</v>
       </c>
@@ -18292,12 +18300,12 @@
       <c r="F164" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="G164" s="166" t="s">
+      <c r="G164" s="169" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="167"/>
+      <c r="A165" s="166"/>
       <c r="B165" s="82" t="s">
         <v>269</v>
       </c>
@@ -18313,10 +18321,10 @@
       <c r="F165" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="G165" s="166"/>
+      <c r="G165" s="169"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="167"/>
+      <c r="A166" s="166"/>
       <c r="B166" s="90" t="s">
         <v>272</v>
       </c>
@@ -18332,10 +18340,10 @@
       <c r="F166" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G166" s="166"/>
+      <c r="G166" s="169"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="167"/>
+      <c r="A167" s="166"/>
       <c r="B167" s="59" t="s">
         <v>277</v>
       </c>
@@ -18370,7 +18378,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1">
-      <c r="A169" s="167" t="s">
+      <c r="A169" s="166" t="s">
         <v>340</v>
       </c>
       <c r="B169" s="56" t="s">
@@ -18387,7 +18395,7 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="167"/>
+      <c r="A170" s="166"/>
       <c r="B170" s="58" t="s">
         <v>179</v>
       </c>
@@ -18402,7 +18410,7 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="167"/>
+      <c r="A171" s="166"/>
       <c r="B171" s="59" t="s">
         <v>186</v>
       </c>
@@ -18417,7 +18425,7 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="167"/>
+      <c r="A172" s="166"/>
       <c r="B172" s="62" t="s">
         <v>282</v>
       </c>
@@ -18432,7 +18440,7 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="167"/>
+      <c r="A173" s="166"/>
       <c r="B173" s="62" t="s">
         <v>190</v>
       </c>
@@ -18447,7 +18455,7 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="167"/>
+      <c r="A174" s="166"/>
       <c r="B174" s="62" t="s">
         <v>341</v>
       </c>
@@ -18462,7 +18470,7 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="167"/>
+      <c r="A175" s="166"/>
       <c r="B175" s="66" t="s">
         <v>198</v>
       </c>
@@ -18480,7 +18488,7 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="167"/>
+      <c r="A176" s="166"/>
       <c r="B176" s="66" t="s">
         <v>204</v>
       </c>
@@ -18498,7 +18506,7 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="167"/>
+      <c r="A177" s="166"/>
       <c r="B177" s="66" t="s">
         <v>206</v>
       </c>
@@ -18516,7 +18524,7 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="167"/>
+      <c r="A178" s="166"/>
       <c r="B178" s="66" t="s">
         <v>208</v>
       </c>
@@ -18534,7 +18542,7 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="167"/>
+      <c r="A179" s="166"/>
       <c r="B179" s="70" t="s">
         <v>209</v>
       </c>
@@ -18549,7 +18557,7 @@
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="167"/>
+      <c r="A180" s="166"/>
       <c r="B180" s="70" t="s">
         <v>342</v>
       </c>
@@ -18567,7 +18575,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="30">
-      <c r="A181" s="167"/>
+      <c r="A181" s="166"/>
       <c r="B181" s="72" t="s">
         <v>343</v>
       </c>
@@ -18585,7 +18593,7 @@
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="167"/>
+      <c r="A182" s="166"/>
       <c r="B182" s="72" t="s">
         <v>345</v>
       </c>
@@ -18600,7 +18608,7 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="167"/>
+      <c r="A183" s="166"/>
       <c r="B183" s="72" t="s">
         <v>346</v>
       </c>
@@ -18615,7 +18623,7 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="167"/>
+      <c r="A184" s="166"/>
       <c r="B184" s="77" t="s">
         <v>349</v>
       </c>
@@ -18630,7 +18638,7 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="167"/>
+      <c r="A185" s="166"/>
       <c r="B185" s="77" t="s">
         <v>236</v>
       </c>
@@ -18648,7 +18656,7 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="167"/>
+      <c r="A186" s="166"/>
       <c r="B186" s="77" t="s">
         <v>351</v>
       </c>
@@ -18666,7 +18674,7 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="167"/>
+      <c r="A187" s="166"/>
       <c r="B187" s="77" t="s">
         <v>352</v>
       </c>
@@ -18684,7 +18692,7 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="167"/>
+      <c r="A188" s="166"/>
       <c r="B188" s="107" t="s">
         <v>353</v>
       </c>
@@ -18699,7 +18707,7 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="167"/>
+      <c r="A189" s="166"/>
       <c r="B189" s="107" t="s">
         <v>356</v>
       </c>
@@ -18714,7 +18722,7 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="167"/>
+      <c r="A190" s="166"/>
       <c r="B190" s="110" t="s">
         <v>359</v>
       </c>
@@ -18729,7 +18737,7 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="167"/>
+      <c r="A191" s="166"/>
       <c r="B191" s="111" t="s">
         <v>251</v>
       </c>
@@ -18744,7 +18752,7 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="167"/>
+      <c r="A192" s="166"/>
       <c r="B192" s="111" t="s">
         <v>254</v>
       </c>
@@ -18759,7 +18767,7 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="167"/>
+      <c r="A193" s="166"/>
       <c r="B193" s="111" t="s">
         <v>360</v>
       </c>
@@ -18774,7 +18782,7 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="167"/>
+      <c r="A194" s="166"/>
       <c r="B194" s="111" t="s">
         <v>361</v>
       </c>
@@ -18789,7 +18797,7 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="167"/>
+      <c r="A195" s="166"/>
       <c r="B195" s="111" t="s">
         <v>362</v>
       </c>
@@ -18810,7 +18818,7 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="167"/>
+      <c r="A196" s="166"/>
       <c r="B196" s="103" t="s">
         <v>257</v>
       </c>
@@ -18825,7 +18833,7 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="167"/>
+      <c r="A197" s="166"/>
       <c r="B197" s="105" t="s">
         <v>261</v>
       </c>
@@ -18836,7 +18844,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1">
-      <c r="A198" s="167"/>
+      <c r="A198" s="166"/>
       <c r="B198" s="106" t="s">
         <v>257</v>
       </c>
@@ -18849,12 +18857,12 @@
       <c r="F198" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="G198" s="166" t="s">
+      <c r="G198" s="169" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="167"/>
+      <c r="A199" s="166"/>
       <c r="B199" s="82" t="s">
         <v>269</v>
       </c>
@@ -18870,10 +18878,10 @@
       <c r="F199" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="G199" s="166"/>
+      <c r="G199" s="169"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="167"/>
+      <c r="A200" s="166"/>
       <c r="B200" s="90" t="s">
         <v>272</v>
       </c>
@@ -18889,10 +18897,10 @@
       <c r="F200" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G200" s="166"/>
+      <c r="G200" s="169"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="167"/>
+      <c r="A201" s="166"/>
       <c r="B201" s="59" t="s">
         <v>277</v>
       </c>
@@ -18927,7 +18935,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1">
-      <c r="A203" s="167" t="s">
+      <c r="A203" s="166" t="s">
         <v>367</v>
       </c>
       <c r="B203" s="56" t="s">
@@ -18944,7 +18952,7 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="167"/>
+      <c r="A204" s="166"/>
       <c r="B204" s="58" t="s">
         <v>179</v>
       </c>
@@ -18959,7 +18967,7 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="167"/>
+      <c r="A205" s="166"/>
       <c r="B205" s="59" t="s">
         <v>186</v>
       </c>
@@ -18974,7 +18982,7 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="167"/>
+      <c r="A206" s="166"/>
       <c r="B206" s="62" t="s">
         <v>282</v>
       </c>
@@ -18989,7 +18997,7 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="167"/>
+      <c r="A207" s="166"/>
       <c r="B207" s="62" t="s">
         <v>190</v>
       </c>
@@ -19004,7 +19012,7 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="167"/>
+      <c r="A208" s="166"/>
       <c r="B208" s="62" t="s">
         <v>368</v>
       </c>
@@ -19019,7 +19027,7 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="167"/>
+      <c r="A209" s="166"/>
       <c r="B209" s="66" t="s">
         <v>198</v>
       </c>
@@ -19037,7 +19045,7 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="167"/>
+      <c r="A210" s="166"/>
       <c r="B210" s="66" t="s">
         <v>204</v>
       </c>
@@ -19055,7 +19063,7 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="167"/>
+      <c r="A211" s="166"/>
       <c r="B211" s="66" t="s">
         <v>206</v>
       </c>
@@ -19073,7 +19081,7 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="167"/>
+      <c r="A212" s="166"/>
       <c r="B212" s="66" t="s">
         <v>208</v>
       </c>
@@ -19091,7 +19099,7 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="167"/>
+      <c r="A213" s="166"/>
       <c r="B213" s="70" t="s">
         <v>209</v>
       </c>
@@ -19106,7 +19114,7 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="167"/>
+      <c r="A214" s="166"/>
       <c r="B214" s="71" t="s">
         <v>211</v>
       </c>
@@ -19118,7 +19126,7 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="167"/>
+      <c r="A215" s="166"/>
       <c r="B215" s="70" t="s">
         <v>214</v>
       </c>
@@ -19133,7 +19141,7 @@
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="167"/>
+      <c r="A216" s="166"/>
       <c r="B216" s="74" t="s">
         <v>369</v>
       </c>
@@ -19148,7 +19156,7 @@
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="167"/>
+      <c r="A217" s="166"/>
       <c r="B217" s="74" t="s">
         <v>221</v>
       </c>
@@ -19163,7 +19171,7 @@
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="167"/>
+      <c r="A218" s="166"/>
       <c r="B218" s="72" t="s">
         <v>370</v>
       </c>
@@ -19181,7 +19189,7 @@
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="167"/>
+      <c r="A219" s="166"/>
       <c r="B219" s="74" t="s">
         <v>374</v>
       </c>
@@ -19196,7 +19204,7 @@
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="167"/>
+      <c r="A220" s="166"/>
       <c r="B220" s="72" t="s">
         <v>222</v>
       </c>
@@ -19211,7 +19219,7 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="167"/>
+      <c r="A221" s="166"/>
       <c r="B221" s="77" t="s">
         <v>228</v>
       </c>
@@ -19226,7 +19234,7 @@
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="167"/>
+      <c r="A222" s="166"/>
       <c r="B222" s="77" t="s">
         <v>232</v>
       </c>
@@ -19241,7 +19249,7 @@
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="167"/>
+      <c r="A223" s="166"/>
       <c r="B223" s="77" t="s">
         <v>377</v>
       </c>
@@ -19259,7 +19267,7 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="167"/>
+      <c r="A224" s="166"/>
       <c r="B224" s="77" t="s">
         <v>119</v>
       </c>
@@ -19277,7 +19285,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="167"/>
+      <c r="A225" s="166"/>
       <c r="B225" s="77" t="s">
         <v>120</v>
       </c>
@@ -19295,7 +19303,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="167"/>
+      <c r="A226" s="166"/>
       <c r="B226" s="111" t="s">
         <v>378</v>
       </c>
@@ -19310,7 +19318,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="167"/>
+      <c r="A227" s="166"/>
       <c r="B227" s="111" t="s">
         <v>247</v>
       </c>
@@ -19325,7 +19333,7 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="167"/>
+      <c r="A228" s="166"/>
       <c r="B228" s="111" t="s">
         <v>251</v>
       </c>
@@ -19340,7 +19348,7 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="167"/>
+      <c r="A229" s="166"/>
       <c r="B229" s="111" t="s">
         <v>254</v>
       </c>
@@ -19355,7 +19363,7 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="167"/>
+      <c r="A230" s="166"/>
       <c r="B230" s="103" t="s">
         <v>257</v>
       </c>
@@ -19370,7 +19378,7 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="167"/>
+      <c r="A231" s="166"/>
       <c r="B231" s="105" t="s">
         <v>261</v>
       </c>
@@ -19381,7 +19389,7 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="167"/>
+      <c r="A232" s="166"/>
       <c r="B232" s="106" t="s">
         <v>257</v>
       </c>
@@ -19394,7 +19402,7 @@
       <c r="F232" s="37"/>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="167"/>
+      <c r="A233" s="166"/>
       <c r="B233" s="82" t="s">
         <v>265</v>
       </c>
@@ -19412,7 +19420,7 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="167"/>
+      <c r="A234" s="166"/>
       <c r="B234" s="82" t="s">
         <v>269</v>
       </c>
@@ -19430,7 +19438,7 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="167"/>
+      <c r="A235" s="166"/>
       <c r="B235" s="90" t="s">
         <v>272</v>
       </c>
@@ -19448,7 +19456,7 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="167"/>
+      <c r="A236" s="166"/>
       <c r="B236" s="59" t="s">
         <v>277</v>
       </c>
@@ -19483,7 +19491,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1">
-      <c r="A238" s="167" t="s">
+      <c r="A238" s="166" t="s">
         <v>379</v>
       </c>
       <c r="B238" s="114" t="s">
@@ -19500,7 +19508,7 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="167"/>
+      <c r="A239" s="166"/>
       <c r="B239" s="114" t="s">
         <v>383</v>
       </c>
@@ -19515,7 +19523,7 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="167"/>
+      <c r="A240" s="166"/>
       <c r="B240" s="114" t="s">
         <v>386</v>
       </c>
@@ -19530,7 +19538,7 @@
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="167"/>
+      <c r="A241" s="166"/>
       <c r="B241" s="114" t="s">
         <v>128</v>
       </c>
@@ -19545,7 +19553,7 @@
       </c>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="167"/>
+      <c r="A242" s="166"/>
       <c r="B242" s="115" t="s">
         <v>391</v>
       </c>
@@ -19563,7 +19571,7 @@
       </c>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="167"/>
+      <c r="A243" s="166"/>
       <c r="B243" s="115" t="s">
         <v>395</v>
       </c>
@@ -19581,7 +19589,7 @@
       </c>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="167"/>
+      <c r="A244" s="166"/>
       <c r="B244" s="116" t="s">
         <v>398</v>
       </c>
@@ -19596,7 +19604,7 @@
       </c>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="167"/>
+      <c r="A245" s="166"/>
       <c r="B245" s="116" t="s">
         <v>401</v>
       </c>
@@ -19611,7 +19619,7 @@
       </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="167"/>
+      <c r="A246" s="166"/>
       <c r="B246" s="116" t="s">
         <v>402</v>
       </c>
@@ -19626,7 +19634,7 @@
       </c>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="167"/>
+      <c r="A247" s="166"/>
       <c r="B247" s="116" t="s">
         <v>403</v>
       </c>
@@ -19641,7 +19649,7 @@
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="167"/>
+      <c r="A248" s="166"/>
       <c r="B248" s="116" t="s">
         <v>407</v>
       </c>
@@ -19656,7 +19664,7 @@
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="167"/>
+      <c r="A249" s="166"/>
       <c r="B249" s="116" t="s">
         <v>408</v>
       </c>
@@ -19691,7 +19699,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A251" s="167" t="s">
+      <c r="A251" s="166" t="s">
         <v>409</v>
       </c>
       <c r="B251" s="94" t="s">
@@ -19711,7 +19719,7 @@
       </c>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="167"/>
+      <c r="A252" s="166"/>
       <c r="B252" s="94" t="s">
         <v>412</v>
       </c>
@@ -19726,7 +19734,7 @@
       </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="167"/>
+      <c r="A253" s="166"/>
       <c r="B253" s="94" t="s">
         <v>128</v>
       </c>
@@ -19741,7 +19749,7 @@
       </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="167"/>
+      <c r="A254" s="166"/>
       <c r="B254" s="94" t="s">
         <v>415</v>
       </c>
@@ -19756,7 +19764,7 @@
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="167"/>
+      <c r="A255" s="166"/>
       <c r="B255" s="94" t="s">
         <v>418</v>
       </c>
@@ -19771,7 +19779,7 @@
       </c>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="167"/>
+      <c r="A256" s="166"/>
       <c r="B256" s="94" t="s">
         <v>421</v>
       </c>
@@ -19789,7 +19797,7 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="167"/>
+      <c r="A257" s="166"/>
       <c r="B257" s="94" t="s">
         <v>423</v>
       </c>
@@ -19807,7 +19815,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="167"/>
+      <c r="A258" s="166"/>
       <c r="B258" s="94" t="s">
         <v>424</v>
       </c>
@@ -19822,7 +19830,7 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="167"/>
+      <c r="A259" s="166"/>
       <c r="B259" s="116" t="s">
         <v>403</v>
       </c>
@@ -19837,7 +19845,7 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="167"/>
+      <c r="A260" s="166"/>
       <c r="B260" s="116" t="s">
         <v>428</v>
       </c>
@@ -19852,7 +19860,7 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="167"/>
+      <c r="A261" s="166"/>
       <c r="B261" s="116" t="s">
         <v>429</v>
       </c>
@@ -19887,7 +19895,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A263" s="167" t="s">
+      <c r="A263" s="166" t="s">
         <v>430</v>
       </c>
       <c r="B263" s="119" t="s">
@@ -19910,7 +19918,7 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="167"/>
+      <c r="A264" s="166"/>
       <c r="B264" s="94" t="s">
         <v>435</v>
       </c>
@@ -19925,7 +19933,7 @@
       </c>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="167"/>
+      <c r="A265" s="166"/>
       <c r="B265" s="94" t="s">
         <v>436</v>
       </c>
@@ -19940,7 +19948,7 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="167"/>
+      <c r="A266" s="166"/>
       <c r="B266" s="94" t="s">
         <v>128</v>
       </c>
@@ -19955,7 +19963,7 @@
       </c>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="167"/>
+      <c r="A267" s="166"/>
       <c r="B267" s="94" t="s">
         <v>438</v>
       </c>
@@ -19970,7 +19978,7 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="167"/>
+      <c r="A268" s="166"/>
       <c r="B268" s="94" t="s">
         <v>441</v>
       </c>
@@ -19985,7 +19993,7 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="167"/>
+      <c r="A269" s="166"/>
       <c r="B269" s="122" t="s">
         <v>442</v>
       </c>
@@ -20003,7 +20011,7 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="167"/>
+      <c r="A270" s="166"/>
       <c r="B270" s="122" t="s">
         <v>444</v>
       </c>
@@ -20021,7 +20029,7 @@
       </c>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="167"/>
+      <c r="A271" s="166"/>
       <c r="B271" s="44" t="s">
         <v>445</v>
       </c>
@@ -20036,7 +20044,7 @@
       </c>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="167"/>
+      <c r="A272" s="166"/>
       <c r="B272" s="44" t="s">
         <v>449</v>
       </c>
@@ -20051,7 +20059,7 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="167"/>
+      <c r="A273" s="166"/>
       <c r="B273" s="123" t="s">
         <v>452</v>
       </c>
@@ -20066,7 +20074,7 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="167"/>
+      <c r="A274" s="166"/>
       <c r="B274" s="123" t="s">
         <v>429</v>
       </c>
@@ -20081,7 +20089,7 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="167"/>
+      <c r="A275" s="166"/>
       <c r="B275" s="123" t="s">
         <v>428</v>
       </c>
@@ -20096,7 +20104,7 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="167"/>
+      <c r="A276" s="166"/>
       <c r="B276" s="123" t="s">
         <v>453</v>
       </c>
@@ -20131,7 +20139,7 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A278" s="167" t="s">
+      <c r="A278" s="166" t="s">
         <v>454</v>
       </c>
       <c r="B278" s="94" t="s">
@@ -20151,7 +20159,7 @@
       </c>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="167"/>
+      <c r="A279" s="166"/>
       <c r="B279" s="94" t="s">
         <v>456</v>
       </c>
@@ -20167,7 +20175,7 @@
       <c r="F279" s="17"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="167"/>
+      <c r="A280" s="166"/>
       <c r="B280" s="94" t="s">
         <v>457</v>
       </c>
@@ -20183,7 +20191,7 @@
       <c r="F280" s="17"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="167"/>
+      <c r="A281" s="166"/>
       <c r="B281" s="122" t="s">
         <v>458</v>
       </c>
@@ -20201,7 +20209,7 @@
       </c>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="167"/>
+      <c r="A282" s="166"/>
       <c r="B282" s="122" t="s">
         <v>460</v>
       </c>
@@ -20216,7 +20224,7 @@
       </c>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="167"/>
+      <c r="A283" s="166"/>
       <c r="B283" s="122" t="s">
         <v>461</v>
       </c>
@@ -20231,7 +20239,7 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="167"/>
+      <c r="A284" s="166"/>
       <c r="B284" s="122" t="s">
         <v>453</v>
       </c>
@@ -20266,7 +20274,7 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A286" s="167" t="s">
+      <c r="A286" s="166" t="s">
         <v>462</v>
       </c>
       <c r="B286" s="94" t="s">
@@ -20286,7 +20294,7 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="167"/>
+      <c r="A287" s="166"/>
       <c r="B287" s="94" t="s">
         <v>464</v>
       </c>
@@ -20302,7 +20310,7 @@
       <c r="F287" s="17"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="167"/>
+      <c r="A288" s="166"/>
       <c r="B288" s="94" t="s">
         <v>465</v>
       </c>
@@ -20318,7 +20326,7 @@
       <c r="F288" s="17"/>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="167"/>
+      <c r="A289" s="166"/>
       <c r="B289" s="122" t="s">
         <v>460</v>
       </c>
@@ -20333,7 +20341,7 @@
       </c>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="167"/>
+      <c r="A290" s="166"/>
       <c r="B290" s="122" t="s">
         <v>461</v>
       </c>
@@ -20348,7 +20356,7 @@
       </c>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="167"/>
+      <c r="A291" s="166"/>
       <c r="B291" s="122" t="s">
         <v>453</v>
       </c>
@@ -20383,7 +20391,7 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A293" s="167" t="s">
+      <c r="A293" s="166" t="s">
         <v>466</v>
       </c>
       <c r="B293" s="94" t="s">
@@ -20403,7 +20411,7 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="167"/>
+      <c r="A294" s="166"/>
       <c r="B294" s="94" t="s">
         <v>468</v>
       </c>
@@ -20438,7 +20446,7 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A296" s="167" t="s">
+      <c r="A296" s="166" t="s">
         <v>469</v>
       </c>
       <c r="B296" s="94" t="s">
@@ -20458,7 +20466,7 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="167"/>
+      <c r="A297" s="166"/>
       <c r="B297" s="94" t="s">
         <v>471</v>
       </c>
@@ -20474,6 +20482,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:A34"/>
+    <mergeCell ref="A36:A71"/>
+    <mergeCell ref="G43:G65"/>
+    <mergeCell ref="A73:A122"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="A124:A167"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="A169:A201"/>
+    <mergeCell ref="G198:G200"/>
+    <mergeCell ref="A203:A236"/>
     <mergeCell ref="A293:A294"/>
     <mergeCell ref="A296:A297"/>
     <mergeCell ref="A238:A249"/>
@@ -20481,18 +20501,6 @@
     <mergeCell ref="A263:A276"/>
     <mergeCell ref="A278:A284"/>
     <mergeCell ref="A286:A291"/>
-    <mergeCell ref="A124:A167"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="A169:A201"/>
-    <mergeCell ref="G198:G200"/>
-    <mergeCell ref="A203:A236"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A4:A34"/>
-    <mergeCell ref="A36:A71"/>
-    <mergeCell ref="G43:G65"/>
-    <mergeCell ref="A73:A122"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="G119:G121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\NVT_Data-Model\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015882FA-7839-4BE8-A893-90B4EB606751}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE967FCD-75D5-4BC5-8296-964BABD3B539}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Levels" sheetId="1" r:id="rId1"/>
     <sheet name="UniqueProperties" sheetId="2" r:id="rId2"/>
     <sheet name="Classes" sheetId="3" r:id="rId3"/>
-    <sheet name="AllPropertiesKarma" sheetId="4" r:id="rId4"/>
+    <sheet name="AllPropertiesKarmaOld" sheetId="4" r:id="rId4"/>
+    <sheet name="skosConcepts" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Mapping Levels'!$A$1:$K$316</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="715">
   <si>
     <r>
       <rPr>
@@ -2267,6 +2268,57 @@
   <si>
     <t>unique properties = alle properties insgesamt</t>
   </si>
+  <si>
+    <t>Provided CHO</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Information Object</t>
+  </si>
+  <si>
+    <t>Gruppe/Ensemble/Company</t>
+  </si>
+  <si>
+    <t>Sammlung</t>
+  </si>
+  <si>
+    <t>Digitales Objekt</t>
+  </si>
+  <si>
+    <t>Ereignis</t>
+  </si>
+  <si>
+    <t>Aufführungsort</t>
+  </si>
+  <si>
+    <t>Produktion</t>
+  </si>
+  <si>
+    <t>Physisches Objekt</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Zeitspanne</t>
+  </si>
+  <si>
+    <t>Spatial Thing</t>
+  </si>
+  <si>
+    <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>References für Videos noch überarbeiten, abgeb. Erw. Prod und erw. Ereignisse können bei den Entitäten erfasst werden, textliche hinzufügen</t>
+  </si>
 </sst>
 </file>
 
@@ -2275,7 +2327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2534,6 +2586,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2894,7 +2953,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3301,6 +3360,40 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3319,15 +3412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3336,27 +3420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3744,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234"/>
+    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3765,16 +3828,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60.95" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
       <c r="I1" s="137"/>
       <c r="J1" s="131"/>
       <c r="K1" s="6"/>
@@ -3817,15 +3880,15 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="139"/>
       <c r="J4" s="132"/>
       <c r="K4" s="9"/>
@@ -3836,14 +3899,14 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="9"/>
       <c r="I5" s="138"/>
       <c r="J5" s="9"/>
@@ -3855,14 +3918,14 @@
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="9"/>
       <c r="I6" s="138"/>
       <c r="J6" s="9"/>
@@ -3874,14 +3937,14 @@
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="9"/>
       <c r="I7" s="138"/>
       <c r="J7" s="9"/>
@@ -3893,14 +3956,14 @@
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="9"/>
       <c r="I8" s="138"/>
       <c r="J8" s="9"/>
@@ -3912,14 +3975,14 @@
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="9"/>
       <c r="I9" s="138"/>
       <c r="J9" s="9"/>
@@ -3931,14 +3994,14 @@
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
       <c r="H10" s="9"/>
       <c r="I10" s="138"/>
       <c r="J10" s="9"/>
@@ -3950,14 +4013,14 @@
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
       <c r="L11" s="1"/>
       <c r="M11" s="5"/>
     </row>
@@ -3966,22 +4029,22 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="30.95" customHeight="1">
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="174"/>
-      <c r="E13" s="175" t="s">
+      <c r="D13" s="166"/>
+      <c r="E13" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="175"/>
-      <c r="G13" s="176" t="s">
+      <c r="F13" s="167"/>
+      <c r="G13" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="176"/>
-      <c r="I13" s="167" t="s">
+      <c r="H13" s="168"/>
+      <c r="I13" s="170" t="s">
         <v>647</v>
       </c>
-      <c r="J13" s="168"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" spans="1:13" ht="29.25" customHeight="1">
       <c r="A14" s="18" t="s">
@@ -4022,7 +4085,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="172" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -4044,12 +4107,12 @@
       <c r="J15" s="133" t="s">
         <v>589</v>
       </c>
-      <c r="L15" s="163" t="s">
+      <c r="L15" s="175" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="161"/>
+      <c r="A16" s="173"/>
       <c r="B16" s="27" t="s">
         <v>32</v>
       </c>
@@ -4069,10 +4132,10 @@
       <c r="J16" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="164"/>
+      <c r="L16" s="176"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="161"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="38" t="s">
         <v>39</v>
       </c>
@@ -4095,10 +4158,10 @@
       <c r="K17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="164"/>
+      <c r="L17" s="176"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="161"/>
+      <c r="A18" s="173"/>
       <c r="B18" s="34" t="s">
         <v>35</v>
       </c>
@@ -4121,10 +4184,10 @@
       <c r="K18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="164"/>
+      <c r="L18" s="176"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="161"/>
+      <c r="A19" s="173"/>
       <c r="B19" s="41" t="s">
         <v>43</v>
       </c>
@@ -4144,10 +4207,10 @@
       <c r="J19" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="164"/>
+      <c r="L19" s="176"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="161"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="41" t="s">
         <v>46</v>
       </c>
@@ -4167,10 +4230,10 @@
       <c r="J20" s="133" t="s">
         <v>591</v>
       </c>
-      <c r="L20" s="164"/>
+      <c r="L20" s="176"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="161"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="41" t="s">
         <v>49</v>
       </c>
@@ -4190,10 +4253,10 @@
       <c r="J21" s="133" t="s">
         <v>581</v>
       </c>
-      <c r="L21" s="164"/>
+      <c r="L21" s="176"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="161"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="41" t="s">
         <v>52</v>
       </c>
@@ -4213,10 +4276,10 @@
       <c r="J22" s="133" t="s">
         <v>624</v>
       </c>
-      <c r="L22" s="164"/>
+      <c r="L22" s="176"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="161"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="41" t="s">
         <v>55</v>
       </c>
@@ -4236,10 +4299,10 @@
       <c r="J23" s="133" t="s">
         <v>593</v>
       </c>
-      <c r="L23" s="164"/>
+      <c r="L23" s="176"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="161"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="42" t="s">
         <v>58</v>
       </c>
@@ -4262,10 +4325,10 @@
       <c r="K24" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="164"/>
+      <c r="L24" s="176"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="161"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="41" t="s">
         <v>62</v>
       </c>
@@ -4285,10 +4348,10 @@
       <c r="J25" s="133" t="s">
         <v>582</v>
       </c>
-      <c r="L25" s="164"/>
+      <c r="L25" s="176"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="161"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="41" t="s">
         <v>65</v>
       </c>
@@ -4308,10 +4371,10 @@
       <c r="J26" s="133" t="s">
         <v>594</v>
       </c>
-      <c r="L26" s="164"/>
+      <c r="L26" s="176"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="161"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="41" t="s">
         <v>68</v>
       </c>
@@ -4331,10 +4394,10 @@
       <c r="J27" s="133" t="s">
         <v>623</v>
       </c>
-      <c r="L27" s="164"/>
+      <c r="L27" s="176"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="161"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="41" t="s">
         <v>71</v>
       </c>
@@ -4354,10 +4417,10 @@
       <c r="J28" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="L28" s="164"/>
+      <c r="L28" s="176"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="161"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="42" t="s">
         <v>74</v>
       </c>
@@ -4377,10 +4440,10 @@
       <c r="J29" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="L29" s="164"/>
+      <c r="L29" s="176"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="161"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="42" t="s">
         <v>77</v>
       </c>
@@ -4400,10 +4463,10 @@
       <c r="J30" s="133" t="s">
         <v>614</v>
       </c>
-      <c r="L30" s="164"/>
+      <c r="L30" s="176"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="161"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="41" t="s">
         <v>80</v>
       </c>
@@ -4423,10 +4486,10 @@
       <c r="J31" s="133" t="s">
         <v>613</v>
       </c>
-      <c r="L31" s="164"/>
+      <c r="L31" s="176"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="161"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="41" t="s">
         <v>83</v>
       </c>
@@ -4449,10 +4512,10 @@
       <c r="K32" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="164"/>
+      <c r="L32" s="176"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="161"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="41" t="s">
         <v>85</v>
       </c>
@@ -4472,10 +4535,10 @@
       <c r="J33" s="133" t="s">
         <v>580</v>
       </c>
-      <c r="L33" s="164"/>
+      <c r="L33" s="176"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="161"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="41" t="s">
         <v>88</v>
       </c>
@@ -4495,10 +4558,10 @@
       <c r="J34" s="133" t="s">
         <v>584</v>
       </c>
-      <c r="L34" s="164"/>
+      <c r="L34" s="176"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="161"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="41" t="s">
         <v>91</v>
       </c>
@@ -4518,10 +4581,10 @@
       <c r="J35" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="L35" s="164"/>
+      <c r="L35" s="176"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="161"/>
+      <c r="A36" s="173"/>
       <c r="B36" s="41" t="s">
         <v>94</v>
       </c>
@@ -4541,10 +4604,10 @@
       <c r="J36" s="133" t="s">
         <v>615</v>
       </c>
-      <c r="L36" s="164"/>
+      <c r="L36" s="176"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="161"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="42" t="s">
         <v>97</v>
       </c>
@@ -4564,10 +4627,10 @@
       <c r="J37" s="133" t="s">
         <v>583</v>
       </c>
-      <c r="L37" s="164"/>
+      <c r="L37" s="176"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="161"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="42" t="s">
         <v>100</v>
       </c>
@@ -4587,10 +4650,10 @@
       <c r="J38" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="164"/>
+      <c r="L38" s="176"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="161"/>
+      <c r="A39" s="173"/>
       <c r="B39" s="43" t="s">
         <v>101</v>
       </c>
@@ -4610,10 +4673,10 @@
       <c r="J39" s="133" t="s">
         <v>595</v>
       </c>
-      <c r="L39" s="164"/>
+      <c r="L39" s="176"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="161"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="43" t="s">
         <v>668</v>
       </c>
@@ -4629,10 +4692,10 @@
       <c r="J40" s="133" t="s">
         <v>670</v>
       </c>
-      <c r="L40" s="164"/>
+      <c r="L40" s="176"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="161"/>
+      <c r="A41" s="173"/>
       <c r="B41" s="44" t="s">
         <v>104</v>
       </c>
@@ -4655,10 +4718,10 @@
       <c r="K41" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L41" s="164"/>
+      <c r="L41" s="176"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="161"/>
+      <c r="A42" s="173"/>
       <c r="B42" s="44" t="s">
         <v>108</v>
       </c>
@@ -4681,10 +4744,10 @@
       <c r="K42" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L42" s="164"/>
+      <c r="L42" s="176"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="161"/>
+      <c r="A43" s="173"/>
       <c r="B43" s="44" t="s">
         <v>112</v>
       </c>
@@ -4707,10 +4770,10 @@
       <c r="K43" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L43" s="164"/>
+      <c r="L43" s="176"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="161"/>
+      <c r="A44" s="173"/>
       <c r="B44" s="45" t="s">
         <v>115</v>
       </c>
@@ -4733,10 +4796,10 @@
       <c r="K44" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="L44" s="164"/>
+      <c r="L44" s="176"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="161"/>
+      <c r="A45" s="173"/>
       <c r="B45" s="45" t="s">
         <v>119</v>
       </c>
@@ -4759,10 +4822,10 @@
       <c r="K45" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="L45" s="164"/>
+      <c r="L45" s="176"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="162"/>
+      <c r="A46" s="174"/>
       <c r="B46" s="45" t="s">
         <v>120</v>
       </c>
@@ -4785,7 +4848,7 @@
       <c r="K46" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="L46" s="165"/>
+      <c r="L46" s="177"/>
     </row>
     <row r="47" spans="1:12" ht="32.1" customHeight="1">
       <c r="A47" s="18" t="s">
@@ -4823,7 +4886,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="166" t="s">
+      <c r="A48" s="169" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -4856,7 +4919,7 @@
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="166"/>
+      <c r="A49" s="169"/>
       <c r="B49" s="27" t="s">
         <v>125</v>
       </c>
@@ -4889,7 +4952,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="166"/>
+      <c r="A50" s="169"/>
       <c r="B50" s="27" t="s">
         <v>128</v>
       </c>
@@ -4922,7 +4985,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="30">
-      <c r="A51" s="166"/>
+      <c r="A51" s="169"/>
       <c r="B51" s="27" t="s">
         <v>132</v>
       </c>
@@ -4954,7 +5017,7 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="166"/>
+      <c r="A52" s="169"/>
       <c r="B52" s="27" t="s">
         <v>672</v>
       </c>
@@ -4981,7 +5044,7 @@
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="166"/>
+      <c r="A53" s="169"/>
       <c r="B53" s="27" t="s">
         <v>671</v>
       </c>
@@ -5008,7 +5071,7 @@
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A54" s="166"/>
+      <c r="A54" s="169"/>
       <c r="B54" s="27" t="s">
         <v>145</v>
       </c>
@@ -5042,7 +5105,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="166"/>
+      <c r="A55" s="169"/>
       <c r="B55" s="41" t="s">
         <v>43</v>
       </c>
@@ -5069,12 +5132,12 @@
       <c r="K55" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="L55" s="170" t="s">
+      <c r="L55" s="179" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="166"/>
+      <c r="A56" s="169"/>
       <c r="B56" s="41" t="s">
         <v>46</v>
       </c>
@@ -5098,10 +5161,10 @@
       <c r="J56" s="133" t="s">
         <v>591</v>
       </c>
-      <c r="L56" s="170"/>
+      <c r="L56" s="179"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="166"/>
+      <c r="A57" s="169"/>
       <c r="B57" s="41" t="s">
         <v>49</v>
       </c>
@@ -5125,10 +5188,10 @@
       <c r="J57" s="133" t="s">
         <v>581</v>
       </c>
-      <c r="L57" s="170"/>
+      <c r="L57" s="179"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="166"/>
+      <c r="A58" s="169"/>
       <c r="B58" s="41" t="s">
         <v>52</v>
       </c>
@@ -5152,10 +5215,10 @@
       <c r="J58" s="133" t="s">
         <v>624</v>
       </c>
-      <c r="L58" s="170"/>
+      <c r="L58" s="179"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="166"/>
+      <c r="A59" s="169"/>
       <c r="B59" s="41" t="s">
         <v>55</v>
       </c>
@@ -5179,10 +5242,10 @@
       <c r="J59" s="133" t="s">
         <v>593</v>
       </c>
-      <c r="L59" s="170"/>
+      <c r="L59" s="179"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="166"/>
+      <c r="A60" s="169"/>
       <c r="B60" s="42" t="s">
         <v>58</v>
       </c>
@@ -5209,10 +5272,10 @@
       <c r="K60" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="170"/>
+      <c r="L60" s="179"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="166"/>
+      <c r="A61" s="169"/>
       <c r="B61" s="41" t="s">
         <v>62</v>
       </c>
@@ -5236,10 +5299,10 @@
       <c r="J61" s="133" t="s">
         <v>582</v>
       </c>
-      <c r="L61" s="170"/>
+      <c r="L61" s="179"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="166"/>
+      <c r="A62" s="169"/>
       <c r="B62" s="41" t="s">
         <v>65</v>
       </c>
@@ -5263,10 +5326,10 @@
       <c r="J62" s="133" t="s">
         <v>594</v>
       </c>
-      <c r="L62" s="170"/>
+      <c r="L62" s="179"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="166"/>
+      <c r="A63" s="169"/>
       <c r="B63" s="41" t="s">
         <v>68</v>
       </c>
@@ -5290,10 +5353,10 @@
       <c r="J63" s="133" t="s">
         <v>623</v>
       </c>
-      <c r="L63" s="170"/>
+      <c r="L63" s="179"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="166"/>
+      <c r="A64" s="169"/>
       <c r="B64" s="41" t="s">
         <v>71</v>
       </c>
@@ -5317,10 +5380,10 @@
       <c r="J64" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="L64" s="170"/>
+      <c r="L64" s="179"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="166"/>
+      <c r="A65" s="169"/>
       <c r="B65" s="42" t="s">
         <v>74</v>
       </c>
@@ -5344,10 +5407,10 @@
       <c r="J65" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="L65" s="170"/>
+      <c r="L65" s="179"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="166"/>
+      <c r="A66" s="169"/>
       <c r="B66" s="42" t="s">
         <v>77</v>
       </c>
@@ -5371,10 +5434,10 @@
       <c r="J66" s="133" t="s">
         <v>614</v>
       </c>
-      <c r="L66" s="170"/>
+      <c r="L66" s="179"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="166"/>
+      <c r="A67" s="169"/>
       <c r="B67" s="41" t="s">
         <v>80</v>
       </c>
@@ -5398,10 +5461,10 @@
       <c r="J67" s="133" t="s">
         <v>613</v>
       </c>
-      <c r="L67" s="170"/>
+      <c r="L67" s="179"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="166"/>
+      <c r="A68" s="169"/>
       <c r="B68" s="41" t="s">
         <v>83</v>
       </c>
@@ -5428,10 +5491,10 @@
       <c r="K68" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="L68" s="170"/>
+      <c r="L68" s="179"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="166"/>
+      <c r="A69" s="169"/>
       <c r="B69" s="41" t="s">
         <v>85</v>
       </c>
@@ -5455,10 +5518,10 @@
       <c r="J69" s="133" t="s">
         <v>580</v>
       </c>
-      <c r="L69" s="170"/>
+      <c r="L69" s="179"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="166"/>
+      <c r="A70" s="169"/>
       <c r="B70" s="41" t="s">
         <v>88</v>
       </c>
@@ -5482,10 +5545,10 @@
       <c r="J70" s="133" t="s">
         <v>584</v>
       </c>
-      <c r="L70" s="170"/>
+      <c r="L70" s="179"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="166"/>
+      <c r="A71" s="169"/>
       <c r="B71" s="41" t="s">
         <v>91</v>
       </c>
@@ -5509,10 +5572,10 @@
       <c r="J71" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="L71" s="170"/>
+      <c r="L71" s="179"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="166"/>
+      <c r="A72" s="169"/>
       <c r="B72" s="41" t="s">
         <v>94</v>
       </c>
@@ -5536,10 +5599,10 @@
       <c r="J72" s="133" t="s">
         <v>615</v>
       </c>
-      <c r="L72" s="170"/>
+      <c r="L72" s="179"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="166"/>
+      <c r="A73" s="169"/>
       <c r="B73" s="42" t="s">
         <v>97</v>
       </c>
@@ -5563,10 +5626,10 @@
       <c r="J73" s="133" t="s">
         <v>583</v>
       </c>
-      <c r="L73" s="170"/>
+      <c r="L73" s="179"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="166"/>
+      <c r="A74" s="169"/>
       <c r="B74" s="42" t="s">
         <v>155</v>
       </c>
@@ -5590,10 +5653,10 @@
       <c r="J74" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="L74" s="170"/>
+      <c r="L74" s="179"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="166"/>
+      <c r="A75" s="169"/>
       <c r="B75" s="42" t="s">
         <v>158</v>
       </c>
@@ -5620,10 +5683,10 @@
       <c r="K75" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="L75" s="170"/>
+      <c r="L75" s="179"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="166"/>
+      <c r="A76" s="169"/>
       <c r="B76" s="42" t="s">
         <v>100</v>
       </c>
@@ -5647,10 +5710,10 @@
       <c r="J76" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="L76" s="170"/>
+      <c r="L76" s="179"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="166"/>
+      <c r="A77" s="169"/>
       <c r="B77" s="55" t="s">
         <v>161</v>
       </c>
@@ -5670,10 +5733,10 @@
       <c r="J77" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="L77" s="170"/>
+      <c r="L77" s="179"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="166"/>
+      <c r="A78" s="169"/>
       <c r="B78" s="44" t="s">
         <v>164</v>
       </c>
@@ -5706,7 +5769,7 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="166"/>
+      <c r="A79" s="169"/>
       <c r="B79" s="55" t="s">
         <v>167</v>
       </c>
@@ -5739,7 +5802,7 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="166"/>
+      <c r="A80" s="169"/>
       <c r="B80" s="55" t="s">
         <v>169</v>
       </c>
@@ -5772,7 +5835,7 @@
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="166"/>
+      <c r="A81" s="169"/>
       <c r="B81" s="45" t="s">
         <v>115</v>
       </c>
@@ -5802,7 +5865,7 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="166"/>
+      <c r="A82" s="169"/>
       <c r="B82" s="45" t="s">
         <v>119</v>
       </c>
@@ -5832,7 +5895,7 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="166"/>
+      <c r="A83" s="169"/>
       <c r="B83" s="45" t="s">
         <v>120</v>
       </c>
@@ -5897,7 +5960,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1">
-      <c r="A85" s="160" t="s">
+      <c r="A85" s="172" t="s">
         <v>173</v>
       </c>
       <c r="B85" s="56" t="s">
@@ -5932,7 +5995,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1">
-      <c r="A86" s="161"/>
+      <c r="A86" s="173"/>
       <c r="B86" s="58" t="s">
         <v>179</v>
       </c>
@@ -5967,7 +6030,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
-      <c r="A87" s="161"/>
+      <c r="A87" s="173"/>
       <c r="B87" s="59" t="s">
         <v>186</v>
       </c>
@@ -5998,12 +6061,12 @@
       <c r="K87" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="L87" s="171" t="s">
+      <c r="L87" s="180" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="161"/>
+      <c r="A88" s="173"/>
       <c r="B88" s="62" t="s">
         <v>189</v>
       </c>
@@ -6031,10 +6094,10 @@
       <c r="J88" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="L88" s="171"/>
+      <c r="L88" s="180"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="161"/>
+      <c r="A89" s="173"/>
       <c r="B89" s="62" t="s">
         <v>190</v>
       </c>
@@ -6062,10 +6125,10 @@
       <c r="J89" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="L89" s="171"/>
+      <c r="L89" s="180"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="161"/>
+      <c r="A90" s="173"/>
       <c r="B90" s="62" t="s">
         <v>191</v>
       </c>
@@ -6098,7 +6161,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="30">
-      <c r="A91" s="161"/>
+      <c r="A91" s="173"/>
       <c r="B91" s="66" t="s">
         <v>198</v>
       </c>
@@ -6132,7 +6195,7 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="161"/>
+      <c r="A92" s="173"/>
       <c r="B92" s="66" t="s">
         <v>204</v>
       </c>
@@ -6162,8 +6225,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="161"/>
+    <row r="93" spans="1:13" ht="75">
+      <c r="A93" s="173"/>
       <c r="B93" s="66" t="s">
         <v>206</v>
       </c>
@@ -6194,9 +6257,12 @@
       <c r="K93" s="69" t="s">
         <v>202</v>
       </c>
+      <c r="L93" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="161"/>
+      <c r="A94" s="173"/>
       <c r="B94" s="66" t="s">
         <v>208</v>
       </c>
@@ -6227,7 +6293,7 @@
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="161"/>
+      <c r="A95" s="173"/>
       <c r="B95" s="70" t="s">
         <v>209</v>
       </c>
@@ -6257,7 +6323,7 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="161"/>
+      <c r="A96" s="173"/>
       <c r="B96" s="71" t="s">
         <v>211</v>
       </c>
@@ -6287,7 +6353,7 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="161"/>
+      <c r="A97" s="173"/>
       <c r="B97" s="70" t="s">
         <v>214</v>
       </c>
@@ -6317,7 +6383,7 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="161"/>
+      <c r="A98" s="173"/>
       <c r="B98" s="72" t="s">
         <v>216</v>
       </c>
@@ -6343,7 +6409,7 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="161"/>
+      <c r="A99" s="173"/>
       <c r="B99" s="74" t="s">
         <v>673</v>
       </c>
@@ -6371,7 +6437,7 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="161"/>
+      <c r="A100" s="173"/>
       <c r="B100" s="74" t="s">
         <v>674</v>
       </c>
@@ -6399,7 +6465,7 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="161"/>
+      <c r="A101" s="173"/>
       <c r="B101" s="72" t="s">
         <v>675</v>
       </c>
@@ -6427,7 +6493,7 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="161"/>
+      <c r="A102" s="173"/>
       <c r="B102" s="75" t="s">
         <v>223</v>
       </c>
@@ -6453,7 +6519,7 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="161"/>
+      <c r="A103" s="173"/>
       <c r="B103" s="76" t="s">
         <v>226</v>
       </c>
@@ -6479,7 +6545,7 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="161"/>
+      <c r="A104" s="173"/>
       <c r="B104" s="76" t="s">
         <v>58</v>
       </c>
@@ -6508,7 +6574,7 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="161"/>
+      <c r="A105" s="173"/>
       <c r="B105" s="75" t="s">
         <v>62</v>
       </c>
@@ -6534,7 +6600,7 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="161"/>
+      <c r="A106" s="173"/>
       <c r="B106" s="75" t="s">
         <v>65</v>
       </c>
@@ -6560,7 +6626,7 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="161"/>
+      <c r="A107" s="173"/>
       <c r="B107" s="75" t="s">
         <v>68</v>
       </c>
@@ -6586,7 +6652,7 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="161"/>
+      <c r="A108" s="173"/>
       <c r="B108" s="75" t="s">
         <v>71</v>
       </c>
@@ -6612,7 +6678,7 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="161"/>
+      <c r="A109" s="173"/>
       <c r="B109" s="76" t="s">
         <v>227</v>
       </c>
@@ -6638,7 +6704,7 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="161"/>
+      <c r="A110" s="173"/>
       <c r="B110" s="75" t="s">
         <v>80</v>
       </c>
@@ -6664,7 +6730,7 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="161"/>
+      <c r="A111" s="173"/>
       <c r="B111" s="75" t="s">
         <v>83</v>
       </c>
@@ -6690,7 +6756,7 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="161"/>
+      <c r="A112" s="173"/>
       <c r="B112" s="75" t="s">
         <v>85</v>
       </c>
@@ -6716,7 +6782,7 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="161"/>
+      <c r="A113" s="173"/>
       <c r="B113" s="75" t="s">
         <v>88</v>
       </c>
@@ -6742,7 +6808,7 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="161"/>
+      <c r="A114" s="173"/>
       <c r="B114" s="75" t="s">
         <v>91</v>
       </c>
@@ -6768,7 +6834,7 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="161"/>
+      <c r="A115" s="173"/>
       <c r="B115" s="76" t="s">
         <v>74</v>
       </c>
@@ -6794,7 +6860,7 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="161"/>
+      <c r="A116" s="173"/>
       <c r="B116" s="75" t="s">
         <v>94</v>
       </c>
@@ -6820,7 +6886,7 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="161"/>
+      <c r="A117" s="173"/>
       <c r="B117" s="76" t="s">
         <v>97</v>
       </c>
@@ -6846,7 +6912,7 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="161"/>
+      <c r="A118" s="173"/>
       <c r="B118" s="74" t="s">
         <v>100</v>
       </c>
@@ -6872,7 +6938,7 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="161"/>
+      <c r="A119" s="173"/>
       <c r="B119" s="77" t="s">
         <v>228</v>
       </c>
@@ -6902,7 +6968,7 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="161"/>
+      <c r="A120" s="173"/>
       <c r="B120" s="77" t="s">
         <v>232</v>
       </c>
@@ -6930,7 +6996,7 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="161"/>
+      <c r="A121" s="173"/>
       <c r="B121" s="77" t="s">
         <v>377</v>
       </c>
@@ -6966,7 +7032,7 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="161"/>
+      <c r="A122" s="173"/>
       <c r="B122" s="77" t="s">
         <v>119</v>
       </c>
@@ -6999,7 +7065,7 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="161"/>
+      <c r="A123" s="173"/>
       <c r="B123" s="77" t="s">
         <v>120</v>
       </c>
@@ -7032,7 +7098,7 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="161"/>
+      <c r="A124" s="173"/>
       <c r="B124" s="78" t="s">
         <v>242</v>
       </c>
@@ -7065,7 +7131,7 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="161"/>
+      <c r="A125" s="173"/>
       <c r="B125" s="78" t="s">
         <v>247</v>
       </c>
@@ -7098,7 +7164,7 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="161"/>
+      <c r="A126" s="173"/>
       <c r="B126" s="78" t="s">
         <v>251</v>
       </c>
@@ -7128,7 +7194,7 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="161"/>
+      <c r="A127" s="173"/>
       <c r="B127" s="79" t="s">
         <v>254</v>
       </c>
@@ -7158,7 +7224,7 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="161"/>
+      <c r="A128" s="173"/>
       <c r="B128" s="80" t="s">
         <v>257</v>
       </c>
@@ -7187,7 +7253,7 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="161"/>
+      <c r="A129" s="173"/>
       <c r="B129" s="81" t="s">
         <v>261</v>
       </c>
@@ -7208,7 +7274,7 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="161"/>
+      <c r="A130" s="173"/>
       <c r="B130" s="78" t="s">
         <v>676</v>
       </c>
@@ -7225,7 +7291,7 @@
       <c r="K130" s="37"/>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="161"/>
+      <c r="A131" s="173"/>
       <c r="B131" s="82" t="s">
         <v>257</v>
       </c>
@@ -7252,7 +7318,7 @@
       <c r="K131" s="37"/>
     </row>
     <row r="132" spans="1:12" ht="15" customHeight="1">
-      <c r="A132" s="161"/>
+      <c r="A132" s="173"/>
       <c r="B132" s="82" t="s">
         <v>265</v>
       </c>
@@ -7283,12 +7349,12 @@
       <c r="K132" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="L132" s="169" t="s">
+      <c r="L132" s="178" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="161"/>
+      <c r="A133" s="173"/>
       <c r="B133" s="82" t="s">
         <v>269</v>
       </c>
@@ -7319,10 +7385,10 @@
       <c r="K133" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="L133" s="169"/>
+      <c r="L133" s="178"/>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="161"/>
+      <c r="A134" s="173"/>
       <c r="B134" s="90" t="s">
         <v>272</v>
       </c>
@@ -7353,10 +7419,10 @@
       <c r="K134" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="L134" s="169"/>
+      <c r="L134" s="178"/>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="162"/>
+      <c r="A135" s="174"/>
       <c r="B135" s="59" t="s">
         <v>277</v>
       </c>
@@ -7421,7 +7487,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="15" customHeight="1">
-      <c r="A137" s="160" t="s">
+      <c r="A137" s="172" t="s">
         <v>281</v>
       </c>
       <c r="B137" s="92" t="s">
@@ -7451,7 +7517,7 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="161"/>
+      <c r="A138" s="173"/>
       <c r="B138" s="59" t="s">
         <v>179</v>
       </c>
@@ -7480,7 +7546,7 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="161"/>
+      <c r="A139" s="173"/>
       <c r="B139" s="59" t="s">
         <v>186</v>
       </c>
@@ -7513,7 +7579,7 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="161"/>
+      <c r="A140" s="173"/>
       <c r="B140" s="93" t="s">
         <v>677</v>
       </c>
@@ -7546,7 +7612,7 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="161"/>
+      <c r="A141" s="173"/>
       <c r="B141" s="93" t="s">
         <v>190</v>
       </c>
@@ -7576,7 +7642,7 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="161"/>
+      <c r="A142" s="173"/>
       <c r="B142" s="93" t="s">
         <v>284</v>
       </c>
@@ -7607,7 +7673,7 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="161"/>
+      <c r="A143" s="173"/>
       <c r="B143" s="94" t="s">
         <v>198</v>
       </c>
@@ -7638,7 +7704,7 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="161"/>
+      <c r="A144" s="173"/>
       <c r="B144" s="94" t="s">
         <v>204</v>
       </c>
@@ -7669,7 +7735,7 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="161"/>
+      <c r="A145" s="173"/>
       <c r="B145" s="94" t="s">
         <v>206</v>
       </c>
@@ -7702,7 +7768,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="161"/>
+      <c r="A146" s="173"/>
       <c r="B146" s="94" t="s">
         <v>208</v>
       </c>
@@ -7731,7 +7797,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="161"/>
+      <c r="A147" s="173"/>
       <c r="B147" s="95" t="s">
         <v>209</v>
       </c>
@@ -7761,7 +7827,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="161"/>
+      <c r="A148" s="173"/>
       <c r="B148" s="96" t="s">
         <v>211</v>
       </c>
@@ -7791,7 +7857,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="161"/>
+      <c r="A149" s="173"/>
       <c r="B149" s="95" t="s">
         <v>214</v>
       </c>
@@ -7821,7 +7887,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="161"/>
+      <c r="A150" s="173"/>
       <c r="B150" s="95" t="s">
         <v>286</v>
       </c>
@@ -7851,7 +7917,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="161"/>
+      <c r="A151" s="173"/>
       <c r="B151" s="41" t="s">
         <v>290</v>
       </c>
@@ -7877,7 +7943,7 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="161"/>
+      <c r="A152" s="173"/>
       <c r="B152" s="41" t="s">
         <v>294</v>
       </c>
@@ -7903,7 +7969,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="161"/>
+      <c r="A153" s="173"/>
       <c r="B153" s="41" t="s">
         <v>295</v>
       </c>
@@ -7931,7 +7997,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="161"/>
+      <c r="A154" s="173"/>
       <c r="B154" s="41" t="s">
         <v>296</v>
       </c>
@@ -7959,7 +8025,7 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="161"/>
+      <c r="A155" s="173"/>
       <c r="B155" s="41" t="s">
         <v>297</v>
       </c>
@@ -7986,7 +8052,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="161"/>
+      <c r="A156" s="173"/>
       <c r="B156" s="41" t="s">
         <v>301</v>
       </c>
@@ -8014,7 +8080,7 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="161"/>
+      <c r="A157" s="173"/>
       <c r="B157" s="41" t="s">
         <v>304</v>
       </c>
@@ -8042,7 +8108,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="161"/>
+      <c r="A158" s="173"/>
       <c r="B158" s="41" t="s">
         <v>307</v>
       </c>
@@ -8070,7 +8136,7 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="161"/>
+      <c r="A159" s="173"/>
       <c r="B159" s="41" t="s">
         <v>100</v>
       </c>
@@ -8096,7 +8162,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="161"/>
+      <c r="A160" s="173"/>
       <c r="B160" s="41" t="s">
         <v>310</v>
       </c>
@@ -8122,7 +8188,7 @@
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="161"/>
+      <c r="A161" s="173"/>
       <c r="B161" s="41" t="s">
         <v>311</v>
       </c>
@@ -8148,7 +8214,7 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="161"/>
+      <c r="A162" s="173"/>
       <c r="B162" s="41" t="s">
         <v>220</v>
       </c>
@@ -8164,7 +8230,7 @@
       <c r="J162" s="133"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="161"/>
+      <c r="A163" s="173"/>
       <c r="B163" s="41" t="s">
         <v>678</v>
       </c>
@@ -8180,7 +8246,7 @@
       <c r="J163" s="133"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="161"/>
+      <c r="A164" s="173"/>
       <c r="B164" s="45" t="s">
         <v>312</v>
       </c>
@@ -8210,7 +8276,7 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="161"/>
+      <c r="A165" s="173"/>
       <c r="B165" s="98" t="s">
         <v>313</v>
       </c>
@@ -8241,7 +8307,7 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="15" customHeight="1">
-      <c r="A166" s="161"/>
+      <c r="A166" s="173"/>
       <c r="B166" s="45" t="s">
         <v>318</v>
       </c>
@@ -8272,7 +8338,7 @@
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="161"/>
+      <c r="A167" s="173"/>
       <c r="B167" s="98" t="s">
         <v>321</v>
       </c>
@@ -8302,7 +8368,7 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="161"/>
+      <c r="A168" s="173"/>
       <c r="B168" s="45" t="s">
         <v>324</v>
       </c>
@@ -8333,7 +8399,7 @@
       </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="161"/>
+      <c r="A169" s="173"/>
       <c r="B169" s="45" t="s">
         <v>327</v>
       </c>
@@ -8363,7 +8429,7 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="161"/>
+      <c r="A170" s="173"/>
       <c r="B170" s="45" t="s">
         <v>120</v>
       </c>
@@ -8394,7 +8460,7 @@
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="161"/>
+      <c r="A171" s="173"/>
       <c r="B171" s="45" t="s">
         <v>329</v>
       </c>
@@ -8426,7 +8492,7 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="161"/>
+      <c r="A172" s="173"/>
       <c r="B172" s="45" t="s">
         <v>333</v>
       </c>
@@ -8449,7 +8515,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="30">
-      <c r="A173" s="161"/>
+      <c r="A173" s="173"/>
       <c r="B173" s="45" t="s">
         <v>335</v>
       </c>
@@ -8480,7 +8546,7 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="161"/>
+      <c r="A174" s="173"/>
       <c r="B174" s="102" t="s">
         <v>242</v>
       </c>
@@ -8508,7 +8574,7 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="161"/>
+      <c r="A175" s="173"/>
       <c r="B175" s="102" t="s">
         <v>251</v>
       </c>
@@ -8538,7 +8604,7 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="161"/>
+      <c r="A176" s="173"/>
       <c r="B176" s="102" t="s">
         <v>339</v>
       </c>
@@ -8568,7 +8634,7 @@
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="161"/>
+      <c r="A177" s="173"/>
       <c r="B177" s="102" t="s">
         <v>679</v>
       </c>
@@ -8582,7 +8648,7 @@
       <c r="J177" s="133"/>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="161"/>
+      <c r="A178" s="173"/>
       <c r="B178" s="103" t="s">
         <v>257</v>
       </c>
@@ -8615,7 +8681,7 @@
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="161"/>
+      <c r="A179" s="173"/>
       <c r="B179" s="105" t="s">
         <v>261</v>
       </c>
@@ -8640,7 +8706,7 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="161"/>
+      <c r="A180" s="173"/>
       <c r="B180" s="102" t="s">
         <v>676</v>
       </c>
@@ -8657,7 +8723,7 @@
       <c r="K180" s="37"/>
     </row>
     <row r="181" spans="1:12" ht="15" customHeight="1">
-      <c r="A181" s="161"/>
+      <c r="A181" s="173"/>
       <c r="B181" s="106" t="s">
         <v>257</v>
       </c>
@@ -8688,12 +8754,12 @@
       <c r="K181" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="L181" s="169" t="s">
+      <c r="L181" s="178" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="161"/>
+      <c r="A182" s="173"/>
       <c r="B182" s="82" t="s">
         <v>269</v>
       </c>
@@ -8724,10 +8790,10 @@
       <c r="K182" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="L182" s="169"/>
+      <c r="L182" s="178"/>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="161"/>
+      <c r="A183" s="173"/>
       <c r="B183" s="90" t="s">
         <v>272</v>
       </c>
@@ -8758,10 +8824,10 @@
       <c r="K183" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="L183" s="169"/>
+      <c r="L183" s="178"/>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="162"/>
+      <c r="A184" s="174"/>
       <c r="B184" s="59" t="s">
         <v>277</v>
       </c>
@@ -8826,7 +8892,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="15" customHeight="1">
-      <c r="A186" s="160" t="s">
+      <c r="A186" s="172" t="s">
         <v>340</v>
       </c>
       <c r="B186" s="56" t="s">
@@ -8856,7 +8922,7 @@
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="161"/>
+      <c r="A187" s="173"/>
       <c r="B187" s="58" t="s">
         <v>179</v>
       </c>
@@ -8885,7 +8951,7 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="161"/>
+      <c r="A188" s="173"/>
       <c r="B188" s="59" t="s">
         <v>186</v>
       </c>
@@ -8918,7 +8984,7 @@
       </c>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="161"/>
+      <c r="A189" s="173"/>
       <c r="B189" s="62" t="s">
         <v>680</v>
       </c>
@@ -8948,7 +9014,7 @@
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="161"/>
+      <c r="A190" s="173"/>
       <c r="B190" s="62" t="s">
         <v>190</v>
       </c>
@@ -8978,7 +9044,7 @@
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="161"/>
+      <c r="A191" s="173"/>
       <c r="B191" s="62" t="s">
         <v>341</v>
       </c>
@@ -9009,7 +9075,7 @@
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="161"/>
+      <c r="A192" s="173"/>
       <c r="B192" s="66" t="s">
         <v>198</v>
       </c>
@@ -9040,7 +9106,7 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="161"/>
+      <c r="A193" s="173"/>
       <c r="B193" s="66" t="s">
         <v>204</v>
       </c>
@@ -9071,7 +9137,7 @@
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="161"/>
+      <c r="A194" s="173"/>
       <c r="B194" s="66" t="s">
         <v>206</v>
       </c>
@@ -9104,7 +9170,7 @@
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="161"/>
+      <c r="A195" s="173"/>
       <c r="B195" s="66" t="s">
         <v>208</v>
       </c>
@@ -9133,7 +9199,7 @@
       </c>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="161"/>
+      <c r="A196" s="173"/>
       <c r="B196" s="70" t="s">
         <v>209</v>
       </c>
@@ -9161,7 +9227,7 @@
       </c>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="161"/>
+      <c r="A197" s="173"/>
       <c r="B197" s="70" t="s">
         <v>342</v>
       </c>
@@ -9194,7 +9260,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="30">
-      <c r="A198" s="161"/>
+      <c r="A198" s="173"/>
       <c r="B198" s="72" t="s">
         <v>681</v>
       </c>
@@ -9225,7 +9291,7 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="161"/>
+      <c r="A199" s="173"/>
       <c r="B199" s="72" t="s">
         <v>345</v>
       </c>
@@ -9251,7 +9317,7 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="161"/>
+      <c r="A200" s="173"/>
       <c r="B200" s="72" t="s">
         <v>346</v>
       </c>
@@ -9280,7 +9346,7 @@
       </c>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="161"/>
+      <c r="A201" s="173"/>
       <c r="B201" s="77" t="s">
         <v>349</v>
       </c>
@@ -9310,7 +9376,7 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="161"/>
+      <c r="A202" s="173"/>
       <c r="B202" s="77" t="s">
         <v>236</v>
       </c>
@@ -9343,7 +9409,7 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="161"/>
+      <c r="A203" s="173"/>
       <c r="B203" s="77" t="s">
         <v>351</v>
       </c>
@@ -9376,7 +9442,7 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="161"/>
+      <c r="A204" s="173"/>
       <c r="B204" s="77" t="s">
         <v>352</v>
       </c>
@@ -9409,7 +9475,7 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="161"/>
+      <c r="A205" s="173"/>
       <c r="B205" s="107" t="s">
         <v>353</v>
       </c>
@@ -9442,7 +9508,7 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="161"/>
+      <c r="A206" s="173"/>
       <c r="B206" s="107" t="s">
         <v>356</v>
       </c>
@@ -9475,7 +9541,7 @@
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="161"/>
+      <c r="A207" s="173"/>
       <c r="B207" s="110" t="s">
         <v>359</v>
       </c>
@@ -9505,7 +9571,7 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="161"/>
+      <c r="A208" s="173"/>
       <c r="B208" s="111" t="s">
         <v>251</v>
       </c>
@@ -9535,7 +9601,7 @@
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="161"/>
+      <c r="A209" s="173"/>
       <c r="B209" s="111" t="s">
         <v>254</v>
       </c>
@@ -9565,7 +9631,7 @@
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="161"/>
+      <c r="A210" s="173"/>
       <c r="B210" s="111" t="s">
         <v>360</v>
       </c>
@@ -9595,7 +9661,7 @@
       </c>
     </row>
     <row r="211" spans="1:12">
-      <c r="A211" s="161"/>
+      <c r="A211" s="173"/>
       <c r="B211" s="111" t="s">
         <v>361</v>
       </c>
@@ -9625,7 +9691,7 @@
       </c>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="161"/>
+      <c r="A212" s="173"/>
       <c r="B212" s="111" t="s">
         <v>362</v>
       </c>
@@ -9657,7 +9723,7 @@
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="161"/>
+      <c r="A213" s="173"/>
       <c r="B213" s="103" t="s">
         <v>257</v>
       </c>
@@ -9686,7 +9752,7 @@
       </c>
     </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="161"/>
+      <c r="A214" s="173"/>
       <c r="B214" s="105" t="s">
         <v>261</v>
       </c>
@@ -9707,7 +9773,7 @@
       </c>
     </row>
     <row r="215" spans="1:12">
-      <c r="A215" s="161"/>
+      <c r="A215" s="173"/>
       <c r="B215" s="111" t="s">
         <v>676</v>
       </c>
@@ -9724,7 +9790,7 @@
       <c r="K215" s="37"/>
     </row>
     <row r="216" spans="1:12" ht="15" customHeight="1">
-      <c r="A216" s="161"/>
+      <c r="A216" s="173"/>
       <c r="B216" s="106" t="s">
         <v>257</v>
       </c>
@@ -9751,12 +9817,12 @@
       <c r="K216" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="L216" s="169" t="s">
+      <c r="L216" s="178" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:12">
-      <c r="A217" s="161"/>
+      <c r="A217" s="173"/>
       <c r="B217" s="82" t="s">
         <v>269</v>
       </c>
@@ -9787,10 +9853,10 @@
       <c r="K217" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="L217" s="169"/>
+      <c r="L217" s="178"/>
     </row>
     <row r="218" spans="1:12">
-      <c r="A218" s="161"/>
+      <c r="A218" s="173"/>
       <c r="B218" s="90" t="s">
         <v>272</v>
       </c>
@@ -9821,10 +9887,10 @@
       <c r="K218" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="L218" s="169"/>
+      <c r="L218" s="178"/>
     </row>
     <row r="219" spans="1:12">
-      <c r="A219" s="162"/>
+      <c r="A219" s="174"/>
       <c r="B219" s="59" t="s">
         <v>277</v>
       </c>
@@ -9889,7 +9955,7 @@
       </c>
     </row>
     <row r="221" spans="1:12" ht="15" customHeight="1">
-      <c r="A221" s="160" t="s">
+      <c r="A221" s="172" t="s">
         <v>367</v>
       </c>
       <c r="B221" s="56" t="s">
@@ -9919,7 +9985,7 @@
       </c>
     </row>
     <row r="222" spans="1:12">
-      <c r="A222" s="161"/>
+      <c r="A222" s="173"/>
       <c r="B222" s="58" t="s">
         <v>179</v>
       </c>
@@ -9948,7 +10014,7 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="161"/>
+      <c r="A223" s="173"/>
       <c r="B223" s="59" t="s">
         <v>186</v>
       </c>
@@ -9981,7 +10047,7 @@
       </c>
     </row>
     <row r="224" spans="1:12">
-      <c r="A224" s="161"/>
+      <c r="A224" s="173"/>
       <c r="B224" s="62" t="s">
         <v>282</v>
       </c>
@@ -10011,7 +10077,7 @@
       </c>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="161"/>
+      <c r="A225" s="173"/>
       <c r="B225" s="62" t="s">
         <v>190</v>
       </c>
@@ -10041,7 +10107,7 @@
       </c>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="161"/>
+      <c r="A226" s="173"/>
       <c r="B226" s="62" t="s">
         <v>368</v>
       </c>
@@ -10072,7 +10138,7 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="161"/>
+      <c r="A227" s="173"/>
       <c r="B227" s="66" t="s">
         <v>198</v>
       </c>
@@ -10103,7 +10169,7 @@
       </c>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="161"/>
+      <c r="A228" s="173"/>
       <c r="B228" s="66" t="s">
         <v>204</v>
       </c>
@@ -10134,7 +10200,7 @@
       </c>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="161"/>
+      <c r="A229" s="173"/>
       <c r="B229" s="66" t="s">
         <v>206</v>
       </c>
@@ -10167,7 +10233,7 @@
       </c>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="161"/>
+      <c r="A230" s="173"/>
       <c r="B230" s="66" t="s">
         <v>208</v>
       </c>
@@ -10196,7 +10262,7 @@
       </c>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="161"/>
+      <c r="A231" s="173"/>
       <c r="B231" s="70" t="s">
         <v>209</v>
       </c>
@@ -10224,7 +10290,7 @@
       </c>
     </row>
     <row r="232" spans="1:12">
-      <c r="A232" s="161"/>
+      <c r="A232" s="173"/>
       <c r="B232" s="71" t="s">
         <v>211</v>
       </c>
@@ -10252,7 +10318,7 @@
       </c>
     </row>
     <row r="233" spans="1:12">
-      <c r="A233" s="161"/>
+      <c r="A233" s="173"/>
       <c r="B233" s="70" t="s">
         <v>214</v>
       </c>
@@ -10282,7 +10348,7 @@
       </c>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="161"/>
+      <c r="A234" s="173"/>
       <c r="B234" s="74" t="s">
         <v>674</v>
       </c>
@@ -10310,7 +10376,7 @@
       </c>
     </row>
     <row r="235" spans="1:12">
-      <c r="A235" s="161"/>
+      <c r="A235" s="173"/>
       <c r="B235" s="74" t="s">
         <v>675</v>
       </c>
@@ -10338,7 +10404,7 @@
       </c>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="161"/>
+      <c r="A236" s="173"/>
       <c r="B236" s="72" t="s">
         <v>370</v>
       </c>
@@ -10367,7 +10433,7 @@
       </c>
     </row>
     <row r="237" spans="1:12">
-      <c r="A237" s="161"/>
+      <c r="A237" s="173"/>
       <c r="B237" s="74" t="s">
         <v>374</v>
       </c>
@@ -10396,7 +10462,7 @@
       </c>
     </row>
     <row r="238" spans="1:12">
-      <c r="A238" s="161"/>
+      <c r="A238" s="173"/>
       <c r="B238" s="72" t="s">
         <v>222</v>
       </c>
@@ -10424,7 +10490,7 @@
       </c>
     </row>
     <row r="239" spans="1:12">
-      <c r="A239" s="161"/>
+      <c r="A239" s="173"/>
       <c r="B239" s="77" t="s">
         <v>228</v>
       </c>
@@ -10454,7 +10520,7 @@
       </c>
     </row>
     <row r="240" spans="1:12">
-      <c r="A240" s="161"/>
+      <c r="A240" s="173"/>
       <c r="B240" s="77" t="s">
         <v>232</v>
       </c>
@@ -10484,7 +10550,7 @@
       </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="161"/>
+      <c r="A241" s="173"/>
       <c r="B241" s="77" t="s">
         <v>377</v>
       </c>
@@ -10517,7 +10583,7 @@
       </c>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="161"/>
+      <c r="A242" s="173"/>
       <c r="B242" s="77" t="s">
         <v>119</v>
       </c>
@@ -10550,7 +10616,7 @@
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="161"/>
+      <c r="A243" s="173"/>
       <c r="B243" s="77" t="s">
         <v>120</v>
       </c>
@@ -10583,7 +10649,7 @@
       </c>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="161"/>
+      <c r="A244" s="173"/>
       <c r="B244" s="111" t="s">
         <v>378</v>
       </c>
@@ -10613,7 +10679,7 @@
       </c>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="161"/>
+      <c r="A245" s="173"/>
       <c r="B245" s="111" t="s">
         <v>247</v>
       </c>
@@ -10643,7 +10709,7 @@
       </c>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="161"/>
+      <c r="A246" s="173"/>
       <c r="B246" s="111" t="s">
         <v>251</v>
       </c>
@@ -10673,7 +10739,7 @@
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="161"/>
+      <c r="A247" s="173"/>
       <c r="B247" s="111" t="s">
         <v>254</v>
       </c>
@@ -10703,7 +10769,7 @@
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="161"/>
+      <c r="A248" s="173"/>
       <c r="B248" s="103" t="s">
         <v>257</v>
       </c>
@@ -10732,7 +10798,7 @@
       </c>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="161"/>
+      <c r="A249" s="173"/>
       <c r="B249" s="105" t="s">
         <v>261</v>
       </c>
@@ -10753,7 +10819,7 @@
       </c>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="161"/>
+      <c r="A250" s="173"/>
       <c r="B250" s="111" t="s">
         <v>676</v>
       </c>
@@ -10768,7 +10834,7 @@
       <c r="K250" s="37"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="161"/>
+      <c r="A251" s="173"/>
       <c r="B251" s="106" t="s">
         <v>257</v>
       </c>
@@ -10795,7 +10861,7 @@
       <c r="K251" s="37"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="161"/>
+      <c r="A252" s="173"/>
       <c r="B252" s="82" t="s">
         <v>265</v>
       </c>
@@ -10828,7 +10894,7 @@
       </c>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="161"/>
+      <c r="A253" s="173"/>
       <c r="B253" s="82" t="s">
         <v>269</v>
       </c>
@@ -10861,7 +10927,7 @@
       </c>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="161"/>
+      <c r="A254" s="173"/>
       <c r="B254" s="90" t="s">
         <v>272</v>
       </c>
@@ -10894,7 +10960,7 @@
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="162"/>
+      <c r="A255" s="174"/>
       <c r="B255" s="59" t="s">
         <v>277</v>
       </c>
@@ -10959,7 +11025,7 @@
       </c>
     </row>
     <row r="257" spans="1:12" ht="15" customHeight="1">
-      <c r="A257" s="166" t="s">
+      <c r="A257" s="169" t="s">
         <v>379</v>
       </c>
       <c r="B257" s="114" t="s">
@@ -10987,7 +11053,7 @@
       </c>
     </row>
     <row r="258" spans="1:12">
-      <c r="A258" s="166"/>
+      <c r="A258" s="169"/>
       <c r="B258" s="114" t="s">
         <v>383</v>
       </c>
@@ -11009,7 +11075,7 @@
       </c>
     </row>
     <row r="259" spans="1:12">
-      <c r="A259" s="166"/>
+      <c r="A259" s="169"/>
       <c r="B259" s="114" t="s">
         <v>386</v>
       </c>
@@ -11031,7 +11097,7 @@
       </c>
     </row>
     <row r="260" spans="1:12">
-      <c r="A260" s="166"/>
+      <c r="A260" s="169"/>
       <c r="B260" s="114" t="s">
         <v>128</v>
       </c>
@@ -11057,7 +11123,7 @@
       </c>
     </row>
     <row r="261" spans="1:12">
-      <c r="A261" s="166"/>
+      <c r="A261" s="169"/>
       <c r="B261" s="115" t="s">
         <v>391</v>
       </c>
@@ -11086,7 +11152,7 @@
       </c>
     </row>
     <row r="262" spans="1:12">
-      <c r="A262" s="166"/>
+      <c r="A262" s="169"/>
       <c r="B262" s="115" t="s">
         <v>395</v>
       </c>
@@ -11115,7 +11181,7 @@
       </c>
     </row>
     <row r="263" spans="1:12" ht="15" customHeight="1">
-      <c r="A263" s="166"/>
+      <c r="A263" s="169"/>
       <c r="B263" s="116" t="s">
         <v>398</v>
       </c>
@@ -11141,7 +11207,7 @@
       </c>
     </row>
     <row r="264" spans="1:12">
-      <c r="A264" s="166"/>
+      <c r="A264" s="169"/>
       <c r="B264" s="116" t="s">
         <v>401</v>
       </c>
@@ -11167,7 +11233,7 @@
       </c>
     </row>
     <row r="265" spans="1:12">
-      <c r="A265" s="166"/>
+      <c r="A265" s="169"/>
       <c r="B265" s="116" t="s">
         <v>402</v>
       </c>
@@ -11193,7 +11259,7 @@
       </c>
     </row>
     <row r="266" spans="1:12">
-      <c r="A266" s="166"/>
+      <c r="A266" s="169"/>
       <c r="B266" s="116" t="s">
         <v>403</v>
       </c>
@@ -11219,7 +11285,7 @@
       </c>
     </row>
     <row r="267" spans="1:12">
-      <c r="A267" s="166"/>
+      <c r="A267" s="169"/>
       <c r="B267" s="116" t="s">
         <v>407</v>
       </c>
@@ -11241,7 +11307,7 @@
       </c>
     </row>
     <row r="268" spans="1:12">
-      <c r="A268" s="166"/>
+      <c r="A268" s="169"/>
       <c r="B268" s="116" t="s">
         <v>408</v>
       </c>
@@ -11302,7 +11368,7 @@
       </c>
     </row>
     <row r="270" spans="1:12" ht="15" customHeight="1">
-      <c r="A270" s="166" t="s">
+      <c r="A270" s="169" t="s">
         <v>409</v>
       </c>
       <c r="B270" s="94" t="s">
@@ -11334,7 +11400,7 @@
       </c>
     </row>
     <row r="271" spans="1:12">
-      <c r="A271" s="166"/>
+      <c r="A271" s="169"/>
       <c r="B271" s="94" t="s">
         <v>412</v>
       </c>
@@ -11364,7 +11430,7 @@
       </c>
     </row>
     <row r="272" spans="1:12">
-      <c r="A272" s="166"/>
+      <c r="A272" s="169"/>
       <c r="B272" s="94" t="s">
         <v>128</v>
       </c>
@@ -11390,7 +11456,7 @@
       </c>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="166"/>
+      <c r="A273" s="169"/>
       <c r="B273" s="94" t="s">
         <v>415</v>
       </c>
@@ -11419,7 +11485,7 @@
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="166"/>
+      <c r="A274" s="169"/>
       <c r="B274" s="94" t="s">
         <v>418</v>
       </c>
@@ -11448,7 +11514,7 @@
       </c>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="166"/>
+      <c r="A275" s="169"/>
       <c r="B275" s="94" t="s">
         <v>421</v>
       </c>
@@ -11477,7 +11543,7 @@
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="166"/>
+      <c r="A276" s="169"/>
       <c r="B276" s="94" t="s">
         <v>423</v>
       </c>
@@ -11506,7 +11572,7 @@
       </c>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="166"/>
+      <c r="A277" s="169"/>
       <c r="B277" s="94" t="s">
         <v>424</v>
       </c>
@@ -11535,7 +11601,7 @@
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="166"/>
+      <c r="A278" s="169"/>
       <c r="B278" s="116" t="s">
         <v>403</v>
       </c>
@@ -11561,7 +11627,7 @@
       </c>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="166"/>
+      <c r="A279" s="169"/>
       <c r="B279" s="116" t="s">
         <v>428</v>
       </c>
@@ -11587,7 +11653,7 @@
       </c>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="166"/>
+      <c r="A280" s="169"/>
       <c r="B280" s="116" t="s">
         <v>429</v>
       </c>
@@ -11648,7 +11714,7 @@
       </c>
     </row>
     <row r="282" spans="1:11" ht="15" customHeight="1">
-      <c r="A282" s="166" t="s">
+      <c r="A282" s="169" t="s">
         <v>430</v>
       </c>
       <c r="B282" s="119" t="s">
@@ -11677,7 +11743,7 @@
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="166"/>
+      <c r="A283" s="169"/>
       <c r="B283" s="94" t="s">
         <v>435</v>
       </c>
@@ -11707,7 +11773,7 @@
       </c>
     </row>
     <row r="284" spans="1:11" ht="15" customHeight="1">
-      <c r="A284" s="166"/>
+      <c r="A284" s="169"/>
       <c r="B284" s="94" t="s">
         <v>436</v>
       </c>
@@ -11737,7 +11803,7 @@
       </c>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="166"/>
+      <c r="A285" s="169"/>
       <c r="B285" s="94" t="s">
         <v>128</v>
       </c>
@@ -11763,7 +11829,7 @@
       </c>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="166"/>
+      <c r="A286" s="169"/>
       <c r="B286" s="94" t="s">
         <v>438</v>
       </c>
@@ -11792,7 +11858,7 @@
       </c>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="166"/>
+      <c r="A287" s="169"/>
       <c r="B287" s="94" t="s">
         <v>441</v>
       </c>
@@ -11818,7 +11884,7 @@
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="166"/>
+      <c r="A288" s="169"/>
       <c r="B288" s="122" t="s">
         <v>442</v>
       </c>
@@ -11847,7 +11913,7 @@
       </c>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="166"/>
+      <c r="A289" s="169"/>
       <c r="B289" s="122" t="s">
         <v>444</v>
       </c>
@@ -11876,7 +11942,7 @@
       </c>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="166"/>
+      <c r="A290" s="169"/>
       <c r="B290" s="44" t="s">
         <v>445</v>
       </c>
@@ -11906,7 +11972,7 @@
       </c>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="166"/>
+      <c r="A291" s="169"/>
       <c r="B291" s="44" t="s">
         <v>449</v>
       </c>
@@ -11936,7 +12002,7 @@
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="166"/>
+      <c r="A292" s="169"/>
       <c r="B292" s="123" t="s">
         <v>452</v>
       </c>
@@ -11962,7 +12028,7 @@
       </c>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="166"/>
+      <c r="A293" s="169"/>
       <c r="B293" s="123" t="s">
         <v>429</v>
       </c>
@@ -11988,7 +12054,7 @@
       </c>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="166"/>
+      <c r="A294" s="169"/>
       <c r="B294" s="123" t="s">
         <v>428</v>
       </c>
@@ -12014,7 +12080,7 @@
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="166"/>
+      <c r="A295" s="169"/>
       <c r="B295" s="123" t="s">
         <v>453</v>
       </c>
@@ -12075,7 +12141,7 @@
       </c>
     </row>
     <row r="297" spans="1:11" ht="15" customHeight="1">
-      <c r="A297" s="166" t="s">
+      <c r="A297" s="169" t="s">
         <v>454</v>
       </c>
       <c r="B297" s="94" t="s">
@@ -12107,7 +12173,7 @@
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="166"/>
+      <c r="A298" s="169"/>
       <c r="B298" s="94" t="s">
         <v>456</v>
       </c>
@@ -12138,7 +12204,7 @@
       <c r="K298" s="17"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="166"/>
+      <c r="A299" s="169"/>
       <c r="B299" s="94" t="s">
         <v>457</v>
       </c>
@@ -12169,7 +12235,7 @@
       <c r="K299" s="17"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="166"/>
+      <c r="A300" s="169"/>
       <c r="B300" s="122" t="s">
         <v>458</v>
       </c>
@@ -12198,7 +12264,7 @@
       </c>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="166"/>
+      <c r="A301" s="169"/>
       <c r="B301" s="122" t="s">
         <v>460</v>
       </c>
@@ -12224,7 +12290,7 @@
       </c>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="166"/>
+      <c r="A302" s="169"/>
       <c r="B302" s="122" t="s">
         <v>461</v>
       </c>
@@ -12250,7 +12316,7 @@
       </c>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="166"/>
+      <c r="A303" s="169"/>
       <c r="B303" s="122" t="s">
         <v>453</v>
       </c>
@@ -12311,7 +12377,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" ht="15" customHeight="1">
-      <c r="A305" s="166" t="s">
+      <c r="A305" s="169" t="s">
         <v>462</v>
       </c>
       <c r="B305" s="94" t="s">
@@ -12343,7 +12409,7 @@
       </c>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="166"/>
+      <c r="A306" s="169"/>
       <c r="B306" s="94" t="s">
         <v>464</v>
       </c>
@@ -12374,7 +12440,7 @@
       <c r="K306" s="17"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="166"/>
+      <c r="A307" s="169"/>
       <c r="B307" s="94" t="s">
         <v>465</v>
       </c>
@@ -12405,7 +12471,7 @@
       <c r="K307" s="17"/>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="166"/>
+      <c r="A308" s="169"/>
       <c r="B308" s="122" t="s">
         <v>460</v>
       </c>
@@ -12431,7 +12497,7 @@
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="166"/>
+      <c r="A309" s="169"/>
       <c r="B309" s="122" t="s">
         <v>461</v>
       </c>
@@ -12457,7 +12523,7 @@
       </c>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="166"/>
+      <c r="A310" s="169"/>
       <c r="B310" s="122" t="s">
         <v>453</v>
       </c>
@@ -12518,7 +12584,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" ht="15" customHeight="1">
-      <c r="A312" s="166" t="s">
+      <c r="A312" s="169" t="s">
         <v>466</v>
       </c>
       <c r="B312" s="94" t="s">
@@ -12546,7 +12612,7 @@
       </c>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="166"/>
+      <c r="A313" s="169"/>
       <c r="B313" s="94" t="s">
         <v>468</v>
       </c>
@@ -12611,7 +12677,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" ht="15" customHeight="1">
-      <c r="A315" s="166" t="s">
+      <c r="A315" s="169" t="s">
         <v>469</v>
       </c>
       <c r="B315" s="94" t="s">
@@ -12639,7 +12705,7 @@
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="166"/>
+      <c r="A316" s="169"/>
       <c r="B316" s="94" t="s">
         <v>471</v>
       </c>
@@ -12669,21 +12735,23 @@
       </c>
     </row>
     <row r="317" spans="1:11" ht="15" customHeight="1"/>
+    <row r="320" spans="1:11">
+      <c r="E320" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
     <row r="322" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L15:L46"/>
+    <mergeCell ref="A85:A135"/>
+    <mergeCell ref="A137:A184"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="L181:L183"/>
+    <mergeCell ref="L216:L218"/>
+    <mergeCell ref="L55:L77"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="L132:L134"/>
     <mergeCell ref="A315:A316"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="A257:A268"/>
@@ -12695,15 +12763,18 @@
     <mergeCell ref="A48:A83"/>
     <mergeCell ref="A186:A219"/>
     <mergeCell ref="A15:A46"/>
-    <mergeCell ref="L15:L46"/>
-    <mergeCell ref="A85:A135"/>
-    <mergeCell ref="A137:A184"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="L181:L183"/>
-    <mergeCell ref="L216:L218"/>
-    <mergeCell ref="L55:L77"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="L132:L134"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" scale="65" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12724,8 +12795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15421,13 +15492,13 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="161" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="48.7109375" customWidth="1"/>
@@ -15441,7 +15512,7 @@
       <c r="A1" s="125" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="160" t="s">
         <v>482</v>
       </c>
       <c r="C1" s="125" t="s">
@@ -15467,16 +15538,25 @@
       <c r="A2" t="s">
         <v>490</v>
       </c>
+      <c r="B2" s="161" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>492</v>
       </c>
+      <c r="B3" s="161" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>660</v>
       </c>
+      <c r="B4" s="161" t="s">
+        <v>700</v>
+      </c>
       <c r="F4" t="s">
         <v>487</v>
       </c>
@@ -15485,11 +15565,17 @@
       <c r="A5" t="s">
         <v>493</v>
       </c>
+      <c r="B5" s="161" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>498</v>
       </c>
+      <c r="B6" s="161" t="s">
+        <v>703</v>
+      </c>
       <c r="E6" t="s">
         <v>651</v>
       </c>
@@ -15498,16 +15584,25 @@
       <c r="A7" t="s">
         <v>494</v>
       </c>
+      <c r="B7" s="161" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>665</v>
       </c>
+      <c r="B8" s="161" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>661</v>
       </c>
+      <c r="B9" s="161" t="s">
+        <v>705</v>
+      </c>
       <c r="F9" t="s">
         <v>488</v>
       </c>
@@ -15516,21 +15611,33 @@
       <c r="A10" t="s">
         <v>667</v>
       </c>
+      <c r="B10" s="161" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>495</v>
       </c>
+      <c r="B11" s="161" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>496</v>
       </c>
+      <c r="B12" s="161" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>497</v>
       </c>
+      <c r="B13" s="161" t="s">
+        <v>707</v>
+      </c>
       <c r="E13" t="s">
         <v>650</v>
       </c>
@@ -15539,11 +15646,17 @@
       <c r="A14" t="s">
         <v>666</v>
       </c>
+      <c r="B14" s="161" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>662</v>
       </c>
+      <c r="B15" s="161" t="s">
+        <v>709</v>
+      </c>
       <c r="F15" t="s">
         <v>489</v>
       </c>
@@ -15552,6 +15665,9 @@
       <c r="A16" t="s">
         <v>499</v>
       </c>
+      <c r="B16" s="161" t="s">
+        <v>282</v>
+      </c>
       <c r="E16" t="s">
         <v>651</v>
       </c>
@@ -15560,6 +15676,9 @@
       <c r="A17" t="s">
         <v>663</v>
       </c>
+      <c r="B17" s="161" t="s">
+        <v>710</v>
+      </c>
       <c r="F17" t="s">
         <v>491</v>
       </c>
@@ -15568,10 +15687,16 @@
       <c r="A18" t="s">
         <v>500</v>
       </c>
+      <c r="B18" s="161" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>662</v>
+        <v>712</v>
+      </c>
+      <c r="B19" s="161" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -15579,7 +15704,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15609,10 +15734,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="176"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="18" t="s">
@@ -15638,7 +15763,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="96" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="169" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -15658,7 +15783,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="166"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="27" t="s">
         <v>32</v>
       </c>
@@ -15674,7 +15799,7 @@
       <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="166"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="34" t="s">
         <v>35</v>
       </c>
@@ -15692,7 +15817,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="166"/>
+      <c r="A7" s="169"/>
       <c r="B7" s="38" t="s">
         <v>39</v>
       </c>
@@ -15711,7 +15836,7 @@
       <c r="G7" s="127"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="166"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="41" t="s">
         <v>43</v>
       </c>
@@ -15727,7 +15852,7 @@
       <c r="G8" s="127"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="166"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="41" t="s">
         <v>46</v>
       </c>
@@ -15743,7 +15868,7 @@
       <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="166"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="41" t="s">
         <v>49</v>
       </c>
@@ -15759,7 +15884,7 @@
       <c r="G10" s="127"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="166"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="41" t="s">
         <v>52</v>
       </c>
@@ -15775,7 +15900,7 @@
       <c r="G11" s="127"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="166"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="41" t="s">
         <v>55</v>
       </c>
@@ -15791,7 +15916,7 @@
       <c r="G12" s="127"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="166"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="42" t="s">
         <v>58</v>
       </c>
@@ -15810,7 +15935,7 @@
       <c r="G13" s="127"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="166"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="41" t="s">
         <v>62</v>
       </c>
@@ -15826,7 +15951,7 @@
       <c r="G14" s="127"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="166"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="41" t="s">
         <v>65</v>
       </c>
@@ -15842,7 +15967,7 @@
       <c r="G15" s="127"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="166"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="41" t="s">
         <v>68</v>
       </c>
@@ -15858,7 +15983,7 @@
       <c r="G16" s="127"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="166"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="41" t="s">
         <v>71</v>
       </c>
@@ -15874,7 +15999,7 @@
       <c r="G17" s="127"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="166"/>
+      <c r="A18" s="169"/>
       <c r="B18" s="42" t="s">
         <v>74</v>
       </c>
@@ -15890,7 +16015,7 @@
       <c r="G18" s="127"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="166"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="42" t="s">
         <v>77</v>
       </c>
@@ -15906,7 +16031,7 @@
       <c r="G19" s="127"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="166"/>
+      <c r="A20" s="169"/>
       <c r="B20" s="41" t="s">
         <v>80</v>
       </c>
@@ -15922,7 +16047,7 @@
       <c r="G20" s="127"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="166"/>
+      <c r="A21" s="169"/>
       <c r="B21" s="41" t="s">
         <v>83</v>
       </c>
@@ -15941,7 +16066,7 @@
       <c r="G21" s="127"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="166"/>
+      <c r="A22" s="169"/>
       <c r="B22" s="41" t="s">
         <v>85</v>
       </c>
@@ -15957,7 +16082,7 @@
       <c r="G22" s="127"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="166"/>
+      <c r="A23" s="169"/>
       <c r="B23" s="41" t="s">
         <v>88</v>
       </c>
@@ -15973,7 +16098,7 @@
       <c r="G23" s="127"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="166"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="41" t="s">
         <v>91</v>
       </c>
@@ -15989,7 +16114,7 @@
       <c r="G24" s="127"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="166"/>
+      <c r="A25" s="169"/>
       <c r="B25" s="41" t="s">
         <v>94</v>
       </c>
@@ -16005,7 +16130,7 @@
       <c r="G25" s="127"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="166"/>
+      <c r="A26" s="169"/>
       <c r="B26" s="42" t="s">
         <v>97</v>
       </c>
@@ -16021,7 +16146,7 @@
       <c r="G26" s="127"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="166"/>
+      <c r="A27" s="169"/>
       <c r="B27" s="42" t="s">
         <v>100</v>
       </c>
@@ -16037,7 +16162,7 @@
       <c r="G27" s="127"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="166"/>
+      <c r="A28" s="169"/>
       <c r="B28" s="43" t="s">
         <v>101</v>
       </c>
@@ -16053,7 +16178,7 @@
       <c r="G28" s="127"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="166"/>
+      <c r="A29" s="169"/>
       <c r="B29" s="44" t="s">
         <v>104</v>
       </c>
@@ -16072,7 +16197,7 @@
       <c r="G29" s="127"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="166"/>
+      <c r="A30" s="169"/>
       <c r="B30" s="44" t="s">
         <v>108</v>
       </c>
@@ -16091,7 +16216,7 @@
       <c r="G30" s="127"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="166"/>
+      <c r="A31" s="169"/>
       <c r="B31" s="44" t="s">
         <v>112</v>
       </c>
@@ -16110,7 +16235,7 @@
       <c r="G31" s="127"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="166"/>
+      <c r="A32" s="169"/>
       <c r="B32" s="45" t="s">
         <v>115</v>
       </c>
@@ -16131,7 +16256,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="166"/>
+      <c r="A33" s="169"/>
       <c r="B33" s="45" t="s">
         <v>119</v>
       </c>
@@ -16152,7 +16277,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="166"/>
+      <c r="A34" s="169"/>
       <c r="B34" s="45" t="s">
         <v>120</v>
       </c>
@@ -16193,7 +16318,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="166" t="s">
+      <c r="A36" s="169" t="s">
         <v>121</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -16211,7 +16336,7 @@
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="166"/>
+      <c r="A37" s="169"/>
       <c r="B37" s="27" t="s">
         <v>125</v>
       </c>
@@ -16229,7 +16354,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="166"/>
+      <c r="A38" s="169"/>
       <c r="B38" s="27" t="s">
         <v>128</v>
       </c>
@@ -16247,7 +16372,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="166"/>
+      <c r="A39" s="169"/>
       <c r="B39" s="27" t="s">
         <v>132</v>
       </c>
@@ -16265,7 +16390,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="166"/>
+      <c r="A40" s="169"/>
       <c r="B40" s="27" t="s">
         <v>139</v>
       </c>
@@ -16281,7 +16406,7 @@
       <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="166"/>
+      <c r="A41" s="169"/>
       <c r="B41" s="27" t="s">
         <v>142</v>
       </c>
@@ -16297,7 +16422,7 @@
       <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="166"/>
+      <c r="A42" s="169"/>
       <c r="B42" s="27" t="s">
         <v>145</v>
       </c>
@@ -16318,7 +16443,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="166"/>
+      <c r="A43" s="169"/>
       <c r="B43" s="41" t="s">
         <v>43</v>
       </c>
@@ -16334,12 +16459,12 @@
       <c r="F43" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="170" t="s">
+      <c r="G43" s="179" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="166"/>
+      <c r="A44" s="169"/>
       <c r="B44" s="41" t="s">
         <v>46</v>
       </c>
@@ -16352,10 +16477,10 @@
       <c r="E44" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G44" s="170"/>
+      <c r="G44" s="179"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="166"/>
+      <c r="A45" s="169"/>
       <c r="B45" s="41" t="s">
         <v>49</v>
       </c>
@@ -16368,10 +16493,10 @@
       <c r="E45" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G45" s="170"/>
+      <c r="G45" s="179"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="166"/>
+      <c r="A46" s="169"/>
       <c r="B46" s="41" t="s">
         <v>52</v>
       </c>
@@ -16384,10 +16509,10 @@
       <c r="E46" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G46" s="170"/>
+      <c r="G46" s="179"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="166"/>
+      <c r="A47" s="169"/>
       <c r="B47" s="41" t="s">
         <v>55</v>
       </c>
@@ -16400,10 +16525,10 @@
       <c r="E47" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G47" s="170"/>
+      <c r="G47" s="179"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="166"/>
+      <c r="A48" s="169"/>
       <c r="B48" s="42" t="s">
         <v>58</v>
       </c>
@@ -16419,10 +16544,10 @@
       <c r="F48" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="170"/>
+      <c r="G48" s="179"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="166"/>
+      <c r="A49" s="169"/>
       <c r="B49" s="41" t="s">
         <v>62</v>
       </c>
@@ -16435,10 +16560,10 @@
       <c r="E49" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G49" s="170"/>
+      <c r="G49" s="179"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="166"/>
+      <c r="A50" s="169"/>
       <c r="B50" s="41" t="s">
         <v>65</v>
       </c>
@@ -16451,10 +16576,10 @@
       <c r="E50" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G50" s="170"/>
+      <c r="G50" s="179"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="166"/>
+      <c r="A51" s="169"/>
       <c r="B51" s="41" t="s">
         <v>68</v>
       </c>
@@ -16467,10 +16592,10 @@
       <c r="E51" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G51" s="170"/>
+      <c r="G51" s="179"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="166"/>
+      <c r="A52" s="169"/>
       <c r="B52" s="41" t="s">
         <v>71</v>
       </c>
@@ -16483,10 +16608,10 @@
       <c r="E52" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G52" s="170"/>
+      <c r="G52" s="179"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="166"/>
+      <c r="A53" s="169"/>
       <c r="B53" s="42" t="s">
         <v>74</v>
       </c>
@@ -16499,10 +16624,10 @@
       <c r="E53" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G53" s="170"/>
+      <c r="G53" s="179"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="166"/>
+      <c r="A54" s="169"/>
       <c r="B54" s="42" t="s">
         <v>77</v>
       </c>
@@ -16515,10 +16640,10 @@
       <c r="E54" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G54" s="170"/>
+      <c r="G54" s="179"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="166"/>
+      <c r="A55" s="169"/>
       <c r="B55" s="41" t="s">
         <v>80</v>
       </c>
@@ -16531,10 +16656,10 @@
       <c r="E55" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G55" s="170"/>
+      <c r="G55" s="179"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="166"/>
+      <c r="A56" s="169"/>
       <c r="B56" s="41" t="s">
         <v>83</v>
       </c>
@@ -16550,10 +16675,10 @@
       <c r="F56" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="170"/>
+      <c r="G56" s="179"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="166"/>
+      <c r="A57" s="169"/>
       <c r="B57" s="41" t="s">
         <v>85</v>
       </c>
@@ -16566,10 +16691,10 @@
       <c r="E57" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G57" s="170"/>
+      <c r="G57" s="179"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="166"/>
+      <c r="A58" s="169"/>
       <c r="B58" s="41" t="s">
         <v>88</v>
       </c>
@@ -16582,10 +16707,10 @@
       <c r="E58" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G58" s="170"/>
+      <c r="G58" s="179"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="166"/>
+      <c r="A59" s="169"/>
       <c r="B59" s="41" t="s">
         <v>91</v>
       </c>
@@ -16598,10 +16723,10 @@
       <c r="E59" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G59" s="170"/>
+      <c r="G59" s="179"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="166"/>
+      <c r="A60" s="169"/>
       <c r="B60" s="41" t="s">
         <v>94</v>
       </c>
@@ -16614,10 +16739,10 @@
       <c r="E60" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G60" s="170"/>
+      <c r="G60" s="179"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="166"/>
+      <c r="A61" s="169"/>
       <c r="B61" s="42" t="s">
         <v>97</v>
       </c>
@@ -16630,10 +16755,10 @@
       <c r="E61" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G61" s="170"/>
+      <c r="G61" s="179"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="166"/>
+      <c r="A62" s="169"/>
       <c r="B62" s="42" t="s">
         <v>155</v>
       </c>
@@ -16646,10 +16771,10 @@
       <c r="E62" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G62" s="170"/>
+      <c r="G62" s="179"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="166"/>
+      <c r="A63" s="169"/>
       <c r="B63" s="42" t="s">
         <v>158</v>
       </c>
@@ -16665,10 +16790,10 @@
       <c r="F63" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="170"/>
+      <c r="G63" s="179"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="166"/>
+      <c r="A64" s="169"/>
       <c r="B64" s="42" t="s">
         <v>100</v>
       </c>
@@ -16681,10 +16806,10 @@
       <c r="E64" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G64" s="170"/>
+      <c r="G64" s="179"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="166"/>
+      <c r="A65" s="169"/>
       <c r="B65" s="55" t="s">
         <v>161</v>
       </c>
@@ -16697,10 +16822,10 @@
       <c r="E65" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G65" s="170"/>
+      <c r="G65" s="179"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="166"/>
+      <c r="A66" s="169"/>
       <c r="B66" s="44" t="s">
         <v>164</v>
       </c>
@@ -16718,7 +16843,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="166"/>
+      <c r="A67" s="169"/>
       <c r="B67" s="55" t="s">
         <v>167</v>
       </c>
@@ -16736,7 +16861,7 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="166"/>
+      <c r="A68" s="169"/>
       <c r="B68" s="55" t="s">
         <v>169</v>
       </c>
@@ -16754,7 +16879,7 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="166"/>
+      <c r="A69" s="169"/>
       <c r="B69" s="45" t="s">
         <v>115</v>
       </c>
@@ -16769,7 +16894,7 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="166"/>
+      <c r="A70" s="169"/>
       <c r="B70" s="45" t="s">
         <v>119</v>
       </c>
@@ -16784,7 +16909,7 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="166"/>
+      <c r="A71" s="169"/>
       <c r="B71" s="45" t="s">
         <v>120</v>
       </c>
@@ -16819,7 +16944,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A73" s="166" t="s">
+      <c r="A73" s="169" t="s">
         <v>173</v>
       </c>
       <c r="B73" s="56" t="s">
@@ -16839,7 +16964,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="30">
-      <c r="A74" s="166"/>
+      <c r="A74" s="169"/>
       <c r="B74" s="58" t="s">
         <v>179</v>
       </c>
@@ -16857,7 +16982,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
-      <c r="A75" s="166"/>
+      <c r="A75" s="169"/>
       <c r="B75" s="59" t="s">
         <v>186</v>
       </c>
@@ -16870,12 +16995,12 @@
       <c r="F75" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="G75" s="171" t="s">
+      <c r="G75" s="180" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="166"/>
+      <c r="A76" s="169"/>
       <c r="B76" s="62" t="s">
         <v>189</v>
       </c>
@@ -16888,10 +17013,10 @@
       <c r="E76" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G76" s="171"/>
+      <c r="G76" s="180"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="166"/>
+      <c r="A77" s="169"/>
       <c r="B77" s="62" t="s">
         <v>190</v>
       </c>
@@ -16904,10 +17029,10 @@
       <c r="E77" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G77" s="171"/>
+      <c r="G77" s="180"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="166"/>
+      <c r="A78" s="169"/>
       <c r="B78" s="62" t="s">
         <v>191</v>
       </c>
@@ -16922,7 +17047,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="30">
-      <c r="A79" s="166"/>
+      <c r="A79" s="169"/>
       <c r="B79" s="66" t="s">
         <v>198</v>
       </c>
@@ -16943,7 +17068,7 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="166"/>
+      <c r="A80" s="169"/>
       <c r="B80" s="66" t="s">
         <v>204</v>
       </c>
@@ -16961,7 +17086,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="166"/>
+      <c r="A81" s="169"/>
       <c r="B81" s="66" t="s">
         <v>206</v>
       </c>
@@ -16979,7 +17104,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="166"/>
+      <c r="A82" s="169"/>
       <c r="B82" s="66" t="s">
         <v>208</v>
       </c>
@@ -16997,7 +17122,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="166"/>
+      <c r="A83" s="169"/>
       <c r="B83" s="70" t="s">
         <v>209</v>
       </c>
@@ -17012,7 +17137,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="166"/>
+      <c r="A84" s="169"/>
       <c r="B84" s="71" t="s">
         <v>211</v>
       </c>
@@ -17027,7 +17152,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="166"/>
+      <c r="A85" s="169"/>
       <c r="B85" s="70" t="s">
         <v>214</v>
       </c>
@@ -17042,7 +17167,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="166"/>
+      <c r="A86" s="169"/>
       <c r="B86" s="72" t="s">
         <v>216</v>
       </c>
@@ -17057,7 +17182,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="166"/>
+      <c r="A87" s="169"/>
       <c r="B87" s="74" t="s">
         <v>220</v>
       </c>
@@ -17072,7 +17197,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="166"/>
+      <c r="A88" s="169"/>
       <c r="B88" s="74" t="s">
         <v>221</v>
       </c>
@@ -17087,7 +17212,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="166"/>
+      <c r="A89" s="169"/>
       <c r="B89" s="72" t="s">
         <v>222</v>
       </c>
@@ -17102,7 +17227,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="166"/>
+      <c r="A90" s="169"/>
       <c r="B90" s="75" t="s">
         <v>223</v>
       </c>
@@ -17117,7 +17242,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="166"/>
+      <c r="A91" s="169"/>
       <c r="B91" s="76" t="s">
         <v>226</v>
       </c>
@@ -17132,7 +17257,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="166"/>
+      <c r="A92" s="169"/>
       <c r="B92" s="76" t="s">
         <v>58</v>
       </c>
@@ -17150,7 +17275,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="166"/>
+      <c r="A93" s="169"/>
       <c r="B93" s="75" t="s">
         <v>62</v>
       </c>
@@ -17165,7 +17290,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="166"/>
+      <c r="A94" s="169"/>
       <c r="B94" s="75" t="s">
         <v>65</v>
       </c>
@@ -17180,7 +17305,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="166"/>
+      <c r="A95" s="169"/>
       <c r="B95" s="75" t="s">
         <v>68</v>
       </c>
@@ -17195,7 +17320,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="166"/>
+      <c r="A96" s="169"/>
       <c r="B96" s="75" t="s">
         <v>71</v>
       </c>
@@ -17210,7 +17335,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="166"/>
+      <c r="A97" s="169"/>
       <c r="B97" s="76" t="s">
         <v>227</v>
       </c>
@@ -17225,7 +17350,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="166"/>
+      <c r="A98" s="169"/>
       <c r="B98" s="75" t="s">
         <v>80</v>
       </c>
@@ -17240,7 +17365,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="166"/>
+      <c r="A99" s="169"/>
       <c r="B99" s="75" t="s">
         <v>83</v>
       </c>
@@ -17255,7 +17380,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="166"/>
+      <c r="A100" s="169"/>
       <c r="B100" s="75" t="s">
         <v>85</v>
       </c>
@@ -17270,7 +17395,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="166"/>
+      <c r="A101" s="169"/>
       <c r="B101" s="75" t="s">
         <v>88</v>
       </c>
@@ -17285,7 +17410,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="166"/>
+      <c r="A102" s="169"/>
       <c r="B102" s="75" t="s">
         <v>91</v>
       </c>
@@ -17300,7 +17425,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="166"/>
+      <c r="A103" s="169"/>
       <c r="B103" s="76" t="s">
         <v>74</v>
       </c>
@@ -17315,7 +17440,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="166"/>
+      <c r="A104" s="169"/>
       <c r="B104" s="75" t="s">
         <v>94</v>
       </c>
@@ -17330,7 +17455,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="166"/>
+      <c r="A105" s="169"/>
       <c r="B105" s="76" t="s">
         <v>97</v>
       </c>
@@ -17345,7 +17470,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="166"/>
+      <c r="A106" s="169"/>
       <c r="B106" s="74" t="s">
         <v>100</v>
       </c>
@@ -17360,7 +17485,7 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="166"/>
+      <c r="A107" s="169"/>
       <c r="B107" s="77" t="s">
         <v>228</v>
       </c>
@@ -17375,7 +17500,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="166"/>
+      <c r="A108" s="169"/>
       <c r="B108" s="77" t="s">
         <v>232</v>
       </c>
@@ -17390,7 +17515,7 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="166"/>
+      <c r="A109" s="169"/>
       <c r="B109" s="77" t="s">
         <v>236</v>
       </c>
@@ -17408,7 +17533,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="166"/>
+      <c r="A110" s="169"/>
       <c r="B110" s="77" t="s">
         <v>119</v>
       </c>
@@ -17426,7 +17551,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="166"/>
+      <c r="A111" s="169"/>
       <c r="B111" s="77" t="s">
         <v>120</v>
       </c>
@@ -17444,7 +17569,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="166"/>
+      <c r="A112" s="169"/>
       <c r="B112" s="78" t="s">
         <v>242</v>
       </c>
@@ -17459,7 +17584,7 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="166"/>
+      <c r="A113" s="169"/>
       <c r="B113" s="78" t="s">
         <v>247</v>
       </c>
@@ -17474,7 +17599,7 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="166"/>
+      <c r="A114" s="169"/>
       <c r="B114" s="78" t="s">
         <v>251</v>
       </c>
@@ -17489,7 +17614,7 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="166"/>
+      <c r="A115" s="169"/>
       <c r="B115" s="79" t="s">
         <v>254</v>
       </c>
@@ -17504,7 +17629,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="166"/>
+      <c r="A116" s="169"/>
       <c r="B116" s="80" t="s">
         <v>257</v>
       </c>
@@ -17519,7 +17644,7 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="166"/>
+      <c r="A117" s="169"/>
       <c r="B117" s="81" t="s">
         <v>261</v>
       </c>
@@ -17530,7 +17655,7 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="166"/>
+      <c r="A118" s="169"/>
       <c r="B118" s="82" t="s">
         <v>257</v>
       </c>
@@ -17543,7 +17668,7 @@
       <c r="F118" s="37"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1">
-      <c r="A119" s="166"/>
+      <c r="A119" s="169"/>
       <c r="B119" s="82" t="s">
         <v>265</v>
       </c>
@@ -17559,12 +17684,12 @@
       <c r="F119" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="G119" s="169" t="s">
+      <c r="G119" s="178" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="166"/>
+      <c r="A120" s="169"/>
       <c r="B120" s="82" t="s">
         <v>269</v>
       </c>
@@ -17580,10 +17705,10 @@
       <c r="F120" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="G120" s="169"/>
+      <c r="G120" s="178"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="166"/>
+      <c r="A121" s="169"/>
       <c r="B121" s="90" t="s">
         <v>272</v>
       </c>
@@ -17599,10 +17724,10 @@
       <c r="F121" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G121" s="169"/>
+      <c r="G121" s="178"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="166"/>
+      <c r="A122" s="169"/>
       <c r="B122" s="59" t="s">
         <v>277</v>
       </c>
@@ -17637,7 +17762,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1">
-      <c r="A124" s="166" t="s">
+      <c r="A124" s="169" t="s">
         <v>281</v>
       </c>
       <c r="B124" s="92" t="s">
@@ -17654,7 +17779,7 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="166"/>
+      <c r="A125" s="169"/>
       <c r="B125" s="59" t="s">
         <v>179</v>
       </c>
@@ -17669,7 +17794,7 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="166"/>
+      <c r="A126" s="169"/>
       <c r="B126" s="59" t="s">
         <v>186</v>
       </c>
@@ -17684,7 +17809,7 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="166"/>
+      <c r="A127" s="169"/>
       <c r="B127" s="93" t="s">
         <v>282</v>
       </c>
@@ -17702,7 +17827,7 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="166"/>
+      <c r="A128" s="169"/>
       <c r="B128" s="93" t="s">
         <v>190</v>
       </c>
@@ -17717,7 +17842,7 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="166"/>
+      <c r="A129" s="169"/>
       <c r="B129" s="93" t="s">
         <v>284</v>
       </c>
@@ -17732,7 +17857,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="166"/>
+      <c r="A130" s="169"/>
       <c r="B130" s="94" t="s">
         <v>198</v>
       </c>
@@ -17750,7 +17875,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="166"/>
+      <c r="A131" s="169"/>
       <c r="B131" s="94" t="s">
         <v>204</v>
       </c>
@@ -17768,7 +17893,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="166"/>
+      <c r="A132" s="169"/>
       <c r="B132" s="94" t="s">
         <v>206</v>
       </c>
@@ -17786,7 +17911,7 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="166"/>
+      <c r="A133" s="169"/>
       <c r="B133" s="94" t="s">
         <v>208</v>
       </c>
@@ -17804,7 +17929,7 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="166"/>
+      <c r="A134" s="169"/>
       <c r="B134" s="95" t="s">
         <v>209</v>
       </c>
@@ -17819,7 +17944,7 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="166"/>
+      <c r="A135" s="169"/>
       <c r="B135" s="96" t="s">
         <v>211</v>
       </c>
@@ -17834,7 +17959,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="166"/>
+      <c r="A136" s="169"/>
       <c r="B136" s="95" t="s">
         <v>214</v>
       </c>
@@ -17849,7 +17974,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="166"/>
+      <c r="A137" s="169"/>
       <c r="B137" s="95" t="s">
         <v>286</v>
       </c>
@@ -17864,7 +17989,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="166"/>
+      <c r="A138" s="169"/>
       <c r="B138" s="41" t="s">
         <v>290</v>
       </c>
@@ -17882,7 +18007,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="166"/>
+      <c r="A139" s="169"/>
       <c r="B139" s="41" t="s">
         <v>294</v>
       </c>
@@ -17900,7 +18025,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="166"/>
+      <c r="A140" s="169"/>
       <c r="B140" s="41" t="s">
         <v>295</v>
       </c>
@@ -17915,7 +18040,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="166"/>
+      <c r="A141" s="169"/>
       <c r="B141" s="41" t="s">
         <v>296</v>
       </c>
@@ -17930,7 +18055,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="166"/>
+      <c r="A142" s="169"/>
       <c r="B142" s="41" t="s">
         <v>297</v>
       </c>
@@ -17948,7 +18073,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="166"/>
+      <c r="A143" s="169"/>
       <c r="B143" s="41" t="s">
         <v>301</v>
       </c>
@@ -17963,7 +18088,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="166"/>
+      <c r="A144" s="169"/>
       <c r="B144" s="41" t="s">
         <v>304</v>
       </c>
@@ -17978,7 +18103,7 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="166"/>
+      <c r="A145" s="169"/>
       <c r="B145" s="41" t="s">
         <v>307</v>
       </c>
@@ -17993,7 +18118,7 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="166"/>
+      <c r="A146" s="169"/>
       <c r="B146" s="41" t="s">
         <v>100</v>
       </c>
@@ -18008,7 +18133,7 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="166"/>
+      <c r="A147" s="169"/>
       <c r="B147" s="41" t="s">
         <v>310</v>
       </c>
@@ -18023,7 +18148,7 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="166"/>
+      <c r="A148" s="169"/>
       <c r="B148" s="41" t="s">
         <v>311</v>
       </c>
@@ -18038,7 +18163,7 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="166"/>
+      <c r="A149" s="169"/>
       <c r="B149" s="45" t="s">
         <v>312</v>
       </c>
@@ -18056,7 +18181,7 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="166"/>
+      <c r="A150" s="169"/>
       <c r="B150" s="98" t="s">
         <v>313</v>
       </c>
@@ -18073,8 +18198,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="166"/>
+    <row r="151" spans="1:7" ht="26.25">
+      <c r="A151" s="169"/>
       <c r="B151" s="45" t="s">
         <v>318</v>
       </c>
@@ -18092,7 +18217,7 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="166"/>
+      <c r="A152" s="169"/>
       <c r="B152" s="98" t="s">
         <v>321</v>
       </c>
@@ -18107,7 +18232,7 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="166"/>
+      <c r="A153" s="169"/>
       <c r="B153" s="45" t="s">
         <v>324</v>
       </c>
@@ -18125,7 +18250,7 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="166"/>
+      <c r="A154" s="169"/>
       <c r="B154" s="45" t="s">
         <v>327</v>
       </c>
@@ -18143,7 +18268,7 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="166"/>
+      <c r="A155" s="169"/>
       <c r="B155" s="45" t="s">
         <v>120</v>
       </c>
@@ -18161,7 +18286,7 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="166"/>
+      <c r="A156" s="169"/>
       <c r="B156" s="45" t="s">
         <v>329</v>
       </c>
@@ -18182,7 +18307,7 @@
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="166"/>
+      <c r="A157" s="169"/>
       <c r="B157" s="45" t="s">
         <v>333</v>
       </c>
@@ -18195,7 +18320,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="30">
-      <c r="A158" s="166"/>
+      <c r="A158" s="169"/>
       <c r="B158" s="45" t="s">
         <v>335</v>
       </c>
@@ -18213,7 +18338,7 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="166"/>
+      <c r="A159" s="169"/>
       <c r="B159" s="102" t="s">
         <v>242</v>
       </c>
@@ -18231,7 +18356,7 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="166"/>
+      <c r="A160" s="169"/>
       <c r="B160" s="102" t="s">
         <v>251</v>
       </c>
@@ -18246,7 +18371,7 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="166"/>
+      <c r="A161" s="169"/>
       <c r="B161" s="102" t="s">
         <v>339</v>
       </c>
@@ -18261,7 +18386,7 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="166"/>
+      <c r="A162" s="169"/>
       <c r="B162" s="103" t="s">
         <v>257</v>
       </c>
@@ -18276,7 +18401,7 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="166"/>
+      <c r="A163" s="169"/>
       <c r="B163" s="105" t="s">
         <v>261</v>
       </c>
@@ -18287,7 +18412,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1">
-      <c r="A164" s="166"/>
+      <c r="A164" s="169"/>
       <c r="B164" s="106" t="s">
         <v>257</v>
       </c>
@@ -18300,12 +18425,12 @@
       <c r="F164" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="G164" s="169" t="s">
+      <c r="G164" s="178" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="166"/>
+      <c r="A165" s="169"/>
       <c r="B165" s="82" t="s">
         <v>269</v>
       </c>
@@ -18321,10 +18446,10 @@
       <c r="F165" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="G165" s="169"/>
+      <c r="G165" s="178"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="166"/>
+      <c r="A166" s="169"/>
       <c r="B166" s="90" t="s">
         <v>272</v>
       </c>
@@ -18340,10 +18465,10 @@
       <c r="F166" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G166" s="169"/>
+      <c r="G166" s="178"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="166"/>
+      <c r="A167" s="169"/>
       <c r="B167" s="59" t="s">
         <v>277</v>
       </c>
@@ -18378,7 +18503,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1">
-      <c r="A169" s="166" t="s">
+      <c r="A169" s="169" t="s">
         <v>340</v>
       </c>
       <c r="B169" s="56" t="s">
@@ -18395,7 +18520,7 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="166"/>
+      <c r="A170" s="169"/>
       <c r="B170" s="58" t="s">
         <v>179</v>
       </c>
@@ -18410,7 +18535,7 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="166"/>
+      <c r="A171" s="169"/>
       <c r="B171" s="59" t="s">
         <v>186</v>
       </c>
@@ -18425,7 +18550,7 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="166"/>
+      <c r="A172" s="169"/>
       <c r="B172" s="62" t="s">
         <v>282</v>
       </c>
@@ -18440,7 +18565,7 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="166"/>
+      <c r="A173" s="169"/>
       <c r="B173" s="62" t="s">
         <v>190</v>
       </c>
@@ -18455,7 +18580,7 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="166"/>
+      <c r="A174" s="169"/>
       <c r="B174" s="62" t="s">
         <v>341</v>
       </c>
@@ -18470,7 +18595,7 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="166"/>
+      <c r="A175" s="169"/>
       <c r="B175" s="66" t="s">
         <v>198</v>
       </c>
@@ -18488,7 +18613,7 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="166"/>
+      <c r="A176" s="169"/>
       <c r="B176" s="66" t="s">
         <v>204</v>
       </c>
@@ -18506,7 +18631,7 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="166"/>
+      <c r="A177" s="169"/>
       <c r="B177" s="66" t="s">
         <v>206</v>
       </c>
@@ -18524,7 +18649,7 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="166"/>
+      <c r="A178" s="169"/>
       <c r="B178" s="66" t="s">
         <v>208</v>
       </c>
@@ -18542,7 +18667,7 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="166"/>
+      <c r="A179" s="169"/>
       <c r="B179" s="70" t="s">
         <v>209</v>
       </c>
@@ -18557,7 +18682,7 @@
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="166"/>
+      <c r="A180" s="169"/>
       <c r="B180" s="70" t="s">
         <v>342</v>
       </c>
@@ -18575,7 +18700,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="30">
-      <c r="A181" s="166"/>
+      <c r="A181" s="169"/>
       <c r="B181" s="72" t="s">
         <v>343</v>
       </c>
@@ -18593,7 +18718,7 @@
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="166"/>
+      <c r="A182" s="169"/>
       <c r="B182" s="72" t="s">
         <v>345</v>
       </c>
@@ -18608,7 +18733,7 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="166"/>
+      <c r="A183" s="169"/>
       <c r="B183" s="72" t="s">
         <v>346</v>
       </c>
@@ -18623,7 +18748,7 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="166"/>
+      <c r="A184" s="169"/>
       <c r="B184" s="77" t="s">
         <v>349</v>
       </c>
@@ -18638,7 +18763,7 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="166"/>
+      <c r="A185" s="169"/>
       <c r="B185" s="77" t="s">
         <v>236</v>
       </c>
@@ -18656,7 +18781,7 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="166"/>
+      <c r="A186" s="169"/>
       <c r="B186" s="77" t="s">
         <v>351</v>
       </c>
@@ -18674,7 +18799,7 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="166"/>
+      <c r="A187" s="169"/>
       <c r="B187" s="77" t="s">
         <v>352</v>
       </c>
@@ -18692,7 +18817,7 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="166"/>
+      <c r="A188" s="169"/>
       <c r="B188" s="107" t="s">
         <v>353</v>
       </c>
@@ -18707,7 +18832,7 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="166"/>
+      <c r="A189" s="169"/>
       <c r="B189" s="107" t="s">
         <v>356</v>
       </c>
@@ -18722,7 +18847,7 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="166"/>
+      <c r="A190" s="169"/>
       <c r="B190" s="110" t="s">
         <v>359</v>
       </c>
@@ -18737,7 +18862,7 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="166"/>
+      <c r="A191" s="169"/>
       <c r="B191" s="111" t="s">
         <v>251</v>
       </c>
@@ -18752,7 +18877,7 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="166"/>
+      <c r="A192" s="169"/>
       <c r="B192" s="111" t="s">
         <v>254</v>
       </c>
@@ -18767,7 +18892,7 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="166"/>
+      <c r="A193" s="169"/>
       <c r="B193" s="111" t="s">
         <v>360</v>
       </c>
@@ -18782,7 +18907,7 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="166"/>
+      <c r="A194" s="169"/>
       <c r="B194" s="111" t="s">
         <v>361</v>
       </c>
@@ -18797,7 +18922,7 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="166"/>
+      <c r="A195" s="169"/>
       <c r="B195" s="111" t="s">
         <v>362</v>
       </c>
@@ -18818,7 +18943,7 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="166"/>
+      <c r="A196" s="169"/>
       <c r="B196" s="103" t="s">
         <v>257</v>
       </c>
@@ -18833,7 +18958,7 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="166"/>
+      <c r="A197" s="169"/>
       <c r="B197" s="105" t="s">
         <v>261</v>
       </c>
@@ -18844,7 +18969,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1">
-      <c r="A198" s="166"/>
+      <c r="A198" s="169"/>
       <c r="B198" s="106" t="s">
         <v>257</v>
       </c>
@@ -18857,12 +18982,12 @@
       <c r="F198" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="G198" s="169" t="s">
+      <c r="G198" s="178" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="166"/>
+      <c r="A199" s="169"/>
       <c r="B199" s="82" t="s">
         <v>269</v>
       </c>
@@ -18878,10 +19003,10 @@
       <c r="F199" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="G199" s="169"/>
+      <c r="G199" s="178"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="166"/>
+      <c r="A200" s="169"/>
       <c r="B200" s="90" t="s">
         <v>272</v>
       </c>
@@ -18897,10 +19022,10 @@
       <c r="F200" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G200" s="169"/>
+      <c r="G200" s="178"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="166"/>
+      <c r="A201" s="169"/>
       <c r="B201" s="59" t="s">
         <v>277</v>
       </c>
@@ -18935,7 +19060,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1">
-      <c r="A203" s="166" t="s">
+      <c r="A203" s="169" t="s">
         <v>367</v>
       </c>
       <c r="B203" s="56" t="s">
@@ -18952,7 +19077,7 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="166"/>
+      <c r="A204" s="169"/>
       <c r="B204" s="58" t="s">
         <v>179</v>
       </c>
@@ -18967,7 +19092,7 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="166"/>
+      <c r="A205" s="169"/>
       <c r="B205" s="59" t="s">
         <v>186</v>
       </c>
@@ -18982,7 +19107,7 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="166"/>
+      <c r="A206" s="169"/>
       <c r="B206" s="62" t="s">
         <v>282</v>
       </c>
@@ -18997,7 +19122,7 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="166"/>
+      <c r="A207" s="169"/>
       <c r="B207" s="62" t="s">
         <v>190</v>
       </c>
@@ -19012,7 +19137,7 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="166"/>
+      <c r="A208" s="169"/>
       <c r="B208" s="62" t="s">
         <v>368</v>
       </c>
@@ -19027,7 +19152,7 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="166"/>
+      <c r="A209" s="169"/>
       <c r="B209" s="66" t="s">
         <v>198</v>
       </c>
@@ -19045,7 +19170,7 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="166"/>
+      <c r="A210" s="169"/>
       <c r="B210" s="66" t="s">
         <v>204</v>
       </c>
@@ -19063,7 +19188,7 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="166"/>
+      <c r="A211" s="169"/>
       <c r="B211" s="66" t="s">
         <v>206</v>
       </c>
@@ -19081,7 +19206,7 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="166"/>
+      <c r="A212" s="169"/>
       <c r="B212" s="66" t="s">
         <v>208</v>
       </c>
@@ -19099,7 +19224,7 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="166"/>
+      <c r="A213" s="169"/>
       <c r="B213" s="70" t="s">
         <v>209</v>
       </c>
@@ -19114,7 +19239,7 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="166"/>
+      <c r="A214" s="169"/>
       <c r="B214" s="71" t="s">
         <v>211</v>
       </c>
@@ -19126,7 +19251,7 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="166"/>
+      <c r="A215" s="169"/>
       <c r="B215" s="70" t="s">
         <v>214</v>
       </c>
@@ -19141,7 +19266,7 @@
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="166"/>
+      <c r="A216" s="169"/>
       <c r="B216" s="74" t="s">
         <v>369</v>
       </c>
@@ -19156,7 +19281,7 @@
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="166"/>
+      <c r="A217" s="169"/>
       <c r="B217" s="74" t="s">
         <v>221</v>
       </c>
@@ -19171,7 +19296,7 @@
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="166"/>
+      <c r="A218" s="169"/>
       <c r="B218" s="72" t="s">
         <v>370</v>
       </c>
@@ -19189,7 +19314,7 @@
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="166"/>
+      <c r="A219" s="169"/>
       <c r="B219" s="74" t="s">
         <v>374</v>
       </c>
@@ -19204,7 +19329,7 @@
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="166"/>
+      <c r="A220" s="169"/>
       <c r="B220" s="72" t="s">
         <v>222</v>
       </c>
@@ -19219,7 +19344,7 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="166"/>
+      <c r="A221" s="169"/>
       <c r="B221" s="77" t="s">
         <v>228</v>
       </c>
@@ -19234,7 +19359,7 @@
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="166"/>
+      <c r="A222" s="169"/>
       <c r="B222" s="77" t="s">
         <v>232</v>
       </c>
@@ -19249,7 +19374,7 @@
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="166"/>
+      <c r="A223" s="169"/>
       <c r="B223" s="77" t="s">
         <v>377</v>
       </c>
@@ -19267,7 +19392,7 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="166"/>
+      <c r="A224" s="169"/>
       <c r="B224" s="77" t="s">
         <v>119</v>
       </c>
@@ -19285,7 +19410,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="166"/>
+      <c r="A225" s="169"/>
       <c r="B225" s="77" t="s">
         <v>120</v>
       </c>
@@ -19303,7 +19428,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="166"/>
+      <c r="A226" s="169"/>
       <c r="B226" s="111" t="s">
         <v>378</v>
       </c>
@@ -19318,7 +19443,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="166"/>
+      <c r="A227" s="169"/>
       <c r="B227" s="111" t="s">
         <v>247</v>
       </c>
@@ -19333,7 +19458,7 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="166"/>
+      <c r="A228" s="169"/>
       <c r="B228" s="111" t="s">
         <v>251</v>
       </c>
@@ -19348,7 +19473,7 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="166"/>
+      <c r="A229" s="169"/>
       <c r="B229" s="111" t="s">
         <v>254</v>
       </c>
@@ -19363,7 +19488,7 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="166"/>
+      <c r="A230" s="169"/>
       <c r="B230" s="103" t="s">
         <v>257</v>
       </c>
@@ -19378,7 +19503,7 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="166"/>
+      <c r="A231" s="169"/>
       <c r="B231" s="105" t="s">
         <v>261</v>
       </c>
@@ -19389,7 +19514,7 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="166"/>
+      <c r="A232" s="169"/>
       <c r="B232" s="106" t="s">
         <v>257</v>
       </c>
@@ -19402,7 +19527,7 @@
       <c r="F232" s="37"/>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="166"/>
+      <c r="A233" s="169"/>
       <c r="B233" s="82" t="s">
         <v>265</v>
       </c>
@@ -19420,7 +19545,7 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="166"/>
+      <c r="A234" s="169"/>
       <c r="B234" s="82" t="s">
         <v>269</v>
       </c>
@@ -19438,7 +19563,7 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="166"/>
+      <c r="A235" s="169"/>
       <c r="B235" s="90" t="s">
         <v>272</v>
       </c>
@@ -19456,7 +19581,7 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="166"/>
+      <c r="A236" s="169"/>
       <c r="B236" s="59" t="s">
         <v>277</v>
       </c>
@@ -19491,7 +19616,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1">
-      <c r="A238" s="166" t="s">
+      <c r="A238" s="169" t="s">
         <v>379</v>
       </c>
       <c r="B238" s="114" t="s">
@@ -19508,7 +19633,7 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="166"/>
+      <c r="A239" s="169"/>
       <c r="B239" s="114" t="s">
         <v>383</v>
       </c>
@@ -19523,7 +19648,7 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="166"/>
+      <c r="A240" s="169"/>
       <c r="B240" s="114" t="s">
         <v>386</v>
       </c>
@@ -19538,7 +19663,7 @@
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="166"/>
+      <c r="A241" s="169"/>
       <c r="B241" s="114" t="s">
         <v>128</v>
       </c>
@@ -19553,7 +19678,7 @@
       </c>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="166"/>
+      <c r="A242" s="169"/>
       <c r="B242" s="115" t="s">
         <v>391</v>
       </c>
@@ -19571,7 +19696,7 @@
       </c>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="166"/>
+      <c r="A243" s="169"/>
       <c r="B243" s="115" t="s">
         <v>395</v>
       </c>
@@ -19589,7 +19714,7 @@
       </c>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="166"/>
+      <c r="A244" s="169"/>
       <c r="B244" s="116" t="s">
         <v>398</v>
       </c>
@@ -19604,7 +19729,7 @@
       </c>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="166"/>
+      <c r="A245" s="169"/>
       <c r="B245" s="116" t="s">
         <v>401</v>
       </c>
@@ -19619,7 +19744,7 @@
       </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="166"/>
+      <c r="A246" s="169"/>
       <c r="B246" s="116" t="s">
         <v>402</v>
       </c>
@@ -19634,7 +19759,7 @@
       </c>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="166"/>
+      <c r="A247" s="169"/>
       <c r="B247" s="116" t="s">
         <v>403</v>
       </c>
@@ -19649,7 +19774,7 @@
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="166"/>
+      <c r="A248" s="169"/>
       <c r="B248" s="116" t="s">
         <v>407</v>
       </c>
@@ -19664,7 +19789,7 @@
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="166"/>
+      <c r="A249" s="169"/>
       <c r="B249" s="116" t="s">
         <v>408</v>
       </c>
@@ -19699,7 +19824,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A251" s="166" t="s">
+      <c r="A251" s="169" t="s">
         <v>409</v>
       </c>
       <c r="B251" s="94" t="s">
@@ -19719,7 +19844,7 @@
       </c>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="166"/>
+      <c r="A252" s="169"/>
       <c r="B252" s="94" t="s">
         <v>412</v>
       </c>
@@ -19734,7 +19859,7 @@
       </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="166"/>
+      <c r="A253" s="169"/>
       <c r="B253" s="94" t="s">
         <v>128</v>
       </c>
@@ -19749,7 +19874,7 @@
       </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="166"/>
+      <c r="A254" s="169"/>
       <c r="B254" s="94" t="s">
         <v>415</v>
       </c>
@@ -19764,7 +19889,7 @@
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="166"/>
+      <c r="A255" s="169"/>
       <c r="B255" s="94" t="s">
         <v>418</v>
       </c>
@@ -19779,7 +19904,7 @@
       </c>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="166"/>
+      <c r="A256" s="169"/>
       <c r="B256" s="94" t="s">
         <v>421</v>
       </c>
@@ -19797,7 +19922,7 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="166"/>
+      <c r="A257" s="169"/>
       <c r="B257" s="94" t="s">
         <v>423</v>
       </c>
@@ -19815,7 +19940,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="166"/>
+      <c r="A258" s="169"/>
       <c r="B258" s="94" t="s">
         <v>424</v>
       </c>
@@ -19830,7 +19955,7 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="166"/>
+      <c r="A259" s="169"/>
       <c r="B259" s="116" t="s">
         <v>403</v>
       </c>
@@ -19845,7 +19970,7 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="166"/>
+      <c r="A260" s="169"/>
       <c r="B260" s="116" t="s">
         <v>428</v>
       </c>
@@ -19860,7 +19985,7 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="166"/>
+      <c r="A261" s="169"/>
       <c r="B261" s="116" t="s">
         <v>429</v>
       </c>
@@ -19895,7 +20020,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A263" s="166" t="s">
+      <c r="A263" s="169" t="s">
         <v>430</v>
       </c>
       <c r="B263" s="119" t="s">
@@ -19918,7 +20043,7 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="166"/>
+      <c r="A264" s="169"/>
       <c r="B264" s="94" t="s">
         <v>435</v>
       </c>
@@ -19933,7 +20058,7 @@
       </c>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="166"/>
+      <c r="A265" s="169"/>
       <c r="B265" s="94" t="s">
         <v>436</v>
       </c>
@@ -19948,7 +20073,7 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="166"/>
+      <c r="A266" s="169"/>
       <c r="B266" s="94" t="s">
         <v>128</v>
       </c>
@@ -19963,7 +20088,7 @@
       </c>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="166"/>
+      <c r="A267" s="169"/>
       <c r="B267" s="94" t="s">
         <v>438</v>
       </c>
@@ -19978,7 +20103,7 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="166"/>
+      <c r="A268" s="169"/>
       <c r="B268" s="94" t="s">
         <v>441</v>
       </c>
@@ -19993,7 +20118,7 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="166"/>
+      <c r="A269" s="169"/>
       <c r="B269" s="122" t="s">
         <v>442</v>
       </c>
@@ -20011,7 +20136,7 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="166"/>
+      <c r="A270" s="169"/>
       <c r="B270" s="122" t="s">
         <v>444</v>
       </c>
@@ -20029,7 +20154,7 @@
       </c>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="166"/>
+      <c r="A271" s="169"/>
       <c r="B271" s="44" t="s">
         <v>445</v>
       </c>
@@ -20044,7 +20169,7 @@
       </c>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="166"/>
+      <c r="A272" s="169"/>
       <c r="B272" s="44" t="s">
         <v>449</v>
       </c>
@@ -20059,7 +20184,7 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="166"/>
+      <c r="A273" s="169"/>
       <c r="B273" s="123" t="s">
         <v>452</v>
       </c>
@@ -20074,7 +20199,7 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="166"/>
+      <c r="A274" s="169"/>
       <c r="B274" s="123" t="s">
         <v>429</v>
       </c>
@@ -20089,7 +20214,7 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="166"/>
+      <c r="A275" s="169"/>
       <c r="B275" s="123" t="s">
         <v>428</v>
       </c>
@@ -20104,7 +20229,7 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="166"/>
+      <c r="A276" s="169"/>
       <c r="B276" s="123" t="s">
         <v>453</v>
       </c>
@@ -20139,7 +20264,7 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A278" s="166" t="s">
+      <c r="A278" s="169" t="s">
         <v>454</v>
       </c>
       <c r="B278" s="94" t="s">
@@ -20159,7 +20284,7 @@
       </c>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="166"/>
+      <c r="A279" s="169"/>
       <c r="B279" s="94" t="s">
         <v>456</v>
       </c>
@@ -20175,7 +20300,7 @@
       <c r="F279" s="17"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="166"/>
+      <c r="A280" s="169"/>
       <c r="B280" s="94" t="s">
         <v>457</v>
       </c>
@@ -20191,7 +20316,7 @@
       <c r="F280" s="17"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="166"/>
+      <c r="A281" s="169"/>
       <c r="B281" s="122" t="s">
         <v>458</v>
       </c>
@@ -20209,7 +20334,7 @@
       </c>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="166"/>
+      <c r="A282" s="169"/>
       <c r="B282" s="122" t="s">
         <v>460</v>
       </c>
@@ -20224,7 +20349,7 @@
       </c>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="166"/>
+      <c r="A283" s="169"/>
       <c r="B283" s="122" t="s">
         <v>461</v>
       </c>
@@ -20239,7 +20364,7 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="166"/>
+      <c r="A284" s="169"/>
       <c r="B284" s="122" t="s">
         <v>453</v>
       </c>
@@ -20274,7 +20399,7 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A286" s="166" t="s">
+      <c r="A286" s="169" t="s">
         <v>462</v>
       </c>
       <c r="B286" s="94" t="s">
@@ -20294,7 +20419,7 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="166"/>
+      <c r="A287" s="169"/>
       <c r="B287" s="94" t="s">
         <v>464</v>
       </c>
@@ -20310,7 +20435,7 @@
       <c r="F287" s="17"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="166"/>
+      <c r="A288" s="169"/>
       <c r="B288" s="94" t="s">
         <v>465</v>
       </c>
@@ -20326,7 +20451,7 @@
       <c r="F288" s="17"/>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="166"/>
+      <c r="A289" s="169"/>
       <c r="B289" s="122" t="s">
         <v>460</v>
       </c>
@@ -20341,7 +20466,7 @@
       </c>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="166"/>
+      <c r="A290" s="169"/>
       <c r="B290" s="122" t="s">
         <v>461</v>
       </c>
@@ -20356,7 +20481,7 @@
       </c>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="166"/>
+      <c r="A291" s="169"/>
       <c r="B291" s="122" t="s">
         <v>453</v>
       </c>
@@ -20391,7 +20516,7 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A293" s="166" t="s">
+      <c r="A293" s="169" t="s">
         <v>466</v>
       </c>
       <c r="B293" s="94" t="s">
@@ -20411,7 +20536,7 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="166"/>
+      <c r="A294" s="169"/>
       <c r="B294" s="94" t="s">
         <v>468</v>
       </c>
@@ -20446,7 +20571,7 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A296" s="166" t="s">
+      <c r="A296" s="169" t="s">
         <v>469</v>
       </c>
       <c r="B296" s="94" t="s">
@@ -20466,7 +20591,7 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="166"/>
+      <c r="A297" s="169"/>
       <c r="B297" s="94" t="s">
         <v>471</v>
       </c>
@@ -20482,6 +20607,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A293:A294"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A238:A249"/>
+    <mergeCell ref="A251:A261"/>
+    <mergeCell ref="A263:A276"/>
+    <mergeCell ref="A278:A284"/>
+    <mergeCell ref="A286:A291"/>
+    <mergeCell ref="A124:A167"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="A169:A201"/>
+    <mergeCell ref="G198:G200"/>
+    <mergeCell ref="A203:A236"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:A34"/>
     <mergeCell ref="A36:A71"/>
@@ -20489,20 +20626,20 @@
     <mergeCell ref="A73:A122"/>
     <mergeCell ref="G75:G77"/>
     <mergeCell ref="G119:G121"/>
-    <mergeCell ref="A124:A167"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="A169:A201"/>
-    <mergeCell ref="G198:G200"/>
-    <mergeCell ref="A203:A236"/>
-    <mergeCell ref="A293:A294"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="A238:A249"/>
-    <mergeCell ref="A251:A261"/>
-    <mergeCell ref="A263:A276"/>
-    <mergeCell ref="A278:A284"/>
-    <mergeCell ref="A286:A291"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0293AB-5B4C-423A-986E-9B4B488B1E57}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\NVT_Data-Model\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A79CA32-34C6-4E36-9DE0-83F1AE3356DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EFC692-E43B-45B8-9E29-CB6D891B4215}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="33975" yWindow="1890" windowWidth="23970" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Levels" sheetId="1" r:id="rId1"/>
@@ -3303,31 +3303,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3344,29 +3341,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3754,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3775,16 +3775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60.95" customHeight="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="132"/>
       <c r="J1" s="126"/>
       <c r="K1" s="6"/>
@@ -3827,15 +3827,15 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
       <c r="I4" s="134"/>
       <c r="J4" s="127"/>
       <c r="K4" s="9"/>
@@ -3846,14 +3846,14 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="9"/>
       <c r="I5" s="133"/>
       <c r="J5" s="9"/>
@@ -3865,14 +3865,14 @@
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
       <c r="H6" s="9"/>
       <c r="I6" s="133"/>
       <c r="J6" s="9"/>
@@ -3884,14 +3884,14 @@
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="9"/>
       <c r="I7" s="133"/>
       <c r="J7" s="9"/>
@@ -3903,14 +3903,14 @@
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
       <c r="H8" s="9"/>
       <c r="I8" s="133"/>
       <c r="J8" s="9"/>
@@ -3922,14 +3922,14 @@
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="9"/>
       <c r="I9" s="133"/>
       <c r="J9" s="9"/>
@@ -3941,14 +3941,14 @@
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
       <c r="H10" s="9"/>
       <c r="I10" s="133"/>
       <c r="J10" s="9"/>
@@ -3960,14 +3960,14 @@
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
       <c r="L11" s="1"/>
       <c r="M11" s="5"/>
     </row>
@@ -3976,22 +3976,22 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="30.95" customHeight="1">
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172" t="s">
+      <c r="D13" s="170"/>
+      <c r="E13" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173" t="s">
+      <c r="F13" s="171"/>
+      <c r="G13" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="173"/>
-      <c r="I13" s="167" t="s">
+      <c r="H13" s="172"/>
+      <c r="I13" s="174" t="s">
         <v>617</v>
       </c>
-      <c r="J13" s="168"/>
+      <c r="J13" s="175"/>
     </row>
     <row r="14" spans="1:13" ht="29.25" customHeight="1">
       <c r="A14" s="18" t="s">
@@ -4032,7 +4032,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="160" t="s">
         <v>695</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -4054,12 +4054,12 @@
       <c r="J15" s="128" t="s">
         <v>559</v>
       </c>
-      <c r="L15" s="179" t="s">
+      <c r="L15" s="163" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="177"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="27" t="s">
         <v>31</v>
       </c>
@@ -4079,10 +4079,10 @@
       <c r="J16" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="180"/>
+      <c r="L16" s="164"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="177"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="38" t="s">
         <v>38</v>
       </c>
@@ -4105,10 +4105,10 @@
       <c r="K17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="180"/>
+      <c r="L17" s="164"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="177"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="34" t="s">
         <v>34</v>
       </c>
@@ -4131,10 +4131,10 @@
       <c r="K18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="180"/>
+      <c r="L18" s="164"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="177"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="41" t="s">
         <v>42</v>
       </c>
@@ -4154,10 +4154,10 @@
       <c r="J19" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="180"/>
+      <c r="L19" s="164"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="177"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="41" t="s">
         <v>45</v>
       </c>
@@ -4177,10 +4177,10 @@
       <c r="J20" s="128" t="s">
         <v>561</v>
       </c>
-      <c r="L20" s="180"/>
+      <c r="L20" s="164"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="177"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="41" t="s">
         <v>48</v>
       </c>
@@ -4200,10 +4200,10 @@
       <c r="J21" s="128" t="s">
         <v>551</v>
       </c>
-      <c r="L21" s="180"/>
+      <c r="L21" s="164"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="177"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="41" t="s">
         <v>51</v>
       </c>
@@ -4223,10 +4223,10 @@
       <c r="J22" s="128" t="s">
         <v>594</v>
       </c>
-      <c r="L22" s="180"/>
+      <c r="L22" s="164"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="177"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="41" t="s">
         <v>54</v>
       </c>
@@ -4246,10 +4246,10 @@
       <c r="J23" s="128" t="s">
         <v>563</v>
       </c>
-      <c r="L23" s="180"/>
+      <c r="L23" s="164"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="177"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="42" t="s">
         <v>57</v>
       </c>
@@ -4272,10 +4272,10 @@
       <c r="K24" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="180"/>
+      <c r="L24" s="164"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="177"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="41" t="s">
         <v>61</v>
       </c>
@@ -4295,10 +4295,10 @@
       <c r="J25" s="128" t="s">
         <v>552</v>
       </c>
-      <c r="L25" s="180"/>
+      <c r="L25" s="164"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="177"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="41" t="s">
         <v>64</v>
       </c>
@@ -4318,10 +4318,10 @@
       <c r="J26" s="128" t="s">
         <v>564</v>
       </c>
-      <c r="L26" s="180"/>
+      <c r="L26" s="164"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="177"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="41" t="s">
         <v>67</v>
       </c>
@@ -4341,10 +4341,10 @@
       <c r="J27" s="128" t="s">
         <v>593</v>
       </c>
-      <c r="L27" s="180"/>
+      <c r="L27" s="164"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="177"/>
+      <c r="A28" s="161"/>
       <c r="B28" s="41" t="s">
         <v>70</v>
       </c>
@@ -4364,10 +4364,10 @@
       <c r="J28" s="128" t="s">
         <v>562</v>
       </c>
-      <c r="L28" s="180"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="177"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="42" t="s">
         <v>73</v>
       </c>
@@ -4387,10 +4387,10 @@
       <c r="J29" s="128" t="s">
         <v>590</v>
       </c>
-      <c r="L29" s="180"/>
+      <c r="L29" s="164"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="177"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="42" t="s">
         <v>76</v>
       </c>
@@ -4410,10 +4410,10 @@
       <c r="J30" s="128" t="s">
         <v>584</v>
       </c>
-      <c r="L30" s="180"/>
+      <c r="L30" s="164"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="177"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="41" t="s">
         <v>79</v>
       </c>
@@ -4433,10 +4433,10 @@
       <c r="J31" s="128" t="s">
         <v>583</v>
       </c>
-      <c r="L31" s="180"/>
+      <c r="L31" s="164"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="177"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="41" t="s">
         <v>82</v>
       </c>
@@ -4459,10 +4459,10 @@
       <c r="K32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="180"/>
+      <c r="L32" s="164"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="177"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="41" t="s">
         <v>84</v>
       </c>
@@ -4482,10 +4482,10 @@
       <c r="J33" s="128" t="s">
         <v>550</v>
       </c>
-      <c r="L33" s="180"/>
+      <c r="L33" s="164"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="177"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="41" t="s">
         <v>87</v>
       </c>
@@ -4505,10 +4505,10 @@
       <c r="J34" s="128" t="s">
         <v>554</v>
       </c>
-      <c r="L34" s="180"/>
+      <c r="L34" s="164"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="177"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="41" t="s">
         <v>90</v>
       </c>
@@ -4528,10 +4528,10 @@
       <c r="J35" s="128" t="s">
         <v>587</v>
       </c>
-      <c r="L35" s="180"/>
+      <c r="L35" s="164"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="177"/>
+      <c r="A36" s="161"/>
       <c r="B36" s="41" t="s">
         <v>93</v>
       </c>
@@ -4551,10 +4551,10 @@
       <c r="J36" s="128" t="s">
         <v>585</v>
       </c>
-      <c r="L36" s="180"/>
+      <c r="L36" s="164"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="177"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="42" t="s">
         <v>96</v>
       </c>
@@ -4574,10 +4574,10 @@
       <c r="J37" s="128" t="s">
         <v>553</v>
       </c>
-      <c r="L37" s="180"/>
+      <c r="L37" s="164"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="177"/>
+      <c r="A38" s="161"/>
       <c r="B38" s="42" t="s">
         <v>99</v>
       </c>
@@ -4597,10 +4597,10 @@
       <c r="J38" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="L38" s="180"/>
+      <c r="L38" s="164"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="177"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="43" t="s">
         <v>100</v>
       </c>
@@ -4620,10 +4620,10 @@
       <c r="J39" s="128" t="s">
         <v>565</v>
       </c>
-      <c r="L39" s="180"/>
+      <c r="L39" s="164"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="177"/>
+      <c r="A40" s="161"/>
       <c r="B40" s="43" t="s">
         <v>638</v>
       </c>
@@ -4639,10 +4639,10 @@
       <c r="J40" s="128" t="s">
         <v>640</v>
       </c>
-      <c r="L40" s="180"/>
+      <c r="L40" s="164"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="177"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="44" t="s">
         <v>103</v>
       </c>
@@ -4665,10 +4665,10 @@
       <c r="K41" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="L41" s="180"/>
+      <c r="L41" s="164"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="177"/>
+      <c r="A42" s="161"/>
       <c r="B42" s="44" t="s">
         <v>107</v>
       </c>
@@ -4691,10 +4691,10 @@
       <c r="K42" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="L42" s="180"/>
+      <c r="L42" s="164"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="177"/>
+      <c r="A43" s="161"/>
       <c r="B43" s="44" t="s">
         <v>111</v>
       </c>
@@ -4717,10 +4717,10 @@
       <c r="K43" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="L43" s="180"/>
+      <c r="L43" s="164"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="177"/>
+      <c r="A44" s="161"/>
       <c r="B44" s="45" t="s">
         <v>114</v>
       </c>
@@ -4743,10 +4743,10 @@
       <c r="K44" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="L44" s="180"/>
+      <c r="L44" s="164"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="177"/>
+      <c r="A45" s="161"/>
       <c r="B45" s="45" t="s">
         <v>118</v>
       </c>
@@ -4769,10 +4769,10 @@
       <c r="K45" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="L45" s="180"/>
+      <c r="L45" s="164"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="178"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="45" t="s">
         <v>119</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="K46" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="L46" s="181"/>
+      <c r="L46" s="165"/>
     </row>
     <row r="47" spans="1:12" ht="32.1" customHeight="1">
       <c r="A47" s="18" t="s">
@@ -4833,7 +4833,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="163" t="s">
+      <c r="A48" s="173" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -4866,7 +4866,7 @@
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="163"/>
+      <c r="A49" s="173"/>
       <c r="B49" s="27" t="s">
         <v>124</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="163"/>
+      <c r="A50" s="173"/>
       <c r="B50" s="27" t="s">
         <v>127</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="30">
-      <c r="A51" s="163"/>
+      <c r="A51" s="173"/>
       <c r="B51" s="27" t="s">
         <v>131</v>
       </c>
@@ -4964,7 +4964,7 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="163"/>
+      <c r="A52" s="173"/>
       <c r="B52" s="27" t="s">
         <v>642</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="163"/>
+      <c r="A53" s="173"/>
       <c r="B53" s="27" t="s">
         <v>641</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A54" s="163"/>
+      <c r="A54" s="173"/>
       <c r="B54" s="27" t="s">
         <v>142</v>
       </c>
@@ -5052,7 +5052,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="163"/>
+      <c r="A55" s="173"/>
       <c r="B55" s="41" t="s">
         <v>42</v>
       </c>
@@ -5079,12 +5079,12 @@
       <c r="K55" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="L55" s="165" t="s">
+      <c r="L55" s="180" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="163"/>
+      <c r="A56" s="173"/>
       <c r="B56" s="41" t="s">
         <v>45</v>
       </c>
@@ -5108,10 +5108,10 @@
       <c r="J56" s="128" t="s">
         <v>561</v>
       </c>
-      <c r="L56" s="165"/>
+      <c r="L56" s="180"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="163"/>
+      <c r="A57" s="173"/>
       <c r="B57" s="41" t="s">
         <v>48</v>
       </c>
@@ -5135,10 +5135,10 @@
       <c r="J57" s="128" t="s">
         <v>551</v>
       </c>
-      <c r="L57" s="165"/>
+      <c r="L57" s="180"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="163"/>
+      <c r="A58" s="173"/>
       <c r="B58" s="41" t="s">
         <v>51</v>
       </c>
@@ -5162,10 +5162,10 @@
       <c r="J58" s="128" t="s">
         <v>594</v>
       </c>
-      <c r="L58" s="165"/>
+      <c r="L58" s="180"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="163"/>
+      <c r="A59" s="173"/>
       <c r="B59" s="41" t="s">
         <v>54</v>
       </c>
@@ -5189,10 +5189,10 @@
       <c r="J59" s="128" t="s">
         <v>563</v>
       </c>
-      <c r="L59" s="165"/>
+      <c r="L59" s="180"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="163"/>
+      <c r="A60" s="173"/>
       <c r="B60" s="42" t="s">
         <v>57</v>
       </c>
@@ -5219,10 +5219,10 @@
       <c r="K60" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="L60" s="165"/>
+      <c r="L60" s="180"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="163"/>
+      <c r="A61" s="173"/>
       <c r="B61" s="41" t="s">
         <v>61</v>
       </c>
@@ -5246,10 +5246,10 @@
       <c r="J61" s="128" t="s">
         <v>552</v>
       </c>
-      <c r="L61" s="165"/>
+      <c r="L61" s="180"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="163"/>
+      <c r="A62" s="173"/>
       <c r="B62" s="41" t="s">
         <v>64</v>
       </c>
@@ -5273,10 +5273,10 @@
       <c r="J62" s="128" t="s">
         <v>564</v>
       </c>
-      <c r="L62" s="165"/>
+      <c r="L62" s="180"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="163"/>
+      <c r="A63" s="173"/>
       <c r="B63" s="41" t="s">
         <v>67</v>
       </c>
@@ -5300,10 +5300,10 @@
       <c r="J63" s="128" t="s">
         <v>593</v>
       </c>
-      <c r="L63" s="165"/>
+      <c r="L63" s="180"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="163"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="41" t="s">
         <v>70</v>
       </c>
@@ -5327,10 +5327,10 @@
       <c r="J64" s="128" t="s">
         <v>562</v>
       </c>
-      <c r="L64" s="165"/>
+      <c r="L64" s="180"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="163"/>
+      <c r="A65" s="173"/>
       <c r="B65" s="42" t="s">
         <v>73</v>
       </c>
@@ -5354,10 +5354,10 @@
       <c r="J65" s="128" t="s">
         <v>590</v>
       </c>
-      <c r="L65" s="165"/>
+      <c r="L65" s="180"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="163"/>
+      <c r="A66" s="173"/>
       <c r="B66" s="42" t="s">
         <v>76</v>
       </c>
@@ -5381,10 +5381,10 @@
       <c r="J66" s="128" t="s">
         <v>584</v>
       </c>
-      <c r="L66" s="165"/>
+      <c r="L66" s="180"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="163"/>
+      <c r="A67" s="173"/>
       <c r="B67" s="41" t="s">
         <v>79</v>
       </c>
@@ -5408,10 +5408,10 @@
       <c r="J67" s="128" t="s">
         <v>583</v>
       </c>
-      <c r="L67" s="165"/>
+      <c r="L67" s="180"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="163"/>
+      <c r="A68" s="173"/>
       <c r="B68" s="41" t="s">
         <v>82</v>
       </c>
@@ -5438,10 +5438,10 @@
       <c r="K68" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="L68" s="165"/>
+      <c r="L68" s="180"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="163"/>
+      <c r="A69" s="173"/>
       <c r="B69" s="41" t="s">
         <v>84</v>
       </c>
@@ -5465,10 +5465,10 @@
       <c r="J69" s="128" t="s">
         <v>550</v>
       </c>
-      <c r="L69" s="165"/>
+      <c r="L69" s="180"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="163"/>
+      <c r="A70" s="173"/>
       <c r="B70" s="41" t="s">
         <v>87</v>
       </c>
@@ -5492,10 +5492,10 @@
       <c r="J70" s="128" t="s">
         <v>554</v>
       </c>
-      <c r="L70" s="165"/>
+      <c r="L70" s="180"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="163"/>
+      <c r="A71" s="173"/>
       <c r="B71" s="41" t="s">
         <v>90</v>
       </c>
@@ -5519,10 +5519,10 @@
       <c r="J71" s="128" t="s">
         <v>587</v>
       </c>
-      <c r="L71" s="165"/>
+      <c r="L71" s="180"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="163"/>
+      <c r="A72" s="173"/>
       <c r="B72" s="41" t="s">
         <v>93</v>
       </c>
@@ -5546,10 +5546,10 @@
       <c r="J72" s="128" t="s">
         <v>585</v>
       </c>
-      <c r="L72" s="165"/>
+      <c r="L72" s="180"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="163"/>
+      <c r="A73" s="173"/>
       <c r="B73" s="42" t="s">
         <v>96</v>
       </c>
@@ -5573,10 +5573,10 @@
       <c r="J73" s="128" t="s">
         <v>553</v>
       </c>
-      <c r="L73" s="165"/>
+      <c r="L73" s="180"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="163"/>
+      <c r="A74" s="173"/>
       <c r="B74" s="42" t="s">
         <v>152</v>
       </c>
@@ -5600,10 +5600,10 @@
       <c r="J74" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="L74" s="165"/>
+      <c r="L74" s="180"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="163"/>
+      <c r="A75" s="173"/>
       <c r="B75" s="42" t="s">
         <v>155</v>
       </c>
@@ -5630,10 +5630,10 @@
       <c r="K75" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="L75" s="165"/>
+      <c r="L75" s="180"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="163"/>
+      <c r="A76" s="173"/>
       <c r="B76" s="42" t="s">
         <v>99</v>
       </c>
@@ -5657,10 +5657,10 @@
       <c r="J76" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="L76" s="165"/>
+      <c r="L76" s="180"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="163"/>
+      <c r="A77" s="173"/>
       <c r="B77" s="55" t="s">
         <v>158</v>
       </c>
@@ -5680,10 +5680,10 @@
       <c r="J77" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="L77" s="165"/>
+      <c r="L77" s="180"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="163"/>
+      <c r="A78" s="173"/>
       <c r="B78" s="44" t="s">
         <v>161</v>
       </c>
@@ -5716,7 +5716,7 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="163"/>
+      <c r="A79" s="173"/>
       <c r="B79" s="55" t="s">
         <v>164</v>
       </c>
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="163"/>
+      <c r="A80" s="173"/>
       <c r="B80" s="55" t="s">
         <v>166</v>
       </c>
@@ -5782,7 +5782,7 @@
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="163"/>
+      <c r="A81" s="173"/>
       <c r="B81" s="45" t="s">
         <v>114</v>
       </c>
@@ -5812,7 +5812,7 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="163"/>
+      <c r="A82" s="173"/>
       <c r="B82" s="45" t="s">
         <v>118</v>
       </c>
@@ -5842,7 +5842,7 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="163"/>
+      <c r="A83" s="173"/>
       <c r="B83" s="45" t="s">
         <v>119</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1">
-      <c r="A85" s="160" t="s">
+      <c r="A85" s="176" t="s">
         <v>170</v>
       </c>
       <c r="B85" s="56" t="s">
@@ -5942,7 +5942,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1">
-      <c r="A86" s="161"/>
+      <c r="A86" s="177"/>
       <c r="B86" s="58" t="s">
         <v>176</v>
       </c>
@@ -5977,7 +5977,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
-      <c r="A87" s="161"/>
+      <c r="A87" s="177"/>
       <c r="B87" s="59" t="s">
         <v>183</v>
       </c>
@@ -6008,12 +6008,12 @@
       <c r="K87" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="L87" s="166" t="s">
+      <c r="L87" s="181" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="161"/>
+      <c r="A88" s="177"/>
       <c r="B88" s="62" t="s">
         <v>186</v>
       </c>
@@ -6041,10 +6041,10 @@
       <c r="J88" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="L88" s="166"/>
+      <c r="L88" s="181"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="161"/>
+      <c r="A89" s="177"/>
       <c r="B89" s="62" t="s">
         <v>187</v>
       </c>
@@ -6072,10 +6072,10 @@
       <c r="J89" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="L89" s="166"/>
+      <c r="L89" s="181"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="161"/>
+      <c r="A90" s="177"/>
       <c r="B90" s="62" t="s">
         <v>188</v>
       </c>
@@ -6108,7 +6108,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="30">
-      <c r="A91" s="161"/>
+      <c r="A91" s="177"/>
       <c r="B91" s="66" t="s">
         <v>195</v>
       </c>
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="161"/>
+      <c r="A92" s="177"/>
       <c r="B92" s="66" t="s">
         <v>201</v>
       </c>
@@ -6173,7 +6173,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="75">
-      <c r="A93" s="161"/>
+      <c r="A93" s="177"/>
       <c r="B93" s="66" t="s">
         <v>203</v>
       </c>
@@ -6209,7 +6209,7 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="161"/>
+      <c r="A94" s="177"/>
       <c r="B94" s="66" t="s">
         <v>205</v>
       </c>
@@ -6240,7 +6240,7 @@
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="161"/>
+      <c r="A95" s="177"/>
       <c r="B95" s="70" t="s">
         <v>206</v>
       </c>
@@ -6270,7 +6270,7 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="161"/>
+      <c r="A96" s="177"/>
       <c r="B96" s="71" t="s">
         <v>208</v>
       </c>
@@ -6300,7 +6300,7 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="161"/>
+      <c r="A97" s="177"/>
       <c r="B97" s="70" t="s">
         <v>211</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="161"/>
+      <c r="A98" s="177"/>
       <c r="B98" s="72" t="s">
         <v>213</v>
       </c>
@@ -6356,7 +6356,7 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="161"/>
+      <c r="A99" s="177"/>
       <c r="B99" s="74" t="s">
         <v>643</v>
       </c>
@@ -6384,7 +6384,7 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="161"/>
+      <c r="A100" s="177"/>
       <c r="B100" s="74" t="s">
         <v>644</v>
       </c>
@@ -6412,7 +6412,7 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="161"/>
+      <c r="A101" s="177"/>
       <c r="B101" s="72" t="s">
         <v>645</v>
       </c>
@@ -6440,7 +6440,7 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="161"/>
+      <c r="A102" s="177"/>
       <c r="B102" s="72" t="s">
         <v>306</v>
       </c>
@@ -6458,7 +6458,7 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="161"/>
+      <c r="A103" s="177"/>
       <c r="B103" s="75" t="s">
         <v>219</v>
       </c>
@@ -6484,7 +6484,7 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="161"/>
+      <c r="A104" s="177"/>
       <c r="B104" s="76" t="s">
         <v>222</v>
       </c>
@@ -6510,7 +6510,7 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="161"/>
+      <c r="A105" s="177"/>
       <c r="B105" s="76" t="s">
         <v>57</v>
       </c>
@@ -6539,7 +6539,7 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="161"/>
+      <c r="A106" s="177"/>
       <c r="B106" s="75" t="s">
         <v>61</v>
       </c>
@@ -6565,7 +6565,7 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="161"/>
+      <c r="A107" s="177"/>
       <c r="B107" s="75" t="s">
         <v>64</v>
       </c>
@@ -6591,7 +6591,7 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="161"/>
+      <c r="A108" s="177"/>
       <c r="B108" s="75" t="s">
         <v>67</v>
       </c>
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="161"/>
+      <c r="A109" s="177"/>
       <c r="B109" s="75" t="s">
         <v>70</v>
       </c>
@@ -6643,7 +6643,7 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="161"/>
+      <c r="A110" s="177"/>
       <c r="B110" s="76" t="s">
         <v>223</v>
       </c>
@@ -6669,7 +6669,7 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="161"/>
+      <c r="A111" s="177"/>
       <c r="B111" s="75" t="s">
         <v>79</v>
       </c>
@@ -6695,7 +6695,7 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="161"/>
+      <c r="A112" s="177"/>
       <c r="B112" s="75" t="s">
         <v>82</v>
       </c>
@@ -6721,7 +6721,7 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="161"/>
+      <c r="A113" s="177"/>
       <c r="B113" s="75" t="s">
         <v>84</v>
       </c>
@@ -6747,7 +6747,7 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="161"/>
+      <c r="A114" s="177"/>
       <c r="B114" s="75" t="s">
         <v>87</v>
       </c>
@@ -6773,7 +6773,7 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="161"/>
+      <c r="A115" s="177"/>
       <c r="B115" s="75" t="s">
         <v>90</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="161"/>
+      <c r="A116" s="177"/>
       <c r="B116" s="76" t="s">
         <v>73</v>
       </c>
@@ -6825,7 +6825,7 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="161"/>
+      <c r="A117" s="177"/>
       <c r="B117" s="75" t="s">
         <v>93</v>
       </c>
@@ -6851,7 +6851,7 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="161"/>
+      <c r="A118" s="177"/>
       <c r="B118" s="76" t="s">
         <v>96</v>
       </c>
@@ -6877,7 +6877,7 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="161"/>
+      <c r="A119" s="177"/>
       <c r="B119" s="74" t="s">
         <v>99</v>
       </c>
@@ -6903,7 +6903,7 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="161"/>
+      <c r="A120" s="177"/>
       <c r="B120" s="74" t="s">
         <v>685</v>
       </c>
@@ -6929,7 +6929,7 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="161"/>
+      <c r="A121" s="177"/>
       <c r="B121" s="74" t="s">
         <v>686</v>
       </c>
@@ -6958,7 +6958,7 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="161"/>
+      <c r="A122" s="177"/>
       <c r="B122" s="77" t="s">
         <v>224</v>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="161"/>
+      <c r="A123" s="177"/>
       <c r="B123" s="77" t="s">
         <v>228</v>
       </c>
@@ -7016,7 +7016,7 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="161"/>
+      <c r="A124" s="177"/>
       <c r="B124" s="77" t="s">
         <v>370</v>
       </c>
@@ -7052,7 +7052,7 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="161"/>
+      <c r="A125" s="177"/>
       <c r="B125" s="77" t="s">
         <v>118</v>
       </c>
@@ -7085,7 +7085,7 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="161"/>
+      <c r="A126" s="177"/>
       <c r="B126" s="77" t="s">
         <v>119</v>
       </c>
@@ -7118,7 +7118,7 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="161"/>
+      <c r="A127" s="177"/>
       <c r="B127" s="78" t="s">
         <v>237</v>
       </c>
@@ -7151,7 +7151,7 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="161"/>
+      <c r="A128" s="177"/>
       <c r="B128" s="78" t="s">
         <v>242</v>
       </c>
@@ -7184,7 +7184,7 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="161"/>
+      <c r="A129" s="177"/>
       <c r="B129" s="78" t="s">
         <v>246</v>
       </c>
@@ -7214,7 +7214,7 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="161"/>
+      <c r="A130" s="177"/>
       <c r="B130" s="79" t="s">
         <v>249</v>
       </c>
@@ -7244,7 +7244,7 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="161"/>
+      <c r="A131" s="177"/>
       <c r="B131" s="80" t="s">
         <v>252</v>
       </c>
@@ -7273,7 +7273,7 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="161"/>
+      <c r="A132" s="177"/>
       <c r="B132" s="81" t="s">
         <v>256</v>
       </c>
@@ -7294,7 +7294,7 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="161"/>
+      <c r="A133" s="177"/>
       <c r="B133" s="78" t="s">
         <v>646</v>
       </c>
@@ -7311,7 +7311,7 @@
       <c r="K133" s="37"/>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="161"/>
+      <c r="A134" s="177"/>
       <c r="B134" s="82" t="s">
         <v>252</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="K134" s="37"/>
     </row>
     <row r="135" spans="1:12" ht="15" customHeight="1">
-      <c r="A135" s="161"/>
+      <c r="A135" s="177"/>
       <c r="B135" s="82" t="s">
         <v>260</v>
       </c>
@@ -7369,12 +7369,12 @@
       <c r="K135" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="L135" s="164" t="s">
+      <c r="L135" s="179" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="161"/>
+      <c r="A136" s="177"/>
       <c r="B136" s="82" t="s">
         <v>264</v>
       </c>
@@ -7405,10 +7405,10 @@
       <c r="K136" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="L136" s="164"/>
+      <c r="L136" s="179"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="161"/>
+      <c r="A137" s="177"/>
       <c r="B137" s="90" t="s">
         <v>267</v>
       </c>
@@ -7439,10 +7439,10 @@
       <c r="K137" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="L137" s="164"/>
+      <c r="L137" s="179"/>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="162"/>
+      <c r="A138" s="178"/>
       <c r="B138" s="59" t="s">
         <v>272</v>
       </c>
@@ -7507,7 +7507,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" ht="15" customHeight="1">
-      <c r="A140" s="160" t="s">
+      <c r="A140" s="176" t="s">
         <v>276</v>
       </c>
       <c r="B140" s="92" t="s">
@@ -7537,7 +7537,7 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="161"/>
+      <c r="A141" s="177"/>
       <c r="B141" s="59" t="s">
         <v>176</v>
       </c>
@@ -7566,7 +7566,7 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="161"/>
+      <c r="A142" s="177"/>
       <c r="B142" s="59" t="s">
         <v>183</v>
       </c>
@@ -7599,7 +7599,7 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="161"/>
+      <c r="A143" s="177"/>
       <c r="B143" s="93" t="s">
         <v>647</v>
       </c>
@@ -7632,7 +7632,7 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="161"/>
+      <c r="A144" s="177"/>
       <c r="B144" s="93" t="s">
         <v>187</v>
       </c>
@@ -7662,7 +7662,7 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="161"/>
+      <c r="A145" s="177"/>
       <c r="B145" s="93" t="s">
         <v>279</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="161"/>
+      <c r="A146" s="177"/>
       <c r="B146" s="94" t="s">
         <v>195</v>
       </c>
@@ -7724,7 +7724,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="161"/>
+      <c r="A147" s="177"/>
       <c r="B147" s="94" t="s">
         <v>201</v>
       </c>
@@ -7755,7 +7755,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="161"/>
+      <c r="A148" s="177"/>
       <c r="B148" s="94" t="s">
         <v>203</v>
       </c>
@@ -7788,7 +7788,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="161"/>
+      <c r="A149" s="177"/>
       <c r="B149" s="94" t="s">
         <v>205</v>
       </c>
@@ -7817,7 +7817,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="161"/>
+      <c r="A150" s="177"/>
       <c r="B150" s="95" t="s">
         <v>206</v>
       </c>
@@ -7847,7 +7847,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="161"/>
+      <c r="A151" s="177"/>
       <c r="B151" s="96" t="s">
         <v>208</v>
       </c>
@@ -7877,7 +7877,7 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="161"/>
+      <c r="A152" s="177"/>
       <c r="B152" s="95" t="s">
         <v>211</v>
       </c>
@@ -7907,7 +7907,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="161"/>
+      <c r="A153" s="177"/>
       <c r="B153" s="95" t="s">
         <v>281</v>
       </c>
@@ -7937,7 +7937,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="161"/>
+      <c r="A154" s="177"/>
       <c r="B154" s="41" t="s">
         <v>285</v>
       </c>
@@ -7963,7 +7963,7 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="161"/>
+      <c r="A155" s="177"/>
       <c r="B155" s="41" t="s">
         <v>289</v>
       </c>
@@ -7989,7 +7989,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="161"/>
+      <c r="A156" s="177"/>
       <c r="B156" s="41" t="s">
         <v>290</v>
       </c>
@@ -8017,7 +8017,7 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="161"/>
+      <c r="A157" s="177"/>
       <c r="B157" s="41" t="s">
         <v>291</v>
       </c>
@@ -8045,7 +8045,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="161"/>
+      <c r="A158" s="177"/>
       <c r="B158" s="41" t="s">
         <v>292</v>
       </c>
@@ -8072,7 +8072,7 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="161"/>
+      <c r="A159" s="177"/>
       <c r="B159" s="41" t="s">
         <v>296</v>
       </c>
@@ -8100,7 +8100,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="161"/>
+      <c r="A160" s="177"/>
       <c r="B160" s="41" t="s">
         <v>299</v>
       </c>
@@ -8128,7 +8128,7 @@
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="161"/>
+      <c r="A161" s="177"/>
       <c r="B161" s="41" t="s">
         <v>302</v>
       </c>
@@ -8156,7 +8156,7 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="161"/>
+      <c r="A162" s="177"/>
       <c r="B162" s="41" t="s">
         <v>99</v>
       </c>
@@ -8182,7 +8182,7 @@
       </c>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="161"/>
+      <c r="A163" s="177"/>
       <c r="B163" s="41" t="s">
         <v>305</v>
       </c>
@@ -8208,7 +8208,7 @@
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="161"/>
+      <c r="A164" s="177"/>
       <c r="B164" s="41" t="s">
         <v>306</v>
       </c>
@@ -8234,7 +8234,7 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="161"/>
+      <c r="A165" s="177"/>
       <c r="B165" s="41" t="s">
         <v>217</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="J165" s="128"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="161"/>
+      <c r="A166" s="177"/>
       <c r="B166" s="41" t="s">
         <v>648</v>
       </c>
@@ -8266,7 +8266,7 @@
       <c r="J166" s="128"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="161"/>
+      <c r="A167" s="177"/>
       <c r="B167" s="45" t="s">
         <v>307</v>
       </c>
@@ -8296,7 +8296,7 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="161"/>
+      <c r="A168" s="177"/>
       <c r="B168" s="98" t="s">
         <v>308</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="15" customHeight="1">
-      <c r="A169" s="161"/>
+      <c r="A169" s="177"/>
       <c r="B169" s="45" t="s">
         <v>313</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="161"/>
+      <c r="A170" s="177"/>
       <c r="B170" s="98" t="s">
         <v>316</v>
       </c>
@@ -8388,7 +8388,7 @@
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="161"/>
+      <c r="A171" s="177"/>
       <c r="B171" s="45" t="s">
         <v>319</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="161"/>
+      <c r="A172" s="177"/>
       <c r="B172" s="45" t="s">
         <v>322</v>
       </c>
@@ -8449,7 +8449,7 @@
       </c>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="161"/>
+      <c r="A173" s="177"/>
       <c r="B173" s="45" t="s">
         <v>119</v>
       </c>
@@ -8480,7 +8480,7 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="161"/>
+      <c r="A174" s="177"/>
       <c r="B174" s="45" t="s">
         <v>324</v>
       </c>
@@ -8512,7 +8512,7 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="161"/>
+      <c r="A175" s="177"/>
       <c r="B175" s="45" t="s">
         <v>328</v>
       </c>
@@ -8535,7 +8535,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" ht="30">
-      <c r="A176" s="161"/>
+      <c r="A176" s="177"/>
       <c r="B176" s="45" t="s">
         <v>330</v>
       </c>
@@ -8566,7 +8566,7 @@
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="161"/>
+      <c r="A177" s="177"/>
       <c r="B177" s="102" t="s">
         <v>237</v>
       </c>
@@ -8594,7 +8594,7 @@
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="161"/>
+      <c r="A178" s="177"/>
       <c r="B178" s="102" t="s">
         <v>246</v>
       </c>
@@ -8624,7 +8624,7 @@
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="161"/>
+      <c r="A179" s="177"/>
       <c r="B179" s="102" t="s">
         <v>334</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="161"/>
+      <c r="A180" s="177"/>
       <c r="B180" s="102" t="s">
         <v>649</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="J180" s="128"/>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="161"/>
+      <c r="A181" s="177"/>
       <c r="B181" s="103" t="s">
         <v>252</v>
       </c>
@@ -8701,7 +8701,7 @@
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="161"/>
+      <c r="A182" s="177"/>
       <c r="B182" s="105" t="s">
         <v>256</v>
       </c>
@@ -8726,7 +8726,7 @@
       </c>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="161"/>
+      <c r="A183" s="177"/>
       <c r="B183" s="102" t="s">
         <v>646</v>
       </c>
@@ -8743,7 +8743,7 @@
       <c r="K183" s="37"/>
     </row>
     <row r="184" spans="1:12" ht="15" customHeight="1">
-      <c r="A184" s="161"/>
+      <c r="A184" s="177"/>
       <c r="B184" s="106" t="s">
         <v>252</v>
       </c>
@@ -8774,12 +8774,12 @@
       <c r="K184" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="L184" s="164" t="s">
+      <c r="L184" s="179" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="161"/>
+      <c r="A185" s="177"/>
       <c r="B185" s="82" t="s">
         <v>264</v>
       </c>
@@ -8810,10 +8810,10 @@
       <c r="K185" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="L185" s="164"/>
+      <c r="L185" s="179"/>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="161"/>
+      <c r="A186" s="177"/>
       <c r="B186" s="90" t="s">
         <v>267</v>
       </c>
@@ -8844,10 +8844,10 @@
       <c r="K186" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="L186" s="164"/>
+      <c r="L186" s="179"/>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="162"/>
+      <c r="A187" s="178"/>
       <c r="B187" s="59" t="s">
         <v>272</v>
       </c>
@@ -8912,7 +8912,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="15" customHeight="1">
-      <c r="A189" s="160" t="s">
+      <c r="A189" s="176" t="s">
         <v>335</v>
       </c>
       <c r="B189" s="56" t="s">
@@ -8942,7 +8942,7 @@
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="161"/>
+      <c r="A190" s="177"/>
       <c r="B190" s="58" t="s">
         <v>176</v>
       </c>
@@ -8971,7 +8971,7 @@
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="161"/>
+      <c r="A191" s="177"/>
       <c r="B191" s="59" t="s">
         <v>183</v>
       </c>
@@ -9004,7 +9004,7 @@
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="161"/>
+      <c r="A192" s="177"/>
       <c r="B192" s="62" t="s">
         <v>650</v>
       </c>
@@ -9034,7 +9034,7 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="161"/>
+      <c r="A193" s="177"/>
       <c r="B193" s="62" t="s">
         <v>187</v>
       </c>
@@ -9064,7 +9064,7 @@
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="161"/>
+      <c r="A194" s="177"/>
       <c r="B194" s="62" t="s">
         <v>336</v>
       </c>
@@ -9095,7 +9095,7 @@
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="161"/>
+      <c r="A195" s="177"/>
       <c r="B195" s="66" t="s">
         <v>195</v>
       </c>
@@ -9126,7 +9126,7 @@
       </c>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="161"/>
+      <c r="A196" s="177"/>
       <c r="B196" s="66" t="s">
         <v>201</v>
       </c>
@@ -9157,7 +9157,7 @@
       </c>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="161"/>
+      <c r="A197" s="177"/>
       <c r="B197" s="66" t="s">
         <v>203</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="161"/>
+      <c r="A198" s="177"/>
       <c r="B198" s="66" t="s">
         <v>205</v>
       </c>
@@ -9219,7 +9219,7 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="161"/>
+      <c r="A199" s="177"/>
       <c r="B199" s="70" t="s">
         <v>206</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="161"/>
+      <c r="A200" s="177"/>
       <c r="B200" s="70" t="s">
         <v>337</v>
       </c>
@@ -9280,7 +9280,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" ht="30">
-      <c r="A201" s="161"/>
+      <c r="A201" s="177"/>
       <c r="B201" s="72" t="s">
         <v>651</v>
       </c>
@@ -9311,7 +9311,7 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="161"/>
+      <c r="A202" s="177"/>
       <c r="B202" s="72" t="s">
         <v>339</v>
       </c>
@@ -9337,7 +9337,7 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="161"/>
+      <c r="A203" s="177"/>
       <c r="B203" s="72" t="s">
         <v>340</v>
       </c>
@@ -9366,7 +9366,7 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="161"/>
+      <c r="A204" s="177"/>
       <c r="B204" s="77" t="s">
         <v>343</v>
       </c>
@@ -9396,7 +9396,7 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="161"/>
+      <c r="A205" s="177"/>
       <c r="B205" s="77" t="s">
         <v>232</v>
       </c>
@@ -9429,7 +9429,7 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="161"/>
+      <c r="A206" s="177"/>
       <c r="B206" s="77" t="s">
         <v>345</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="161"/>
+      <c r="A207" s="177"/>
       <c r="B207" s="77" t="s">
         <v>346</v>
       </c>
@@ -9495,7 +9495,7 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="161"/>
+      <c r="A208" s="177"/>
       <c r="B208" s="107" t="s">
         <v>347</v>
       </c>
@@ -9528,7 +9528,7 @@
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="161"/>
+      <c r="A209" s="177"/>
       <c r="B209" s="107" t="s">
         <v>350</v>
       </c>
@@ -9561,7 +9561,7 @@
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="161"/>
+      <c r="A210" s="177"/>
       <c r="B210" s="110" t="s">
         <v>353</v>
       </c>
@@ -9591,7 +9591,7 @@
       </c>
     </row>
     <row r="211" spans="1:12">
-      <c r="A211" s="161"/>
+      <c r="A211" s="177"/>
       <c r="B211" s="111" t="s">
         <v>246</v>
       </c>
@@ -9621,7 +9621,7 @@
       </c>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="161"/>
+      <c r="A212" s="177"/>
       <c r="B212" s="111" t="s">
         <v>249</v>
       </c>
@@ -9651,7 +9651,7 @@
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="161"/>
+      <c r="A213" s="177"/>
       <c r="B213" s="111" t="s">
         <v>354</v>
       </c>
@@ -9681,7 +9681,7 @@
       </c>
     </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="161"/>
+      <c r="A214" s="177"/>
       <c r="B214" s="111" t="s">
         <v>355</v>
       </c>
@@ -9711,7 +9711,7 @@
       </c>
     </row>
     <row r="215" spans="1:12">
-      <c r="A215" s="161"/>
+      <c r="A215" s="177"/>
       <c r="B215" s="111" t="s">
         <v>356</v>
       </c>
@@ -9743,7 +9743,7 @@
       </c>
     </row>
     <row r="216" spans="1:12">
-      <c r="A216" s="161"/>
+      <c r="A216" s="177"/>
       <c r="B216" s="103" t="s">
         <v>252</v>
       </c>
@@ -9772,7 +9772,7 @@
       </c>
     </row>
     <row r="217" spans="1:12">
-      <c r="A217" s="161"/>
+      <c r="A217" s="177"/>
       <c r="B217" s="105" t="s">
         <v>256</v>
       </c>
@@ -9793,7 +9793,7 @@
       </c>
     </row>
     <row r="218" spans="1:12">
-      <c r="A218" s="161"/>
+      <c r="A218" s="177"/>
       <c r="B218" s="111" t="s">
         <v>646</v>
       </c>
@@ -9810,7 +9810,7 @@
       <c r="K218" s="37"/>
     </row>
     <row r="219" spans="1:12" ht="15" customHeight="1">
-      <c r="A219" s="161"/>
+      <c r="A219" s="177"/>
       <c r="B219" s="106" t="s">
         <v>252</v>
       </c>
@@ -9837,12 +9837,12 @@
       <c r="K219" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="L219" s="164" t="s">
+      <c r="L219" s="179" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="220" spans="1:12">
-      <c r="A220" s="161"/>
+      <c r="A220" s="177"/>
       <c r="B220" s="82" t="s">
         <v>264</v>
       </c>
@@ -9873,10 +9873,10 @@
       <c r="K220" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="L220" s="164"/>
+      <c r="L220" s="179"/>
     </row>
     <row r="221" spans="1:12">
-      <c r="A221" s="161"/>
+      <c r="A221" s="177"/>
       <c r="B221" s="90" t="s">
         <v>267</v>
       </c>
@@ -9907,10 +9907,10 @@
       <c r="K221" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="L221" s="164"/>
+      <c r="L221" s="179"/>
     </row>
     <row r="222" spans="1:12">
-      <c r="A222" s="162"/>
+      <c r="A222" s="178"/>
       <c r="B222" s="59" t="s">
         <v>272</v>
       </c>
@@ -9975,7 +9975,7 @@
       </c>
     </row>
     <row r="224" spans="1:12" ht="15" customHeight="1">
-      <c r="A224" s="160" t="s">
+      <c r="A224" s="176" t="s">
         <v>361</v>
       </c>
       <c r="B224" s="56" t="s">
@@ -10005,7 +10005,7 @@
       </c>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="161"/>
+      <c r="A225" s="177"/>
       <c r="B225" s="58" t="s">
         <v>176</v>
       </c>
@@ -10034,7 +10034,7 @@
       </c>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="161"/>
+      <c r="A226" s="177"/>
       <c r="B226" s="59" t="s">
         <v>183</v>
       </c>
@@ -10067,7 +10067,7 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="161"/>
+      <c r="A227" s="177"/>
       <c r="B227" s="62" t="s">
         <v>277</v>
       </c>
@@ -10097,7 +10097,7 @@
       </c>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="161"/>
+      <c r="A228" s="177"/>
       <c r="B228" s="62" t="s">
         <v>187</v>
       </c>
@@ -10127,7 +10127,7 @@
       </c>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="161"/>
+      <c r="A229" s="177"/>
       <c r="B229" s="62" t="s">
         <v>362</v>
       </c>
@@ -10158,7 +10158,7 @@
       </c>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="161"/>
+      <c r="A230" s="177"/>
       <c r="B230" s="66" t="s">
         <v>195</v>
       </c>
@@ -10189,7 +10189,7 @@
       </c>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="161"/>
+      <c r="A231" s="177"/>
       <c r="B231" s="66" t="s">
         <v>201</v>
       </c>
@@ -10220,7 +10220,7 @@
       </c>
     </row>
     <row r="232" spans="1:12">
-      <c r="A232" s="161"/>
+      <c r="A232" s="177"/>
       <c r="B232" s="66" t="s">
         <v>203</v>
       </c>
@@ -10253,7 +10253,7 @@
       </c>
     </row>
     <row r="233" spans="1:12">
-      <c r="A233" s="161"/>
+      <c r="A233" s="177"/>
       <c r="B233" s="66" t="s">
         <v>205</v>
       </c>
@@ -10282,7 +10282,7 @@
       </c>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="161"/>
+      <c r="A234" s="177"/>
       <c r="B234" s="70" t="s">
         <v>206</v>
       </c>
@@ -10310,7 +10310,7 @@
       </c>
     </row>
     <row r="235" spans="1:12">
-      <c r="A235" s="161"/>
+      <c r="A235" s="177"/>
       <c r="B235" s="71" t="s">
         <v>208</v>
       </c>
@@ -10338,7 +10338,7 @@
       </c>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="161"/>
+      <c r="A236" s="177"/>
       <c r="B236" s="70" t="s">
         <v>211</v>
       </c>
@@ -10368,7 +10368,7 @@
       </c>
     </row>
     <row r="237" spans="1:12">
-      <c r="A237" s="161"/>
+      <c r="A237" s="177"/>
       <c r="B237" s="74" t="s">
         <v>644</v>
       </c>
@@ -10396,7 +10396,7 @@
       </c>
     </row>
     <row r="238" spans="1:12">
-      <c r="A238" s="161"/>
+      <c r="A238" s="177"/>
       <c r="B238" s="74" t="s">
         <v>645</v>
       </c>
@@ -10424,7 +10424,7 @@
       </c>
     </row>
     <row r="239" spans="1:12">
-      <c r="A239" s="161"/>
+      <c r="A239" s="177"/>
       <c r="B239" s="72" t="s">
         <v>363</v>
       </c>
@@ -10453,7 +10453,7 @@
       </c>
     </row>
     <row r="240" spans="1:12">
-      <c r="A240" s="161"/>
+      <c r="A240" s="177"/>
       <c r="B240" s="74" t="s">
         <v>367</v>
       </c>
@@ -10482,7 +10482,7 @@
       </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="161"/>
+      <c r="A241" s="177"/>
       <c r="B241" s="72" t="s">
         <v>218</v>
       </c>
@@ -10510,7 +10510,7 @@
       </c>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="161"/>
+      <c r="A242" s="177"/>
       <c r="B242" s="77" t="s">
         <v>224</v>
       </c>
@@ -10540,7 +10540,7 @@
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="161"/>
+      <c r="A243" s="177"/>
       <c r="B243" s="77" t="s">
         <v>228</v>
       </c>
@@ -10570,7 +10570,7 @@
       </c>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="161"/>
+      <c r="A244" s="177"/>
       <c r="B244" s="77" t="s">
         <v>370</v>
       </c>
@@ -10603,7 +10603,7 @@
       </c>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="161"/>
+      <c r="A245" s="177"/>
       <c r="B245" s="77" t="s">
         <v>118</v>
       </c>
@@ -10636,7 +10636,7 @@
       </c>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="161"/>
+      <c r="A246" s="177"/>
       <c r="B246" s="77" t="s">
         <v>119</v>
       </c>
@@ -10669,7 +10669,7 @@
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="161"/>
+      <c r="A247" s="177"/>
       <c r="B247" s="111" t="s">
         <v>371</v>
       </c>
@@ -10699,7 +10699,7 @@
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="161"/>
+      <c r="A248" s="177"/>
       <c r="B248" s="111" t="s">
         <v>242</v>
       </c>
@@ -10729,7 +10729,7 @@
       </c>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="161"/>
+      <c r="A249" s="177"/>
       <c r="B249" s="111" t="s">
         <v>246</v>
       </c>
@@ -10759,7 +10759,7 @@
       </c>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="161"/>
+      <c r="A250" s="177"/>
       <c r="B250" s="111" t="s">
         <v>249</v>
       </c>
@@ -10789,7 +10789,7 @@
       </c>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="161"/>
+      <c r="A251" s="177"/>
       <c r="B251" s="103" t="s">
         <v>252</v>
       </c>
@@ -10818,7 +10818,7 @@
       </c>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="161"/>
+      <c r="A252" s="177"/>
       <c r="B252" s="105" t="s">
         <v>256</v>
       </c>
@@ -10839,7 +10839,7 @@
       </c>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="161"/>
+      <c r="A253" s="177"/>
       <c r="B253" s="111" t="s">
         <v>646</v>
       </c>
@@ -10854,7 +10854,7 @@
       <c r="K253" s="37"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="161"/>
+      <c r="A254" s="177"/>
       <c r="B254" s="106" t="s">
         <v>252</v>
       </c>
@@ -10881,7 +10881,7 @@
       <c r="K254" s="37"/>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="161"/>
+      <c r="A255" s="177"/>
       <c r="B255" s="82" t="s">
         <v>260</v>
       </c>
@@ -10914,7 +10914,7 @@
       </c>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="161"/>
+      <c r="A256" s="177"/>
       <c r="B256" s="82" t="s">
         <v>264</v>
       </c>
@@ -10947,7 +10947,7 @@
       </c>
     </row>
     <row r="257" spans="1:12">
-      <c r="A257" s="161"/>
+      <c r="A257" s="177"/>
       <c r="B257" s="90" t="s">
         <v>267</v>
       </c>
@@ -10980,7 +10980,7 @@
       </c>
     </row>
     <row r="258" spans="1:12">
-      <c r="A258" s="162"/>
+      <c r="A258" s="178"/>
       <c r="B258" s="59" t="s">
         <v>272</v>
       </c>
@@ -11045,7 +11045,7 @@
       </c>
     </row>
     <row r="260" spans="1:12" ht="15" customHeight="1">
-      <c r="A260" s="163" t="s">
+      <c r="A260" s="173" t="s">
         <v>372</v>
       </c>
       <c r="B260" s="114" t="s">
@@ -11073,7 +11073,7 @@
       </c>
     </row>
     <row r="261" spans="1:12">
-      <c r="A261" s="163"/>
+      <c r="A261" s="173"/>
       <c r="B261" s="114" t="s">
         <v>376</v>
       </c>
@@ -11095,7 +11095,7 @@
       </c>
     </row>
     <row r="262" spans="1:12">
-      <c r="A262" s="163"/>
+      <c r="A262" s="173"/>
       <c r="B262" s="114" t="s">
         <v>379</v>
       </c>
@@ -11117,7 +11117,7 @@
       </c>
     </row>
     <row r="263" spans="1:12">
-      <c r="A263" s="163"/>
+      <c r="A263" s="173"/>
       <c r="B263" s="114" t="s">
         <v>127</v>
       </c>
@@ -11143,7 +11143,7 @@
       </c>
     </row>
     <row r="264" spans="1:12">
-      <c r="A264" s="163"/>
+      <c r="A264" s="173"/>
       <c r="B264" s="115" t="s">
         <v>384</v>
       </c>
@@ -11172,7 +11172,7 @@
       </c>
     </row>
     <row r="265" spans="1:12">
-      <c r="A265" s="163"/>
+      <c r="A265" s="173"/>
       <c r="B265" s="115" t="s">
         <v>388</v>
       </c>
@@ -11201,7 +11201,7 @@
       </c>
     </row>
     <row r="266" spans="1:12" ht="15" customHeight="1">
-      <c r="A266" s="163"/>
+      <c r="A266" s="173"/>
       <c r="B266" s="116" t="s">
         <v>391</v>
       </c>
@@ -11227,7 +11227,7 @@
       </c>
     </row>
     <row r="267" spans="1:12">
-      <c r="A267" s="163"/>
+      <c r="A267" s="173"/>
       <c r="B267" s="116" t="s">
         <v>394</v>
       </c>
@@ -11253,7 +11253,7 @@
       </c>
     </row>
     <row r="268" spans="1:12">
-      <c r="A268" s="163"/>
+      <c r="A268" s="173"/>
       <c r="B268" s="116" t="s">
         <v>395</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
     </row>
     <row r="269" spans="1:12">
-      <c r="A269" s="163"/>
+      <c r="A269" s="173"/>
       <c r="B269" s="116" t="s">
         <v>396</v>
       </c>
@@ -11305,7 +11305,7 @@
       </c>
     </row>
     <row r="270" spans="1:12">
-      <c r="A270" s="163"/>
+      <c r="A270" s="173"/>
       <c r="B270" s="116" t="s">
         <v>400</v>
       </c>
@@ -11327,7 +11327,7 @@
       </c>
     </row>
     <row r="271" spans="1:12">
-      <c r="A271" s="163"/>
+      <c r="A271" s="173"/>
       <c r="B271" s="116" t="s">
         <v>401</v>
       </c>
@@ -11388,7 +11388,7 @@
       </c>
     </row>
     <row r="273" spans="1:11" ht="15" customHeight="1">
-      <c r="A273" s="163" t="s">
+      <c r="A273" s="173" t="s">
         <v>402</v>
       </c>
       <c r="B273" s="94" t="s">
@@ -11420,7 +11420,7 @@
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="163"/>
+      <c r="A274" s="173"/>
       <c r="B274" s="94" t="s">
         <v>405</v>
       </c>
@@ -11450,7 +11450,7 @@
       </c>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="163"/>
+      <c r="A275" s="173"/>
       <c r="B275" s="94" t="s">
         <v>127</v>
       </c>
@@ -11476,7 +11476,7 @@
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="163"/>
+      <c r="A276" s="173"/>
       <c r="B276" s="94" t="s">
         <v>408</v>
       </c>
@@ -11505,7 +11505,7 @@
       </c>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="163"/>
+      <c r="A277" s="173"/>
       <c r="B277" s="94" t="s">
         <v>411</v>
       </c>
@@ -11534,7 +11534,7 @@
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="163"/>
+      <c r="A278" s="173"/>
       <c r="B278" s="94" t="s">
         <v>414</v>
       </c>
@@ -11563,7 +11563,7 @@
       </c>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="163"/>
+      <c r="A279" s="173"/>
       <c r="B279" s="94" t="s">
         <v>416</v>
       </c>
@@ -11592,7 +11592,7 @@
       </c>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="163"/>
+      <c r="A280" s="173"/>
       <c r="B280" s="94" t="s">
         <v>417</v>
       </c>
@@ -11621,7 +11621,7 @@
       </c>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="163"/>
+      <c r="A281" s="173"/>
       <c r="B281" s="116" t="s">
         <v>396</v>
       </c>
@@ -11647,7 +11647,7 @@
       </c>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="163"/>
+      <c r="A282" s="173"/>
       <c r="B282" s="116" t="s">
         <v>421</v>
       </c>
@@ -11673,7 +11673,7 @@
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="163"/>
+      <c r="A283" s="173"/>
       <c r="B283" s="116" t="s">
         <v>422</v>
       </c>
@@ -11734,7 +11734,7 @@
       </c>
     </row>
     <row r="285" spans="1:11" ht="15" customHeight="1">
-      <c r="A285" s="163" t="s">
+      <c r="A285" s="173" t="s">
         <v>423</v>
       </c>
       <c r="B285" s="119" t="s">
@@ -11763,7 +11763,7 @@
       </c>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="163"/>
+      <c r="A286" s="173"/>
       <c r="B286" s="94" t="s">
         <v>428</v>
       </c>
@@ -11793,7 +11793,7 @@
       </c>
     </row>
     <row r="287" spans="1:11" ht="15" customHeight="1">
-      <c r="A287" s="163"/>
+      <c r="A287" s="173"/>
       <c r="B287" s="94" t="s">
         <v>429</v>
       </c>
@@ -11823,7 +11823,7 @@
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="163"/>
+      <c r="A288" s="173"/>
       <c r="B288" s="94" t="s">
         <v>127</v>
       </c>
@@ -11849,7 +11849,7 @@
       </c>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="163"/>
+      <c r="A289" s="173"/>
       <c r="B289" s="94" t="s">
         <v>431</v>
       </c>
@@ -11878,7 +11878,7 @@
       </c>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="163"/>
+      <c r="A290" s="173"/>
       <c r="B290" s="94" t="s">
         <v>434</v>
       </c>
@@ -11904,7 +11904,7 @@
       </c>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="163"/>
+      <c r="A291" s="173"/>
       <c r="B291" s="122" t="s">
         <v>435</v>
       </c>
@@ -11933,7 +11933,7 @@
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="163"/>
+      <c r="A292" s="173"/>
       <c r="B292" s="122" t="s">
         <v>437</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="163"/>
+      <c r="A293" s="173"/>
       <c r="B293" s="44" t="s">
         <v>438</v>
       </c>
@@ -11992,7 +11992,7 @@
       </c>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="163"/>
+      <c r="A294" s="173"/>
       <c r="B294" s="44" t="s">
         <v>442</v>
       </c>
@@ -12022,7 +12022,7 @@
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="163"/>
+      <c r="A295" s="173"/>
       <c r="B295" s="123" t="s">
         <v>445</v>
       </c>
@@ -12048,7 +12048,7 @@
       </c>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="163"/>
+      <c r="A296" s="173"/>
       <c r="B296" s="123" t="s">
         <v>422</v>
       </c>
@@ -12074,7 +12074,7 @@
       </c>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="163"/>
+      <c r="A297" s="173"/>
       <c r="B297" s="123" t="s">
         <v>421</v>
       </c>
@@ -12100,7 +12100,7 @@
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="163"/>
+      <c r="A298" s="173"/>
       <c r="B298" s="123" t="s">
         <v>446</v>
       </c>
@@ -12161,7 +12161,7 @@
       </c>
     </row>
     <row r="300" spans="1:11" ht="15" customHeight="1">
-      <c r="A300" s="163" t="s">
+      <c r="A300" s="173" t="s">
         <v>447</v>
       </c>
       <c r="B300" s="94" t="s">
@@ -12193,7 +12193,7 @@
       </c>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="163"/>
+      <c r="A301" s="173"/>
       <c r="B301" s="94" t="s">
         <v>449</v>
       </c>
@@ -12224,7 +12224,7 @@
       <c r="K301" s="17"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="163"/>
+      <c r="A302" s="173"/>
       <c r="B302" s="94" t="s">
         <v>450</v>
       </c>
@@ -12255,7 +12255,7 @@
       <c r="K302" s="17"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="163"/>
+      <c r="A303" s="173"/>
       <c r="B303" s="122" t="s">
         <v>451</v>
       </c>
@@ -12284,7 +12284,7 @@
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="163"/>
+      <c r="A304" s="173"/>
       <c r="B304" s="122" t="s">
         <v>453</v>
       </c>
@@ -12310,7 +12310,7 @@
       </c>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="163"/>
+      <c r="A305" s="173"/>
       <c r="B305" s="122" t="s">
         <v>454</v>
       </c>
@@ -12336,7 +12336,7 @@
       </c>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="163"/>
+      <c r="A306" s="173"/>
       <c r="B306" s="122" t="s">
         <v>446</v>
       </c>
@@ -12397,7 +12397,7 @@
       </c>
     </row>
     <row r="308" spans="1:11" ht="15" customHeight="1">
-      <c r="A308" s="163" t="s">
+      <c r="A308" s="173" t="s">
         <v>455</v>
       </c>
       <c r="B308" s="94" t="s">
@@ -12429,7 +12429,7 @@
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="163"/>
+      <c r="A309" s="173"/>
       <c r="B309" s="94" t="s">
         <v>457</v>
       </c>
@@ -12460,7 +12460,7 @@
       <c r="K309" s="17"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="163"/>
+      <c r="A310" s="173"/>
       <c r="B310" s="94" t="s">
         <v>458</v>
       </c>
@@ -12491,7 +12491,7 @@
       <c r="K310" s="17"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="163"/>
+      <c r="A311" s="173"/>
       <c r="B311" s="122" t="s">
         <v>453</v>
       </c>
@@ -12517,7 +12517,7 @@
       </c>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="163"/>
+      <c r="A312" s="173"/>
       <c r="B312" s="122" t="s">
         <v>454</v>
       </c>
@@ -12543,7 +12543,7 @@
       </c>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="163"/>
+      <c r="A313" s="173"/>
       <c r="B313" s="122" t="s">
         <v>446</v>
       </c>
@@ -12604,7 +12604,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" ht="15" customHeight="1">
-      <c r="A315" s="163" t="s">
+      <c r="A315" s="173" t="s">
         <v>459</v>
       </c>
       <c r="B315" s="94" t="s">
@@ -12632,7 +12632,7 @@
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="163"/>
+      <c r="A316" s="173"/>
       <c r="B316" s="94" t="s">
         <v>461</v>
       </c>
@@ -12697,7 +12697,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" ht="15" customHeight="1">
-      <c r="A318" s="163" t="s">
+      <c r="A318" s="173" t="s">
         <v>462</v>
       </c>
       <c r="B318" s="94" t="s">
@@ -12725,7 +12725,7 @@
       </c>
     </row>
     <row r="319" spans="1:11">
-      <c r="A319" s="163"/>
+      <c r="A319" s="173"/>
       <c r="B319" s="94" t="s">
         <v>464</v>
       </c>
@@ -12763,18 +12763,11 @@
     <row r="325" spans="5:5" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L184:L186"/>
+    <mergeCell ref="L219:L221"/>
+    <mergeCell ref="L55:L77"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="L135:L137"/>
     <mergeCell ref="A318:A319"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="A260:A271"/>
@@ -12787,12 +12780,19 @@
     <mergeCell ref="A189:A222"/>
     <mergeCell ref="A140:A187"/>
     <mergeCell ref="A315:A316"/>
-    <mergeCell ref="L184:L186"/>
-    <mergeCell ref="L219:L221"/>
-    <mergeCell ref="L55:L77"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="L135:L137"/>
     <mergeCell ref="A85:A138"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" scale="65" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\NVT_Data-Model\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B524D-01DC-4C7B-8D38-83E13D5E0216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7A7C32-DA47-4400-A46D-2BB653279CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produktionen" sheetId="1" r:id="rId1"/>
@@ -2282,6 +2282,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2302,25 +2321,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2669,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,7 +2680,7 @@
     <col min="3" max="4" width="35.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="48" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="41" customWidth="1"/>
     <col min="8" max="8" width="24.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="28.7109375" style="4" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="4"/>
@@ -2690,27 +2690,27 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="50" t="s">
         <v>429</v>
       </c>
-      <c r="I1" s="43"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -2752,7 +2752,7 @@
       <c r="F3" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="39" t="s">
         <v>491</v>
       </c>
       <c r="H3" s="11"/>
@@ -2774,7 +2774,7 @@
       <c r="F4" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="39" t="s">
         <v>339</v>
       </c>
       <c r="H4" s="11"/>
@@ -2792,7 +2792,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="47"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="O5" s="7"/>
@@ -2808,7 +2808,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="47"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="O6" s="7"/>
@@ -2824,7 +2824,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="47"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="O7" s="6" t="s">
@@ -2848,7 +2848,7 @@
       <c r="F8" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="40" t="s">
         <v>561</v>
       </c>
       <c r="H8" s="11"/>
@@ -2872,7 +2872,7 @@
       <c r="F9" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="40" t="s">
         <v>260</v>
       </c>
       <c r="H9" s="11"/>
@@ -2893,7 +2893,7 @@
       <c r="F10" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="40" t="s">
         <v>554</v>
       </c>
       <c r="H10" s="11"/>
@@ -2913,7 +2913,7 @@
       <c r="F11" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="40" t="s">
         <v>554</v>
       </c>
       <c r="H11" s="11"/>
@@ -2933,7 +2933,7 @@
       <c r="F12" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="40" t="s">
         <v>555</v>
       </c>
       <c r="H12" s="11"/>
@@ -2953,7 +2953,7 @@
       <c r="F13" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="40" t="s">
         <v>555</v>
       </c>
       <c r="H13" s="11"/>
@@ -2973,7 +2973,7 @@
       <c r="F14" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="40" t="s">
         <v>555</v>
       </c>
       <c r="H14" s="11"/>
@@ -2987,7 +2987,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="47"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
@@ -3006,7 +3006,7 @@
       <c r="F16" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="40" t="s">
         <v>200</v>
       </c>
       <c r="H16" s="11"/>
@@ -3028,7 +3028,7 @@
       <c r="F17" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="40" t="s">
         <v>200</v>
       </c>
       <c r="H17" s="11"/>
@@ -3050,7 +3050,7 @@
       <c r="F18" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="40" t="s">
         <v>200</v>
       </c>
       <c r="H18" s="11"/>
@@ -3072,7 +3072,7 @@
       <c r="F19" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="40" t="s">
         <v>580</v>
       </c>
       <c r="H19" s="11"/>
@@ -3094,7 +3094,7 @@
       <c r="F20" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="40" t="s">
         <v>612</v>
       </c>
       <c r="H20" s="11"/>
@@ -3116,7 +3116,7 @@
       <c r="F21" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="40" t="s">
         <v>210</v>
       </c>
       <c r="H21" s="11"/>
@@ -3138,7 +3138,7 @@
       <c r="F22" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="40" t="s">
         <v>212</v>
       </c>
       <c r="H22" s="11"/>
@@ -3204,7 +3204,7 @@
       <c r="F25" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="40" t="s">
         <v>218</v>
       </c>
       <c r="H25" s="11"/>
@@ -3226,7 +3226,7 @@
       <c r="F26" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="40" t="s">
         <v>200</v>
       </c>
       <c r="H26" s="11"/>
@@ -3248,7 +3248,7 @@
       <c r="F27" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="40" t="s">
         <v>540</v>
       </c>
       <c r="H27" s="11"/>
@@ -3270,7 +3270,7 @@
       <c r="F28" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="40" t="s">
         <v>542</v>
       </c>
       <c r="H28" s="11"/>
@@ -3292,7 +3292,7 @@
       <c r="F29" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="40" t="s">
         <v>531</v>
       </c>
       <c r="H29" s="11"/>
@@ -3314,7 +3314,7 @@
       <c r="F30" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="40" t="s">
         <v>226</v>
       </c>
       <c r="H30" s="11"/>
@@ -3336,7 +3336,7 @@
       <c r="F31" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="40" t="s">
         <v>228</v>
       </c>
       <c r="H31" s="11"/>
@@ -3358,7 +3358,7 @@
       <c r="F32" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="40" t="s">
         <v>230</v>
       </c>
       <c r="H32" s="11"/>
@@ -3380,7 +3380,7 @@
       <c r="F33" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="40" t="s">
         <v>549</v>
       </c>
       <c r="H33" s="11"/>
@@ -3402,7 +3402,7 @@
       <c r="F34" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="40" t="s">
         <v>234</v>
       </c>
       <c r="H34" s="11"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="47"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="O35" s="6" t="s">
@@ -3504,7 +3504,7 @@
       <c r="F39" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="G39" s="47" t="s">
+      <c r="G39" s="40" t="s">
         <v>604</v>
       </c>
       <c r="H39" s="11"/>
@@ -3530,7 +3530,7 @@
       <c r="F40" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="40" t="s">
         <v>605</v>
       </c>
       <c r="H40" s="11"/>
@@ -3552,7 +3552,7 @@
       <c r="F41" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="40" t="s">
         <v>586</v>
       </c>
       <c r="H41" s="11"/>
@@ -3574,7 +3574,7 @@
       <c r="F42" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="40" t="s">
         <v>586</v>
       </c>
       <c r="H42" s="11"/>
@@ -3596,7 +3596,7 @@
       <c r="F43" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="47" t="s">
+      <c r="G43" s="40" t="s">
         <v>586</v>
       </c>
       <c r="H43" s="11"/>
@@ -3604,7 +3604,7 @@
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="42" t="s">
         <v>247</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3620,7 +3620,7 @@
       <c r="F44" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="G44" s="40" t="s">
         <v>559</v>
       </c>
       <c r="H44" s="11"/>
@@ -3628,7 +3628,7 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3644,7 +3644,7 @@
       <c r="F45" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="G45" s="47" t="s">
+      <c r="G45" s="40" t="s">
         <v>198</v>
       </c>
       <c r="H45" s="11"/>
@@ -3652,7 +3652,7 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="42" t="s">
         <v>248</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3668,7 +3668,7 @@
       <c r="F46" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="40" t="s">
         <v>198</v>
       </c>
       <c r="H46" s="11"/>
@@ -3723,13 +3723,13 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -3968,13 +3968,13 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -4192,13 +4192,13 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -4302,7 +4302,7 @@
       <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B7" t="s">
@@ -4371,13 +4371,13 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -4477,7 +4477,7 @@
       <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B7" t="s">
@@ -4532,27 +4532,27 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="I1" s="45"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -5432,7 +5432,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B41" t="s">
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="43" t="s">
         <v>258</v>
       </c>
       <c r="B42" t="s">
@@ -5497,8 +5497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5522,23 +5522,23 @@
         <v>432</v>
       </c>
       <c r="E1" s="21"/>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="24" t="s">
         <v>429</v>
       </c>
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -7218,7 +7218,7 @@
       <c r="I83" s="27"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B84" t="s">
@@ -7244,7 +7244,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="43" t="s">
         <v>286</v>
       </c>
       <c r="B85" t="s">
@@ -7273,7 +7273,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="50" t="s">
+      <c r="A86" s="43" t="s">
         <v>282</v>
       </c>
       <c r="B86" t="s">
@@ -7297,7 +7297,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="43" t="s">
         <v>490</v>
       </c>
       <c r="B87" t="s">
@@ -7326,7 +7326,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="51" t="s">
+      <c r="A88" s="44" t="s">
         <v>560</v>
       </c>
       <c r="B88" t="s">
@@ -7384,23 +7384,23 @@
         <v>432</v>
       </c>
       <c r="E1" s="22"/>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="24" t="s">
         <v>429</v>
       </c>
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -8879,7 +8879,7 @@
       <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B75" t="s">
@@ -8905,7 +8905,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="43" t="s">
         <v>286</v>
       </c>
       <c r="B76" t="s">
@@ -8930,7 +8930,7 @@
       <c r="I76" s="27"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="43" t="s">
         <v>282</v>
       </c>
       <c r="B77" t="s">
@@ -8956,7 +8956,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="43" t="s">
         <v>490</v>
       </c>
       <c r="B78" t="s">
@@ -8985,7 +8985,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="44" t="s">
         <v>560</v>
       </c>
       <c r="B79" t="s">
@@ -9054,13 +9054,13 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -10205,7 +10205,7 @@
       <c r="I58" s="27"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B59" t="s">
@@ -10231,7 +10231,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="43" t="s">
         <v>286</v>
       </c>
       <c r="B60" t="s">
@@ -10256,7 +10256,7 @@
       <c r="I60" s="27"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="43" t="s">
         <v>282</v>
       </c>
       <c r="B61" t="s">
@@ -10282,7 +10282,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="43" t="s">
         <v>490</v>
       </c>
       <c r="B62" t="s">
@@ -10354,13 +10354,13 @@
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -11311,7 +11311,7 @@
       <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B49" t="s">
@@ -11337,7 +11337,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="43" t="s">
         <v>286</v>
       </c>
       <c r="B50" t="s">
@@ -11362,7 +11362,7 @@
       <c r="I50" s="32"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="43" t="s">
         <v>282</v>
       </c>
       <c r="B51" t="s">
@@ -11388,7 +11388,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="43" t="s">
         <v>490</v>
       </c>
       <c r="B52" t="s">
@@ -11460,13 +11460,13 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -11795,7 +11795,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B18" t="s">
@@ -11864,13 +11864,13 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -12188,7 +12188,7 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B17" t="s">
@@ -12257,13 +12257,13 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -12630,7 +12630,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B19" t="s">
@@ -12656,7 +12656,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="43" t="s">
         <v>338</v>
       </c>
       <c r="B20" t="s">

--- a/Mapping/Mapping_Metadatentabelle.xlsx
+++ b/Mapping/Mapping_Metadatentabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\NVT_Data-Model\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7A7C32-DA47-4400-A46D-2BB653279CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0601C68B-0339-45D0-B5DC-2846990D11D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produktionen" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="627">
   <si>
     <t>Identifier / geeinigter Name</t>
   </si>
@@ -2669,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,7 +4512,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F3" sqref="F3:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5497,8 +5497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7360,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9017,10 +9017,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10310,6 +10310,28 @@
         <v>491</v>
       </c>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B63" t="s">
+        <v>568</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10317,10 +10339,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11414,6 +11436,28 @@
       </c>
       <c r="I52" s="32" t="s">
         <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B53" t="s">
+        <v>568</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
